--- a/results/GAIA_TESS_confirmed_matches_unique_stars.xlsx
+++ b/results/GAIA_TESS_confirmed_matches_unique_stars.xlsx
@@ -762,10 +762,10 @@
         <v>116.5804818665035</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1052060645375435</v>
+        <v>0.1191409989463345</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5539871828833434</v>
+        <v>0.6273648450050496</v>
       </c>
       <c r="T2" t="n">
         <v>0.0916058933957714</v>
@@ -783,7 +783,7 @@
         <v>0.1757749513099214</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.5541130297090502</v>
+        <v>0.6275073607107255</v>
       </c>
       <c r="Z2" t="n">
         <v>2.123992763702066</v>
@@ -904,10 +904,10 @@
         <v>143.5781541528725</v>
       </c>
       <c r="R3" t="n">
-        <v>0.09389480630077021</v>
+        <v>0.1117249952005029</v>
       </c>
       <c r="S3" t="n">
-        <v>0.557122294849115</v>
+        <v>0.6629172386673313</v>
       </c>
       <c r="T3" t="n">
         <v>0.07499675172412429</v>
@@ -925,7 +925,7 @@
         <v>0.1988137208558769</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.4945140784284927</v>
+        <v>0.5884200118803723</v>
       </c>
       <c r="Z3" t="n">
         <v>2.18165867208891</v>
@@ -1051,10 +1051,10 @@
         <v>123.5853141391516</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1861566291580734</v>
+        <v>0.1949486545591022</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9974143369044169</v>
+        <v>1.044521400590919</v>
       </c>
       <c r="T4" t="n">
         <v>0.1782164488129691</v>
@@ -1072,7 +1072,7 @@
         <v>0.1834047639562364</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9804623210958296</v>
+        <v>1.026768754934972</v>
       </c>
       <c r="Z4" t="n">
         <v>2.803773182186938</v>
@@ -1174,10 +1174,10 @@
         <v>148.9581530630982</v>
       </c>
       <c r="R5" t="n">
-        <v>0.08712282850864324</v>
+        <v>0.1065227597034867</v>
       </c>
       <c r="S5" t="n">
-        <v>0.528806674259702</v>
+        <v>0.6465578225135085</v>
       </c>
       <c r="T5" t="n">
         <v>0.06567875372171045</v>
@@ -1195,7 +1195,7 @@
         <v>0.2035489670655923</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.4588437311244094</v>
+        <v>0.5610159971696481</v>
       </c>
       <c r="Z5" t="n">
         <v>1.894695104861966</v>
@@ -1307,10 +1307,10 @@
         <v>119.3912679145112</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1185890831857033</v>
+        <v>0.131176010801089</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6350524541841008</v>
+        <v>0.7024562915193739</v>
       </c>
       <c r="T6" t="n">
         <v>0.1066481321356858</v>
@@ -1328,7 +1328,7 @@
         <v>0.1802926127660725</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.6245974822169728</v>
+        <v>0.6908916392019471</v>
       </c>
       <c r="Z6" t="n">
         <v>3.103394082664003</v>
@@ -1449,10 +1449,10 @@
         <v>148.1853644484523</v>
       </c>
       <c r="R7" t="n">
-        <v>0.09911045551862431</v>
+        <v>0.1162450156838691</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6030259508358885</v>
+        <v>0.7072791739871009</v>
       </c>
       <c r="T7" t="n">
         <v>0.08132460400993197</v>
@@ -1470,7 +1470,7 @@
         <v>0.204236757441923</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.5219788697888799</v>
+        <v>0.6122203917613354</v>
       </c>
       <c r="Z7" t="n">
         <v>2.261071033418257</v>
@@ -1590,10 +1590,10 @@
         <v>174.3896400009764</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1172050012735311</v>
+        <v>0.1342425841646198</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7722693527898871</v>
+        <v>0.8845308004195678</v>
       </c>
       <c r="T8" t="n">
         <v>0.09980530887210907</v>
@@ -1611,7 +1611,7 @@
         <v>0.2261996200304402</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.617245699808293</v>
+        <v>0.7069720311114168</v>
       </c>
       <c r="Z8" t="n">
         <v>1.80249488869439</v>
@@ -1737,10 +1737,10 @@
         <v>194.8182740025262</v>
       </c>
       <c r="R9" t="n">
-        <v>0.09016817063164217</v>
+        <v>0.1169538406130027</v>
       </c>
       <c r="S9" t="n">
-        <v>0.5753375742747239</v>
+        <v>0.746249352615619</v>
       </c>
       <c r="T9" t="n">
         <v>0.0558434611736499</v>
@@ -1758,7 +1758,7 @@
         <v>0.2466583937148639</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.4748401096343289</v>
+        <v>0.6158977620351729</v>
       </c>
       <c r="Z9" t="n">
         <v>1.520978269957896</v>
@@ -1881,10 +1881,10 @@
         <v>146.9336075505121</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1086914762506405</v>
+        <v>0.1259726296981117</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6169415394582818</v>
+        <v>0.7150307528839287</v>
       </c>
       <c r="T10" t="n">
         <v>0.09081263582502884</v>
@@ -1902,7 +1902,7 @@
         <v>0.2105365797803334</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.5724399443835855</v>
+        <v>0.6634537281649641</v>
       </c>
       <c r="Z10" t="n">
         <v>2.803773182186938</v>
@@ -2020,10 +2020,10 @@
         <v>139.7918479069546</v>
       </c>
       <c r="R11" t="n">
-        <v>0.115013101596525</v>
+        <v>0.1292568272114195</v>
       </c>
       <c r="S11" t="n">
-        <v>0.6752458861511711</v>
+        <v>0.7588712904869691</v>
       </c>
       <c r="T11" t="n">
         <v>0.1011393669587963</v>
@@ -2041,7 +2041,7 @@
         <v>0.2039448537235887</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.6057415500313217</v>
+        <v>0.6807592333423486</v>
       </c>
       <c r="Z11" t="n">
         <v>2.826590984171109</v>
@@ -2161,10 +2161,10 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1000198628851826</v>
+        <v>0.1166876592722171</v>
       </c>
       <c r="S12" t="n">
-        <v>0.6183200545458888</v>
+        <v>0.7213599155685112</v>
       </c>
       <c r="T12" t="n">
         <v>0.08297734075292265</v>
@@ -2182,7 +2182,7 @@
         <v>0.2145593731022121</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.526766081350211</v>
+        <v>0.614548943016602</v>
       </c>
       <c r="Z12" t="n">
         <v>2.559518810463633</v>
@@ -2300,10 +2300,10 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1437467821986166</v>
+        <v>0.1558049236940696</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8886386728191763</v>
+        <v>0.9631817734805855</v>
       </c>
       <c r="T13" t="n">
         <v>0.1324552886800389</v>
@@ -2321,7 +2321,7 @@
         <v>0.2145593731022121</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.7570589179110462</v>
+        <v>0.8205645033087953</v>
       </c>
       <c r="Z13" t="n">
         <v>2.559518810463633</v>
@@ -2423,10 +2423,10 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2394502601684533</v>
+        <v>0.2468774269745986</v>
       </c>
       <c r="S14" t="n">
-        <v>1.48027495396936</v>
+        <v>1.526189495863593</v>
       </c>
       <c r="T14" t="n">
         <v>0.2328469308399745</v>
@@ -2444,7 +2444,7 @@
         <v>0.2145593731022121</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.261092262964008</v>
+        <v>1.300208288932757</v>
       </c>
       <c r="Z14" t="n">
         <v>2.559518810463633</v>
@@ -2546,10 +2546,10 @@
         <v>160.8307028507757</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1021745698825255</v>
+        <v>0.1197899183364105</v>
       </c>
       <c r="S15" t="n">
-        <v>0.6456701295358465</v>
+        <v>0.7569865200145717</v>
       </c>
       <c r="T15" t="n">
         <v>0.08387142815650195</v>
@@ -2567,7 +2567,7 @@
         <v>0.2236063817886191</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.5381038016656576</v>
+        <v>0.6308752807293725</v>
       </c>
       <c r="Z15" t="n">
         <v>2.022947799631273</v>
@@ -2685,10 +2685,10 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R16" t="n">
-        <v>0.08210784146231727</v>
+        <v>0.1017533020813543</v>
       </c>
       <c r="S16" t="n">
-        <v>0.507588428409517</v>
+        <v>0.62903612820777</v>
       </c>
       <c r="T16" t="n">
         <v>0.06019106027025059</v>
@@ -2706,7 +2706,7 @@
         <v>0.2145593731022121</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.4324303658052379</v>
+        <v>0.5358954377228989</v>
       </c>
       <c r="Z16" t="n">
         <v>2.559518810463633</v>
@@ -2829,10 +2829,10 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1113290243768988</v>
+        <v>0.1265155663290903</v>
       </c>
       <c r="S17" t="n">
-        <v>0.688232981325777</v>
+        <v>0.7821157679780828</v>
       </c>
       <c r="T17" t="n">
         <v>0.09630897037954482</v>
@@ -2850,7 +2850,7 @@
         <v>0.2145593731022121</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.5863270776413846</v>
+        <v>0.6663087429092102</v>
       </c>
       <c r="Z17" t="n">
         <v>2.559518810463633</v>
@@ -2962,10 +2962,10 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1577355276030682</v>
+        <v>0.1687973149166674</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9751167140002389</v>
+        <v>1.043500380382299</v>
       </c>
       <c r="T18" t="n">
         <v>0.1475186861894933</v>
@@ -2983,7 +2983,7 @@
         <v>0.2145593731022121</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.8307322502587191</v>
+        <v>0.8889904220640855</v>
       </c>
       <c r="Z18" t="n">
         <v>2.559518810463633</v>
@@ -3090,10 +3090,10 @@
         <v>192.4198323261162</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1003944182929849</v>
+        <v>0.1201171768702458</v>
       </c>
       <c r="S19" t="n">
-        <v>0.7149622517816325</v>
+        <v>0.8554185453037726</v>
       </c>
       <c r="T19" t="n">
         <v>0.07919306793699592</v>
@@ -3111,7 +3111,7 @@
         <v>0.2505004184883252</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.5286957778228331</v>
+        <v>0.6325595121231445</v>
       </c>
       <c r="Z19" t="n">
         <v>1.615091729727736</v>
@@ -3232,10 +3232,10 @@
         <v>159.4294446065069</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1309527769714229</v>
+        <v>0.1447958976737194</v>
       </c>
       <c r="S20" t="n">
-        <v>0.827936617866505</v>
+        <v>0.9154584467275934</v>
       </c>
       <c r="T20" t="n">
         <v>0.1176391127417782</v>
@@ -3253,7 +3253,7 @@
         <v>0.2257669438705284</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.6896664538064975</v>
+        <v>0.7625716352403478</v>
       </c>
       <c r="Z20" t="n">
         <v>2.574200330803404</v>
@@ -3379,10 +3379,10 @@
         <v>223.5114462271911</v>
       </c>
       <c r="R21" t="n">
-        <v>0.118057077787859</v>
+        <v>0.1385955025759007</v>
       </c>
       <c r="S21" t="n">
-        <v>0.8753523868377824</v>
+        <v>1.027637700831464</v>
       </c>
       <c r="T21" t="n">
         <v>0.09620372073824321</v>
@@ -3400,7 +3400,7 @@
         <v>0.2812972518583494</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.621669530030985</v>
+        <v>0.7298215622920419</v>
       </c>
       <c r="Z21" t="n">
         <v>1.512440288547218</v>
@@ -3510,10 +3510,10 @@
         <v>210.4590335190624</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1202867586243061</v>
+        <v>0.1390786130084794</v>
       </c>
       <c r="S22" t="n">
-        <v>0.875171902031633</v>
+        <v>1.011896036360207</v>
       </c>
       <c r="T22" t="n">
         <v>0.100842314911554</v>
@@ -3531,7 +3531,7 @@
         <v>0.2721122834265374</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.6334286557714266</v>
+        <v>0.7323863398769322</v>
       </c>
       <c r="Z22" t="n">
         <v>1.491895444294793</v>
@@ -3649,10 +3649,10 @@
         <v>181.41725770758</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1971511757997039</v>
+        <v>0.2072240811668925</v>
       </c>
       <c r="S23" t="n">
-        <v>1.363588110235716</v>
+        <v>1.433256951613473</v>
       </c>
       <c r="T23" t="n">
         <v>0.1879715944979403</v>
@@ -3670,7 +3670,7 @@
         <v>0.2479913943179192</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.038257993184975</v>
+        <v>1.0913049733496</v>
       </c>
       <c r="Z23" t="n">
         <v>2.304468294889742</v>
@@ -3782,10 +3782,10 @@
         <v>243.1186016090445</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1360716686275449</v>
+        <v>0.1552276708554674</v>
       </c>
       <c r="S24" t="n">
-        <v>1.062517379532015</v>
+        <v>1.212097270003068</v>
       </c>
       <c r="T24" t="n">
         <v>0.1164195608522771</v>
@@ -3803,7 +3803,7 @@
         <v>0.2987281500650054</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.7164996126198169</v>
+        <v>0.8173675472463819</v>
       </c>
       <c r="Z24" t="n">
         <v>0.9846428398495232</v>
@@ -3918,10 +3918,10 @@
         <v>223.2732531490377</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1467702622492835</v>
+        <v>0.1632070590053969</v>
       </c>
       <c r="S25" t="n">
-        <v>1.102069793773004</v>
+        <v>1.225490553085486</v>
       </c>
       <c r="T25" t="n">
         <v>0.1305567031758335</v>
@@ -3939,7 +3939,7 @@
         <v>0.2871845217458356</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.7728689351940612</v>
+        <v>0.8594225013743972</v>
       </c>
       <c r="Z25" t="n">
         <v>1.715168075731323</v>
@@ -4059,10 +4059,10 @@
         <v>236.2062132450272</v>
       </c>
       <c r="R26" t="n">
-        <v>0.08136016645899993</v>
+        <v>0.109409715095083</v>
       </c>
       <c r="S26" t="n">
-        <v>0.6292229239426154</v>
+        <v>0.8461524089254281</v>
       </c>
       <c r="T26" t="n">
         <v>0.04342301811504145</v>
@@ -4080,7 +4080,7 @@
         <v>0.2981269094853483</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.4284172923636057</v>
+        <v>0.5761174778683598</v>
       </c>
       <c r="Z26" t="n">
         <v>1.868830615026467</v>
@@ -4206,10 +4206,10 @@
         <v>216.2965707883208</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1212322885734345</v>
+        <v>0.1395924238722066</v>
       </c>
       <c r="S27" t="n">
-        <v>0.911115076485882</v>
+        <v>1.04909973613288</v>
       </c>
       <c r="T27" t="n">
         <v>0.1024693174642039</v>
@@ -4227,7 +4227,7 @@
         <v>0.2828743267539057</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.6383997715794985</v>
+        <v>0.7350828113771426</v>
       </c>
       <c r="Z27" t="n">
         <v>1.59132900191973</v>
@@ -4340,10 +4340,10 @@
         <v>211.3009407922477</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1338481516811148</v>
+        <v>0.1506385027407889</v>
       </c>
       <c r="S28" t="n">
-        <v>0.983414157853958</v>
+        <v>1.106776854611701</v>
       </c>
       <c r="T28" t="n">
         <v>0.1171531502028852</v>
@@ -4361,7 +4361,7 @@
         <v>0.2796120325720114</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.7048415208549464</v>
+        <v>0.7932591525364373</v>
       </c>
       <c r="Z28" t="n">
         <v>2.032094901061378</v>
@@ -4474,10 +4474,10 @@
         <v>203.1306574639146</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1470537097125305</v>
+        <v>0.1618128878235748</v>
       </c>
       <c r="S29" t="n">
-        <v>1.065243911131356</v>
+        <v>1.172158076349136</v>
       </c>
       <c r="T29" t="n">
         <v>0.1328220174039462</v>
@@ -4495,7 +4495,7 @@
         <v>0.2729424054078003</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.7743951381043302</v>
+        <v>0.8521180040826958</v>
       </c>
       <c r="Z29" t="n">
         <v>2.005730181042971</v>
@@ -4610,10 +4610,10 @@
         <v>244.5347925117613</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1665562639737019</v>
+        <v>0.1827521121227282</v>
       </c>
       <c r="S30" t="n">
-        <v>1.292096499584023</v>
+        <v>1.417739319625037</v>
       </c>
       <c r="T30" t="n">
         <v>0.1507210696209442</v>
@@ -4631,7 +4631,7 @@
         <v>0.3073329685458401</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.8770165492445146</v>
+        <v>0.9622972016611058</v>
       </c>
       <c r="Z30" t="n">
         <v>1.067981697722314</v>
@@ -4746,10 +4746,10 @@
         <v>236.5612673579149</v>
       </c>
       <c r="R31" t="n">
-        <v>0.07467763831143884</v>
+        <v>0.1035738450874326</v>
       </c>
       <c r="S31" t="n">
-        <v>0.5896586482740451</v>
+        <v>0.8178246510166601</v>
       </c>
       <c r="T31" t="n">
         <v>0.03236366419604936</v>
@@ -4767,7 +4767,7 @@
         <v>0.3006488573105169</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.3932288618688264</v>
+        <v>0.5453871619942572</v>
       </c>
       <c r="Z31" t="n">
         <v>2.04967100115046</v>
@@ -4898,10 +4898,10 @@
         <v>245.5303446356583</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1112507227741511</v>
+        <v>0.1319948415826243</v>
       </c>
       <c r="S32" t="n">
-        <v>0.9230173247763513</v>
+        <v>1.095125699175951</v>
       </c>
       <c r="T32" t="n">
         <v>0.08923218482851709</v>
@@ -4919,7 +4919,7 @@
         <v>0.3064149260123588</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.5857990321034164</v>
+        <v>0.6950287469027644</v>
       </c>
       <c r="Z32" t="n">
         <v>2.455633413713854</v>
@@ -5045,10 +5045,10 @@
         <v>220.9488316052588</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1325205970114299</v>
+        <v>0.1498632051209512</v>
       </c>
       <c r="S33" t="n">
-        <v>1.002327292116447</v>
+        <v>1.133499123640524</v>
       </c>
       <c r="T33" t="n">
         <v>0.1151930164008232</v>
@@ -5066,7 +5066,7 @@
         <v>0.2910348595471279</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.6978360313138202</v>
+        <v>0.7891599242686297</v>
       </c>
       <c r="Z33" t="n">
         <v>2.023241853551796</v>
@@ -5173,10 +5173,10 @@
         <v>197.6108576999949</v>
       </c>
       <c r="R34" t="n">
-        <v>0.07122788044864736</v>
+        <v>0.09666948165170583</v>
       </c>
       <c r="S34" t="n">
-        <v>0.5190580025232407</v>
+        <v>0.7044582505479338</v>
       </c>
       <c r="T34" t="n">
         <v>0.03707916719312158</v>
@@ -5194,7 +5194,7 @@
         <v>0.2713711300321883</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.3750953282808846</v>
+        <v>0.5090741255600304</v>
       </c>
       <c r="Z34" t="n">
         <v>2.692255921705275</v>
@@ -5317,10 +5317,10 @@
         <v>246.2817831412347</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1108261161635837</v>
+        <v>0.1332002819834189</v>
       </c>
       <c r="S35" t="n">
-        <v>0.881237611845791</v>
+        <v>1.059146548264805</v>
       </c>
       <c r="T35" t="n">
         <v>0.08639088293364906</v>
@@ -5338,7 +5338,7 @@
         <v>0.3116117503205977</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.5835622081586779</v>
+        <v>0.7013748507334583</v>
       </c>
       <c r="Z35" t="n">
         <v>1.734339392273204</v>
@@ -5454,10 +5454,10 @@
         <v>233.8618542705035</v>
       </c>
       <c r="R36" t="n">
-        <v>0.06543694775330067</v>
+        <v>0.09541583882557886</v>
       </c>
       <c r="S36" t="n">
-        <v>0.5287835165023308</v>
+        <v>0.7710372276901359</v>
       </c>
       <c r="T36" t="n">
         <v>0.009040132638104891</v>
@@ -5475,7 +5475,7 @@
         <v>0.3009235992525693</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.3445724217934625</v>
+        <v>0.5024327660503699</v>
       </c>
       <c r="Z36" t="n">
         <v>2.216291768419251</v>
@@ -5606,10 +5606,10 @@
         <v>233.2035643020673</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1160915137304287</v>
+        <v>0.1350409959040313</v>
       </c>
       <c r="S37" t="n">
-        <v>0.9416408367405514</v>
+        <v>1.095343770541425</v>
       </c>
       <c r="T37" t="n">
         <v>0.09665232098183901</v>
@@ -5627,7 +5627,7 @@
         <v>0.3016979981793136</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.6113059231773322</v>
+        <v>0.7110886749189029</v>
       </c>
       <c r="Z37" t="n">
         <v>2.289994311244139</v>
@@ -5742,10 +5742,10 @@
         <v>241.8957201783957</v>
       </c>
       <c r="R38" t="n">
-        <v>0.09326063843325041</v>
+        <v>0.1166309701176995</v>
       </c>
       <c r="S38" t="n">
-        <v>0.7721111402764453</v>
+        <v>0.9655956986995977</v>
       </c>
       <c r="T38" t="n">
         <v>0.06653844632620748</v>
@@ -5763,7 +5763,7 @@
         <v>0.3083829167232157</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4910750455166217</v>
+        <v>0.6141343220611795</v>
       </c>
       <c r="Z38" t="n">
         <v>2.341201099767554</v>
@@ -5894,10 +5894,10 @@
         <v>221.3691085162</v>
       </c>
       <c r="R39" t="n">
-        <v>0.08060099511648956</v>
+        <v>0.1051845472961925</v>
       </c>
       <c r="S39" t="n">
-        <v>0.6338468422935803</v>
+        <v>0.8271720847294067</v>
       </c>
       <c r="T39" t="n">
         <v>0.05038807656028661</v>
@@ -5915,7 +5915,7 @@
         <v>0.293826991436123</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.4244338454065625</v>
+        <v>0.5538874777135112</v>
       </c>
       <c r="Z39" t="n">
         <v>2.292449366349665</v>
@@ -6046,10 +6046,10 @@
         <v>240.5275916812512</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1173787633784779</v>
+        <v>0.1365072101838309</v>
       </c>
       <c r="S40" t="n">
-        <v>0.9711605773855895</v>
+        <v>1.129424243736178</v>
       </c>
       <c r="T40" t="n">
         <v>0.0977544105804334</v>
@@ -6067,7 +6067,7 @@
         <v>0.3081267813116271</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.6180738720862003</v>
+        <v>0.7187973150982707</v>
       </c>
       <c r="Z40" t="n">
         <v>2.286399926785486</v>
@@ -6182,10 +6182,10 @@
         <v>239.9191547480468</v>
       </c>
       <c r="R41" t="n">
-        <v>0.1127681731538482</v>
+        <v>0.1326197361239917</v>
       </c>
       <c r="S41" t="n">
-        <v>0.9284749654172852</v>
+        <v>1.091922494331644</v>
       </c>
       <c r="T41" t="n">
         <v>0.09209382796657775</v>
@@ -6203,7 +6203,7 @@
         <v>0.3088865340670015</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.593797014321359</v>
+        <v>0.6983282707176269</v>
       </c>
       <c r="Z41" t="n">
         <v>2.35945338299386</v>
@@ -6329,10 +6329,10 @@
         <v>250.6019727385533</v>
       </c>
       <c r="R42" t="n">
-        <v>0.112184696985783</v>
+        <v>0.1328678561446822</v>
       </c>
       <c r="S42" t="n">
-        <v>0.9440682706116058</v>
+        <v>1.11812333179701</v>
       </c>
       <c r="T42" t="n">
         <v>0.09038866959364622</v>
@@ -6350,7 +6350,7 @@
         <v>0.3183834254537469</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.5907098958650572</v>
+        <v>0.6996173237155958</v>
       </c>
       <c r="Z42" t="n">
         <v>2.396579956797735</v>
@@ -6476,10 +6476,10 @@
         <v>284.7269284419845</v>
       </c>
       <c r="R43" t="n">
-        <v>0.08879658094946673</v>
+        <v>0.1178332541762232</v>
       </c>
       <c r="S43" t="n">
-        <v>0.7745100683899887</v>
+        <v>1.02777652894742</v>
       </c>
       <c r="T43" t="n">
         <v>0.0509378999093523</v>
@@ -6497,7 +6497,7 @@
         <v>0.3477246405209058</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4675200425938125</v>
+        <v>0.6204001034993255</v>
       </c>
       <c r="Z43" t="n">
         <v>1.522654873611859</v>
@@ -6618,10 +6618,10 @@
         <v>272.3753650437538</v>
       </c>
       <c r="R44" t="n">
-        <v>0.1252006609613019</v>
+        <v>0.1471498731559998</v>
       </c>
       <c r="S44" t="n">
-        <v>1.044931162723233</v>
+        <v>1.228120417822723</v>
       </c>
       <c r="T44" t="n">
         <v>0.1019461794085843</v>
@@ -6639,7 +6639,7 @@
         <v>0.3407088993809207</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.6592106835165289</v>
+        <v>0.7747784054632079</v>
       </c>
       <c r="Z44" t="n">
         <v>1.603979339453181</v>
@@ -6759,10 +6759,10 @@
         <v>261.5081023268528</v>
       </c>
       <c r="R45" t="n">
-        <v>0.08975618031180357</v>
+        <v>0.1158580281907298</v>
       </c>
       <c r="S45" t="n">
-        <v>0.7629835242902443</v>
+        <v>0.9848655140982702</v>
       </c>
       <c r="T45" t="n">
         <v>0.05801495270819769</v>
@@ -6780,7 +6780,7 @@
         <v>0.3308071233737307</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.4725998949923604</v>
+        <v>0.6100358968791835</v>
       </c>
       <c r="Z45" t="n">
         <v>2.006261918046037</v>
@@ -6906,10 +6906,10 @@
         <v>276.4550819193612</v>
       </c>
       <c r="R46" t="n">
-        <v>0.09949411223718689</v>
+        <v>0.1263097401698534</v>
       </c>
       <c r="S46" t="n">
-        <v>0.8368861927119914</v>
+        <v>1.062443547425116</v>
       </c>
       <c r="T46" t="n">
         <v>0.06743485322915323</v>
@@ -6927,7 +6927,7 @@
         <v>0.3446231185346338</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.5238543360736444</v>
+        <v>0.6650434240628579</v>
       </c>
       <c r="Z46" t="n">
         <v>1.712978134497722</v>
@@ -7053,10 +7053,10 @@
         <v>261.1434661768174</v>
       </c>
       <c r="R47" t="n">
-        <v>0.09729837565750728</v>
+        <v>0.1212170007237646</v>
       </c>
       <c r="S47" t="n">
-        <v>0.8383402684482589</v>
+        <v>1.044427435098838</v>
       </c>
       <c r="T47" t="n">
         <v>0.07010762510326199</v>
@@ -7074,7 +7074,7 @@
         <v>0.3298735097333443</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.5123128317240973</v>
+        <v>0.6382534597750217</v>
       </c>
       <c r="Z47" t="n">
         <v>2.292339313053484</v>
@@ -7195,10 +7195,10 @@
         <v>226.7830462246382</v>
       </c>
       <c r="R48" t="n">
-        <v>0.1351487028982096</v>
+        <v>0.1523928891815237</v>
       </c>
       <c r="S48" t="n">
-        <v>1.036640176414866</v>
+        <v>1.168909417092146</v>
       </c>
       <c r="T48" t="n">
         <v>0.1180599806946554</v>
@@ -7216,7 +7216,7 @@
         <v>0.3063513533951608</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.7116661010515561</v>
+        <v>0.8024705450076025</v>
       </c>
       <c r="Z48" t="n">
         <v>1.79128132766431</v>
@@ -7323,10 +7323,10 @@
         <v>247.8850510880222</v>
       </c>
       <c r="R49" t="n">
-        <v>0.07342168557061159</v>
+        <v>0.1034076545187335</v>
       </c>
       <c r="S49" t="n">
-        <v>0.5943399471497415</v>
+        <v>0.8370728544829681</v>
       </c>
       <c r="T49" t="n">
         <v>0.02737494789486376</v>
@@ -7344,7 +7344,7 @@
         <v>0.3226464862227462</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.386605262779193</v>
+        <v>0.544497761634022</v>
       </c>
       <c r="Z49" t="n">
         <v>1.717218532617633</v>
@@ -7472,10 +7472,10 @@
         <v>282.6991534676158</v>
       </c>
       <c r="R50" t="n">
-        <v>0.09433536680758654</v>
+        <v>0.1227645158137763</v>
       </c>
       <c r="S50" t="n">
-        <v>0.8030376340724319</v>
+        <v>1.045043122885428</v>
       </c>
       <c r="T50" t="n">
         <v>0.05866844777783781</v>
@@ -7493,7 +7493,7 @@
         <v>0.3502653555156119</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.4966847187656463</v>
+        <v>0.6463669043205811</v>
       </c>
       <c r="Z50" t="n">
         <v>1.684895029872989</v>
@@ -7619,10 +7619,10 @@
         <v>296.3069521563592</v>
       </c>
       <c r="R51" t="n">
-        <v>0.08838671485562914</v>
+        <v>0.1186242022993215</v>
       </c>
       <c r="S51" t="n">
-        <v>0.7834968123457137</v>
+        <v>1.051534549285856</v>
       </c>
       <c r="T51" t="n">
         <v>0.04782403089763312</v>
@@ -7640,7 +7640,7 @@
         <v>0.3598173993901568</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.4653479632256117</v>
+        <v>0.6245455668243621</v>
       </c>
       <c r="Z51" t="n">
         <v>1.422152235494093</v>
@@ -7766,10 +7766,10 @@
         <v>264.2461340196743</v>
       </c>
       <c r="R52" t="n">
-        <v>0.1170986252010214</v>
+        <v>0.1378231216919157</v>
       </c>
       <c r="S52" t="n">
-        <v>1.014112396663402</v>
+        <v>1.193593315162176</v>
       </c>
       <c r="T52" t="n">
         <v>0.09546315865152941</v>
@@ -7787,7 +7787,7 @@
         <v>0.3348516321525572</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.6165639825183389</v>
+        <v>0.725685486465779</v>
       </c>
       <c r="Z52" t="n">
         <v>2.498153280108286</v>
@@ -7907,10 +7907,10 @@
         <v>279.504547968916</v>
       </c>
       <c r="R53" t="n">
-        <v>0.1072555900564312</v>
+        <v>0.1308672370657898</v>
       </c>
       <c r="S53" t="n">
-        <v>0.9502595130780415</v>
+        <v>1.159453198724437</v>
       </c>
       <c r="T53" t="n">
         <v>0.08117558902076485</v>
@@ -7928,7 +7928,7 @@
         <v>0.346989379372882</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.564715540287418</v>
+        <v>0.6890341328283782</v>
       </c>
       <c r="Z53" t="n">
         <v>1.955642022129342</v>
@@ -8048,10 +8048,10 @@
         <v>286.2091809776647</v>
       </c>
       <c r="R54" t="n">
-        <v>0.1062103117411154</v>
+        <v>0.1303548245517027</v>
       </c>
       <c r="S54" t="n">
-        <v>0.9558313030621751</v>
+        <v>1.173117937130224</v>
       </c>
       <c r="T54" t="n">
         <v>0.0792893133015671</v>
@@ -8069,7 +8069,7 @@
         <v>0.3518011363871398</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.5592023781496761</v>
+        <v>0.6863243944738135</v>
       </c>
       <c r="Z54" t="n">
         <v>1.9472850095372</v>
@@ -8189,10 +8189,10 @@
         <v>281.169361439991</v>
       </c>
       <c r="R55" t="n">
-        <v>0.08395672474364009</v>
+        <v>0.1134842454380134</v>
       </c>
       <c r="S55" t="n">
-        <v>0.7330006649199503</v>
+        <v>0.990796480186705</v>
       </c>
       <c r="T55" t="n">
         <v>0.04397405077952542</v>
@@ -8210,7 +8210,7 @@
         <v>0.3503361830308205</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.4420419090615782</v>
+        <v>0.5975077357413495</v>
       </c>
       <c r="Z55" t="n">
         <v>1.855505169143659</v>
@@ -8341,10 +8341,10 @@
         <v>281.9962024540009</v>
       </c>
       <c r="R56" t="n">
-        <v>0.09733668916242537</v>
+        <v>0.1231570070695976</v>
       </c>
       <c r="S56" t="n">
-        <v>0.8639303084137652</v>
+        <v>1.093103453759415</v>
       </c>
       <c r="T56" t="n">
         <v>0.06704738717279303</v>
@@ -8362,7 +8362,7 @@
         <v>0.3499440493483648</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.5124878915268271</v>
+        <v>0.6484345771667906</v>
       </c>
       <c r="Z56" t="n">
         <v>1.927435373758564</v>
@@ -8483,10 +8483,10 @@
         <v>313.4189294926919</v>
       </c>
       <c r="R57" t="n">
-        <v>0.09537491308605955</v>
+        <v>0.1262102652201549</v>
       </c>
       <c r="S57" t="n">
-        <v>0.8524301594563006</v>
+        <v>1.12802657455175</v>
       </c>
       <c r="T57" t="n">
         <v>0.05507052658976632</v>
@@ -8504,7 +8504,7 @@
         <v>0.3760884677454025</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.5021168668471537</v>
+        <v>0.6644546336740544</v>
       </c>
       <c r="Z57" t="n">
         <v>1.53729142860205</v>
@@ -8635,10 +8635,10 @@
         <v>299.0196112052213</v>
       </c>
       <c r="R58" t="n">
-        <v>0.08230956394243238</v>
+        <v>0.1133297648917236</v>
       </c>
       <c r="S58" t="n">
-        <v>0.7483391140097946</v>
+        <v>1.030367454131169</v>
       </c>
       <c r="T58" t="n">
         <v>0.03809347588398587</v>
@@ -8656,7 +8656,7 @@
         <v>0.364881865814434</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.4333491869782938</v>
+        <v>0.5966665248113605</v>
       </c>
       <c r="Z58" t="n">
         <v>1.504115270314607</v>
@@ -8782,10 +8782,10 @@
         <v>324.3222004990405</v>
       </c>
       <c r="R59" t="n">
-        <v>0.09226631047164192</v>
+        <v>0.1246125851126906</v>
       </c>
       <c r="S59" t="n">
-        <v>0.8412757579807505</v>
+        <v>1.136206123976749</v>
       </c>
       <c r="T59" t="n">
         <v>0.04784148112587717</v>
@@ -8803,7 +8803,7 @@
         <v>0.3860284161342277</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.4857362295136108</v>
+        <v>0.6560232758107936</v>
       </c>
       <c r="Z59" t="n">
         <v>1.487628722123143</v>
@@ -8929,10 +8929,10 @@
         <v>284.2965375967033</v>
       </c>
       <c r="R60" t="n">
-        <v>0.09196320230661946</v>
+        <v>0.1185035355118447</v>
       </c>
       <c r="S60" t="n">
-        <v>0.8314811472212714</v>
+        <v>1.07144437324659</v>
       </c>
       <c r="T60" t="n">
         <v>0.05992897107768662</v>
@@ -8950,7 +8950,7 @@
         <v>0.3528832279566004</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.4841930568875937</v>
+        <v>0.6239298727349506</v>
       </c>
       <c r="Z60" t="n">
         <v>2.186029692156958</v>
@@ -9081,10 +9081,10 @@
         <v>326.6060612754891</v>
       </c>
       <c r="R61" t="n">
-        <v>0.1101110123717221</v>
+        <v>0.1371289869466064</v>
       </c>
       <c r="S61" t="n">
-        <v>1.039456481753276</v>
+        <v>1.2945082535134</v>
       </c>
       <c r="T61" t="n">
         <v>0.07895525160231284</v>
@@ -9102,7 +9102,7 @@
         <v>0.3853326457754347</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.5796759246646576</v>
+        <v>0.721911193026284</v>
       </c>
       <c r="Z61" t="n">
         <v>1.437246979151355</v>
@@ -9217,10 +9217,10 @@
         <v>277.3751454749433</v>
       </c>
       <c r="R62" t="n">
-        <v>0.07965289192139138</v>
+        <v>0.1084617625363631</v>
       </c>
       <c r="S62" t="n">
-        <v>0.7135939999775276</v>
+        <v>0.9716867913511416</v>
       </c>
       <c r="T62" t="n">
         <v>0.04048975988998884</v>
@@ -9238,7 +9238,7 @@
         <v>0.3499869310089186</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.4193857783481348</v>
+        <v>0.5710692933436008</v>
       </c>
       <c r="Z62" t="n">
         <v>2.146171637580412</v>
@@ -9369,10 +9369,10 @@
         <v>293.1570591856556</v>
       </c>
       <c r="R63" t="n">
-        <v>0.07762839002254922</v>
+        <v>0.1110624764441658</v>
       </c>
       <c r="S63" t="n">
-        <v>0.6755197745581406</v>
+        <v>0.9664621284511855</v>
       </c>
       <c r="T63" t="n">
         <v>0.02163276563805056</v>
@@ -9390,7 +9390,7 @@
         <v>0.3674932885853415</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.4087097736001022</v>
+        <v>0.5847386450984787</v>
       </c>
       <c r="Z63" t="n">
         <v>1.674830976344968</v>
@@ -9521,10 +9521,10 @@
         <v>305.6082139027802</v>
       </c>
       <c r="R64" t="n">
-        <v>0.08874267817403532</v>
+        <v>0.117882549347667</v>
       </c>
       <c r="S64" t="n">
-        <v>0.8278989645558485</v>
+        <v>1.099750903987163</v>
       </c>
       <c r="T64" t="n">
         <v>0.05115782585788043</v>
@@ -9542,7 +9542,7 @@
         <v>0.373258717415179</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.4672103989541477</v>
+        <v>0.6206253185467849</v>
       </c>
       <c r="Z64" t="n">
         <v>1.846134514880247</v>
@@ -9668,10 +9668,10 @@
         <v>315.1317766644796</v>
       </c>
       <c r="R65" t="n">
-        <v>0.08436981073084752</v>
+        <v>0.1170302998027779</v>
       </c>
       <c r="S65" t="n">
-        <v>0.7727959666994614</v>
+        <v>1.07195385275587</v>
       </c>
       <c r="T65" t="n">
         <v>0.03642049993073456</v>
@@ -9689,7 +9689,7 @@
         <v>0.3838211691085254</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.4441765869781992</v>
+        <v>0.6161222680143749</v>
       </c>
       <c r="Z65" t="n">
         <v>1.480664521061823</v>
@@ -9820,10 +9820,10 @@
         <v>262.1156658290246</v>
       </c>
       <c r="R66" t="n">
-        <v>0.07527111346899946</v>
+        <v>0.1059486112069409</v>
       </c>
       <c r="S66" t="n">
-        <v>0.6259506883152637</v>
+        <v>0.8810631735684946</v>
       </c>
       <c r="T66" t="n">
         <v>0.02847189090625549</v>
@@ -9841,7 +9841,7 @@
         <v>0.3450616069701712</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.3963300083161024</v>
+        <v>0.5578582808931118</v>
       </c>
       <c r="Z66" t="n">
         <v>1.75728268109685</v>
@@ -9969,10 +9969,10 @@
         <v>314.5938584943656</v>
       </c>
       <c r="R67" t="n">
-        <v>0.1135031552542759</v>
+        <v>0.1397205524433804</v>
       </c>
       <c r="S67" t="n">
-        <v>1.032147304412703</v>
+        <v>1.270556675296091</v>
       </c>
       <c r="T67" t="n">
         <v>0.08386019957914105</v>
@@ -9990,7 +9990,7 @@
         <v>0.384912607267642</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.5975540201993459</v>
+        <v>0.7355793557454452</v>
       </c>
       <c r="Z67" t="n">
         <v>1.50723384675543</v>
@@ -10110,10 +10110,10 @@
         <v>345.1384666487818</v>
       </c>
       <c r="R68" t="n">
-        <v>0.09470107498353926</v>
+        <v>0.1281049307805457</v>
       </c>
       <c r="S68" t="n">
-        <v>0.8892321768715056</v>
+        <v>1.202890531979269</v>
       </c>
       <c r="T68" t="n">
         <v>0.04867496226121809</v>
@@ -10131,7 +10131,7 @@
         <v>0.4088978831051248</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.498523688476461</v>
+        <v>0.6743676628363506</v>
       </c>
       <c r="Z68" t="n">
         <v>1.420325024935708</v>
@@ -10262,10 +10262,10 @@
         <v>377.3006396625723</v>
       </c>
       <c r="R69" t="n">
-        <v>0.109032724011732</v>
+        <v>0.1426977968926904</v>
       </c>
       <c r="S69" t="n">
-        <v>1.044577545230362</v>
+        <v>1.36710254411243</v>
       </c>
       <c r="T69" t="n">
         <v>0.06572196829250949</v>
@@ -10283,7 +10283,7 @@
         <v>0.4343854273766324</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.573910354354626</v>
+        <v>0.7511115944557739</v>
       </c>
       <c r="Z69" t="n">
         <v>1.167403692374938</v>
@@ -10398,10 +10398,10 @@
         <v>282.551509518021</v>
       </c>
       <c r="R70" t="n">
-        <v>0.1041753404065384</v>
+        <v>0.127613751307043</v>
       </c>
       <c r="S70" t="n">
-        <v>0.9482650671907796</v>
+        <v>1.161615234328963</v>
       </c>
       <c r="T70" t="n">
         <v>0.07845861001004069</v>
@@ -10419,7 +10419,7 @@
         <v>0.360613945403604</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.5484933276589249</v>
+        <v>0.6718988470427434</v>
       </c>
       <c r="Z70" t="n">
         <v>2.079551231537069</v>
@@ -10537,10 +10537,10 @@
         <v>307.3911428472518</v>
       </c>
       <c r="R71" t="n">
-        <v>0.08953845423866012</v>
+        <v>0.118893158621593</v>
       </c>
       <c r="S71" t="n">
-        <v>0.8314353871376887</v>
+        <v>1.10401704169565</v>
       </c>
       <c r="T71" t="n">
         <v>0.05176869247443817</v>
@@ -10558,7 +10558,7 @@
         <v>0.3817078997460369</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.4713976920344291</v>
+        <v>0.6259429096633121</v>
       </c>
       <c r="Z71" t="n">
         <v>1.785140068067854</v>
@@ -10684,10 +10684,10 @@
         <v>332.8525260660337</v>
       </c>
       <c r="R72" t="n">
-        <v>0.07699710587622545</v>
+        <v>0.1116212500667504</v>
       </c>
       <c r="S72" t="n">
-        <v>0.7487130977658376</v>
+        <v>1.085395236131553</v>
       </c>
       <c r="T72" t="n">
         <v>0.01481984162473158</v>
@@ -10705,7 +10705,7 @@
         <v>0.3996198518129659</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.4053415013290781</v>
+        <v>0.5876159183829188</v>
       </c>
       <c r="Z72" t="n">
         <v>1.712118408202441</v>
@@ -10836,10 +10836,10 @@
         <v>349.3228015573515</v>
       </c>
       <c r="R73" t="n">
-        <v>0.08743291894279349</v>
+        <v>0.122250755497967</v>
       </c>
       <c r="S73" t="n">
-        <v>0.8395014416536849</v>
+        <v>1.173810582155504</v>
       </c>
       <c r="T73" t="n">
         <v>0.03467364629449839</v>
@@ -10857,7 +10857,7 @@
         <v>0.4151688976045474</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.4602569782249095</v>
+        <v>0.6435420890845621</v>
       </c>
       <c r="Z73" t="n">
         <v>1.503265936415298</v>
@@ -10988,10 +10988,10 @@
         <v>367.3692725568374</v>
       </c>
       <c r="R74" t="n">
-        <v>0.0997399993009979</v>
+        <v>0.1332234821103445</v>
       </c>
       <c r="S74" t="n">
-        <v>0.9724969828577872</v>
+        <v>1.298971679427535</v>
       </c>
       <c r="T74" t="n">
         <v>0.05513248328988998</v>
@@ -11009,7 +11009,7 @@
         <v>0.4288652520639399</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.5250134503639415</v>
+        <v>0.7012644927053956</v>
       </c>
       <c r="Z74" t="n">
         <v>1.199644356267369</v>
@@ -11135,10 +11135,10 @@
         <v>307.0788654845763</v>
       </c>
       <c r="R75" t="n">
-        <v>0.08716908640703064</v>
+        <v>0.1161831676918101</v>
       </c>
       <c r="S75" t="n">
-        <v>0.8252709720679322</v>
+        <v>1.099961003276252</v>
       </c>
       <c r="T75" t="n">
         <v>0.04978485809337196</v>
@@ -11156,7 +11156,7 @@
         <v>0.381186314054765</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.4589239509531482</v>
+        <v>0.6116760029169834</v>
       </c>
       <c r="Z75" t="n">
         <v>2.044995428540621</v>
@@ -11282,10 +11282,10 @@
         <v>317.1093159530175</v>
       </c>
       <c r="R76" t="n">
-        <v>0.1066443802906162</v>
+        <v>0.1319712809555518</v>
       </c>
       <c r="S76" t="n">
-        <v>1.029622435194257</v>
+        <v>1.274146760503207</v>
       </c>
       <c r="T76" t="n">
         <v>0.07828986982896351</v>
@@ -11303,7 +11303,7 @@
         <v>0.3899340668077771</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.5614410525073078</v>
+        <v>0.6947773026436939</v>
       </c>
       <c r="Z76" t="n">
         <v>2.057622115263261</v>
@@ -11429,10 +11429,10 @@
         <v>343.571588340941</v>
       </c>
       <c r="R77" t="n">
-        <v>0.11267356434144</v>
+        <v>0.1398007248366222</v>
       </c>
       <c r="S77" t="n">
-        <v>1.10152950094291</v>
+        <v>1.366732503412109</v>
       </c>
       <c r="T77" t="n">
         <v>0.08184210910822483</v>
@@ -11450,7 +11450,7 @@
         <v>0.4123478280852884</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.5931369280041544</v>
+        <v>0.7359399069960094</v>
       </c>
       <c r="Z77" t="n">
         <v>1.615126887994798</v>
@@ -11570,10 +11570,10 @@
         <v>308.8925094168035</v>
       </c>
       <c r="R78" t="n">
-        <v>0.0809686515267465</v>
+        <v>0.1113509609453344</v>
       </c>
       <c r="S78" t="n">
-        <v>0.775028246070732</v>
+        <v>1.065846328578727</v>
       </c>
       <c r="T78" t="n">
         <v>0.03876950340404173</v>
@@ -11591,7 +11591,7 @@
         <v>0.3857476056231248</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.4262780609296054</v>
+        <v>0.5862327063548255</v>
       </c>
       <c r="Z78" t="n">
         <v>1.913899110729765</v>
@@ -11722,10 +11722,10 @@
         <v>377.8360772992849</v>
       </c>
       <c r="R79" t="n">
-        <v>0.09206177460725568</v>
+        <v>0.1286975751122354</v>
       </c>
       <c r="S79" t="n">
-        <v>0.9049530230332266</v>
+        <v>1.265077282636741</v>
       </c>
       <c r="T79" t="n">
         <v>0.03622555687051518</v>
@@ -11743,7 +11743,7 @@
         <v>0.4418336547953038</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.4845803311126546</v>
+        <v>0.6774181122114457</v>
       </c>
       <c r="Z79" t="n">
         <v>1.316503208655358</v>
@@ -11874,10 +11874,10 @@
         <v>377.2114570502922</v>
       </c>
       <c r="R80" t="n">
-        <v>0.1112036780943719</v>
+        <v>0.1427691011657716</v>
       </c>
       <c r="S80" t="n">
-        <v>1.096574922083197</v>
+        <v>1.407840268141881</v>
       </c>
       <c r="T80" t="n">
         <v>0.07261398873108758</v>
@@ -11895,7 +11895,7 @@
         <v>0.4413157068529845</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.5853376718891782</v>
+        <v>0.7514871335745209</v>
       </c>
       <c r="Z80" t="n">
         <v>1.219423431934616</v>
@@ -12021,10 +12021,10 @@
         <v>453.4525170585844</v>
       </c>
       <c r="R81" t="n">
-        <v>0.1093454835711889</v>
+        <v>0.1465180841526681</v>
       </c>
       <c r="S81" t="n">
-        <v>1.187888468630555</v>
+        <v>1.591717709103943</v>
       </c>
       <c r="T81" t="n">
         <v>0.05922703930107949</v>
@@ -12042,7 +12042,7 @@
         <v>0.492724250650904</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.5753993275365892</v>
+        <v>0.7710095043706791</v>
       </c>
       <c r="Z81" t="n">
         <v>1.175393609952025</v>
@@ -12165,10 +12165,10 @@
         <v>385.5975527213724</v>
       </c>
       <c r="R82" t="n">
-        <v>0.1037843437659212</v>
+        <v>0.1379152896680966</v>
       </c>
       <c r="S82" t="n">
-        <v>1.030384541778003</v>
+        <v>1.369241037640056</v>
       </c>
       <c r="T82" t="n">
         <v>0.05885158217820452</v>
@@ -12186,7 +12186,7 @@
         <v>0.4484821104354356</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.5462697911767963</v>
+        <v>0.725918320175542</v>
       </c>
       <c r="Z82" t="n">
         <v>1.258881347841275</v>
@@ -12312,10 +12312,10 @@
         <v>347.548453314151</v>
       </c>
       <c r="R83" t="n">
-        <v>0.09631470538708768</v>
+        <v>0.1272977629912782</v>
       </c>
       <c r="S83" t="n">
-        <v>0.9462428291247075</v>
+        <v>1.250635558817399</v>
       </c>
       <c r="T83" t="n">
         <v>0.05670702372418387</v>
@@ -12333,7 +12333,7 @@
         <v>0.4188623174600349</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.5070144516488876</v>
+        <v>0.6701137198080004</v>
       </c>
       <c r="Z83" t="n">
         <v>1.588792228154827</v>
@@ -12459,10 +12459,10 @@
         <v>383.0476786697029</v>
       </c>
       <c r="R84" t="n">
-        <v>0.1075323943919604</v>
+        <v>0.1395514553512777</v>
       </c>
       <c r="S84" t="n">
-        <v>1.085098017984505</v>
+        <v>1.40819897543215</v>
       </c>
       <c r="T84" t="n">
         <v>0.0677421204315856</v>
@@ -12480,7 +12480,7 @@
         <v>0.4467149421172766</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.5660024714551821</v>
+        <v>0.7345365000995092</v>
       </c>
       <c r="Z84" t="n">
         <v>1.388696614116953</v>
@@ -12600,10 +12600,10 @@
         <v>375.8303648664059</v>
       </c>
       <c r="R85" t="n">
-        <v>0.09788738848692559</v>
+        <v>0.1327695167913284</v>
       </c>
       <c r="S85" t="n">
-        <v>0.9591801147046705</v>
+        <v>1.300983531317721</v>
       </c>
       <c r="T85" t="n">
         <v>0.0496527506437148</v>
@@ -12621,7 +12621,7 @@
         <v>0.4436541164249389</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.5152476450846037</v>
+        <v>0.6988559192677805</v>
       </c>
       <c r="Z85" t="n">
         <v>1.275099912777333</v>
@@ -12744,10 +12744,10 @@
         <v>392.0741579793797</v>
       </c>
       <c r="R86" t="n">
-        <v>0.08199656419177627</v>
+        <v>0.1187535535836264</v>
       </c>
       <c r="S86" t="n">
-        <v>0.8818016297463976</v>
+        <v>1.277091035708547</v>
       </c>
       <c r="T86" t="n">
         <v>0.01696903561542241</v>
@@ -12765,7 +12765,7 @@
         <v>0.4491321137983504</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.4315802547454619</v>
+        <v>0.6250467859565578</v>
       </c>
       <c r="Z86" t="n">
         <v>1.339953989136903</v>
@@ -12896,10 +12896,10 @@
         <v>404.9089530971748</v>
       </c>
       <c r="R87" t="n">
-        <v>0.1115250098734746</v>
+        <v>0.1453494315352453</v>
       </c>
       <c r="S87" t="n">
-        <v>1.131329883804335</v>
+        <v>1.474450938640137</v>
       </c>
       <c r="T87" t="n">
         <v>0.06882091578440135</v>
@@ -12917,7 +12917,7 @@
         <v>0.4656191008841957</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.5869742328080808</v>
+        <v>0.7649976553356318</v>
       </c>
       <c r="Z87" t="n">
         <v>1.206768580603251</v>
@@ -13043,10 +13043,10 @@
         <v>404.2768642638003</v>
       </c>
       <c r="R88" t="n">
-        <v>0.1084170125352465</v>
+        <v>0.1428269534971107</v>
       </c>
       <c r="S88" t="n">
-        <v>1.10078055920974</v>
+        <v>1.450151872517797</v>
       </c>
       <c r="T88" t="n">
         <v>0.06403144213387492</v>
@@ -13064,7 +13064,7 @@
         <v>0.4670860113279405</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.5706175961843259</v>
+        <v>0.7517231010986974</v>
       </c>
       <c r="Z88" t="n">
         <v>1.225258085386817</v>
@@ -13190,10 +13190,10 @@
         <v>339.4326264827049</v>
       </c>
       <c r="R89" t="n">
-        <v>0.08927268277317994</v>
+        <v>0.1220069048752618</v>
       </c>
       <c r="S89" t="n">
-        <v>0.8558712710925188</v>
+        <v>1.16969941435462</v>
       </c>
       <c r="T89" t="n">
         <v>0.04382861028754929</v>
@@ -13211,7 +13211,7 @@
         <v>0.4188987833925032</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.4699556399086909</v>
+        <v>0.6422774724896959</v>
       </c>
       <c r="Z89" t="n">
         <v>1.541689549412003</v>
@@ -13342,10 +13342,10 @@
         <v>323.0473348775529</v>
       </c>
       <c r="R90" t="n">
-        <v>0.07497556476934682</v>
+        <v>0.1081614307399851</v>
       </c>
       <c r="S90" t="n">
-        <v>0.7346359566936462</v>
+        <v>1.059802302169637</v>
       </c>
       <c r="T90" t="n">
         <v>0.01933016821611724</v>
@@ -13363,7 +13363,7 @@
         <v>0.4031171858918194</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.3947104860039496</v>
+        <v>0.5694181967898495</v>
       </c>
       <c r="Z90" t="n">
         <v>2.202675635122268</v>
@@ -13494,10 +13494,10 @@
         <v>424.873838993316</v>
       </c>
       <c r="R91" t="n">
-        <v>0.1002565218195024</v>
+        <v>0.1383537385830259</v>
       </c>
       <c r="S91" t="n">
-        <v>1.042484616329462</v>
+        <v>1.43862605112255</v>
       </c>
       <c r="T91" t="n">
         <v>0.04464127126982093</v>
@@ -13515,7 +13515,7 @@
         <v>0.4819146144995276</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.5276286420855735</v>
+        <v>0.7281261497127282</v>
       </c>
       <c r="Z91" t="n">
         <v>1.179780120395783</v>
@@ -13641,10 +13641,10 @@
         <v>400.8888230172158</v>
       </c>
       <c r="R92" t="n">
-        <v>0.102007299681778</v>
+        <v>0.137705298442951</v>
       </c>
       <c r="S92" t="n">
-        <v>1.032123594569448</v>
+        <v>1.393320753157692</v>
       </c>
       <c r="T92" t="n">
         <v>0.05330352160794445</v>
@@ -13662,7 +13662,7 @@
         <v>0.4678240087754544</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.536888474575556</v>
+        <v>0.7247754607037651</v>
       </c>
       <c r="Z92" t="n">
         <v>1.231913386777003</v>
@@ -13788,10 +13788,10 @@
         <v>445.5341436142293</v>
       </c>
       <c r="R93" t="n">
-        <v>0.09102525592880763</v>
+        <v>0.1315484481729697</v>
       </c>
       <c r="S93" t="n">
-        <v>0.9989312399418354</v>
+        <v>1.443641691583105</v>
       </c>
       <c r="T93" t="n">
         <v>0.01832326989962269</v>
@@ -13809,7 +13809,7 @@
         <v>0.4952071191030444</v>
       </c>
       <c r="Y93" t="n">
-        <v>0.4790091800421417</v>
+        <v>0.692257480104575</v>
       </c>
       <c r="Z93" t="n">
         <v>1.101249100551098</v>
@@ -13935,10 +13935,10 @@
         <v>337.0345879482724</v>
       </c>
       <c r="R94" t="n">
-        <v>0.09039017656601284</v>
+        <v>0.1202755805951041</v>
       </c>
       <c r="S94" t="n">
-        <v>0.9070767119481528</v>
+        <v>1.206980474191085</v>
       </c>
       <c r="T94" t="n">
         <v>0.05231572499985591</v>
@@ -13956,7 +13956,7 @@
         <v>0.4168206389919381</v>
       </c>
       <c r="Y94" t="n">
-        <v>0.475841798610899</v>
+        <v>0.6331677929354111</v>
       </c>
       <c r="Z94" t="n">
         <v>2.081212019701819</v>
@@ -14071,10 +14071,10 @@
         <v>380.1137691798457</v>
       </c>
       <c r="R95" t="n">
-        <v>0.09437307700374561</v>
+        <v>0.1293266525136589</v>
       </c>
       <c r="S95" t="n">
-        <v>0.949881542714316</v>
+        <v>1.30169539983185</v>
       </c>
       <c r="T95" t="n">
         <v>0.04518314802345044</v>
@@ -14092,7 +14092,7 @@
         <v>0.4533296193620625</v>
       </c>
       <c r="Y95" t="n">
-        <v>0.4967425023121951</v>
+        <v>0.6807242809593347</v>
       </c>
       <c r="Z95" t="n">
         <v>1.381128034945611</v>
@@ -14218,10 +14218,10 @@
         <v>456.9169880413516</v>
       </c>
       <c r="R96" t="n">
-        <v>0.1030081725784849</v>
+        <v>0.142850878810859</v>
       </c>
       <c r="S96" t="n">
-        <v>1.10783737130951</v>
+        <v>1.536339671985696</v>
       </c>
       <c r="T96" t="n">
         <v>0.04391988273511622</v>
@@ -14239,7 +14239,7 @@
         <v>0.5104626700671484</v>
       </c>
       <c r="Y96" t="n">
-        <v>0.5420436033194667</v>
+        <v>0.751701570368053</v>
       </c>
       <c r="Z96" t="n">
         <v>1.015433523266514</v>
@@ -14365,10 +14365,10 @@
         <v>411.2609049271321</v>
       </c>
       <c r="R97" t="n">
-        <v>0.08978794205479569</v>
+        <v>0.1275592609210077</v>
       </c>
       <c r="S97" t="n">
-        <v>0.9546954759497381</v>
+        <v>1.356309617191787</v>
       </c>
       <c r="T97" t="n">
         <v>0.02950479144002214</v>
@@ -14386,7 +14386,7 @@
         <v>0.4770004173179468</v>
       </c>
       <c r="Y97" t="n">
-        <v>0.4725579544559607</v>
+        <v>0.6713500948263019</v>
       </c>
       <c r="Z97" t="n">
         <v>1.342866533386068</v>
@@ -14512,10 +14512,10 @@
         <v>398.7155432398492</v>
       </c>
       <c r="R98" t="n">
-        <v>0.1093811348135891</v>
+        <v>0.1409642193388652</v>
       </c>
       <c r="S98" t="n">
-        <v>1.149807917906758</v>
+        <v>1.481807405030102</v>
       </c>
       <c r="T98" t="n">
         <v>0.07109871813411356</v>
@@ -14533,7 +14533,7 @@
         <v>0.4694688271457726</v>
       </c>
       <c r="Y98" t="n">
-        <v>0.5757030192545589</v>
+        <v>0.7419334862318908</v>
       </c>
       <c r="Z98" t="n">
         <v>1.391278762043855</v>
@@ -14645,10 +14645,10 @@
         <v>480.2857693703551</v>
       </c>
       <c r="R99" t="n">
-        <v>0.1122090948002907</v>
+        <v>0.1504224031837547</v>
       </c>
       <c r="S99" t="n">
-        <v>1.254120699954385</v>
+        <v>1.681217105488516</v>
       </c>
       <c r="T99" t="n">
         <v>0.06103569090662538</v>
@@ -14666,7 +14666,7 @@
         <v>0.5292081917590967</v>
       </c>
       <c r="Y99" t="n">
-        <v>0.5904036280747231</v>
+        <v>0.7914682204813358</v>
       </c>
       <c r="Z99" t="n">
         <v>0.962003684490306</v>
@@ -14786,10 +14786,10 @@
         <v>452.1187371364575</v>
       </c>
       <c r="R100" t="n">
-        <v>0.09534734095041227</v>
+        <v>0.1310659475761013</v>
       </c>
       <c r="S100" t="n">
-        <v>1.129713658358703</v>
+        <v>1.552922080957174</v>
       </c>
       <c r="T100" t="n">
         <v>0.04574762835111428</v>
@@ -14807,7 +14807,7 @@
         <v>0.5019070749261886</v>
       </c>
       <c r="Y100" t="n">
-        <v>0.5017407410073987</v>
+        <v>0.6897006775665683</v>
       </c>
       <c r="Z100" t="n">
         <v>1.10119586004548</v>
@@ -14927,10 +14927,10 @@
         <v>367.0778625579107</v>
       </c>
       <c r="R101" t="n">
-        <v>0.0817441105251096</v>
+        <v>0.1156250491269657</v>
       </c>
       <c r="S101" t="n">
-        <v>0.866476102405113</v>
+        <v>1.225609297897472</v>
       </c>
       <c r="T101" t="n">
         <v>0.03046468785712722</v>
@@ -14948,7 +14948,7 @@
         <v>0.4451518795961679</v>
       </c>
       <c r="Y101" t="n">
-        <v>0.4302867206761558</v>
+        <v>0.6086300639552376</v>
       </c>
       <c r="Z101" t="n">
         <v>1.702394448792871</v>
@@ -15079,10 +15079,10 @@
         <v>472.441197647471</v>
       </c>
       <c r="R102" t="n">
-        <v>0.1042596371038714</v>
+        <v>0.1429918234328818</v>
       </c>
       <c r="S102" t="n">
-        <v>1.175575090324499</v>
+        <v>1.612298204916091</v>
       </c>
       <c r="T102" t="n">
         <v>0.04951931993757335</v>
@@ -15100,7 +15100,7 @@
         <v>0.5253568597946097</v>
       </c>
       <c r="Y102" t="n">
-        <v>0.5485944371197966</v>
+        <v>0.7523958558453715</v>
       </c>
       <c r="Z102" t="n">
         <v>1.043228674792056</v>
@@ -15226,10 +15226,10 @@
         <v>394.6100995094315</v>
       </c>
       <c r="R103" t="n">
-        <v>0.09183505027716697</v>
+        <v>0.1247130079101659</v>
       </c>
       <c r="S103" t="n">
-        <v>1.013448840878773</v>
+        <v>1.376274667761436</v>
       </c>
       <c r="T103" t="n">
         <v>0.04799519860952571</v>
@@ -15247,7 +15247,7 @@
         <v>0.4665368738476411</v>
       </c>
       <c r="Y103" t="n">
-        <v>0.483359931183442</v>
+        <v>0.6564081006021467</v>
       </c>
       <c r="Z103" t="n">
         <v>1.635067194459739</v>
@@ -15373,10 +15373,10 @@
         <v>434.9747725949474</v>
       </c>
       <c r="R104" t="n">
-        <v>0.08982585784525766</v>
+        <v>0.1299474136850239</v>
       </c>
       <c r="S104" t="n">
-        <v>0.9724675750643211</v>
+        <v>1.406829272811972</v>
       </c>
       <c r="T104" t="n">
         <v>0.01856926610322721</v>
@@ -15394,7 +15394,7 @@
         <v>0.5036370135031565</v>
       </c>
       <c r="Y104" t="n">
-        <v>0.4727165380327555</v>
+        <v>0.6838597815488376</v>
       </c>
       <c r="Z104" t="n">
         <v>1.226402369197755</v>
@@ -15525,10 +15525,10 @@
         <v>515.6090897895901</v>
       </c>
       <c r="R105" t="n">
-        <v>0.1120603382991705</v>
+        <v>0.1534949125072172</v>
       </c>
       <c r="S105" t="n">
-        <v>1.281336488701883</v>
+        <v>1.755113675460465</v>
       </c>
       <c r="T105" t="n">
         <v>0.0531396148110932</v>
@@ -15546,7 +15546,7 @@
         <v>0.5605138067908287</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.5895290499561748</v>
+        <v>0.8075088056748774</v>
       </c>
       <c r="Z105" t="n">
         <v>0.9152566454821567</v>
@@ -15667,10 +15667,10 @@
         <v>389.6793919596995</v>
       </c>
       <c r="R106" t="n">
-        <v>0.09376241764055762</v>
+        <v>0.1265546106860717</v>
       </c>
       <c r="S106" t="n">
-        <v>1.012400134238798</v>
+        <v>1.366473988952445</v>
       </c>
       <c r="T106" t="n">
         <v>0.05058596884527355</v>
@@ -15688,7 +15688,7 @@
         <v>0.4675527828990781</v>
       </c>
       <c r="Y106" t="n">
-        <v>0.4935125637634664</v>
+        <v>0.6661122008948147</v>
       </c>
       <c r="Z106" t="n">
         <v>1.865786653257043</v>
@@ -15814,10 +15814,10 @@
         <v>472.3258472786908</v>
       </c>
       <c r="R107" t="n">
-        <v>0.1067100772831344</v>
+        <v>0.1444353064747056</v>
       </c>
       <c r="S107" t="n">
-        <v>1.209938925575206</v>
+        <v>1.637688810471432</v>
       </c>
       <c r="T107" t="n">
         <v>0.05552273622505156</v>
@@ -15835,7 +15835,7 @@
         <v>0.5291544340214547</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.561488456469899</v>
+        <v>0.7599915524103646</v>
       </c>
       <c r="Z107" t="n">
         <v>1.157633610471134</v>
@@ -15961,10 +15961,10 @@
         <v>1248.94345375944</v>
       </c>
       <c r="R108" t="n">
-        <v>0.1578762860053192</v>
+        <v>0.2290550642386779</v>
       </c>
       <c r="S108" t="n">
-        <v>2.784365913545166</v>
+        <v>4.039701777438476</v>
       </c>
       <c r="T108" t="n">
         <v>0.02039308283339181</v>
@@ -15982,7 +15982,7 @@
         <v>0.9507215697093652</v>
       </c>
       <c r="Y108" t="n">
-        <v>0.8225446205674112</v>
+        <v>1.193390189688776</v>
       </c>
       <c r="Z108" t="n">
         <v>0.1367754295493965</v>
@@ -16102,10 +16102,10 @@
         <v>478.6234541693048</v>
       </c>
       <c r="R109" t="n">
-        <v>0.09665033187867442</v>
+        <v>0.1376470650777063</v>
       </c>
       <c r="S109" t="n">
-        <v>1.102692928003347</v>
+        <v>1.570428598342905</v>
       </c>
       <c r="T109" t="n">
         <v>0.03036032800273162</v>
@@ -16123,7 +16123,7 @@
         <v>0.5342242883200008</v>
       </c>
       <c r="Y109" t="n">
-        <v>0.5085426099844738</v>
+        <v>0.7242540855337155</v>
       </c>
       <c r="Z109" t="n">
         <v>0.946244471261862</v>
@@ -16246,10 +16246,10 @@
         <v>1238.670703415034</v>
       </c>
       <c r="R110" t="n">
-        <v>0.1568759128416401</v>
+        <v>0.2273184110215845</v>
       </c>
       <c r="S110" t="n">
-        <v>2.768503860998988</v>
+        <v>4.011654097749836</v>
       </c>
       <c r="T110" t="n">
         <v>0.02346555338597601</v>
@@ -16267,7 +16267,7 @@
         <v>0.946013705779765</v>
       </c>
       <c r="Y110" t="n">
-        <v>0.8175708907938465</v>
+        <v>1.184687390347589</v>
       </c>
       <c r="Z110" t="n">
         <v>0.1370008919991575</v>
@@ -16384,10 +16384,10 @@
         <v>450.5614498276976</v>
       </c>
       <c r="R111" t="n">
-        <v>0.09980185711588935</v>
+        <v>0.136956141224802</v>
       </c>
       <c r="S111" t="n">
-        <v>1.122728390747736</v>
+        <v>1.540698264379901</v>
       </c>
       <c r="T111" t="n">
         <v>0.04788817631943065</v>
@@ -16405,7 +16405,7 @@
         <v>0.5157026093599496</v>
       </c>
       <c r="Y111" t="n">
-        <v>0.5251846893505576</v>
+        <v>0.7207007019947256</v>
       </c>
       <c r="Z111" t="n">
         <v>1.256654148511164</v>
@@ -16531,10 +16531,10 @@
         <v>548.0717102283559</v>
       </c>
       <c r="R112" t="n">
-        <v>0.1079628493695239</v>
+        <v>0.1509654900423658</v>
       </c>
       <c r="S112" t="n">
-        <v>1.307686356305819</v>
+        <v>1.828550401867689</v>
       </c>
       <c r="T112" t="n">
         <v>0.04322138808745284</v>
@@ -16552,7 +16552,7 @@
         <v>0.5837412679998712</v>
       </c>
       <c r="Y112" t="n">
-        <v>0.5678843467334761</v>
+        <v>0.7940781406998356</v>
       </c>
       <c r="Z112" t="n">
         <v>0.8297403899611151</v>
@@ -16683,10 +16683,10 @@
         <v>364.6266753510416</v>
       </c>
       <c r="R113" t="n">
-        <v>0.08226246593704302</v>
+        <v>0.12024009027529</v>
       </c>
       <c r="S113" t="n">
-        <v>0.799035589619851</v>
+        <v>1.16792160719555</v>
       </c>
       <c r="T113" t="n">
         <v>0.006989450723578536</v>
@@ -16704,7 +16704,7 @@
         <v>0.4601753676917382</v>
       </c>
       <c r="Y113" t="n">
-        <v>0.4330186112253531</v>
+        <v>0.6329277430664961</v>
       </c>
       <c r="Z113" t="n">
         <v>1.060831560138101</v>
@@ -16827,10 +16827,10 @@
         <v>483.5233341602351</v>
       </c>
       <c r="R114" t="n">
-        <v>0.0971001782613828</v>
+        <v>0.1393546677963431</v>
       </c>
       <c r="S114" t="n">
-        <v>1.095063227629644</v>
+        <v>1.57159518174655</v>
       </c>
       <c r="T114" t="n">
         <v>0.02551421071774525</v>
@@ -16848,7 +16848,7 @@
         <v>0.5431756460836764</v>
       </c>
       <c r="Y114" t="n">
-        <v>0.510898973338567</v>
+        <v>0.7332237487292422</v>
       </c>
       <c r="Z114" t="n">
         <v>0.9548714706172144</v>
@@ -16974,10 +16974,10 @@
         <v>454.9039090145141</v>
       </c>
       <c r="R115" t="n">
-        <v>0.08996565620604695</v>
+        <v>0.13138095814286</v>
       </c>
       <c r="S115" t="n">
-        <v>0.9986866619731032</v>
+        <v>1.458427760855945</v>
       </c>
       <c r="T115" t="n">
         <v>0.008803699089899324</v>
@@ -16995,7 +16995,7 @@
         <v>0.5228162358938716</v>
       </c>
       <c r="Y115" t="n">
-        <v>0.4734158152617987</v>
+        <v>0.6913507446289013</v>
       </c>
       <c r="Z115" t="n">
         <v>1.177088983194154</v>
@@ -17126,10 +17126,10 @@
         <v>666.2793795323425</v>
       </c>
       <c r="R116" t="n">
-        <v>0.1117495243044216</v>
+        <v>0.1621282733160886</v>
       </c>
       <c r="S116" t="n">
-        <v>1.475837196466663</v>
+        <v>2.1411718559712</v>
       </c>
       <c r="T116" t="n">
         <v>0.01756314026522218</v>
@@ -17147,7 +17147,7 @@
         <v>0.6586738663279574</v>
       </c>
       <c r="Y116" t="n">
-        <v>0.5873977595878237</v>
+        <v>0.8522075159110509</v>
       </c>
       <c r="Z116" t="n">
         <v>0.6165669580640616</v>
@@ -17273,10 +17273,10 @@
         <v>444.7801590842464</v>
       </c>
       <c r="R117" t="n">
-        <v>0.1059319681711885</v>
+        <v>0.1439606139609871</v>
       </c>
       <c r="S117" t="n">
-        <v>1.125227633568104</v>
+        <v>1.529174467074526</v>
       </c>
       <c r="T117" t="n">
         <v>0.05349361201349941</v>
@@ -17294,7 +17294,7 @@
         <v>0.5202707009107589</v>
       </c>
       <c r="Y117" t="n">
-        <v>0.5574555375810858</v>
+        <v>0.7575771774242569</v>
       </c>
       <c r="Z117" t="n">
         <v>1.05781319093341</v>
@@ -17425,10 +17425,10 @@
         <v>1086.679426976399</v>
       </c>
       <c r="R118" t="n">
-        <v>0.1508309812437663</v>
+        <v>0.2173310649795127</v>
       </c>
       <c r="S118" t="n">
-        <v>2.440218593430841</v>
+        <v>3.516090005646975</v>
       </c>
       <c r="T118" t="n">
         <v>0.03073077822456778</v>
@@ -17446,7 +17446,7 @@
         <v>0.8890467814097006</v>
       </c>
       <c r="Y118" t="n">
-        <v>0.7888625985432917</v>
+        <v>1.136665340569778</v>
       </c>
       <c r="Z118" t="n">
         <v>0.2331909053053322</v>
@@ -17577,10 +17577,10 @@
         <v>436.2378281746771</v>
       </c>
       <c r="R119" t="n">
-        <v>0.1004857375413377</v>
+        <v>0.136472518009766</v>
       </c>
       <c r="S119" t="n">
-        <v>1.111844640277775</v>
+        <v>1.510027605976911</v>
       </c>
       <c r="T119" t="n">
         <v>0.05178249814501625</v>
@@ -17598,7 +17598,7 @@
         <v>0.5096565419757205</v>
       </c>
       <c r="Y119" t="n">
-        <v>0.528812581269527</v>
+        <v>0.7181953010138166</v>
       </c>
       <c r="Z119" t="n">
         <v>1.263103736974466</v>
@@ -17724,10 +17724,10 @@
         <v>609.7906666368677</v>
       </c>
       <c r="R120" t="n">
-        <v>0.1114452790225765</v>
+        <v>0.1602960896169993</v>
       </c>
       <c r="S120" t="n">
-        <v>1.369230055678215</v>
+        <v>1.96941696980113</v>
       </c>
       <c r="T120" t="n">
         <v>0.02558039134875938</v>
@@ -17745,7 +17745,7 @@
         <v>0.6297326029758291</v>
       </c>
       <c r="Y120" t="n">
-        <v>0.5860062028805493</v>
+        <v>0.8428755676050557</v>
       </c>
       <c r="Z120" t="n">
         <v>0.6845167484937132</v>
@@ -17876,10 +17876,10 @@
         <v>576.3546391557558</v>
       </c>
       <c r="R121" t="n">
-        <v>0.120913262727615</v>
+        <v>0.1639677766744993</v>
       </c>
       <c r="S121" t="n">
-        <v>1.46281851793732</v>
+        <v>1.983695540536338</v>
       </c>
       <c r="T121" t="n">
         <v>0.0615544942834828</v>
@@ -17897,7 +17897,7 @@
         <v>0.6090304352895056</v>
       </c>
       <c r="Y121" t="n">
-        <v>0.6359102500469123</v>
+        <v>0.862343695907095</v>
       </c>
       <c r="Z121" t="n">
         <v>0.8389912101767373</v>
@@ -18017,10 +18017,10 @@
         <v>407.2874684453447</v>
       </c>
       <c r="R122" t="n">
-        <v>0.09968196192462443</v>
+        <v>0.1365922971479935</v>
       </c>
       <c r="S122" t="n">
-        <v>1.012863845363188</v>
+        <v>1.38790806947522</v>
       </c>
       <c r="T122" t="n">
         <v>0.04784177069916334</v>
@@ -18038,7 +18038,7 @@
         <v>0.4966255727405918</v>
       </c>
       <c r="Y122" t="n">
-        <v>0.5246379800769632</v>
+        <v>0.7189014490302992</v>
       </c>
       <c r="Z122" t="n">
         <v>1.591778155555364</v>
@@ -18166,10 +18166,10 @@
         <v>1292.62649117756</v>
       </c>
       <c r="R123" t="n">
-        <v>0.1576556055396459</v>
+        <v>0.2297378502364508</v>
       </c>
       <c r="S123" t="n">
-        <v>2.865943082186001</v>
+        <v>4.176290467742785</v>
       </c>
       <c r="T123" t="n">
         <v>0.01263072062840736</v>
@@ -18187,7 +18187,7 @@
         <v>0.9836345464048456</v>
       </c>
       <c r="Y123" t="n">
-        <v>0.82030705538417</v>
+        <v>1.195362377333048</v>
       </c>
       <c r="Z123" t="n">
         <v>0.1584126895994296</v>
@@ -18315,10 +18315,10 @@
         <v>513.0580779015858</v>
       </c>
       <c r="R124" t="n">
-        <v>0.1169111682942184</v>
+        <v>0.1556547280759412</v>
       </c>
       <c r="S124" t="n">
-        <v>1.360430193662415</v>
+        <v>1.811267434501338</v>
       </c>
       <c r="T124" t="n">
         <v>0.06632541948809087</v>
@@ -18336,7 +18336,7 @@
         <v>0.5671329528751325</v>
       </c>
       <c r="Y124" t="n">
-        <v>0.6150555943776026</v>
+        <v>0.8188808023327789</v>
       </c>
       <c r="Z124" t="n">
         <v>1.007526740184383</v>
@@ -18456,10 +18456,10 @@
         <v>474.4167535655663</v>
       </c>
       <c r="R125" t="n">
-        <v>0.1005657369165047</v>
+        <v>0.1401683319000536</v>
       </c>
       <c r="S125" t="n">
-        <v>1.141294187574609</v>
+        <v>1.590733657253251</v>
       </c>
       <c r="T125" t="n">
         <v>0.042243944737659</v>
@@ -18477,7 +18477,7 @@
         <v>0.540320475689792</v>
       </c>
       <c r="Y125" t="n">
-        <v>0.5291535000980286</v>
+        <v>0.7375331370504059</v>
       </c>
       <c r="Z125" t="n">
         <v>1.131000314009517</v>
@@ -18603,10 +18603,10 @@
         <v>510.16643802853</v>
       </c>
       <c r="R126" t="n">
-        <v>0.1052319655977743</v>
+        <v>0.1466797573615125</v>
       </c>
       <c r="S126" t="n">
-        <v>1.225004574195065</v>
+        <v>1.707498027704573</v>
       </c>
       <c r="T126" t="n">
         <v>0.0438347385633217</v>
@@ -18624,7 +18624,7 @@
         <v>0.5664991819785514</v>
       </c>
       <c r="Y126" t="n">
-        <v>0.553620020468125</v>
+        <v>0.7716747455153273</v>
       </c>
       <c r="Z126" t="n">
         <v>1.022835434671043</v>
@@ -18755,10 +18755,10 @@
         <v>665.9472847036207</v>
       </c>
       <c r="R127" t="n">
-        <v>0.118171278490554</v>
+        <v>0.1692631869541876</v>
       </c>
       <c r="S127" t="n">
-        <v>1.506210889366798</v>
+        <v>2.157428256813729</v>
       </c>
       <c r="T127" t="n">
         <v>0.03079674069972735</v>
@@ -18776,7 +18776,7 @@
         <v>0.6720252225683322</v>
       </c>
       <c r="Y127" t="n">
-        <v>0.6211543157305884</v>
+        <v>0.8897133077841016</v>
       </c>
       <c r="Z127" t="n">
         <v>0.6340650315646472</v>
@@ -18902,10 +18902,10 @@
         <v>1254.76304109255</v>
       </c>
       <c r="R128" t="n">
-        <v>0.1570229770352637</v>
+        <v>0.2278538386930144</v>
       </c>
       <c r="S128" t="n">
-        <v>2.799617223680945</v>
+        <v>4.062485270187716</v>
       </c>
       <c r="T128" t="n">
         <v>0.02378420416568981</v>
@@ -18923,7 +18923,7 @@
         <v>0.9749154902106582</v>
       </c>
       <c r="Y128" t="n">
-        <v>0.8179610499971066</v>
+        <v>1.186931802352428</v>
       </c>
       <c r="Z128" t="n">
         <v>0.1841893405705091</v>
@@ -19054,10 +19054,10 @@
         <v>492.0117538705012</v>
       </c>
       <c r="R129" t="n">
-        <v>0.0898154902191142</v>
+        <v>0.1301338215787433</v>
       </c>
       <c r="S129" t="n">
-        <v>1.104083958289229</v>
+        <v>1.599709186972584</v>
       </c>
       <c r="T129" t="n">
         <v>0.02080127669788294</v>
@@ -19075,7 +19075,7 @@
         <v>0.5494972796163312</v>
       </c>
       <c r="Y129" t="n">
-        <v>0.4725528640967576</v>
+        <v>0.6846826750359865</v>
       </c>
       <c r="Z129" t="n">
         <v>1.347526381911011</v>
@@ -19206,10 +19206,10 @@
         <v>465.6522538264084</v>
       </c>
       <c r="R130" t="n">
-        <v>0.09170486938808524</v>
+        <v>0.1303229563272183</v>
       </c>
       <c r="S130" t="n">
-        <v>1.083931460747502</v>
+        <v>1.54038878593123</v>
       </c>
       <c r="T130" t="n">
         <v>0.03195412487580097</v>
@@ -19227,7 +19227,7 @@
         <v>0.5341625188421676</v>
       </c>
       <c r="Y130" t="n">
-        <v>0.4825470659605687</v>
+        <v>0.6857537731925185</v>
       </c>
       <c r="Z130" t="n">
         <v>1.301869052062761</v>
@@ -19358,10 +19358,10 @@
         <v>770.0293529823913</v>
       </c>
       <c r="R131" t="n">
-        <v>0.1301155761875629</v>
+        <v>0.1846783478299523</v>
       </c>
       <c r="S131" t="n">
-        <v>1.772992975595306</v>
+        <v>2.516481293331504</v>
       </c>
       <c r="T131" t="n">
         <v>0.04107955212353836</v>
@@ -19379,7 +19379,7 @@
         <v>0.7360061346918944</v>
       </c>
       <c r="Y131" t="n">
-        <v>0.6833915021246995</v>
+        <v>0.9699654509579181</v>
       </c>
       <c r="Z131" t="n">
         <v>0.4915668852030486</v>
@@ -19505,10 +19505,10 @@
         <v>422.6624566241478</v>
       </c>
       <c r="R132" t="n">
-        <v>0.1105927559162558</v>
+        <v>0.1443306497614539</v>
       </c>
       <c r="S132" t="n">
-        <v>1.177600226744891</v>
+        <v>1.536843932291799</v>
       </c>
       <c r="T132" t="n">
         <v>0.06887416189850017</v>
@@ -19526,7 +19526,7 @@
         <v>0.5103947478558674</v>
       </c>
       <c r="Y132" t="n">
-        <v>0.582030743235181</v>
+        <v>0.7595875033251429</v>
       </c>
       <c r="Z132" t="n">
         <v>1.188130972176347</v>
@@ -19646,10 +19646,10 @@
         <v>467.1185682957703</v>
       </c>
       <c r="R133" t="n">
-        <v>0.1091208883812966</v>
+        <v>0.1453800151168199</v>
       </c>
       <c r="S133" t="n">
-        <v>1.240926826526697</v>
+        <v>1.653266972762662</v>
       </c>
       <c r="T133" t="n">
         <v>0.06231053676231464</v>
@@ -19667,7 +19667,7 @@
         <v>0.5398431907618387</v>
       </c>
       <c r="Y133" t="n">
-        <v>0.574185976502913</v>
+        <v>0.7649787972049463</v>
       </c>
       <c r="Z133" t="n">
         <v>1.161880101773845</v>
@@ -19793,10 +19793,10 @@
         <v>544.3989324383406</v>
       </c>
       <c r="R134" t="n">
-        <v>0.09858613186802261</v>
+        <v>0.1437376672795234</v>
       </c>
       <c r="S134" t="n">
-        <v>1.197287437931511</v>
+        <v>1.745633996693742</v>
       </c>
       <c r="T134" t="n">
         <v>0.0124461805487377</v>
@@ -19814,7 +19814,7 @@
         <v>0.5926520497047932</v>
       </c>
       <c r="Y134" t="n">
-        <v>0.5185723165403441</v>
+        <v>0.7560736351339183</v>
       </c>
       <c r="Z134" t="n">
         <v>0.9676569692153486</v>
@@ -19945,10 +19945,10 @@
         <v>665.5526000559073</v>
       </c>
       <c r="R135" t="n">
-        <v>0.1195724608169915</v>
+        <v>0.1699054361303929</v>
       </c>
       <c r="S135" t="n">
-        <v>1.529805054012629</v>
+        <v>2.173763031391585</v>
       </c>
       <c r="T135" t="n">
         <v>0.03749509612159812</v>
@@ -19966,7 +19966,7 @@
         <v>0.6743436542375542</v>
       </c>
       <c r="Y135" t="n">
-        <v>0.6285211435932034</v>
+        <v>0.8930915888970442</v>
       </c>
       <c r="Z135" t="n">
         <v>0.6427984045101238</v>
@@ -20092,10 +20092,10 @@
         <v>422.6659373340428</v>
       </c>
       <c r="R136" t="n">
-        <v>0.1071624927573103</v>
+        <v>0.1389415014219766</v>
       </c>
       <c r="S136" t="n">
-        <v>1.204781308244721</v>
+        <v>1.562058884088767</v>
       </c>
       <c r="T136" t="n">
         <v>0.06900160718863151</v>
@@ -20113,7 +20113,7 @@
         <v>0.5052444940322635</v>
       </c>
       <c r="Y136" t="n">
-        <v>0.5639778482537233</v>
+        <v>0.7312253288337445</v>
       </c>
       <c r="Z136" t="n">
         <v>1.650810298655011</v>
@@ -20236,10 +20236,10 @@
         <v>629.1173679522966</v>
       </c>
       <c r="R137" t="n">
-        <v>0.1188423977986617</v>
+        <v>0.1652689667301394</v>
       </c>
       <c r="S137" t="n">
-        <v>1.514431668251366</v>
+        <v>2.106054418552999</v>
       </c>
       <c r="T137" t="n">
         <v>0.0501528479285505</v>
@@ -20257,7 +20257,7 @@
         <v>0.6493628210175656</v>
       </c>
       <c r="Y137" t="n">
-        <v>0.6248297693644823</v>
+        <v>0.8689236524834089</v>
       </c>
       <c r="Z137" t="n">
         <v>0.7534592632234871</v>
@@ -20383,10 +20383,10 @@
         <v>494.7797013173586</v>
       </c>
       <c r="R138" t="n">
-        <v>0.1016326731473368</v>
+        <v>0.1400568109304588</v>
       </c>
       <c r="S138" t="n">
-        <v>1.224102932580855</v>
+        <v>1.686897999222698</v>
       </c>
       <c r="T138" t="n">
         <v>0.04793054153363085</v>
@@ -20404,7 +20404,7 @@
         <v>0.5560563455008833</v>
       </c>
       <c r="Y138" t="n">
-        <v>0.5347210271228917</v>
+        <v>0.7368823379044813</v>
       </c>
       <c r="Z138" t="n">
         <v>1.196969398364808</v>
@@ -20535,10 +20535,10 @@
         <v>608.1989033494216</v>
       </c>
       <c r="R139" t="n">
-        <v>0.1170727878737723</v>
+        <v>0.1631332618876657</v>
       </c>
       <c r="S139" t="n">
-        <v>1.457000993469619</v>
+        <v>2.030235453985606</v>
       </c>
       <c r="T139" t="n">
         <v>0.04835451058196397</v>
@@ -20556,7 +20556,7 @@
         <v>0.6377711937506886</v>
       </c>
       <c r="Y139" t="n">
-        <v>0.6156027156211854</v>
+        <v>0.8578020635714891</v>
       </c>
       <c r="Z139" t="n">
         <v>0.7737190204340079</v>
@@ -20682,10 +20682,10 @@
         <v>732.1387507307827</v>
       </c>
       <c r="R140" t="n">
-        <v>0.1257164670742447</v>
+        <v>0.178299860699471</v>
       </c>
       <c r="S140" t="n">
-        <v>1.689909952221128</v>
+        <v>2.396748143564446</v>
       </c>
       <c r="T140" t="n">
         <v>0.04075762204548292</v>
@@ -20703,7 +20703,7 @@
         <v>0.7147168721522457</v>
       </c>
       <c r="Y140" t="n">
-        <v>0.660494913487461</v>
+        <v>0.9367599472706623</v>
       </c>
       <c r="Z140" t="n">
         <v>0.5596783685001662</v>
@@ -20829,10 +20829,10 @@
         <v>633.6692832447311</v>
       </c>
       <c r="R141" t="n">
-        <v>0.1173225337524258</v>
+        <v>0.1647229273703189</v>
       </c>
       <c r="S141" t="n">
-        <v>1.495205024148682</v>
+        <v>2.099294489465343</v>
       </c>
       <c r="T141" t="n">
         <v>0.04465160554576234</v>
@@ -20850,7 +20850,7 @@
         <v>0.6536208235785658</v>
       </c>
       <c r="Y141" t="n">
-        <v>0.6168215690473848</v>
+        <v>0.866028470993005</v>
       </c>
       <c r="Z141" t="n">
         <v>0.737682096341933</v>
@@ -20976,10 +20976,10 @@
         <v>611.6757288894323</v>
       </c>
       <c r="R142" t="n">
-        <v>0.1192029351478626</v>
+        <v>0.1651792926739628</v>
       </c>
       <c r="S142" t="n">
-        <v>1.48168119921896</v>
+        <v>2.053162970791875</v>
       </c>
       <c r="T142" t="n">
         <v>0.05182203811046189</v>
@@ -20997,7 +20997,7 @@
         <v>0.6411318138246039</v>
       </c>
       <c r="Y142" t="n">
-        <v>0.6267909159799308</v>
+        <v>0.8685430440752584</v>
       </c>
       <c r="Z142" t="n">
         <v>0.7555506855252948</v>
@@ -21123,10 +21123,10 @@
         <v>459.1699382574389</v>
       </c>
       <c r="R143" t="n">
-        <v>0.09646716080805727</v>
+        <v>0.1328391717774484</v>
       </c>
       <c r="S143" t="n">
-        <v>1.141374435699746</v>
+        <v>1.571718639340768</v>
       </c>
       <c r="T143" t="n">
         <v>0.04626290251173554</v>
@@ -21144,7 +21144,7 @@
         <v>0.5306403981356845</v>
       </c>
       <c r="Y143" t="n">
-        <v>0.5076193099355293</v>
+        <v>0.6990122664047914</v>
       </c>
       <c r="Z143" t="n">
         <v>1.341268064918048</v>
@@ -21270,10 +21270,10 @@
         <v>589.0389475543313</v>
       </c>
       <c r="R144" t="n">
-        <v>0.1172825237732046</v>
+        <v>0.1629817401108471</v>
       </c>
       <c r="S144" t="n">
-        <v>1.41701433503131</v>
+        <v>1.969154948711821</v>
       </c>
       <c r="T144" t="n">
         <v>0.04950899155051159</v>
@@ -21291,7 +21291,7 @@
         <v>0.6283782855504324</v>
       </c>
       <c r="Y144" t="n">
-        <v>0.6167726805244127</v>
+        <v>0.8570985811925937</v>
       </c>
       <c r="Z144" t="n">
         <v>0.6127353545320087</v>
@@ -21422,10 +21422,10 @@
         <v>533.8687605706282</v>
       </c>
       <c r="R145" t="n">
-        <v>0.1062636140613424</v>
+        <v>0.1491062755386033</v>
       </c>
       <c r="S145" t="n">
-        <v>1.264115577413481</v>
+        <v>1.773773339664955</v>
       </c>
       <c r="T145" t="n">
         <v>0.04141397615817324</v>
@@ -21443,7 +21443,7 @@
         <v>0.5888625557407738</v>
       </c>
       <c r="Y145" t="n">
-        <v>0.5589853835960821</v>
+        <v>0.7843534154636899</v>
       </c>
       <c r="Z145" t="n">
         <v>0.9585359262001968</v>
@@ -21569,10 +21569,10 @@
         <v>448.3052765771429</v>
       </c>
       <c r="R146" t="n">
-        <v>0.0976754024247527</v>
+        <v>0.1321967003102722</v>
       </c>
       <c r="S146" t="n">
-        <v>1.159374234015604</v>
+        <v>1.56913045000951</v>
       </c>
       <c r="T146" t="n">
         <v>0.05247737358899875</v>
@@ -21590,7 +21590,7 @@
         <v>0.522190440927301</v>
       </c>
       <c r="Y146" t="n">
-        <v>0.5139992299782357</v>
+        <v>0.695661348490375</v>
       </c>
       <c r="Z146" t="n">
         <v>1.522037894908761</v>
@@ -21716,10 +21716,10 @@
         <v>544.0780004292803</v>
       </c>
       <c r="R147" t="n">
-        <v>0.1005354368753187</v>
+        <v>0.1465436834100255</v>
       </c>
       <c r="S147" t="n">
-        <v>1.194148860832975</v>
+        <v>1.740629752505816</v>
       </c>
       <c r="T147" t="n">
         <v>0.01168523861800267</v>
@@ -21737,7 +21737,7 @@
         <v>0.5984242868416478</v>
       </c>
       <c r="Y147" t="n">
-        <v>0.5288266848239305</v>
+        <v>0.7708347691940711</v>
       </c>
       <c r="Z147" t="n">
         <v>0.906764956917385</v>
@@ -21865,10 +21865,10 @@
         <v>525.6903078658589</v>
       </c>
       <c r="R148" t="n">
-        <v>0.09531974641429813</v>
+        <v>0.1377858991950428</v>
       </c>
       <c r="S148" t="n">
-        <v>1.180715999948768</v>
+        <v>1.706739913467834</v>
       </c>
       <c r="T148" t="n">
         <v>0.02276422700583953</v>
@@ -21886,7 +21886,7 @@
         <v>0.5792903038327308</v>
       </c>
       <c r="Y148" t="n">
-        <v>0.5014362384171723</v>
+        <v>0.7248324255815081</v>
       </c>
       <c r="Z148" t="n">
         <v>1.114227419076153</v>
@@ -22009,10 +22009,10 @@
         <v>591.299133174339</v>
       </c>
       <c r="R149" t="n">
-        <v>0.1082038665147641</v>
+        <v>0.1535215414166472</v>
       </c>
       <c r="S149" t="n">
-        <v>1.370692039762422</v>
+        <v>1.944761878940274</v>
       </c>
       <c r="T149" t="n">
         <v>0.03666941180479041</v>
@@ -22030,7 +22030,7 @@
         <v>0.6265908897467604</v>
       </c>
       <c r="Y149" t="n">
-        <v>0.5690221188020624</v>
+        <v>0.8073385507600093</v>
       </c>
       <c r="Z149" t="n">
         <v>0.8790240049700396</v>
@@ -22161,10 +22161,10 @@
         <v>602.2130276489805</v>
       </c>
       <c r="R150" t="n">
-        <v>0.1164654785740127</v>
+        <v>0.1597233644848841</v>
       </c>
       <c r="S150" t="n">
-        <v>1.498172890788724</v>
+        <v>2.054627840169405</v>
       </c>
       <c r="T150" t="n">
         <v>0.0560218995465139</v>
@@ -22182,7 +22182,7 @@
         <v>0.6331895210472772</v>
       </c>
       <c r="Y150" t="n">
-        <v>0.6124304724715427</v>
+        <v>0.8399008596702644</v>
       </c>
       <c r="Z150" t="n">
         <v>0.8774068495383094</v>
@@ -22308,10 +22308,10 @@
         <v>930.6619575046815</v>
       </c>
       <c r="R151" t="n">
-        <v>0.135028499481751</v>
+        <v>0.1965363495776822</v>
       </c>
       <c r="S151" t="n">
-        <v>2.046997838498092</v>
+        <v>2.979441261036843</v>
       </c>
       <c r="T151" t="n">
         <v>0.01428100419977162</v>
@@ -22329,7 +22329,7 @@
         <v>0.8292876502454331</v>
       </c>
       <c r="Y151" t="n">
-        <v>0.7079723817868745</v>
+        <v>1.030466220481214</v>
       </c>
       <c r="Z151" t="n">
         <v>0.3687925877173285</v>
@@ -22460,10 +22460,10 @@
         <v>620.6293981810398</v>
       </c>
       <c r="R152" t="n">
-        <v>0.1112282541351941</v>
+        <v>0.1598793214573349</v>
       </c>
       <c r="S152" t="n">
-        <v>1.397181299618845</v>
+        <v>2.008306251615054</v>
       </c>
       <c r="T152" t="n">
         <v>0.02770916084203446</v>
@@ -22481,7 +22481,7 @@
         <v>0.6503732600270722</v>
       </c>
       <c r="Y152" t="n">
-        <v>0.5848275029307179</v>
+        <v>0.8406301534185951</v>
       </c>
       <c r="Z152" t="n">
         <v>0.7431362812050313</v>
@@ -22612,10 +22612,10 @@
         <v>677.0637127164142</v>
       </c>
       <c r="R153" t="n">
-        <v>0.1177515757517499</v>
+        <v>0.1669906258034134</v>
       </c>
       <c r="S153" t="n">
-        <v>1.56773545068813</v>
+        <v>2.223300387559498</v>
       </c>
       <c r="T153" t="n">
         <v>0.03945688347253227</v>
@@ -22633,7 +22633,7 @@
         <v>0.6827385445859135</v>
       </c>
       <c r="Y153" t="n">
-        <v>0.6189012796487542</v>
+        <v>0.8777013075134403</v>
       </c>
       <c r="Z153" t="n">
         <v>0.6951873708827524</v>
@@ -22759,10 +22759,10 @@
         <v>378.9583347282959</v>
       </c>
       <c r="R154" t="n">
-        <v>0.09486944454766158</v>
+        <v>0.1311045570982608</v>
       </c>
       <c r="S154" t="n">
-        <v>0.9257102617530084</v>
+        <v>1.279282644133861</v>
       </c>
       <c r="T154" t="n">
         <v>0.04311330676274532</v>
@@ -22780,7 +22780,7 @@
         <v>0.4873484044735777</v>
       </c>
       <c r="Y154" t="n">
-        <v>0.4993570738983419</v>
+        <v>0.6900850776504236</v>
       </c>
       <c r="Z154" t="n">
         <v>1.561526986176187</v>
@@ -22903,10 +22903,10 @@
         <v>799.3230016720851</v>
       </c>
       <c r="R155" t="n">
-        <v>0.1264344062018836</v>
+        <v>0.1824367734530325</v>
       </c>
       <c r="S155" t="n">
-        <v>1.785863702360644</v>
+        <v>2.576887268844616</v>
       </c>
       <c r="T155" t="n">
         <v>0.02700949158010499</v>
@@ -22924,7 +22924,7 @@
         <v>0.7606109879195416</v>
       </c>
       <c r="Y155" t="n">
-        <v>0.6638811578456881</v>
+        <v>0.9579381121958112</v>
       </c>
       <c r="Z155" t="n">
         <v>0.4905130448930057</v>
@@ -23055,10 +23055,10 @@
         <v>618.5008542055614</v>
       </c>
       <c r="R156" t="n">
-        <v>0.1069341886954889</v>
+        <v>0.1552750279735547</v>
       </c>
       <c r="S156" t="n">
-        <v>1.36872725783496</v>
+        <v>1.987476277149291</v>
       </c>
       <c r="T156" t="n">
         <v>0.01849807752632779</v>
@@ -23076,7 +23076,7 @@
         <v>0.6495667435386698</v>
       </c>
       <c r="Y156" t="n">
-        <v>0.5622568816100959</v>
+        <v>0.816431621031359</v>
       </c>
       <c r="Z156" t="n">
         <v>0.7940434459215121</v>
@@ -23207,10 +23207,10 @@
         <v>574.5454031266127</v>
       </c>
       <c r="R157" t="n">
-        <v>0.1132489353309976</v>
+        <v>0.1552729410192707</v>
       </c>
       <c r="S157" t="n">
-        <v>1.431360815869393</v>
+        <v>1.962505015082031</v>
       </c>
       <c r="T157" t="n">
         <v>0.05486882795659122</v>
@@ -23228,7 +23228,7 @@
         <v>0.618971087305047</v>
       </c>
       <c r="Y157" t="n">
-        <v>0.5956075891310253</v>
+        <v>0.8166235010286966</v>
       </c>
       <c r="Z157" t="n">
         <v>0.9330537963957952</v>
@@ -23354,10 +23354,10 @@
         <v>1042.792822526655</v>
       </c>
       <c r="R158" t="n">
-        <v>0.1453255014251849</v>
+        <v>0.2094877956096417</v>
       </c>
       <c r="S158" t="n">
-        <v>2.342114543811026</v>
+        <v>3.376175606046972</v>
       </c>
       <c r="T158" t="n">
         <v>0.03222156143720593</v>
@@ -23375,7 +23375,7 @@
         <v>0.8912471830718696</v>
       </c>
       <c r="Y158" t="n">
-        <v>0.7606763884088946</v>
+        <v>1.096520694698028</v>
       </c>
       <c r="Z158" t="n">
         <v>0.2970031359163937</v>
@@ -23506,10 +23506,10 @@
         <v>606.7875476519142</v>
       </c>
       <c r="R159" t="n">
-        <v>0.105241286518451</v>
+        <v>0.152278918620741</v>
       </c>
       <c r="S159" t="n">
-        <v>1.354263829027536</v>
+        <v>1.959552550465464</v>
       </c>
       <c r="T159" t="n">
         <v>0.02268407485752395</v>
@@ -23527,7 +23527,7 @@
         <v>0.6414080638120929</v>
       </c>
       <c r="Y159" t="n">
-        <v>0.55339378106704</v>
+        <v>0.8007333370782923</v>
       </c>
       <c r="Z159" t="n">
         <v>0.8528938169750084</v>
@@ -23658,10 +23658,10 @@
         <v>674.6304139354371</v>
       </c>
       <c r="R160" t="n">
-        <v>0.1241547631557046</v>
+        <v>0.1713063980125848</v>
       </c>
       <c r="S160" t="n">
-        <v>1.652714539389219</v>
+        <v>2.280384316232225</v>
       </c>
       <c r="T160" t="n">
         <v>0.05663668074225334</v>
@@ -23679,7 +23679,7 @@
         <v>0.6860171197893332</v>
       </c>
       <c r="Y160" t="n">
-        <v>0.652567323732727</v>
+        <v>0.9004000720388741</v>
       </c>
       <c r="Z160" t="n">
         <v>0.6968402874101338</v>
@@ -23805,10 +23805,10 @@
         <v>702.5799611680491</v>
       </c>
       <c r="R161" t="n">
-        <v>0.1242529659828746</v>
+        <v>0.1733819342513075</v>
       </c>
       <c r="S161" t="n">
-        <v>1.680705796496912</v>
+        <v>2.345248015602157</v>
       </c>
       <c r="T161" t="n">
         <v>0.05110758221424449</v>
@@ -23826,7 +23826,7 @@
         <v>0.7034594520748249</v>
       </c>
       <c r="Y161" t="n">
-        <v>0.6529535569770468</v>
+        <v>0.9111279540848555</v>
       </c>
       <c r="Z161" t="n">
         <v>0.6536680892574568</v>
@@ -23952,10 +23952,10 @@
         <v>544.3479866770663</v>
       </c>
       <c r="R162" t="n">
-        <v>0.09848921522891554</v>
+        <v>0.1404512180552158</v>
       </c>
       <c r="S162" t="n">
-        <v>1.257212987753921</v>
+        <v>1.792857167908815</v>
       </c>
       <c r="T162" t="n">
         <v>0.03261218040956741</v>
@@ -23973,7 +23973,7 @@
         <v>0.5963969926866095</v>
       </c>
       <c r="Y162" t="n">
-        <v>0.518062656710462</v>
+        <v>0.7387867899524403</v>
       </c>
       <c r="Z162" t="n">
         <v>1.122638152994195</v>
@@ -24104,10 +24104,10 @@
         <v>737.091896731998</v>
       </c>
       <c r="R163" t="n">
-        <v>0.1277722269709909</v>
+        <v>0.1780573441539356</v>
       </c>
       <c r="S163" t="n">
-        <v>1.768158241428679</v>
+        <v>2.464021861215293</v>
       </c>
       <c r="T163" t="n">
         <v>0.05319659664335564</v>
@@ -24125,7 +24125,7 @@
         <v>0.7242836181136024</v>
       </c>
       <c r="Y163" t="n">
-        <v>0.6712690009185768</v>
+        <v>0.9354487931369003</v>
       </c>
       <c r="Z163" t="n">
         <v>0.6069613627292476</v>
@@ -24251,10 +24251,10 @@
         <v>667.0501111059193</v>
       </c>
       <c r="R164" t="n">
-        <v>0.1112645906321403</v>
+        <v>0.1603559131022805</v>
       </c>
       <c r="S164" t="n">
-        <v>1.500086616579129</v>
+        <v>2.161943505722757</v>
       </c>
       <c r="T164" t="n">
         <v>0.0272916275788866</v>
@@ -24272,7 +24272,7 @@
         <v>0.6796001136257801</v>
       </c>
       <c r="Y164" t="n">
-        <v>0.5848457283718101</v>
+        <v>0.8428869442129534</v>
       </c>
       <c r="Z164" t="n">
         <v>0.7610927572423424</v>
@@ -24398,10 +24398,10 @@
         <v>497.1453700349165</v>
       </c>
       <c r="R165" t="n">
-        <v>0.09973217751900647</v>
+        <v>0.1370977906413148</v>
       </c>
       <c r="S165" t="n">
-        <v>1.241580076882787</v>
+        <v>1.706749914414178</v>
       </c>
       <c r="T165" t="n">
         <v>0.04873456610745896</v>
@@ -24419,7 +24419,7 @@
         <v>0.5631591673322229</v>
       </c>
       <c r="Y165" t="n">
-        <v>0.5247164827774816</v>
+        <v>0.7213065260523841</v>
       </c>
       <c r="Z165" t="n">
         <v>1.384233398737006</v>
@@ -24539,10 +24539,10 @@
         <v>687.0079931818916</v>
       </c>
       <c r="R166" t="n">
-        <v>0.1245414371106498</v>
+        <v>0.1723492083059616</v>
       </c>
       <c r="S166" t="n">
-        <v>1.672665570175394</v>
+        <v>2.314752370524215</v>
       </c>
       <c r="T166" t="n">
         <v>0.05545616215666161</v>
@@ -24560,7 +24560,7 @@
         <v>0.6943745800271447</v>
       </c>
       <c r="Y166" t="n">
-        <v>0.6545431609290459</v>
+        <v>0.9058029054857926</v>
       </c>
       <c r="Z166" t="n">
         <v>0.6778674556660396</v>
@@ -24686,10 +24686,10 @@
         <v>987.596618397678</v>
       </c>
       <c r="R167" t="n">
-        <v>0.1411501405795037</v>
+        <v>0.2031378261200046</v>
       </c>
       <c r="S167" t="n">
-        <v>2.224100045749673</v>
+        <v>3.200838812572863</v>
       </c>
       <c r="T167" t="n">
         <v>0.03356744814862773</v>
@@ -24707,7 +24707,7 @@
         <v>0.8649590307488526</v>
       </c>
       <c r="Y167" t="n">
-        <v>0.7394787280167305</v>
+        <v>1.064229200584427</v>
       </c>
       <c r="Z167" t="n">
         <v>0.3418827740463903</v>
@@ -24833,10 +24833,10 @@
         <v>691.2944805599391</v>
       </c>
       <c r="R168" t="n">
-        <v>0.1185885326210113</v>
+        <v>0.1678569431915376</v>
       </c>
       <c r="S168" t="n">
-        <v>1.60852657760438</v>
+        <v>2.276799859071521</v>
       </c>
       <c r="T168" t="n">
         <v>0.04144570564241178</v>
@@ -24854,7 +24854,7 @@
         <v>0.6965132350305449</v>
       </c>
       <c r="Y168" t="n">
-        <v>0.6232378835483371</v>
+        <v>0.8821662913050661</v>
       </c>
       <c r="Z168" t="n">
         <v>0.6819484755955724</v>
@@ -24980,10 +24980,10 @@
         <v>1457.682236879935</v>
       </c>
       <c r="R169" t="n">
-        <v>0.1645791532724723</v>
+        <v>0.2400645569455071</v>
       </c>
       <c r="S169" t="n">
-        <v>3.260047654045689</v>
+        <v>4.755291785916731</v>
       </c>
       <c r="T169" t="n">
         <v>0.02062597854168933</v>
@@ -25001,7 +25001,7 @@
         <v>1.082743549703771</v>
       </c>
       <c r="Y169" t="n">
-        <v>0.8507769300392036</v>
+        <v>1.24099184318432</v>
       </c>
       <c r="Z169" t="n">
         <v>0.1497984713539</v>
@@ -25132,10 +25132,10 @@
         <v>645.8478251835428</v>
       </c>
       <c r="R170" t="n">
-        <v>0.1163287231528448</v>
+        <v>0.163043119618721</v>
       </c>
       <c r="S170" t="n">
-        <v>1.533821858361131</v>
+        <v>2.14976227666492</v>
       </c>
       <c r="T170" t="n">
         <v>0.04624595873658108</v>
@@ -25153,7 +25153,7 @@
         <v>0.6689028568647222</v>
       </c>
       <c r="Y170" t="n">
-        <v>0.6115497244389859</v>
+        <v>0.8571311725264394</v>
       </c>
       <c r="Z170" t="n">
         <v>0.7699601345088106</v>
@@ -25279,10 +25279,10 @@
         <v>754.1763993014004</v>
       </c>
       <c r="R171" t="n">
-        <v>0.1255683803508113</v>
+        <v>0.1778681361692323</v>
       </c>
       <c r="S171" t="n">
-        <v>1.74957256182911</v>
+        <v>2.478276854379783</v>
       </c>
       <c r="T171" t="n">
         <v>0.04282934984446748</v>
@@ -25300,7 +25300,7 @@
         <v>0.7368538316760299</v>
       </c>
       <c r="Y171" t="n">
-        <v>0.6595982473796168</v>
+        <v>0.9343236772994391</v>
       </c>
       <c r="Z171" t="n">
         <v>0.5708926717395235</v>
@@ -25426,10 +25426,10 @@
         <v>694.7897285567831</v>
       </c>
       <c r="R172" t="n">
-        <v>0.1214351899138659</v>
+        <v>0.170108324580131</v>
       </c>
       <c r="S172" t="n">
-        <v>1.65095353935535</v>
+        <v>2.312681692502616</v>
       </c>
       <c r="T172" t="n">
         <v>0.04833582405902353</v>
@@ -25447,7 +25447,7 @@
         <v>0.6996966550040264</v>
       </c>
       <c r="Y172" t="n">
-        <v>0.6381823375602118</v>
+        <v>0.8939758590240692</v>
       </c>
       <c r="Z172" t="n">
         <v>0.6826810662395433</v>
@@ -25573,10 +25573,10 @@
         <v>721.4239695958357</v>
       </c>
       <c r="R173" t="n">
-        <v>0.1136334856626</v>
+        <v>0.1654436328278829</v>
       </c>
       <c r="S173" t="n">
-        <v>1.59134571912389</v>
+        <v>2.31690522667482</v>
       </c>
       <c r="T173" t="n">
         <v>0.01719589025246578</v>
@@ -25594,7 +25594,7 @@
         <v>0.7146448126176231</v>
       </c>
       <c r="Y173" t="n">
-        <v>0.5970628984731559</v>
+        <v>0.8692882593027391</v>
       </c>
       <c r="Z173" t="n">
         <v>0.6805673912377093</v>
@@ -25725,10 +25725,10 @@
         <v>902.7631496877395</v>
       </c>
       <c r="R174" t="n">
-        <v>0.1381656170708674</v>
+        <v>0.1962671828761755</v>
       </c>
       <c r="S174" t="n">
-        <v>2.083216758096902</v>
+        <v>2.959253489400359</v>
       </c>
       <c r="T174" t="n">
         <v>0.04462134000884908</v>
@@ -25746,7 +25746,7 @@
         <v>0.8228280307097516</v>
       </c>
       <c r="Y174" t="n">
-        <v>0.724675368229073</v>
+        <v>1.029416695972365</v>
       </c>
       <c r="Z174" t="n">
         <v>0.404075555564007</v>
@@ -25872,10 +25872,10 @@
         <v>594.5258050334226</v>
       </c>
       <c r="R175" t="n">
-        <v>0.1069902010338193</v>
+        <v>0.1519894544917073</v>
       </c>
       <c r="S175" t="n">
-        <v>1.377159154686223</v>
+        <v>1.956381674643796</v>
       </c>
       <c r="T175" t="n">
         <v>0.03640239210108644</v>
@@ -25893,7 +25893,7 @@
         <v>0.6360937255967315</v>
       </c>
       <c r="Y175" t="n">
-        <v>0.5626295358366514</v>
+        <v>0.7992671796710102</v>
       </c>
       <c r="Z175" t="n">
         <v>0.8958896244461122</v>
@@ -26019,10 +26019,10 @@
         <v>1170.76354833816</v>
       </c>
       <c r="R176" t="n">
-        <v>0.1503545702745954</v>
+        <v>0.2188049423442734</v>
       </c>
       <c r="S176" t="n">
-        <v>2.593136439260883</v>
+        <v>3.773686879268618</v>
       </c>
       <c r="T176" t="n">
         <v>0.02023037847291849</v>
@@ -26040,7 +26040,7 @@
         <v>0.9599910862878817</v>
       </c>
       <c r="Y176" t="n">
-        <v>0.7849581481837065</v>
+        <v>1.142317935812182</v>
       </c>
       <c r="Z176" t="n">
         <v>0.242207832922104</v>
@@ -26171,10 +26171,10 @@
         <v>600.3646172907607</v>
       </c>
       <c r="R177" t="n">
-        <v>0.1096196728041979</v>
+        <v>0.153315666908502</v>
       </c>
       <c r="S177" t="n">
-        <v>1.437427670222981</v>
+        <v>2.010407222128937</v>
       </c>
       <c r="T177" t="n">
         <v>0.04547583647541755</v>
@@ -26192,7 +26192,7 @@
         <v>0.6384197190346428</v>
       </c>
       <c r="Y177" t="n">
-        <v>0.57643808519718</v>
+        <v>0.8062146802912284</v>
       </c>
       <c r="Z177" t="n">
         <v>0.9272453500160622</v>
@@ -26318,10 +26318,10 @@
         <v>692.4616180294012</v>
       </c>
       <c r="R178" t="n">
-        <v>0.1244833359561404</v>
+        <v>0.1719210036161305</v>
       </c>
       <c r="S178" t="n">
-        <v>1.695201203944299</v>
+        <v>2.34120245954897</v>
       </c>
       <c r="T178" t="n">
         <v>0.05671221978843581</v>
@@ -26339,7 +26339,7 @@
         <v>0.6998895444544183</v>
       </c>
       <c r="Y178" t="n">
-        <v>0.6542123369332931</v>
+        <v>0.9035172513632971</v>
       </c>
       <c r="Z178" t="n">
         <v>0.6882379862442605</v>
@@ -26465,10 +26465,10 @@
         <v>605.4699797455413</v>
       </c>
       <c r="R179" t="n">
-        <v>0.1115419425864535</v>
+        <v>0.1534399719197333</v>
       </c>
       <c r="S179" t="n">
-        <v>1.5051995806631</v>
+        <v>2.070591349182668</v>
       </c>
       <c r="T179" t="n">
         <v>0.05369774463275617</v>
@@ -26486,7 +26486,7 @@
         <v>0.6392778989056547</v>
       </c>
       <c r="Y179" t="n">
-        <v>0.5865292039901415</v>
+        <v>0.8068446945022163</v>
       </c>
       <c r="Z179" t="n">
         <v>1.061957317094228</v>
@@ -26612,10 +26612,10 @@
         <v>1038.385761502041</v>
       </c>
       <c r="R180" t="n">
-        <v>0.1416436394950086</v>
+        <v>0.2056664354273076</v>
       </c>
       <c r="S180" t="n">
-        <v>2.303042315197808</v>
+        <v>3.344015342260944</v>
       </c>
       <c r="T180" t="n">
         <v>0.02313660233976278</v>
@@ -26633,7 +26633,7 @@
         <v>0.8958828677164544</v>
       </c>
       <c r="Y180" t="n">
-        <v>0.7414604838713343</v>
+        <v>1.076599946680965</v>
       </c>
       <c r="Z180" t="n">
         <v>0.3185833151393564</v>
@@ -26759,10 +26759,10 @@
         <v>977.7407518368065</v>
       </c>
       <c r="R181" t="n">
-        <v>0.1408450485829345</v>
+        <v>0.2012384711512984</v>
       </c>
       <c r="S181" t="n">
-        <v>2.236139499394309</v>
+        <v>3.194981283805418</v>
       </c>
       <c r="T181" t="n">
         <v>0.04140713382230297</v>
@@ -26780,7 +26780,7 @@
         <v>0.8634771973455064</v>
       </c>
       <c r="Y181" t="n">
-        <v>0.7379883584904391</v>
+        <v>1.054432871331103</v>
       </c>
       <c r="Z181" t="n">
         <v>0.3706040720577518</v>
@@ -26906,10 +26906,10 @@
         <v>614.5255735622602</v>
       </c>
       <c r="R182" t="n">
-        <v>0.1130110674688584</v>
+        <v>0.1561104156541531</v>
       </c>
       <c r="S182" t="n">
-        <v>1.511190858756808</v>
+        <v>2.087517960648328</v>
       </c>
       <c r="T182" t="n">
         <v>0.05243607596855394</v>
@@ -26927,7 +26927,7 @@
         <v>0.6480764371133466</v>
       </c>
       <c r="Y182" t="n">
-        <v>0.5942229659724479</v>
+        <v>0.8208434473443487</v>
       </c>
       <c r="Z182" t="n">
         <v>0.9235461386477641</v>
@@ -27053,10 +27053,10 @@
         <v>1086.790948377705</v>
       </c>
       <c r="R183" t="n">
-        <v>0.1454625720617081</v>
+        <v>0.2106526425749833</v>
       </c>
       <c r="S183" t="n">
-        <v>2.425834203451311</v>
+        <v>3.51298879267045</v>
       </c>
       <c r="T183" t="n">
         <v>0.02813009700368507</v>
@@ -27074,7 +27074,7 @@
         <v>0.9211398025816958</v>
       </c>
       <c r="Y183" t="n">
-        <v>0.7607835968557956</v>
+        <v>1.101734094440377</v>
       </c>
       <c r="Z183" t="n">
         <v>0.2928226146563421</v>
@@ -27200,10 +27200,10 @@
         <v>1157.738072323247</v>
       </c>
       <c r="R184" t="n">
-        <v>0.1520739369091393</v>
+        <v>0.2198726346157139</v>
       </c>
       <c r="S184" t="n">
-        <v>2.594095116908524</v>
+        <v>3.750613283190129</v>
       </c>
       <c r="T184" t="n">
         <v>0.03118989415838307</v>
@@ -27221,7 +27221,7 @@
         <v>0.95889102514237</v>
       </c>
       <c r="Y184" t="n">
-        <v>0.7941755878558204</v>
+        <v>1.148240667654133</v>
       </c>
       <c r="Z184" t="n">
         <v>0.2272541795460266</v>
@@ -27347,10 +27347,10 @@
         <v>502.0891203121045</v>
       </c>
       <c r="R185" t="n">
-        <v>0.09608671896815159</v>
+        <v>0.1359810800416386</v>
       </c>
       <c r="S185" t="n">
-        <v>1.178282664723694</v>
+        <v>1.667495269523928</v>
       </c>
       <c r="T185" t="n">
         <v>0.03602153339739648</v>
@@ -27368,7 +27368,7 @@
         <v>0.5768730046090889</v>
       </c>
       <c r="Y185" t="n">
-        <v>0.5055257249490207</v>
+        <v>0.7154155621671816</v>
       </c>
       <c r="Z185" t="n">
         <v>1.160972132839433</v>
@@ -27494,10 +27494,10 @@
         <v>602.57582753922</v>
       </c>
       <c r="R186" t="n">
-        <v>0.1171271449563155</v>
+        <v>0.1582179158669344</v>
       </c>
       <c r="S186" t="n">
-        <v>1.555960135632431</v>
+        <v>2.10182507158023</v>
       </c>
       <c r="T186" t="n">
         <v>0.0630069338249455</v>
@@ -27515,7 +27515,7 @@
         <v>0.6449929980777231</v>
       </c>
       <c r="Y186" t="n">
-        <v>0.6159085456470005</v>
+        <v>0.8319827696068902</v>
       </c>
       <c r="Z186" t="n">
         <v>0.9422257641784437</v>
@@ -27635,10 +27635,10 @@
         <v>835.8442899432383</v>
       </c>
       <c r="R187" t="n">
-        <v>0.1266596672399393</v>
+        <v>0.1820588767185525</v>
       </c>
       <c r="S187" t="n">
-        <v>1.889560738310609</v>
+        <v>2.716028811733938</v>
       </c>
       <c r="T187" t="n">
         <v>0.03344408948532161</v>
@@ -27656,7 +27656,7 @@
         <v>0.7907487953240917</v>
       </c>
       <c r="Y187" t="n">
-        <v>0.664825118046542</v>
+        <v>0.9556105494620005</v>
       </c>
       <c r="Z187" t="n">
         <v>0.5337849280352397</v>
@@ -27782,10 +27782,10 @@
         <v>710.042891624695</v>
       </c>
       <c r="R188" t="n">
-        <v>0.1131357113837135</v>
+        <v>0.1630428176496047</v>
       </c>
       <c r="S188" t="n">
-        <v>1.601063045495095</v>
+        <v>2.307333617117787</v>
       </c>
       <c r="T188" t="n">
         <v>0.02927595263654695</v>
@@ -27803,7 +27803,7 @@
         <v>0.7143614149290364</v>
       </c>
       <c r="Y188" t="n">
-        <v>0.5944989942527886</v>
+        <v>0.8567479704448496</v>
       </c>
       <c r="Z188" t="n">
         <v>0.7326900645964309</v>
@@ -27934,10 +27934,10 @@
         <v>621.437578506617</v>
       </c>
       <c r="R189" t="n">
-        <v>0.1030070716164252</v>
+        <v>0.1485979247966286</v>
       </c>
       <c r="S189" t="n">
-        <v>1.40329195892913</v>
+        <v>2.02438793481256</v>
       </c>
       <c r="T189" t="n">
         <v>0.02734208455741512</v>
@@ -27955,7 +27955,7 @@
         <v>0.6562598079159541</v>
       </c>
       <c r="Y189" t="n">
-        <v>0.5415986833742233</v>
+        <v>0.7813098572657871</v>
       </c>
       <c r="Z189" t="n">
         <v>0.9384613064831884</v>
@@ -28086,10 +28086,10 @@
         <v>1094.87293335189</v>
       </c>
       <c r="R190" t="n">
-        <v>0.1468960519860744</v>
+        <v>0.212944462265363</v>
       </c>
       <c r="S190" t="n">
-        <v>2.437812852363031</v>
+        <v>3.53391898510144</v>
       </c>
       <c r="T190" t="n">
         <v>0.02710045481785136</v>
@@ -28107,7 +28107,7 @@
         <v>0.9349271910687588</v>
       </c>
       <c r="Y190" t="n">
-        <v>0.7681601860943393</v>
+        <v>1.113545636863182</v>
       </c>
       <c r="Z190" t="n">
         <v>0.2621023438966263</v>
@@ -28233,10 +28233,10 @@
         <v>658.5484268094187</v>
       </c>
       <c r="R191" t="n">
-        <v>0.1173425876372177</v>
+        <v>0.1611476435393284</v>
       </c>
       <c r="S191" t="n">
-        <v>1.642355548883465</v>
+        <v>2.255461822390964</v>
       </c>
       <c r="T191" t="n">
         <v>0.05720109445360286</v>
@@ -28254,7 +28254,7 @@
         <v>0.6803421746847327</v>
       </c>
       <c r="Y191" t="n">
-        <v>0.616828797704516</v>
+        <v>0.8470966016583122</v>
       </c>
       <c r="Z191" t="n">
         <v>0.9333216318146712</v>
@@ -28380,10 +28380,10 @@
         <v>1027.490821699198</v>
       </c>
       <c r="R192" t="n">
-        <v>0.1415513712962745</v>
+        <v>0.2031056525943477</v>
       </c>
       <c r="S192" t="n">
-        <v>2.337163265165792</v>
+        <v>3.353489731989109</v>
       </c>
       <c r="T192" t="n">
         <v>0.03910708948450144</v>
@@ -28401,7 +28401,7 @@
         <v>0.8959857834794291</v>
       </c>
       <c r="Y192" t="n">
-        <v>0.7411133558526645</v>
+        <v>1.063389993388245</v>
       </c>
       <c r="Z192" t="n">
         <v>0.3633959567642358</v>
@@ -28526,10 +28526,10 @@
         <v>628.8426338325594</v>
       </c>
       <c r="R193" t="n">
-        <v>0.1148056293491351</v>
+        <v>0.1633332020290351</v>
       </c>
       <c r="S193" t="n">
-        <v>1.44401634367468</v>
+        <v>2.054392406816435</v>
       </c>
       <c r="T193" t="n">
         <v>0.03688303582721236</v>
@@ -28547,7 +28547,7 @@
         <v>0.6742478761346536</v>
       </c>
       <c r="Y193" t="n">
-        <v>0.6036069367303469</v>
+        <v>0.8587475570843821</v>
       </c>
       <c r="Z193" t="n">
         <v>0.6835518434954735</v>
@@ -28678,10 +28678,10 @@
         <v>605.631417133817</v>
       </c>
       <c r="R194" t="n">
-        <v>0.1051138239730824</v>
+        <v>0.1481688651350129</v>
       </c>
       <c r="S194" t="n">
-        <v>1.434185065968681</v>
+        <v>2.021632983998191</v>
       </c>
       <c r="T194" t="n">
         <v>0.04139926755438243</v>
@@ -28699,7 +28699,7 @@
         <v>0.6462720376887114</v>
       </c>
       <c r="Y194" t="n">
-        <v>0.5527272392721476</v>
+        <v>0.7791265190117627</v>
       </c>
       <c r="Z194" t="n">
         <v>1.032927277863392</v>
@@ -28825,10 +28825,10 @@
         <v>744.5358801773235</v>
       </c>
       <c r="R195" t="n">
-        <v>0.1190078681992714</v>
+        <v>0.1685316230256024</v>
       </c>
       <c r="S195" t="n">
-        <v>1.739823372906549</v>
+        <v>2.463830847913751</v>
       </c>
       <c r="T195" t="n">
         <v>0.04306915474644372</v>
@@ -28846,7 +28846,7 @@
         <v>0.7358778452607979</v>
       </c>
       <c r="Y195" t="n">
-        <v>0.6251864787958488</v>
+        <v>0.8853506373939978</v>
       </c>
       <c r="Z195" t="n">
         <v>0.7056120595457342</v>
@@ -28972,10 +28972,10 @@
         <v>678.2725324286299</v>
       </c>
       <c r="R196" t="n">
-        <v>0.1132276569688828</v>
+        <v>0.1592873721981907</v>
       </c>
       <c r="S196" t="n">
-        <v>1.60955777817669</v>
+        <v>2.264307464715817</v>
       </c>
       <c r="T196" t="n">
         <v>0.04503992034909069</v>
@@ -28993,7 +28993,7 @@
         <v>0.6948159819367651</v>
       </c>
       <c r="Y196" t="n">
-        <v>0.5951186194009809</v>
+        <v>0.8372060640330033</v>
       </c>
       <c r="Z196" t="n">
         <v>0.852135602410285</v>
@@ -29119,10 +29119,10 @@
         <v>1179.993382103823</v>
       </c>
       <c r="R197" t="n">
-        <v>0.1489392194618452</v>
+        <v>0.2170170831649125</v>
       </c>
       <c r="S197" t="n">
-        <v>2.613287579433526</v>
+        <v>3.807781791853982</v>
       </c>
       <c r="T197" t="n">
         <v>0.02115964216315785</v>
@@ -29140,7 +29140,7 @@
         <v>0.9784596673605107</v>
       </c>
       <c r="Y197" t="n">
-        <v>0.7773970496774906</v>
+        <v>1.132733478741218</v>
       </c>
       <c r="Z197" t="n">
         <v>0.2569575467863762</v>
@@ -29271,10 +29271,10 @@
         <v>713.0052843667512</v>
       </c>
       <c r="R198" t="n">
-        <v>0.1271678147830761</v>
+        <v>0.1776793880882276</v>
       </c>
       <c r="S198" t="n">
-        <v>1.697959749086224</v>
+        <v>2.372396268117921</v>
       </c>
       <c r="T198" t="n">
         <v>0.05174008289818734</v>
@@ -29292,7 +29292,7 @@
         <v>0.7294096597057825</v>
       </c>
       <c r="Y198" t="n">
-        <v>0.668219157457688</v>
+        <v>0.933638524877081</v>
       </c>
       <c r="Z198" t="n">
         <v>0.5629407848900215</v>
@@ -29423,10 +29423,10 @@
         <v>677.8520729986424</v>
       </c>
       <c r="R199" t="n">
-        <v>0.1243957277897565</v>
+        <v>0.1704772486666705</v>
       </c>
       <c r="S199" t="n">
-        <v>1.688964973708997</v>
+        <v>2.314630147901231</v>
       </c>
       <c r="T199" t="n">
         <v>0.06063151773054709</v>
@@ -29444,7 +29444,7 @@
         <v>0.7022392216560782</v>
       </c>
       <c r="Y199" t="n">
-        <v>0.6538193187261326</v>
+        <v>0.8960220785872234</v>
       </c>
       <c r="Z199" t="n">
         <v>0.7192814421699477</v>
@@ -29570,10 +29570,10 @@
         <v>666.5557018971555</v>
       </c>
       <c r="R200" t="n">
-        <v>0.1144310517266519</v>
+        <v>0.1604263474966915</v>
       </c>
       <c r="S200" t="n">
-        <v>1.590161894510123</v>
+        <v>2.229323778951709</v>
       </c>
       <c r="T200" t="n">
         <v>0.04692047504856837</v>
@@ -29591,7 +29591,7 @@
         <v>0.6921859746797767</v>
       </c>
       <c r="Y200" t="n">
-        <v>0.6014917628656352</v>
+        <v>0.8432599815335386</v>
       </c>
       <c r="Z200" t="n">
         <v>0.8164373299486781</v>
@@ -29717,10 +29717,10 @@
         <v>737.1421633166062</v>
       </c>
       <c r="R201" t="n">
-        <v>0.113658086858919</v>
+        <v>0.164424193959139</v>
       </c>
       <c r="S201" t="n">
-        <v>1.652393278814346</v>
+        <v>2.39044524222719</v>
       </c>
       <c r="T201" t="n">
         <v>0.02708417744019075</v>
@@ -29738,7 +29738,7 @@
         <v>0.7360334668062234</v>
       </c>
       <c r="Y201" t="n">
-        <v>0.5971181797166649</v>
+        <v>0.8638248109888583</v>
       </c>
       <c r="Z201" t="n">
         <v>0.7085733054776833</v>
@@ -29864,10 +29864,10 @@
         <v>800.1177842455157</v>
       </c>
       <c r="R202" t="n">
-        <v>0.1266550832001726</v>
+        <v>0.1772863248328644</v>
       </c>
       <c r="S202" t="n">
-        <v>1.91482393669026</v>
+        <v>2.680287990504837</v>
       </c>
       <c r="T202" t="n">
         <v>0.05244498527467804</v>
@@ -29885,7 +29885,7 @@
         <v>0.7733041434314625</v>
       </c>
       <c r="Y202" t="n">
-        <v>0.6650349181259859</v>
+        <v>0.930887205954007</v>
       </c>
       <c r="Z202" t="n">
         <v>0.6261340694999447</v>
@@ -30011,10 +30011,10 @@
         <v>639.2415645592341</v>
       </c>
       <c r="R203" t="n">
-        <v>0.1090344874533382</v>
+        <v>0.1533754442415963</v>
       </c>
       <c r="S203" t="n">
-        <v>1.519311277475258</v>
+        <v>2.13716822600518</v>
       </c>
       <c r="T203" t="n">
         <v>0.04389123071416211</v>
@@ -30032,7 +30032,7 @@
         <v>0.6731666992270625</v>
       </c>
       <c r="Y203" t="n">
-        <v>0.5732273353185953</v>
+        <v>0.8063411793772254</v>
       </c>
       <c r="Z203" t="n">
         <v>0.9814411944786255</v>
@@ -30158,10 +30158,10 @@
         <v>629.1192635044721</v>
       </c>
       <c r="R204" t="n">
-        <v>0.1151484378526309</v>
+        <v>0.1576304410115395</v>
       </c>
       <c r="S204" t="n">
-        <v>1.580911200071067</v>
+        <v>2.164160750371749</v>
       </c>
       <c r="T204" t="n">
         <v>0.05765280267204263</v>
@@ -30179,7 +30179,7 @@
         <v>0.6679256467534116</v>
       </c>
       <c r="Y204" t="n">
-        <v>0.6054082748474577</v>
+        <v>0.8287630743056552</v>
       </c>
       <c r="Z204" t="n">
         <v>0.9234073075493245</v>
@@ -30305,10 +30305,10 @@
         <v>655.3794889199245</v>
       </c>
       <c r="R205" t="n">
-        <v>0.1106696711185732</v>
+        <v>0.1600137738684471</v>
       </c>
       <c r="S205" t="n">
-        <v>1.46374457201276</v>
+        <v>2.11638193716389</v>
       </c>
       <c r="T205" t="n">
         <v>0.02532916420177057</v>
@@ -30326,7 +30326,7 @@
         <v>0.6925524272217999</v>
       </c>
       <c r="Y205" t="n">
-        <v>0.5817637378578655</v>
+        <v>0.8411537709795188</v>
       </c>
       <c r="Z205" t="n">
         <v>0.6118462593664977</v>
@@ -30444,10 +30444,10 @@
         <v>1106.307049209217</v>
       </c>
       <c r="R206" t="n">
-        <v>0.1445784434951526</v>
+        <v>0.2087289639072872</v>
       </c>
       <c r="S206" t="n">
-        <v>2.493735172744563</v>
+        <v>3.600223838926472</v>
       </c>
       <c r="T206" t="n">
         <v>0.03480804282746226</v>
@@ -30465,7 +30465,7 @@
         <v>0.9438956010181826</v>
       </c>
       <c r="Y206" t="n">
-        <v>0.7558686784158127</v>
+        <v>1.091253179115826</v>
       </c>
       <c r="Z206" t="n">
         <v>0.3259406846182062</v>
@@ -30591,10 +30591,10 @@
         <v>1340.203192284972</v>
       </c>
       <c r="R207" t="n">
-        <v>0.1565517104815149</v>
+        <v>0.2282689269515027</v>
       </c>
       <c r="S207" t="n">
-        <v>2.988360847124591</v>
+        <v>4.357345709087989</v>
       </c>
       <c r="T207" t="n">
         <v>0.0244805127417793</v>
@@ -30612,7 +30612,7 @@
         <v>1.058023221985795</v>
       </c>
       <c r="Y207" t="n">
-        <v>0.8132490631341964</v>
+        <v>1.185803019430296</v>
       </c>
       <c r="Z207" t="n">
         <v>0.225461244575194</v>
@@ -30743,10 +30743,10 @@
         <v>726.7651000624813</v>
       </c>
       <c r="R208" t="n">
-        <v>0.1202436422257591</v>
+        <v>0.1672270159236471</v>
       </c>
       <c r="S208" t="n">
-        <v>1.76605216823404</v>
+        <v>2.456110182563966</v>
       </c>
       <c r="T208" t="n">
         <v>0.05345785941736524</v>
@@ -30764,7 +30764,7 @@
         <v>0.729753114933281</v>
       </c>
       <c r="Y208" t="n">
-        <v>0.6317683037727275</v>
+        <v>0.8786221561444429</v>
       </c>
       <c r="Z208" t="n">
         <v>0.7644346525167046</v>
@@ -30890,10 +30890,10 @@
         <v>745.8300201736494</v>
       </c>
       <c r="R209" t="n">
-        <v>0.1137345742487345</v>
+        <v>0.1639538087611142</v>
       </c>
       <c r="S209" t="n">
-        <v>1.686784483087091</v>
+        <v>2.431580215497691</v>
       </c>
       <c r="T209" t="n">
         <v>0.03092590394973025</v>
@@ -30911,7 +30911,7 @@
         <v>0.7438044186196989</v>
       </c>
       <c r="Y209" t="n">
-        <v>0.5974778336427362</v>
+        <v>0.8612927697942826</v>
       </c>
       <c r="Z209" t="n">
         <v>0.7285294428011313</v>
@@ -31037,10 +31037,10 @@
         <v>1291.950448062617</v>
       </c>
       <c r="R210" t="n">
-        <v>0.153876954109824</v>
+        <v>0.2235771040570881</v>
       </c>
       <c r="S210" t="n">
-        <v>2.896953803076309</v>
+        <v>4.209158841399357</v>
       </c>
       <c r="T210" t="n">
         <v>0.03046917473595043</v>
@@ -31058,7 +31058,7 @@
         <v>1.038945460039606</v>
       </c>
       <c r="Y210" t="n">
-        <v>0.8006634387169052</v>
+        <v>1.16333218309581</v>
       </c>
       <c r="Z210" t="n">
         <v>0.2602761675258102</v>
@@ -31184,10 +31184,10 @@
         <v>767.6711090213208</v>
       </c>
       <c r="R211" t="n">
-        <v>0.1184922269441226</v>
+        <v>0.1684533957354912</v>
       </c>
       <c r="S211" t="n">
-        <v>1.784612297749876</v>
+        <v>2.537077826793224</v>
       </c>
       <c r="T211" t="n">
         <v>0.04161511405550304</v>
@@ -31205,7 +31205,7 @@
         <v>0.7577367548202441</v>
       </c>
       <c r="Y211" t="n">
-        <v>0.6223562559830826</v>
+        <v>0.8847671056685884</v>
       </c>
       <c r="Z211" t="n">
         <v>0.7042087832039807</v>
@@ -31331,10 +31331,10 @@
         <v>744.8250719255465</v>
       </c>
       <c r="R212" t="n">
-        <v>0.1107928477179156</v>
+        <v>0.1615333726494542</v>
       </c>
       <c r="S212" t="n">
-        <v>1.649668543913831</v>
+        <v>2.405178033970014</v>
       </c>
       <c r="T212" t="n">
         <v>0.02067100788030379</v>
@@ -31352,7 +31352,7 @@
         <v>0.7447515781791074</v>
       </c>
       <c r="Y212" t="n">
-        <v>0.5820289641900797</v>
+        <v>0.8485845747431682</v>
       </c>
       <c r="Z212" t="n">
         <v>0.7387211964130875</v>
@@ -31483,10 +31483,10 @@
         <v>690.60144114517</v>
       </c>
       <c r="R213" t="n">
-        <v>0.1148290103242213</v>
+        <v>0.1604992283295075</v>
       </c>
       <c r="S213" t="n">
-        <v>1.663660884135022</v>
+        <v>2.3253382342296</v>
       </c>
       <c r="T213" t="n">
         <v>0.04936275850062292</v>
@@ -31504,7 +31504,7 @@
         <v>0.7107619293209102</v>
       </c>
       <c r="Y213" t="n">
-        <v>0.6034828399284889</v>
+        <v>0.8435022634536409</v>
       </c>
       <c r="Z213" t="n">
         <v>0.8635237882170249</v>
@@ -31630,10 +31630,10 @@
         <v>675.2712614239051</v>
       </c>
       <c r="R214" t="n">
-        <v>0.1104849653501908</v>
+        <v>0.157109364037603</v>
       </c>
       <c r="S214" t="n">
-        <v>1.569611962631701</v>
+        <v>2.231984564173596</v>
       </c>
       <c r="T214" t="n">
         <v>0.03908125477812949</v>
@@ -31651,7 +31651,7 @@
         <v>0.7039156494342792</v>
       </c>
       <c r="Y214" t="n">
-        <v>0.5807152181487104</v>
+        <v>0.8257756910283927</v>
       </c>
       <c r="Z214" t="n">
         <v>0.832077942315791</v>
@@ -31777,10 +31777,10 @@
         <v>1087.947267189475</v>
       </c>
       <c r="R215" t="n">
-        <v>0.1434753085821031</v>
+        <v>0.2073696496041002</v>
       </c>
       <c r="S215" t="n">
-        <v>2.446101373997533</v>
+        <v>3.535431913928987</v>
       </c>
       <c r="T215" t="n">
         <v>0.03386439345897636</v>
@@ -31798,7 +31798,7 @@
         <v>0.9452109205760016</v>
       </c>
       <c r="Y215" t="n">
-        <v>0.7503732962120863</v>
+        <v>1.084539556286997</v>
       </c>
       <c r="Z215" t="n">
         <v>0.3205519206769895</v>
@@ -31924,10 +31924,10 @@
         <v>681.8745293413598</v>
       </c>
       <c r="R216" t="n">
-        <v>0.1114608365651366</v>
+        <v>0.1580749189091522</v>
       </c>
       <c r="S216" t="n">
-        <v>1.593829660259096</v>
+        <v>2.260385818593999</v>
       </c>
       <c r="T216" t="n">
         <v>0.04093287271074433</v>
@@ -31945,7 +31945,7 @@
         <v>0.7085939224964793</v>
       </c>
       <c r="Y216" t="n">
-        <v>0.5858176034447986</v>
+        <v>0.830812624539868</v>
       </c>
       <c r="Z216" t="n">
         <v>0.8266285092338317</v>
@@ -32071,10 +32071,10 @@
         <v>1370.193852557634</v>
       </c>
       <c r="R217" t="n">
-        <v>0.1569789616527179</v>
+        <v>0.2293010759456052</v>
       </c>
       <c r="S217" t="n">
-        <v>3.053069241074968</v>
+        <v>4.459655322881299</v>
       </c>
       <c r="T217" t="n">
         <v>0.02340752312698286</v>
@@ -32092,7 +32092,7 @@
         <v>1.080796253222887</v>
       </c>
       <c r="Y217" t="n">
-        <v>0.8145565425695878</v>
+        <v>1.189832635298902</v>
       </c>
       <c r="Z217" t="n">
         <v>0.2331787444177646</v>
@@ -32223,10 +32223,10 @@
         <v>948.0447993486778</v>
       </c>
       <c r="R218" t="n">
-        <v>0.1301248392827039</v>
+        <v>0.1905543486455362</v>
       </c>
       <c r="S218" t="n">
-        <v>2.074192731211875</v>
+        <v>3.037440407535785</v>
       </c>
       <c r="T218" t="n">
         <v>0.01171917050421338</v>
@@ -32244,7 +32244,7 @@
         <v>0.8731019981734591</v>
       </c>
       <c r="Y218" t="n">
-        <v>0.6821037801969887</v>
+        <v>0.9988703329862386</v>
       </c>
       <c r="Z218" t="n">
         <v>0.4194914960754469</v>
@@ -32367,10 +32367,10 @@
         <v>972.2802237650268</v>
       </c>
       <c r="R219" t="n">
-        <v>0.132433260294647</v>
+        <v>0.189289237991081</v>
       </c>
       <c r="S219" t="n">
-        <v>2.242711495984564</v>
+        <v>3.205547829633208</v>
       </c>
       <c r="T219" t="n">
         <v>0.04308601584876703</v>
@@ -32388,7 +32388,7 @@
         <v>0.87791897152482</v>
       </c>
       <c r="Y219" t="n">
-        <v>0.6939681590284604</v>
+        <v>0.9919011562526658</v>
       </c>
       <c r="Z219" t="n">
         <v>0.4623010070833148</v>
@@ -32514,10 +32514,10 @@
         <v>770.5624511920655</v>
       </c>
       <c r="R220" t="n">
-        <v>0.1221623872348929</v>
+        <v>0.1718074304807057</v>
       </c>
       <c r="S220" t="n">
-        <v>1.829197956499498</v>
+        <v>2.572557788531594</v>
       </c>
       <c r="T220" t="n">
         <v>0.04892885569089134</v>
@@ -32535,7 +32535,7 @@
         <v>0.7660815813213432</v>
       </c>
       <c r="Y220" t="n">
-        <v>0.6416168689879231</v>
+        <v>0.9023607683920948</v>
       </c>
       <c r="Z220" t="n">
         <v>0.6713280931386338</v>
@@ -32661,10 +32661,10 @@
         <v>624.9726923339898</v>
       </c>
       <c r="R221" t="n">
-        <v>0.1068780771971457</v>
+        <v>0.1484262682296528</v>
       </c>
       <c r="S221" t="n">
-        <v>1.535081188066917</v>
+        <v>2.131834499174534</v>
       </c>
       <c r="T221" t="n">
         <v>0.04982663429381672</v>
@@ -32682,7 +32682,7 @@
         <v>0.6716431457770439</v>
       </c>
       <c r="Y221" t="n">
-        <v>0.5619399614121662</v>
+        <v>0.7803906435149676</v>
       </c>
       <c r="Z221" t="n">
         <v>1.052223595027923</v>
@@ -32808,10 +32808,10 @@
         <v>962.9624243450199</v>
       </c>
       <c r="R222" t="n">
-        <v>0.1382054590164708</v>
+        <v>0.1964571622092245</v>
       </c>
       <c r="S222" t="n">
-        <v>2.23375410152335</v>
+        <v>3.175250782287798</v>
       </c>
       <c r="T222" t="n">
         <v>0.0474730866579349</v>
@@ -32829,7 +32829,7 @@
         <v>0.8854392673662566</v>
       </c>
       <c r="Y222" t="n">
-        <v>0.7243117759946697</v>
+        <v>1.029599243613655</v>
       </c>
       <c r="Z222" t="n">
         <v>0.4205445103373238</v>
@@ -32949,10 +32949,10 @@
         <v>1586.855673537546</v>
       </c>
       <c r="R223" t="n">
-        <v>0.1710664288830991</v>
+        <v>0.2492780941088863</v>
       </c>
       <c r="S223" t="n">
-        <v>3.598939830568528</v>
+        <v>5.244377097447645</v>
       </c>
       <c r="T223" t="n">
         <v>0.03237402402328885</v>
@@ -32970,7 +32970,7 @@
         <v>1.187111093213598</v>
       </c>
       <c r="Y223" t="n">
-        <v>0.8779163853584214</v>
+        <v>1.279300238848508</v>
       </c>
       <c r="Z223" t="n">
         <v>0.1607430578859499</v>
@@ -33096,10 +33096,10 @@
         <v>711.4270805998441</v>
       </c>
       <c r="R224" t="n">
-        <v>0.1109933916963984</v>
+        <v>0.1586738356569893</v>
       </c>
       <c r="S224" t="n">
-        <v>1.640427339891585</v>
+        <v>2.345120679338927</v>
       </c>
       <c r="T224" t="n">
         <v>0.03708393275579205</v>
@@ -33117,7 +33117,7 @@
         <v>0.7317455113260067</v>
       </c>
       <c r="Y224" t="n">
-        <v>0.5832355829459585</v>
+        <v>0.833781413679228</v>
       </c>
       <c r="Z224" t="n">
         <v>0.8087012339381878</v>
@@ -33243,10 +33243,10 @@
         <v>984.9070394545998</v>
       </c>
       <c r="R225" t="n">
-        <v>0.1331964702268837</v>
+        <v>0.1906502161448905</v>
       </c>
       <c r="S225" t="n">
-        <v>2.26694948540197</v>
+        <v>3.244788759381116</v>
       </c>
       <c r="T225" t="n">
         <v>0.04281888912929385</v>
@@ -33264,7 +33264,7 @@
         <v>0.8948944463263441</v>
       </c>
       <c r="Y225" t="n">
-        <v>0.697837953176166</v>
+        <v>0.998847464805349</v>
       </c>
       <c r="Z225" t="n">
         <v>0.4226107007899493</v>
@@ -33390,10 +33390,10 @@
         <v>951.035897625103</v>
       </c>
       <c r="R226" t="n">
-        <v>0.1314658072743305</v>
+        <v>0.1875307764475933</v>
       </c>
       <c r="S226" t="n">
-        <v>2.20317308941976</v>
+        <v>3.142739307454914</v>
       </c>
       <c r="T226" t="n">
         <v>0.04477265535399654</v>
@@ -33411,7 +33411,7 @@
         <v>0.8774776619038849</v>
       </c>
       <c r="Y226" t="n">
-        <v>0.6891048458311878</v>
+        <v>0.9829808181442965</v>
       </c>
       <c r="Z226" t="n">
         <v>0.4738500191087539</v>
@@ -33537,10 +33537,10 @@
         <v>796.6952557435292</v>
       </c>
       <c r="R227" t="n">
-        <v>0.1237423380972418</v>
+        <v>0.1742859252074364</v>
       </c>
       <c r="S227" t="n">
-        <v>1.887726140729534</v>
+        <v>2.658783582356146</v>
       </c>
       <c r="T227" t="n">
         <v>0.04929497002735306</v>
@@ -33558,7 +33558,7 @@
         <v>0.7916892078966967</v>
       </c>
       <c r="Y227" t="n">
-        <v>0.6497616438235585</v>
+        <v>0.915162191044924</v>
       </c>
       <c r="Z227" t="n">
         <v>0.6409421272864871</v>
@@ -33684,10 +33684,10 @@
         <v>939.3540787418856</v>
       </c>
       <c r="R228" t="n">
-        <v>0.1250225993348393</v>
+        <v>0.1815810853127332</v>
       </c>
       <c r="S228" t="n">
-        <v>2.104416386922889</v>
+        <v>3.056425106503727</v>
       </c>
       <c r="T228" t="n">
         <v>0.02933558575417928</v>
@@ -33705,7 +33705,7 @@
         <v>0.8707813357533756</v>
       </c>
       <c r="Y228" t="n">
-        <v>0.6554349985369952</v>
+        <v>0.9519446805577036</v>
       </c>
       <c r="Z228" t="n">
         <v>0.5200938286879409</v>
@@ -33831,10 +33831,10 @@
         <v>886.3814530477657</v>
       </c>
       <c r="R229" t="n">
-        <v>0.1240912873604324</v>
+        <v>0.1798037459174039</v>
       </c>
       <c r="S229" t="n">
-        <v>1.987678312490793</v>
+        <v>2.880073322364342</v>
       </c>
       <c r="T229" t="n">
         <v>0.03012442763108422</v>
@@ -33852,7 +33852,7 @@
         <v>0.8451206789259191</v>
       </c>
       <c r="Y229" t="n">
-        <v>0.6509829395150796</v>
+        <v>0.9432505177672634</v>
       </c>
       <c r="Z229" t="n">
         <v>0.5109985161810369</v>
@@ -33978,10 +33978,10 @@
         <v>779.093542820114</v>
       </c>
       <c r="R230" t="n">
-        <v>0.1200305093283791</v>
+        <v>0.1684509999627047</v>
       </c>
       <c r="S230" t="n">
-        <v>1.867054548898771</v>
+        <v>2.620227203122888</v>
       </c>
       <c r="T230" t="n">
         <v>0.05055058403737278</v>
@@ -33999,7 +33999,7 @@
         <v>0.7776091268611651</v>
       </c>
       <c r="Y230" t="n">
-        <v>0.6303723882471731</v>
+        <v>0.8846655716390319</v>
       </c>
       <c r="Z230" t="n">
         <v>0.7299905426345262</v>
@@ -34125,10 +34125,10 @@
         <v>785.7308120243068</v>
       </c>
       <c r="R231" t="n">
-        <v>0.1254201894232208</v>
+        <v>0.1749140702418733</v>
       </c>
       <c r="S231" t="n">
-        <v>1.899584704692059</v>
+        <v>2.64920738833917</v>
       </c>
       <c r="T231" t="n">
         <v>0.05503094247239907</v>
@@ -34146,7 +34146,7 @@
         <v>0.7877789284343752</v>
       </c>
       <c r="Y231" t="n">
-        <v>0.6586383782932533</v>
+        <v>0.9185532257173425</v>
       </c>
       <c r="Z231" t="n">
         <v>0.6482746826574618</v>
@@ -34272,10 +34272,10 @@
         <v>816.8790944553372</v>
       </c>
       <c r="R232" t="n">
-        <v>0.1177696604954739</v>
+        <v>0.1716442336981003</v>
       </c>
       <c r="S232" t="n">
-        <v>1.81026179020485</v>
+        <v>2.638378988827979</v>
       </c>
       <c r="T232" t="n">
         <v>0.02316092524737541</v>
@@ -34293,7 +34293,7 @@
         <v>0.8082051319580108</v>
       </c>
       <c r="Y232" t="n">
-        <v>0.6182801209958265</v>
+        <v>0.9011167828167082</v>
       </c>
       <c r="Z232" t="n">
         <v>0.5953509816737408</v>
@@ -34424,10 +34424,10 @@
         <v>720.7862659486707</v>
       </c>
       <c r="R233" t="n">
-        <v>0.1050506355429122</v>
+        <v>0.1525235014535767</v>
       </c>
       <c r="S233" t="n">
-        <v>1.622799070987087</v>
+        <v>2.35614944339346</v>
       </c>
       <c r="T233" t="n">
         <v>0.02756780343398805</v>
@@ -34445,7 +34445,7 @@
         <v>0.7407261599323092</v>
       </c>
       <c r="Y233" t="n">
-        <v>0.5519688621792016</v>
+        <v>0.8014061325552707</v>
       </c>
       <c r="Z233" t="n">
         <v>0.8906056203022326</v>
@@ -34576,10 +34576,10 @@
         <v>825.3872499014032</v>
       </c>
       <c r="R234" t="n">
-        <v>0.1342883502130712</v>
+        <v>0.1836425342803479</v>
       </c>
       <c r="S234" t="n">
-        <v>2.080322995881168</v>
+        <v>2.84489150755921</v>
       </c>
       <c r="T234" t="n">
         <v>0.06807961188627118</v>
@@ -34597,7 +34597,7 @@
         <v>0.815318117015248</v>
       </c>
       <c r="Y234" t="n">
-        <v>0.7049422584831878</v>
+        <v>0.9640254174227223</v>
       </c>
       <c r="Z234" t="n">
         <v>0.5924990513966264</v>
@@ -34723,10 +34723,10 @@
         <v>1378.715912002045</v>
       </c>
       <c r="R235" t="n">
-        <v>0.1514390136179402</v>
+        <v>0.2193569468681104</v>
       </c>
       <c r="S235" t="n">
-        <v>3.155730493150932</v>
+        <v>4.571024266326703</v>
       </c>
       <c r="T235" t="n">
         <v>0.04150863139783494</v>
@@ -34744,7 +34744,7 @@
         <v>1.100566115230418</v>
       </c>
       <c r="Y235" t="n">
-        <v>0.7855481960715758</v>
+        <v>1.137853778833642</v>
       </c>
       <c r="Z235" t="n">
         <v>0.2663815632047701</v>
@@ -34867,10 +34867,10 @@
         <v>836.6014104124247</v>
       </c>
       <c r="R236" t="n">
-        <v>0.1369766408899978</v>
+        <v>0.1819467109892253</v>
       </c>
       <c r="S236" t="n">
-        <v>2.269983649855793</v>
+        <v>3.01522986990359</v>
       </c>
       <c r="T236" t="n">
         <v>0.08198542283704525</v>
@@ -34888,7 +34888,7 @@
         <v>0.8169637954472923</v>
       </c>
       <c r="Y236" t="n">
-        <v>0.7189723707334169</v>
+        <v>0.9550143535212315</v>
       </c>
       <c r="Z236" t="n">
         <v>0.7314573521600621</v>
@@ -35019,10 +35019,10 @@
         <v>855.0362577847289</v>
       </c>
       <c r="R237" t="n">
-        <v>0.1649741041261922</v>
+        <v>0.2067136046552045</v>
       </c>
       <c r="S237" t="n">
-        <v>2.674697552399833</v>
+        <v>3.351413092057768</v>
       </c>
       <c r="T237" t="n">
         <v>0.1186747163599051</v>
@@ -35040,7 +35040,7 @@
         <v>0.8335209099840005</v>
       </c>
       <c r="Y237" t="n">
-        <v>0.8657589450843264</v>
+        <v>1.084801479897565</v>
       </c>
       <c r="Z237" t="n">
         <v>0.6222981753795759</v>
@@ -35166,10 +35166,10 @@
         <v>972.0810371125101</v>
       </c>
       <c r="R238" t="n">
-        <v>0.2523148676589058</v>
+        <v>0.285639081071438</v>
       </c>
       <c r="S238" t="n">
-        <v>4.334147835584012</v>
+        <v>4.90657572607883</v>
       </c>
       <c r="T238" t="n">
         <v>0.2202886609928356</v>
@@ -35187,7 +35187,7 @@
         <v>0.9127148784427735</v>
       </c>
       <c r="Y238" t="n">
-        <v>1.322167772021158</v>
+        <v>1.49679165134629</v>
       </c>
       <c r="Z238" t="n">
         <v>0.4735425182447809</v>
@@ -35307,10 +35307,10 @@
         <v>1519.803373121171</v>
       </c>
       <c r="R239" t="n">
-        <v>0.2037819341957858</v>
+        <v>0.2633884971122732</v>
       </c>
       <c r="S239" t="n">
-        <v>4.496869371514135</v>
+        <v>5.812211323577743</v>
       </c>
       <c r="T239" t="n">
         <v>0.1352274147323163</v>
@@ -35328,7 +35328,7 @@
         <v>1.184758325503238</v>
       </c>
       <c r="Y239" t="n">
-        <v>1.050055994464902</v>
+        <v>1.357199161728065</v>
       </c>
       <c r="Z239" t="n">
         <v>0.2071639806020718</v>
@@ -35451,10 +35451,10 @@
         <v>942.2558822683638</v>
       </c>
       <c r="R240" t="n">
-        <v>0.2192783135892795</v>
+        <v>0.2552238861082693</v>
       </c>
       <c r="S240" t="n">
-        <v>3.748013146989461</v>
+        <v>4.362412611177165</v>
       </c>
       <c r="T240" t="n">
         <v>0.1836861907000023</v>
@@ -35472,7 +35472,7 @@
         <v>0.898493054617561</v>
       </c>
       <c r="Y240" t="n">
-        <v>1.149528991914519</v>
+        <v>1.337967497597941</v>
       </c>
       <c r="Z240" t="n">
         <v>0.5432197344943213</v>
@@ -35598,10 +35598,10 @@
         <v>1099.547429287789</v>
       </c>
       <c r="R241" t="n">
-        <v>0.1966878144834002</v>
+        <v>0.242527824909629</v>
       </c>
       <c r="S241" t="n">
-        <v>3.622311472374406</v>
+        <v>4.466526433513775</v>
       </c>
       <c r="T241" t="n">
         <v>0.147570325814163</v>
@@ -35619,7 +35619,7 @@
         <v>0.9884347448153088</v>
       </c>
       <c r="Y241" t="n">
-        <v>1.028440202681258</v>
+        <v>1.268128206422032</v>
       </c>
       <c r="Z241" t="n">
         <v>0.3988710738074556</v>
@@ -35750,10 +35750,10 @@
         <v>1075.230485536771</v>
       </c>
       <c r="R242" t="n">
-        <v>0.3487491523335767</v>
+        <v>0.3753986402366964</v>
       </c>
       <c r="S242" t="n">
-        <v>6.427453739275534</v>
+        <v>6.918604325668497</v>
       </c>
       <c r="T242" t="n">
         <v>0.3248362798694801</v>
@@ -35771,7 +35771,7 @@
         <v>0.9831031826595126</v>
       </c>
       <c r="Y242" t="n">
-        <v>1.824392396964727</v>
+        <v>1.963802407822477</v>
       </c>
       <c r="Z242" t="n">
         <v>0.4640608572031384</v>
@@ -35891,10 +35891,10 @@
         <v>1149.081249275396</v>
       </c>
       <c r="R243" t="n">
-        <v>0.176443507684558</v>
+        <v>0.2272749506112312</v>
       </c>
       <c r="S243" t="n">
-        <v>3.380951662678459</v>
+        <v>4.354966823307243</v>
       </c>
       <c r="T243" t="n">
         <v>0.1186256032620037</v>
@@ -35912,7 +35912,7 @@
         <v>1.027347738803532</v>
       </c>
       <c r="Y243" t="n">
-        <v>0.9216218222356926</v>
+        <v>1.187130979652257</v>
       </c>
       <c r="Z243" t="n">
         <v>0.4291855539202961</v>
@@ -36043,10 +36043,10 @@
         <v>1187.663372872443</v>
       </c>
       <c r="R244" t="n">
-        <v>0.3030890681526909</v>
+        <v>0.3371454826456701</v>
       </c>
       <c r="S244" t="n">
-        <v>5.818937380242344</v>
+        <v>6.472778657125311</v>
       </c>
       <c r="T244" t="n">
         <v>0.2714677059784683</v>
@@ -36064,7 +36064,7 @@
         <v>1.054849010404501</v>
       </c>
       <c r="Y244" t="n">
-        <v>1.581694415650103</v>
+        <v>1.759420524179603</v>
       </c>
       <c r="Z244" t="n">
         <v>0.2899854730639344</v>
@@ -36195,10 +36195,10 @@
         <v>1361.947633989656</v>
       </c>
       <c r="R245" t="n">
-        <v>0.4924928055253229</v>
+        <v>0.5165388461246515</v>
       </c>
       <c r="S245" t="n">
-        <v>10.41749965807369</v>
+        <v>10.92613575775099</v>
       </c>
       <c r="T245" t="n">
         <v>0.4719491682313636</v>
@@ -36216,7 +36216,7 @@
         <v>1.172043752289484</v>
       </c>
       <c r="Y245" t="n">
-        <v>2.556329728417265</v>
+        <v>2.681142939382296</v>
       </c>
       <c r="Z245" t="n">
         <v>0.3259848018476597</v>

--- a/results/GAIA_TESS_confirmed_matches_unique_stars.xlsx
+++ b/results/GAIA_TESS_confirmed_matches_unique_stars.xlsx
@@ -762,10 +762,10 @@
         <v>116.5804818665035</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1191409989463345</v>
+        <v>0.09418005128738294</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6273648450050496</v>
+        <v>0.4959271266903745</v>
       </c>
       <c r="T2" t="n">
         <v>0.0916058933957714</v>
@@ -783,7 +783,7 @@
         <v>0.1757749513099214</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6275073607107255</v>
+        <v>0.4960397842691133</v>
       </c>
       <c r="Z2" t="n">
         <v>2.123992763702066</v>
@@ -904,10 +904,10 @@
         <v>143.5781541528725</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1117249952005029</v>
+        <v>0.07827118767165567</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6629172386673313</v>
+        <v>0.4644199760795594</v>
       </c>
       <c r="T3" t="n">
         <v>0.07499675172412429</v>
@@ -925,7 +925,7 @@
         <v>0.1988137208558769</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.5884200118803723</v>
+        <v>0.4122294487190917</v>
       </c>
       <c r="Z3" t="n">
         <v>2.18165867208891</v>
@@ -1051,10 +1051,10 @@
         <v>123.5853141391516</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1949486545591022</v>
+        <v>0.1795799618924434</v>
       </c>
       <c r="S4" t="n">
-        <v>1.044521400590919</v>
+        <v>0.9621770088035774</v>
       </c>
       <c r="T4" t="n">
         <v>0.1782164488129691</v>
@@ -1072,7 +1072,7 @@
         <v>0.1834047639562364</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.026768754934972</v>
+        <v>0.9458238852716659</v>
       </c>
       <c r="Z4" t="n">
         <v>2.803773182186938</v>
@@ -1174,10 +1174,10 @@
         <v>148.9581530630982</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1065227597034867</v>
+        <v>0.06942355626115669</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6465578225135085</v>
+        <v>0.4213779617830188</v>
       </c>
       <c r="T5" t="n">
         <v>0.06567875372171045</v>
@@ -1195,7 +1195,7 @@
         <v>0.2035489670655923</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.5610159971696481</v>
+        <v>0.3656282070735832</v>
       </c>
       <c r="Z5" t="n">
         <v>1.894695104861966</v>
@@ -1307,10 +1307,10 @@
         <v>119.3912679145112</v>
       </c>
       <c r="R6" t="n">
-        <v>0.131176010801089</v>
+        <v>0.108872133589579</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7024562915193739</v>
+        <v>0.5830175406622642</v>
       </c>
       <c r="T6" t="n">
         <v>0.1066481321356858</v>
@@ -1328,7 +1328,7 @@
         <v>0.1802926127660725</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.6908916392019471</v>
+        <v>0.5734192279499715</v>
       </c>
       <c r="Z6" t="n">
         <v>3.103394082664003</v>
@@ -1449,10 +1449,10 @@
         <v>148.1853644484523</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1162450156838691</v>
+        <v>0.08436242532277932</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7072791739871009</v>
+        <v>0.5132932895816518</v>
       </c>
       <c r="T7" t="n">
         <v>0.08132460400993197</v>
@@ -1470,7 +1470,7 @@
         <v>0.204236757441923</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.6122203917613354</v>
+        <v>0.4443063367250716</v>
       </c>
       <c r="Z7" t="n">
         <v>2.261071033418257</v>
@@ -1590,10 +1590,10 @@
         <v>174.3896400009764</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1342425841646198</v>
+        <v>0.1024226807493867</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8845308004195678</v>
+        <v>0.6748679366398093</v>
       </c>
       <c r="T8" t="n">
         <v>0.09980530887210907</v>
@@ -1611,7 +1611,7 @@
         <v>0.2261996200304402</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.7069720311114168</v>
+        <v>0.5393964299173115</v>
       </c>
       <c r="Z8" t="n">
         <v>1.80249488869439</v>
@@ -1737,10 +1737,10 @@
         <v>194.8182740025262</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1169538406130027</v>
+        <v>0.06083266886595812</v>
       </c>
       <c r="S9" t="n">
-        <v>0.746249352615619</v>
+        <v>0.3881560410599676</v>
       </c>
       <c r="T9" t="n">
         <v>0.0558434611736499</v>
@@ -1758,7 +1758,7 @@
         <v>0.2466583937148639</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.6158977620351729</v>
+        <v>0.3203546323642909</v>
       </c>
       <c r="Z9" t="n">
         <v>1.520978269957896</v>
@@ -1881,10 +1881,10 @@
         <v>146.9336075505121</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1259726296981117</v>
+        <v>0.09362410747498912</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7150307528839287</v>
+        <v>0.5314179454406578</v>
       </c>
       <c r="T10" t="n">
         <v>0.09081263582502884</v>
@@ -1902,7 +1902,7 @@
         <v>0.2105365797803334</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.6634537281649641</v>
+        <v>0.4930853892568212</v>
       </c>
       <c r="Z10" t="n">
         <v>2.803773182186938</v>
@@ -2020,10 +2020,10 @@
         <v>139.7918479069546</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1292568272114195</v>
+        <v>0.1035569048376418</v>
       </c>
       <c r="S11" t="n">
-        <v>0.7588712904869691</v>
+        <v>0.6079861598678835</v>
       </c>
       <c r="T11" t="n">
         <v>0.1011393669587963</v>
@@ -2041,7 +2041,7 @@
         <v>0.2039448537235887</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.6807592333423486</v>
+        <v>0.545404994579283</v>
       </c>
       <c r="Z11" t="n">
         <v>2.826590984171109</v>
@@ -2161,10 +2161,10 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1166876592722171</v>
+        <v>0.08594444658549791</v>
       </c>
       <c r="S12" t="n">
-        <v>0.7213599155685112</v>
+        <v>0.5313062162629087</v>
       </c>
       <c r="T12" t="n">
         <v>0.08297734075292265</v>
@@ -2182,7 +2182,7 @@
         <v>0.2145593731022121</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.614548943016602</v>
+        <v>0.4526362867906126</v>
       </c>
       <c r="Z12" t="n">
         <v>2.559518810463633</v>
@@ -2300,10 +2300,10 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1558049236940696</v>
+        <v>0.1343339581780173</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9631817734805855</v>
+        <v>0.8304488523779201</v>
       </c>
       <c r="T13" t="n">
         <v>0.1324552886800389</v>
@@ -2321,7 +2321,7 @@
         <v>0.2145593731022121</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.8205645033087953</v>
+        <v>0.7074852004439249</v>
       </c>
       <c r="Z13" t="n">
         <v>2.559518810463633</v>
@@ -2423,10 +2423,10 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2468774269745986</v>
+        <v>0.2339207173853072</v>
       </c>
       <c r="S14" t="n">
-        <v>1.526189495863593</v>
+        <v>1.446091471842279</v>
       </c>
       <c r="T14" t="n">
         <v>0.2328469308399745</v>
@@ -2444,7 +2444,7 @@
         <v>0.2145593731022121</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.300208288932757</v>
+        <v>1.231970291592382</v>
       </c>
       <c r="Z14" t="n">
         <v>2.559518810463633</v>
@@ -2546,10 +2546,10 @@
         <v>160.8307028507757</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1197899183364105</v>
+        <v>0.08688193955446742</v>
       </c>
       <c r="S15" t="n">
-        <v>0.7569865200145717</v>
+        <v>0.5490316546568856</v>
       </c>
       <c r="T15" t="n">
         <v>0.08387142815650195</v>
@@ -2567,7 +2567,7 @@
         <v>0.2236063817886191</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.6308752807293725</v>
+        <v>0.4575649501054616</v>
       </c>
       <c r="Z15" t="n">
         <v>2.022947799631273</v>
@@ -2685,10 +2685,10 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1017533020813543</v>
+        <v>0.06421972093459923</v>
       </c>
       <c r="S16" t="n">
-        <v>0.62903612820777</v>
+        <v>0.3970045569527144</v>
       </c>
       <c r="T16" t="n">
         <v>0.06019106027025059</v>
@@ -2706,7 +2706,7 @@
         <v>0.2145593731022121</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.5358954377228989</v>
+        <v>0.3382205270662744</v>
       </c>
       <c r="Z16" t="n">
         <v>2.559518810463633</v>
@@ -2829,10 +2829,10 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1265155663290903</v>
+        <v>0.09887682537394141</v>
       </c>
       <c r="S17" t="n">
-        <v>0.7821157679780828</v>
+        <v>0.6112538279393801</v>
       </c>
       <c r="T17" t="n">
         <v>0.09630897037954482</v>
@@ -2850,7 +2850,7 @@
         <v>0.2145593731022121</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.6663087429092102</v>
+        <v>0.5207461431772903</v>
       </c>
       <c r="Z17" t="n">
         <v>2.559518810463633</v>
@@ -2962,10 +2962,10 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1687973149166674</v>
+        <v>0.149207813453368</v>
       </c>
       <c r="S18" t="n">
-        <v>1.043500380382299</v>
+        <v>0.9223986185530643</v>
       </c>
       <c r="T18" t="n">
         <v>0.1475186861894933</v>
@@ -2983,7 +2983,7 @@
         <v>0.2145593731022121</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.8889904220640855</v>
+        <v>0.7858200654592957</v>
       </c>
       <c r="Z18" t="n">
         <v>2.559518810463633</v>
@@ -3090,10 +3090,10 @@
         <v>192.4198323261162</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1201171768702458</v>
+        <v>0.08249938494647539</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8554185453037726</v>
+        <v>0.5875221654235464</v>
       </c>
       <c r="T19" t="n">
         <v>0.07919306793699592</v>
@@ -3111,7 +3111,7 @@
         <v>0.2505004184883252</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.6325595121231445</v>
+        <v>0.434457186323773</v>
       </c>
       <c r="Z19" t="n">
         <v>1.615091729727736</v>
@@ -3232,10 +3232,10 @@
         <v>159.4294446065069</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1447958976737194</v>
+        <v>0.1197895135709042</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9154584467275934</v>
+        <v>0.7573579347875248</v>
       </c>
       <c r="T20" t="n">
         <v>0.1176391127417782</v>
@@ -3253,7 +3253,7 @@
         <v>0.2257669438705284</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.7625716352403478</v>
+        <v>0.6308748156266998</v>
       </c>
       <c r="Z20" t="n">
         <v>2.574200330803404</v>
@@ -3379,10 +3379,10 @@
         <v>223.5114462271911</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1385955025759007</v>
+        <v>0.09914875619533545</v>
       </c>
       <c r="S21" t="n">
-        <v>1.027637700831464</v>
+        <v>0.7351537240616824</v>
       </c>
       <c r="T21" t="n">
         <v>0.09620372073824321</v>
@@ -3400,7 +3400,7 @@
         <v>0.2812972518583494</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.7298215622920419</v>
+        <v>0.5221013582757826</v>
       </c>
       <c r="Z21" t="n">
         <v>1.512440288547218</v>
@@ -3510,10 +3510,10 @@
         <v>210.4590335190624</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1390786130084794</v>
+        <v>0.1035731977279309</v>
       </c>
       <c r="S22" t="n">
-        <v>1.011896036360207</v>
+        <v>0.7535688341071933</v>
       </c>
       <c r="T22" t="n">
         <v>0.100842314911554</v>
@@ -3531,7 +3531,7 @@
         <v>0.2721122834265374</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.7323863398769322</v>
+        <v>0.5454152407220536</v>
       </c>
       <c r="Z22" t="n">
         <v>1.491895444294793</v>
@@ -3649,10 +3649,10 @@
         <v>181.41725770758</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2072240811668925</v>
+        <v>0.1893583578470147</v>
       </c>
       <c r="S23" t="n">
-        <v>1.433256951613473</v>
+        <v>1.309689400971541</v>
       </c>
       <c r="T23" t="n">
         <v>0.1879715944979403</v>
@@ -3670,7 +3670,7 @@
         <v>0.2479913943179192</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.0913049733496</v>
+        <v>0.9972186461154203</v>
       </c>
       <c r="Z23" t="n">
         <v>2.304468294889742</v>
@@ -3782,10 +3782,10 @@
         <v>243.1186016090445</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1552276708554674</v>
+        <v>0.118926682844201</v>
       </c>
       <c r="S24" t="n">
-        <v>1.212097270003068</v>
+        <v>0.9286405369065647</v>
       </c>
       <c r="T24" t="n">
         <v>0.1164195608522771</v>
@@ -3803,7 +3803,7 @@
         <v>0.2987281500650054</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.8173675472463819</v>
+        <v>0.6262208955581269</v>
       </c>
       <c r="Z24" t="n">
         <v>0.9846428398495232</v>
@@ -3918,10 +3918,10 @@
         <v>223.2732531490377</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1632070590053969</v>
+        <v>0.1327181094272424</v>
       </c>
       <c r="S25" t="n">
-        <v>1.225490553085486</v>
+        <v>0.9965548691191901</v>
       </c>
       <c r="T25" t="n">
         <v>0.1305567031758335</v>
@@ -3939,7 +3939,7 @@
         <v>0.2871845217458356</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.8594225013743972</v>
+        <v>0.6988725259602271</v>
       </c>
       <c r="Z25" t="n">
         <v>1.715168075731323</v>
@@ -4059,10 +4059,10 @@
         <v>236.2062132450272</v>
       </c>
       <c r="R26" t="n">
-        <v>0.109409715095083</v>
+        <v>0.04966226803465653</v>
       </c>
       <c r="S26" t="n">
-        <v>0.8461524089254281</v>
+        <v>0.3840778462287892</v>
       </c>
       <c r="T26" t="n">
         <v>0.04342301811504145</v>
@@ -4080,7 +4080,7 @@
         <v>0.2981269094853483</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.5761174778683598</v>
+        <v>0.2615060333580433</v>
       </c>
       <c r="Z26" t="n">
         <v>1.868830615026467</v>
@@ -4206,10 +4206,10 @@
         <v>216.2965707883208</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1395924238722066</v>
+        <v>0.1051483538115446</v>
       </c>
       <c r="S27" t="n">
-        <v>1.04909973613288</v>
+        <v>0.7902370857854374</v>
       </c>
       <c r="T27" t="n">
         <v>0.1024693174642039</v>
@@ -4227,7 +4227,7 @@
         <v>0.2828743267539057</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.7350828113771426</v>
+        <v>0.5537030261916525</v>
       </c>
       <c r="Z27" t="n">
         <v>1.59132900191973</v>
@@ -4340,10 +4340,10 @@
         <v>211.3009407922477</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1506385027407889</v>
+        <v>0.1194996178898679</v>
       </c>
       <c r="S28" t="n">
-        <v>1.106776854611701</v>
+        <v>0.8779920724718928</v>
       </c>
       <c r="T28" t="n">
         <v>0.1171531502028852</v>
@@ -4361,7 +4361,7 @@
         <v>0.2796120325720114</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.7932591525364373</v>
+        <v>0.6292824469907387</v>
       </c>
       <c r="Z28" t="n">
         <v>2.032094901061378</v>
@@ -4474,10 +4474,10 @@
         <v>203.1306574639146</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1618128878235748</v>
+        <v>0.1348606787880528</v>
       </c>
       <c r="S29" t="n">
-        <v>1.172158076349136</v>
+        <v>0.9769186864503394</v>
       </c>
       <c r="T29" t="n">
         <v>0.1328220174039462</v>
@@ -4495,7 +4495,7 @@
         <v>0.2729424054078003</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.8521180040826958</v>
+        <v>0.7101857829977538</v>
       </c>
       <c r="Z29" t="n">
         <v>2.005730181042971</v>
@@ -4610,10 +4610,10 @@
         <v>244.5347925117613</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1827521121227282</v>
+        <v>0.1526799834513422</v>
       </c>
       <c r="S30" t="n">
-        <v>1.417739319625037</v>
+        <v>1.184448230690229</v>
       </c>
       <c r="T30" t="n">
         <v>0.1507210696209442</v>
@@ -4631,7 +4631,7 @@
         <v>0.3073329685458401</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.9622972016611058</v>
+        <v>0.803949782677331</v>
       </c>
       <c r="Z30" t="n">
         <v>1.067981697722314</v>
@@ -4746,10 +4746,10 @@
         <v>236.5612673579149</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1035738450874326</v>
+        <v>0.04025580181455788</v>
       </c>
       <c r="S31" t="n">
-        <v>0.8178246510166601</v>
+        <v>0.3178619760866765</v>
       </c>
       <c r="T31" t="n">
         <v>0.03236366419604936</v>
@@ -4767,7 +4767,7 @@
         <v>0.3006488573105169</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.5453871619942572</v>
+        <v>0.2119743404998774</v>
       </c>
       <c r="Z31" t="n">
         <v>2.04967100115046</v>
@@ -4898,10 +4898,10 @@
         <v>245.5303446356583</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1319948415826243</v>
+        <v>0.09236954995359821</v>
       </c>
       <c r="S32" t="n">
-        <v>1.095125699175951</v>
+        <v>0.7663653121791262</v>
       </c>
       <c r="T32" t="n">
         <v>0.08923218482851709</v>
@@ -4919,7 +4919,7 @@
         <v>0.3064149260123588</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.6950287469027644</v>
+        <v>0.486378799250537</v>
       </c>
       <c r="Z32" t="n">
         <v>2.455633413713854</v>
@@ -5045,10 +5045,10 @@
         <v>220.9488316052588</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1498632051209512</v>
+        <v>0.1176055885210543</v>
       </c>
       <c r="S33" t="n">
-        <v>1.133499123640524</v>
+        <v>0.8895167524026653</v>
       </c>
       <c r="T33" t="n">
         <v>0.1151930164008232</v>
@@ -5066,7 +5066,7 @@
         <v>0.2910348595471279</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.7891599242686297</v>
+        <v>0.6192955586125241</v>
       </c>
       <c r="Z33" t="n">
         <v>2.023241853551796</v>
@@ -5173,10 +5173,10 @@
         <v>197.6108576999949</v>
       </c>
       <c r="R34" t="n">
-        <v>0.09666948165170583</v>
+        <v>0.04369086509948313</v>
       </c>
       <c r="S34" t="n">
-        <v>0.7044582505479338</v>
+        <v>0.3183878703705095</v>
       </c>
       <c r="T34" t="n">
         <v>0.03707916719312158</v>
@@ -5194,7 +5194,7 @@
         <v>0.2713711300321883</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.5090741255600304</v>
+        <v>0.2300818062272929</v>
       </c>
       <c r="Z34" t="n">
         <v>2.692255921705275</v>
@@ -5317,10 +5317,10 @@
         <v>246.2817831412347</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1332002819834189</v>
+        <v>0.08972422836503061</v>
       </c>
       <c r="S35" t="n">
-        <v>1.059146548264805</v>
+        <v>0.713445237153289</v>
       </c>
       <c r="T35" t="n">
         <v>0.08639088293364906</v>
@@ -5338,7 +5338,7 @@
         <v>0.3116117503205977</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.7013748507334583</v>
+        <v>0.4724488292339487</v>
       </c>
       <c r="Z35" t="n">
         <v>1.734339392273204</v>
@@ -5454,10 +5454,10 @@
         <v>233.8618542705035</v>
       </c>
       <c r="R36" t="n">
-        <v>0.09541583882557886</v>
+        <v>0.02533251488325888</v>
       </c>
       <c r="S36" t="n">
-        <v>0.7710372276901359</v>
+        <v>0.2047072298102656</v>
       </c>
       <c r="T36" t="n">
         <v>0.009040132638104891</v>
@@ -5475,7 +5475,7 @@
         <v>0.3009235992525693</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.5024327660503699</v>
+        <v>0.1333938440458992</v>
       </c>
       <c r="Z36" t="n">
         <v>2.216291768419251</v>
@@ -5606,10 +5606,10 @@
         <v>233.2035643020673</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1350409959040313</v>
+        <v>0.09949500387110793</v>
       </c>
       <c r="S37" t="n">
-        <v>1.095343770541425</v>
+        <v>0.8070233188124741</v>
       </c>
       <c r="T37" t="n">
         <v>0.09665232098183901</v>
@@ -5627,7 +5627,7 @@
         <v>0.3016979981793136</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.7110886749189029</v>
+        <v>0.5239132752992769</v>
       </c>
       <c r="Z37" t="n">
         <v>2.289994311244139</v>
@@ -5742,10 +5742,10 @@
         <v>241.8957201783957</v>
       </c>
       <c r="R38" t="n">
-        <v>0.1166309701176995</v>
+        <v>0.07065240058728958</v>
       </c>
       <c r="S38" t="n">
-        <v>0.9655956986995977</v>
+        <v>0.5849360083435907</v>
       </c>
       <c r="T38" t="n">
         <v>0.06653844632620748</v>
@@ -5763,7 +5763,7 @@
         <v>0.3083829167232157</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.6141343220611795</v>
+        <v>0.3720286652240171</v>
       </c>
       <c r="Z38" t="n">
         <v>2.341201099767554</v>
@@ -5894,10 +5894,10 @@
         <v>221.3691085162</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1051845472961925</v>
+        <v>0.05556778869878048</v>
       </c>
       <c r="S39" t="n">
-        <v>0.8271720847294067</v>
+        <v>0.4369855154896619</v>
       </c>
       <c r="T39" t="n">
         <v>0.05038807656028661</v>
@@ -5915,7 +5915,7 @@
         <v>0.293826991436123</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.5538874777135112</v>
+        <v>0.2926123952201388</v>
       </c>
       <c r="Z39" t="n">
         <v>2.292449366349665</v>
@@ -6046,10 +6046,10 @@
         <v>240.5275916812512</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1365072101838309</v>
+        <v>0.100589915954833</v>
       </c>
       <c r="S40" t="n">
-        <v>1.129424243736178</v>
+        <v>0.8322541322306639</v>
       </c>
       <c r="T40" t="n">
         <v>0.0977544105804334</v>
@@ -6067,7 +6067,7 @@
         <v>0.3081267813116271</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.7187973150982707</v>
+        <v>0.529669908402091</v>
       </c>
       <c r="Z40" t="n">
         <v>2.286399926785486</v>
@@ -6182,10 +6182,10 @@
         <v>239.9191547480468</v>
       </c>
       <c r="R41" t="n">
-        <v>0.1326197361239917</v>
+        <v>0.09510195735116488</v>
       </c>
       <c r="S41" t="n">
-        <v>1.091922494331644</v>
+        <v>0.7830204577516093</v>
       </c>
       <c r="T41" t="n">
         <v>0.09209382796657775</v>
@@ -6203,7 +6203,7 @@
         <v>0.3088865340670015</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.6983282707176269</v>
+        <v>0.5007730173494599</v>
       </c>
       <c r="Z41" t="n">
         <v>2.35945338299386</v>
@@ -6329,10 +6329,10 @@
         <v>250.6019727385533</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1328678561446822</v>
+        <v>0.09350133320545216</v>
       </c>
       <c r="S42" t="n">
-        <v>1.11812333179701</v>
+        <v>0.7868420944287727</v>
       </c>
       <c r="T42" t="n">
         <v>0.09038866959364622</v>
@@ -6350,7 +6350,7 @@
         <v>0.3183834254537469</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.6996173237155958</v>
+        <v>0.4923324150711584</v>
       </c>
       <c r="Z42" t="n">
         <v>2.396579956797735</v>
@@ -6476,10 +6476,10 @@
         <v>284.7269284419845</v>
       </c>
       <c r="R43" t="n">
-        <v>0.1178332541762232</v>
+        <v>0.05664704130749637</v>
       </c>
       <c r="S43" t="n">
-        <v>1.02777652894742</v>
+        <v>0.494092265355663</v>
       </c>
       <c r="T43" t="n">
         <v>0.0509378999093523</v>
@@ -6497,7 +6497,7 @@
         <v>0.3477246405209058</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.6204001034993255</v>
+        <v>0.2982505281365027</v>
       </c>
       <c r="Z43" t="n">
         <v>1.522654873611859</v>
@@ -6618,10 +6618,10 @@
         <v>272.3753650437538</v>
       </c>
       <c r="R44" t="n">
-        <v>0.1471498731559998</v>
+        <v>0.1049057868236785</v>
       </c>
       <c r="S44" t="n">
-        <v>1.228120417822723</v>
+        <v>0.8755490982267587</v>
       </c>
       <c r="T44" t="n">
         <v>0.1019461794085843</v>
@@ -6639,7 +6639,7 @@
         <v>0.3407088993809207</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.7747784054632079</v>
+        <v>0.5523534373213209</v>
       </c>
       <c r="Z44" t="n">
         <v>1.603979339453181</v>
@@ -6759,10 +6759,10 @@
         <v>261.5081023268528</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1158580281907298</v>
+        <v>0.06286447052329446</v>
       </c>
       <c r="S45" t="n">
-        <v>0.9848655140982702</v>
+        <v>0.5343872155196393</v>
       </c>
       <c r="T45" t="n">
         <v>0.05801495270819769</v>
@@ -6780,7 +6780,7 @@
         <v>0.3308071233737307</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.6100358968791835</v>
+        <v>0.3310049744190401</v>
       </c>
       <c r="Z45" t="n">
         <v>2.006261918046037</v>
@@ -6906,10 +6906,10 @@
         <v>276.4550819193612</v>
       </c>
       <c r="R46" t="n">
-        <v>0.1263097401698534</v>
+        <v>0.07185662593392921</v>
       </c>
       <c r="S46" t="n">
-        <v>1.062443547425116</v>
+        <v>0.6044158467951978</v>
       </c>
       <c r="T46" t="n">
         <v>0.06743485322915323</v>
@@ -6927,7 +6927,7 @@
         <v>0.3446231185346338</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.6650434240628579</v>
+        <v>0.3783380164383384</v>
       </c>
       <c r="Z46" t="n">
         <v>1.712978134497722</v>
@@ -7053,10 +7053,10 @@
         <v>261.1434661768174</v>
       </c>
       <c r="R47" t="n">
-        <v>0.1212170007237646</v>
+        <v>0.07413184219846626</v>
       </c>
       <c r="S47" t="n">
-        <v>1.044427435098838</v>
+        <v>0.638733258076041</v>
       </c>
       <c r="T47" t="n">
         <v>0.07010762510326199</v>
@@ -7074,7 +7074,7 @@
         <v>0.3298735097333443</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.6382534597750217</v>
+        <v>0.3903322510882004</v>
       </c>
       <c r="Z47" t="n">
         <v>2.292339313053484</v>
@@ -7195,10 +7195,10 @@
         <v>226.7830462246382</v>
       </c>
       <c r="R48" t="n">
-        <v>0.1523928891815237</v>
+        <v>0.1204340887842786</v>
       </c>
       <c r="S48" t="n">
-        <v>1.168909417092146</v>
+        <v>0.9237736831091118</v>
       </c>
       <c r="T48" t="n">
         <v>0.1180599806946554</v>
@@ -7216,7 +7216,7 @@
         <v>0.3063513533951608</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.8024705450076025</v>
+        <v>0.6341818793729609</v>
       </c>
       <c r="Z48" t="n">
         <v>1.79128132766431</v>
@@ -7323,10 +7323,10 @@
         <v>247.8850510880222</v>
       </c>
       <c r="R49" t="n">
-        <v>0.1034076545187335</v>
+        <v>0.03649327446282705</v>
       </c>
       <c r="S49" t="n">
-        <v>0.8370728544829681</v>
+        <v>0.2954087834812558</v>
       </c>
       <c r="T49" t="n">
         <v>0.02737494789486376</v>
@@ -7344,7 +7344,7 @@
         <v>0.3226464862227462</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.544497761634022</v>
+        <v>0.1921570153794135</v>
       </c>
       <c r="Z49" t="n">
         <v>1.717218532617633</v>
@@ -7472,10 +7472,10 @@
         <v>282.6991534676158</v>
       </c>
       <c r="R50" t="n">
-        <v>0.1227645158137763</v>
+        <v>0.06374554730234033</v>
       </c>
       <c r="S50" t="n">
-        <v>1.045043122885428</v>
+        <v>0.5426392584314086</v>
       </c>
       <c r="T50" t="n">
         <v>0.05866844777783781</v>
@@ -7493,7 +7493,7 @@
         <v>0.3502653555156119</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.6463669043205811</v>
+        <v>0.3356263966090697</v>
       </c>
       <c r="Z50" t="n">
         <v>1.684895029872989</v>
@@ -7619,10 +7619,10 @@
         <v>296.3069521563592</v>
       </c>
       <c r="R51" t="n">
-        <v>0.1186242022993215</v>
+        <v>0.05397906665649423</v>
       </c>
       <c r="S51" t="n">
-        <v>1.051534549285856</v>
+        <v>0.4784930261051164</v>
       </c>
       <c r="T51" t="n">
         <v>0.04782403089763312</v>
@@ -7640,7 +7640,7 @@
         <v>0.3598173993901568</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.6245455668243621</v>
+        <v>0.2841948449656555</v>
       </c>
       <c r="Z51" t="n">
         <v>1.422152235494093</v>
@@ -7766,10 +7766,10 @@
         <v>264.2461340196743</v>
       </c>
       <c r="R52" t="n">
-        <v>0.1378231216919157</v>
+        <v>0.09847180617506125</v>
       </c>
       <c r="S52" t="n">
-        <v>1.193593315162176</v>
+        <v>0.8527980511516221</v>
       </c>
       <c r="T52" t="n">
         <v>0.09546315865152941</v>
@@ -7787,7 +7787,7 @@
         <v>0.3348516321525572</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.725685486465779</v>
+        <v>0.5184874619735511</v>
       </c>
       <c r="Z52" t="n">
         <v>2.498153280108286</v>
@@ -7907,10 +7907,10 @@
         <v>279.504547968916</v>
       </c>
       <c r="R53" t="n">
-        <v>0.1308672370657898</v>
+        <v>0.08478485193173241</v>
       </c>
       <c r="S53" t="n">
-        <v>1.159453198724437</v>
+        <v>0.7511740140598011</v>
       </c>
       <c r="T53" t="n">
         <v>0.08117558902076485</v>
@@ -7928,7 +7928,7 @@
         <v>0.346989379372882</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.6890341328283782</v>
+        <v>0.4464039910798673</v>
       </c>
       <c r="Z53" t="n">
         <v>1.955642022129342</v>
@@ -8048,10 +8048,10 @@
         <v>286.2091809776647</v>
       </c>
       <c r="R54" t="n">
-        <v>0.1303548245517027</v>
+        <v>0.0830069295621526</v>
       </c>
       <c r="S54" t="n">
-        <v>1.173117937130224</v>
+        <v>0.7470142997035263</v>
       </c>
       <c r="T54" t="n">
         <v>0.0792893133015671</v>
@@ -8069,7 +8069,7 @@
         <v>0.3518011363871398</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.6863243944738135</v>
+        <v>0.4370354596755178</v>
       </c>
       <c r="Z54" t="n">
         <v>1.9472850095372</v>
@@ -8189,10 +8189,10 @@
         <v>281.169361439991</v>
       </c>
       <c r="R55" t="n">
-        <v>0.1134842454380134</v>
+        <v>0.05041381551582874</v>
       </c>
       <c r="S55" t="n">
-        <v>0.990796480186705</v>
+        <v>0.4401477118966992</v>
       </c>
       <c r="T55" t="n">
         <v>0.04397405077952542</v>
@@ -8210,7 +8210,7 @@
         <v>0.3503361830308205</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.5975077357413495</v>
+        <v>0.2654345952839625</v>
       </c>
       <c r="Z55" t="n">
         <v>1.855505169143659</v>
@@ -8341,10 +8341,10 @@
         <v>281.9962024540009</v>
       </c>
       <c r="R56" t="n">
-        <v>0.1231570070695976</v>
+        <v>0.07139787789428287</v>
       </c>
       <c r="S56" t="n">
-        <v>1.093103453759415</v>
+        <v>0.6337054526928311</v>
       </c>
       <c r="T56" t="n">
         <v>0.06704738717279303</v>
@@ -8362,7 +8362,7 @@
         <v>0.3499440493483648</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.6484345771667906</v>
+        <v>0.3759173258962237</v>
       </c>
       <c r="Z56" t="n">
         <v>1.927435373758564</v>
@@ -8483,10 +8483,10 @@
         <v>313.4189294926919</v>
       </c>
       <c r="R57" t="n">
-        <v>0.1262102652201549</v>
+        <v>0.06070495133322661</v>
       </c>
       <c r="S57" t="n">
-        <v>1.12802657455175</v>
+        <v>0.5425612424734453</v>
       </c>
       <c r="T57" t="n">
         <v>0.05507052658976632</v>
@@ -8504,7 +8504,7 @@
         <v>0.3760884677454025</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.6644546336740544</v>
+        <v>0.3195911689905795</v>
       </c>
       <c r="Z57" t="n">
         <v>1.53729142860205</v>
@@ -8635,10 +8635,10 @@
         <v>299.0196112052213</v>
       </c>
       <c r="R58" t="n">
-        <v>0.1133297648917236</v>
+        <v>0.0455075676897923</v>
       </c>
       <c r="S58" t="n">
-        <v>1.030367454131169</v>
+        <v>0.413744056638888</v>
       </c>
       <c r="T58" t="n">
         <v>0.03809347588398587</v>
@@ -8656,7 +8656,7 @@
         <v>0.364881865814434</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.5966665248113605</v>
+        <v>0.2395914461838708</v>
       </c>
       <c r="Z58" t="n">
         <v>1.504115270314607</v>
@@ -8782,10 +8782,10 @@
         <v>324.3222004990405</v>
       </c>
       <c r="R59" t="n">
-        <v>0.1246125851126906</v>
+        <v>0.05431584290222789</v>
       </c>
       <c r="S59" t="n">
-        <v>1.136206123976749</v>
+        <v>0.4952468747732075</v>
       </c>
       <c r="T59" t="n">
         <v>0.04784148112587717</v>
@@ -8803,7 +8803,7 @@
         <v>0.3860284161342277</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.6560232758107936</v>
+        <v>0.2859458950869253</v>
       </c>
       <c r="Z59" t="n">
         <v>1.487628722123143</v>
@@ -8929,10 +8929,10 @@
         <v>284.2965375967033</v>
       </c>
       <c r="R60" t="n">
-        <v>0.1185035355118447</v>
+        <v>0.06473000358741215</v>
       </c>
       <c r="S60" t="n">
-        <v>1.07144437324659</v>
+        <v>0.5852534088911822</v>
       </c>
       <c r="T60" t="n">
         <v>0.05992897107768662</v>
@@ -8950,7 +8950,7 @@
         <v>0.3528832279566004</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.6239298727349506</v>
+        <v>0.3408082529013677</v>
       </c>
       <c r="Z60" t="n">
         <v>2.186029692156958</v>
@@ -9081,10 +9081,10 @@
         <v>326.6060612754891</v>
       </c>
       <c r="R61" t="n">
-        <v>0.1371289869466064</v>
+        <v>0.0829566408048699</v>
       </c>
       <c r="S61" t="n">
-        <v>1.2945082535134</v>
+        <v>0.7831171118289095</v>
       </c>
       <c r="T61" t="n">
         <v>0.07895525160231284</v>
@@ -9102,7 +9102,7 @@
         <v>0.3853326457754347</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.721911193026284</v>
+        <v>0.4367225986743033</v>
       </c>
       <c r="Z61" t="n">
         <v>1.437246979151355</v>
@@ -9217,10 +9217,10 @@
         <v>277.3751454749433</v>
       </c>
       <c r="R62" t="n">
-        <v>0.1084617625363631</v>
+        <v>0.04723102523065794</v>
       </c>
       <c r="S62" t="n">
-        <v>0.9716867913511416</v>
+        <v>0.4231331142458284</v>
       </c>
       <c r="T62" t="n">
         <v>0.04048975988998884</v>
@@ -9238,7 +9238,7 @@
         <v>0.3499869310089186</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.5710692933436008</v>
+        <v>0.2486792356276054</v>
       </c>
       <c r="Z62" t="n">
         <v>2.146171637580412</v>
@@ -9369,10 +9369,10 @@
         <v>293.1570591856556</v>
       </c>
       <c r="R63" t="n">
-        <v>0.1110624764441658</v>
+        <v>0.03313351195966528</v>
       </c>
       <c r="S63" t="n">
-        <v>0.9664621284511855</v>
+        <v>0.2883267645098784</v>
       </c>
       <c r="T63" t="n">
         <v>0.02163276563805056</v>
@@ -9390,7 +9390,7 @@
         <v>0.3674932885853415</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.5847386450984787</v>
+        <v>0.1744463612819672</v>
       </c>
       <c r="Z63" t="n">
         <v>1.674830976344968</v>
@@ -9521,10 +9521,10 @@
         <v>305.6082139027802</v>
       </c>
       <c r="R64" t="n">
-        <v>0.117882549347667</v>
+        <v>0.05689007396635676</v>
       </c>
       <c r="S64" t="n">
-        <v>1.099750903987163</v>
+        <v>0.5307393725247395</v>
       </c>
       <c r="T64" t="n">
         <v>0.05115782585788043</v>
@@ -9542,7 +9542,7 @@
         <v>0.373258717415179</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.6206253185467849</v>
+        <v>0.2995135452439984</v>
       </c>
       <c r="Z64" t="n">
         <v>1.846134514880247</v>
@@ -9668,10 +9668,10 @@
         <v>315.1317766644796</v>
       </c>
       <c r="R65" t="n">
-        <v>0.1170302998027779</v>
+        <v>0.04438409927192122</v>
       </c>
       <c r="S65" t="n">
-        <v>1.07195385275587</v>
+        <v>0.4065417784609112</v>
       </c>
       <c r="T65" t="n">
         <v>0.03642049993073456</v>
@@ -9689,7 +9689,7 @@
         <v>0.3838211691085254</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.6161222680143749</v>
+        <v>0.2336662552627432</v>
       </c>
       <c r="Z65" t="n">
         <v>1.480664521061823</v>
@@ -9820,10 +9820,10 @@
         <v>262.1156658290246</v>
       </c>
       <c r="R66" t="n">
-        <v>0.1059486112069409</v>
+        <v>0.03750705097588571</v>
       </c>
       <c r="S66" t="n">
-        <v>0.8810631735684946</v>
+        <v>0.3119066969123636</v>
       </c>
       <c r="T66" t="n">
         <v>0.02847189090625549</v>
@@ -9841,7 +9841,7 @@
         <v>0.3450616069701712</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.5578582808931118</v>
+        <v>0.1974883742261566</v>
       </c>
       <c r="Z66" t="n">
         <v>1.75728268109685</v>
@@ -9969,10 +9969,10 @@
         <v>314.5938584943656</v>
       </c>
       <c r="R67" t="n">
-        <v>0.1397205524433804</v>
+        <v>0.08762797922391002</v>
       </c>
       <c r="S67" t="n">
-        <v>1.270556675296091</v>
+        <v>0.7968499408185733</v>
       </c>
       <c r="T67" t="n">
         <v>0.08386019957914105</v>
@@ -9990,7 +9990,7 @@
         <v>0.384912607267642</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.7355793557454452</v>
+        <v>0.4613303581727486</v>
       </c>
       <c r="Z67" t="n">
         <v>1.50723384675543</v>
@@ -10110,10 +10110,10 @@
         <v>345.1384666487818</v>
       </c>
       <c r="R68" t="n">
-        <v>0.1281049307805457</v>
+        <v>0.05524486036369659</v>
       </c>
       <c r="S68" t="n">
-        <v>1.202890531979269</v>
+        <v>0.5187428701386037</v>
       </c>
       <c r="T68" t="n">
         <v>0.04867496226121809</v>
@@ -10131,7 +10131,7 @@
         <v>0.4088978831051248</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.6743676628363506</v>
+        <v>0.2908189961166139</v>
       </c>
       <c r="Z68" t="n">
         <v>1.420325024935708</v>
@@ -10262,10 +10262,10 @@
         <v>377.3006396625723</v>
       </c>
       <c r="R69" t="n">
-        <v>0.1426977968926904</v>
+        <v>0.07105237484530968</v>
       </c>
       <c r="S69" t="n">
-        <v>1.36710254411243</v>
+        <v>0.680710456162821</v>
       </c>
       <c r="T69" t="n">
         <v>0.06572196829250949</v>
@@ -10283,7 +10283,7 @@
         <v>0.4343854273766324</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.7511115944557739</v>
+        <v>0.3739950000774233</v>
       </c>
       <c r="Z69" t="n">
         <v>1.167403692374938</v>
@@ -10398,10 +10398,10 @@
         <v>282.551509518021</v>
       </c>
       <c r="R70" t="n">
-        <v>0.127613751307043</v>
+        <v>0.08215468200850487</v>
       </c>
       <c r="S70" t="n">
-        <v>1.161615234328963</v>
+        <v>0.7478201151137533</v>
       </c>
       <c r="T70" t="n">
         <v>0.07845861001004069</v>
@@ -10419,7 +10419,7 @@
         <v>0.360613945403604</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.6718988470427434</v>
+        <v>0.4325524134767063</v>
       </c>
       <c r="Z70" t="n">
         <v>2.079551231537069</v>
@@ -10537,10 +10537,10 @@
         <v>307.3911428472518</v>
       </c>
       <c r="R71" t="n">
-        <v>0.118893158621593</v>
+        <v>0.05748676439377236</v>
       </c>
       <c r="S71" t="n">
-        <v>1.10401704169565</v>
+        <v>0.533810088809776</v>
       </c>
       <c r="T71" t="n">
         <v>0.05176869247443817</v>
@@ -10558,7 +10558,7 @@
         <v>0.3817078997460369</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.6259429096633121</v>
+        <v>0.302653516728354</v>
       </c>
       <c r="Z71" t="n">
         <v>1.785140068067854</v>
@@ -10684,10 +10684,10 @@
         <v>332.8525260660337</v>
       </c>
       <c r="R72" t="n">
-        <v>0.1116212500667504</v>
+        <v>0.02939620410170934</v>
       </c>
       <c r="S72" t="n">
-        <v>1.085395236131553</v>
+        <v>0.2858461079164208</v>
       </c>
       <c r="T72" t="n">
         <v>0.01481984162473158</v>
@@ -10705,7 +10705,7 @@
         <v>0.3996198518129659</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.5876159183829188</v>
+        <v>0.1547525893131269</v>
       </c>
       <c r="Z72" t="n">
         <v>1.712118408202441</v>
@@ -10836,10 +10836,10 @@
         <v>349.3228015573515</v>
       </c>
       <c r="R73" t="n">
-        <v>0.122250755497967</v>
+        <v>0.04336512111403851</v>
       </c>
       <c r="S73" t="n">
-        <v>1.173810582155504</v>
+        <v>0.4163772882447339</v>
       </c>
       <c r="T73" t="n">
         <v>0.03467364629449839</v>
@@ -10857,7 +10857,7 @@
         <v>0.4151688976045474</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.6435420890845621</v>
+        <v>0.2282790034422118</v>
       </c>
       <c r="Z73" t="n">
         <v>1.503265936415298</v>
@@ -10988,10 +10988,10 @@
         <v>367.3692725568374</v>
       </c>
       <c r="R74" t="n">
-        <v>0.1332234821103445</v>
+        <v>0.06116015083859947</v>
       </c>
       <c r="S74" t="n">
-        <v>1.298971679427535</v>
+        <v>0.5963310866102048</v>
       </c>
       <c r="T74" t="n">
         <v>0.05513248328988998</v>
@@ -11009,7 +11009,7 @@
         <v>0.4288652520639399</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.7012644927053956</v>
+        <v>0.3219360541566693</v>
       </c>
       <c r="Z74" t="n">
         <v>1.199644356267369</v>
@@ -11135,10 +11135,10 @@
         <v>307.0788654845763</v>
       </c>
       <c r="R75" t="n">
-        <v>0.1161831676918101</v>
+        <v>0.05562764912342544</v>
       </c>
       <c r="S75" t="n">
-        <v>1.099961003276252</v>
+        <v>0.5266532661771761</v>
       </c>
       <c r="T75" t="n">
         <v>0.04978485809337196</v>
@@ -11156,7 +11156,7 @@
         <v>0.381186314054765</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.6116760029169834</v>
+        <v>0.2928659869021961</v>
       </c>
       <c r="Z75" t="n">
         <v>2.044995428540621</v>
@@ -11282,10 +11282,10 @@
         <v>317.1093159530175</v>
       </c>
       <c r="R76" t="n">
-        <v>0.1319712809555518</v>
+        <v>0.08217370822177759</v>
       </c>
       <c r="S76" t="n">
-        <v>1.274146760503207</v>
+        <v>0.7933647636911045</v>
       </c>
       <c r="T76" t="n">
         <v>0.07828986982896351</v>
@@ -11303,7 +11303,7 @@
         <v>0.3899340668077771</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.6947773026436939</v>
+        <v>0.4326125118523735</v>
       </c>
       <c r="Z76" t="n">
         <v>2.057622115263261</v>
@@ -11429,10 +11429,10 @@
         <v>343.571588340941</v>
       </c>
       <c r="R77" t="n">
-        <v>0.1398007248366222</v>
+        <v>0.08577748784504907</v>
       </c>
       <c r="S77" t="n">
-        <v>1.366732503412109</v>
+        <v>0.8385856427845559</v>
       </c>
       <c r="T77" t="n">
         <v>0.08184210910822483</v>
@@ -11450,7 +11450,7 @@
         <v>0.4123478280852884</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.7359399069960094</v>
+        <v>0.4515504229381502</v>
       </c>
       <c r="Z77" t="n">
         <v>1.615126887994798</v>
@@ -11570,10 +11570,10 @@
         <v>308.8925094168035</v>
       </c>
       <c r="R78" t="n">
-        <v>0.1113509609453344</v>
+        <v>0.04601641625055448</v>
       </c>
       <c r="S78" t="n">
-        <v>1.065846328578727</v>
+        <v>0.440467041313477</v>
       </c>
       <c r="T78" t="n">
         <v>0.03876950340404173</v>
@@ -11591,7 +11591,7 @@
         <v>0.3857476056231248</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.5862327063548255</v>
+        <v>0.2422639913144191</v>
       </c>
       <c r="Z78" t="n">
         <v>1.913899110729765</v>
@@ -11722,10 +11722,10 @@
         <v>377.8360772992849</v>
       </c>
       <c r="R79" t="n">
-        <v>0.1286975751122354</v>
+        <v>0.04502654224676856</v>
       </c>
       <c r="S79" t="n">
-        <v>1.265077282636741</v>
+        <v>0.442603954755127</v>
       </c>
       <c r="T79" t="n">
         <v>0.03622555687051518</v>
@@ -11743,7 +11743,7 @@
         <v>0.4418336547953038</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.6774181122114457</v>
+        <v>0.2370036515576511</v>
       </c>
       <c r="Z79" t="n">
         <v>1.316503208655358</v>
@@ -11874,10 +11874,10 @@
         <v>377.2114570502922</v>
       </c>
       <c r="R80" t="n">
-        <v>0.1427691011657716</v>
+        <v>0.07736242723216026</v>
       </c>
       <c r="S80" t="n">
-        <v>1.407840268141881</v>
+        <v>0.7628677312478804</v>
       </c>
       <c r="T80" t="n">
         <v>0.07261398873108758</v>
@@ -11895,7 +11895,7 @@
         <v>0.4413157068529845</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.7514871335745209</v>
+        <v>0.4072090404180657</v>
       </c>
       <c r="Z80" t="n">
         <v>1.219423431934616</v>
@@ -12021,10 +12021,10 @@
         <v>453.4525170585844</v>
       </c>
       <c r="R81" t="n">
-        <v>0.1465180841526681</v>
+        <v>0.06550635439014781</v>
       </c>
       <c r="S81" t="n">
-        <v>1.591717709103943</v>
+        <v>0.7116365528844405</v>
       </c>
       <c r="T81" t="n">
         <v>0.05922703930107949</v>
@@ -12042,7 +12042,7 @@
         <v>0.492724250650904</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.7710095043706791</v>
+        <v>0.3447084509981166</v>
       </c>
       <c r="Z81" t="n">
         <v>1.175393609952025</v>
@@ -12165,10 +12165,10 @@
         <v>385.5975527213724</v>
       </c>
       <c r="R82" t="n">
-        <v>0.1379152896680966</v>
+        <v>0.06470289280375982</v>
       </c>
       <c r="S82" t="n">
-        <v>1.369241037640056</v>
+        <v>0.6423787840647773</v>
       </c>
       <c r="T82" t="n">
         <v>0.05885158217820452</v>
@@ -12186,7 +12186,7 @@
         <v>0.4484821104354356</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.725918320175542</v>
+        <v>0.3405642359715005</v>
       </c>
       <c r="Z82" t="n">
         <v>1.258881347841275</v>
@@ -12312,10 +12312,10 @@
         <v>347.548453314151</v>
       </c>
       <c r="R83" t="n">
-        <v>0.1272977629912782</v>
+        <v>0.06228775521383939</v>
       </c>
       <c r="S83" t="n">
-        <v>1.250635558817399</v>
+        <v>0.611945408299741</v>
       </c>
       <c r="T83" t="n">
         <v>0.05670702372418387</v>
@@ -12333,7 +12333,7 @@
         <v>0.4188623174600349</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.6701137198080004</v>
+        <v>0.3278916955335334</v>
       </c>
       <c r="Z83" t="n">
         <v>1.588792228154827</v>
@@ -12459,10 +12459,10 @@
         <v>383.0476786697029</v>
       </c>
       <c r="R84" t="n">
-        <v>0.1395514553512777</v>
+        <v>0.07278775060365945</v>
       </c>
       <c r="S84" t="n">
-        <v>1.40819897543215</v>
+        <v>0.7344934924976092</v>
       </c>
       <c r="T84" t="n">
         <v>0.0677421204315856</v>
@@ -12480,7 +12480,7 @@
         <v>0.4467149421172766</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.7345365000995092</v>
+        <v>0.3831221927707288</v>
       </c>
       <c r="Z84" t="n">
         <v>1.388696614116953</v>
@@ -12600,10 +12600,10 @@
         <v>375.8303648664059</v>
       </c>
       <c r="R85" t="n">
-        <v>0.1327695167913284</v>
+        <v>0.05638426878436764</v>
       </c>
       <c r="S85" t="n">
-        <v>1.300983531317721</v>
+        <v>0.5524988482796467</v>
       </c>
       <c r="T85" t="n">
         <v>0.0496527506437148</v>
@@ -12621,7 +12621,7 @@
         <v>0.4436541164249389</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.6988559192677805</v>
+        <v>0.2967886073990328</v>
       </c>
       <c r="Z85" t="n">
         <v>1.275099912777333</v>
@@ -12744,10 +12744,10 @@
         <v>392.0741579793797</v>
       </c>
       <c r="R86" t="n">
-        <v>0.1187535535836264</v>
+        <v>0.03124479074155891</v>
       </c>
       <c r="S86" t="n">
-        <v>1.277091035708547</v>
+        <v>0.3360105105447218</v>
       </c>
       <c r="T86" t="n">
         <v>0.01696903561542241</v>
@@ -12765,7 +12765,7 @@
         <v>0.4491321137983504</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.6250467859565578</v>
+        <v>0.1644536558406561</v>
       </c>
       <c r="Z86" t="n">
         <v>1.339953989136903</v>
@@ -12896,10 +12896,10 @@
         <v>404.9089530971748</v>
       </c>
       <c r="R87" t="n">
-        <v>0.1453494315352453</v>
+        <v>0.07403048488321697</v>
       </c>
       <c r="S87" t="n">
-        <v>1.474450938640137</v>
+        <v>0.7509786365939464</v>
       </c>
       <c r="T87" t="n">
         <v>0.06882091578440135</v>
@@ -12917,7 +12917,7 @@
         <v>0.4656191008841957</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.7649976553356318</v>
+        <v>0.3896344606293704</v>
       </c>
       <c r="Z87" t="n">
         <v>1.206768580603251</v>
@@ -13043,10 +13043,10 @@
         <v>404.2768642638003</v>
       </c>
       <c r="R88" t="n">
-        <v>0.1428269534971107</v>
+        <v>0.06959023355374405</v>
       </c>
       <c r="S88" t="n">
-        <v>1.450151872517797</v>
+        <v>0.7065641675186625</v>
       </c>
       <c r="T88" t="n">
         <v>0.06403144213387492</v>
@@ -13064,7 +13064,7 @@
         <v>0.4670860113279405</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.7517231010986974</v>
+        <v>0.3662655044606923</v>
       </c>
       <c r="Z88" t="n">
         <v>1.225258085386817</v>
@@ -13190,10 +13190,10 @@
         <v>339.4326264827049</v>
       </c>
       <c r="R89" t="n">
-        <v>0.1220069048752618</v>
+        <v>0.05083825585464386</v>
       </c>
       <c r="S89" t="n">
-        <v>1.16969941435462</v>
+        <v>0.4873943664154415</v>
       </c>
       <c r="T89" t="n">
         <v>0.04382861028754929</v>
@@ -13211,7 +13211,7 @@
         <v>0.4188987833925032</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.6422774724896959</v>
+        <v>0.2676263815518342</v>
       </c>
       <c r="Z89" t="n">
         <v>1.541689549412003</v>
@@ -13342,10 +13342,10 @@
         <v>323.0473348775529</v>
       </c>
       <c r="R90" t="n">
-        <v>0.1081614307399851</v>
+        <v>0.03163326754067789</v>
       </c>
       <c r="S90" t="n">
-        <v>1.059802302169637</v>
+        <v>0.3099534606319235</v>
       </c>
       <c r="T90" t="n">
         <v>0.01933016821611724</v>
@@ -13363,7 +13363,7 @@
         <v>0.4031171858918194</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.5694181967898495</v>
+        <v>0.1665340226950678</v>
       </c>
       <c r="Z90" t="n">
         <v>2.202675635122268</v>
@@ -13494,10 +13494,10 @@
         <v>424.873838993316</v>
       </c>
       <c r="R91" t="n">
-        <v>0.1383537385830259</v>
+        <v>0.05250459241604893</v>
       </c>
       <c r="S91" t="n">
-        <v>1.43862605112255</v>
+        <v>0.5459518132787665</v>
       </c>
       <c r="T91" t="n">
         <v>0.04464127126982093</v>
@@ -13515,7 +13515,7 @@
         <v>0.4819146144995276</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.7281261497127282</v>
+        <v>0.2763204457622376</v>
       </c>
       <c r="Z91" t="n">
         <v>1.179780120395783</v>
@@ -13641,10 +13641,10 @@
         <v>400.8888230172158</v>
       </c>
       <c r="R92" t="n">
-        <v>0.137705298442951</v>
+        <v>0.05983869408448575</v>
       </c>
       <c r="S92" t="n">
-        <v>1.393320753157692</v>
+        <v>0.6054559646759637</v>
       </c>
       <c r="T92" t="n">
         <v>0.05330352160794445</v>
@@ -13662,7 +13662,7 @@
         <v>0.4678240087754544</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.7247754607037651</v>
+        <v>0.3149451587076159</v>
       </c>
       <c r="Z92" t="n">
         <v>1.231913386777003</v>
@@ -13788,10 +13788,10 @@
         <v>445.5341436142293</v>
       </c>
       <c r="R93" t="n">
-        <v>0.1315484481729697</v>
+        <v>0.03316407383586407</v>
       </c>
       <c r="S93" t="n">
-        <v>1.443641691583105</v>
+        <v>0.3639498627094521</v>
       </c>
       <c r="T93" t="n">
         <v>0.01832326989962269</v>
@@ -13809,7 +13809,7 @@
         <v>0.4952071191030444</v>
       </c>
       <c r="Y93" t="n">
-        <v>0.692257480104575</v>
+        <v>0.1745218472925681</v>
       </c>
       <c r="Z93" t="n">
         <v>1.101249100551098</v>
@@ -13935,10 +13935,10 @@
         <v>337.0345879482724</v>
       </c>
       <c r="R94" t="n">
-        <v>0.1202755805951041</v>
+        <v>0.05809733241689945</v>
       </c>
       <c r="S94" t="n">
-        <v>1.206980474191085</v>
+        <v>0.5830139874015356</v>
       </c>
       <c r="T94" t="n">
         <v>0.05231572499985591</v>
@@ -13956,7 +13956,7 @@
         <v>0.4168206389919381</v>
       </c>
       <c r="Y94" t="n">
-        <v>0.6331677929354111</v>
+        <v>0.3058422961654821</v>
       </c>
       <c r="Z94" t="n">
         <v>2.081212019701819</v>
@@ -14071,10 +14071,10 @@
         <v>380.1137691798457</v>
       </c>
       <c r="R95" t="n">
-        <v>0.1293266525136589</v>
+        <v>0.05242379999483334</v>
       </c>
       <c r="S95" t="n">
-        <v>1.30169539983185</v>
+        <v>0.5276547252142966</v>
       </c>
       <c r="T95" t="n">
         <v>0.04518314802345044</v>
@@ -14092,7 +14092,7 @@
         <v>0.4533296193620625</v>
       </c>
       <c r="Y95" t="n">
-        <v>0.6807242809593347</v>
+        <v>0.275938121516521</v>
       </c>
       <c r="Z95" t="n">
         <v>1.381128034945611</v>
@@ -14218,10 +14218,10 @@
         <v>456.9169880413516</v>
       </c>
       <c r="R96" t="n">
-        <v>0.142850878810859</v>
+        <v>0.05222741998752022</v>
       </c>
       <c r="S96" t="n">
-        <v>1.536339671985696</v>
+        <v>0.5616980305632288</v>
       </c>
       <c r="T96" t="n">
         <v>0.04391988273511622</v>
@@ -14239,7 +14239,7 @@
         <v>0.5104626700671484</v>
       </c>
       <c r="Y96" t="n">
-        <v>0.751701570368053</v>
+        <v>0.2748280860971953</v>
       </c>
       <c r="Z96" t="n">
         <v>1.015433523266514</v>
@@ -14365,10 +14365,10 @@
         <v>411.2609049271321</v>
       </c>
       <c r="R97" t="n">
-        <v>0.1275592609210077</v>
+        <v>0.03997571632684326</v>
       </c>
       <c r="S97" t="n">
-        <v>1.356309617191787</v>
+        <v>0.425053015490613</v>
       </c>
       <c r="T97" t="n">
         <v>0.02950479144002214</v>
@@ -14386,7 +14386,7 @@
         <v>0.4770004173179468</v>
       </c>
       <c r="Y97" t="n">
-        <v>0.6713500948263019</v>
+        <v>0.2103939827888707</v>
       </c>
       <c r="Z97" t="n">
         <v>1.342866533386068</v>
@@ -14512,10 +14512,10 @@
         <v>398.7155432398492</v>
       </c>
       <c r="R98" t="n">
-        <v>0.1409642193388652</v>
+        <v>0.07595234412037964</v>
       </c>
       <c r="S98" t="n">
-        <v>1.481807405030102</v>
+        <v>0.798406478429969</v>
       </c>
       <c r="T98" t="n">
         <v>0.07109871813411356</v>
@@ -14533,7 +14533,7 @@
         <v>0.4694688271457726</v>
       </c>
       <c r="Y98" t="n">
-        <v>0.7419334862318908</v>
+        <v>0.3997580926919718</v>
       </c>
       <c r="Z98" t="n">
         <v>1.391278762043855</v>
@@ -14645,10 +14645,10 @@
         <v>480.2857693703551</v>
       </c>
       <c r="R99" t="n">
-        <v>0.1504224031837547</v>
+        <v>0.06736690071920851</v>
       </c>
       <c r="S99" t="n">
-        <v>1.681217105488516</v>
+        <v>0.7529356228574842</v>
       </c>
       <c r="T99" t="n">
         <v>0.06103569090662538</v>
@@ -14666,7 +14666,7 @@
         <v>0.5292081917590967</v>
       </c>
       <c r="Y99" t="n">
-        <v>0.7914682204813358</v>
+        <v>0.3544602393198109</v>
       </c>
       <c r="Z99" t="n">
         <v>0.962003684490306</v>
@@ -14786,10 +14786,10 @@
         <v>452.1187371364575</v>
       </c>
       <c r="R100" t="n">
-        <v>0.1310659475761013</v>
+        <v>0.05311529548508654</v>
       </c>
       <c r="S100" t="n">
-        <v>1.552922080957174</v>
+        <v>0.6293313917214295</v>
       </c>
       <c r="T100" t="n">
         <v>0.04574762835111428</v>
@@ -14807,7 +14807,7 @@
         <v>0.5019070749261886</v>
       </c>
       <c r="Y100" t="n">
-        <v>0.6897006775665683</v>
+        <v>0.2795055158315773</v>
       </c>
       <c r="Z100" t="n">
         <v>1.10119586004548</v>
@@ -14927,10 +14927,10 @@
         <v>367.0778625579107</v>
       </c>
       <c r="R101" t="n">
-        <v>0.1156250491269657</v>
+        <v>0.03984749354546139</v>
       </c>
       <c r="S101" t="n">
-        <v>1.225609297897472</v>
+        <v>0.4223778407531701</v>
       </c>
       <c r="T101" t="n">
         <v>0.03046468785712722</v>
@@ -14948,7 +14948,7 @@
         <v>0.4451518795961679</v>
       </c>
       <c r="Y101" t="n">
-        <v>0.6086300639552376</v>
+        <v>0.2097502464055086</v>
       </c>
       <c r="Z101" t="n">
         <v>1.702394448792871</v>
@@ -15079,10 +15079,10 @@
         <v>472.441197647471</v>
       </c>
       <c r="R102" t="n">
-        <v>0.1429918234328818</v>
+        <v>0.05697160546953858</v>
       </c>
       <c r="S102" t="n">
-        <v>1.612298204916091</v>
+        <v>0.6423809069952887</v>
       </c>
       <c r="T102" t="n">
         <v>0.04951931993757335</v>
@@ -15100,7 +15100,7 @@
         <v>0.5253568597946097</v>
       </c>
       <c r="Y102" t="n">
-        <v>0.7523958558453715</v>
+        <v>0.299773783053117</v>
       </c>
       <c r="Z102" t="n">
         <v>1.043228674792056</v>
@@ -15226,10 +15226,10 @@
         <v>394.6100995094315</v>
       </c>
       <c r="R103" t="n">
-        <v>0.1247130079101659</v>
+        <v>0.05463647099311349</v>
       </c>
       <c r="S103" t="n">
-        <v>1.376274667761436</v>
+        <v>0.6029426458695427</v>
       </c>
       <c r="T103" t="n">
         <v>0.04799519860952571</v>
@@ -15247,7 +15247,7 @@
         <v>0.4665368738476411</v>
       </c>
       <c r="Y103" t="n">
-        <v>0.6564081006021467</v>
+        <v>0.2875708215940681</v>
       </c>
       <c r="Z103" t="n">
         <v>1.635067194459739</v>
@@ -15373,10 +15373,10 @@
         <v>434.9747725949474</v>
       </c>
       <c r="R104" t="n">
-        <v>0.1299474136850239</v>
+        <v>0.03320804839880923</v>
       </c>
       <c r="S104" t="n">
-        <v>1.406829272811972</v>
+        <v>0.3595150781041337</v>
       </c>
       <c r="T104" t="n">
         <v>0.01856926610322721</v>
@@ -15394,7 +15394,7 @@
         <v>0.5036370135031565</v>
       </c>
       <c r="Y104" t="n">
-        <v>0.6838597815488376</v>
+        <v>0.1747602978749405</v>
       </c>
       <c r="Z104" t="n">
         <v>1.226402369197755</v>
@@ -15525,10 +15525,10 @@
         <v>515.6090897895901</v>
       </c>
       <c r="R105" t="n">
-        <v>0.1534949125072172</v>
+        <v>0.06069156038906357</v>
       </c>
       <c r="S105" t="n">
-        <v>1.755113675460465</v>
+        <v>0.6939681966258762</v>
       </c>
       <c r="T105" t="n">
         <v>0.0531396148110932</v>
@@ -15546,7 +15546,7 @@
         <v>0.5605138067908287</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.8075088056748774</v>
+        <v>0.3192872561298282</v>
       </c>
       <c r="Z105" t="n">
         <v>0.9152566454821567</v>
@@ -15667,10 +15667,10 @@
         <v>389.6793919596995</v>
       </c>
       <c r="R106" t="n">
-        <v>0.1265546106860717</v>
+        <v>0.05696447961345168</v>
       </c>
       <c r="S106" t="n">
-        <v>1.366473988952445</v>
+        <v>0.6150742297258749</v>
       </c>
       <c r="T106" t="n">
         <v>0.05058596884527355</v>
@@ -15688,7 +15688,7 @@
         <v>0.4675527828990781</v>
       </c>
       <c r="Y106" t="n">
-        <v>0.6661122008948147</v>
+        <v>0.2998289409010066</v>
       </c>
       <c r="Z106" t="n">
         <v>1.865786653257043</v>
@@ -15814,10 +15814,10 @@
         <v>472.3258472786908</v>
       </c>
       <c r="R107" t="n">
-        <v>0.1444353064747056</v>
+        <v>0.06223517833352452</v>
       </c>
       <c r="S107" t="n">
-        <v>1.637688810471432</v>
+        <v>0.7056574854317655</v>
       </c>
       <c r="T107" t="n">
         <v>0.05552273622505156</v>
@@ -15835,7 +15835,7 @@
         <v>0.5291544340214547</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.7599915524103646</v>
+        <v>0.3274698614255672</v>
       </c>
       <c r="Z107" t="n">
         <v>1.157633610471134</v>
@@ -15961,10 +15961,10 @@
         <v>1248.94345375944</v>
       </c>
       <c r="R108" t="n">
-        <v>0.2290550642386779</v>
+        <v>0.04565412209463245</v>
       </c>
       <c r="S108" t="n">
-        <v>4.039701777438476</v>
+        <v>0.8051733708052961</v>
       </c>
       <c r="T108" t="n">
         <v>0.02039308283339181</v>
@@ -15982,7 +15982,7 @@
         <v>0.9507215697093652</v>
       </c>
       <c r="Y108" t="n">
-        <v>1.193390189688776</v>
+        <v>0.2378606280008543</v>
       </c>
       <c r="Z108" t="n">
         <v>0.1367754295493965</v>
@@ -16102,10 +16102,10 @@
         <v>478.6234541693048</v>
       </c>
       <c r="R109" t="n">
-        <v>0.1376470650777063</v>
+        <v>0.04145717078934586</v>
       </c>
       <c r="S109" t="n">
-        <v>1.570428598342905</v>
+        <v>0.4729888470721888</v>
       </c>
       <c r="T109" t="n">
         <v>0.03036032800273162</v>
@@ -16123,7 +16123,7 @@
         <v>0.5342242883200008</v>
       </c>
       <c r="Y109" t="n">
-        <v>0.7242540855337155</v>
+        <v>0.218134148388143</v>
       </c>
       <c r="Z109" t="n">
         <v>0.946244471261862</v>
@@ -16246,10 +16246,10 @@
         <v>1238.670703415034</v>
       </c>
       <c r="R110" t="n">
-        <v>0.2273184110215845</v>
+        <v>0.04687761813170063</v>
       </c>
       <c r="S110" t="n">
-        <v>4.011654097749836</v>
+        <v>0.8272835800041394</v>
       </c>
       <c r="T110" t="n">
         <v>0.02346555338597601</v>
@@ -16267,7 +16267,7 @@
         <v>0.946013705779765</v>
       </c>
       <c r="Y110" t="n">
-        <v>1.184687390347589</v>
+        <v>0.2443063139522036</v>
       </c>
       <c r="Z110" t="n">
         <v>0.1370008919991575</v>
@@ -16384,10 +16384,10 @@
         <v>450.5614498276976</v>
       </c>
       <c r="R111" t="n">
-        <v>0.136956141224802</v>
+        <v>0.0552565146112221</v>
       </c>
       <c r="S111" t="n">
-        <v>1.540698264379901</v>
+        <v>0.6216122577333195</v>
       </c>
       <c r="T111" t="n">
         <v>0.04788817631943065</v>
@@ -16405,7 +16405,7 @@
         <v>0.5157026093599496</v>
       </c>
       <c r="Y111" t="n">
-        <v>0.7207007019947256</v>
+        <v>0.2907749043887181</v>
       </c>
       <c r="Z111" t="n">
         <v>1.256654148511164</v>
@@ -16531,10 +16531,10 @@
         <v>548.0717102283559</v>
       </c>
       <c r="R112" t="n">
-        <v>0.1509654900423658</v>
+        <v>0.05233804946485776</v>
       </c>
       <c r="S112" t="n">
-        <v>1.828550401867689</v>
+        <v>0.6339380036793797</v>
       </c>
       <c r="T112" t="n">
         <v>0.04322138808745284</v>
@@ -16552,7 +16552,7 @@
         <v>0.5837412679998712</v>
       </c>
       <c r="Y112" t="n">
-        <v>0.7940781406998356</v>
+        <v>0.2752980233777074</v>
       </c>
       <c r="Z112" t="n">
         <v>0.8297403899611151</v>
@@ -16683,10 +16683,10 @@
         <v>364.6266753510416</v>
       </c>
       <c r="R113" t="n">
-        <v>0.12024009027529</v>
+        <v>0.02741995601133851</v>
       </c>
       <c r="S113" t="n">
-        <v>1.16792160719555</v>
+        <v>0.2663367851826616</v>
       </c>
       <c r="T113" t="n">
         <v>0.006989450723578536</v>
@@ -16704,7 +16704,7 @@
         <v>0.4601753676917382</v>
       </c>
       <c r="Y113" t="n">
-        <v>0.6329277430664961</v>
+        <v>0.1443349787371676</v>
       </c>
       <c r="Z113" t="n">
         <v>1.060831560138101</v>
@@ -16827,10 +16827,10 @@
         <v>483.5233341602351</v>
       </c>
       <c r="R114" t="n">
-        <v>0.1393546677963431</v>
+        <v>0.03828319631667321</v>
       </c>
       <c r="S114" t="n">
-        <v>1.57159518174655</v>
+        <v>0.4317450418027529</v>
       </c>
       <c r="T114" t="n">
         <v>0.02551421071774525</v>
@@ -16848,7 +16848,7 @@
         <v>0.5431756460836764</v>
       </c>
       <c r="Y114" t="n">
-        <v>0.7332237487292422</v>
+        <v>0.2014295549659747</v>
       </c>
       <c r="Z114" t="n">
         <v>0.9548714706172144</v>
@@ -16974,10 +16974,10 @@
         <v>454.9039090145141</v>
       </c>
       <c r="R115" t="n">
-        <v>0.13138095814286</v>
+        <v>0.02922420290817499</v>
       </c>
       <c r="S115" t="n">
-        <v>1.458427760855945</v>
+        <v>0.3244107016164713</v>
       </c>
       <c r="T115" t="n">
         <v>0.008803699089899324</v>
@@ -16995,7 +16995,7 @@
         <v>0.5228162358938716</v>
       </c>
       <c r="Y115" t="n">
-        <v>0.6913507446289013</v>
+        <v>0.1537831260127014</v>
       </c>
       <c r="Z115" t="n">
         <v>1.177088983194154</v>
@@ -17126,10 +17126,10 @@
         <v>666.2793795323425</v>
       </c>
       <c r="R116" t="n">
-        <v>0.1621282733160886</v>
+        <v>0.03617069303145026</v>
       </c>
       <c r="S116" t="n">
-        <v>2.1411718559712</v>
+        <v>0.4776937935983648</v>
       </c>
       <c r="T116" t="n">
         <v>0.01756314026522218</v>
@@ -17147,7 +17147,7 @@
         <v>0.6586738663279574</v>
       </c>
       <c r="Y116" t="n">
-        <v>0.8522075159110509</v>
+        <v>0.1901268410909211</v>
       </c>
       <c r="Z116" t="n">
         <v>0.6165669580640616</v>
@@ -17273,10 +17273,10 @@
         <v>444.7801590842464</v>
       </c>
       <c r="R117" t="n">
-        <v>0.1439606139609871</v>
+        <v>0.06042273545203997</v>
       </c>
       <c r="S117" t="n">
-        <v>1.529174467074526</v>
+        <v>0.6418207156930966</v>
       </c>
       <c r="T117" t="n">
         <v>0.05349361201349941</v>
@@ -17294,7 +17294,7 @@
         <v>0.5202707009107589</v>
       </c>
       <c r="Y117" t="n">
-        <v>0.7575771774242569</v>
+        <v>0.3179681172269374</v>
       </c>
       <c r="Z117" t="n">
         <v>1.05781319093341</v>
@@ -17425,10 +17425,10 @@
         <v>1086.679426976399</v>
       </c>
       <c r="R118" t="n">
-        <v>0.2173310649795127</v>
+        <v>0.04959411887098509</v>
       </c>
       <c r="S118" t="n">
-        <v>3.516090005646975</v>
+        <v>0.8023583085905222</v>
       </c>
       <c r="T118" t="n">
         <v>0.03073077822456778</v>
@@ -17446,7 +17446,7 @@
         <v>0.8890467814097006</v>
       </c>
       <c r="Y118" t="n">
-        <v>1.136665340569778</v>
+        <v>0.2593826889039555</v>
       </c>
       <c r="Z118" t="n">
         <v>0.2331909053053322</v>
@@ -17577,10 +17577,10 @@
         <v>436.2378281746771</v>
       </c>
       <c r="R119" t="n">
-        <v>0.136472518009766</v>
+        <v>0.058559253176983</v>
       </c>
       <c r="S119" t="n">
-        <v>1.510027605976911</v>
+        <v>0.6479406269642339</v>
       </c>
       <c r="T119" t="n">
         <v>0.05178249814501625</v>
@@ -17598,7 +17598,7 @@
         <v>0.5096565419757205</v>
       </c>
       <c r="Y119" t="n">
-        <v>0.7181953010138166</v>
+        <v>0.3081717922107805</v>
       </c>
       <c r="Z119" t="n">
         <v>1.263103736974466</v>
@@ -17724,10 +17724,10 @@
         <v>609.7906666368677</v>
       </c>
       <c r="R120" t="n">
-        <v>0.1602960896169993</v>
+        <v>0.04030322037699456</v>
       </c>
       <c r="S120" t="n">
-        <v>1.96941696980113</v>
+        <v>0.495170196214632</v>
       </c>
       <c r="T120" t="n">
         <v>0.02558039134875938</v>
@@ -17745,7 +17745,7 @@
         <v>0.6297326029758291</v>
       </c>
       <c r="Y120" t="n">
-        <v>0.8428755676050557</v>
+        <v>0.2119240702174208</v>
       </c>
       <c r="Z120" t="n">
         <v>0.6845167484937132</v>
@@ -17876,10 +17876,10 @@
         <v>576.3546391557558</v>
       </c>
       <c r="R121" t="n">
-        <v>0.1639677766744993</v>
+        <v>0.06864747432416556</v>
       </c>
       <c r="S121" t="n">
-        <v>1.983695540536338</v>
+        <v>0.8305027454038072</v>
       </c>
       <c r="T121" t="n">
         <v>0.0615544942834828</v>
@@ -17897,7 +17897,7 @@
         <v>0.6090304352895056</v>
       </c>
       <c r="Y121" t="n">
-        <v>0.862343695907095</v>
+        <v>0.3610326243607285</v>
       </c>
       <c r="Z121" t="n">
         <v>0.8389912101767373</v>
@@ -18017,10 +18017,10 @@
         <v>407.2874684453447</v>
       </c>
       <c r="R122" t="n">
-        <v>0.1365922971479935</v>
+        <v>0.05514728052067666</v>
       </c>
       <c r="S122" t="n">
-        <v>1.38790806947522</v>
+        <v>0.5603489892357018</v>
       </c>
       <c r="T122" t="n">
         <v>0.04784177069916334</v>
@@ -18038,7 +18038,7 @@
         <v>0.4966255727405918</v>
       </c>
       <c r="Y122" t="n">
-        <v>0.7189014490302992</v>
+        <v>0.2902466735253764</v>
       </c>
       <c r="Z122" t="n">
         <v>1.591778155555364</v>
@@ -18166,10 +18166,10 @@
         <v>1292.62649117756</v>
       </c>
       <c r="R123" t="n">
-        <v>0.2297378502364508</v>
+        <v>0.04312570386505944</v>
       </c>
       <c r="S123" t="n">
-        <v>4.176290467742785</v>
+        <v>0.7839607873973649</v>
       </c>
       <c r="T123" t="n">
         <v>0.01263072062840736</v>
@@ -18187,7 +18187,7 @@
         <v>0.9836345464048456</v>
       </c>
       <c r="Y123" t="n">
-        <v>1.195362377333048</v>
+        <v>0.2243898593254934</v>
       </c>
       <c r="Z123" t="n">
         <v>0.1584126895994296</v>
@@ -18315,10 +18315,10 @@
         <v>513.0580779015858</v>
       </c>
       <c r="R124" t="n">
-        <v>0.1556547280759412</v>
+        <v>0.0724065220709654</v>
       </c>
       <c r="S124" t="n">
-        <v>1.811267434501338</v>
+        <v>0.842554396475881</v>
       </c>
       <c r="T124" t="n">
         <v>0.06632541948809087</v>
@@ -18336,7 +18336,7 @@
         <v>0.5671329528751325</v>
       </c>
       <c r="Y124" t="n">
-        <v>0.8188808023327789</v>
+        <v>0.380922003594202</v>
       </c>
       <c r="Z124" t="n">
         <v>1.007526740184383</v>
@@ -18456,10 +18456,10 @@
         <v>474.4167535655663</v>
       </c>
       <c r="R125" t="n">
-        <v>0.1401683319000536</v>
+        <v>0.0507949677053594</v>
       </c>
       <c r="S125" t="n">
-        <v>1.590733657253251</v>
+        <v>0.5764587739092315</v>
       </c>
       <c r="T125" t="n">
         <v>0.042243944737659</v>
@@ -18477,7 +18477,7 @@
         <v>0.540320475689792</v>
       </c>
       <c r="Y125" t="n">
-        <v>0.7375331370504059</v>
+        <v>0.2672712970917038</v>
       </c>
       <c r="Z125" t="n">
         <v>1.131000314009517</v>
@@ -18603,10 +18603,10 @@
         <v>510.16643802853</v>
       </c>
       <c r="R126" t="n">
-        <v>0.1466797573615125</v>
+        <v>0.05253751690402794</v>
       </c>
       <c r="S126" t="n">
-        <v>1.707498027704573</v>
+        <v>0.6115888661652634</v>
       </c>
       <c r="T126" t="n">
         <v>0.0438347385633217</v>
@@ -18624,7 +18624,7 @@
         <v>0.5664991819785514</v>
       </c>
       <c r="Y126" t="n">
-        <v>0.7716747455153273</v>
+        <v>0.2763972051508234</v>
       </c>
       <c r="Z126" t="n">
         <v>1.022835434671043</v>
@@ -18755,10 +18755,10 @@
         <v>665.9472847036207</v>
       </c>
       <c r="R127" t="n">
-        <v>0.1692631869541876</v>
+        <v>0.04458616308656321</v>
       </c>
       <c r="S127" t="n">
-        <v>2.157428256813729</v>
+        <v>0.5682951493279613</v>
       </c>
       <c r="T127" t="n">
         <v>0.03079674069972735</v>
@@ -18776,7 +18776,7 @@
         <v>0.6720252225683322</v>
       </c>
       <c r="Y127" t="n">
-        <v>0.8897133077841016</v>
+        <v>0.2343622577063036</v>
       </c>
       <c r="Z127" t="n">
         <v>0.6340650315646472</v>
@@ -18902,10 +18902,10 @@
         <v>1254.76304109255</v>
       </c>
       <c r="R128" t="n">
-        <v>0.2278538386930144</v>
+        <v>0.04726608369987761</v>
       </c>
       <c r="S128" t="n">
-        <v>4.062485270187716</v>
+        <v>0.8427234314402596</v>
       </c>
       <c r="T128" t="n">
         <v>0.02378420416568981</v>
@@ -18923,7 +18923,7 @@
         <v>0.9749154902106582</v>
       </c>
       <c r="Y128" t="n">
-        <v>1.186931802352428</v>
+        <v>0.246217567532938</v>
       </c>
       <c r="Z128" t="n">
         <v>0.1841893405705091</v>
@@ -19054,10 +19054,10 @@
         <v>492.0117538705012</v>
       </c>
       <c r="R129" t="n">
-        <v>0.1301338215787433</v>
+        <v>0.03469894772830311</v>
       </c>
       <c r="S129" t="n">
-        <v>1.599709186972584</v>
+        <v>0.4265472633158645</v>
       </c>
       <c r="T129" t="n">
         <v>0.02080127669788294</v>
@@ -19075,7 +19075,7 @@
         <v>0.5494972796163312</v>
       </c>
       <c r="Y129" t="n">
-        <v>0.6846826750359865</v>
+        <v>0.1825641333154328</v>
       </c>
       <c r="Z129" t="n">
         <v>1.347526381911011</v>
@@ -19206,10 +19206,10 @@
         <v>465.6522538264084</v>
       </c>
       <c r="R130" t="n">
-        <v>0.1303229563272183</v>
+        <v>0.04215102088149211</v>
       </c>
       <c r="S130" t="n">
-        <v>1.54038878593123</v>
+        <v>0.4982158302055257</v>
       </c>
       <c r="T130" t="n">
         <v>0.03195412487580097</v>
@@ -19227,7 +19227,7 @@
         <v>0.5341625188421676</v>
       </c>
       <c r="Y130" t="n">
-        <v>0.6857537731925185</v>
+        <v>0.2217968532023158</v>
       </c>
       <c r="Z130" t="n">
         <v>1.301869052062761</v>
@@ -19358,10 +19358,10 @@
         <v>770.0293529823913</v>
       </c>
       <c r="R131" t="n">
-        <v>0.1846783478299523</v>
+        <v>0.05336908078967099</v>
       </c>
       <c r="S131" t="n">
-        <v>2.516481293331504</v>
+        <v>0.7272227363283934</v>
       </c>
       <c r="T131" t="n">
         <v>0.04107955212353836</v>
@@ -19379,7 +19379,7 @@
         <v>0.7360061346918944</v>
       </c>
       <c r="Y131" t="n">
-        <v>0.9699654509579181</v>
+        <v>0.2803044597465638</v>
       </c>
       <c r="Z131" t="n">
         <v>0.4915668852030486</v>
@@ -19505,10 +19505,10 @@
         <v>422.6624566241478</v>
       </c>
       <c r="R132" t="n">
-        <v>0.1443306497614539</v>
+        <v>0.07412469739169793</v>
       </c>
       <c r="S132" t="n">
-        <v>1.536843932291799</v>
+        <v>0.7892855163312689</v>
       </c>
       <c r="T132" t="n">
         <v>0.06887416189850017</v>
@@ -19526,7 +19526,7 @@
         <v>0.5103947478558674</v>
       </c>
       <c r="Y132" t="n">
-        <v>0.7595875033251429</v>
+        <v>0.3901055937844783</v>
       </c>
       <c r="Z132" t="n">
         <v>1.188130972176347</v>
@@ -19646,10 +19646,10 @@
         <v>467.1185682957703</v>
       </c>
       <c r="R133" t="n">
-        <v>0.1453800151168199</v>
+        <v>0.06830672195857702</v>
       </c>
       <c r="S133" t="n">
-        <v>1.653266972762662</v>
+        <v>0.7767865984953528</v>
       </c>
       <c r="T133" t="n">
         <v>0.06231053676231464</v>
@@ -19667,7 +19667,7 @@
         <v>0.5398431907618387</v>
       </c>
       <c r="Y133" t="n">
-        <v>0.7649787972049463</v>
+        <v>0.3594248766785241</v>
       </c>
       <c r="Z133" t="n">
         <v>1.161880101773845</v>
@@ -19793,10 +19793,10 @@
         <v>544.3989324383406</v>
       </c>
       <c r="R134" t="n">
-        <v>0.1437376672795234</v>
+        <v>0.0319494469428017</v>
       </c>
       <c r="S134" t="n">
-        <v>1.745633996693742</v>
+        <v>0.3880127026860604</v>
       </c>
       <c r="T134" t="n">
         <v>0.0124461805487377</v>
@@ -19814,7 +19814,7 @@
         <v>0.5926520497047932</v>
       </c>
       <c r="Y134" t="n">
-        <v>0.7560736351339183</v>
+        <v>0.1680570928119102</v>
       </c>
       <c r="Z134" t="n">
         <v>0.9676569692153486</v>
@@ -19945,10 +19945,10 @@
         <v>665.5526000559073</v>
       </c>
       <c r="R135" t="n">
-        <v>0.1699054361303929</v>
+        <v>0.04941131359577357</v>
       </c>
       <c r="S135" t="n">
-        <v>2.173763031391585</v>
+        <v>0.632166275978121</v>
       </c>
       <c r="T135" t="n">
         <v>0.03749509612159812</v>
@@ -19966,7 +19966,7 @@
         <v>0.6743436542375542</v>
       </c>
       <c r="Y135" t="n">
-        <v>0.8930915888970442</v>
+        <v>0.2597258191013567</v>
       </c>
       <c r="Z135" t="n">
         <v>0.6427984045101238</v>
@@ -20092,10 +20092,10 @@
         <v>422.6659373340428</v>
       </c>
       <c r="R136" t="n">
-        <v>0.1389415014219766</v>
+        <v>0.07402464591287303</v>
       </c>
       <c r="S136" t="n">
-        <v>1.562058884088767</v>
+        <v>0.8322269056136674</v>
       </c>
       <c r="T136" t="n">
         <v>0.06900160718863151</v>
@@ -20113,7 +20113,7 @@
         <v>0.5052444940322635</v>
       </c>
       <c r="Y136" t="n">
-        <v>0.7312253288337445</v>
+        <v>0.3895790350289136</v>
       </c>
       <c r="Z136" t="n">
         <v>1.650810298655011</v>
@@ -20236,10 +20236,10 @@
         <v>629.1173679522966</v>
       </c>
       <c r="R137" t="n">
-        <v>0.1652689667301394</v>
+        <v>0.05905791580035451</v>
       </c>
       <c r="S137" t="n">
-        <v>2.106054418552999</v>
+        <v>0.7525864473090158</v>
       </c>
       <c r="T137" t="n">
         <v>0.0501528479285505</v>
@@ -20257,7 +20257,7 @@
         <v>0.6493628210175656</v>
       </c>
       <c r="Y137" t="n">
-        <v>0.8689236524834089</v>
+        <v>0.3105048752987891</v>
       </c>
       <c r="Z137" t="n">
         <v>0.7534592632234871</v>
@@ -20383,10 +20383,10 @@
         <v>494.7797013173586</v>
       </c>
       <c r="R138" t="n">
-        <v>0.1400568109304588</v>
+        <v>0.05556164235015371</v>
       </c>
       <c r="S138" t="n">
-        <v>1.686897999222698</v>
+        <v>0.669205750804499</v>
       </c>
       <c r="T138" t="n">
         <v>0.04793054153363085</v>
@@ -20404,7 +20404,7 @@
         <v>0.5560563455008833</v>
       </c>
       <c r="Y138" t="n">
-        <v>0.7368823379044813</v>
+        <v>0.2923270395834065</v>
       </c>
       <c r="Z138" t="n">
         <v>1.196969398364808</v>
@@ -20535,10 +20535,10 @@
         <v>608.1989033494216</v>
       </c>
       <c r="R139" t="n">
-        <v>0.1631332618876657</v>
+        <v>0.05740877638831397</v>
       </c>
       <c r="S139" t="n">
-        <v>2.030235453985606</v>
+        <v>0.7144670059607211</v>
       </c>
       <c r="T139" t="n">
         <v>0.04835451058196397</v>
@@ -20556,7 +20556,7 @@
         <v>0.6377711937506886</v>
       </c>
       <c r="Y139" t="n">
-        <v>0.8578020635714891</v>
+        <v>0.3018720172892789</v>
       </c>
       <c r="Z139" t="n">
         <v>0.7737190204340079</v>
@@ -20682,10 +20682,10 @@
         <v>732.1387507307827</v>
       </c>
       <c r="R140" t="n">
-        <v>0.178299860699471</v>
+        <v>0.05260095460672366</v>
       </c>
       <c r="S140" t="n">
-        <v>2.396748143564446</v>
+        <v>0.7070742501357246</v>
       </c>
       <c r="T140" t="n">
         <v>0.04075762204548292</v>
@@ -20703,7 +20703,7 @@
         <v>0.7147168721522457</v>
       </c>
       <c r="Y140" t="n">
-        <v>0.9367599472706623</v>
+        <v>0.2763572964694254</v>
       </c>
       <c r="Z140" t="n">
         <v>0.5596783685001662</v>
@@ -20829,10 +20829,10 @@
         <v>633.6692832447311</v>
       </c>
       <c r="R141" t="n">
-        <v>0.1647229273703189</v>
+        <v>0.05454131204336033</v>
       </c>
       <c r="S141" t="n">
-        <v>2.099294489465343</v>
+        <v>0.6950961693597688</v>
       </c>
       <c r="T141" t="n">
         <v>0.04465160554576234</v>
@@ -20850,7 +20850,7 @@
         <v>0.6536208235785658</v>
       </c>
       <c r="Y141" t="n">
-        <v>0.866028470993005</v>
+        <v>0.2867501800078789</v>
       </c>
       <c r="Z141" t="n">
         <v>0.737682096341933</v>
@@ -20976,10 +20976,10 @@
         <v>611.6757288894323</v>
       </c>
       <c r="R142" t="n">
-        <v>0.1651792926739628</v>
+        <v>0.06042253525347074</v>
       </c>
       <c r="S142" t="n">
-        <v>2.053162970791875</v>
+        <v>0.7510463931375577</v>
       </c>
       <c r="T142" t="n">
         <v>0.05182203811046189</v>
@@ -20997,7 +20997,7 @@
         <v>0.6411318138246039</v>
       </c>
       <c r="Y142" t="n">
-        <v>0.8685430440752584</v>
+        <v>0.3177127825785056</v>
       </c>
       <c r="Z142" t="n">
         <v>0.7555506855252948</v>
@@ -21123,10 +21123,10 @@
         <v>459.1699382574389</v>
       </c>
       <c r="R143" t="n">
-        <v>0.1328391717774484</v>
+        <v>0.0537182641480849</v>
       </c>
       <c r="S143" t="n">
-        <v>1.571718639340768</v>
+        <v>0.6355805738989808</v>
       </c>
       <c r="T143" t="n">
         <v>0.04626290251173554</v>
@@ -21144,7 +21144,7 @@
         <v>0.5306403981356845</v>
       </c>
       <c r="Y143" t="n">
-        <v>0.6990122664047914</v>
+        <v>0.2826705787686848</v>
       </c>
       <c r="Z143" t="n">
         <v>1.341268064918048</v>
@@ -21270,10 +21270,10 @@
         <v>589.0389475543313</v>
       </c>
       <c r="R144" t="n">
-        <v>0.1629817401108471</v>
+        <v>0.05832630842398484</v>
       </c>
       <c r="S144" t="n">
-        <v>1.969154948711821</v>
+        <v>0.7047018812970557</v>
       </c>
       <c r="T144" t="n">
         <v>0.04950899155051159</v>
@@ -21291,7 +21291,7 @@
         <v>0.6283782855504324</v>
       </c>
       <c r="Y144" t="n">
-        <v>0.8570985811925937</v>
+        <v>0.3067300432698713</v>
       </c>
       <c r="Z144" t="n">
         <v>0.6127353545320087</v>
@@ -21422,10 +21422,10 @@
         <v>533.8687605706282</v>
       </c>
       <c r="R145" t="n">
-        <v>0.1491062755386033</v>
+        <v>0.05079246878733393</v>
       </c>
       <c r="S145" t="n">
-        <v>1.773773339664955</v>
+        <v>0.6042289411716413</v>
       </c>
       <c r="T145" t="n">
         <v>0.04141397615817324</v>
@@ -21443,7 +21443,7 @@
         <v>0.5888625557407738</v>
       </c>
       <c r="Y145" t="n">
-        <v>0.7843534154636899</v>
+        <v>0.2671869190566961</v>
       </c>
       <c r="Z145" t="n">
         <v>0.9585359262001968</v>
@@ -21569,10 +21569,10 @@
         <v>448.3052765771429</v>
       </c>
       <c r="R146" t="n">
-        <v>0.1321967003102722</v>
+        <v>0.05899987410647709</v>
       </c>
       <c r="S146" t="n">
-        <v>1.56913045000951</v>
+        <v>0.7003086974933148</v>
       </c>
       <c r="T146" t="n">
         <v>0.05247737358899875</v>
@@ -21590,7 +21590,7 @@
         <v>0.522190440927301</v>
       </c>
       <c r="Y146" t="n">
-        <v>0.695661348490375</v>
+        <v>0.310476221307658</v>
       </c>
       <c r="Z146" t="n">
         <v>1.522037894908761</v>
@@ -21716,10 +21716,10 @@
         <v>544.0780004292803</v>
       </c>
       <c r="R147" t="n">
-        <v>0.1465436834100255</v>
+        <v>0.03195385571886441</v>
       </c>
       <c r="S147" t="n">
-        <v>1.740629752505816</v>
+        <v>0.379544383471723</v>
       </c>
       <c r="T147" t="n">
         <v>0.01168523861800267</v>
@@ -21737,7 +21737,7 @@
         <v>0.5984242868416478</v>
       </c>
       <c r="Y147" t="n">
-        <v>0.7708347691940711</v>
+        <v>0.1680805506232171</v>
       </c>
       <c r="Z147" t="n">
         <v>0.906764956917385</v>
@@ -21865,10 +21865,10 @@
         <v>525.6903078658589</v>
       </c>
       <c r="R148" t="n">
-        <v>0.1377858991950428</v>
+        <v>0.03658801840391693</v>
       </c>
       <c r="S148" t="n">
-        <v>1.706739913467834</v>
+        <v>0.4532120610996988</v>
       </c>
       <c r="T148" t="n">
         <v>0.02276422700583953</v>
@@ -21886,7 +21886,7 @@
         <v>0.5792903038327308</v>
       </c>
       <c r="Y148" t="n">
-        <v>0.7248324255815081</v>
+        <v>0.1924738473375372</v>
       </c>
       <c r="Z148" t="n">
         <v>1.114227419076153</v>
@@ -22009,10 +22009,10 @@
         <v>591.299133174339</v>
       </c>
       <c r="R149" t="n">
-        <v>0.1535215414166472</v>
+        <v>0.04750866099737861</v>
       </c>
       <c r="S149" t="n">
-        <v>1.944761878940274</v>
+        <v>0.60182455162074</v>
       </c>
       <c r="T149" t="n">
         <v>0.03666941180479041</v>
@@ -22030,7 +22030,7 @@
         <v>0.6265908897467604</v>
       </c>
       <c r="Y149" t="n">
-        <v>0.8073385507600093</v>
+        <v>0.2498383820553089</v>
       </c>
       <c r="Z149" t="n">
         <v>0.8790240049700396</v>
@@ -22161,10 +22161,10 @@
         <v>602.2130276489805</v>
       </c>
       <c r="R150" t="n">
-        <v>0.1597233644848841</v>
+        <v>0.06368925138327634</v>
       </c>
       <c r="S150" t="n">
-        <v>2.054627840169405</v>
+        <v>0.8192771886170195</v>
       </c>
       <c r="T150" t="n">
         <v>0.0560218995465139</v>
@@ -22182,7 +22182,7 @@
         <v>0.6331895210472772</v>
       </c>
       <c r="Y150" t="n">
-        <v>0.8399008596702644</v>
+        <v>0.3349081529874223</v>
       </c>
       <c r="Z150" t="n">
         <v>0.8774068495383094</v>
@@ -22308,10 +22308,10 @@
         <v>930.6619575046815</v>
       </c>
       <c r="R151" t="n">
-        <v>0.1965363495776822</v>
+        <v>0.03910267711002059</v>
       </c>
       <c r="S151" t="n">
-        <v>2.979441261036843</v>
+        <v>0.5927866771156612</v>
       </c>
       <c r="T151" t="n">
         <v>0.01428100419977162</v>
@@ -22329,7 +22329,7 @@
         <v>0.8292876502454331</v>
       </c>
       <c r="Y151" t="n">
-        <v>1.030466220481214</v>
+        <v>0.2050205368057563</v>
       </c>
       <c r="Z151" t="n">
         <v>0.3687925877173285</v>
@@ -22460,10 +22460,10 @@
         <v>620.6293981810398</v>
       </c>
       <c r="R152" t="n">
-        <v>0.1598793214573349</v>
+        <v>0.04172001151002772</v>
       </c>
       <c r="S152" t="n">
-        <v>2.008306251615054</v>
+        <v>0.5240612680195783</v>
       </c>
       <c r="T152" t="n">
         <v>0.02770916084203446</v>
@@ -22481,7 +22481,7 @@
         <v>0.6503732600270722</v>
       </c>
       <c r="Y152" t="n">
-        <v>0.8406301534185951</v>
+        <v>0.2193598231254639</v>
       </c>
       <c r="Z152" t="n">
         <v>0.7431362812050313</v>
@@ -22612,10 +22612,10 @@
         <v>677.0637127164142</v>
       </c>
       <c r="R153" t="n">
-        <v>0.1669906258034134</v>
+        <v>0.05072630252136494</v>
       </c>
       <c r="S153" t="n">
-        <v>2.223300387559498</v>
+        <v>0.6753661022144977</v>
       </c>
       <c r="T153" t="n">
         <v>0.03945688347253227</v>
@@ -22633,7 +22633,7 @@
         <v>0.6827385445859135</v>
       </c>
       <c r="Y153" t="n">
-        <v>0.8777013075134403</v>
+        <v>0.2666170141834049</v>
       </c>
       <c r="Z153" t="n">
         <v>0.6951873708827524</v>
@@ -22759,10 +22759,10 @@
         <v>378.9583347282959</v>
       </c>
       <c r="R154" t="n">
-        <v>0.1311045570982608</v>
+        <v>0.05086892801356361</v>
       </c>
       <c r="S154" t="n">
-        <v>1.279282644133861</v>
+        <v>0.4963651773345565</v>
       </c>
       <c r="T154" t="n">
         <v>0.04311330676274532</v>
@@ -22780,7 +22780,7 @@
         <v>0.4873484044735777</v>
       </c>
       <c r="Y154" t="n">
-        <v>0.6900850776504236</v>
+        <v>0.2677549042930982</v>
       </c>
       <c r="Z154" t="n">
         <v>1.561526986176187</v>
@@ -22903,10 +22903,10 @@
         <v>799.3230016720851</v>
       </c>
       <c r="R155" t="n">
-        <v>0.1824367734530325</v>
+        <v>0.04363371039894157</v>
       </c>
       <c r="S155" t="n">
-        <v>2.576887268844616</v>
+        <v>0.6163184685374431</v>
       </c>
       <c r="T155" t="n">
         <v>0.02700949158010499</v>
@@ -22924,7 +22924,7 @@
         <v>0.7606109879195416</v>
       </c>
       <c r="Y155" t="n">
-        <v>0.9579381121958112</v>
+        <v>0.2291116718221374</v>
       </c>
       <c r="Z155" t="n">
         <v>0.4905130448930057</v>
@@ -23055,10 +23055,10 @@
         <v>618.5008542055614</v>
       </c>
       <c r="R156" t="n">
-        <v>0.1552750279735547</v>
+        <v>0.03597382682581127</v>
       </c>
       <c r="S156" t="n">
-        <v>1.987476277149291</v>
+        <v>0.4604547707874415</v>
       </c>
       <c r="T156" t="n">
         <v>0.01849807752632779</v>
@@ -23076,7 +23076,7 @@
         <v>0.6495667435386698</v>
       </c>
       <c r="Y156" t="n">
-        <v>0.816431621031359</v>
+        <v>0.189149344446427</v>
       </c>
       <c r="Z156" t="n">
         <v>0.7940434459215121</v>
@@ -23207,10 +23207,10 @@
         <v>574.5454031266127</v>
       </c>
       <c r="R157" t="n">
-        <v>0.1552729410192707</v>
+        <v>0.06243142125411627</v>
       </c>
       <c r="S157" t="n">
-        <v>1.962505015082031</v>
+        <v>0.7890748800507104</v>
       </c>
       <c r="T157" t="n">
         <v>0.05486882795659122</v>
@@ -23228,7 +23228,7 @@
         <v>0.618971087305047</v>
       </c>
       <c r="Y157" t="n">
-        <v>0.8166235010286966</v>
+        <v>0.3283441755148205</v>
       </c>
       <c r="Z157" t="n">
         <v>0.9330537963957952</v>
@@ -23354,10 +23354,10 @@
         <v>1042.792822526655</v>
       </c>
       <c r="R158" t="n">
-        <v>0.2094877956096417</v>
+        <v>0.04984773554516231</v>
       </c>
       <c r="S158" t="n">
-        <v>3.376175606046972</v>
+        <v>0.8033628320661547</v>
       </c>
       <c r="T158" t="n">
         <v>0.03222156143720593</v>
@@ -23375,7 +23375,7 @@
         <v>0.8912471830718696</v>
       </c>
       <c r="Y158" t="n">
-        <v>1.096520694698028</v>
+        <v>0.2609176990479977</v>
       </c>
       <c r="Z158" t="n">
         <v>0.2970031359163937</v>
@@ -23506,10 +23506,10 @@
         <v>606.7875476519142</v>
       </c>
       <c r="R159" t="n">
-        <v>0.152278918620741</v>
+        <v>0.03796728115157546</v>
       </c>
       <c r="S159" t="n">
-        <v>1.959552550465464</v>
+        <v>0.4885698118207915</v>
       </c>
       <c r="T159" t="n">
         <v>0.02268407485752395</v>
@@ -23527,7 +23527,7 @@
         <v>0.6414080638120929</v>
       </c>
       <c r="Y159" t="n">
-        <v>0.8007333370782923</v>
+        <v>0.1996446258723954</v>
       </c>
       <c r="Z159" t="n">
         <v>0.8528938169750084</v>
@@ -23658,10 +23658,10 @@
         <v>674.6304139354371</v>
       </c>
       <c r="R160" t="n">
-        <v>0.1713063980125848</v>
+        <v>0.06497300741565382</v>
       </c>
       <c r="S160" t="n">
-        <v>2.280384316232225</v>
+        <v>0.8649030556244163</v>
       </c>
       <c r="T160" t="n">
         <v>0.05663668074225334</v>
@@ -23679,7 +23679,7 @@
         <v>0.6860171197893332</v>
       </c>
       <c r="Y160" t="n">
-        <v>0.9004000720388741</v>
+        <v>0.3415033018985038</v>
       </c>
       <c r="Z160" t="n">
         <v>0.6968402874101338</v>
@@ -23805,10 +23805,10 @@
         <v>702.5799611680491</v>
       </c>
       <c r="R161" t="n">
-        <v>0.1733819342513075</v>
+        <v>0.06049134023220136</v>
       </c>
       <c r="S161" t="n">
-        <v>2.345248015602157</v>
+        <v>0.8182351653492139</v>
       </c>
       <c r="T161" t="n">
         <v>0.05110758221424449</v>
@@ -23826,7 +23826,7 @@
         <v>0.7034594520748249</v>
       </c>
       <c r="Y161" t="n">
-        <v>0.9111279540848555</v>
+        <v>0.3178840477447315</v>
       </c>
       <c r="Z161" t="n">
         <v>0.6536680892574568</v>
@@ -23952,10 +23952,10 @@
         <v>544.3479866770663</v>
       </c>
       <c r="R162" t="n">
-        <v>0.1404512180552158</v>
+        <v>0.04351837482348679</v>
       </c>
       <c r="S162" t="n">
-        <v>1.792857167908815</v>
+        <v>0.5555112395490782</v>
       </c>
       <c r="T162" t="n">
         <v>0.03261218040956741</v>
@@ -23973,7 +23973,7 @@
         <v>0.5963969926866095</v>
       </c>
       <c r="Y162" t="n">
-        <v>0.7387867899524403</v>
+        <v>0.2289107982470569</v>
       </c>
       <c r="Z162" t="n">
         <v>1.122638152994195</v>
@@ -24104,10 +24104,10 @@
         <v>737.091896731998</v>
       </c>
       <c r="R163" t="n">
-        <v>0.1780573441539356</v>
+        <v>0.06256582327921099</v>
       </c>
       <c r="S163" t="n">
-        <v>2.464021861215293</v>
+        <v>0.8658084678137722</v>
       </c>
       <c r="T163" t="n">
         <v>0.05319659664335564</v>
@@ -24125,7 +24125,7 @@
         <v>0.7242836181136024</v>
       </c>
       <c r="Y163" t="n">
-        <v>0.9354487931369003</v>
+        <v>0.3286981739296086</v>
       </c>
       <c r="Z163" t="n">
         <v>0.6069613627292476</v>
@@ -24251,10 +24251,10 @@
         <v>667.0501111059193</v>
       </c>
       <c r="R164" t="n">
-        <v>0.1603559131022805</v>
+        <v>0.04162503259445894</v>
       </c>
       <c r="S164" t="n">
-        <v>2.161943505722757</v>
+        <v>0.5611952010506109</v>
       </c>
       <c r="T164" t="n">
         <v>0.0272916275788866</v>
@@ -24272,7 +24272,7 @@
         <v>0.6796001136257801</v>
       </c>
       <c r="Y164" t="n">
-        <v>0.8428869442129534</v>
+        <v>0.2187957765170128</v>
       </c>
       <c r="Z164" t="n">
         <v>0.7610927572423424</v>
@@ -24398,10 +24398,10 @@
         <v>497.1453700349165</v>
       </c>
       <c r="R165" t="n">
-        <v>0.1370977906413148</v>
+        <v>0.05611744279453086</v>
       </c>
       <c r="S165" t="n">
-        <v>1.706749914414178</v>
+        <v>0.6986140348336509</v>
       </c>
       <c r="T165" t="n">
         <v>0.04873456610745896</v>
@@ -24419,7 +24419,7 @@
         <v>0.5631591673322229</v>
       </c>
       <c r="Y165" t="n">
-        <v>0.7213065260523841</v>
+        <v>0.2952482131456634</v>
       </c>
       <c r="Z165" t="n">
         <v>1.384233398737006</v>
@@ -24539,10 +24539,10 @@
         <v>687.0079931818916</v>
       </c>
       <c r="R166" t="n">
-        <v>0.1723492083059616</v>
+        <v>0.06405001235075375</v>
       </c>
       <c r="S166" t="n">
-        <v>2.314752370524215</v>
+        <v>0.8602297589775707</v>
       </c>
       <c r="T166" t="n">
         <v>0.05545616215666161</v>
@@ -24560,7 +24560,7 @@
         <v>0.6943745800271447</v>
       </c>
       <c r="Y166" t="n">
-        <v>0.9058029054857926</v>
+        <v>0.3366228824255458</v>
       </c>
       <c r="Z166" t="n">
         <v>0.6778674556660396</v>
@@ -24686,10 +24686,10 @@
         <v>987.596618397678</v>
       </c>
       <c r="R167" t="n">
-        <v>0.2031378261200046</v>
+        <v>0.05004660472231542</v>
       </c>
       <c r="S167" t="n">
-        <v>3.200838812572863</v>
+        <v>0.788583386424771</v>
       </c>
       <c r="T167" t="n">
         <v>0.03356744814862773</v>
@@ -24707,7 +24707,7 @@
         <v>0.8649590307488526</v>
       </c>
       <c r="Y167" t="n">
-        <v>1.064229200584427</v>
+        <v>0.2621917303778291</v>
       </c>
       <c r="Z167" t="n">
         <v>0.3418827740463903</v>
@@ -24833,10 +24833,10 @@
         <v>691.2944805599391</v>
       </c>
       <c r="R168" t="n">
-        <v>0.1678569431915376</v>
+        <v>0.05236643335191134</v>
       </c>
       <c r="S168" t="n">
-        <v>2.276799859071521</v>
+        <v>0.7102946461956107</v>
       </c>
       <c r="T168" t="n">
         <v>0.04144570564241178</v>
@@ -24854,7 +24854,7 @@
         <v>0.6965132350305449</v>
       </c>
       <c r="Y168" t="n">
-        <v>0.8821662913050661</v>
+        <v>0.2752099580785079</v>
       </c>
       <c r="Z168" t="n">
         <v>0.6819484755955724</v>
@@ -24980,10 +24980,10 @@
         <v>1457.682236879935</v>
       </c>
       <c r="R169" t="n">
-        <v>0.2400645569455071</v>
+        <v>0.04782501303444029</v>
       </c>
       <c r="S169" t="n">
-        <v>4.755291785916731</v>
+        <v>0.9473363937503596</v>
       </c>
       <c r="T169" t="n">
         <v>0.02062597854168933</v>
@@ -25001,7 +25001,7 @@
         <v>1.082743549703771</v>
       </c>
       <c r="Y169" t="n">
-        <v>1.24099184318432</v>
+        <v>0.2472270452209915</v>
       </c>
       <c r="Z169" t="n">
         <v>0.1497984713539</v>
@@ -25132,10 +25132,10 @@
         <v>645.8478251835428</v>
       </c>
       <c r="R170" t="n">
-        <v>0.163043119618721</v>
+        <v>0.05578253440638289</v>
       </c>
       <c r="S170" t="n">
-        <v>2.14976227666492</v>
+        <v>0.735505971941888</v>
       </c>
       <c r="T170" t="n">
         <v>0.04624595873658108</v>
@@ -25153,7 +25153,7 @@
         <v>0.6689028568647222</v>
       </c>
       <c r="Y170" t="n">
-        <v>0.8571311725264394</v>
+        <v>0.2932533996776484</v>
       </c>
       <c r="Z170" t="n">
         <v>0.7699601345088106</v>
@@ -25279,10 +25279,10 @@
         <v>754.1763993014004</v>
       </c>
       <c r="R171" t="n">
-        <v>0.1778681361692323</v>
+        <v>0.05424931840223399</v>
       </c>
       <c r="S171" t="n">
-        <v>2.478276854379783</v>
+        <v>0.7558679876997105</v>
       </c>
       <c r="T171" t="n">
         <v>0.04282934984446748</v>
@@ -25300,7 +25300,7 @@
         <v>0.7368538316760299</v>
       </c>
       <c r="Y171" t="n">
-        <v>0.9343236772994391</v>
+        <v>0.2849662888036219</v>
       </c>
       <c r="Z171" t="n">
         <v>0.5708926717395235</v>
@@ -25426,10 +25426,10 @@
         <v>694.7897285567831</v>
       </c>
       <c r="R172" t="n">
-        <v>0.170108324580131</v>
+        <v>0.05800867833694349</v>
       </c>
       <c r="S172" t="n">
-        <v>2.312681692502616</v>
+        <v>0.7886481083583133</v>
       </c>
       <c r="T172" t="n">
         <v>0.04833582405902353</v>
@@ -25447,7 +25447,7 @@
         <v>0.6996966550040264</v>
       </c>
       <c r="Y172" t="n">
-        <v>0.8939758590240692</v>
+        <v>0.3048549103938275</v>
       </c>
       <c r="Z172" t="n">
         <v>0.6826810662395433</v>
@@ -25573,10 +25573,10 @@
         <v>721.4239695958357</v>
       </c>
       <c r="R173" t="n">
-        <v>0.1654436328278829</v>
+        <v>0.03660854875996209</v>
       </c>
       <c r="S173" t="n">
-        <v>2.31690522667482</v>
+        <v>0.5126733287534616</v>
       </c>
       <c r="T173" t="n">
         <v>0.01719589025246578</v>
@@ -25594,7 +25594,7 @@
         <v>0.7146448126176231</v>
       </c>
       <c r="Y173" t="n">
-        <v>0.8692882593027391</v>
+        <v>0.1923518063717443</v>
       </c>
       <c r="Z173" t="n">
         <v>0.6805673912377093</v>
@@ -25725,10 +25725,10 @@
         <v>902.7631496877395</v>
       </c>
       <c r="R174" t="n">
-        <v>0.1962671828761755</v>
+        <v>0.05722573458779815</v>
       </c>
       <c r="S174" t="n">
-        <v>2.959253489400359</v>
+        <v>0.8628312297592826</v>
       </c>
       <c r="T174" t="n">
         <v>0.04462134000884908</v>
@@ -25746,7 +25746,7 @@
         <v>0.8228280307097516</v>
       </c>
       <c r="Y174" t="n">
-        <v>1.029416695972365</v>
+        <v>0.3001476138837143</v>
       </c>
       <c r="Z174" t="n">
         <v>0.404075555564007</v>
@@ -25872,10 +25872,10 @@
         <v>594.5258050334226</v>
       </c>
       <c r="R175" t="n">
-        <v>0.1519894544917073</v>
+        <v>0.04724487506076298</v>
       </c>
       <c r="S175" t="n">
-        <v>1.956381674643796</v>
+        <v>0.6081277684614323</v>
       </c>
       <c r="T175" t="n">
         <v>0.03640239210108644</v>
@@ -25893,7 +25893,7 @@
         <v>0.6360937255967315</v>
       </c>
       <c r="Y175" t="n">
-        <v>0.7992671796710102</v>
+        <v>0.2484466976344439</v>
       </c>
       <c r="Z175" t="n">
         <v>0.8958896244461122</v>
@@ -26019,10 +26019,10 @@
         <v>1170.76354833816</v>
       </c>
       <c r="R176" t="n">
-        <v>0.2188049423442734</v>
+        <v>0.04459427214074669</v>
       </c>
       <c r="S176" t="n">
-        <v>3.773686879268618</v>
+        <v>0.7691088595397727</v>
       </c>
       <c r="T176" t="n">
         <v>0.02023037847291849</v>
@@ -26040,7 +26040,7 @@
         <v>0.9599910862878817</v>
       </c>
       <c r="Y176" t="n">
-        <v>1.142317935812182</v>
+        <v>0.23281392255168</v>
       </c>
       <c r="Z176" t="n">
         <v>0.242207832922104</v>
@@ -26171,10 +26171,10 @@
         <v>600.3646172907607</v>
       </c>
       <c r="R177" t="n">
-        <v>0.153315666908502</v>
+        <v>0.05448967096197216</v>
       </c>
       <c r="S177" t="n">
-        <v>2.010407222128937</v>
+        <v>0.71451554979541</v>
       </c>
       <c r="T177" t="n">
         <v>0.04547583647541755</v>
@@ -26192,7 +26192,7 @@
         <v>0.6384197190346428</v>
       </c>
       <c r="Y177" t="n">
-        <v>0.8062146802912284</v>
+        <v>0.2865354437651702</v>
       </c>
       <c r="Z177" t="n">
         <v>0.9272453500160622</v>
@@ -26318,10 +26318,10 @@
         <v>692.4616180294012</v>
       </c>
       <c r="R178" t="n">
-        <v>0.1719210036161305</v>
+        <v>0.06511369737001786</v>
       </c>
       <c r="S178" t="n">
-        <v>2.34120245954897</v>
+        <v>0.8867116014131389</v>
       </c>
       <c r="T178" t="n">
         <v>0.05671221978843581</v>
@@ -26339,7 +26339,7 @@
         <v>0.6998895444544183</v>
       </c>
       <c r="Y178" t="n">
-        <v>0.9035172513632971</v>
+        <v>0.3421998920226187</v>
       </c>
       <c r="Z178" t="n">
         <v>0.6882379862442605</v>
@@ -26465,10 +26465,10 @@
         <v>605.4699797455413</v>
       </c>
       <c r="R179" t="n">
-        <v>0.1534399719197333</v>
+        <v>0.0613947876527499</v>
       </c>
       <c r="S179" t="n">
-        <v>2.070591349182668</v>
+        <v>0.8284902206915874</v>
       </c>
       <c r="T179" t="n">
         <v>0.05369774463275617</v>
@@ -26486,7 +26486,7 @@
         <v>0.6392778989056547</v>
       </c>
       <c r="Y179" t="n">
-        <v>0.8068446945022163</v>
+        <v>0.3228367293603551</v>
       </c>
       <c r="Z179" t="n">
         <v>1.061957317094228</v>
@@ -26612,10 +26612,10 @@
         <v>1038.385761502041</v>
       </c>
       <c r="R180" t="n">
-        <v>0.2056664354273076</v>
+        <v>0.04430044119016305</v>
       </c>
       <c r="S180" t="n">
-        <v>3.344015342260944</v>
+        <v>0.7202991324327894</v>
       </c>
       <c r="T180" t="n">
         <v>0.02313660233976278</v>
@@ -26633,7 +26633,7 @@
         <v>0.8958828677164544</v>
       </c>
       <c r="Y180" t="n">
-        <v>1.076599946680965</v>
+        <v>0.2318990579293142</v>
       </c>
       <c r="Z180" t="n">
         <v>0.3185833151393564</v>
@@ -26759,10 +26759,10 @@
         <v>977.7407518368065</v>
       </c>
       <c r="R181" t="n">
-        <v>0.2012384711512984</v>
+        <v>0.05535710020852053</v>
       </c>
       <c r="S181" t="n">
-        <v>3.194981283805418</v>
+        <v>0.8788821445527211</v>
       </c>
       <c r="T181" t="n">
         <v>0.04140713382230297</v>
@@ -26780,7 +26780,7 @@
         <v>0.8634771973455064</v>
       </c>
       <c r="Y181" t="n">
-        <v>1.054432871331103</v>
+        <v>0.2900556031234651</v>
       </c>
       <c r="Z181" t="n">
         <v>0.3706040720577518</v>
@@ -26906,10 +26906,10 @@
         <v>614.5255735622602</v>
       </c>
       <c r="R182" t="n">
-        <v>0.1561104156541531</v>
+        <v>0.06048101029887044</v>
       </c>
       <c r="S182" t="n">
-        <v>2.087517960648328</v>
+        <v>0.8087557434780918</v>
       </c>
       <c r="T182" t="n">
         <v>0.05243607596855394</v>
@@ -26927,7 +26927,7 @@
         <v>0.6480764371133466</v>
       </c>
       <c r="Y182" t="n">
-        <v>0.8208434473443487</v>
+        <v>0.3180149177398794</v>
       </c>
       <c r="Z182" t="n">
         <v>0.9235461386477641</v>
@@ -27053,10 +27053,10 @@
         <v>1086.790948377705</v>
       </c>
       <c r="R183" t="n">
-        <v>0.2106526425749833</v>
+        <v>0.04763809035666063</v>
       </c>
       <c r="S183" t="n">
-        <v>3.51298879267045</v>
+        <v>0.7944456593636174</v>
       </c>
       <c r="T183" t="n">
         <v>0.02813009700368507</v>
@@ -27074,7 +27074,7 @@
         <v>0.9211398025816958</v>
       </c>
       <c r="Y183" t="n">
-        <v>1.101734094440377</v>
+        <v>0.2491519104550617</v>
       </c>
       <c r="Z183" t="n">
         <v>0.2928226146563421</v>
@@ -27200,10 +27200,10 @@
         <v>1157.738072323247</v>
       </c>
       <c r="R184" t="n">
-        <v>0.2198726346157139</v>
+        <v>0.05049044757641762</v>
       </c>
       <c r="S184" t="n">
-        <v>3.750613283190129</v>
+        <v>0.8612719981515737</v>
       </c>
       <c r="T184" t="n">
         <v>0.03118989415838307</v>
@@ -27221,7 +27221,7 @@
         <v>0.95889102514237</v>
       </c>
       <c r="Y184" t="n">
-        <v>1.148240667654133</v>
+        <v>0.263676220265559</v>
       </c>
       <c r="Z184" t="n">
         <v>0.2272541795460266</v>
@@ -27347,10 +27347,10 @@
         <v>502.0891203121045</v>
       </c>
       <c r="R185" t="n">
-        <v>0.1359810800416386</v>
+        <v>0.04573455588843525</v>
       </c>
       <c r="S185" t="n">
-        <v>1.667495269523928</v>
+        <v>0.5608291651632076</v>
       </c>
       <c r="T185" t="n">
         <v>0.03602153339739648</v>
@@ -27368,7 +27368,7 @@
         <v>0.5768730046090889</v>
       </c>
       <c r="Y185" t="n">
-        <v>0.7154155621671816</v>
+        <v>0.2406159224604804</v>
       </c>
       <c r="Z185" t="n">
         <v>1.160972132839433</v>
@@ -27494,10 +27494,10 @@
         <v>602.57582753922</v>
       </c>
       <c r="R186" t="n">
-        <v>0.1582179158669344</v>
+        <v>0.06975605204416062</v>
       </c>
       <c r="S186" t="n">
-        <v>2.10182507158023</v>
+        <v>0.9266650889535128</v>
       </c>
       <c r="T186" t="n">
         <v>0.0630069338249455</v>
@@ -27515,7 +27515,7 @@
         <v>0.6449929980777231</v>
       </c>
       <c r="Y186" t="n">
-        <v>0.8319827696068902</v>
+        <v>0.366809492202848</v>
       </c>
       <c r="Z186" t="n">
         <v>0.9422257641784437</v>
@@ -27635,10 +27635,10 @@
         <v>835.8442899432383</v>
       </c>
       <c r="R187" t="n">
-        <v>0.1820588767185525</v>
+        <v>0.04791985649763512</v>
       </c>
       <c r="S187" t="n">
-        <v>2.716028811733938</v>
+        <v>0.7148880254981262</v>
       </c>
       <c r="T187" t="n">
         <v>0.03344408948532161</v>
@@ -27656,7 +27656,7 @@
         <v>0.7907487953240917</v>
       </c>
       <c r="Y187" t="n">
-        <v>0.9556105494620005</v>
+        <v>0.2515269852435537</v>
       </c>
       <c r="Z187" t="n">
         <v>0.5337849280352397</v>
@@ -27782,10 +27782,10 @@
         <v>710.042891624695</v>
       </c>
       <c r="R188" t="n">
-        <v>0.1630428176496047</v>
+        <v>0.04329392217572598</v>
       </c>
       <c r="S188" t="n">
-        <v>2.307333617117787</v>
+        <v>0.6126827510281067</v>
       </c>
       <c r="T188" t="n">
         <v>0.02927595263654695</v>
@@ -27803,7 +27803,7 @@
         <v>0.7143614149290364</v>
       </c>
       <c r="Y188" t="n">
-        <v>0.8567479704448496</v>
+        <v>0.2274983988338871</v>
       </c>
       <c r="Z188" t="n">
         <v>0.7326900645964309</v>
@@ -27934,10 +27934,10 @@
         <v>621.437578506617</v>
       </c>
       <c r="R189" t="n">
-        <v>0.1485979247966286</v>
+        <v>0.04066183525288157</v>
       </c>
       <c r="S189" t="n">
-        <v>2.02438793481256</v>
+        <v>0.5539466907490559</v>
       </c>
       <c r="T189" t="n">
         <v>0.02734208455741512</v>
@@ -27955,7 +27955,7 @@
         <v>0.6562598079159541</v>
       </c>
       <c r="Y189" t="n">
-        <v>0.7813098572657871</v>
+        <v>0.2137949957314252</v>
       </c>
       <c r="Z189" t="n">
         <v>0.9384613064831884</v>
@@ -28086,10 +28086,10 @@
         <v>1094.87293335189</v>
       </c>
       <c r="R190" t="n">
-        <v>0.212944462265363</v>
+        <v>0.04733656658500772</v>
       </c>
       <c r="S190" t="n">
-        <v>3.53391898510144</v>
+        <v>0.785573804383863</v>
       </c>
       <c r="T190" t="n">
         <v>0.02710045481785136</v>
@@ -28107,7 +28107,7 @@
         <v>0.9349271910687588</v>
       </c>
       <c r="Y190" t="n">
-        <v>1.113545636863182</v>
+        <v>0.2475360318087629</v>
       </c>
       <c r="Z190" t="n">
         <v>0.2621023438966263</v>
@@ -28233,10 +28233,10 @@
         <v>658.5484268094187</v>
       </c>
       <c r="R191" t="n">
-        <v>0.1611476435393284</v>
+        <v>0.06491964735182411</v>
       </c>
       <c r="S191" t="n">
-        <v>2.255461822390964</v>
+        <v>0.9086312583242271</v>
       </c>
       <c r="T191" t="n">
         <v>0.05720109445360286</v>
@@ -28254,7 +28254,7 @@
         <v>0.6803421746847327</v>
       </c>
       <c r="Y191" t="n">
-        <v>0.8470966016583122</v>
+        <v>0.3412598002971422</v>
       </c>
       <c r="Z191" t="n">
         <v>0.9333216318146712</v>
@@ -28380,10 +28380,10 @@
         <v>1027.490821699198</v>
       </c>
       <c r="R192" t="n">
-        <v>0.2031056525943477</v>
+        <v>0.05399639978830349</v>
       </c>
       <c r="S192" t="n">
-        <v>3.353489731989109</v>
+        <v>0.891537827438555</v>
       </c>
       <c r="T192" t="n">
         <v>0.03910708948450144</v>
@@ -28401,7 +28401,7 @@
         <v>0.8959857834794291</v>
       </c>
       <c r="Y192" t="n">
-        <v>1.063389993388245</v>
+        <v>0.2827062195484707</v>
       </c>
       <c r="Z192" t="n">
         <v>0.3633959567642358</v>
@@ -28526,10 +28526,10 @@
         <v>628.8426338325594</v>
       </c>
       <c r="R193" t="n">
-        <v>0.1633332020290351</v>
+        <v>0.04850562396920253</v>
       </c>
       <c r="S193" t="n">
-        <v>2.054392406816435</v>
+        <v>0.610099993952905</v>
       </c>
       <c r="T193" t="n">
         <v>0.03688303582721236</v>
@@ -28547,7 +28547,7 @@
         <v>0.6742478761346536</v>
       </c>
       <c r="Y193" t="n">
-        <v>0.8587475570843821</v>
+        <v>0.2550252218835558</v>
       </c>
       <c r="Z193" t="n">
         <v>0.6835518434954735</v>
@@ -28678,10 +28678,10 @@
         <v>605.631417133817</v>
       </c>
       <c r="R194" t="n">
-        <v>0.1481688651350129</v>
+        <v>0.05093101759058534</v>
       </c>
       <c r="S194" t="n">
-        <v>2.021632983998191</v>
+        <v>0.6949086434312481</v>
       </c>
       <c r="T194" t="n">
         <v>0.04139926755438243</v>
@@ -28699,7 +28699,7 @@
         <v>0.6462720376887114</v>
       </c>
       <c r="Y194" t="n">
-        <v>0.7791265190117627</v>
+        <v>0.2678140674757902</v>
       </c>
       <c r="Z194" t="n">
         <v>1.032927277863392</v>
@@ -28825,10 +28825,10 @@
         <v>744.5358801773235</v>
       </c>
       <c r="R195" t="n">
-        <v>0.1685316230256024</v>
+        <v>0.05383301553367609</v>
       </c>
       <c r="S195" t="n">
-        <v>2.463830847913751</v>
+        <v>0.7870062717424967</v>
       </c>
       <c r="T195" t="n">
         <v>0.04306915474644372</v>
@@ -28846,7 +28846,7 @@
         <v>0.7358778452607979</v>
       </c>
       <c r="Y195" t="n">
-        <v>0.8853506373939978</v>
+        <v>0.2828020863974038</v>
       </c>
       <c r="Z195" t="n">
         <v>0.7056120595457342</v>
@@ -28972,10 +28972,10 @@
         <v>678.2725324286299</v>
       </c>
       <c r="R196" t="n">
-        <v>0.1592873721981907</v>
+        <v>0.05468116469208952</v>
       </c>
       <c r="S196" t="n">
-        <v>2.264307464715817</v>
+        <v>0.7773056186625927</v>
       </c>
       <c r="T196" t="n">
         <v>0.04503992034909069</v>
@@ -28993,7 +28993,7 @@
         <v>0.6948159819367651</v>
       </c>
       <c r="Y196" t="n">
-        <v>0.8372060640330033</v>
+        <v>0.2874013302928021</v>
       </c>
       <c r="Z196" t="n">
         <v>0.852135602410285</v>
@@ -29119,10 +29119,10 @@
         <v>1179.993382103823</v>
       </c>
       <c r="R197" t="n">
-        <v>0.2170170831649125</v>
+        <v>0.04496164713025769</v>
       </c>
       <c r="S197" t="n">
-        <v>3.807781791853982</v>
+        <v>0.7888970710396106</v>
       </c>
       <c r="T197" t="n">
         <v>0.02115964216315785</v>
@@ -29140,7 +29140,7 @@
         <v>0.9784596673605107</v>
       </c>
       <c r="Y197" t="n">
-        <v>1.132733478741218</v>
+        <v>0.2346799718300989</v>
       </c>
       <c r="Z197" t="n">
         <v>0.2569575467863762</v>
@@ -29271,10 +29271,10 @@
         <v>713.0052843667512</v>
       </c>
       <c r="R198" t="n">
-        <v>0.1776793880882276</v>
+        <v>0.06135125794607131</v>
       </c>
       <c r="S198" t="n">
-        <v>2.372396268117921</v>
+        <v>0.8191692742847931</v>
       </c>
       <c r="T198" t="n">
         <v>0.05174008289818734</v>
@@ -29292,7 +29292,7 @@
         <v>0.7294096597057825</v>
       </c>
       <c r="Y198" t="n">
-        <v>0.933638524877081</v>
+        <v>0.3223778435103608</v>
       </c>
       <c r="Z198" t="n">
         <v>0.5629407848900215</v>
@@ -29423,10 +29423,10 @@
         <v>677.8520729986424</v>
       </c>
       <c r="R199" t="n">
-        <v>0.1704772486666705</v>
+        <v>0.0684212353038935</v>
       </c>
       <c r="S199" t="n">
-        <v>2.314630147901231</v>
+        <v>0.9289794106232449</v>
       </c>
       <c r="T199" t="n">
         <v>0.06063151773054709</v>
@@ -29444,7 +29444,7 @@
         <v>0.7022392216560782</v>
       </c>
       <c r="Y199" t="n">
-        <v>0.8960220785872234</v>
+        <v>0.3596194680286748</v>
       </c>
       <c r="Z199" t="n">
         <v>0.7192814421699477</v>
@@ -29570,10 +29570,10 @@
         <v>666.5557018971555</v>
       </c>
       <c r="R200" t="n">
-        <v>0.1604263474966915</v>
+        <v>0.05626415467149278</v>
       </c>
       <c r="S200" t="n">
-        <v>2.229323778951709</v>
+        <v>0.7818604603858016</v>
       </c>
       <c r="T200" t="n">
         <v>0.04692047504856837</v>
@@ -29591,7 +29591,7 @@
         <v>0.6921859746797767</v>
       </c>
       <c r="Y200" t="n">
-        <v>0.8432599815335386</v>
+        <v>0.2957451239751104</v>
       </c>
       <c r="Z200" t="n">
         <v>0.8164373299486781</v>
@@ -29717,10 +29717,10 @@
         <v>737.1421633166062</v>
       </c>
       <c r="R201" t="n">
-        <v>0.164424193959139</v>
+        <v>0.04209127273960705</v>
       </c>
       <c r="S201" t="n">
-        <v>2.39044524222719</v>
+        <v>0.611934778191371</v>
       </c>
       <c r="T201" t="n">
         <v>0.02708417744019075</v>
@@ -29738,7 +29738,7 @@
         <v>0.7360334668062234</v>
       </c>
       <c r="Y201" t="n">
-        <v>0.8638248109888583</v>
+        <v>0.22113221201259</v>
       </c>
       <c r="Z201" t="n">
         <v>0.7085733054776833</v>
@@ -29864,10 +29864,10 @@
         <v>800.1177842455157</v>
       </c>
       <c r="R202" t="n">
-        <v>0.1772863248328644</v>
+        <v>0.06207292453165326</v>
       </c>
       <c r="S202" t="n">
-        <v>2.680287990504837</v>
+        <v>0.9384441485520708</v>
       </c>
       <c r="T202" t="n">
         <v>0.05244498527467804</v>
@@ -29885,7 +29885,7 @@
         <v>0.7733041434314625</v>
       </c>
       <c r="Y202" t="n">
-        <v>0.930887205954007</v>
+        <v>0.3259297711605172</v>
       </c>
       <c r="Z202" t="n">
         <v>0.6261340694999447</v>
@@ -30011,10 +30011,10 @@
         <v>639.2415645592341</v>
       </c>
       <c r="R203" t="n">
-        <v>0.1533754442415963</v>
+        <v>0.05333031650609453</v>
       </c>
       <c r="S203" t="n">
-        <v>2.13716822600518</v>
+        <v>0.7431167256480157</v>
       </c>
       <c r="T203" t="n">
         <v>0.04389123071416211</v>
@@ -30032,7 +30032,7 @@
         <v>0.6731666992270625</v>
       </c>
       <c r="Y203" t="n">
-        <v>0.8063411793772254</v>
+        <v>0.2803736316508903</v>
       </c>
       <c r="Z203" t="n">
         <v>0.9814411944786255</v>
@@ -30158,10 +30158,10 @@
         <v>629.1192635044721</v>
       </c>
       <c r="R204" t="n">
-        <v>0.1576304410115395</v>
+        <v>0.06509955015194789</v>
       </c>
       <c r="S204" t="n">
-        <v>2.164160750371749</v>
+        <v>0.8937733752542706</v>
       </c>
       <c r="T204" t="n">
         <v>0.05765280267204263</v>
@@ -30179,7 +30179,7 @@
         <v>0.6679256467534116</v>
       </c>
       <c r="Y204" t="n">
-        <v>0.8287630743056552</v>
+        <v>0.3422695703547129</v>
       </c>
       <c r="Z204" t="n">
         <v>0.9234073075493245</v>
@@ -30305,10 +30305,10 @@
         <v>655.3794889199245</v>
       </c>
       <c r="R205" t="n">
-        <v>0.1600137738684471</v>
+        <v>0.04042671807352245</v>
       </c>
       <c r="S205" t="n">
-        <v>2.11638193716389</v>
+        <v>0.5346938194205734</v>
       </c>
       <c r="T205" t="n">
         <v>0.02532916420177057</v>
@@ -30326,7 +30326,7 @@
         <v>0.6925524272217999</v>
       </c>
       <c r="Y205" t="n">
-        <v>0.8411537709795188</v>
+        <v>0.2125134951433997</v>
       </c>
       <c r="Z205" t="n">
         <v>0.6118462593664977</v>
@@ -30444,10 +30444,10 @@
         <v>1106.307049209217</v>
       </c>
       <c r="R206" t="n">
-        <v>0.2087289639072872</v>
+        <v>0.05174971124127428</v>
       </c>
       <c r="S206" t="n">
-        <v>3.600223838926472</v>
+        <v>0.8925955486999492</v>
       </c>
       <c r="T206" t="n">
         <v>0.03480804282746226</v>
@@ -30465,7 +30465,7 @@
         <v>0.9438956010181826</v>
       </c>
       <c r="Y206" t="n">
-        <v>1.091253179115826</v>
+        <v>0.2705519916989104</v>
       </c>
       <c r="Z206" t="n">
         <v>0.3259406846182062</v>
@@ -30591,10 +30591,10 @@
         <v>1340.203192284972</v>
       </c>
       <c r="R207" t="n">
-        <v>0.2282689269515027</v>
+        <v>0.04821261420365084</v>
       </c>
       <c r="S207" t="n">
-        <v>4.357345709087989</v>
+        <v>0.9203137300804213</v>
       </c>
       <c r="T207" t="n">
         <v>0.0244805127417793</v>
@@ -30612,7 +30612,7 @@
         <v>1.058023221985795</v>
       </c>
       <c r="Y207" t="n">
-        <v>1.185803019430296</v>
+        <v>0.250453113618322</v>
       </c>
       <c r="Z207" t="n">
         <v>0.225461244575194</v>
@@ -30743,10 +30743,10 @@
         <v>726.7651000624813</v>
       </c>
       <c r="R208" t="n">
-        <v>0.1672270159236471</v>
+        <v>0.06220305917876572</v>
       </c>
       <c r="S208" t="n">
-        <v>2.456110182563966</v>
+        <v>0.9135938125293757</v>
       </c>
       <c r="T208" t="n">
         <v>0.05345785941736524</v>
@@ -30764,7 +30764,7 @@
         <v>0.729753114933281</v>
       </c>
       <c r="Y208" t="n">
-        <v>0.8786221561444429</v>
+        <v>0.3268191187444324</v>
       </c>
       <c r="Z208" t="n">
         <v>0.7644346525167046</v>
@@ -30890,10 +30890,10 @@
         <v>745.8300201736494</v>
       </c>
       <c r="R209" t="n">
-        <v>0.1639538087611142</v>
+        <v>0.04461382753292495</v>
       </c>
       <c r="S209" t="n">
-        <v>2.431580215497691</v>
+        <v>0.6616625815917959</v>
       </c>
       <c r="T209" t="n">
         <v>0.03092590394973025</v>
@@ -30911,7 +30911,7 @@
         <v>0.7438044186196989</v>
       </c>
       <c r="Y209" t="n">
-        <v>0.8612927697942826</v>
+        <v>0.2343682490654706</v>
       </c>
       <c r="Z209" t="n">
         <v>0.7285294428011313</v>
@@ -31037,10 +31037,10 @@
         <v>1291.950448062617</v>
       </c>
       <c r="R210" t="n">
-        <v>0.2235771040570881</v>
+        <v>0.05089654423697819</v>
       </c>
       <c r="S210" t="n">
-        <v>4.209158841399357</v>
+        <v>0.9582002597057004</v>
       </c>
       <c r="T210" t="n">
         <v>0.03046917473595043</v>
@@ -31058,7 +31058,7 @@
         <v>1.038945460039606</v>
       </c>
       <c r="Y210" t="n">
-        <v>1.16333218309581</v>
+        <v>0.2648284947107902</v>
       </c>
       <c r="Z210" t="n">
         <v>0.2602761675258102</v>
@@ -31184,10 +31184,10 @@
         <v>767.6711090213208</v>
       </c>
       <c r="R211" t="n">
-        <v>0.1684533957354912</v>
+        <v>0.05278695335534615</v>
       </c>
       <c r="S211" t="n">
-        <v>2.537077826793224</v>
+        <v>0.7950246910552513</v>
       </c>
       <c r="T211" t="n">
         <v>0.04161511405550304</v>
@@ -31205,7 +31205,7 @@
         <v>0.7577367548202441</v>
       </c>
       <c r="Y211" t="n">
-        <v>0.8847671056685884</v>
+        <v>0.2772527067997381</v>
       </c>
       <c r="Z211" t="n">
         <v>0.7042087832039807</v>
@@ -31331,10 +31331,10 @@
         <v>744.8250719255465</v>
       </c>
       <c r="R212" t="n">
-        <v>0.1615333726494542</v>
+        <v>0.03816410416149966</v>
       </c>
       <c r="S212" t="n">
-        <v>2.405178033970014</v>
+        <v>0.5682507800699519</v>
       </c>
       <c r="T212" t="n">
         <v>0.02067100788030379</v>
@@ -31352,7 +31352,7 @@
         <v>0.7447515781791074</v>
       </c>
       <c r="Y212" t="n">
-        <v>0.8485845747431682</v>
+        <v>0.2004877974696926</v>
       </c>
       <c r="Z212" t="n">
         <v>0.7387211964130875</v>
@@ -31483,10 +31483,10 @@
         <v>690.60144114517</v>
       </c>
       <c r="R213" t="n">
-        <v>0.1604992283295075</v>
+        <v>0.05834624225463588</v>
       </c>
       <c r="S213" t="n">
-        <v>2.3253382342296</v>
+        <v>0.845329596599586</v>
       </c>
       <c r="T213" t="n">
         <v>0.04936275850062292</v>
@@ -31504,7 +31504,7 @@
         <v>0.7107619293209102</v>
       </c>
       <c r="Y213" t="n">
-        <v>0.8435022634536409</v>
+        <v>0.3066381559465211</v>
       </c>
       <c r="Z213" t="n">
         <v>0.8635237882170249</v>
@@ -31630,10 +31630,10 @@
         <v>675.2712614239051</v>
       </c>
       <c r="R214" t="n">
-        <v>0.157109364037603</v>
+        <v>0.04988674975428024</v>
       </c>
       <c r="S214" t="n">
-        <v>2.231984564173596</v>
+        <v>0.7087194075949188</v>
       </c>
       <c r="T214" t="n">
         <v>0.03908125477812949</v>
@@ -31651,7 +31651,7 @@
         <v>0.7039156494342792</v>
       </c>
       <c r="Y214" t="n">
-        <v>0.8257756910283927</v>
+        <v>0.2622075743470101</v>
       </c>
       <c r="Z214" t="n">
         <v>0.832077942315791</v>
@@ -31777,10 +31777,10 @@
         <v>1087.947267189475</v>
       </c>
       <c r="R215" t="n">
-        <v>0.2073696496041002</v>
+        <v>0.05102442343395371</v>
       </c>
       <c r="S215" t="n">
-        <v>3.535431913928987</v>
+        <v>0.8699121368176299</v>
       </c>
       <c r="T215" t="n">
         <v>0.03386439345897636</v>
@@ -31798,7 +31798,7 @@
         <v>0.9452109205760016</v>
       </c>
       <c r="Y215" t="n">
-        <v>1.084539556286997</v>
+        <v>0.2668568214129144</v>
       </c>
       <c r="Z215" t="n">
         <v>0.3205519206769895</v>
@@ -31924,10 +31924,10 @@
         <v>681.8745293413598</v>
       </c>
       <c r="R216" t="n">
-        <v>0.1580749189091522</v>
+        <v>0.05139967182074592</v>
       </c>
       <c r="S216" t="n">
-        <v>2.260385818593999</v>
+        <v>0.7349874987490687</v>
       </c>
       <c r="T216" t="n">
         <v>0.04093287271074433</v>
@@ -31945,7 +31945,7 @@
         <v>0.7085939224964793</v>
       </c>
       <c r="Y216" t="n">
-        <v>0.830812624539868</v>
+        <v>0.2701471969150531</v>
       </c>
       <c r="Z216" t="n">
         <v>0.8266285092338317</v>
@@ -32071,10 +32071,10 @@
         <v>1370.193852557634</v>
       </c>
       <c r="R217" t="n">
-        <v>0.2293010759456052</v>
+        <v>0.04795388552224727</v>
       </c>
       <c r="S217" t="n">
-        <v>4.459655322881299</v>
+        <v>0.9326506643730789</v>
       </c>
       <c r="T217" t="n">
         <v>0.02340752312698286</v>
@@ -32092,7 +32092,7 @@
         <v>1.080796253222887</v>
       </c>
       <c r="Y217" t="n">
-        <v>1.189832635298902</v>
+        <v>0.2488304851970796</v>
       </c>
       <c r="Z217" t="n">
         <v>0.2331787444177646</v>
@@ -32223,10 +32223,10 @@
         <v>948.0447993486778</v>
       </c>
       <c r="R218" t="n">
-        <v>0.1905543486455362</v>
+        <v>0.03793950579038099</v>
       </c>
       <c r="S218" t="n">
-        <v>3.037440407535785</v>
+        <v>0.6047565366456444</v>
       </c>
       <c r="T218" t="n">
         <v>0.01171917050421338</v>
@@ -32244,7 +32244,7 @@
         <v>0.8731019981734591</v>
       </c>
       <c r="Y218" t="n">
-        <v>0.9988703329862386</v>
+        <v>0.1988757908257735</v>
       </c>
       <c r="Z218" t="n">
         <v>0.4194914960754469</v>
@@ -32367,10 +32367,10 @@
         <v>972.2802237650268</v>
       </c>
       <c r="R219" t="n">
-        <v>0.189289237991081</v>
+        <v>0.05583306335840352</v>
       </c>
       <c r="S219" t="n">
-        <v>3.205547829633208</v>
+        <v>0.9455136328391623</v>
       </c>
       <c r="T219" t="n">
         <v>0.04308601584876703</v>
@@ -32388,7 +32388,7 @@
         <v>0.87791897152482</v>
       </c>
       <c r="Y219" t="n">
-        <v>0.9919011562526658</v>
+        <v>0.2925727880257949</v>
       </c>
       <c r="Z219" t="n">
         <v>0.4623010070833148</v>
@@ -32514,10 +32514,10 @@
         <v>770.5624511920655</v>
       </c>
       <c r="R220" t="n">
-        <v>0.1718074304807057</v>
+        <v>0.05883852751893592</v>
       </c>
       <c r="S220" t="n">
-        <v>2.572557788531594</v>
+        <v>0.8810184274979177</v>
       </c>
       <c r="T220" t="n">
         <v>0.04892885569089134</v>
@@ -32535,7 +32535,7 @@
         <v>0.7660815813213432</v>
       </c>
       <c r="Y220" t="n">
-        <v>0.9023607683920948</v>
+        <v>0.3090295847769456</v>
       </c>
       <c r="Z220" t="n">
         <v>0.6713280931386338</v>
@@ -32661,10 +32661,10 @@
         <v>624.9726923339898</v>
       </c>
       <c r="R221" t="n">
-        <v>0.1484262682296528</v>
+        <v>0.05795428366332606</v>
       </c>
       <c r="S221" t="n">
-        <v>2.131834499174534</v>
+        <v>0.8323926941103464</v>
       </c>
       <c r="T221" t="n">
         <v>0.04982663429381672</v>
@@ -32682,7 +32682,7 @@
         <v>0.6716431457770439</v>
       </c>
       <c r="Y221" t="n">
-        <v>0.7803906435149676</v>
+        <v>0.3047100844204643</v>
       </c>
       <c r="Z221" t="n">
         <v>1.052223595027923</v>
@@ -32808,10 +32808,10 @@
         <v>962.9624243450199</v>
       </c>
       <c r="R222" t="n">
-        <v>0.1964571622092245</v>
+        <v>0.05971333111681735</v>
       </c>
       <c r="S222" t="n">
-        <v>3.175250782287798</v>
+        <v>0.9651203306080428</v>
       </c>
       <c r="T222" t="n">
         <v>0.0474730866579349</v>
@@ -32829,7 +32829,7 @@
         <v>0.8854392673662566</v>
       </c>
       <c r="Y222" t="n">
-        <v>1.029599243613655</v>
+        <v>0.3129476159594047</v>
       </c>
       <c r="Z222" t="n">
         <v>0.4205445103373238</v>
@@ -32949,10 +32949,10 @@
         <v>1586.855673537546</v>
       </c>
       <c r="R223" t="n">
-        <v>0.2492780941088863</v>
+        <v>0.05540803065113183</v>
       </c>
       <c r="S223" t="n">
-        <v>5.244377097447645</v>
+        <v>1.165688497419855</v>
       </c>
       <c r="T223" t="n">
         <v>0.03237402402328885</v>
@@ -32970,7 +32970,7 @@
         <v>1.187111093213598</v>
       </c>
       <c r="Y223" t="n">
-        <v>1.279300238848508</v>
+        <v>0.284355137981583</v>
       </c>
       <c r="Z223" t="n">
         <v>0.1607430578859499</v>
@@ -33096,10 +33096,10 @@
         <v>711.4270805998441</v>
       </c>
       <c r="R224" t="n">
-        <v>0.1586738356569893</v>
+        <v>0.0485934178715254</v>
       </c>
       <c r="S224" t="n">
-        <v>2.345120679338927</v>
+        <v>0.7181866415369055</v>
       </c>
       <c r="T224" t="n">
         <v>0.03708393275579205</v>
@@ -33117,7 +33117,7 @@
         <v>0.7317455113260067</v>
       </c>
       <c r="Y224" t="n">
-        <v>0.833781413679228</v>
+        <v>0.2553432232898899</v>
       </c>
       <c r="Z224" t="n">
         <v>0.8087012339381878</v>
@@ -33243,10 +33243,10 @@
         <v>984.9070394545998</v>
       </c>
       <c r="R225" t="n">
-        <v>0.1906502161448905</v>
+        <v>0.05580475890535477</v>
       </c>
       <c r="S225" t="n">
-        <v>3.244788759381116</v>
+        <v>0.9497741889705235</v>
       </c>
       <c r="T225" t="n">
         <v>0.04281888912929385</v>
@@ -33264,7 +33264,7 @@
         <v>0.8948944463263441</v>
       </c>
       <c r="Y225" t="n">
-        <v>0.998847464805349</v>
+        <v>0.2923702006942687</v>
       </c>
       <c r="Z225" t="n">
         <v>0.4226107007899493</v>
@@ -33390,10 +33390,10 @@
         <v>951.035897625103</v>
       </c>
       <c r="R226" t="n">
-        <v>0.1875307764475933</v>
+        <v>0.05699760593112299</v>
       </c>
       <c r="S226" t="n">
-        <v>3.142739307454914</v>
+        <v>0.9551958349653833</v>
       </c>
       <c r="T226" t="n">
         <v>0.04477265535399654</v>
@@ -33411,7 +33411,7 @@
         <v>0.8774776619038849</v>
       </c>
       <c r="Y226" t="n">
-        <v>0.9829808181442965</v>
+        <v>0.2987645781229873</v>
       </c>
       <c r="Z226" t="n">
         <v>0.4738500191087539</v>
@@ -33537,10 +33537,10 @@
         <v>796.6952557435292</v>
       </c>
       <c r="R227" t="n">
-        <v>0.1742859252074364</v>
+        <v>0.05938175128979391</v>
       </c>
       <c r="S227" t="n">
-        <v>2.658783582356146</v>
+        <v>0.9058862626626115</v>
       </c>
       <c r="T227" t="n">
         <v>0.04929497002735306</v>
@@ -33558,7 +33558,7 @@
         <v>0.7916892078966967</v>
       </c>
       <c r="Y227" t="n">
-        <v>0.915162191044924</v>
+        <v>0.3118090778344378</v>
       </c>
       <c r="Z227" t="n">
         <v>0.6409421272864871</v>
@@ -33684,10 +33684,10 @@
         <v>939.3540787418856</v>
       </c>
       <c r="R228" t="n">
-        <v>0.1815810853127332</v>
+        <v>0.04560789551655016</v>
       </c>
       <c r="S228" t="n">
-        <v>3.056425106503727</v>
+        <v>0.7676852281805784</v>
       </c>
       <c r="T228" t="n">
         <v>0.02933558575417928</v>
@@ -33705,7 +33705,7 @@
         <v>0.8707813357533756</v>
       </c>
       <c r="Y228" t="n">
-        <v>0.9519446805577036</v>
+        <v>0.2391008592862889</v>
       </c>
       <c r="Z228" t="n">
         <v>0.5200938286879409</v>
@@ -33831,10 +33831,10 @@
         <v>886.3814530477657</v>
       </c>
       <c r="R229" t="n">
-        <v>0.1798037459174039</v>
+        <v>0.04582180657926431</v>
       </c>
       <c r="S229" t="n">
-        <v>2.880073322364342</v>
+        <v>0.7339678160659727</v>
       </c>
       <c r="T229" t="n">
         <v>0.03012442763108422</v>
@@ -33852,7 +33852,7 @@
         <v>0.8451206789259191</v>
       </c>
       <c r="Y229" t="n">
-        <v>0.9432505177672634</v>
+        <v>0.2403812143089444</v>
       </c>
       <c r="Z229" t="n">
         <v>0.5109985161810369</v>
@@ -33978,10 +33978,10 @@
         <v>779.093542820114</v>
       </c>
       <c r="R230" t="n">
-        <v>0.1684509999627047</v>
+        <v>0.0600206131982173</v>
       </c>
       <c r="S230" t="n">
-        <v>2.620227203122888</v>
+        <v>0.933610625552267</v>
       </c>
       <c r="T230" t="n">
         <v>0.05055058403737278</v>
@@ -33999,7 +33999,7 @@
         <v>0.7776091268611651</v>
       </c>
       <c r="Y230" t="n">
-        <v>0.8846655716390319</v>
+        <v>0.3152143359011354</v>
       </c>
       <c r="Z230" t="n">
         <v>0.7299905426345262</v>
@@ -34125,10 +34125,10 @@
         <v>785.7308120243068</v>
       </c>
       <c r="R231" t="n">
-        <v>0.1749140702418733</v>
+        <v>0.06414921381509445</v>
       </c>
       <c r="S231" t="n">
-        <v>2.64920738833917</v>
+        <v>0.9715889119731532</v>
       </c>
       <c r="T231" t="n">
         <v>0.05503094247239907</v>
@@ -34146,7 +34146,7 @@
         <v>0.7877789284343752</v>
       </c>
       <c r="Y231" t="n">
-        <v>0.9185532257173425</v>
+        <v>0.3368766571814666</v>
       </c>
       <c r="Z231" t="n">
         <v>0.6482746826574618</v>
@@ -34272,10 +34272,10 @@
         <v>816.8790944553372</v>
       </c>
       <c r="R232" t="n">
-        <v>0.1716442336981003</v>
+        <v>0.0407443078754581</v>
       </c>
       <c r="S232" t="n">
-        <v>2.638378988827979</v>
+        <v>0.6262891767283222</v>
       </c>
       <c r="T232" t="n">
         <v>0.02316092524737541</v>
@@ -34293,7 +34293,7 @@
         <v>0.8082051319580108</v>
       </c>
       <c r="Y232" t="n">
-        <v>0.9011167828167082</v>
+        <v>0.2139039502801114</v>
       </c>
       <c r="Z232" t="n">
         <v>0.5953509816737408</v>
@@ -34424,10 +34424,10 @@
         <v>720.7862659486707</v>
       </c>
       <c r="R233" t="n">
-        <v>0.1525235014535767</v>
+        <v>0.04152127176360124</v>
       </c>
       <c r="S233" t="n">
-        <v>2.35614944339346</v>
+        <v>0.6414114573980855</v>
       </c>
       <c r="T233" t="n">
         <v>0.02756780343398805</v>
@@ -34445,7 +34445,7 @@
         <v>0.7407261599323092</v>
       </c>
       <c r="Y233" t="n">
-        <v>0.8014061325552707</v>
+        <v>0.2181657351537526</v>
       </c>
       <c r="Z233" t="n">
         <v>0.8906056203022326</v>
@@ -34576,10 +34576,10 @@
         <v>825.3872499014032</v>
       </c>
       <c r="R234" t="n">
-        <v>0.1836425342803479</v>
+        <v>0.07592915714145231</v>
       </c>
       <c r="S234" t="n">
-        <v>2.84489150755921</v>
+        <v>1.176253721254392</v>
       </c>
       <c r="T234" t="n">
         <v>0.06807961188627118</v>
@@ -34597,7 +34597,7 @@
         <v>0.815318117015248</v>
       </c>
       <c r="Y234" t="n">
-        <v>0.9640254174227223</v>
+        <v>0.3985876022387104</v>
       </c>
       <c r="Z234" t="n">
         <v>0.5924990513966264</v>
@@ -34723,10 +34723,10 @@
         <v>1378.715912002045</v>
       </c>
       <c r="R235" t="n">
-        <v>0.2193569468681104</v>
+        <v>0.05809642016110993</v>
       </c>
       <c r="S235" t="n">
-        <v>4.571024266326703</v>
+        <v>1.210630208592459</v>
       </c>
       <c r="T235" t="n">
         <v>0.04150863139783494</v>
@@ -34744,7 +34744,7 @@
         <v>1.100566115230418</v>
       </c>
       <c r="Y235" t="n">
-        <v>1.137853778833642</v>
+        <v>0.3013591872099316</v>
       </c>
       <c r="Z235" t="n">
         <v>0.2663815632047701</v>
@@ -34867,10 +34867,10 @@
         <v>836.6014104124247</v>
       </c>
       <c r="R236" t="n">
-        <v>0.1819467109892253</v>
+        <v>0.08831071858485212</v>
       </c>
       <c r="S236" t="n">
-        <v>3.01522986990359</v>
+        <v>1.463489584735966</v>
       </c>
       <c r="T236" t="n">
         <v>0.08198542283704525</v>
@@ -34888,7 +34888,7 @@
         <v>0.8169637954472923</v>
       </c>
       <c r="Y236" t="n">
-        <v>0.9550143535212315</v>
+        <v>0.4635313458527007</v>
       </c>
       <c r="Z236" t="n">
         <v>0.7314573521600621</v>
@@ -35019,10 +35019,10 @@
         <v>855.0362577847289</v>
       </c>
       <c r="R237" t="n">
-        <v>0.2067136046552045</v>
+        <v>0.1233462217562002</v>
       </c>
       <c r="S237" t="n">
-        <v>3.351413092057768</v>
+        <v>1.999791659281977</v>
       </c>
       <c r="T237" t="n">
         <v>0.1186747163599051</v>
@@ -35040,7 +35040,7 @@
         <v>0.8335209099840005</v>
       </c>
       <c r="Y237" t="n">
-        <v>1.084801479897565</v>
+        <v>0.6473021653513616</v>
       </c>
       <c r="Z237" t="n">
         <v>0.6222981753795759</v>
@@ -35166,10 +35166,10 @@
         <v>972.0810371125101</v>
       </c>
       <c r="R238" t="n">
-        <v>0.285639081071438</v>
+        <v>0.2231321159080535</v>
       </c>
       <c r="S238" t="n">
-        <v>4.90657572607883</v>
+        <v>3.832860053730713</v>
       </c>
       <c r="T238" t="n">
         <v>0.2202886609928356</v>
@@ -35187,7 +35187,7 @@
         <v>0.9127148784427735</v>
       </c>
       <c r="Y238" t="n">
-        <v>1.49679165134629</v>
+        <v>1.169245773322168</v>
       </c>
       <c r="Z238" t="n">
         <v>0.4735425182447809</v>
@@ -35307,10 +35307,10 @@
         <v>1519.803373121171</v>
       </c>
       <c r="R239" t="n">
-        <v>0.2633884971122732</v>
+        <v>0.1417751834329036</v>
       </c>
       <c r="S239" t="n">
-        <v>5.812211323577743</v>
+        <v>3.128562316067205</v>
       </c>
       <c r="T239" t="n">
         <v>0.1352274147323163</v>
@@ -35328,7 +35328,7 @@
         <v>1.184758325503238</v>
       </c>
       <c r="Y239" t="n">
-        <v>1.357199161728065</v>
+        <v>0.7305450398122691</v>
       </c>
       <c r="Z239" t="n">
         <v>0.2071639806020718</v>
@@ -35451,10 +35451,10 @@
         <v>942.2558822683638</v>
       </c>
       <c r="R240" t="n">
-        <v>0.2552238861082693</v>
+        <v>0.1869764357998634</v>
       </c>
       <c r="S240" t="n">
-        <v>4.362412611177165</v>
+        <v>3.195893511237676</v>
       </c>
       <c r="T240" t="n">
         <v>0.1836861907000023</v>
@@ -35472,7 +35472,7 @@
         <v>0.898493054617561</v>
       </c>
       <c r="Y240" t="n">
-        <v>1.337967497597941</v>
+        <v>0.9801919316078453</v>
       </c>
       <c r="Z240" t="n">
         <v>0.5432197344943213</v>
@@ -35598,10 +35598,10 @@
         <v>1099.547429287789</v>
       </c>
       <c r="R241" t="n">
-        <v>0.242527824909629</v>
+        <v>0.1521912633079797</v>
       </c>
       <c r="S241" t="n">
-        <v>4.466526433513775</v>
+        <v>2.802838399133138</v>
       </c>
       <c r="T241" t="n">
         <v>0.147570325814163</v>
@@ -35619,7 +35619,7 @@
         <v>0.9884347448153088</v>
       </c>
       <c r="Y241" t="n">
-        <v>1.268128206422032</v>
+        <v>0.7957768715559406</v>
       </c>
       <c r="Z241" t="n">
         <v>0.3988710738074556</v>
@@ -35750,10 +35750,10 @@
         <v>1075.230485536771</v>
       </c>
       <c r="R242" t="n">
-        <v>0.3753986402366964</v>
+        <v>0.3269057472831667</v>
       </c>
       <c r="S242" t="n">
-        <v>6.918604325668497</v>
+        <v>6.024879354419458</v>
       </c>
       <c r="T242" t="n">
         <v>0.3248362798694801</v>
@@ -35771,7 +35771,7 @@
         <v>0.9831031826595126</v>
       </c>
       <c r="Y242" t="n">
-        <v>1.963802407822477</v>
+        <v>1.710124184895578</v>
       </c>
       <c r="Z242" t="n">
         <v>0.4640608572031384</v>
@@ -35891,10 +35891,10 @@
         <v>1149.081249275396</v>
       </c>
       <c r="R243" t="n">
-        <v>0.2272749506112312</v>
+        <v>0.1244682539094922</v>
       </c>
       <c r="S243" t="n">
-        <v>4.354966823307243</v>
+        <v>2.385019179953718</v>
       </c>
       <c r="T243" t="n">
         <v>0.1186256032620037</v>
@@ -35912,7 +35912,7 @@
         <v>1.027347738803532</v>
       </c>
       <c r="Y243" t="n">
-        <v>1.187130979652257</v>
+        <v>0.6501381687766145</v>
       </c>
       <c r="Z243" t="n">
         <v>0.4291855539202961</v>
@@ -36043,10 +36043,10 @@
         <v>1187.663372872443</v>
       </c>
       <c r="R244" t="n">
-        <v>0.3371454826456701</v>
+        <v>0.2741913122723228</v>
       </c>
       <c r="S244" t="n">
-        <v>6.472778657125311</v>
+        <v>5.264136004784359</v>
       </c>
       <c r="T244" t="n">
         <v>0.2714677059784683</v>
@@ -36064,7 +36064,7 @@
         <v>1.054849010404501</v>
       </c>
       <c r="Y244" t="n">
-        <v>1.759420524179603</v>
+        <v>1.43088917750878</v>
       </c>
       <c r="Z244" t="n">
         <v>0.2899854730639344</v>
@@ -36195,10 +36195,10 @@
         <v>1361.947633989656</v>
       </c>
       <c r="R245" t="n">
-        <v>0.5165388461246515</v>
+        <v>0.4736973465190729</v>
       </c>
       <c r="S245" t="n">
-        <v>10.92613575775099</v>
+        <v>10.01992697158115</v>
       </c>
       <c r="T245" t="n">
         <v>0.4719491682313636</v>
@@ -36216,7 +36216,7 @@
         <v>1.172043752289484</v>
       </c>
       <c r="Y245" t="n">
-        <v>2.681142939382296</v>
+        <v>2.458770149723167</v>
       </c>
       <c r="Z245" t="n">
         <v>0.3259848018476597</v>

--- a/results/GAIA_TESS_confirmed_matches_unique_stars.xlsx
+++ b/results/GAIA_TESS_confirmed_matches_unique_stars.xlsx
@@ -762,28 +762,28 @@
         <v>116.5804818665035</v>
       </c>
       <c r="R2" t="n">
-        <v>0.09418005128738294</v>
+        <v>0.1650832656148075</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4959271266903745</v>
+        <v>0.8692846145432415</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0916058933957714</v>
+        <v>0.1586660616342143</v>
       </c>
       <c r="U2" t="n">
-        <v>0.4823722951800493</v>
+        <v>0.8354933234154573</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4824818735674795</v>
+        <v>0.835683118749898</v>
       </c>
       <c r="W2" t="n">
-        <v>0.543851167276774</v>
+        <v>0.4350809338214192</v>
       </c>
       <c r="X2" t="n">
         <v>0.1757749513099214</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.4960397842691133</v>
+        <v>0.8694820860962955</v>
       </c>
       <c r="Z2" t="n">
         <v>2.123992763702066</v>
@@ -904,28 +904,28 @@
         <v>143.5781541528725</v>
       </c>
       <c r="R3" t="n">
-        <v>0.07827118767165567</v>
+        <v>0.1388592359708757</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4644199760795594</v>
+        <v>0.8239175227358072</v>
       </c>
       <c r="T3" t="n">
-        <v>0.07499675172412429</v>
+        <v>0.1298981843888121</v>
       </c>
       <c r="U3" t="n">
-        <v>0.4449911989054362</v>
+        <v>0.7707473654252037</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3949840361264111</v>
+        <v>0.6841324187495649</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5937558960154107</v>
+        <v>0.4750047168123285</v>
       </c>
       <c r="X3" t="n">
         <v>0.1988137208558769</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.4122294487190917</v>
+        <v>0.7313274270725978</v>
       </c>
       <c r="Z3" t="n">
         <v>2.18165867208891</v>
@@ -1051,28 +1051,28 @@
         <v>123.5853141391516</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1795799618924434</v>
+        <v>0.3122495879239159</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9621770088035774</v>
+        <v>1.673011684280936</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1782164488129691</v>
+        <v>0.3086799440885606</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9548714000794878</v>
+        <v>1.653885779632101</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9386424423932033</v>
+        <v>1.625776400365571</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5654037684781568</v>
+        <v>0.4523230147825254</v>
       </c>
       <c r="X4" t="n">
         <v>0.1834047639562364</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9458238852716659</v>
+        <v>1.644577241872676</v>
       </c>
       <c r="Z4" t="n">
         <v>2.803773182186938</v>
@@ -1174,28 +1174,28 @@
         <v>148.9581530630982</v>
       </c>
       <c r="R5" t="n">
-        <v>0.06942355626115669</v>
+        <v>0.1241131673044349</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4213779617830188</v>
+        <v>0.7533257626912907</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06567875372171045</v>
+        <v>0.113758938423806</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3986482523539064</v>
+        <v>0.6904790274255049</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3459057164366635</v>
+        <v>0.599126275496814</v>
       </c>
       <c r="W5" t="n">
-        <v>0.6015728820639213</v>
+        <v>0.4812583056511371</v>
       </c>
       <c r="X5" t="n">
         <v>0.2035489670655923</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3656282070735832</v>
+        <v>0.653658171371069</v>
       </c>
       <c r="Z5" t="n">
         <v>1.894695104861966</v>
@@ -1307,28 +1307,28 @@
         <v>119.3912679145112</v>
       </c>
       <c r="R6" t="n">
-        <v>0.108872133589579</v>
+        <v>0.1902826500928217</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5830175406622642</v>
+        <v>1.018976289249776</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1066481321356858</v>
+        <v>0.1847199833913268</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5711078644638889</v>
+        <v>0.9891878378536156</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5617056226902586</v>
+        <v>0.9729026773966413</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5451009226473581</v>
+        <v>0.4360807381178865</v>
       </c>
       <c r="X6" t="n">
         <v>0.1802926127660725</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5734192279499715</v>
+        <v>1.002200716666623</v>
       </c>
       <c r="Z6" t="n">
         <v>3.103394082664003</v>
@@ -1449,28 +1449,28 @@
         <v>148.1853644484523</v>
       </c>
       <c r="R7" t="n">
-        <v>0.08436242532277932</v>
+        <v>0.149200847589686</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5132932895816518</v>
+        <v>0.907795070787298</v>
       </c>
       <c r="T7" t="n">
-        <v>0.08132460400993197</v>
+        <v>0.1408583460506219</v>
       </c>
       <c r="U7" t="n">
-        <v>0.4948100218369579</v>
+        <v>0.857036097915877</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4283072322188608</v>
+        <v>0.7418498874522685</v>
       </c>
       <c r="W7" t="n">
-        <v>0.5953074123650446</v>
+        <v>0.4762459298920356</v>
       </c>
       <c r="X7" t="n">
         <v>0.204236757441923</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.4443063367250716</v>
+        <v>0.7857868212680394</v>
       </c>
       <c r="Z7" t="n">
         <v>2.261071033418257</v>
@@ -1590,28 +1590,28 @@
         <v>174.3896400009764</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1024226807493867</v>
+        <v>0.1807403756958467</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6748679366398093</v>
+        <v>1.190906970222905</v>
       </c>
       <c r="T8" t="n">
-        <v>0.09980530887210907</v>
+        <v>0.1728678658315978</v>
       </c>
       <c r="U8" t="n">
-        <v>0.6576219482970561</v>
+        <v>1.139034626622935</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5256123633800959</v>
+        <v>0.9103873184606813</v>
       </c>
       <c r="W8" t="n">
-        <v>0.6456383963575907</v>
+        <v>0.5165107170860727</v>
       </c>
       <c r="X8" t="n">
         <v>0.2261996200304402</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.5393964299173115</v>
+        <v>0.9518469217848222</v>
       </c>
       <c r="Z8" t="n">
         <v>1.80249488869439</v>
@@ -1737,28 +1737,28 @@
         <v>194.8182740025262</v>
       </c>
       <c r="R9" t="n">
-        <v>0.06083266886595812</v>
+        <v>0.1137168370114314</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3881560410599676</v>
+        <v>0.7255949488831229</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0558434611736499</v>
+        <v>0.09672371202326155</v>
       </c>
       <c r="U9" t="n">
-        <v>0.3563213189941072</v>
+        <v>0.6171666283177509</v>
       </c>
       <c r="V9" t="n">
-        <v>0.294080661061465</v>
+        <v>0.5093626464818998</v>
       </c>
       <c r="W9" t="n">
-        <v>0.7439927173710593</v>
+        <v>0.5951941738968475</v>
       </c>
       <c r="X9" t="n">
         <v>0.2466583937148639</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.3203546323642909</v>
+        <v>0.5988511796958678</v>
       </c>
       <c r="Z9" t="n">
         <v>1.520978269957896</v>
@@ -1881,28 +1881,28 @@
         <v>146.9336075505121</v>
       </c>
       <c r="R10" t="n">
-        <v>0.09362410747498912</v>
+        <v>0.1654989312743054</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5314179454406578</v>
+        <v>0.9393852118046719</v>
       </c>
       <c r="T10" t="n">
-        <v>0.09081263582502884</v>
+        <v>0.1572920992181995</v>
       </c>
       <c r="U10" t="n">
-        <v>0.5154598067926</v>
+        <v>0.8928025746244198</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4782783525833285</v>
+        <v>0.828402406834666</v>
       </c>
       <c r="W10" t="n">
-        <v>0.6276752372423295</v>
+        <v>0.5021401897938635</v>
       </c>
       <c r="X10" t="n">
         <v>0.2105365797803334</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.4930853892568212</v>
+        <v>0.8716249174474523</v>
       </c>
       <c r="Z10" t="n">
         <v>2.803773182186938</v>
@@ -2020,28 +2020,28 @@
         <v>139.7918479069546</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1035569048376418</v>
+        <v>0.1815838204612814</v>
       </c>
       <c r="S11" t="n">
-        <v>0.6079861598678835</v>
+        <v>1.066084872558535</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1011393669587963</v>
+        <v>0.1751785222179882</v>
       </c>
       <c r="U11" t="n">
-        <v>0.5937927116029044</v>
+        <v>1.028479145660324</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5326725047875674</v>
+        <v>0.9226158420870428</v>
       </c>
       <c r="W11" t="n">
-        <v>0.5753847166690605</v>
+        <v>0.4603077733352485</v>
       </c>
       <c r="X11" t="n">
         <v>0.2039448537235887</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.545404994579283</v>
+        <v>0.9563507403938161</v>
       </c>
       <c r="Z11" t="n">
         <v>2.826590984171109</v>
@@ -2161,28 +2161,28 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R12" t="n">
-        <v>0.08594444658549791</v>
+        <v>0.1517175274615421</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5313062162629087</v>
+        <v>0.9379136018540329</v>
       </c>
       <c r="T12" t="n">
-        <v>0.08297734075292265</v>
+        <v>0.1437209700610176</v>
       </c>
       <c r="U12" t="n">
-        <v>0.5129636492235257</v>
+        <v>0.8884791028910858</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4370096835610998</v>
+        <v>0.7569229753274223</v>
       </c>
       <c r="W12" t="n">
-        <v>0.5866674822726222</v>
+        <v>0.4693339858180979</v>
       </c>
       <c r="X12" t="n">
         <v>0.2145593731022121</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.4526362867906126</v>
+        <v>0.7990377621773287</v>
       </c>
       <c r="Z12" t="n">
         <v>2.559518810463633</v>
@@ -2300,28 +2300,28 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1343339581780173</v>
+        <v>0.2345116231697294</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8304488523779201</v>
+        <v>1.44974443522691</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1324552886800389</v>
+        <v>0.2294192897250301</v>
       </c>
       <c r="U13" t="n">
-        <v>0.8188349689656104</v>
+        <v>1.418263769262522</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6975909720271325</v>
+        <v>1.208263006452353</v>
       </c>
       <c r="W13" t="n">
-        <v>0.5866674822726222</v>
+        <v>0.4693339858180979</v>
       </c>
       <c r="X13" t="n">
         <v>0.2145593731022121</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.7074852004439249</v>
+        <v>1.235082364689948</v>
       </c>
       <c r="Z13" t="n">
         <v>2.559518810463633</v>
@@ -2423,28 +2423,28 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2339207173853072</v>
+        <v>0.406221085750791</v>
       </c>
       <c r="S14" t="n">
-        <v>1.446091471842279</v>
+        <v>2.511247632757248</v>
       </c>
       <c r="T14" t="n">
-        <v>0.2328469308399745</v>
+        <v>0.4033027146013125</v>
       </c>
       <c r="U14" t="n">
-        <v>1.439453352811433</v>
+        <v>2.493206342194771</v>
       </c>
       <c r="V14" t="n">
-        <v>1.226315071575326</v>
+        <v>2.124040010055929</v>
       </c>
       <c r="W14" t="n">
-        <v>0.5866674822726222</v>
+        <v>0.4693339858180979</v>
       </c>
       <c r="X14" t="n">
         <v>0.2145593731022121</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.231970291592382</v>
+        <v>2.139409946486467</v>
       </c>
       <c r="Z14" t="n">
         <v>2.559518810463633</v>
@@ -2546,28 +2546,28 @@
         <v>160.8307028507757</v>
       </c>
       <c r="R15" t="n">
-        <v>0.08688193955446742</v>
+        <v>0.1537843423215899</v>
       </c>
       <c r="S15" t="n">
-        <v>0.5490316546568856</v>
+        <v>0.971806941213733</v>
       </c>
       <c r="T15" t="n">
-        <v>0.08387142815650195</v>
+        <v>0.1452695748704243</v>
       </c>
       <c r="U15" t="n">
-        <v>0.5300073780044037</v>
+        <v>0.9179997070899906</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4417100497122859</v>
+        <v>0.7650642483154538</v>
       </c>
       <c r="W15" t="n">
-        <v>0.6130185485299359</v>
+        <v>0.4904148388239487</v>
       </c>
       <c r="X15" t="n">
         <v>0.2236063817886191</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.4575649501054616</v>
+        <v>0.8099073902150395</v>
       </c>
       <c r="Z15" t="n">
         <v>2.022947799631273</v>
@@ -2685,28 +2685,28 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R16" t="n">
-        <v>0.06421972093459923</v>
+        <v>0.1150277449710924</v>
       </c>
       <c r="S16" t="n">
-        <v>0.3970045569527144</v>
+        <v>0.7110983707952384</v>
       </c>
       <c r="T16" t="n">
-        <v>0.06019106027025059</v>
+        <v>0.1042539745495145</v>
       </c>
       <c r="U16" t="n">
-        <v>0.3720994870008943</v>
+        <v>0.6444952169558639</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3170031235422883</v>
+        <v>0.549065516133277</v>
       </c>
       <c r="W16" t="n">
-        <v>0.5866674822726222</v>
+        <v>0.4693339858180979</v>
       </c>
       <c r="X16" t="n">
         <v>0.2145593731022121</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.3382205270662744</v>
+        <v>0.6058068139378573</v>
       </c>
       <c r="Z16" t="n">
         <v>2.559518810463633</v>
@@ -2829,28 +2829,28 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R17" t="n">
-        <v>0.09887682537394141</v>
+        <v>0.1737490841140406</v>
       </c>
       <c r="S17" t="n">
-        <v>0.6112538279393801</v>
+        <v>1.074112082017335</v>
       </c>
       <c r="T17" t="n">
-        <v>0.09630897037954482</v>
+        <v>0.1668120299220176</v>
       </c>
       <c r="U17" t="n">
-        <v>0.5953794186530577</v>
+        <v>1.031227402887917</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5072222402858552</v>
+        <v>0.8785346909040102</v>
       </c>
       <c r="W17" t="n">
-        <v>0.5866674822726222</v>
+        <v>0.4693339858180979</v>
       </c>
       <c r="X17" t="n">
         <v>0.2145593731022121</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.5207461431772903</v>
+        <v>0.9150694825687503</v>
       </c>
       <c r="Z17" t="n">
         <v>2.559518810463633</v>
@@ -2962,28 +2962,28 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R18" t="n">
-        <v>0.149207813453368</v>
+        <v>0.260091866902805</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9223986185530643</v>
+        <v>1.607880801785313</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1475186861894933</v>
+        <v>0.2555098595460116</v>
       </c>
       <c r="U18" t="n">
-        <v>0.9119564800437074</v>
+        <v>1.579554957727374</v>
       </c>
       <c r="V18" t="n">
-        <v>0.7769240829611543</v>
+        <v>1.345671985312576</v>
       </c>
       <c r="W18" t="n">
-        <v>0.5866674822726222</v>
+        <v>0.4693339858180979</v>
       </c>
       <c r="X18" t="n">
         <v>0.2145593731022121</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.7858200654592957</v>
+        <v>1.369803652667756</v>
       </c>
       <c r="Z18" t="n">
         <v>2.559518810463633</v>
@@ -3090,28 +3090,28 @@
         <v>192.4198323261162</v>
       </c>
       <c r="R19" t="n">
-        <v>0.08249938494647539</v>
+        <v>0.1470379364173939</v>
       </c>
       <c r="S19" t="n">
-        <v>0.5875221654235464</v>
+        <v>1.04713564664033</v>
       </c>
       <c r="T19" t="n">
-        <v>0.07919306793699592</v>
+        <v>0.1371664172741308</v>
       </c>
       <c r="U19" t="n">
-        <v>0.5639761168045612</v>
+        <v>0.9768352885609</v>
       </c>
       <c r="V19" t="n">
-        <v>0.4170455027583157</v>
+        <v>0.7223439998455092</v>
       </c>
       <c r="W19" t="n">
-        <v>0.6479653370979835</v>
+        <v>0.5183722696783869</v>
       </c>
       <c r="X19" t="n">
         <v>0.2505004184883252</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.434457186323773</v>
+        <v>0.7743292653660443</v>
       </c>
       <c r="Z19" t="n">
         <v>1.615091729727736</v>
@@ -3232,28 +3232,28 @@
         <v>159.4294446065069</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1197895135709042</v>
+        <v>0.2097670719941646</v>
       </c>
       <c r="S20" t="n">
-        <v>0.7573579347875248</v>
+        <v>1.326232586610272</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1176391127417782</v>
+        <v>0.2037569202260832</v>
       </c>
       <c r="U20" t="n">
-        <v>0.7437622277647377</v>
+        <v>1.288233967239141</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6195496696589325</v>
+        <v>1.073091505661785</v>
       </c>
       <c r="W20" t="n">
-        <v>0.6042791315347267</v>
+        <v>0.4834233052277814</v>
       </c>
       <c r="X20" t="n">
         <v>0.2257669438705284</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.6308748156266998</v>
+        <v>1.104744137645573</v>
       </c>
       <c r="Z20" t="n">
         <v>2.574200330803404</v>
@@ -3379,28 +3379,28 @@
         <v>223.5114462271911</v>
       </c>
       <c r="R21" t="n">
-        <v>0.09914875619533545</v>
+        <v>0.1764456192500063</v>
       </c>
       <c r="S21" t="n">
-        <v>0.7351537240616824</v>
+        <v>1.308283220723997</v>
       </c>
       <c r="T21" t="n">
-        <v>0.09620372073824321</v>
+        <v>0.1666297321958048</v>
       </c>
       <c r="U21" t="n">
-        <v>0.7133173050600196</v>
+        <v>1.235501814282062</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5065932765678395</v>
+        <v>0.8774452937882898</v>
       </c>
       <c r="W21" t="n">
-        <v>0.7184566104259202</v>
+        <v>0.5747652883407363</v>
       </c>
       <c r="X21" t="n">
         <v>0.2812972518583494</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.5221013582757826</v>
+        <v>0.9291341717968409</v>
       </c>
       <c r="Z21" t="n">
         <v>1.512440288547218</v>
@@ -3510,28 +3510,28 @@
         <v>210.4590335190624</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1035731977279309</v>
+        <v>0.183383669947158</v>
       </c>
       <c r="S22" t="n">
-        <v>0.7535688341071933</v>
+        <v>1.33424690352214</v>
       </c>
       <c r="T22" t="n">
-        <v>0.100842314911554</v>
+        <v>0.1746640129796721</v>
       </c>
       <c r="U22" t="n">
-        <v>0.7336997152119139</v>
+        <v>1.270805184245851</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5310344439391782</v>
+        <v>0.9197786374717432</v>
       </c>
       <c r="W22" t="n">
-        <v>0.6884586562886353</v>
+        <v>0.5507669250309084</v>
       </c>
       <c r="X22" t="n">
         <v>0.2721122834265374</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.5454152407220536</v>
+        <v>0.9656962484779016</v>
       </c>
       <c r="Z22" t="n">
         <v>1.491895444294793</v>
@@ -3649,28 +3649,28 @@
         <v>181.41725770758</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1893583578470147</v>
+        <v>0.3295922979981985</v>
       </c>
       <c r="S23" t="n">
-        <v>1.309689400971541</v>
+        <v>2.279611759618455</v>
       </c>
       <c r="T23" t="n">
-        <v>0.1879715944979403</v>
+        <v>0.3255763520501669</v>
       </c>
       <c r="U23" t="n">
-        <v>1.300097908519933</v>
+        <v>2.251835632370558</v>
       </c>
       <c r="V23" t="n">
-        <v>0.9899155289719785</v>
+        <v>1.714583991380887</v>
       </c>
       <c r="W23" t="n">
-        <v>0.6242816947374398</v>
+        <v>0.4994253557899519</v>
       </c>
       <c r="X23" t="n">
         <v>0.2479913943179192</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.9972186461154203</v>
+        <v>1.735733182928082</v>
       </c>
       <c r="Z23" t="n">
         <v>2.304468294889742</v>
@@ -3782,28 +3782,28 @@
         <v>243.1186016090445</v>
       </c>
       <c r="R24" t="n">
-        <v>0.118926682844201</v>
+        <v>0.2102580890266897</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9286405369065647</v>
+        <v>1.641803000075976</v>
       </c>
       <c r="T24" t="n">
-        <v>0.1164195608522771</v>
+        <v>0.2016445943910007</v>
       </c>
       <c r="U24" t="n">
-        <v>0.9090636424957411</v>
+        <v>1.574544416116254</v>
       </c>
       <c r="V24" t="n">
-        <v>0.6130193823105674</v>
+        <v>1.061780716186393</v>
       </c>
       <c r="W24" t="n">
-        <v>0.7394228741917723</v>
+        <v>0.591538299353418</v>
       </c>
       <c r="X24" t="n">
         <v>0.2987281500650054</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.6262208955581269</v>
+        <v>1.107135973691662</v>
       </c>
       <c r="Z24" t="n">
         <v>0.9846428398495232</v>
@@ -3918,28 +3918,28 @@
         <v>223.2732531490377</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1327181094272424</v>
+        <v>0.233204267691019</v>
       </c>
       <c r="S25" t="n">
-        <v>0.9965548691191901</v>
+        <v>1.751086189140337</v>
       </c>
       <c r="T25" t="n">
-        <v>0.1305567031758335</v>
+        <v>0.2261308431692326</v>
       </c>
       <c r="U25" t="n">
-        <v>0.9803252834712193</v>
+        <v>1.697973198916514</v>
       </c>
       <c r="V25" t="n">
-        <v>0.6874909032633151</v>
+        <v>1.190769174193482</v>
       </c>
       <c r="W25" t="n">
-        <v>0.7038690202669505</v>
+        <v>0.5630952162135604</v>
       </c>
       <c r="X25" t="n">
         <v>0.2871845217458356</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.6988725259602271</v>
+        <v>1.228016706456138</v>
       </c>
       <c r="Z25" t="n">
         <v>1.715168075731323</v>
@@ -4059,28 +4059,28 @@
         <v>236.2062132450272</v>
       </c>
       <c r="R26" t="n">
-        <v>0.04966226803465653</v>
+        <v>0.09517655145766499</v>
       </c>
       <c r="S26" t="n">
-        <v>0.3840778462287892</v>
+        <v>0.7360760259646952</v>
       </c>
       <c r="T26" t="n">
-        <v>0.04342301811504145</v>
+        <v>0.07521087359323554</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3358247606158521</v>
+        <v>0.5816655478263117</v>
       </c>
       <c r="V26" t="n">
-        <v>0.2286520868473962</v>
+        <v>0.3960370316763416</v>
       </c>
       <c r="W26" t="n">
-        <v>0.7221379453675071</v>
+        <v>0.5777103562940057</v>
       </c>
       <c r="X26" t="n">
         <v>0.2981269094853483</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.2615060333580433</v>
+        <v>0.5011700718747452</v>
       </c>
       <c r="Z26" t="n">
         <v>1.868830615026467</v>
@@ -4206,28 +4206,28 @@
         <v>216.2965707883208</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1051483538115446</v>
+        <v>0.1858955855620832</v>
       </c>
       <c r="S27" t="n">
-        <v>0.7902370857854374</v>
+        <v>1.39708878427376</v>
       </c>
       <c r="T27" t="n">
-        <v>0.1024693174642039</v>
+        <v>0.1774820640649059</v>
       </c>
       <c r="U27" t="n">
-        <v>0.7701029248680903</v>
+        <v>1.33385739292893</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5395954298382313</v>
+        <v>0.9346067000117837</v>
       </c>
       <c r="W27" t="n">
-        <v>0.6799731218308129</v>
+        <v>0.5439784974646503</v>
       </c>
       <c r="X27" t="n">
         <v>0.2828743267539057</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.5537030261916525</v>
+        <v>0.9789116476885212</v>
       </c>
       <c r="Z27" t="n">
         <v>1.59132900191973</v>
@@ -4340,28 +4340,28 @@
         <v>211.3009407922477</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1194996178898679</v>
+        <v>0.2103027433686818</v>
       </c>
       <c r="S28" t="n">
-        <v>0.8779920724718928</v>
+        <v>1.54514420010082</v>
       </c>
       <c r="T28" t="n">
-        <v>0.1171531502028852</v>
+        <v>0.2029152084181453</v>
       </c>
       <c r="U28" t="n">
-        <v>0.8607520171155569</v>
+        <v>1.49086622636154</v>
       </c>
       <c r="V28" t="n">
-        <v>0.6169259980420061</v>
+        <v>1.068547173118892</v>
       </c>
       <c r="W28" t="n">
-        <v>0.6794764265915281</v>
+        <v>0.5435811412732225</v>
       </c>
       <c r="X28" t="n">
         <v>0.2796120325720114</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.6292824469907387</v>
+        <v>1.107449775093634</v>
       </c>
       <c r="Z28" t="n">
         <v>2.032094901061378</v>
@@ -4474,28 +4474,28 @@
         <v>203.1306574639146</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1348606787880528</v>
+        <v>0.2363144602188748</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9769186864503394</v>
+        <v>1.711840798525595</v>
       </c>
       <c r="T29" t="n">
-        <v>0.1328220174039462</v>
+        <v>0.2300544825074325</v>
       </c>
       <c r="U29" t="n">
-        <v>0.9621508058540353</v>
+        <v>1.666494080282528</v>
       </c>
       <c r="V29" t="n">
-        <v>0.6994500493180023</v>
+        <v>1.211483022775337</v>
       </c>
       <c r="W29" t="n">
-        <v>0.6624574940687769</v>
+        <v>0.5299659952550214</v>
       </c>
       <c r="X29" t="n">
         <v>0.2729424054078003</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.7101857829977538</v>
+        <v>1.24444850398529</v>
       </c>
       <c r="Z29" t="n">
         <v>2.005730181042971</v>
@@ -4610,28 +4610,28 @@
         <v>244.5347925117613</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1526799834513422</v>
+        <v>0.2678411995585096</v>
       </c>
       <c r="S30" t="n">
-        <v>1.184448230690229</v>
+        <v>2.077836450801871</v>
       </c>
       <c r="T30" t="n">
-        <v>0.1507210696209442</v>
+        <v>0.2610565503546014</v>
       </c>
       <c r="U30" t="n">
-        <v>1.169251529930637</v>
+        <v>2.025203056667504</v>
       </c>
       <c r="V30" t="n">
-        <v>0.7936349508792647</v>
+        <v>1.374616057585317</v>
       </c>
       <c r="W30" t="n">
-        <v>0.7439275686680015</v>
+        <v>0.5951420549344013</v>
       </c>
       <c r="X30" t="n">
         <v>0.3073329685458401</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.803949782677331</v>
+        <v>1.41034122030622</v>
       </c>
       <c r="Z30" t="n">
         <v>1.067981697722314</v>
@@ -4746,28 +4746,28 @@
         <v>236.5612673579149</v>
       </c>
       <c r="R31" t="n">
-        <v>0.04025580181455788</v>
+        <v>0.08008363882486046</v>
       </c>
       <c r="S31" t="n">
-        <v>0.3178619760866765</v>
+        <v>0.6323447190629858</v>
       </c>
       <c r="T31" t="n">
-        <v>0.03236366419604936</v>
+        <v>0.05605551070665526</v>
       </c>
       <c r="U31" t="n">
-        <v>0.2555452330113985</v>
+        <v>0.4426173272077698</v>
       </c>
       <c r="V31" t="n">
-        <v>0.1704168359562062</v>
+        <v>0.2951706183412799</v>
       </c>
       <c r="W31" t="n">
-        <v>0.7062100041072963</v>
+        <v>0.5649680032858371</v>
       </c>
       <c r="X31" t="n">
         <v>0.3006488573105169</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.2119743404998774</v>
+        <v>0.4216951534819806</v>
       </c>
       <c r="Z31" t="n">
         <v>2.04967100115046</v>
@@ -4898,28 +4898,28 @@
         <v>245.5303446356583</v>
       </c>
       <c r="R32" t="n">
-        <v>0.09236954995359821</v>
+        <v>0.1645757751066301</v>
       </c>
       <c r="S32" t="n">
-        <v>0.7663653121791262</v>
+        <v>1.365440941631449</v>
       </c>
       <c r="T32" t="n">
-        <v>0.08923218482851709</v>
+        <v>0.1545546777933683</v>
       </c>
       <c r="U32" t="n">
-        <v>0.7403354375644884</v>
+        <v>1.28229859250543</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4698587676696316</v>
+        <v>0.8138192579855028</v>
       </c>
       <c r="W32" t="n">
-        <v>0.6970060068276115</v>
+        <v>0.5576048054620892</v>
       </c>
       <c r="X32" t="n">
         <v>0.3064149260123588</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.486378799250537</v>
+        <v>0.8665860981492315</v>
       </c>
       <c r="Z32" t="n">
         <v>2.455633413713854</v>
@@ -5045,28 +5045,28 @@
         <v>220.9488316052588</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1176055885210543</v>
+        <v>0.2071882613767058</v>
       </c>
       <c r="S33" t="n">
-        <v>0.8895167524026653</v>
+        <v>1.567080541948636</v>
       </c>
       <c r="T33" t="n">
-        <v>0.1151930164008232</v>
+        <v>0.1995201570833408</v>
       </c>
       <c r="U33" t="n">
-        <v>0.8712691219599932</v>
+        <v>1.509082386300633</v>
       </c>
       <c r="V33" t="n">
-        <v>0.6065912711914886</v>
+        <v>1.05064690113145</v>
       </c>
       <c r="W33" t="n">
-        <v>0.6875322346462042</v>
+        <v>0.5500257877169633</v>
       </c>
       <c r="X33" t="n">
         <v>0.2910348595471279</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.6192955586125241</v>
+        <v>1.091026129632215</v>
       </c>
       <c r="Z33" t="n">
         <v>2.023241853551796</v>
@@ -5173,28 +5173,28 @@
         <v>197.6108576999949</v>
       </c>
       <c r="R34" t="n">
-        <v>0.04369086509948313</v>
+        <v>0.08283607815813886</v>
       </c>
       <c r="S34" t="n">
-        <v>0.3183878703705095</v>
+        <v>0.6036502700178147</v>
       </c>
       <c r="T34" t="n">
-        <v>0.03707916719312158</v>
+        <v>0.06422300148082766</v>
       </c>
       <c r="U34" t="n">
-        <v>0.2702065306065478</v>
+        <v>0.4680114395474558</v>
       </c>
       <c r="V34" t="n">
-        <v>0.1952637408705858</v>
+        <v>0.3382067200638181</v>
       </c>
       <c r="W34" t="n">
-        <v>0.6382230139918799</v>
+        <v>0.5105784111935039</v>
       </c>
       <c r="X34" t="n">
         <v>0.2713711300321883</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.2300818062272929</v>
+        <v>0.436225614668254</v>
       </c>
       <c r="Z34" t="n">
         <v>2.692255921705275</v>
@@ -5317,28 +5317,28 @@
         <v>246.2817831412347</v>
       </c>
       <c r="R35" t="n">
-        <v>0.08972422836503061</v>
+        <v>0.1607719485773831</v>
       </c>
       <c r="S35" t="n">
-        <v>0.713445237153289</v>
+        <v>1.278383587917171</v>
       </c>
       <c r="T35" t="n">
-        <v>0.08639088293364906</v>
+        <v>0.1496333985518152</v>
       </c>
       <c r="U35" t="n">
-        <v>0.6869400281908823</v>
+        <v>1.189815030579405</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4548968794965652</v>
+        <v>0.787904507492588</v>
       </c>
       <c r="W35" t="n">
-        <v>0.7284028033607252</v>
+        <v>0.5827222426885802</v>
       </c>
       <c r="X35" t="n">
         <v>0.3116117503205977</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.4724488292339487</v>
+        <v>0.8465552756834716</v>
       </c>
       <c r="Z35" t="n">
         <v>1.734339392273204</v>
@@ -5454,28 +5454,28 @@
         <v>233.8618542705035</v>
       </c>
       <c r="R36" t="n">
-        <v>0.02533251488325888</v>
+        <v>0.05749566268718269</v>
       </c>
       <c r="S36" t="n">
-        <v>0.2047072298102656</v>
+        <v>0.4646115037941509</v>
       </c>
       <c r="T36" t="n">
-        <v>0.009040132638104891</v>
+        <v>0.01565796903635935</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07305159073198791</v>
+        <v>0.1265290667215308</v>
       </c>
       <c r="V36" t="n">
-        <v>0.04760277646490326</v>
+        <v>0.08245042741855645</v>
       </c>
       <c r="W36" t="n">
-        <v>0.6798781638134087</v>
+        <v>0.5439025310507271</v>
       </c>
       <c r="X36" t="n">
         <v>0.3009235992525693</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.1333938440458992</v>
+        <v>0.3027558652251359</v>
       </c>
       <c r="Z36" t="n">
         <v>2.216291768419251</v>
@@ -5606,28 +5606,28 @@
         <v>233.2035643020673</v>
       </c>
       <c r="R37" t="n">
-        <v>0.09949500387110793</v>
+        <v>0.1761937656697901</v>
       </c>
       <c r="S37" t="n">
-        <v>0.8070233188124741</v>
+        <v>1.429141886451972</v>
       </c>
       <c r="T37" t="n">
-        <v>0.09665232098183901</v>
+        <v>0.1674067306100006</v>
       </c>
       <c r="U37" t="n">
-        <v>0.7839657652633414</v>
+        <v>1.357868536830723</v>
       </c>
       <c r="V37" t="n">
-        <v>0.5089444904838759</v>
+        <v>0.8815177157503279</v>
       </c>
       <c r="W37" t="n">
-        <v>0.6745671812258415</v>
+        <v>0.5396537449806733</v>
       </c>
       <c r="X37" t="n">
         <v>0.3016979981793136</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.5239132752992769</v>
+        <v>0.927787821174996</v>
       </c>
       <c r="Z37" t="n">
         <v>2.289994311244139</v>
@@ -5742,28 +5742,28 @@
         <v>241.8957201783957</v>
       </c>
       <c r="R38" t="n">
-        <v>0.07065240058728958</v>
+        <v>0.1280157063920191</v>
       </c>
       <c r="S38" t="n">
-        <v>0.5849360083435907</v>
+        <v>1.059850701176371</v>
       </c>
       <c r="T38" t="n">
-        <v>0.06653844632620748</v>
+        <v>0.1152479696936861</v>
       </c>
       <c r="U38" t="n">
-        <v>0.5508763024598194</v>
+        <v>0.9541457445460879</v>
       </c>
       <c r="V38" t="n">
-        <v>0.3503661470389185</v>
+        <v>0.606851967923555</v>
       </c>
       <c r="W38" t="n">
-        <v>0.6854115934385347</v>
+        <v>0.5483292747508278</v>
       </c>
       <c r="X38" t="n">
         <v>0.3083829167232157</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.3720286652240171</v>
+        <v>0.6740820125126844</v>
       </c>
       <c r="Z38" t="n">
         <v>2.341201099767554</v>
@@ -5894,28 +5894,28 @@
         <v>221.3691085162</v>
       </c>
       <c r="R39" t="n">
-        <v>0.05556778869878048</v>
+        <v>0.102574617496916</v>
       </c>
       <c r="S39" t="n">
-        <v>0.4369855154896619</v>
+        <v>0.8066475768186987</v>
       </c>
       <c r="T39" t="n">
-        <v>0.05038807656028661</v>
+        <v>0.08727470869808682</v>
       </c>
       <c r="U39" t="n">
-        <v>0.3962522196013287</v>
+        <v>0.6863289769614412</v>
       </c>
       <c r="V39" t="n">
-        <v>0.2653367376694761</v>
+        <v>0.4595767107581074</v>
       </c>
       <c r="W39" t="n">
-        <v>0.6599307895849604</v>
+        <v>0.5279446316679683</v>
       </c>
       <c r="X39" t="n">
         <v>0.293826991436123</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.2926123952201388</v>
+        <v>0.5401439434141253</v>
       </c>
       <c r="Z39" t="n">
         <v>2.292449366349665</v>
@@ -6046,28 +6046,28 @@
         <v>240.5275916812512</v>
       </c>
       <c r="R40" t="n">
-        <v>0.100589915954833</v>
+        <v>0.1781649383070943</v>
       </c>
       <c r="S40" t="n">
-        <v>0.8322541322306639</v>
+        <v>1.474089174020989</v>
       </c>
       <c r="T40" t="n">
-        <v>0.0977544105804334</v>
+        <v>0.1693156057892593</v>
       </c>
       <c r="U40" t="n">
-        <v>0.8087939171344909</v>
+        <v>1.400872157329591</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5147391684996314</v>
+        <v>0.891554392487119</v>
       </c>
       <c r="W40" t="n">
-        <v>0.6814968191688708</v>
+        <v>0.5451974553350968</v>
       </c>
       <c r="X40" t="n">
         <v>0.3081267813116271</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.529669908402091</v>
+        <v>0.9381517586311166</v>
       </c>
       <c r="Z40" t="n">
         <v>2.286399926785486</v>
@@ -6182,28 +6182,28 @@
         <v>239.9191547480468</v>
       </c>
       <c r="R41" t="n">
-        <v>0.09510195735116488</v>
+        <v>0.1689009021149623</v>
       </c>
       <c r="S41" t="n">
-        <v>0.7830204577516093</v>
+        <v>1.390642899182112</v>
       </c>
       <c r="T41" t="n">
-        <v>0.09209382796657775</v>
+        <v>0.1595111891016202</v>
       </c>
       <c r="U41" t="n">
-        <v>0.758253072165653</v>
+        <v>1.313332845986101</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4849332799722899</v>
+        <v>0.8399290791930293</v>
       </c>
       <c r="W41" t="n">
-        <v>0.6825847911666292</v>
+        <v>0.5460678329333034</v>
       </c>
       <c r="X41" t="n">
         <v>0.3088865340670015</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.5007730173494599</v>
+        <v>0.8893719618497358</v>
       </c>
       <c r="Z41" t="n">
         <v>2.35945338299386</v>
@@ -6329,28 +6329,28 @@
         <v>250.6019727385533</v>
       </c>
       <c r="R42" t="n">
-        <v>0.09350133320545216</v>
+        <v>0.1664630968150402</v>
       </c>
       <c r="S42" t="n">
-        <v>0.7868420944287727</v>
+        <v>1.400837477421212</v>
       </c>
       <c r="T42" t="n">
-        <v>0.09038866959364622</v>
+        <v>0.1565577681647514</v>
       </c>
       <c r="U42" t="n">
-        <v>0.7606480855135843</v>
+        <v>1.317481130789524</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4759426467035008</v>
+        <v>0.8243568455792674</v>
       </c>
       <c r="W42" t="n">
-        <v>0.6968589471786573</v>
+        <v>0.5574871577429259</v>
       </c>
       <c r="X42" t="n">
         <v>0.3183834254537469</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.4923324150711584</v>
+        <v>0.8765134748944298</v>
       </c>
       <c r="Z42" t="n">
         <v>2.396579956797735</v>
@@ -6476,28 +6476,28 @@
         <v>284.7269284419845</v>
       </c>
       <c r="R43" t="n">
-        <v>0.05664704130749637</v>
+        <v>0.1074530308382086</v>
       </c>
       <c r="S43" t="n">
-        <v>0.494092265355663</v>
+        <v>0.9372371477971</v>
       </c>
       <c r="T43" t="n">
-        <v>0.0509378999093523</v>
+        <v>0.08822703067385627</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4442954438176685</v>
+        <v>0.7695422822635652</v>
       </c>
       <c r="V43" t="n">
-        <v>0.2681915100854203</v>
+        <v>0.4645213216265688</v>
       </c>
       <c r="W43" t="n">
-        <v>0.7627297814790457</v>
+        <v>0.6101838251832367</v>
       </c>
       <c r="X43" t="n">
         <v>0.3477246405209058</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.2982505281365027</v>
+        <v>0.565747521099969</v>
       </c>
       <c r="Z43" t="n">
         <v>1.522654873611859</v>
@@ -6618,28 +6618,28 @@
         <v>272.3753650437538</v>
       </c>
       <c r="R44" t="n">
-        <v>0.1049057868236785</v>
+        <v>0.1869102903606883</v>
       </c>
       <c r="S44" t="n">
-        <v>0.8755490982267587</v>
+        <v>1.559962907000137</v>
       </c>
       <c r="T44" t="n">
-        <v>0.1019461794085843</v>
+        <v>0.1765759623732001</v>
       </c>
       <c r="U44" t="n">
-        <v>0.8508480623559133</v>
+        <v>1.473712073521974</v>
       </c>
       <c r="V44" t="n">
-        <v>0.5367704139405748</v>
+        <v>0.9297136289448529</v>
       </c>
       <c r="W44" t="n">
-        <v>0.7623002622043877</v>
+        <v>0.6098402097635102</v>
       </c>
       <c r="X44" t="n">
         <v>0.3407088993809207</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.5523534373213209</v>
+        <v>0.9841262763223435</v>
       </c>
       <c r="Z44" t="n">
         <v>1.603979339453181</v>
@@ -6759,28 +6759,28 @@
         <v>261.5081023268528</v>
       </c>
       <c r="R45" t="n">
-        <v>0.06286447052329446</v>
+        <v>0.1160775177084421</v>
       </c>
       <c r="S45" t="n">
-        <v>0.5343872155196393</v>
+        <v>0.986731311920628</v>
       </c>
       <c r="T45" t="n">
-        <v>0.05801495270819769</v>
+        <v>0.100484845689304</v>
       </c>
       <c r="U45" t="n">
-        <v>0.4931632888683815</v>
+        <v>0.8541838727478038</v>
       </c>
       <c r="V45" t="n">
-        <v>0.3054704474124701</v>
+        <v>0.5290903351291951</v>
       </c>
       <c r="W45" t="n">
-        <v>0.7181758363400078</v>
+        <v>0.5745406690720062</v>
       </c>
       <c r="X45" t="n">
         <v>0.3308071233737307</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.3310049744190401</v>
+        <v>0.6111915913691052</v>
       </c>
       <c r="Z45" t="n">
         <v>2.006261918046037</v>
@@ -6906,28 +6906,28 @@
         <v>276.4550819193612</v>
       </c>
       <c r="R46" t="n">
-        <v>0.07185662593392921</v>
+        <v>0.1320740706700229</v>
       </c>
       <c r="S46" t="n">
-        <v>0.6044158467951978</v>
+        <v>1.110929719092443</v>
       </c>
       <c r="T46" t="n">
-        <v>0.06743485322915323</v>
+        <v>0.1168005919938436</v>
       </c>
       <c r="U46" t="n">
-        <v>0.5672224848893596</v>
+        <v>0.9824581630238408</v>
       </c>
       <c r="V46" t="n">
-        <v>0.3550565905082599</v>
+        <v>0.6149760543224838</v>
       </c>
       <c r="W46" t="n">
-        <v>0.7672562336573701</v>
+        <v>0.613804986925896</v>
       </c>
       <c r="X46" t="n">
         <v>0.3446231185346338</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.3783380164383384</v>
+        <v>0.695393657450304</v>
       </c>
       <c r="Z46" t="n">
         <v>1.712978134497722</v>
@@ -7053,28 +7053,28 @@
         <v>261.1434661768174</v>
       </c>
       <c r="R47" t="n">
-        <v>0.07413184219846626</v>
+        <v>0.1342880312173546</v>
       </c>
       <c r="S47" t="n">
-        <v>0.638733258076041</v>
+        <v>1.157049779910267</v>
       </c>
       <c r="T47" t="n">
-        <v>0.07010762510326199</v>
+        <v>0.121429968676841</v>
       </c>
       <c r="U47" t="n">
-        <v>0.6040598812895362</v>
+        <v>1.046262405207502</v>
       </c>
       <c r="V47" t="n">
-        <v>0.3691432225809445</v>
+        <v>0.6393748167799027</v>
       </c>
       <c r="W47" t="n">
-        <v>0.7074165772654201</v>
+        <v>0.5659332618123361</v>
       </c>
       <c r="X47" t="n">
         <v>0.3298735097333443</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.3903322510882004</v>
+        <v>0.7070773902925759</v>
       </c>
       <c r="Z47" t="n">
         <v>2.292339313053484</v>
@@ -7195,28 +7195,28 @@
         <v>226.7830462246382</v>
       </c>
       <c r="R48" t="n">
-        <v>0.1204340887842786</v>
+        <v>0.2120296860695741</v>
       </c>
       <c r="S48" t="n">
-        <v>0.9237736831091118</v>
+        <v>1.626345547229545</v>
       </c>
       <c r="T48" t="n">
-        <v>0.1180599806946554</v>
+        <v>0.204485884903744</v>
       </c>
       <c r="U48" t="n">
-        <v>0.9055634023141229</v>
+        <v>1.568481822282997</v>
       </c>
       <c r="V48" t="n">
-        <v>0.6216802999172586</v>
+        <v>1.076781865521349</v>
       </c>
       <c r="W48" t="n">
-        <v>0.6900542951491299</v>
+        <v>0.5520434361193041</v>
       </c>
       <c r="X48" t="n">
         <v>0.3063513533951608</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.6341818793729609</v>
+        <v>1.116506017123737</v>
       </c>
       <c r="Z48" t="n">
         <v>1.79128132766431</v>
@@ -7323,28 +7323,28 @@
         <v>247.8850510880222</v>
       </c>
       <c r="R49" t="n">
-        <v>0.03649327446282705</v>
+        <v>0.07478516252558641</v>
       </c>
       <c r="S49" t="n">
-        <v>0.2954087834812558</v>
+        <v>0.6053771334396186</v>
       </c>
       <c r="T49" t="n">
-        <v>0.02737494789486376</v>
+        <v>0.04741480060845472</v>
       </c>
       <c r="U49" t="n">
-        <v>0.2215969976528656</v>
+        <v>0.3838172587394845</v>
       </c>
       <c r="V49" t="n">
-        <v>0.1441440473915882</v>
+        <v>0.2496648136908469</v>
       </c>
       <c r="W49" t="n">
-        <v>0.7145491312972724</v>
+        <v>0.5716393050378178</v>
       </c>
       <c r="X49" t="n">
         <v>0.3226464862227462</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.1921570153794135</v>
+        <v>0.3937847134057313</v>
       </c>
       <c r="Z49" t="n">
         <v>1.717218532617633</v>
@@ -7472,28 +7472,28 @@
         <v>282.6991534676158</v>
       </c>
       <c r="R50" t="n">
-        <v>0.06374554730234033</v>
+        <v>0.1191436902942751</v>
       </c>
       <c r="S50" t="n">
-        <v>0.5426392584314086</v>
+        <v>1.014220545341419</v>
       </c>
       <c r="T50" t="n">
-        <v>0.05866844777783781</v>
+        <v>0.1016167323524165</v>
       </c>
       <c r="U50" t="n">
-        <v>0.4994200276372702</v>
+        <v>0.8650208621852049</v>
       </c>
       <c r="V50" t="n">
-        <v>0.3088949825613965</v>
+        <v>0.5350218039994411</v>
       </c>
       <c r="W50" t="n">
-        <v>0.7747328350107771</v>
+        <v>0.6197862680086217</v>
       </c>
       <c r="X50" t="n">
         <v>0.3502653555156119</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.3356263966090697</v>
+        <v>0.6273029120373784</v>
       </c>
       <c r="Z50" t="n">
         <v>1.684895029872989</v>
@@ -7619,28 +7619,28 @@
         <v>296.3069521563592</v>
       </c>
       <c r="R51" t="n">
-        <v>0.05397906665649423</v>
+        <v>0.1038028675601411</v>
       </c>
       <c r="S51" t="n">
-        <v>0.4784930261051164</v>
+        <v>0.9201520384433114</v>
       </c>
       <c r="T51" t="n">
-        <v>0.04782403089763312</v>
+        <v>0.08283365133744437</v>
       </c>
       <c r="U51" t="n">
-        <v>0.4239322145078242</v>
+        <v>0.7342721344927394</v>
       </c>
       <c r="V51" t="n">
-        <v>0.251789145097239</v>
+        <v>0.43611159210275</v>
       </c>
       <c r="W51" t="n">
-        <v>0.7793747947692121</v>
+        <v>0.6234998358153698</v>
       </c>
       <c r="X51" t="n">
         <v>0.3598173993901568</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.2841948449656555</v>
+        <v>0.5465125960953532</v>
       </c>
       <c r="Z51" t="n">
         <v>1.422152235494093</v>
@@ -7766,28 +7766,28 @@
         <v>264.2461340196743</v>
       </c>
       <c r="R52" t="n">
-        <v>0.09847180617506125</v>
+        <v>0.1750947847867694</v>
       </c>
       <c r="S52" t="n">
-        <v>0.8527980511516221</v>
+        <v>1.516378108953446</v>
       </c>
       <c r="T52" t="n">
-        <v>0.09546315865152941</v>
+        <v>0.1653470410354574</v>
       </c>
       <c r="U52" t="n">
-        <v>0.826742179483048</v>
+        <v>1.431959459624867</v>
       </c>
       <c r="V52" t="n">
-        <v>0.5026459122037034</v>
+        <v>0.8706082581536194</v>
       </c>
       <c r="W52" t="n">
-        <v>0.7109907884866837</v>
+        <v>0.5687926307893471</v>
       </c>
       <c r="X52" t="n">
         <v>0.3348516321525572</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.5184874619735511</v>
+        <v>0.9219334355206444</v>
       </c>
       <c r="Z52" t="n">
         <v>2.498153280108286</v>
@@ -7907,28 +7907,28 @@
         <v>279.504547968916</v>
       </c>
       <c r="R53" t="n">
-        <v>0.08478485193173241</v>
+        <v>0.1526104041482411</v>
       </c>
       <c r="S53" t="n">
-        <v>0.7511740140598011</v>
+        <v>1.35209258799705</v>
       </c>
       <c r="T53" t="n">
-        <v>0.08117558902076485</v>
+        <v>0.140600244518295</v>
       </c>
       <c r="U53" t="n">
-        <v>0.7191967864435794</v>
+        <v>1.245685374760543</v>
       </c>
       <c r="V53" t="n">
-        <v>0.4274007218448185</v>
+        <v>0.7402797654268389</v>
       </c>
       <c r="W53" t="n">
-        <v>0.7349238004437267</v>
+        <v>0.5879390403549815</v>
       </c>
       <c r="X53" t="n">
         <v>0.346989379372882</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.4464039910798673</v>
+        <v>0.8035149197045289</v>
       </c>
       <c r="Z53" t="n">
         <v>1.955642022129342</v>
@@ -8048,28 +8048,28 @@
         <v>286.2091809776647</v>
       </c>
       <c r="R54" t="n">
-        <v>0.0830069295621526</v>
+        <v>0.1497773473674981</v>
       </c>
       <c r="S54" t="n">
-        <v>0.7470142997035263</v>
+        <v>1.347909395581333</v>
       </c>
       <c r="T54" t="n">
-        <v>0.0792893133015671</v>
+        <v>0.137333119135561</v>
       </c>
       <c r="U54" t="n">
-        <v>0.713557906097396</v>
+        <v>1.235918547503151</v>
       </c>
       <c r="V54" t="n">
-        <v>0.4174620320121608</v>
+        <v>0.7230654496760075</v>
       </c>
       <c r="W54" t="n">
-        <v>0.7407971683555441</v>
+        <v>0.5926377346844353</v>
       </c>
       <c r="X54" t="n">
         <v>0.3518011363871398</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.4370354596755178</v>
+        <v>0.7885849073205589</v>
       </c>
       <c r="Z54" t="n">
         <v>1.9472850095372</v>
@@ -8189,28 +8189,28 @@
         <v>281.169361439991</v>
       </c>
       <c r="R55" t="n">
-        <v>0.05041381551582874</v>
+        <v>0.0972184707066673</v>
       </c>
       <c r="S55" t="n">
-        <v>0.4401477118966992</v>
+        <v>0.8487849411477434</v>
       </c>
       <c r="T55" t="n">
-        <v>0.04397405077952542</v>
+        <v>0.07616529016475185</v>
       </c>
       <c r="U55" t="n">
-        <v>0.3839240818295204</v>
+        <v>0.6649760159779606</v>
       </c>
       <c r="V55" t="n">
-        <v>0.231528485837279</v>
+        <v>0.4010191008696584</v>
       </c>
       <c r="W55" t="n">
-        <v>0.7498486652686539</v>
+        <v>0.5998789322149232</v>
       </c>
       <c r="X55" t="n">
         <v>0.3503361830308205</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.2654345952839625</v>
+        <v>0.5118665421792524</v>
       </c>
       <c r="Z55" t="n">
         <v>1.855505169143659</v>
@@ -8341,28 +8341,28 @@
         <v>281.9962024540009</v>
       </c>
       <c r="R56" t="n">
-        <v>0.07139787789428287</v>
+        <v>0.1305729802725806</v>
       </c>
       <c r="S56" t="n">
-        <v>0.6337054526928311</v>
+        <v>1.158925335226434</v>
       </c>
       <c r="T56" t="n">
-        <v>0.06704738717279303</v>
+        <v>0.1161294810980193</v>
       </c>
       <c r="U56" t="n">
-        <v>0.5950918443699087</v>
+        <v>1.030729309618553</v>
       </c>
       <c r="V56" t="n">
-        <v>0.3530115353238438</v>
+        <v>0.6114339148387928</v>
       </c>
       <c r="W56" t="n">
-        <v>0.7397353216202996</v>
+        <v>0.5917882572962397</v>
       </c>
       <c r="X56" t="n">
         <v>0.3499440493483648</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.3759173258962237</v>
+        <v>0.6874804549660053</v>
       </c>
       <c r="Z56" t="n">
         <v>1.927435373758564</v>
@@ -8483,28 +8483,28 @@
         <v>313.4189294926919</v>
       </c>
       <c r="R57" t="n">
-        <v>0.06070495133322661</v>
+        <v>0.1155775266869192</v>
       </c>
       <c r="S57" t="n">
-        <v>0.5425612424734453</v>
+        <v>1.032994592764623</v>
       </c>
       <c r="T57" t="n">
-        <v>0.05507052658976632</v>
+        <v>0.09538495005304808</v>
       </c>
       <c r="U57" t="n">
-        <v>0.4922025744851606</v>
+        <v>0.8525198666245029</v>
       </c>
       <c r="V57" t="n">
-        <v>0.2899278161535548</v>
+        <v>0.5021697081054455</v>
       </c>
       <c r="W57" t="n">
-        <v>0.8164527764350415</v>
+        <v>0.6531622211480332</v>
       </c>
       <c r="X57" t="n">
         <v>0.3760884677454025</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.3195911689905795</v>
+        <v>0.6084768384073277</v>
       </c>
       <c r="Z57" t="n">
         <v>1.53729142860205</v>
@@ -8635,28 +8635,28 @@
         <v>299.0196112052213</v>
       </c>
       <c r="R58" t="n">
-        <v>0.0455075676897923</v>
+        <v>0.09021416890958225</v>
       </c>
       <c r="S58" t="n">
-        <v>0.413744056638888</v>
+        <v>0.8202059153191971</v>
       </c>
       <c r="T58" t="n">
-        <v>0.03809347588398587</v>
+        <v>0.06597983566796327</v>
       </c>
       <c r="U58" t="n">
-        <v>0.3463368851341899</v>
+        <v>0.5998730815875629</v>
       </c>
       <c r="V58" t="n">
-        <v>0.2005572136799087</v>
+        <v>0.3473752839180497</v>
       </c>
       <c r="W58" t="n">
-        <v>0.7648187605850095</v>
+        <v>0.6118550084680077</v>
       </c>
       <c r="X58" t="n">
         <v>0.364881865814434</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.2395914461838708</v>
+        <v>0.474965907707063</v>
       </c>
       <c r="Z58" t="n">
         <v>1.504115270314607</v>
@@ -8782,28 +8782,28 @@
         <v>324.3222004990405</v>
       </c>
       <c r="R59" t="n">
-        <v>0.05431584290222789</v>
+        <v>0.1059722768614958</v>
       </c>
       <c r="S59" t="n">
-        <v>0.4952468747732075</v>
+        <v>0.9662455026745838</v>
       </c>
       <c r="T59" t="n">
-        <v>0.04784148112587717</v>
+        <v>0.08286387601936675</v>
       </c>
       <c r="U59" t="n">
-        <v>0.4362142378009608</v>
+        <v>0.7555452228561963</v>
       </c>
       <c r="V59" t="n">
-        <v>0.2518616008122755</v>
+        <v>0.4362370890824919</v>
       </c>
       <c r="W59" t="n">
-        <v>0.8270797768480287</v>
+        <v>0.661663821478423</v>
       </c>
       <c r="X59" t="n">
         <v>0.3860284161342277</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.2859458950869253</v>
+        <v>0.5578913249326921</v>
       </c>
       <c r="Z59" t="n">
         <v>1.487628722123143</v>
@@ -8929,28 +8929,28 @@
         <v>284.2965375967033</v>
       </c>
       <c r="R60" t="n">
-        <v>0.06473000358741215</v>
+        <v>0.1194379884610296</v>
       </c>
       <c r="S60" t="n">
-        <v>0.5852534088911822</v>
+        <v>1.07989318745406</v>
       </c>
       <c r="T60" t="n">
-        <v>0.05992897107768662</v>
+        <v>0.103800022751879</v>
       </c>
       <c r="U60" t="n">
-        <v>0.5418450899233045</v>
+        <v>0.9385032255788902</v>
       </c>
       <c r="V60" t="n">
-        <v>0.315530461906769</v>
+        <v>0.5465147913582</v>
       </c>
       <c r="W60" t="n">
-        <v>0.7311311188051645</v>
+        <v>0.5849048950441316</v>
       </c>
       <c r="X60" t="n">
         <v>0.3528832279566004</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.3408082529013677</v>
+        <v>0.6288498365752148</v>
       </c>
       <c r="Z60" t="n">
         <v>2.186029692156958</v>
@@ -9081,28 +9081,28 @@
         <v>326.6060612754891</v>
       </c>
       <c r="R61" t="n">
-        <v>0.0829566408048699</v>
+        <v>0.1511682000559562</v>
       </c>
       <c r="S61" t="n">
-        <v>0.7831171118289095</v>
+        <v>1.427039512203171</v>
       </c>
       <c r="T61" t="n">
-        <v>0.07895525160231284</v>
+        <v>0.1367545072995899</v>
       </c>
       <c r="U61" t="n">
-        <v>0.7453436879630542</v>
+        <v>1.290973136652773</v>
       </c>
       <c r="V61" t="n">
-        <v>0.415657412404786</v>
+        <v>0.7199397568276995</v>
       </c>
       <c r="W61" t="n">
-        <v>0.804408554578531</v>
+        <v>0.6435268436628248</v>
       </c>
       <c r="X61" t="n">
         <v>0.3853326457754347</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.4367225986743033</v>
+        <v>0.79582018419288</v>
       </c>
       <c r="Z61" t="n">
         <v>1.437246979151355</v>
@@ -9217,28 +9217,28 @@
         <v>277.3751454749433</v>
       </c>
       <c r="R62" t="n">
-        <v>0.04723102523065794</v>
+        <v>0.09113834156500951</v>
       </c>
       <c r="S62" t="n">
-        <v>0.4231331142458284</v>
+        <v>0.8164897989250212</v>
       </c>
       <c r="T62" t="n">
-        <v>0.04048975988998884</v>
+        <v>0.07013032131572511</v>
       </c>
       <c r="U62" t="n">
-        <v>0.3627394940856792</v>
+        <v>0.6282832336682267</v>
       </c>
       <c r="V62" t="n">
-        <v>0.2131853477881288</v>
+        <v>0.3692478537982805</v>
       </c>
       <c r="W62" t="n">
-        <v>0.7189201069669843</v>
+        <v>0.5751360855735874</v>
       </c>
       <c r="X62" t="n">
         <v>0.3499869310089186</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.2486792356276054</v>
+        <v>0.4798585888422067</v>
       </c>
       <c r="Z62" t="n">
         <v>2.146171637580412</v>
@@ -9369,28 +9369,28 @@
         <v>293.1570591856556</v>
       </c>
       <c r="R63" t="n">
-        <v>0.03313351195966528</v>
+        <v>0.07307164133426336</v>
       </c>
       <c r="S63" t="n">
-        <v>0.2883267645098784</v>
+        <v>0.6358670927785129</v>
       </c>
       <c r="T63" t="n">
-        <v>0.02163276563805056</v>
+        <v>0.03746904919333372</v>
       </c>
       <c r="U63" t="n">
-        <v>0.1882476367555757</v>
+        <v>0.3260544712654275</v>
       </c>
       <c r="V63" t="n">
-        <v>0.1138954800389839</v>
+        <v>0.1972727581799671</v>
       </c>
       <c r="W63" t="n">
-        <v>0.7815906485914057</v>
+        <v>0.6252725188731246</v>
       </c>
       <c r="X63" t="n">
         <v>0.3674932885853415</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.1744463612819672</v>
+        <v>0.3847187089367632</v>
       </c>
       <c r="Z63" t="n">
         <v>1.674830976344968</v>
@@ -9521,28 +9521,28 @@
         <v>305.6082139027802</v>
       </c>
       <c r="R64" t="n">
-        <v>0.05689007396635676</v>
+        <v>0.1076821808610888</v>
       </c>
       <c r="S64" t="n">
-        <v>0.5307393725247395</v>
+        <v>1.004589537642496</v>
       </c>
       <c r="T64" t="n">
-        <v>0.05115782585788043</v>
+        <v>0.08860795359060977</v>
       </c>
       <c r="U64" t="n">
-        <v>0.4772620336475216</v>
+        <v>0.8266420908011541</v>
       </c>
       <c r="V64" t="n">
-        <v>0.2693345380202906</v>
+        <v>0.4665011040842347</v>
       </c>
       <c r="W64" t="n">
-        <v>0.7598716807962413</v>
+        <v>0.6078973446369932</v>
       </c>
       <c r="X64" t="n">
         <v>0.373258717415179</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.2995135452439984</v>
+        <v>0.5669226545281562</v>
       </c>
       <c r="Z64" t="n">
         <v>1.846134514880247</v>
@@ -9668,28 +9668,28 @@
         <v>315.1317766644796</v>
       </c>
       <c r="R65" t="n">
-        <v>0.04438409927192122</v>
+        <v>0.08981119033382073</v>
       </c>
       <c r="S65" t="n">
-        <v>0.4065417784609112</v>
+        <v>0.8226369723154777</v>
       </c>
       <c r="T65" t="n">
-        <v>0.03642049993073456</v>
+        <v>0.06308215631709102</v>
       </c>
       <c r="U65" t="n">
-        <v>0.3335981817173735</v>
+        <v>0.5778090000470857</v>
       </c>
       <c r="V65" t="n">
-        <v>0.1917407804419631</v>
+        <v>0.332104773608389</v>
       </c>
       <c r="W65" t="n">
-        <v>0.7976343188116977</v>
+        <v>0.6381074550493583</v>
       </c>
       <c r="X65" t="n">
         <v>0.3838211691085254</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.2336662552627432</v>
+        <v>0.4728234856682035</v>
       </c>
       <c r="Z65" t="n">
         <v>1.480664521061823</v>
@@ -9820,28 +9820,28 @@
         <v>262.1156658290246</v>
       </c>
       <c r="R66" t="n">
-        <v>0.03750705097588571</v>
+        <v>0.07691139575014533</v>
       </c>
       <c r="S66" t="n">
-        <v>0.3119066969123636</v>
+        <v>0.639591190967552</v>
       </c>
       <c r="T66" t="n">
-        <v>0.02847189090625549</v>
+        <v>0.0493147616371928</v>
       </c>
       <c r="U66" t="n">
-        <v>0.2367707728642508</v>
+        <v>0.4100990083482328</v>
       </c>
       <c r="V66" t="n">
-        <v>0.1499149439884245</v>
+        <v>0.2596602998017937</v>
       </c>
       <c r="W66" t="n">
-        <v>0.73051299765231</v>
+        <v>0.584410398121848</v>
       </c>
       <c r="X66" t="n">
         <v>0.3450616069701712</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.1974883742261566</v>
+        <v>0.4049666958867605</v>
       </c>
       <c r="Z66" t="n">
         <v>1.75728268109685</v>
@@ -9969,28 +9969,28 @@
         <v>314.5938584943656</v>
       </c>
       <c r="R67" t="n">
-        <v>0.08762797922391002</v>
+        <v>0.1588140925255889</v>
       </c>
       <c r="S67" t="n">
-        <v>0.7968499408185733</v>
+        <v>1.444184852269655</v>
       </c>
       <c r="T67" t="n">
-        <v>0.08386019957914105</v>
+        <v>0.1452501264039385</v>
       </c>
       <c r="U67" t="n">
-        <v>0.7625874254263164</v>
+        <v>1.320840166051522</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4414943292190765</v>
+        <v>0.7646906094609812</v>
       </c>
       <c r="W67" t="n">
-        <v>0.8016782076904977</v>
+        <v>0.6413425661523982</v>
       </c>
       <c r="X67" t="n">
         <v>0.384912607267642</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.4613303581727486</v>
+        <v>0.8361000999520801</v>
       </c>
       <c r="Z67" t="n">
         <v>1.50723384675543</v>
@@ -10110,28 +10110,28 @@
         <v>345.1384666487818</v>
       </c>
       <c r="R68" t="n">
-        <v>0.05524486036369659</v>
+        <v>0.108229952437209</v>
       </c>
       <c r="S68" t="n">
-        <v>0.5187428701386037</v>
+        <v>1.01626677654047</v>
       </c>
       <c r="T68" t="n">
-        <v>0.04867496226121809</v>
+        <v>0.08430750769292744</v>
       </c>
       <c r="U68" t="n">
-        <v>0.4570522843400116</v>
+        <v>0.7916377781923174</v>
       </c>
       <c r="V68" t="n">
-        <v>0.2562338571883453</v>
+        <v>0.443810059269562</v>
       </c>
       <c r="W68" t="n">
-        <v>0.8513474111418432</v>
+        <v>0.6810779289134746</v>
       </c>
       <c r="X68" t="n">
         <v>0.4088978831051248</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.2908189961166139</v>
+        <v>0.5697421608150459</v>
       </c>
       <c r="Z68" t="n">
         <v>1.420325024935708</v>
@@ -10262,28 +10262,28 @@
         <v>377.3006396625723</v>
       </c>
       <c r="R69" t="n">
-        <v>0.07105237484530968</v>
+        <v>0.1348613589945913</v>
       </c>
       <c r="S69" t="n">
-        <v>0.680710456162821</v>
+        <v>1.292026303129349</v>
       </c>
       <c r="T69" t="n">
-        <v>0.06572196829250949</v>
+        <v>0.1138337882560572</v>
       </c>
       <c r="U69" t="n">
-        <v>0.6296430079038494</v>
+        <v>1.090573680319959</v>
       </c>
       <c r="V69" t="n">
-        <v>0.3459375930805789</v>
+        <v>0.5991814874636503</v>
       </c>
       <c r="W69" t="n">
-        <v>0.9117310338776373</v>
+        <v>0.7293848271021098</v>
       </c>
       <c r="X69" t="n">
         <v>0.4343854273766324</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.3739950000774233</v>
+        <v>0.7098633096702618</v>
       </c>
       <c r="Z69" t="n">
         <v>1.167403692374938</v>
@@ -10398,28 +10398,28 @@
         <v>282.551509518021</v>
       </c>
       <c r="R70" t="n">
-        <v>0.08215468200850487</v>
+        <v>0.1478201648816557</v>
       </c>
       <c r="S70" t="n">
-        <v>0.7478201151137533</v>
+        <v>1.345545865620782</v>
       </c>
       <c r="T70" t="n">
-        <v>0.07845861001004069</v>
+        <v>0.1358942988286226</v>
       </c>
       <c r="U70" t="n">
-        <v>0.7141762993288652</v>
+        <v>1.236989635999113</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4130922339198815</v>
+        <v>0.7154967373613623</v>
       </c>
       <c r="W70" t="n">
-        <v>0.718051008174899</v>
+        <v>0.5744408065399192</v>
       </c>
       <c r="X70" t="n">
         <v>0.360613945403604</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.4325524134767063</v>
+        <v>0.7782875852829133</v>
       </c>
       <c r="Z70" t="n">
         <v>2.079551231537069</v>
@@ -10537,28 +10537,28 @@
         <v>307.3911428472518</v>
       </c>
       <c r="R71" t="n">
-        <v>0.05748676439377236</v>
+        <v>0.1087909268369741</v>
       </c>
       <c r="S71" t="n">
-        <v>0.533810088809776</v>
+        <v>1.010209827061239</v>
       </c>
       <c r="T71" t="n">
-        <v>0.05176869247443817</v>
+        <v>0.08966600560713552</v>
       </c>
       <c r="U71" t="n">
-        <v>0.4807132671105688</v>
+        <v>0.8326198025079341</v>
       </c>
       <c r="V71" t="n">
-        <v>0.2725492902417505</v>
+        <v>0.4720692182655483</v>
       </c>
       <c r="W71" t="n">
-        <v>0.7654427718303157</v>
+        <v>0.6123542174642527</v>
       </c>
       <c r="X71" t="n">
         <v>0.3817078997460369</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.302653516728354</v>
+        <v>0.5727571718911039</v>
       </c>
       <c r="Z71" t="n">
         <v>1.785140068067854</v>
@@ -10684,28 +10684,28 @@
         <v>332.8525260660337</v>
       </c>
       <c r="R72" t="n">
-        <v>0.02939620410170934</v>
+        <v>0.06851404236594695</v>
       </c>
       <c r="S72" t="n">
-        <v>0.2858461079164208</v>
+        <v>0.6662245329419215</v>
       </c>
       <c r="T72" t="n">
-        <v>0.01481984162473158</v>
+        <v>0.02566871865415921</v>
       </c>
       <c r="U72" t="n">
-        <v>0.1441068388867583</v>
+        <v>0.2496003666700078</v>
       </c>
       <c r="V72" t="n">
-        <v>0.07801717720773045</v>
+        <v>0.1351297147868938</v>
       </c>
       <c r="W72" t="n">
-        <v>0.7915000758069919</v>
+        <v>0.6332000606455935</v>
       </c>
       <c r="X72" t="n">
         <v>0.3996198518129659</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.1547525893131269</v>
+        <v>0.3606834890571139</v>
       </c>
       <c r="Z72" t="n">
         <v>1.712118408202441</v>
@@ -10836,28 +10836,28 @@
         <v>349.3228015573515</v>
       </c>
       <c r="R73" t="n">
-        <v>0.04336512111403851</v>
+        <v>0.09007268531670463</v>
       </c>
       <c r="S73" t="n">
-        <v>0.4163772882447339</v>
+        <v>0.8648475893440907</v>
       </c>
       <c r="T73" t="n">
-        <v>0.03467364629449839</v>
+        <v>0.06005651706574354</v>
       </c>
       <c r="U73" t="n">
-        <v>0.3329246741798338</v>
+        <v>0.5766424507727865</v>
       </c>
       <c r="V73" t="n">
-        <v>0.1825260766827061</v>
+        <v>0.31614443852066</v>
       </c>
       <c r="W73" t="n">
-        <v>0.8409448619265402</v>
+        <v>0.672755889541232</v>
       </c>
       <c r="X73" t="n">
         <v>0.4151688976045474</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.2282790034422118</v>
+        <v>0.4741530131413579</v>
       </c>
       <c r="Z73" t="n">
         <v>1.503265936415298</v>
@@ -10988,28 +10988,28 @@
         <v>367.3692725568374</v>
       </c>
       <c r="R74" t="n">
-        <v>0.06116015083859947</v>
+        <v>0.1180042512459261</v>
       </c>
       <c r="S74" t="n">
-        <v>0.5963310866102048</v>
+        <v>1.150579297225915</v>
       </c>
       <c r="T74" t="n">
-        <v>0.05513248328988998</v>
+        <v>0.09549226220553159</v>
       </c>
       <c r="U74" t="n">
-        <v>0.5375593947526621</v>
+        <v>0.9310801837975855</v>
       </c>
       <c r="V74" t="n">
-        <v>0.2902074943053252</v>
+        <v>0.5026541248740789</v>
       </c>
       <c r="W74" t="n">
-        <v>0.8708145135855211</v>
+        <v>0.696651610868417</v>
       </c>
       <c r="X74" t="n">
         <v>0.4288652520639399</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.3219360541566693</v>
+        <v>0.6211531936878332</v>
       </c>
       <c r="Z74" t="n">
         <v>1.199644356267369</v>
@@ -11135,28 +11135,28 @@
         <v>307.0788654845763</v>
       </c>
       <c r="R75" t="n">
-        <v>0.05562764912342544</v>
+        <v>0.1053185478713919</v>
       </c>
       <c r="S75" t="n">
-        <v>0.5266532661771761</v>
+        <v>0.9971005084618669</v>
       </c>
       <c r="T75" t="n">
-        <v>0.04978485809337196</v>
+        <v>0.08622990366532685</v>
       </c>
       <c r="U75" t="n">
-        <v>0.4713367998504954</v>
+        <v>0.8163792848179806</v>
       </c>
       <c r="V75" t="n">
-        <v>0.2621051190919595</v>
+        <v>0.4539793831911653</v>
       </c>
       <c r="W75" t="n">
-        <v>0.7495573873800744</v>
+        <v>0.5996459099040595</v>
       </c>
       <c r="X75" t="n">
         <v>0.381186314054765</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.2928659869021961</v>
+        <v>0.5544764329879354</v>
       </c>
       <c r="Z75" t="n">
         <v>2.044995428540621</v>
@@ -11282,28 +11282,28 @@
         <v>317.1093159530175</v>
       </c>
       <c r="R76" t="n">
-        <v>0.08217370822177759</v>
+        <v>0.1487428730323567</v>
       </c>
       <c r="S76" t="n">
-        <v>0.7933647636911045</v>
+        <v>1.436071912387878</v>
       </c>
       <c r="T76" t="n">
-        <v>0.07828986982896351</v>
+        <v>0.1356020322617185</v>
       </c>
       <c r="U76" t="n">
-        <v>0.7558673622057863</v>
+        <v>1.309200675123489</v>
       </c>
       <c r="V76" t="n">
-        <v>0.4121656180818097</v>
+        <v>0.713891791650724</v>
       </c>
       <c r="W76" t="n">
-        <v>0.7584591563088436</v>
+        <v>0.6067673250470749</v>
       </c>
       <c r="X76" t="n">
         <v>0.3899340668077771</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.4326125118523735</v>
+        <v>0.7830731911111815</v>
       </c>
       <c r="Z76" t="n">
         <v>2.057622115263261</v>
@@ -11429,28 +11429,28 @@
         <v>343.571588340941</v>
       </c>
       <c r="R77" t="n">
-        <v>0.08577748784504907</v>
+        <v>0.1559344280492042</v>
       </c>
       <c r="S77" t="n">
-        <v>0.8385856427845559</v>
+        <v>1.524460273470593</v>
       </c>
       <c r="T77" t="n">
-        <v>0.08184210910822483</v>
+        <v>0.1417546911740409</v>
       </c>
       <c r="U77" t="n">
-        <v>0.8001122368766803</v>
+        <v>1.385835046027994</v>
       </c>
       <c r="V77" t="n">
-        <v>0.4308337759754314</v>
+        <v>0.7462259896061946</v>
       </c>
       <c r="W77" t="n">
-        <v>0.8111556337169599</v>
+        <v>0.6489245069735681</v>
       </c>
       <c r="X77" t="n">
         <v>0.4123478280852884</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.4515504229381502</v>
+        <v>0.8208710549256401</v>
       </c>
       <c r="Z77" t="n">
         <v>1.615126887994798</v>
@@ -11570,28 +11570,28 @@
         <v>308.8925094168035</v>
       </c>
       <c r="R78" t="n">
-        <v>0.04601641625055448</v>
+        <v>0.0901285589189766</v>
       </c>
       <c r="S78" t="n">
-        <v>0.440467041313477</v>
+        <v>0.8627064625966099</v>
       </c>
       <c r="T78" t="n">
-        <v>0.03876950340404173</v>
+        <v>0.0671507496800148</v>
       </c>
       <c r="U78" t="n">
-        <v>0.3710999214843304</v>
+        <v>0.6427639186956813</v>
       </c>
       <c r="V78" t="n">
-        <v>0.2041109543342139</v>
+        <v>0.3535305432882296</v>
       </c>
       <c r="W78" t="n">
-        <v>0.7444828846877302</v>
+        <v>0.5955863077501841</v>
       </c>
       <c r="X78" t="n">
         <v>0.3857476056231248</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.2422639913144191</v>
+        <v>0.4745024970271334</v>
       </c>
       <c r="Z78" t="n">
         <v>1.913899110729765</v>
@@ -11722,28 +11722,28 @@
         <v>377.8360772992849</v>
       </c>
       <c r="R79" t="n">
-        <v>0.04502654224676856</v>
+        <v>0.09437977998782388</v>
       </c>
       <c r="S79" t="n">
-        <v>0.442603954755127</v>
+        <v>0.9277386578474739</v>
       </c>
       <c r="T79" t="n">
-        <v>0.03622555687051518</v>
+        <v>0.06274450503220809</v>
       </c>
       <c r="U79" t="n">
-        <v>0.3560916280496194</v>
+        <v>0.6167687919318592</v>
       </c>
       <c r="V79" t="n">
-        <v>0.1906784049942813</v>
+        <v>0.3302646853562903</v>
       </c>
       <c r="W79" t="n">
-        <v>0.8865837205475612</v>
+        <v>0.7092669764380491</v>
       </c>
       <c r="X79" t="n">
         <v>0.4418336547953038</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.2370036515576511</v>
+        <v>0.49678148430168</v>
       </c>
       <c r="Z79" t="n">
         <v>1.316503208655358</v>
@@ -11874,28 +11874,28 @@
         <v>377.2114570502922</v>
       </c>
       <c r="R80" t="n">
-        <v>0.07736242723216026</v>
+        <v>0.144029270962452</v>
       </c>
       <c r="S80" t="n">
-        <v>0.7628677312478804</v>
+        <v>1.420266750973085</v>
       </c>
       <c r="T80" t="n">
-        <v>0.07261398873108758</v>
+        <v>0.1257711178224777</v>
       </c>
       <c r="U80" t="n">
-        <v>0.7160435733732485</v>
+        <v>1.24022384951564</v>
       </c>
       <c r="V80" t="n">
-        <v>0.3822149036686672</v>
+        <v>0.6620156325641758</v>
       </c>
       <c r="W80" t="n">
-        <v>0.8822343498527886</v>
+        <v>0.7057874798822309</v>
       </c>
       <c r="X80" t="n">
         <v>0.4413157068529845</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.4072090404180657</v>
+        <v>0.7581202312167411</v>
       </c>
       <c r="Z80" t="n">
         <v>1.219423431934616</v>
@@ -12021,28 +12021,28 @@
         <v>453.4525170585844</v>
       </c>
       <c r="R81" t="n">
-        <v>0.06550635439014781</v>
+        <v>0.1277627409833887</v>
       </c>
       <c r="S81" t="n">
-        <v>0.7116365528844405</v>
+        <v>1.387966670209949</v>
       </c>
       <c r="T81" t="n">
-        <v>0.05922703930107949</v>
+        <v>0.1025842412513483</v>
       </c>
       <c r="U81" t="n">
-        <v>0.6434204204792473</v>
+        <v>1.114436858897387</v>
       </c>
       <c r="V81" t="n">
-        <v>0.3116653516250367</v>
+        <v>0.5398202239733828</v>
       </c>
       <c r="W81" t="n">
-        <v>0.9623332538246954</v>
+        <v>0.7698666030597563</v>
       </c>
       <c r="X81" t="n">
         <v>0.492724250650904</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.3447084509981166</v>
+        <v>0.6723148761623233</v>
       </c>
       <c r="Z81" t="n">
         <v>1.175393609952025</v>
@@ -12165,28 +12165,28 @@
         <v>385.5975527213724</v>
       </c>
       <c r="R82" t="n">
-        <v>0.06470289280375982</v>
+        <v>0.1243162510017289</v>
       </c>
       <c r="S82" t="n">
-        <v>0.6423787840647773</v>
+        <v>1.234228002760053</v>
       </c>
       <c r="T82" t="n">
-        <v>0.05885158217820452</v>
+        <v>0.1019339304384653</v>
       </c>
       <c r="U82" t="n">
-        <v>0.5842862067169666</v>
+        <v>1.012013396195478</v>
       </c>
       <c r="V82" t="n">
-        <v>0.3097658118783452</v>
+        <v>0.5365301246211166</v>
       </c>
       <c r="W82" t="n">
-        <v>0.8954204923048926</v>
+        <v>0.7163363938439141</v>
       </c>
       <c r="X82" t="n">
         <v>0.4484821104354356</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.3405642359715005</v>
+        <v>0.6543396625194616</v>
       </c>
       <c r="Z82" t="n">
         <v>1.258881347841275</v>
@@ -12312,28 +12312,28 @@
         <v>347.548453314151</v>
       </c>
       <c r="R83" t="n">
-        <v>0.06228775521383939</v>
+        <v>0.1179391868525904</v>
       </c>
       <c r="S83" t="n">
-        <v>0.611945408299741</v>
+        <v>1.158692324121712</v>
       </c>
       <c r="T83" t="n">
-        <v>0.05670702372418387</v>
+        <v>0.09821944623630016</v>
       </c>
       <c r="U83" t="n">
-        <v>0.5571175693717828</v>
+        <v>0.9649559359412065</v>
       </c>
       <c r="V83" t="n">
-        <v>0.2985139229010407</v>
+        <v>0.5170412812313012</v>
       </c>
       <c r="W83" t="n">
-        <v>0.8153493376588316</v>
+        <v>0.6522794701270653</v>
       </c>
       <c r="X83" t="n">
         <v>0.4188623174600349</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.3278916955335334</v>
+        <v>0.6208488299856068</v>
       </c>
       <c r="Z83" t="n">
         <v>1.588792228154827</v>
@@ -12459,28 +12459,28 @@
         <v>383.0476786697029</v>
       </c>
       <c r="R84" t="n">
-        <v>0.07278775060365945</v>
+        <v>0.1364454543753215</v>
       </c>
       <c r="S84" t="n">
-        <v>0.7344934924976092</v>
+        <v>1.376856648109064</v>
       </c>
       <c r="T84" t="n">
-        <v>0.0677421204315856</v>
+        <v>0.117332794399956</v>
       </c>
       <c r="U84" t="n">
-        <v>0.6835785721133061</v>
+        <v>1.183992817865631</v>
       </c>
       <c r="V84" t="n">
-        <v>0.3565642502679981</v>
+        <v>0.6175873976268773</v>
       </c>
       <c r="W84" t="n">
-        <v>0.8745860523220942</v>
+        <v>0.6996688418576754</v>
       </c>
       <c r="X84" t="n">
         <v>0.4467149421172766</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.3831221927707288</v>
+        <v>0.718187898929843</v>
       </c>
       <c r="Z84" t="n">
         <v>1.388696614116953</v>
@@ -12600,28 +12600,28 @@
         <v>375.8303648664059</v>
       </c>
       <c r="R85" t="n">
-        <v>0.05638426878436764</v>
+        <v>0.1110733065462272</v>
       </c>
       <c r="S85" t="n">
-        <v>0.5524988482796467</v>
+        <v>1.08838644651213</v>
       </c>
       <c r="T85" t="n">
-        <v>0.0496527506437148</v>
+        <v>0.0860010868504623</v>
       </c>
       <c r="U85" t="n">
-        <v>0.4865379676995057</v>
+        <v>0.8427084798668492</v>
       </c>
       <c r="V85" t="n">
-        <v>0.2613560667681329</v>
+        <v>0.45268198650877</v>
       </c>
       <c r="W85" t="n">
-        <v>0.8836398641494467</v>
+        <v>0.7069118913195573</v>
       </c>
       <c r="X85" t="n">
         <v>0.4436541164249389</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.2967886073990328</v>
+        <v>0.5846540653942146</v>
       </c>
       <c r="Z85" t="n">
         <v>1.275099912777333</v>
@@ -12744,28 +12744,28 @@
         <v>392.0741579793797</v>
       </c>
       <c r="R86" t="n">
-        <v>0.03124479074155891</v>
+        <v>0.07327849451429605</v>
       </c>
       <c r="S86" t="n">
-        <v>0.3360105105447218</v>
+        <v>0.788046383711153</v>
       </c>
       <c r="T86" t="n">
-        <v>0.01696903561542241</v>
+        <v>0.02939123184135743</v>
       </c>
       <c r="U86" t="n">
-        <v>0.1824871981941515</v>
+        <v>0.316077099003162</v>
       </c>
       <c r="V86" t="n">
-        <v>0.08931472660928057</v>
+        <v>0.1546976443513979</v>
       </c>
       <c r="W86" t="n">
-        <v>0.8396837484206003</v>
+        <v>0.6717469987364802</v>
       </c>
       <c r="X86" t="n">
         <v>0.4491321137983504</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.1644536558406561</v>
+        <v>0.3856936158431826</v>
       </c>
       <c r="Z86" t="n">
         <v>1.339953989136903</v>
@@ -12896,28 +12896,28 @@
         <v>404.9089530971748</v>
       </c>
       <c r="R87" t="n">
-        <v>0.07403048488321697</v>
+        <v>0.1397393866044072</v>
       </c>
       <c r="S87" t="n">
-        <v>0.7509786365939464</v>
+        <v>1.417541627563252</v>
       </c>
       <c r="T87" t="n">
-        <v>0.06882091578440135</v>
+        <v>0.119201322762002</v>
       </c>
       <c r="U87" t="n">
-        <v>0.6981318248346811</v>
+        <v>1.209199790994443</v>
       </c>
       <c r="V87" t="n">
-        <v>0.3622156527000355</v>
+        <v>0.6273759137731844</v>
       </c>
       <c r="W87" t="n">
-        <v>0.9190659594362971</v>
+        <v>0.7352527675490378</v>
       </c>
       <c r="X87" t="n">
         <v>0.4656191008841957</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.3896344606293704</v>
+        <v>0.7354710780859774</v>
       </c>
       <c r="Z87" t="n">
         <v>1.206768580603251</v>
@@ -13043,28 +13043,28 @@
         <v>404.2768642638003</v>
       </c>
       <c r="R88" t="n">
-        <v>0.06959023355374405</v>
+        <v>0.1326202488068484</v>
       </c>
       <c r="S88" t="n">
-        <v>0.7065641675186625</v>
+        <v>1.346521069252645</v>
       </c>
       <c r="T88" t="n">
-        <v>0.06403144213387492</v>
+        <v>0.1109057110577779</v>
       </c>
       <c r="U88" t="n">
-        <v>0.6501245978920364</v>
+        <v>1.126048834799293</v>
       </c>
       <c r="V88" t="n">
-        <v>0.3370086182624623</v>
+        <v>0.5837160494191692</v>
       </c>
       <c r="W88" t="n">
-        <v>0.9161832543159081</v>
+        <v>0.7329466034527264</v>
       </c>
       <c r="X88" t="n">
         <v>0.4670860113279405</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.3662655044606923</v>
+        <v>0.6980034388507885</v>
       </c>
       <c r="Z88" t="n">
         <v>1.225258085386817</v>
@@ -13190,28 +13190,28 @@
         <v>339.4326264827049</v>
       </c>
       <c r="R89" t="n">
-        <v>0.05083825585464386</v>
+        <v>0.1000881073835465</v>
       </c>
       <c r="S89" t="n">
-        <v>0.4873943664154415</v>
+        <v>0.9595604503703333</v>
       </c>
       <c r="T89" t="n">
-        <v>0.04382861028754929</v>
+        <v>0.07591337984317136</v>
       </c>
       <c r="U89" t="n">
-        <v>0.4201917902739787</v>
+        <v>0.7277935296778572</v>
       </c>
       <c r="V89" t="n">
-        <v>0.2307257041476739</v>
+        <v>0.3996286421958765</v>
       </c>
       <c r="W89" t="n">
-        <v>0.8145408302111566</v>
+        <v>0.6516326641689254</v>
       </c>
       <c r="X89" t="n">
         <v>0.4188987833925032</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.2676263815518342</v>
+        <v>0.5268909714766139</v>
       </c>
       <c r="Z89" t="n">
         <v>1.541689549412003</v>
@@ -13342,28 +13342,28 @@
         <v>323.0473348775529</v>
       </c>
       <c r="R90" t="n">
-        <v>0.03163326754067789</v>
+        <v>0.06972375743375227</v>
       </c>
       <c r="S90" t="n">
-        <v>0.3099534606319235</v>
+        <v>0.6831769711131522</v>
       </c>
       <c r="T90" t="n">
-        <v>0.01933016821611724</v>
+        <v>0.0334808334691681</v>
       </c>
       <c r="U90" t="n">
-        <v>0.1894035298591338</v>
+        <v>0.3280565368489086</v>
       </c>
       <c r="V90" t="n">
-        <v>0.1017640896016448</v>
+        <v>0.1762605735760405</v>
       </c>
       <c r="W90" t="n">
-        <v>0.7584600270901798</v>
+        <v>0.6067680216721439</v>
       </c>
       <c r="X90" t="n">
         <v>0.4031171858918194</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.1665340226950678</v>
+        <v>0.3670622324401545</v>
       </c>
       <c r="Z90" t="n">
         <v>2.202675635122268</v>
@@ -13494,28 +13494,28 @@
         <v>424.873838993316</v>
       </c>
       <c r="R91" t="n">
-        <v>0.05250459241604893</v>
+        <v>0.1073649105126413</v>
       </c>
       <c r="S91" t="n">
-        <v>0.5459518132787665</v>
+        <v>1.116398868739185</v>
       </c>
       <c r="T91" t="n">
-        <v>0.04464127126982093</v>
+        <v>0.07732094995379467</v>
       </c>
       <c r="U91" t="n">
-        <v>0.464187642934227</v>
+        <v>0.8039965818077216</v>
       </c>
       <c r="V91" t="n">
-        <v>0.2349374675442561</v>
+        <v>0.4069236303882157</v>
       </c>
       <c r="W91" t="n">
-        <v>0.9399445799328288</v>
+        <v>0.7519556639462629</v>
       </c>
       <c r="X91" t="n">
         <v>0.4819146144995276</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.2763204457622376</v>
+        <v>0.5650385721879736</v>
       </c>
       <c r="Z91" t="n">
         <v>1.179780120395783</v>
@@ -13641,28 +13641,28 @@
         <v>400.8888230172158</v>
       </c>
       <c r="R92" t="n">
-        <v>0.05983869408448575</v>
+        <v>0.1172788594918046</v>
       </c>
       <c r="S92" t="n">
-        <v>0.6054559646759637</v>
+        <v>1.186643293208453</v>
       </c>
       <c r="T92" t="n">
-        <v>0.05330352160794445</v>
+        <v>0.09232440764730525</v>
       </c>
       <c r="U92" t="n">
-        <v>0.539332209526468</v>
+        <v>0.9341507890582254</v>
       </c>
       <c r="V92" t="n">
-        <v>0.280549004775848</v>
+        <v>0.4859251302846521</v>
       </c>
       <c r="W92" t="n">
-        <v>0.9107203676639307</v>
+        <v>0.7285762941311446</v>
       </c>
       <c r="X92" t="n">
         <v>0.4678240087754544</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.3149451587076159</v>
+        <v>0.6172662953430161</v>
       </c>
       <c r="Z92" t="n">
         <v>1.231913386777003</v>
@@ -13788,28 +13788,28 @@
         <v>445.5341436142293</v>
       </c>
       <c r="R93" t="n">
-        <v>0.03316407383586407</v>
+        <v>0.08054887100912854</v>
       </c>
       <c r="S93" t="n">
-        <v>0.3639498627094521</v>
+        <v>0.8839610806037723</v>
       </c>
       <c r="T93" t="n">
-        <v>0.01832326989962269</v>
+        <v>0.03173683442694399</v>
       </c>
       <c r="U93" t="n">
-        <v>0.2010836062348961</v>
+        <v>0.3482870225680141</v>
       </c>
       <c r="V93" t="n">
-        <v>0.09642394740613273</v>
+        <v>0.1670111759737712</v>
       </c>
       <c r="W93" t="n">
-        <v>0.9331664718005268</v>
+        <v>0.7465331774404216</v>
       </c>
       <c r="X93" t="n">
         <v>0.4952071191030444</v>
       </c>
       <c r="Y93" t="n">
-        <v>0.1745218472925681</v>
+        <v>0.4238784968160904</v>
       </c>
       <c r="Z93" t="n">
         <v>1.101249100551098</v>
@@ -13935,28 +13935,28 @@
         <v>337.0345879482724</v>
       </c>
       <c r="R94" t="n">
-        <v>0.05809733241689945</v>
+        <v>0.1098709426977445</v>
       </c>
       <c r="S94" t="n">
-        <v>0.5830139874015356</v>
+        <v>1.102568633308624</v>
       </c>
       <c r="T94" t="n">
-        <v>0.05231572499985591</v>
+        <v>0.09061349373455176</v>
       </c>
       <c r="U94" t="n">
-        <v>0.524994834824741</v>
+        <v>0.9093177276276821</v>
       </c>
       <c r="V94" t="n">
-        <v>0.2754061295740945</v>
+        <v>0.4770174091382294</v>
       </c>
       <c r="W94" t="n">
-        <v>0.7715944184540892</v>
+        <v>0.6172755347632713</v>
       </c>
       <c r="X94" t="n">
         <v>0.4168206389919381</v>
       </c>
       <c r="Y94" t="n">
-        <v>0.3058422961654821</v>
+        <v>0.5783945664735848</v>
       </c>
       <c r="Z94" t="n">
         <v>2.081212019701819</v>
@@ -14071,28 +14071,28 @@
         <v>380.1137691798457</v>
       </c>
       <c r="R95" t="n">
-        <v>0.05242379999483334</v>
+        <v>0.1044300702968671</v>
       </c>
       <c r="S95" t="n">
-        <v>0.5276547252142966</v>
+        <v>1.051106940970204</v>
       </c>
       <c r="T95" t="n">
-        <v>0.04518314802345044</v>
+        <v>0.07825950802252145</v>
       </c>
       <c r="U95" t="n">
-        <v>0.4547762954417707</v>
+        <v>0.7876956497831012</v>
       </c>
       <c r="V95" t="n">
-        <v>0.2378261970903023</v>
+        <v>0.4119270567312931</v>
       </c>
       <c r="W95" t="n">
-        <v>0.8674946366244262</v>
+        <v>0.693995709299541</v>
       </c>
       <c r="X95" t="n">
         <v>0.4533296193620625</v>
       </c>
       <c r="Y95" t="n">
-        <v>0.275938121516521</v>
+        <v>0.5496785320864903</v>
       </c>
       <c r="Z95" t="n">
         <v>1.381128034945611</v>
@@ -14218,28 +14218,28 @@
         <v>456.9169880413516</v>
       </c>
       <c r="R96" t="n">
-        <v>0.05222741998752022</v>
+        <v>0.1083429295496041</v>
       </c>
       <c r="S96" t="n">
-        <v>0.5616980305632288</v>
+        <v>1.165211878511419</v>
       </c>
       <c r="T96" t="n">
-        <v>0.04391988273511622</v>
+        <v>0.07607146835968842</v>
       </c>
       <c r="U96" t="n">
-        <v>0.4723517194756621</v>
+        <v>0.8181371771743681</v>
       </c>
       <c r="V96" t="n">
-        <v>0.2311126476588252</v>
+        <v>0.4002988480168495</v>
       </c>
       <c r="W96" t="n">
-        <v>0.9752794278899933</v>
+        <v>0.7802235423119949</v>
       </c>
       <c r="X96" t="n">
         <v>0.5104626700671484</v>
       </c>
       <c r="Y96" t="n">
-        <v>0.2748280860971953</v>
+        <v>0.5701158505895156</v>
       </c>
       <c r="Z96" t="n">
         <v>1.015433523266514</v>
@@ -14365,28 +14365,28 @@
         <v>411.2609049271321</v>
       </c>
       <c r="R97" t="n">
-        <v>0.03997571632684326</v>
+        <v>0.08720460674089411</v>
       </c>
       <c r="S97" t="n">
-        <v>0.425053015490613</v>
+        <v>0.9272274386988353</v>
       </c>
       <c r="T97" t="n">
-        <v>0.02950479144002214</v>
+        <v>0.05110379784084165</v>
       </c>
       <c r="U97" t="n">
-        <v>0.3137179699412121</v>
+        <v>0.5433754631855453</v>
       </c>
       <c r="V97" t="n">
-        <v>0.1552850368375483</v>
+        <v>0.2689615734578384</v>
       </c>
       <c r="W97" t="n">
-        <v>0.8875185263931072</v>
+        <v>0.7100148211144858</v>
       </c>
       <c r="X97" t="n">
         <v>0.4770004173179468</v>
       </c>
       <c r="Y97" t="n">
-        <v>0.2103939827888707</v>
+        <v>0.4589617451691262</v>
       </c>
       <c r="Z97" t="n">
         <v>1.342866533386068</v>
@@ -14512,28 +14512,28 @@
         <v>398.7155432398492</v>
       </c>
       <c r="R98" t="n">
-        <v>0.07595234412037964</v>
+        <v>0.1413386014302636</v>
       </c>
       <c r="S98" t="n">
-        <v>0.798406478429969</v>
+        <v>1.485742887083255</v>
       </c>
       <c r="T98" t="n">
-        <v>0.07109871813411356</v>
+        <v>0.1231465921613034</v>
       </c>
       <c r="U98" t="n">
-        <v>0.7473854536519978</v>
+        <v>1.294509578563175</v>
       </c>
       <c r="V98" t="n">
-        <v>0.3742121231846357</v>
+        <v>0.6481544101640125</v>
       </c>
       <c r="W98" t="n">
-        <v>0.8699315914342824</v>
+        <v>0.6959452731474259</v>
       </c>
       <c r="X98" t="n">
         <v>0.4694688271457726</v>
       </c>
       <c r="Y98" t="n">
-        <v>0.3997580926919718</v>
+        <v>0.7439039622261308</v>
       </c>
       <c r="Z98" t="n">
         <v>1.391278762043855</v>
@@ -14645,28 +14645,28 @@
         <v>480.2857693703551</v>
       </c>
       <c r="R99" t="n">
-        <v>0.06736690071920851</v>
+        <v>0.1313302301220471</v>
       </c>
       <c r="S99" t="n">
-        <v>0.7529356228574842</v>
+        <v>1.467830753104031</v>
       </c>
       <c r="T99" t="n">
-        <v>0.06103569090662538</v>
+        <v>0.1057169177253449</v>
       </c>
       <c r="U99" t="n">
-        <v>0.6821739676115651</v>
+        <v>1.181559971504077</v>
       </c>
       <c r="V99" t="n">
-        <v>0.321147705695828</v>
+        <v>0.5562441429993511</v>
       </c>
       <c r="W99" t="n">
-        <v>0.9851699996809737</v>
+        <v>0.7881359997447791</v>
       </c>
       <c r="X99" t="n">
         <v>0.5292081917590967</v>
       </c>
       <c r="Y99" t="n">
-        <v>0.3544602393198109</v>
+        <v>0.6910121187408782</v>
       </c>
       <c r="Z99" t="n">
         <v>0.962003684490306</v>
@@ -14786,28 +14786,28 @@
         <v>452.1187371364575</v>
       </c>
       <c r="R100" t="n">
-        <v>0.05311529548508654</v>
+        <v>0.1055997381881548</v>
       </c>
       <c r="S100" t="n">
-        <v>0.6293313917214295</v>
+        <v>1.251188185859374</v>
       </c>
       <c r="T100" t="n">
-        <v>0.04574762835111428</v>
+        <v>0.07923721662990835</v>
       </c>
       <c r="U100" t="n">
-        <v>0.5420363071545956</v>
+        <v>0.9388344235387693</v>
       </c>
       <c r="V100" t="n">
-        <v>0.2407350715753747</v>
+        <v>0.4169653751322793</v>
       </c>
       <c r="W100" t="n">
-        <v>0.8746914641898437</v>
+        <v>0.699753171351875</v>
       </c>
       <c r="X100" t="n">
         <v>0.5019070749261886</v>
       </c>
       <c r="Y100" t="n">
-        <v>0.2795055158315773</v>
+        <v>0.5556913319299336</v>
       </c>
       <c r="Z100" t="n">
         <v>1.10119586004548</v>
@@ -14927,28 +14927,28 @@
         <v>367.0778625579107</v>
       </c>
       <c r="R101" t="n">
-        <v>0.03984749354546139</v>
+        <v>0.08278591655351873</v>
       </c>
       <c r="S101" t="n">
-        <v>0.4223778407531701</v>
+        <v>0.8775191001349716</v>
       </c>
       <c r="T101" t="n">
-        <v>0.03046468785712722</v>
+        <v>0.05276638720527096</v>
       </c>
       <c r="U101" t="n">
-        <v>0.3229214169175349</v>
+        <v>0.5593163009533023</v>
       </c>
       <c r="V101" t="n">
-        <v>0.1603607960287167</v>
+        <v>0.2777530462639268</v>
       </c>
       <c r="W101" t="n">
-        <v>0.7935980723973475</v>
+        <v>0.634878457917878</v>
       </c>
       <c r="X101" t="n">
         <v>0.4451518795961679</v>
       </c>
       <c r="Y101" t="n">
-        <v>0.2097502464055086</v>
+        <v>0.4357706056516625</v>
       </c>
       <c r="Z101" t="n">
         <v>1.702394448792871</v>
@@ -15079,28 +15079,28 @@
         <v>472.441197647471</v>
       </c>
       <c r="R102" t="n">
-        <v>0.05697160546953858</v>
+        <v>0.114634301436651</v>
       </c>
       <c r="S102" t="n">
-        <v>0.6423809069952887</v>
+        <v>1.292554175413228</v>
       </c>
       <c r="T102" t="n">
-        <v>0.04951931993757335</v>
+        <v>0.08576997808813552</v>
       </c>
       <c r="U102" t="n">
-        <v>0.5583529794029849</v>
+        <v>0.9670957288834287</v>
       </c>
       <c r="V102" t="n">
-        <v>0.2605612699442194</v>
+        <v>0.4513053580280573</v>
       </c>
       <c r="W102" t="n">
-        <v>0.9597993180712511</v>
+        <v>0.7678394544570009</v>
       </c>
       <c r="X102" t="n">
         <v>0.5253568597946097</v>
       </c>
       <c r="Y102" t="n">
-        <v>0.299773783053117</v>
+        <v>0.6031839532359691</v>
       </c>
       <c r="Z102" t="n">
         <v>1.043228674792056</v>
@@ -15226,28 +15226,28 @@
         <v>394.6100995094315</v>
       </c>
       <c r="R103" t="n">
-        <v>0.05463647099311349</v>
+        <v>0.1059394334411808</v>
       </c>
       <c r="S103" t="n">
-        <v>0.6029426458695427</v>
+        <v>1.169098244083094</v>
       </c>
       <c r="T103" t="n">
-        <v>0.04799519860952571</v>
+        <v>0.08313012251105766</v>
       </c>
       <c r="U103" t="n">
-        <v>0.5296526571474408</v>
+        <v>0.9173853125432264</v>
       </c>
       <c r="V103" t="n">
-        <v>0.2526154864294113</v>
+        <v>0.4375428572744666</v>
       </c>
       <c r="W103" t="n">
-        <v>0.8188911345059205</v>
+        <v>0.6551129076047365</v>
       </c>
       <c r="X103" t="n">
         <v>0.4665368738476411</v>
       </c>
       <c r="Y103" t="n">
-        <v>0.2875708215940681</v>
+        <v>0.5575962239166281</v>
       </c>
       <c r="Z103" t="n">
         <v>1.635067194459739</v>
@@ -15373,28 +15373,28 @@
         <v>434.9747725949474</v>
       </c>
       <c r="R104" t="n">
-        <v>0.03320804839880923</v>
+        <v>0.07982341444126252</v>
       </c>
       <c r="S104" t="n">
-        <v>0.3595150781041337</v>
+        <v>0.8641796932101006</v>
       </c>
       <c r="T104" t="n">
-        <v>0.01856926610322721</v>
+        <v>0.03216291235005606</v>
       </c>
       <c r="U104" t="n">
-        <v>0.2010335287778477</v>
+        <v>0.348200285868092</v>
       </c>
       <c r="V104" t="n">
-        <v>0.09772240863258282</v>
+        <v>0.1692601767896408</v>
       </c>
       <c r="W104" t="n">
-        <v>0.9195102038955659</v>
+        <v>0.7356081631164527</v>
       </c>
       <c r="X104" t="n">
         <v>0.5036370135031565</v>
       </c>
       <c r="Y104" t="n">
-        <v>0.1747602978749405</v>
+        <v>0.420077793118673</v>
       </c>
       <c r="Z104" t="n">
         <v>1.226402369197755</v>
@@ -15525,28 +15525,28 @@
         <v>515.6090897895901</v>
       </c>
       <c r="R105" t="n">
-        <v>0.06069156038906357</v>
+        <v>0.1228951271285404</v>
       </c>
       <c r="S105" t="n">
-        <v>0.6939681966258762</v>
+        <v>1.405225194422075</v>
       </c>
       <c r="T105" t="n">
-        <v>0.0531396148110932</v>
+        <v>0.09204051274745302</v>
       </c>
       <c r="U105" t="n">
-        <v>0.6076166508728157</v>
+        <v>1.052422910836557</v>
       </c>
       <c r="V105" t="n">
-        <v>0.2795578445514361</v>
+        <v>0.4842083904175293</v>
       </c>
       <c r="W105" t="n">
-        <v>1.031988672449371</v>
+        <v>0.8255909379594967</v>
       </c>
       <c r="X105" t="n">
         <v>0.5605138067908287</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.3192872561298282</v>
+        <v>0.6465289025534561</v>
       </c>
       <c r="Z105" t="n">
         <v>0.9152566454821567</v>
@@ -15667,28 +15667,28 @@
         <v>389.6793919596995</v>
       </c>
       <c r="R106" t="n">
-        <v>0.05696447961345168</v>
+        <v>0.1097950722988061</v>
       </c>
       <c r="S106" t="n">
-        <v>0.6150742297258749</v>
+        <v>1.185512796397735</v>
       </c>
       <c r="T106" t="n">
-        <v>0.05058596884527355</v>
+        <v>0.08761746819011011</v>
       </c>
       <c r="U106" t="n">
-        <v>0.5462022304702383</v>
+        <v>0.9460500143818982</v>
       </c>
       <c r="V106" t="n">
-        <v>0.2662560523022507</v>
+        <v>0.4611690104102146</v>
       </c>
       <c r="W106" t="n">
-        <v>0.8257755364670084</v>
+        <v>0.6606204291736067</v>
       </c>
       <c r="X106" t="n">
         <v>0.4675527828990781</v>
       </c>
       <c r="Y106" t="n">
-        <v>0.2998289409010066</v>
+        <v>0.5778994290281687</v>
       </c>
       <c r="Z106" t="n">
         <v>1.865786653257043</v>
@@ -15814,28 +15814,28 @@
         <v>472.3258472786908</v>
       </c>
       <c r="R107" t="n">
-        <v>0.06223517833352452</v>
+        <v>0.1223137185469528</v>
       </c>
       <c r="S107" t="n">
-        <v>0.7056574854317655</v>
+        <v>1.386861793841081</v>
       </c>
       <c r="T107" t="n">
-        <v>0.05552273622505156</v>
+        <v>0.09616820011703427</v>
       </c>
       <c r="U107" t="n">
-        <v>0.6295480382315508</v>
+        <v>1.09040918802236</v>
       </c>
       <c r="V107" t="n">
-        <v>0.2921502472467691</v>
+        <v>0.5060190716752134</v>
       </c>
       <c r="W107" t="n">
-        <v>0.9531368750230066</v>
+        <v>0.7625095000184053</v>
       </c>
       <c r="X107" t="n">
         <v>0.5291544340214547</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.3274698614255672</v>
+        <v>0.6435918966659463</v>
       </c>
       <c r="Z107" t="n">
         <v>1.157633610471134</v>
@@ -15961,28 +15961,28 @@
         <v>1248.94345375944</v>
       </c>
       <c r="R108" t="n">
-        <v>0.04565412209463245</v>
+        <v>0.131991254488321</v>
       </c>
       <c r="S108" t="n">
-        <v>0.8051733708052961</v>
+        <v>2.327847703935499</v>
       </c>
       <c r="T108" t="n">
-        <v>0.02039308283339181</v>
+        <v>0.0353218555903953</v>
       </c>
       <c r="U108" t="n">
-        <v>0.3596601247098385</v>
+        <v>0.622949609453999</v>
       </c>
       <c r="V108" t="n">
-        <v>0.1062491461246237</v>
+        <v>0.1840289193486583</v>
       </c>
       <c r="W108" t="n">
-        <v>1.620187713496271</v>
+        <v>1.296150170797017</v>
       </c>
       <c r="X108" t="n">
         <v>0.9507215697093652</v>
       </c>
       <c r="Y108" t="n">
-        <v>0.2378606280008543</v>
+        <v>0.6876821027931621</v>
       </c>
       <c r="Z108" t="n">
         <v>0.1367754295493965</v>
@@ -16102,28 +16102,28 @@
         <v>478.6234541693048</v>
       </c>
       <c r="R109" t="n">
-        <v>0.04145717078934586</v>
+        <v>0.09247738526182196</v>
       </c>
       <c r="S109" t="n">
-        <v>0.4729888470721888</v>
+        <v>1.055083378880278</v>
       </c>
       <c r="T109" t="n">
-        <v>0.03036032800273162</v>
+        <v>0.05258563063518729</v>
       </c>
       <c r="U109" t="n">
-        <v>0.3463839009109598</v>
+        <v>0.5999545153016859</v>
       </c>
       <c r="V109" t="n">
-        <v>0.1597461709896158</v>
+        <v>0.2766884844686</v>
       </c>
       <c r="W109" t="n">
-        <v>0.9596724256154636</v>
+        <v>0.7677379404923709</v>
       </c>
       <c r="X109" t="n">
         <v>0.5342242883200008</v>
       </c>
       <c r="Y109" t="n">
-        <v>0.218134148388143</v>
+        <v>0.4865859221737797</v>
       </c>
       <c r="Z109" t="n">
         <v>0.946244471261862</v>
@@ -16246,28 +16246,28 @@
         <v>1238.670703415034</v>
       </c>
       <c r="R110" t="n">
-        <v>0.04687761813170063</v>
+        <v>0.1324263072787523</v>
       </c>
       <c r="S110" t="n">
-        <v>0.8272835800041394</v>
+        <v>2.337023806638531</v>
       </c>
       <c r="T110" t="n">
-        <v>0.02346555338597601</v>
+        <v>0.04064353069223035</v>
       </c>
       <c r="U110" t="n">
-        <v>0.4141137665610366</v>
+        <v>0.7172660837974328</v>
       </c>
       <c r="V110" t="n">
-        <v>0.1222925370583131</v>
+        <v>0.211816887571498</v>
       </c>
       <c r="W110" t="n">
-        <v>1.60563666816382</v>
+        <v>1.284509334531056</v>
       </c>
       <c r="X110" t="n">
         <v>0.946013705779765</v>
       </c>
       <c r="Y110" t="n">
-        <v>0.2443063139522036</v>
+        <v>0.6901498900963923</v>
       </c>
       <c r="Z110" t="n">
         <v>0.1370008919991575</v>
@@ -16384,28 +16384,28 @@
         <v>450.5614498276976</v>
       </c>
       <c r="R111" t="n">
-        <v>0.0552565146112221</v>
+        <v>0.1103743324731782</v>
       </c>
       <c r="S111" t="n">
-        <v>0.6216122577333195</v>
+        <v>1.241664236103054</v>
       </c>
       <c r="T111" t="n">
-        <v>0.04788817631943065</v>
+        <v>0.08294475446707066</v>
       </c>
       <c r="U111" t="n">
-        <v>0.5387215898450276</v>
+        <v>0.9330931647458698</v>
       </c>
       <c r="V111" t="n">
-        <v>0.2520006914769203</v>
+        <v>0.4364780011805154</v>
       </c>
       <c r="W111" t="n">
-        <v>0.9157622346665953</v>
+        <v>0.7326097877332763</v>
       </c>
       <c r="X111" t="n">
         <v>0.5157026093599496</v>
       </c>
       <c r="Y111" t="n">
-        <v>0.2907749043887181</v>
+        <v>0.5808199485194991</v>
       </c>
       <c r="Z111" t="n">
         <v>1.256654148511164</v>
@@ -16531,28 +16531,28 @@
         <v>548.0717102283559</v>
       </c>
       <c r="R112" t="n">
-        <v>0.05233804946485776</v>
+        <v>0.1107893734644108</v>
       </c>
       <c r="S112" t="n">
-        <v>0.6339380036793797</v>
+        <v>1.341922271866016</v>
       </c>
       <c r="T112" t="n">
-        <v>0.04322138808745284</v>
+        <v>0.07486164014112054</v>
       </c>
       <c r="U112" t="n">
-        <v>0.5235135959510493</v>
+        <v>0.9067521466403018</v>
       </c>
       <c r="V112" t="n">
-        <v>0.2273444048790154</v>
+        <v>0.3937720600669644</v>
       </c>
       <c r="W112" t="n">
-        <v>1.034213931748074</v>
+        <v>0.827371145398459</v>
       </c>
       <c r="X112" t="n">
         <v>0.5837412679998712</v>
       </c>
       <c r="Y112" t="n">
-        <v>0.2752980233777074</v>
+        <v>0.5827518571643779</v>
       </c>
       <c r="Z112" t="n">
         <v>0.8297403899611151</v>
@@ -16683,28 +16683,28 @@
         <v>364.6266753510416</v>
       </c>
       <c r="R113" t="n">
-        <v>0.02741995601133851</v>
+        <v>0.06953172073797809</v>
       </c>
       <c r="S113" t="n">
-        <v>0.2663367851826616</v>
+        <v>0.6753787264251591</v>
       </c>
       <c r="T113" t="n">
-        <v>0.006989450723578536</v>
+        <v>0.01210608377023708</v>
       </c>
       <c r="U113" t="n">
-        <v>0.06789025610182456</v>
+        <v>0.1175893729072231</v>
       </c>
       <c r="V113" t="n">
-        <v>0.03679153318681573</v>
+        <v>0.06372480476792133</v>
       </c>
       <c r="W113" t="n">
-        <v>0.8579834195670558</v>
+        <v>0.6863867356536448</v>
       </c>
       <c r="X113" t="n">
         <v>0.4601753676917382</v>
       </c>
       <c r="Y113" t="n">
-        <v>0.1443349787371676</v>
+        <v>0.366005672296658</v>
       </c>
       <c r="Z113" t="n">
         <v>1.060831560138101</v>
@@ -16827,28 +16827,28 @@
         <v>483.5233341602351</v>
       </c>
       <c r="R114" t="n">
-        <v>0.03828319631667321</v>
+        <v>0.08927536346158824</v>
       </c>
       <c r="S114" t="n">
-        <v>0.4317450418027529</v>
+        <v>1.00681759200165</v>
       </c>
       <c r="T114" t="n">
-        <v>0.02551421071774525</v>
+        <v>0.04419190927815316</v>
       </c>
       <c r="U114" t="n">
-        <v>0.2877407069612838</v>
+        <v>0.4983815238627314</v>
       </c>
       <c r="V114" t="n">
-        <v>0.1342446975344438</v>
+        <v>0.2325186367763731</v>
       </c>
       <c r="W114" t="n">
-        <v>0.9798892270400841</v>
+        <v>0.7839113816320673</v>
       </c>
       <c r="X114" t="n">
         <v>0.5431756460836764</v>
       </c>
       <c r="Y114" t="n">
-        <v>0.2014295549659747</v>
+        <v>0.4697281957008769</v>
       </c>
       <c r="Z114" t="n">
         <v>0.9548714706172144</v>
@@ -16974,28 +16974,28 @@
         <v>454.9039090145141</v>
       </c>
       <c r="R115" t="n">
-        <v>0.02922420290817499</v>
+        <v>0.07589220053415822</v>
       </c>
       <c r="S115" t="n">
-        <v>0.3244107016164713</v>
+        <v>0.8424606857495196</v>
       </c>
       <c r="T115" t="n">
-        <v>0.008803699089899324</v>
+        <v>0.01524845411825352</v>
       </c>
       <c r="U115" t="n">
-        <v>0.09772770219083055</v>
+        <v>0.1692693455014788</v>
       </c>
       <c r="V115" t="n">
-        <v>0.04632668239999019</v>
+        <v>0.0802401676628899</v>
       </c>
       <c r="W115" t="n">
-        <v>0.9364678413542273</v>
+        <v>0.7491742730833818</v>
       </c>
       <c r="X115" t="n">
         <v>0.5228162358938716</v>
       </c>
       <c r="Y115" t="n">
-        <v>0.1537831260127014</v>
+        <v>0.3993587053442236</v>
       </c>
       <c r="Z115" t="n">
         <v>1.177088983194154</v>
@@ -17126,28 +17126,28 @@
         <v>666.2793795323425</v>
       </c>
       <c r="R116" t="n">
-        <v>0.03617069303145026</v>
+        <v>0.09559669160520061</v>
       </c>
       <c r="S116" t="n">
-        <v>0.4776937935983648</v>
+        <v>1.262512339164607</v>
       </c>
       <c r="T116" t="n">
-        <v>0.01756314026522218</v>
+        <v>0.03042025127982355</v>
       </c>
       <c r="U116" t="n">
-        <v>0.231950300026026</v>
+        <v>0.4017497044759216</v>
       </c>
       <c r="V116" t="n">
-        <v>0.09231850701229347</v>
+        <v>0.159900344624196</v>
       </c>
       <c r="W116" t="n">
-        <v>1.152692341624567</v>
+        <v>0.9221538732996534</v>
       </c>
       <c r="X116" t="n">
         <v>0.6586738663279574</v>
       </c>
       <c r="Y116" t="n">
-        <v>0.1901268410909211</v>
+        <v>0.502492362472465</v>
       </c>
       <c r="Z116" t="n">
         <v>0.6165669580640616</v>
@@ -17273,28 +17273,28 @@
         <v>444.7801590842464</v>
       </c>
       <c r="R117" t="n">
-        <v>0.06042273545203997</v>
+        <v>0.1197138359647579</v>
       </c>
       <c r="S117" t="n">
-        <v>0.6418207156930966</v>
+        <v>1.271621009913626</v>
       </c>
       <c r="T117" t="n">
-        <v>0.05349361201349941</v>
+        <v>0.09265365388775784</v>
       </c>
       <c r="U117" t="n">
-        <v>0.5682183716221321</v>
+        <v>0.9841830894435862</v>
       </c>
       <c r="V117" t="n">
-        <v>0.2815043537560732</v>
+        <v>0.4875798432573615</v>
       </c>
       <c r="W117" t="n">
-        <v>0.9566716451822562</v>
+        <v>0.765337316145805</v>
       </c>
       <c r="X117" t="n">
         <v>0.5202707009107589</v>
       </c>
       <c r="Y117" t="n">
-        <v>0.3179681172269374</v>
+        <v>0.6299811278478514</v>
       </c>
       <c r="Z117" t="n">
         <v>1.05781319093341</v>
@@ -17425,28 +17425,28 @@
         <v>1086.679426976399</v>
       </c>
       <c r="R118" t="n">
-        <v>0.04959411887098509</v>
+        <v>0.1313709580939792</v>
       </c>
       <c r="S118" t="n">
-        <v>0.8023583085905222</v>
+        <v>2.125384665234357</v>
       </c>
       <c r="T118" t="n">
-        <v>0.03073077822456778</v>
+        <v>0.0532272692410827</v>
       </c>
       <c r="U118" t="n">
-        <v>0.4971778065475465</v>
+        <v>0.8611372213360011</v>
       </c>
       <c r="V118" t="n">
-        <v>0.1607253454534696</v>
+        <v>0.2783844643894688</v>
       </c>
       <c r="W118" t="n">
-        <v>1.534363087295817</v>
+        <v>1.227490469836654</v>
       </c>
       <c r="X118" t="n">
         <v>0.8890467814097006</v>
       </c>
       <c r="Y118" t="n">
-        <v>0.2593826889039555</v>
+        <v>0.6870845400630938</v>
       </c>
       <c r="Z118" t="n">
         <v>0.2331909053053322</v>
@@ -17577,28 +17577,28 @@
         <v>436.2378281746771</v>
       </c>
       <c r="R119" t="n">
-        <v>0.058559253176983</v>
+        <v>0.1148274342162801</v>
       </c>
       <c r="S119" t="n">
-        <v>0.6479406269642339</v>
+        <v>1.270531225764243</v>
       </c>
       <c r="T119" t="n">
-        <v>0.05178249814501625</v>
+        <v>0.08968991773000931</v>
       </c>
       <c r="U119" t="n">
-        <v>0.5729578588110117</v>
+        <v>0.9923921220565477</v>
       </c>
       <c r="V119" t="n">
-        <v>0.2725086880850695</v>
+        <v>0.47199889326728</v>
       </c>
       <c r="W119" t="n">
-        <v>0.9006314742874756</v>
+        <v>0.7205051794299804</v>
       </c>
       <c r="X119" t="n">
         <v>0.5096565419757205</v>
       </c>
       <c r="Y119" t="n">
-        <v>0.3081717922107805</v>
+        <v>0.6042866716631111</v>
       </c>
       <c r="Z119" t="n">
         <v>1.263103736974466</v>
@@ -17724,28 +17724,28 @@
         <v>609.7906666368677</v>
       </c>
       <c r="R120" t="n">
-        <v>0.04030322037699456</v>
+        <v>0.09953101235217146</v>
       </c>
       <c r="S120" t="n">
-        <v>0.495170196214632</v>
+        <v>1.222849947345595</v>
       </c>
       <c r="T120" t="n">
-        <v>0.02558039134875938</v>
+        <v>0.04430653749354661</v>
       </c>
       <c r="U120" t="n">
-        <v>0.3142837541250797</v>
+        <v>0.5443554301381227</v>
       </c>
       <c r="V120" t="n">
-        <v>0.1345078780721453</v>
+        <v>0.2329744788392354</v>
       </c>
       <c r="W120" t="n">
-        <v>1.133746477901477</v>
+        <v>0.9069971823211819</v>
       </c>
       <c r="X120" t="n">
         <v>0.6297326029758291</v>
       </c>
       <c r="Y120" t="n">
-        <v>0.2119240702174208</v>
+        <v>0.5233581101765418</v>
       </c>
       <c r="Z120" t="n">
         <v>0.6845167484937132</v>
@@ -17876,28 +17876,28 @@
         <v>576.3546391557558</v>
       </c>
       <c r="R121" t="n">
-        <v>0.06864747432416556</v>
+        <v>0.1367792493673126</v>
       </c>
       <c r="S121" t="n">
-        <v>0.8305027454038072</v>
+        <v>1.654766518829327</v>
       </c>
       <c r="T121" t="n">
-        <v>0.0615544942834828</v>
+        <v>0.1066155115332002</v>
       </c>
       <c r="U121" t="n">
-        <v>0.7446912941468488</v>
+        <v>1.289843157416562</v>
       </c>
       <c r="V121" t="n">
-        <v>0.3237290349157124</v>
+        <v>0.5607151363592529</v>
       </c>
       <c r="W121" t="n">
-        <v>1.08788267263741</v>
+        <v>0.8703061381099283</v>
       </c>
       <c r="X121" t="n">
         <v>0.6090304352895056</v>
       </c>
       <c r="Y121" t="n">
-        <v>0.3610326243607285</v>
+        <v>0.719353069334815</v>
       </c>
       <c r="Z121" t="n">
         <v>0.8389912101767373</v>
@@ -18017,28 +18017,28 @@
         <v>407.2874684453447</v>
       </c>
       <c r="R122" t="n">
-        <v>0.05514728052067666</v>
+        <v>0.1102454776264171</v>
       </c>
       <c r="S122" t="n">
-        <v>0.5603489892357018</v>
+        <v>1.120199244142384</v>
       </c>
       <c r="T122" t="n">
-        <v>0.04784177069916334</v>
+        <v>0.08286437757501092</v>
       </c>
       <c r="U122" t="n">
-        <v>0.4861180388481911</v>
+        <v>0.8419811417608084</v>
       </c>
       <c r="V122" t="n">
-        <v>0.2517969094738889</v>
+        <v>0.4361250403975968</v>
       </c>
       <c r="W122" t="n">
-        <v>0.9151545376025516</v>
+        <v>0.7321236300820413</v>
       </c>
       <c r="X122" t="n">
         <v>0.4966255727405918</v>
       </c>
       <c r="Y122" t="n">
-        <v>0.2902466735253764</v>
+        <v>0.5802350152204976</v>
       </c>
       <c r="Z122" t="n">
         <v>1.591778155555364</v>
@@ -18166,28 +18166,28 @@
         <v>1292.62649117756</v>
       </c>
       <c r="R123" t="n">
-        <v>0.04312570386505944</v>
+        <v>0.1295450495115041</v>
       </c>
       <c r="S123" t="n">
-        <v>0.7839607873973649</v>
+        <v>2.354935222303749</v>
       </c>
       <c r="T123" t="n">
-        <v>0.01263072062840736</v>
+        <v>0.02187704986460983</v>
       </c>
       <c r="U123" t="n">
-        <v>0.2296076075703193</v>
+        <v>0.3976920421161292</v>
       </c>
       <c r="V123" t="n">
-        <v>0.06571963750101746</v>
+        <v>0.1138297512067711</v>
       </c>
       <c r="W123" t="n">
-        <v>1.62346447469721</v>
+        <v>1.298771579757768</v>
       </c>
       <c r="X123" t="n">
         <v>0.9836345464048456</v>
       </c>
       <c r="Y123" t="n">
-        <v>0.2243898593254934</v>
+        <v>0.6740433855214576</v>
       </c>
       <c r="Z123" t="n">
         <v>0.1584126895994296</v>
@@ -18315,28 +18315,28 @@
         <v>513.0580779015858</v>
       </c>
       <c r="R124" t="n">
-        <v>0.0724065220709654</v>
+        <v>0.1397590621453766</v>
       </c>
       <c r="S124" t="n">
-        <v>0.842554396475881</v>
+        <v>1.626298417461924</v>
       </c>
       <c r="T124" t="n">
-        <v>0.06632541948809087</v>
+        <v>0.1148789963866923</v>
       </c>
       <c r="U124" t="n">
-        <v>0.7717919904097522</v>
+        <v>1.336782940264402</v>
       </c>
       <c r="V124" t="n">
-        <v>0.3489300543377507</v>
+        <v>0.6043645824007533</v>
       </c>
       <c r="W124" t="n">
-        <v>1.006627644151842</v>
+        <v>0.8053021153214734</v>
       </c>
       <c r="X124" t="n">
         <v>0.5671329528751325</v>
       </c>
       <c r="Y124" t="n">
-        <v>0.380922003594202</v>
+        <v>0.735255615795021</v>
       </c>
       <c r="Z124" t="n">
         <v>1.007526740184383</v>
@@ -18456,28 +18456,28 @@
         <v>474.4167535655663</v>
       </c>
       <c r="R125" t="n">
-        <v>0.0507949677053594</v>
+        <v>0.105277307348113</v>
       </c>
       <c r="S125" t="n">
-        <v>0.5764587739092315</v>
+        <v>1.194764565387357</v>
       </c>
       <c r="T125" t="n">
-        <v>0.042243944737659</v>
+        <v>0.07316865859775733</v>
       </c>
       <c r="U125" t="n">
-        <v>0.4794154556769383</v>
+        <v>0.8303719271662426</v>
       </c>
       <c r="V125" t="n">
-        <v>0.2222778045612007</v>
+        <v>0.3849964508948648</v>
       </c>
       <c r="W125" t="n">
-        <v>0.9543092624531119</v>
+        <v>0.7634474099624896</v>
       </c>
       <c r="X125" t="n">
         <v>0.540320475689792</v>
       </c>
       <c r="Y125" t="n">
-        <v>0.2672712970917038</v>
+        <v>0.5539446870498416</v>
       </c>
       <c r="Z125" t="n">
         <v>1.131000314009517</v>
@@ -18603,28 +18603,28 @@
         <v>510.16643802853</v>
       </c>
       <c r="R126" t="n">
-        <v>0.05253751690402794</v>
+        <v>0.1096583727838096</v>
       </c>
       <c r="S126" t="n">
-        <v>0.6115888661652634</v>
+        <v>1.276532349233203</v>
       </c>
       <c r="T126" t="n">
-        <v>0.0438347385633217</v>
+        <v>0.07592399432817196</v>
       </c>
       <c r="U126" t="n">
-        <v>0.5102798844788436</v>
+        <v>0.8838306859977345</v>
       </c>
       <c r="V126" t="n">
-        <v>0.2306123307949913</v>
+        <v>0.3994322737888057</v>
       </c>
       <c r="W126" t="n">
-        <v>1.000207711861101</v>
+        <v>0.8001661694888811</v>
       </c>
       <c r="X126" t="n">
         <v>0.5664991819785514</v>
       </c>
       <c r="Y126" t="n">
-        <v>0.2763972051508234</v>
+        <v>0.5769071236122382</v>
       </c>
       <c r="Z126" t="n">
         <v>1.022835434671043</v>
@@ -18755,28 +18755,28 @@
         <v>665.9472847036207</v>
       </c>
       <c r="R127" t="n">
-        <v>0.04458616308656321</v>
+        <v>0.1076862990656929</v>
       </c>
       <c r="S127" t="n">
-        <v>0.5682951493279613</v>
+        <v>1.372569361694107</v>
       </c>
       <c r="T127" t="n">
-        <v>0.03079674069972735</v>
+        <v>0.05334151959945205</v>
       </c>
       <c r="U127" t="n">
-        <v>0.3925351979892719</v>
+        <v>0.6798909066765274</v>
       </c>
       <c r="V127" t="n">
-        <v>0.1618796770282943</v>
+        <v>0.2803838253258461</v>
       </c>
       <c r="W127" t="n">
-        <v>1.191824609778252</v>
+        <v>0.9534596878226014</v>
       </c>
       <c r="X127" t="n">
         <v>0.6720252225683322</v>
       </c>
       <c r="Y127" t="n">
-        <v>0.2343622577063036</v>
+        <v>0.5660411756910692</v>
       </c>
       <c r="Z127" t="n">
         <v>0.6340650315646472</v>
@@ -18902,28 +18902,28 @@
         <v>1254.76304109255</v>
       </c>
       <c r="R128" t="n">
-        <v>0.04726608369987761</v>
+        <v>0.1327012334701436</v>
       </c>
       <c r="S128" t="n">
-        <v>0.8427234314402596</v>
+        <v>2.365976405754218</v>
       </c>
       <c r="T128" t="n">
-        <v>0.02378420416568981</v>
+        <v>0.04119545003256608</v>
       </c>
       <c r="U128" t="n">
-        <v>0.4240568411771702</v>
+        <v>0.7344879942160246</v>
       </c>
       <c r="V128" t="n">
-        <v>0.1238962155732416</v>
+        <v>0.2145945402383607</v>
       </c>
       <c r="W128" t="n">
-        <v>1.605248148976938</v>
+        <v>1.28419851918155</v>
       </c>
       <c r="X128" t="n">
         <v>0.9749154902106582</v>
       </c>
       <c r="Y128" t="n">
-        <v>0.246217567532938</v>
+        <v>0.6912646945979969</v>
       </c>
       <c r="Z128" t="n">
         <v>0.1841893405705091</v>
@@ -19054,28 +19054,28 @@
         <v>492.0117538705012</v>
       </c>
       <c r="R129" t="n">
-        <v>0.03469894772830311</v>
+        <v>0.0811445288427334</v>
       </c>
       <c r="S129" t="n">
-        <v>0.4265472633158645</v>
+        <v>0.9974935546155196</v>
       </c>
       <c r="T129" t="n">
-        <v>0.02080127669788294</v>
+        <v>0.03602886810303181</v>
       </c>
       <c r="U129" t="n">
-        <v>0.2557059573803951</v>
+        <v>0.4428957099808862</v>
       </c>
       <c r="V129" t="n">
-        <v>0.1094432915354929</v>
+        <v>0.1895613414870465</v>
       </c>
       <c r="W129" t="n">
-        <v>0.9128174027720293</v>
+        <v>0.7302539222176235</v>
       </c>
       <c r="X129" t="n">
         <v>0.5494972796163312</v>
       </c>
       <c r="Y129" t="n">
-        <v>0.1825641333154328</v>
+        <v>0.4269316953775883</v>
       </c>
       <c r="Z129" t="n">
         <v>1.347526381911011</v>
@@ -19206,28 +19206,28 @@
         <v>465.6522538264084</v>
       </c>
       <c r="R130" t="n">
-        <v>0.04215102088149211</v>
+        <v>0.09049994658362012</v>
       </c>
       <c r="S130" t="n">
-        <v>0.4982158302055257</v>
+        <v>1.069689537235188</v>
       </c>
       <c r="T130" t="n">
-        <v>0.03195412487580097</v>
+        <v>0.05534616779628783</v>
       </c>
       <c r="U130" t="n">
-        <v>0.3776907538787153</v>
+        <v>0.6541795752669269</v>
       </c>
       <c r="V130" t="n">
-        <v>0.1681412263824536</v>
+        <v>0.2912291469413502</v>
       </c>
       <c r="W130" t="n">
-        <v>0.8982803635667427</v>
+        <v>0.7186242908533942</v>
       </c>
       <c r="X130" t="n">
         <v>0.5341625188421676</v>
       </c>
       <c r="Y130" t="n">
-        <v>0.2217968532023158</v>
+        <v>0.4762068141518773</v>
       </c>
       <c r="Z130" t="n">
         <v>1.301869052062761</v>
@@ -19358,28 +19358,28 @@
         <v>770.0293529823913</v>
       </c>
       <c r="R131" t="n">
-        <v>0.05336908078967099</v>
+        <v>0.1234949966028084</v>
       </c>
       <c r="S131" t="n">
-        <v>0.7272227363283934</v>
+        <v>1.682779017804283</v>
       </c>
       <c r="T131" t="n">
-        <v>0.04107955212353836</v>
+        <v>0.07115187143014239</v>
       </c>
       <c r="U131" t="n">
-        <v>0.5597620168906154</v>
+        <v>0.9695362534017737</v>
       </c>
       <c r="V131" t="n">
-        <v>0.2157575415248259</v>
+        <v>0.3737030240371503</v>
       </c>
       <c r="W131" t="n">
-        <v>1.28849614380234</v>
+        <v>1.030796915041872</v>
       </c>
       <c r="X131" t="n">
         <v>0.7360061346918944</v>
       </c>
       <c r="Y131" t="n">
-        <v>0.2803044597465638</v>
+        <v>0.6486189717334147</v>
       </c>
       <c r="Z131" t="n">
         <v>0.4915668852030486</v>
@@ -19505,28 +19505,28 @@
         <v>422.6624566241478</v>
       </c>
       <c r="R132" t="n">
-        <v>0.07412469739169793</v>
+        <v>0.139347061847542</v>
       </c>
       <c r="S132" t="n">
-        <v>0.7892855163312689</v>
+        <v>1.483778302370525</v>
       </c>
       <c r="T132" t="n">
-        <v>0.06887416189850017</v>
+        <v>0.1192935477369268</v>
       </c>
       <c r="U132" t="n">
-        <v>0.7333774079195048</v>
+        <v>1.270246931639748</v>
       </c>
       <c r="V132" t="n">
-        <v>0.3624729242649424</v>
+        <v>0.6278215211949459</v>
       </c>
       <c r="W132" t="n">
-        <v>0.9050262698050924</v>
+        <v>0.724021015844074</v>
       </c>
       <c r="X132" t="n">
         <v>0.5103947478558674</v>
       </c>
       <c r="Y132" t="n">
-        <v>0.3901055937844783</v>
+        <v>0.7333597332195815</v>
       </c>
       <c r="Z132" t="n">
         <v>1.188130972176347</v>
@@ -19646,28 +19646,28 @@
         <v>467.1185682957703</v>
       </c>
       <c r="R133" t="n">
-        <v>0.06830672195857702</v>
+        <v>0.1310828744137129</v>
       </c>
       <c r="S133" t="n">
-        <v>0.7767865984953528</v>
+        <v>1.490679353615738</v>
       </c>
       <c r="T133" t="n">
-        <v>0.06231053676231464</v>
+        <v>0.1079250155192173</v>
       </c>
       <c r="U133" t="n">
-        <v>0.7085977560359324</v>
+        <v>1.227327315583531</v>
       </c>
       <c r="V133" t="n">
-        <v>0.327873397367086</v>
+        <v>0.5678933826900128</v>
       </c>
       <c r="W133" t="n">
-        <v>0.9365345999063772</v>
+        <v>0.749227679925102</v>
       </c>
       <c r="X133" t="n">
         <v>0.5398431907618387</v>
       </c>
       <c r="Y133" t="n">
-        <v>0.3594248766785241</v>
+        <v>0.6897483090959429</v>
       </c>
       <c r="Z133" t="n">
         <v>1.161880101773845</v>
@@ -19793,28 +19793,28 @@
         <v>544.3989324383406</v>
       </c>
       <c r="R134" t="n">
-        <v>0.0319494469428017</v>
+        <v>0.08362419687089735</v>
       </c>
       <c r="S134" t="n">
-        <v>0.3880127026860604</v>
+        <v>1.015580980037545</v>
       </c>
       <c r="T134" t="n">
-        <v>0.0124461805487377</v>
+        <v>0.02155741707058919</v>
       </c>
       <c r="U134" t="n">
-        <v>0.1511536697796405</v>
+        <v>0.2618058358088257</v>
       </c>
       <c r="V134" t="n">
-        <v>0.0654680790993868</v>
+        <v>0.1133940392740761</v>
       </c>
       <c r="W134" t="n">
-        <v>1.021995721284316</v>
+        <v>0.8175965770274528</v>
       </c>
       <c r="X134" t="n">
         <v>0.5926520497047932</v>
       </c>
       <c r="Y134" t="n">
-        <v>0.1680570928119102</v>
+        <v>0.4398711326682345</v>
       </c>
       <c r="Z134" t="n">
         <v>0.9676569692153486</v>
@@ -19945,28 +19945,28 @@
         <v>665.5526000559073</v>
       </c>
       <c r="R135" t="n">
-        <v>0.04941131359577357</v>
+        <v>0.1135319657212974</v>
       </c>
       <c r="S135" t="n">
-        <v>0.632166275978121</v>
+        <v>1.452523212834544</v>
       </c>
       <c r="T135" t="n">
-        <v>0.03749509612159812</v>
+        <v>0.06494341151728671</v>
       </c>
       <c r="U135" t="n">
-        <v>0.4797106888625571</v>
+        <v>0.8308832860438146</v>
       </c>
       <c r="V135" t="n">
-        <v>0.197089367672653</v>
+        <v>0.341368798440658</v>
       </c>
       <c r="W135" t="n">
-        <v>1.185996990643733</v>
+        <v>0.9487975925149862</v>
       </c>
       <c r="X135" t="n">
         <v>0.6743436542375542</v>
       </c>
       <c r="Y135" t="n">
-        <v>0.2597258191013567</v>
+        <v>0.5967698619061468</v>
       </c>
       <c r="Z135" t="n">
         <v>0.6427984045101238</v>
@@ -20092,28 +20092,28 @@
         <v>422.6659373340428</v>
       </c>
       <c r="R136" t="n">
-        <v>0.07402464591287303</v>
+        <v>0.1377691540085668</v>
       </c>
       <c r="S136" t="n">
-        <v>0.8322269056136674</v>
+        <v>1.548878691895554</v>
       </c>
       <c r="T136" t="n">
-        <v>0.06900160718863151</v>
+        <v>0.1195142894546196</v>
       </c>
       <c r="U136" t="n">
-        <v>0.7757550654217755</v>
+        <v>1.343647187539433</v>
       </c>
       <c r="V136" t="n">
-        <v>0.3631436423975715</v>
+        <v>0.6289832390782171</v>
       </c>
       <c r="W136" t="n">
-        <v>0.8570763987408017</v>
+        <v>0.6856611189926414</v>
       </c>
       <c r="X136" t="n">
         <v>0.5052444940322635</v>
       </c>
       <c r="Y136" t="n">
-        <v>0.3895790350289136</v>
+        <v>0.7250554651565527</v>
       </c>
       <c r="Z136" t="n">
         <v>1.650810298655011</v>
@@ -20236,28 +20236,28 @@
         <v>629.1173679522966</v>
       </c>
       <c r="R137" t="n">
-        <v>0.05905791580035451</v>
+        <v>0.1240639026295678</v>
       </c>
       <c r="S137" t="n">
-        <v>0.7525864473090158</v>
+        <v>1.580970314545331</v>
       </c>
       <c r="T137" t="n">
-        <v>0.0501528479285505</v>
+        <v>0.08686728075652499</v>
       </c>
       <c r="U137" t="n">
-        <v>0.6391074445053576</v>
+        <v>1.106966565378786</v>
       </c>
       <c r="V137" t="n">
-        <v>0.263685292325203</v>
+        <v>0.4567163235159034</v>
       </c>
       <c r="W137" t="n">
-        <v>1.125460948344714</v>
+        <v>0.9003687586757709</v>
       </c>
       <c r="X137" t="n">
         <v>0.6493628210175656</v>
       </c>
       <c r="Y137" t="n">
-        <v>0.3105048752987891</v>
+        <v>0.6522825279730551</v>
       </c>
       <c r="Z137" t="n">
         <v>0.7534592632234871</v>
@@ -20383,28 +20383,28 @@
         <v>494.7797013173586</v>
       </c>
       <c r="R138" t="n">
-        <v>0.05556164235015371</v>
+        <v>0.1115072567690169</v>
       </c>
       <c r="S138" t="n">
-        <v>0.669205750804499</v>
+        <v>1.343036208612966</v>
       </c>
       <c r="T138" t="n">
-        <v>0.04793054153363085</v>
+        <v>0.08301813317053891</v>
       </c>
       <c r="U138" t="n">
-        <v>0.577293842959826</v>
+        <v>0.9999022669031071</v>
       </c>
       <c r="V138" t="n">
-        <v>0.2521774504766246</v>
+        <v>0.4367841567486981</v>
       </c>
       <c r="W138" t="n">
-        <v>0.93646382466116</v>
+        <v>0.7491710597289281</v>
       </c>
       <c r="X138" t="n">
         <v>0.5560563455008833</v>
       </c>
       <c r="Y138" t="n">
-        <v>0.2923270395834065</v>
+        <v>0.5866742753557808</v>
       </c>
       <c r="Z138" t="n">
         <v>1.196969398364808</v>
@@ -20535,28 +20535,28 @@
         <v>608.1989033494216</v>
       </c>
       <c r="R139" t="n">
-        <v>0.05740877638831397</v>
+        <v>0.1212623052917011</v>
       </c>
       <c r="S139" t="n">
-        <v>0.7144670059607211</v>
+        <v>1.509140616612975</v>
       </c>
       <c r="T139" t="n">
-        <v>0.04835451058196397</v>
+        <v>0.08375246910308853</v>
       </c>
       <c r="U139" t="n">
-        <v>0.6017843363619272</v>
+        <v>1.042321045777977</v>
       </c>
       <c r="V139" t="n">
-        <v>0.2542620583946911</v>
+        <v>0.4403948035766497</v>
       </c>
       <c r="W139" t="n">
-        <v>1.114001774119397</v>
+        <v>0.8912014192955175</v>
       </c>
       <c r="X139" t="n">
         <v>0.6377711937506886</v>
       </c>
       <c r="Y139" t="n">
-        <v>0.3018720172892789</v>
+        <v>0.6376324148062769</v>
       </c>
       <c r="Z139" t="n">
         <v>0.7737190204340079</v>
@@ -20682,28 +20682,28 @@
         <v>732.1387507307827</v>
       </c>
       <c r="R140" t="n">
-        <v>0.05260095460672366</v>
+        <v>0.1202674499205323</v>
       </c>
       <c r="S140" t="n">
-        <v>0.7070742501357246</v>
+        <v>1.616662997926398</v>
       </c>
       <c r="T140" t="n">
-        <v>0.04075762204548292</v>
+        <v>0.07059427217846577</v>
       </c>
       <c r="U140" t="n">
-        <v>0.5478734228416722</v>
+        <v>0.9489446044784433</v>
       </c>
       <c r="V140" t="n">
-        <v>0.2141342552283746</v>
+        <v>0.3708914096964663</v>
       </c>
       <c r="W140" t="n">
-        <v>1.241437633402834</v>
+        <v>0.9931501067222668</v>
       </c>
       <c r="X140" t="n">
         <v>0.7147168721522457</v>
       </c>
       <c r="Y140" t="n">
-        <v>0.2763572964694254</v>
+        <v>0.6318666184256259</v>
       </c>
       <c r="Z140" t="n">
         <v>0.5596783685001662</v>
@@ -20829,28 +20829,28 @@
         <v>633.6692832447311</v>
       </c>
       <c r="R141" t="n">
-        <v>0.05454131204336033</v>
+        <v>0.1180340520467594</v>
       </c>
       <c r="S141" t="n">
-        <v>0.6950961693597688</v>
+        <v>1.504272896231178</v>
       </c>
       <c r="T141" t="n">
-        <v>0.04465160554576234</v>
+        <v>0.07733884944478459</v>
       </c>
       <c r="U141" t="n">
-        <v>0.5690578170533974</v>
+        <v>0.9856370515807192</v>
       </c>
       <c r="V141" t="n">
-        <v>0.2347551873652964</v>
+        <v>0.4066079118570446</v>
       </c>
       <c r="W141" t="n">
-        <v>1.133290162733282</v>
+        <v>0.9066321301866257</v>
       </c>
       <c r="X141" t="n">
         <v>0.6536208235785658</v>
       </c>
       <c r="Y141" t="n">
-        <v>0.2867501800078789</v>
+        <v>0.6205623664601215</v>
       </c>
       <c r="Z141" t="n">
         <v>0.737682096341933</v>
@@ -20976,28 +20976,28 @@
         <v>611.6757288894323</v>
       </c>
       <c r="R142" t="n">
-        <v>0.06042253525347074</v>
+        <v>0.1258849384898442</v>
       </c>
       <c r="S142" t="n">
-        <v>0.7510463931375577</v>
+        <v>1.564737868189833</v>
       </c>
       <c r="T142" t="n">
-        <v>0.05182203811046189</v>
+        <v>0.08975840295909064</v>
       </c>
       <c r="U142" t="n">
-        <v>0.6441430278393327</v>
+        <v>1.115688451558978</v>
       </c>
       <c r="V142" t="n">
-        <v>0.2724897897431153</v>
+        <v>0.4719661603788364</v>
       </c>
       <c r="W142" t="n">
-        <v>1.121616096200002</v>
+        <v>0.897292876960002</v>
       </c>
       <c r="X142" t="n">
         <v>0.6411318138246039</v>
       </c>
       <c r="Y142" t="n">
-        <v>0.3177127825785056</v>
+        <v>0.6619261162172944</v>
       </c>
       <c r="Z142" t="n">
         <v>0.7555506855252948</v>
@@ -21123,28 +21123,28 @@
         <v>459.1699382574389</v>
       </c>
       <c r="R143" t="n">
-        <v>0.0537182641480849</v>
+        <v>0.1067920580561989</v>
       </c>
       <c r="S143" t="n">
-        <v>0.6355805738989808</v>
+        <v>1.263535943010027</v>
       </c>
       <c r="T143" t="n">
-        <v>0.04626290251173554</v>
+        <v>0.08012969765593177</v>
       </c>
       <c r="U143" t="n">
-        <v>0.5473706679647009</v>
+        <v>0.9480738074877758</v>
       </c>
       <c r="V143" t="n">
-        <v>0.2434397617998559</v>
+        <v>0.4216500360198155</v>
       </c>
       <c r="W143" t="n">
-        <v>0.8845307317960555</v>
+        <v>0.7076245854368444</v>
       </c>
       <c r="X143" t="n">
         <v>0.5306403981356845</v>
       </c>
       <c r="Y143" t="n">
-        <v>0.2826705787686848</v>
+        <v>0.5619498942748492</v>
       </c>
       <c r="Z143" t="n">
         <v>1.341268064918048</v>
@@ -21270,28 +21270,28 @@
         <v>589.0389475543313</v>
       </c>
       <c r="R144" t="n">
-        <v>0.05832630842398484</v>
+        <v>0.1224785799249837</v>
       </c>
       <c r="S144" t="n">
-        <v>0.7047018812970557</v>
+        <v>1.47979339039114</v>
       </c>
       <c r="T144" t="n">
-        <v>0.04950899155051159</v>
+        <v>0.08575208879698432</v>
       </c>
       <c r="U144" t="n">
-        <v>0.5981705413816062</v>
+        <v>1.036061769263924</v>
       </c>
       <c r="V144" t="n">
-        <v>0.2603609851346497</v>
+        <v>0.4509584545618984</v>
       </c>
       <c r="W144" t="n">
-        <v>1.111165341726371</v>
+        <v>0.888932273381097</v>
       </c>
       <c r="X144" t="n">
         <v>0.6283782855504324</v>
       </c>
       <c r="Y144" t="n">
-        <v>0.3067300432698713</v>
+        <v>0.644098026004575</v>
       </c>
       <c r="Z144" t="n">
         <v>0.6127353545320087</v>
@@ -21422,28 +21422,28 @@
         <v>533.8687605706282</v>
       </c>
       <c r="R145" t="n">
-        <v>0.05079246878733393</v>
+        <v>0.1080787901352846</v>
       </c>
       <c r="S145" t="n">
-        <v>0.6042289411716413</v>
+        <v>1.285708973902838</v>
       </c>
       <c r="T145" t="n">
-        <v>0.04141397615817324</v>
+        <v>0.07173111084940217</v>
       </c>
       <c r="U145" t="n">
-        <v>0.4926620729646579</v>
+        <v>0.8533157413369926</v>
       </c>
       <c r="V145" t="n">
-        <v>0.2178526257882766</v>
+        <v>0.3773318164275848</v>
       </c>
       <c r="W145" t="n">
-        <v>1.022814355424633</v>
+        <v>0.818251484339706</v>
       </c>
       <c r="X145" t="n">
         <v>0.5888625557407738</v>
       </c>
       <c r="Y145" t="n">
-        <v>0.2671869190566961</v>
+        <v>0.5685338720692983</v>
       </c>
       <c r="Z145" t="n">
         <v>0.9585359262001968</v>
@@ -21569,28 +21569,28 @@
         <v>448.3052765771429</v>
       </c>
       <c r="R146" t="n">
-        <v>0.05899987410647709</v>
+        <v>0.1140246394720201</v>
       </c>
       <c r="S146" t="n">
-        <v>0.7003086974933148</v>
+        <v>1.353434188803276</v>
       </c>
       <c r="T146" t="n">
-        <v>0.05247737358899875</v>
+        <v>0.09089347730391892</v>
       </c>
       <c r="U146" t="n">
-        <v>0.622888806163525</v>
+        <v>1.078875059741147</v>
       </c>
       <c r="V146" t="n">
-        <v>0.2761527359644645</v>
+        <v>0.4783105693396057</v>
       </c>
       <c r="W146" t="n">
-        <v>0.8607160885486025</v>
+        <v>0.6885728708388821</v>
       </c>
       <c r="X146" t="n">
         <v>0.522190440927301</v>
       </c>
       <c r="Y146" t="n">
-        <v>0.310476221307658</v>
+        <v>0.6000341481297221</v>
       </c>
       <c r="Z146" t="n">
         <v>1.522037894908761</v>
@@ -21716,28 +21716,28 @@
         <v>544.0780004292803</v>
       </c>
       <c r="R147" t="n">
-        <v>0.03195385571886441</v>
+        <v>0.08484679685627344</v>
       </c>
       <c r="S147" t="n">
-        <v>0.379544383471723</v>
+        <v>1.007800920355075</v>
       </c>
       <c r="T147" t="n">
-        <v>0.01168523861800267</v>
+        <v>0.02023942698494656</v>
       </c>
       <c r="U147" t="n">
-        <v>0.1387959789895242</v>
+        <v>0.2404016874961184</v>
       </c>
       <c r="V147" t="n">
-        <v>0.06146555077289338</v>
+        <v>0.1064614568538558</v>
       </c>
       <c r="W147" t="n">
-        <v>1.043644637564404</v>
+        <v>0.8349157100515233</v>
       </c>
       <c r="X147" t="n">
         <v>0.5984242868416478</v>
       </c>
       <c r="Y147" t="n">
-        <v>0.1680805506232171</v>
+        <v>0.4463028330505808</v>
       </c>
       <c r="Z147" t="n">
         <v>0.906764956917385</v>
@@ -21865,28 +21865,28 @@
         <v>525.6903078658589</v>
       </c>
       <c r="R148" t="n">
-        <v>0.03658801840391693</v>
+        <v>0.08627242904891445</v>
       </c>
       <c r="S148" t="n">
-        <v>0.4532120610996988</v>
+        <v>1.068647800317883</v>
       </c>
       <c r="T148" t="n">
-        <v>0.02276422700583953</v>
+        <v>0.0394287977691456</v>
       </c>
       <c r="U148" t="n">
-        <v>0.2819781636371285</v>
+        <v>0.4884005060444774</v>
       </c>
       <c r="V148" t="n">
-        <v>0.11975281921827</v>
+        <v>0.2074179672356543</v>
       </c>
       <c r="W148" t="n">
-        <v>0.9669370008973563</v>
+        <v>0.773549600717885</v>
       </c>
       <c r="X148" t="n">
         <v>0.5792903038327308</v>
       </c>
       <c r="Y148" t="n">
-        <v>0.1924738473375372</v>
+        <v>0.4538421883056014</v>
       </c>
       <c r="Z148" t="n">
         <v>1.114227419076153</v>
@@ -22009,28 +22009,28 @@
         <v>591.299133174339</v>
       </c>
       <c r="R149" t="n">
-        <v>0.04750866099737861</v>
+        <v>0.105257974533217</v>
       </c>
       <c r="S149" t="n">
-        <v>0.60182455162074</v>
+        <v>1.333374420538939</v>
       </c>
       <c r="T149" t="n">
-        <v>0.03666941180479041</v>
+        <v>0.06351328432956295</v>
       </c>
       <c r="U149" t="n">
-        <v>0.4645164029950651</v>
+        <v>0.8045660109365926</v>
       </c>
       <c r="V149" t="n">
-        <v>0.1928369759091754</v>
+        <v>0.3340034398526273</v>
       </c>
       <c r="W149" t="n">
-        <v>1.063341734301925</v>
+        <v>0.8506733874415399</v>
       </c>
       <c r="X149" t="n">
         <v>0.6265908897467604</v>
       </c>
       <c r="Y149" t="n">
-        <v>0.2498383820553089</v>
+        <v>0.5535302722433887</v>
       </c>
       <c r="Z149" t="n">
         <v>0.8790240049700396</v>
@@ -22161,28 +22161,28 @@
         <v>602.2130276489805</v>
       </c>
       <c r="R150" t="n">
-        <v>0.06368925138327634</v>
+        <v>0.1284588799241252</v>
       </c>
       <c r="S150" t="n">
-        <v>0.8192771886170195</v>
+        <v>1.652451986973169</v>
       </c>
       <c r="T150" t="n">
-        <v>0.0560218995465139</v>
+        <v>0.09703277635108193</v>
       </c>
       <c r="U150" t="n">
-        <v>0.720646943787203</v>
+        <v>1.248197120958668</v>
       </c>
       <c r="V150" t="n">
-        <v>0.2945895970901064</v>
+        <v>0.510244149541309</v>
       </c>
       <c r="W150" t="n">
-        <v>1.066355969087931</v>
+        <v>0.8530847752703445</v>
       </c>
       <c r="X150" t="n">
         <v>0.6331895210472772</v>
       </c>
       <c r="Y150" t="n">
-        <v>0.3349081529874223</v>
+        <v>0.675497439141177</v>
       </c>
       <c r="Z150" t="n">
         <v>0.8774068495383094</v>
@@ -22308,28 +22308,28 @@
         <v>930.6619575046815</v>
       </c>
       <c r="R151" t="n">
-        <v>0.03910267711002059</v>
+        <v>0.1122678179563154</v>
       </c>
       <c r="S151" t="n">
-        <v>0.5927866771156612</v>
+        <v>1.701951673694884</v>
       </c>
       <c r="T151" t="n">
-        <v>0.01428100419977162</v>
+        <v>0.02473542485710895</v>
       </c>
       <c r="U151" t="n">
-        <v>0.2164964051345732</v>
+        <v>0.3749827733490963</v>
       </c>
       <c r="V151" t="n">
-        <v>0.07487720441555455</v>
+        <v>0.1296911223764612</v>
       </c>
       <c r="W151" t="n">
-        <v>1.398200439941849</v>
+        <v>1.11856035195348</v>
       </c>
       <c r="X151" t="n">
         <v>0.8292876502454331</v>
       </c>
       <c r="Y151" t="n">
-        <v>0.2050205368057563</v>
+        <v>0.5886351013423641</v>
       </c>
       <c r="Z151" t="n">
         <v>0.3687925877173285</v>
@@ -22460,28 +22460,28 @@
         <v>620.6293981810398</v>
       </c>
       <c r="R152" t="n">
-        <v>0.04172001151002772</v>
+        <v>0.1007308735606015</v>
       </c>
       <c r="S152" t="n">
-        <v>0.5240612680195783</v>
+        <v>1.265319625192346</v>
       </c>
       <c r="T152" t="n">
-        <v>0.02770916084203446</v>
+        <v>0.04799367441350168</v>
       </c>
       <c r="U152" t="n">
-        <v>0.3480655311694897</v>
+        <v>0.6028671843490048</v>
       </c>
       <c r="V152" t="n">
-        <v>0.1456921127599102</v>
+        <v>0.2523461415622183</v>
       </c>
       <c r="W152" t="n">
-        <v>1.125286030643143</v>
+        <v>0.9002288245145144</v>
       </c>
       <c r="X152" t="n">
         <v>0.6503732600270722</v>
       </c>
       <c r="Y152" t="n">
-        <v>0.2193598231254639</v>
+        <v>0.5296332816738556</v>
       </c>
       <c r="Z152" t="n">
         <v>0.7431362812050313</v>
@@ -22612,28 +22612,28 @@
         <v>677.0637127164142</v>
       </c>
       <c r="R153" t="n">
-        <v>0.05072630252136494</v>
+        <v>0.1138892538903695</v>
       </c>
       <c r="S153" t="n">
-        <v>0.6753661022144977</v>
+        <v>1.51631279357805</v>
       </c>
       <c r="T153" t="n">
-        <v>0.03945688347253227</v>
+        <v>0.06834132688275062</v>
       </c>
       <c r="U153" t="n">
-        <v>0.5253259211067511</v>
+        <v>0.9098911858898129</v>
       </c>
       <c r="V153" t="n">
-        <v>0.207385043607275</v>
+        <v>0.3592014322576875</v>
       </c>
       <c r="W153" t="n">
-        <v>1.158220908870568</v>
+        <v>0.9265767270964543</v>
       </c>
       <c r="X153" t="n">
         <v>0.6827385445859135</v>
       </c>
       <c r="Y153" t="n">
-        <v>0.2666170141834049</v>
+        <v>0.5986009488280163</v>
       </c>
       <c r="Z153" t="n">
         <v>0.6951873708827524</v>
@@ -22759,28 +22759,28 @@
         <v>378.9583347282959</v>
       </c>
       <c r="R154" t="n">
-        <v>0.05086892801356361</v>
+        <v>0.1026576817622638</v>
       </c>
       <c r="S154" t="n">
-        <v>0.4963651773345565</v>
+        <v>1.001705764255418</v>
       </c>
       <c r="T154" t="n">
-        <v>0.04311330676274532</v>
+        <v>0.07467443779537775</v>
       </c>
       <c r="U154" t="n">
-        <v>0.4206879325442668</v>
+        <v>0.7286528732977786</v>
       </c>
       <c r="V154" t="n">
-        <v>0.2269322310652947</v>
+        <v>0.3930581540800506</v>
       </c>
       <c r="W154" t="n">
-        <v>0.8842718249104454</v>
+        <v>0.7074174599283564</v>
       </c>
       <c r="X154" t="n">
         <v>0.4873484044735777</v>
       </c>
       <c r="Y154" t="n">
-        <v>0.2677549042930982</v>
+        <v>0.5403514252920206</v>
       </c>
       <c r="Z154" t="n">
         <v>1.561526986176187</v>
@@ -22903,28 +22903,28 @@
         <v>799.3230016720851</v>
       </c>
       <c r="R155" t="n">
-        <v>0.04363371039894157</v>
+        <v>0.1113135825051275</v>
       </c>
       <c r="S155" t="n">
-        <v>0.6163184685374431</v>
+        <v>1.572284732829887</v>
       </c>
       <c r="T155" t="n">
-        <v>0.02700949158010499</v>
+        <v>0.04678181170334565</v>
       </c>
       <c r="U155" t="n">
-        <v>0.3815043078946839</v>
+        <v>0.6607848445799929</v>
       </c>
       <c r="V155" t="n">
-        <v>0.1418213054632619</v>
+        <v>0.2456417066581152</v>
       </c>
       <c r="W155" t="n">
-        <v>1.288160887948067</v>
+        <v>1.030528710358454</v>
       </c>
       <c r="X155" t="n">
         <v>0.7606109879195416</v>
       </c>
       <c r="Y155" t="n">
-        <v>0.2291116718221374</v>
+        <v>0.5844848111949662</v>
       </c>
       <c r="Z155" t="n">
         <v>0.4905130448930057</v>
@@ -23055,28 +23055,28 @@
         <v>618.5008542055614</v>
       </c>
       <c r="R156" t="n">
-        <v>0.03597382682581127</v>
+        <v>0.09242590072726238</v>
       </c>
       <c r="S156" t="n">
-        <v>0.4604547707874415</v>
+        <v>1.183025290588741</v>
       </c>
       <c r="T156" t="n">
-        <v>0.01849807752632779</v>
+        <v>0.03203961011794775</v>
       </c>
       <c r="U156" t="n">
-        <v>0.2367701409315243</v>
+        <v>0.4100979138086435</v>
       </c>
       <c r="V156" t="n">
-        <v>0.09726235839645561</v>
+        <v>0.1684633464066345</v>
       </c>
       <c r="W156" t="n">
-        <v>1.099915387680261</v>
+        <v>0.8799323101442086</v>
       </c>
       <c r="X156" t="n">
         <v>0.6495667435386698</v>
       </c>
       <c r="Y156" t="n">
-        <v>0.189149344446427</v>
+        <v>0.4859727216980054</v>
       </c>
       <c r="Z156" t="n">
         <v>0.7940434459215121</v>
@@ -23207,28 +23207,28 @@
         <v>574.5454031266127</v>
       </c>
       <c r="R157" t="n">
-        <v>0.06243142125411627</v>
+        <v>0.1253977326285953</v>
       </c>
       <c r="S157" t="n">
-        <v>0.7890748800507104</v>
+        <v>1.584910271861158</v>
       </c>
       <c r="T157" t="n">
-        <v>0.05486882795659122</v>
+        <v>0.0950355977725716</v>
       </c>
       <c r="U157" t="n">
-        <v>0.6934907610407105</v>
+        <v>1.201161232702118</v>
       </c>
       <c r="V157" t="n">
-        <v>0.2885703979658103</v>
+        <v>0.4998185908371541</v>
       </c>
       <c r="W157" t="n">
-        <v>1.034686954743569</v>
+        <v>0.8277495637948552</v>
       </c>
       <c r="X157" t="n">
         <v>0.618971087305047</v>
       </c>
       <c r="Y157" t="n">
-        <v>0.3283441755148205</v>
+        <v>0.6595014866596418</v>
       </c>
       <c r="Z157" t="n">
         <v>0.9330537963957952</v>
@@ -23354,28 +23354,28 @@
         <v>1042.792822526655</v>
       </c>
       <c r="R158" t="n">
-        <v>0.04984773554516231</v>
+        <v>0.1282032191697223</v>
       </c>
       <c r="S158" t="n">
-        <v>0.8033628320661547</v>
+        <v>2.06616609773323</v>
       </c>
       <c r="T158" t="n">
-        <v>0.03222156143720593</v>
+        <v>0.05580938150844272</v>
       </c>
       <c r="U158" t="n">
-        <v>0.5192934958165725</v>
+        <v>0.8994427187943597</v>
       </c>
       <c r="V158" t="n">
-        <v>0.1686571230966454</v>
+        <v>0.2921227062617882</v>
       </c>
       <c r="W158" t="n">
-        <v>1.472739117832112</v>
+        <v>1.17819129426569</v>
       </c>
       <c r="X158" t="n">
         <v>0.8912471830718696</v>
       </c>
       <c r="Y158" t="n">
-        <v>0.2609176990479977</v>
+        <v>0.6710533305169655</v>
       </c>
       <c r="Z158" t="n">
         <v>0.2970031359163937</v>
@@ -23506,28 +23506,28 @@
         <v>606.7875476519142</v>
       </c>
       <c r="R159" t="n">
-        <v>0.03796728115157546</v>
+        <v>0.09337061563043457</v>
       </c>
       <c r="S159" t="n">
-        <v>0.4885698118207915</v>
+        <v>1.201509898115523</v>
       </c>
       <c r="T159" t="n">
-        <v>0.02268407485752395</v>
+        <v>0.0392899701759272</v>
       </c>
       <c r="U159" t="n">
-        <v>0.2919027607013504</v>
+        <v>0.5055904124043583</v>
       </c>
       <c r="V159" t="n">
-        <v>0.11928043043461</v>
+        <v>0.2065997658614296</v>
       </c>
       <c r="W159" t="n">
-        <v>1.073131516256563</v>
+        <v>0.85850521300525</v>
       </c>
       <c r="X159" t="n">
         <v>0.6414080638120929</v>
       </c>
       <c r="Y159" t="n">
-        <v>0.1996446258723954</v>
+        <v>0.4909738348288294</v>
       </c>
       <c r="Z159" t="n">
         <v>0.8528938169750084</v>
@@ -23658,28 +23658,28 @@
         <v>674.6304139354371</v>
       </c>
       <c r="R160" t="n">
-        <v>0.06497300741565382</v>
+        <v>0.1336365330002521</v>
       </c>
       <c r="S160" t="n">
-        <v>0.8649030556244163</v>
+        <v>1.778933288335427</v>
       </c>
       <c r="T160" t="n">
-        <v>0.05663668074225334</v>
+        <v>0.09809760861764057</v>
       </c>
       <c r="U160" t="n">
-        <v>0.7539321355563038</v>
+        <v>1.305848764242424</v>
       </c>
       <c r="V160" t="n">
-        <v>0.2976869049375569</v>
+        <v>0.5156088440997749</v>
       </c>
       <c r="W160" t="n">
-        <v>1.153291678190649</v>
+        <v>0.9226333425525197</v>
       </c>
       <c r="X160" t="n">
         <v>0.6860171197893332</v>
       </c>
       <c r="Y160" t="n">
-        <v>0.3415033018985038</v>
+        <v>0.702404261232629</v>
       </c>
       <c r="Z160" t="n">
         <v>0.6968402874101338</v>
@@ -23805,28 +23805,28 @@
         <v>702.5799611680491</v>
       </c>
       <c r="R161" t="n">
-        <v>0.06049134023220136</v>
+        <v>0.128342290863289</v>
       </c>
       <c r="S161" t="n">
-        <v>0.8182351653492139</v>
+        <v>1.736019985384916</v>
       </c>
       <c r="T161" t="n">
-        <v>0.05110758221424449</v>
+        <v>0.08852092904707494</v>
       </c>
       <c r="U161" t="n">
-        <v>0.6913059096252242</v>
+        <v>1.197376959043507</v>
       </c>
       <c r="V161" t="n">
-        <v>0.2685720806043953</v>
+        <v>0.4651804891012964</v>
       </c>
       <c r="W161" t="n">
-        <v>1.181979412818463</v>
+        <v>0.9455835302547704</v>
       </c>
       <c r="X161" t="n">
         <v>0.7034594520748249</v>
       </c>
       <c r="Y161" t="n">
-        <v>0.3178840477447315</v>
+        <v>0.6744430981335076</v>
       </c>
       <c r="Z161" t="n">
         <v>0.6536680892574568</v>
@@ -23952,28 +23952,28 @@
         <v>544.3479866770663</v>
       </c>
       <c r="R162" t="n">
-        <v>0.04351837482348679</v>
+        <v>0.09552888691351208</v>
       </c>
       <c r="S162" t="n">
-        <v>0.5555112395490782</v>
+        <v>1.219424452252947</v>
       </c>
       <c r="T162" t="n">
-        <v>0.03261218040956741</v>
+        <v>0.05648595341497314</v>
       </c>
       <c r="U162" t="n">
-        <v>0.4162938721217951</v>
+        <v>0.7210421373945299</v>
       </c>
       <c r="V162" t="n">
-        <v>0.1715431764262968</v>
+        <v>0.2971214972620977</v>
       </c>
       <c r="W162" t="n">
-        <v>0.9703709830175719</v>
+        <v>0.7762967864140576</v>
       </c>
       <c r="X162" t="n">
         <v>0.5963969926866095</v>
       </c>
       <c r="Y162" t="n">
-        <v>0.2289107982470569</v>
+        <v>0.502491047694708</v>
       </c>
       <c r="Z162" t="n">
         <v>1.122638152994195</v>
@@ -24104,28 +24104,28 @@
         <v>737.091896731998</v>
       </c>
       <c r="R163" t="n">
-        <v>0.06256582327921099</v>
+        <v>0.1325055426009478</v>
       </c>
       <c r="S163" t="n">
-        <v>0.8658084678137722</v>
+        <v>1.833659573281426</v>
       </c>
       <c r="T163" t="n">
-        <v>0.05319659664335564</v>
+        <v>0.09213920817603997</v>
       </c>
       <c r="U163" t="n">
-        <v>0.7361537244886683</v>
+        <v>1.275055652995435</v>
       </c>
       <c r="V163" t="n">
-        <v>0.2794756507543786</v>
+        <v>0.484066026584959</v>
       </c>
       <c r="W163" t="n">
-        <v>1.212022383679383</v>
+        <v>0.9696179069435066</v>
       </c>
       <c r="X163" t="n">
         <v>0.7242836181136024</v>
       </c>
       <c r="Y163" t="n">
-        <v>0.3286981739296086</v>
+        <v>0.6961361268134303</v>
       </c>
       <c r="Z163" t="n">
         <v>0.6069613627292476</v>
@@ -24251,28 +24251,28 @@
         <v>667.0501111059193</v>
       </c>
       <c r="R164" t="n">
-        <v>0.04162503259445894</v>
+        <v>0.1005136686230822</v>
       </c>
       <c r="S164" t="n">
-        <v>0.5611952010506109</v>
+        <v>1.355141004232488</v>
       </c>
       <c r="T164" t="n">
-        <v>0.0272916275788866</v>
+        <v>0.04727048558787958</v>
       </c>
       <c r="U164" t="n">
-        <v>0.3679499923844024</v>
+        <v>0.6373080814543662</v>
       </c>
       <c r="V164" t="n">
-        <v>0.1434543705157484</v>
+        <v>0.248470258301087</v>
       </c>
       <c r="W164" t="n">
-        <v>1.125782938990073</v>
+        <v>0.9006263511920587</v>
       </c>
       <c r="X164" t="n">
         <v>0.6796001136257801</v>
       </c>
       <c r="Y164" t="n">
-        <v>0.2187957765170128</v>
+        <v>0.5283351100579925</v>
       </c>
       <c r="Z164" t="n">
         <v>0.7610927572423424</v>
@@ -24398,28 +24398,28 @@
         <v>497.1453700349165</v>
       </c>
       <c r="R165" t="n">
-        <v>0.05611744279453086</v>
+        <v>0.1112358253413046</v>
       </c>
       <c r="S165" t="n">
-        <v>0.6986140348336509</v>
+        <v>1.384790626405979</v>
       </c>
       <c r="T165" t="n">
-        <v>0.04873456610745896</v>
+        <v>0.08441074458294313</v>
       </c>
       <c r="U165" t="n">
-        <v>0.6067035518503232</v>
+        <v>1.050841376937259</v>
       </c>
       <c r="V165" t="n">
-        <v>0.2564050114389528</v>
+        <v>0.4441065071275455</v>
       </c>
       <c r="W165" t="n">
-        <v>0.9086525737152972</v>
+        <v>0.7269220589722378</v>
       </c>
       <c r="X165" t="n">
         <v>0.5631591673322229</v>
       </c>
       <c r="Y165" t="n">
-        <v>0.2952482131456634</v>
+        <v>0.5852401149149307</v>
       </c>
       <c r="Z165" t="n">
         <v>1.384233398737006</v>
@@ -24539,28 +24539,28 @@
         <v>687.0079931818916</v>
       </c>
       <c r="R166" t="n">
-        <v>0.06405001235075375</v>
+        <v>0.1327009854470019</v>
       </c>
       <c r="S166" t="n">
-        <v>0.8602297589775707</v>
+        <v>1.782253157142712</v>
       </c>
       <c r="T166" t="n">
-        <v>0.05545616215666161</v>
+        <v>0.09605289044811635</v>
       </c>
       <c r="U166" t="n">
-        <v>0.7448092397640996</v>
+        <v>1.29004744521817</v>
       </c>
       <c r="V166" t="n">
-        <v>0.2914568236334497</v>
+        <v>0.5048180267457764</v>
       </c>
       <c r="W166" t="n">
-        <v>1.16388677954964</v>
+        <v>0.9311094236397122</v>
       </c>
       <c r="X166" t="n">
         <v>0.6943745800271447</v>
       </c>
       <c r="Y166" t="n">
-        <v>0.3366228824255458</v>
+        <v>0.6974266917741587</v>
       </c>
       <c r="Z166" t="n">
         <v>0.6778674556660396</v>
@@ -24686,28 +24686,28 @@
         <v>987.596618397678</v>
       </c>
       <c r="R167" t="n">
-        <v>0.05004660472231542</v>
+        <v>0.12598655411472</v>
       </c>
       <c r="S167" t="n">
-        <v>0.788583386424771</v>
+        <v>1.985167705961753</v>
       </c>
       <c r="T167" t="n">
-        <v>0.03356744814862773</v>
+        <v>0.05814052567385707</v>
       </c>
       <c r="U167" t="n">
-        <v>0.5289216337762801</v>
+        <v>0.9161191429228557</v>
       </c>
       <c r="V167" t="n">
-        <v>0.1758582298097919</v>
+        <v>0.3045953889596832</v>
       </c>
       <c r="W167" t="n">
-        <v>1.426073113060713</v>
+        <v>1.14085849044857</v>
       </c>
       <c r="X167" t="n">
         <v>0.8649590307488526</v>
       </c>
       <c r="Y167" t="n">
-        <v>0.2621917303778291</v>
+        <v>0.660037435325746</v>
       </c>
       <c r="Z167" t="n">
         <v>0.3418827740463903</v>
@@ -24833,28 +24833,28 @@
         <v>691.2944805599391</v>
       </c>
       <c r="R168" t="n">
-        <v>0.05236643335191134</v>
+        <v>0.116101874862891</v>
       </c>
       <c r="S168" t="n">
-        <v>0.7102946461956107</v>
+        <v>1.574797725371042</v>
       </c>
       <c r="T168" t="n">
-        <v>0.04144570564241178</v>
+        <v>0.0717860679282013</v>
       </c>
       <c r="U168" t="n">
-        <v>0.5621666579385211</v>
+        <v>0.9737012138707123</v>
       </c>
       <c r="V168" t="n">
-        <v>0.21781645573855</v>
+        <v>0.3772691680637461</v>
       </c>
       <c r="W168" t="n">
-        <v>1.159534638091644</v>
+        <v>0.9276277104733149</v>
       </c>
       <c r="X168" t="n">
         <v>0.6965132350305449</v>
       </c>
       <c r="Y168" t="n">
-        <v>0.2752099580785079</v>
+        <v>0.6101693407134853</v>
       </c>
       <c r="Z168" t="n">
         <v>0.6819484755955724</v>
@@ -24980,28 +24980,28 @@
         <v>1457.682236879935</v>
       </c>
       <c r="R169" t="n">
-        <v>0.04782501303444029</v>
+        <v>0.1373731879769226</v>
       </c>
       <c r="S169" t="n">
-        <v>0.9473363937503596</v>
+        <v>2.721141349241896</v>
       </c>
       <c r="T169" t="n">
-        <v>0.02062597854168933</v>
+        <v>0.03572524279003134</v>
       </c>
       <c r="U169" t="n">
-        <v>0.408567376974578</v>
+        <v>0.7076594552351156</v>
       </c>
       <c r="V169" t="n">
-        <v>0.1066241158362312</v>
+        <v>0.1846783859404618</v>
       </c>
       <c r="W169" t="n">
-        <v>1.674191562115665</v>
+        <v>1.339353249692532</v>
       </c>
       <c r="X169" t="n">
         <v>1.082743549703771</v>
       </c>
       <c r="Y169" t="n">
-        <v>0.2472270452209915</v>
+        <v>0.7101381725011774</v>
       </c>
       <c r="Z169" t="n">
         <v>0.1497984713539</v>
@@ -25132,28 +25132,28 @@
         <v>645.8478251835428</v>
       </c>
       <c r="R170" t="n">
-        <v>0.05578253440638289</v>
+        <v>0.1188618557094876</v>
       </c>
       <c r="S170" t="n">
-        <v>0.735505971941888</v>
+        <v>1.567221813077387</v>
       </c>
       <c r="T170" t="n">
-        <v>0.04624595873658108</v>
+        <v>0.08010035017649224</v>
       </c>
       <c r="U170" t="n">
-        <v>0.609763955526579</v>
+        <v>1.056142151596204</v>
       </c>
       <c r="V170" t="n">
-        <v>0.2431188321788199</v>
+        <v>0.4210941696105273</v>
       </c>
       <c r="W170" t="n">
-        <v>1.11429258021794</v>
+        <v>0.8914340641743521</v>
       </c>
       <c r="X170" t="n">
         <v>0.6689028568647222</v>
       </c>
       <c r="Y170" t="n">
-        <v>0.2932533996776484</v>
+        <v>0.6248666119195345</v>
       </c>
       <c r="Z170" t="n">
         <v>0.7699601345088106</v>
@@ -25279,28 +25279,28 @@
         <v>754.1763993014004</v>
       </c>
       <c r="R171" t="n">
-        <v>0.05424931840223399</v>
+        <v>0.1218748146879791</v>
       </c>
       <c r="S171" t="n">
-        <v>0.7558679876997105</v>
+        <v>1.698109278469466</v>
       </c>
       <c r="T171" t="n">
-        <v>0.04282934984446748</v>
+        <v>0.07418260998575989</v>
       </c>
       <c r="U171" t="n">
-        <v>0.5967509903330216</v>
+        <v>1.033603034723837</v>
       </c>
       <c r="V171" t="n">
-        <v>0.2249783266686587</v>
+        <v>0.3896738923919451</v>
       </c>
       <c r="W171" t="n">
-        <v>1.231300231110311</v>
+        <v>0.9850401848882484</v>
       </c>
       <c r="X171" t="n">
         <v>0.7368538316760299</v>
       </c>
       <c r="Y171" t="n">
-        <v>0.2849662888036219</v>
+        <v>0.6401963133021107</v>
       </c>
       <c r="Z171" t="n">
         <v>0.5708926717395235</v>
@@ -25426,28 +25426,28 @@
         <v>694.7897285567831</v>
       </c>
       <c r="R172" t="n">
-        <v>0.05800867833694349</v>
+        <v>0.1240058246890188</v>
       </c>
       <c r="S172" t="n">
-        <v>0.7886481083583133</v>
+        <v>1.685902211016661</v>
       </c>
       <c r="T172" t="n">
-        <v>0.04833582405902353</v>
+        <v>0.08372010309593887</v>
       </c>
       <c r="U172" t="n">
-        <v>0.6571422984104092</v>
+        <v>1.138203848649417</v>
       </c>
       <c r="V172" t="n">
-        <v>0.2540208419632449</v>
+        <v>0.4399770044617645</v>
       </c>
       <c r="W172" t="n">
-        <v>1.162504802109414</v>
+        <v>0.9300038416875315</v>
       </c>
       <c r="X172" t="n">
         <v>0.6996966550040264</v>
       </c>
       <c r="Y172" t="n">
-        <v>0.3048549103938275</v>
+        <v>0.6516918788306154</v>
       </c>
       <c r="Z172" t="n">
         <v>0.6826810662395433</v>
@@ -25573,28 +25573,28 @@
         <v>721.4239695958357</v>
       </c>
       <c r="R173" t="n">
-        <v>0.03660854875996209</v>
+        <v>0.09690567666993791</v>
       </c>
       <c r="S173" t="n">
-        <v>0.5126733287534616</v>
+        <v>1.357086186596356</v>
       </c>
       <c r="T173" t="n">
-        <v>0.01719589025246578</v>
+        <v>0.02978415559864914</v>
       </c>
       <c r="U173" t="n">
-        <v>0.2408146347022788</v>
+        <v>0.4171031825104862</v>
       </c>
       <c r="V173" t="n">
-        <v>0.09035213534193888</v>
+        <v>0.1564944889845777</v>
       </c>
       <c r="W173" t="n">
-        <v>1.171688395931794</v>
+        <v>0.9373507167454354</v>
       </c>
       <c r="X173" t="n">
         <v>0.7146448126176231</v>
       </c>
       <c r="Y173" t="n">
-        <v>0.1923518063717443</v>
+        <v>0.5091701962117895</v>
       </c>
       <c r="Z173" t="n">
         <v>0.6805673912377093</v>
@@ -25725,28 +25725,28 @@
         <v>902.7631496877395</v>
       </c>
       <c r="R174" t="n">
-        <v>0.05722573458779815</v>
+        <v>0.1317894164550711</v>
       </c>
       <c r="S174" t="n">
-        <v>0.8628312297592826</v>
+        <v>1.987078454968986</v>
       </c>
       <c r="T174" t="n">
-        <v>0.04462134000884908</v>
+        <v>0.07728642799713251</v>
       </c>
       <c r="U174" t="n">
-        <v>0.6727862202323142</v>
+        <v>1.165299916074592</v>
       </c>
       <c r="V174" t="n">
-        <v>0.2340378647547438</v>
+        <v>0.4053654726501497</v>
       </c>
       <c r="W174" t="n">
-        <v>1.361778553947397</v>
+        <v>1.089422843157917</v>
       </c>
       <c r="X174" t="n">
         <v>0.8228280307097516</v>
       </c>
       <c r="Y174" t="n">
-        <v>0.3001476138837143</v>
+        <v>0.6912323479819692</v>
       </c>
       <c r="Z174" t="n">
         <v>0.404075555564007</v>
@@ -25872,28 +25872,28 @@
         <v>594.5258050334226</v>
       </c>
       <c r="R175" t="n">
-        <v>0.04724487506076298</v>
+        <v>0.1042478759676548</v>
       </c>
       <c r="S175" t="n">
-        <v>0.6081277684614323</v>
+        <v>1.341860426078356</v>
       </c>
       <c r="T175" t="n">
-        <v>0.03640239210108644</v>
+        <v>0.06305079263612569</v>
       </c>
       <c r="U175" t="n">
-        <v>0.4685652241988226</v>
+        <v>0.8115787749722628</v>
       </c>
       <c r="V175" t="n">
-        <v>0.1914293157062492</v>
+        <v>0.3315653008613664</v>
       </c>
       <c r="W175" t="n">
-        <v>1.050448779154067</v>
+        <v>0.8403590233232539</v>
       </c>
       <c r="X175" t="n">
         <v>0.6360937255967315</v>
       </c>
       <c r="Y175" t="n">
-        <v>0.2484466976344439</v>
+        <v>0.5482084667650865</v>
       </c>
       <c r="Z175" t="n">
         <v>0.8958896244461122</v>
@@ -26019,28 +26019,28 @@
         <v>1170.76354833816</v>
       </c>
       <c r="R176" t="n">
-        <v>0.04459427214074669</v>
+        <v>0.1261849789418018</v>
       </c>
       <c r="S176" t="n">
-        <v>0.7691088595397727</v>
+        <v>2.17628813267036</v>
       </c>
       <c r="T176" t="n">
-        <v>0.02023037847291849</v>
+        <v>0.03504004337144249</v>
       </c>
       <c r="U176" t="n">
-        <v>0.3489094578392593</v>
+        <v>0.6043289082189079</v>
       </c>
       <c r="V176" t="n">
-        <v>0.1056170118018739</v>
+        <v>0.1829340305844473</v>
       </c>
       <c r="W176" t="n">
-        <v>1.543746756900904</v>
+        <v>1.234997405520723</v>
       </c>
       <c r="X176" t="n">
         <v>0.9599910862878817</v>
       </c>
       <c r="Y176" t="n">
-        <v>0.23281392255168</v>
+        <v>0.6587756342747679</v>
       </c>
       <c r="Z176" t="n">
         <v>0.242207832922104</v>
@@ -26171,28 +26171,28 @@
         <v>600.3646172907607</v>
       </c>
       <c r="R177" t="n">
-        <v>0.05448967096197216</v>
+        <v>0.1139554426926148</v>
       </c>
       <c r="S177" t="n">
-        <v>0.71451554979541</v>
+        <v>1.494282023551167</v>
       </c>
       <c r="T177" t="n">
-        <v>0.04547583647541755</v>
+        <v>0.07876645929211717</v>
       </c>
       <c r="U177" t="n">
-        <v>0.5963183797589058</v>
+        <v>1.032853731229577</v>
       </c>
       <c r="V177" t="n">
-        <v>0.239135945492677</v>
+        <v>0.4141956075093382</v>
       </c>
       <c r="W177" t="n">
-        <v>1.041189835260779</v>
+        <v>0.8329518682086233</v>
       </c>
       <c r="X177" t="n">
         <v>0.6384197190346428</v>
       </c>
       <c r="Y177" t="n">
-        <v>0.2865354437651702</v>
+        <v>0.5992378512282176</v>
       </c>
       <c r="Z177" t="n">
         <v>0.9272453500160622</v>
@@ -26318,28 +26318,28 @@
         <v>692.4616180294012</v>
       </c>
       <c r="R178" t="n">
-        <v>0.06511369737001786</v>
+        <v>0.133917240231041</v>
       </c>
       <c r="S178" t="n">
-        <v>0.8867116014131389</v>
+        <v>1.823671137384559</v>
       </c>
       <c r="T178" t="n">
-        <v>0.05671221978843581</v>
+        <v>0.09822844608358389</v>
       </c>
       <c r="U178" t="n">
-        <v>0.7723011479832362</v>
+        <v>1.337664827050735</v>
       </c>
       <c r="V178" t="n">
-        <v>0.2980465903768786</v>
+        <v>0.5162318375554229</v>
       </c>
       <c r="W178" t="n">
-        <v>1.156310612276946</v>
+        <v>0.9250484898215572</v>
       </c>
       <c r="X178" t="n">
         <v>0.6998895444544183</v>
       </c>
       <c r="Y178" t="n">
-        <v>0.3421998920226187</v>
+        <v>0.7037914754957612</v>
       </c>
       <c r="Z178" t="n">
         <v>0.6882379862442605</v>
@@ -26465,28 +26465,28 @@
         <v>605.4699797455413</v>
       </c>
       <c r="R179" t="n">
-        <v>0.0613947876527499</v>
+        <v>0.1232170012275655</v>
       </c>
       <c r="S179" t="n">
-        <v>0.8284902206915874</v>
+        <v>1.66274832836577</v>
       </c>
       <c r="T179" t="n">
-        <v>0.05369774463275617</v>
+        <v>0.09300722195579264</v>
       </c>
       <c r="U179" t="n">
-        <v>0.7246226919630044</v>
+        <v>1.255083318797255</v>
       </c>
       <c r="V179" t="n">
-        <v>0.2823628016977121</v>
+        <v>0.4890667187079329</v>
       </c>
       <c r="W179" t="n">
-        <v>1.020198006330997</v>
+        <v>0.8161584050647975</v>
       </c>
       <c r="X179" t="n">
         <v>0.6392778989056547</v>
       </c>
       <c r="Y179" t="n">
-        <v>0.3228367293603551</v>
+        <v>0.6479210238968289</v>
       </c>
       <c r="Z179" t="n">
         <v>1.061957317094228</v>
@@ -26612,28 +26612,28 @@
         <v>1038.385761502041</v>
       </c>
       <c r="R180" t="n">
-        <v>0.04430044119016305</v>
+        <v>0.1207226750629842</v>
       </c>
       <c r="S180" t="n">
-        <v>0.7202991324327894</v>
+        <v>1.962879731593775</v>
       </c>
       <c r="T180" t="n">
-        <v>0.02313660233976278</v>
+        <v>0.04007377076698607</v>
       </c>
       <c r="U180" t="n">
-        <v>0.3761875535558799</v>
+        <v>0.6515759559338218</v>
       </c>
       <c r="V180" t="n">
-        <v>0.1211129312063721</v>
+        <v>0.2097737503030307</v>
       </c>
       <c r="W180" t="n">
-        <v>1.451990696816801</v>
+        <v>1.161592557453441</v>
       </c>
       <c r="X180" t="n">
         <v>0.8958828677164544</v>
       </c>
       <c r="Y180" t="n">
-        <v>0.2318990579293142</v>
+        <v>0.6319457293357423</v>
       </c>
       <c r="Z180" t="n">
         <v>0.3185833151393564</v>
@@ -26759,28 +26759,28 @@
         <v>977.7407518368065</v>
       </c>
       <c r="R181" t="n">
-        <v>0.05535710020852053</v>
+        <v>0.1311649063406439</v>
       </c>
       <c r="S181" t="n">
-        <v>0.8788821445527211</v>
+        <v>2.082451821726354</v>
       </c>
       <c r="T181" t="n">
-        <v>0.04140713382230297</v>
+        <v>0.07171925957603242</v>
       </c>
       <c r="U181" t="n">
-        <v>0.6574042071648419</v>
+        <v>1.138657487919042</v>
       </c>
       <c r="V181" t="n">
-        <v>0.2169617109494744</v>
+        <v>0.3757887066615624</v>
       </c>
       <c r="W181" t="n">
-        <v>1.400140713708351</v>
+        <v>1.120112570966681</v>
       </c>
       <c r="X181" t="n">
         <v>0.8634771973455064</v>
       </c>
       <c r="Y181" t="n">
-        <v>0.2900556031234651</v>
+        <v>0.6872671414138197</v>
       </c>
       <c r="Z181" t="n">
         <v>0.3706040720577518</v>
@@ -26906,28 +26906,28 @@
         <v>614.5255735622602</v>
       </c>
       <c r="R182" t="n">
-        <v>0.06048101029887044</v>
+        <v>0.1227968419334835</v>
       </c>
       <c r="S182" t="n">
-        <v>0.8087557434780918</v>
+        <v>1.642046829309181</v>
       </c>
       <c r="T182" t="n">
-        <v>0.05243607596855394</v>
+        <v>0.09082194772707687</v>
       </c>
       <c r="U182" t="n">
-        <v>0.7011783929444969</v>
+        <v>1.214476601749364</v>
       </c>
       <c r="V182" t="n">
-        <v>0.2757138861163035</v>
+        <v>0.4775504591056972</v>
       </c>
       <c r="W182" t="n">
-        <v>1.044763620362661</v>
+        <v>0.8358108962901291</v>
       </c>
       <c r="X182" t="n">
         <v>0.6480764371133466</v>
       </c>
       <c r="Y182" t="n">
-        <v>0.3180149177398794</v>
+        <v>0.6456775009746001</v>
       </c>
       <c r="Z182" t="n">
         <v>0.9235461386477641</v>
@@ -27053,28 +27053,28 @@
         <v>1086.790948377705</v>
       </c>
       <c r="R183" t="n">
-        <v>0.04763809035666063</v>
+        <v>0.1260424982093849</v>
       </c>
       <c r="S183" t="n">
-        <v>0.7944456593636174</v>
+        <v>2.101971654365275</v>
       </c>
       <c r="T183" t="n">
-        <v>0.02813009700368507</v>
+        <v>0.04872275723222356</v>
       </c>
       <c r="U183" t="n">
-        <v>0.4691169040307782</v>
+        <v>0.8125343124707206</v>
       </c>
       <c r="V183" t="n">
-        <v>0.1471231814138916</v>
+        <v>0.2548248251800334</v>
       </c>
       <c r="W183" t="n">
-        <v>1.48143371822906</v>
+        <v>1.185146974583248</v>
       </c>
       <c r="X183" t="n">
         <v>0.9211398025816958</v>
       </c>
       <c r="Y183" t="n">
-        <v>0.2491519104550617</v>
+        <v>0.6592146954733287</v>
       </c>
       <c r="Z183" t="n">
         <v>0.2928226146563421</v>
@@ -27200,28 +27200,28 @@
         <v>1157.738072323247</v>
       </c>
       <c r="R184" t="n">
-        <v>0.05049044757641762</v>
+        <v>0.1326077741269051</v>
       </c>
       <c r="S184" t="n">
-        <v>0.8612719981515737</v>
+        <v>2.262039020744517</v>
       </c>
       <c r="T184" t="n">
-        <v>0.03118989415838307</v>
+        <v>0.0540224813650152</v>
       </c>
       <c r="U184" t="n">
-        <v>0.5320408860164961</v>
+        <v>0.9215218462845333</v>
       </c>
       <c r="V184" t="n">
-        <v>0.1628829570131689</v>
+        <v>0.2821215572338659</v>
       </c>
       <c r="W184" t="n">
-        <v>1.542710973163539</v>
+        <v>1.234168778530831</v>
       </c>
       <c r="X184" t="n">
         <v>0.95889102514237</v>
       </c>
       <c r="Y184" t="n">
-        <v>0.263676220265559</v>
+        <v>0.6925174629654608</v>
       </c>
       <c r="Z184" t="n">
         <v>0.2272541795460266</v>
@@ -27347,28 +27347,28 @@
         <v>502.0891203121045</v>
       </c>
       <c r="R185" t="n">
-        <v>0.04573455588843525</v>
+        <v>0.09682809191018027</v>
       </c>
       <c r="S185" t="n">
-        <v>0.5608291651632076</v>
+        <v>1.18737389913224</v>
       </c>
       <c r="T185" t="n">
-        <v>0.03602153339739648</v>
+        <v>0.06239112601082986</v>
       </c>
       <c r="U185" t="n">
-        <v>0.4417212785982002</v>
+        <v>0.7650836973163698</v>
       </c>
       <c r="V185" t="n">
-        <v>0.1895143468321563</v>
+        <v>0.3282484774765247</v>
       </c>
       <c r="W185" t="n">
-        <v>0.9301886825704705</v>
+        <v>0.7441509460563764</v>
       </c>
       <c r="X185" t="n">
         <v>0.5768730046090889</v>
       </c>
       <c r="Y185" t="n">
-        <v>0.2406159224604804</v>
+        <v>0.5094261921311799</v>
       </c>
       <c r="Z185" t="n">
         <v>1.160972132839433</v>
@@ -27494,28 +27494,28 @@
         <v>602.57582753922</v>
       </c>
       <c r="R186" t="n">
-        <v>0.06975605204416062</v>
+        <v>0.1362524155603276</v>
       </c>
       <c r="S186" t="n">
-        <v>0.9266650889535128</v>
+        <v>1.810027274843623</v>
       </c>
       <c r="T186" t="n">
-        <v>0.0630069338249455</v>
+        <v>0.1091312106139357</v>
       </c>
       <c r="U186" t="n">
-        <v>0.8370073165926657</v>
+        <v>1.449739198645386</v>
       </c>
       <c r="V186" t="n">
-        <v>0.3313195160035065</v>
+        <v>0.5738622352572029</v>
       </c>
       <c r="W186" t="n">
-        <v>1.030360238441901</v>
+        <v>0.8242881907535206</v>
       </c>
       <c r="X186" t="n">
         <v>0.6449929980777231</v>
       </c>
       <c r="Y186" t="n">
-        <v>0.366809492202848</v>
+        <v>0.7164780388009212</v>
       </c>
       <c r="Z186" t="n">
         <v>0.9422257641784437</v>
@@ -27635,28 +27635,28 @@
         <v>835.8442899432383</v>
       </c>
       <c r="R187" t="n">
-        <v>0.04791985649763512</v>
+        <v>0.1155493516227114</v>
       </c>
       <c r="S187" t="n">
-        <v>0.7148880254981262</v>
+        <v>1.723812504180297</v>
       </c>
       <c r="T187" t="n">
-        <v>0.03344408948532161</v>
+        <v>0.05792686220145709</v>
       </c>
       <c r="U187" t="n">
-        <v>0.4989326104915218</v>
+        <v>0.8641766309242884</v>
       </c>
       <c r="V187" t="n">
-        <v>0.1755449956924165</v>
+        <v>0.3040528515537251</v>
       </c>
       <c r="W187" t="n">
-        <v>1.272672079523839</v>
+        <v>1.018137663619071</v>
       </c>
       <c r="X187" t="n">
         <v>0.7907487953240917</v>
       </c>
       <c r="Y187" t="n">
-        <v>0.2515269852435537</v>
+        <v>0.6065080779601718</v>
       </c>
       <c r="Z187" t="n">
         <v>0.5337849280352397</v>
@@ -27782,28 +27782,28 @@
         <v>710.042891624695</v>
       </c>
       <c r="R188" t="n">
-        <v>0.04329392217572598</v>
+        <v>0.1031659014062463</v>
       </c>
       <c r="S188" t="n">
-        <v>0.6126827510281067</v>
+        <v>1.459973250501957</v>
       </c>
       <c r="T188" t="n">
-        <v>0.02927595263654695</v>
+        <v>0.05070743740647936</v>
       </c>
       <c r="U188" t="n">
-        <v>0.4143046020992059</v>
+        <v>0.7175966206454321</v>
       </c>
       <c r="V188" t="n">
-        <v>0.1538375830703878</v>
+        <v>0.2664545099915094</v>
       </c>
       <c r="W188" t="n">
-        <v>1.139578746539693</v>
+        <v>0.9116629972317546</v>
       </c>
       <c r="X188" t="n">
         <v>0.7143614149290364</v>
       </c>
       <c r="Y188" t="n">
-        <v>0.2274983988338871</v>
+        <v>0.5421102132745759</v>
       </c>
       <c r="Z188" t="n">
         <v>0.7326900645964309</v>
@@ -27934,28 +27934,28 @@
         <v>621.437578506617</v>
       </c>
       <c r="R189" t="n">
-        <v>0.04066183525288157</v>
+        <v>0.0947249296945203</v>
       </c>
       <c r="S189" t="n">
-        <v>0.5539466907490559</v>
+        <v>1.290462198997718</v>
       </c>
       <c r="T189" t="n">
-        <v>0.02734208455741512</v>
+        <v>0.04735787963828739</v>
       </c>
       <c r="U189" t="n">
-        <v>0.3724882845195143</v>
+        <v>0.6451686340119706</v>
       </c>
       <c r="V189" t="n">
-        <v>0.1437613628328932</v>
+        <v>0.2490019845919149</v>
       </c>
       <c r="W189" t="n">
-        <v>1.036059911461229</v>
+        <v>0.8288479291689838</v>
       </c>
       <c r="X189" t="n">
         <v>0.6562598079159541</v>
       </c>
       <c r="Y189" t="n">
-        <v>0.2137949957314252</v>
+        <v>0.4980521861286217</v>
       </c>
       <c r="Z189" t="n">
         <v>0.9384613064831884</v>
@@ -28086,28 +28086,28 @@
         <v>1094.87293335189</v>
       </c>
       <c r="R190" t="n">
-        <v>0.04733656658500772</v>
+        <v>0.1265868879109426</v>
       </c>
       <c r="S190" t="n">
-        <v>0.785573804383863</v>
+        <v>2.100772199917182</v>
       </c>
       <c r="T190" t="n">
-        <v>0.02710045481785136</v>
+        <v>0.04693936465274333</v>
       </c>
       <c r="U190" t="n">
-        <v>0.4497454912273927</v>
+        <v>0.7789820412808672</v>
       </c>
       <c r="V190" t="n">
-        <v>0.1417157924577538</v>
+        <v>0.2454589527717158</v>
       </c>
       <c r="W190" t="n">
-        <v>1.498326823016345</v>
+        <v>1.198661458413076</v>
       </c>
       <c r="X190" t="n">
         <v>0.9349271910687588</v>
       </c>
       <c r="Y190" t="n">
-        <v>0.2475360318087629</v>
+        <v>0.6619579359695187</v>
       </c>
       <c r="Z190" t="n">
         <v>0.2621023438966263</v>
@@ -28233,28 +28233,28 @@
         <v>658.5484268094187</v>
       </c>
       <c r="R191" t="n">
-        <v>0.06491964735182411</v>
+        <v>0.1302166522794533</v>
       </c>
       <c r="S191" t="n">
-        <v>0.9086312583242271</v>
+        <v>1.822544105549942</v>
       </c>
       <c r="T191" t="n">
-        <v>0.05720109445360286</v>
+        <v>0.09907520184218649</v>
       </c>
       <c r="U191" t="n">
-        <v>0.8006005046396751</v>
+        <v>1.3866807506012</v>
       </c>
       <c r="V191" t="n">
-        <v>0.3006860768085487</v>
+        <v>0.5208035621609644</v>
       </c>
       <c r="W191" t="n">
-        <v>1.068526076695435</v>
+        <v>0.8548208613563484</v>
       </c>
       <c r="X191" t="n">
         <v>0.6803421746847327</v>
       </c>
       <c r="Y191" t="n">
-        <v>0.3412598002971422</v>
+        <v>0.6845032369233905</v>
       </c>
       <c r="Z191" t="n">
         <v>0.9333216318146712</v>
@@ -28380,28 +28380,28 @@
         <v>1027.490821699198</v>
       </c>
       <c r="R192" t="n">
-        <v>0.05399639978830349</v>
+        <v>0.1300118433726144</v>
       </c>
       <c r="S192" t="n">
-        <v>0.891537827438555</v>
+        <v>2.146633420675029</v>
       </c>
       <c r="T192" t="n">
-        <v>0.03910708948450144</v>
+        <v>0.06773546592329907</v>
       </c>
       <c r="U192" t="n">
-        <v>0.6456995231746914</v>
+        <v>1.118384380561563</v>
       </c>
       <c r="V192" t="n">
-        <v>0.204751010605378</v>
+        <v>0.3546391532695887</v>
       </c>
       <c r="W192" t="n">
-        <v>1.413220612130041</v>
+        <v>1.130576489704033</v>
       </c>
       <c r="X192" t="n">
         <v>0.8959857834794291</v>
       </c>
       <c r="Y192" t="n">
-        <v>0.2827062195484707</v>
+        <v>0.680696433104814</v>
       </c>
       <c r="Z192" t="n">
         <v>0.3633959567642358</v>
@@ -28526,28 +28526,28 @@
         <v>628.8426338325594</v>
       </c>
       <c r="R193" t="n">
-        <v>0.04850562396920253</v>
+        <v>0.1098490849476205</v>
       </c>
       <c r="S193" t="n">
-        <v>0.610099993952905</v>
+        <v>1.381673310806752</v>
       </c>
       <c r="T193" t="n">
-        <v>0.03688303582721236</v>
+        <v>0.06388329199011501</v>
       </c>
       <c r="U193" t="n">
-        <v>0.4639119774942872</v>
+        <v>0.803519115259855</v>
       </c>
       <c r="V193" t="n">
-        <v>0.1939178104696921</v>
+        <v>0.3358755002260186</v>
       </c>
       <c r="W193" t="n">
-        <v>1.135237622468376</v>
+        <v>0.9081900979747008</v>
       </c>
       <c r="X193" t="n">
         <v>0.6742478761346536</v>
       </c>
       <c r="Y193" t="n">
-        <v>0.2550252218835558</v>
+        <v>0.5775471990682868</v>
       </c>
       <c r="Z193" t="n">
         <v>0.6835518434954735</v>
@@ -28678,28 +28678,28 @@
         <v>605.631417133817</v>
       </c>
       <c r="R194" t="n">
-        <v>0.05093101759058534</v>
+        <v>0.1073878279236939</v>
       </c>
       <c r="S194" t="n">
-        <v>0.6949086434312481</v>
+        <v>1.465211836593598</v>
       </c>
       <c r="T194" t="n">
-        <v>0.04139926755438243</v>
+        <v>0.07170563480032811</v>
       </c>
       <c r="U194" t="n">
-        <v>0.5648563530876931</v>
+        <v>0.9783599025259498</v>
       </c>
       <c r="V194" t="n">
-        <v>0.2176926116690661</v>
+        <v>0.3770546638431839</v>
       </c>
       <c r="W194" t="n">
-        <v>1.007850489688084</v>
+        <v>0.8062803917504675</v>
       </c>
       <c r="X194" t="n">
         <v>0.6462720376887114</v>
       </c>
       <c r="Y194" t="n">
-        <v>0.2678140674757902</v>
+        <v>0.5646847904124933</v>
       </c>
       <c r="Z194" t="n">
         <v>1.032927277863392</v>
@@ -28825,28 +28825,28 @@
         <v>744.5358801773235</v>
       </c>
       <c r="R195" t="n">
-        <v>0.05383301553367609</v>
+        <v>0.1177918418251006</v>
       </c>
       <c r="S195" t="n">
-        <v>0.7870062717424967</v>
+        <v>1.722045799542152</v>
       </c>
       <c r="T195" t="n">
-        <v>0.04306915474644372</v>
+        <v>0.07459796425988681</v>
       </c>
       <c r="U195" t="n">
-        <v>0.6296451084538512</v>
+        <v>1.090577318579286</v>
       </c>
       <c r="V195" t="n">
-        <v>0.226256075401303</v>
+        <v>0.3918870181161917</v>
       </c>
       <c r="W195" t="n">
-        <v>1.156289167261711</v>
+        <v>0.925031333809369</v>
       </c>
       <c r="X195" t="n">
         <v>0.7358778452607979</v>
       </c>
       <c r="Y195" t="n">
-        <v>0.2828020863974038</v>
+        <v>0.6187983024635266</v>
       </c>
       <c r="Z195" t="n">
         <v>0.7056120595457342</v>
@@ -28972,28 +28972,28 @@
         <v>678.2725324286299</v>
       </c>
       <c r="R196" t="n">
-        <v>0.05468116469208952</v>
+        <v>0.1158339692344946</v>
       </c>
       <c r="S196" t="n">
-        <v>0.7773056186625927</v>
+        <v>1.646607120111105</v>
       </c>
       <c r="T196" t="n">
-        <v>0.04503992034909069</v>
+        <v>0.07801143041348046</v>
       </c>
       <c r="U196" t="n">
-        <v>0.6402530624320909</v>
+        <v>1.10895083383395</v>
       </c>
       <c r="V196" t="n">
-        <v>0.2367274562914191</v>
+        <v>0.4100239818432786</v>
       </c>
       <c r="W196" t="n">
-        <v>1.083140969787361</v>
+        <v>0.8665127758298887</v>
       </c>
       <c r="X196" t="n">
         <v>0.6948159819367651</v>
       </c>
       <c r="Y196" t="n">
-        <v>0.2874013302928021</v>
+        <v>0.6088172598105851</v>
       </c>
       <c r="Z196" t="n">
         <v>0.852135602410285</v>
@@ -29119,28 +29119,28 @@
         <v>1179.993382103823</v>
       </c>
       <c r="R197" t="n">
-        <v>0.04496164713025769</v>
+        <v>0.1254880831464071</v>
       </c>
       <c r="S197" t="n">
-        <v>0.7888970710396106</v>
+        <v>2.201813936170365</v>
       </c>
       <c r="T197" t="n">
-        <v>0.02115964216315785</v>
+        <v>0.03664957529656603</v>
       </c>
       <c r="U197" t="n">
-        <v>0.3712670863325155</v>
+        <v>0.6430534567059777</v>
       </c>
       <c r="V197" t="n">
-        <v>0.11044400158203</v>
+        <v>0.1912946221312935</v>
       </c>
       <c r="W197" t="n">
-        <v>1.526531312689396</v>
+        <v>1.221225050151517</v>
       </c>
       <c r="X197" t="n">
         <v>0.9784596673605107</v>
       </c>
       <c r="Y197" t="n">
-        <v>0.2346799718300989</v>
+        <v>0.6549924590728208</v>
       </c>
       <c r="Z197" t="n">
         <v>0.2569575467863762</v>
@@ -29271,28 +29271,28 @@
         <v>713.0052843667512</v>
       </c>
       <c r="R198" t="n">
-        <v>0.06135125794607131</v>
+        <v>0.1307639295080136</v>
       </c>
       <c r="S198" t="n">
-        <v>0.8191692742847931</v>
+        <v>1.745975499505903</v>
       </c>
       <c r="T198" t="n">
-        <v>0.05174008289818734</v>
+        <v>0.08961645236748601</v>
       </c>
       <c r="U198" t="n">
-        <v>0.6908397248577892</v>
+        <v>1.196569503340595</v>
       </c>
       <c r="V198" t="n">
-        <v>0.2718747244339599</v>
+        <v>0.4709008360134063</v>
       </c>
       <c r="W198" t="n">
-        <v>1.212073582074454</v>
+        <v>0.9696588656595636</v>
       </c>
       <c r="X198" t="n">
         <v>0.7294096597057825</v>
       </c>
       <c r="Y198" t="n">
-        <v>0.3223778435103608</v>
+        <v>0.68711539119197</v>
       </c>
       <c r="Z198" t="n">
         <v>0.5629407848900215</v>
@@ -29423,28 +29423,28 @@
         <v>677.8520729986424</v>
       </c>
       <c r="R199" t="n">
-        <v>0.0684212353038935</v>
+        <v>0.1378607640468585</v>
       </c>
       <c r="S199" t="n">
-        <v>0.9289794106232449</v>
+        <v>1.871784552902292</v>
       </c>
       <c r="T199" t="n">
-        <v>0.06063151773054709</v>
+        <v>0.1050168692493208</v>
       </c>
       <c r="U199" t="n">
-        <v>0.8232156487141244</v>
+        <v>1.425851329158636</v>
       </c>
       <c r="V199" t="n">
-        <v>0.3186770021790258</v>
+        <v>0.5519647589778104</v>
       </c>
       <c r="W199" t="n">
-        <v>1.133125360368167</v>
+        <v>0.9065002882945337</v>
       </c>
       <c r="X199" t="n">
         <v>0.7022392216560782</v>
       </c>
       <c r="Y199" t="n">
-        <v>0.3596194680286748</v>
+        <v>0.7245910485006504</v>
       </c>
       <c r="Z199" t="n">
         <v>0.7192814421699477</v>
@@ -29570,28 +29570,28 @@
         <v>666.5557018971555</v>
       </c>
       <c r="R200" t="n">
-        <v>0.05626415467149278</v>
+        <v>0.1183234206049067</v>
       </c>
       <c r="S200" t="n">
-        <v>0.7818604603858016</v>
+        <v>1.644251204851892</v>
       </c>
       <c r="T200" t="n">
-        <v>0.04692047504856837</v>
+        <v>0.08126864669938819</v>
       </c>
       <c r="U200" t="n">
-        <v>0.6520184020747656</v>
+        <v>1.129328999863366</v>
       </c>
       <c r="V200" t="n">
-        <v>0.2466313017805046</v>
+        <v>0.4271779454206865</v>
       </c>
       <c r="W200" t="n">
-        <v>1.088437646430569</v>
+        <v>0.8707501171444555</v>
       </c>
       <c r="X200" t="n">
         <v>0.6921859746797767</v>
       </c>
       <c r="Y200" t="n">
-        <v>0.2957451239751104</v>
+        <v>0.6219514875905063</v>
       </c>
       <c r="Z200" t="n">
         <v>0.8164373299486781</v>
@@ -29717,28 +29717,28 @@
         <v>737.1421633166062</v>
       </c>
       <c r="R201" t="n">
-        <v>0.04209127273960705</v>
+        <v>0.102136074066422</v>
       </c>
       <c r="S201" t="n">
-        <v>0.611934778191371</v>
+        <v>1.484883011635844</v>
       </c>
       <c r="T201" t="n">
-        <v>0.02708417744019075</v>
+        <v>0.04691117140762116</v>
       </c>
       <c r="U201" t="n">
-        <v>0.3937573999458394</v>
+        <v>0.6820078225624127</v>
       </c>
       <c r="V201" t="n">
-        <v>0.1422904007902608</v>
+        <v>0.2464542035980705</v>
       </c>
       <c r="W201" t="n">
-        <v>1.150454014289146</v>
+        <v>0.9203632114313167</v>
       </c>
       <c r="X201" t="n">
         <v>0.7360334668062234</v>
       </c>
       <c r="Y201" t="n">
-        <v>0.22113221201259</v>
+        <v>0.5365857222781731</v>
       </c>
       <c r="Z201" t="n">
         <v>0.7085733054776833</v>
@@ -29864,28 +29864,28 @@
         <v>800.1177842455157</v>
       </c>
       <c r="R202" t="n">
-        <v>0.06207292453165326</v>
+        <v>0.1311429824650962</v>
       </c>
       <c r="S202" t="n">
-        <v>0.9384441485520708</v>
+        <v>1.982673854125856</v>
       </c>
       <c r="T202" t="n">
-        <v>0.05244498527467804</v>
+        <v>0.09083737909794398</v>
       </c>
       <c r="U202" t="n">
-        <v>0.7928849804204687</v>
+        <v>1.373317070646506</v>
       </c>
       <c r="V202" t="n">
-        <v>0.275375812853412</v>
+        <v>0.4769648990376882</v>
       </c>
       <c r="W202" t="n">
-        <v>1.200765774061997</v>
+        <v>0.9606126192495978</v>
       </c>
       <c r="X202" t="n">
         <v>0.7733041434314625</v>
       </c>
       <c r="Y202" t="n">
-        <v>0.3259297711605172</v>
+        <v>0.6885997814129104</v>
       </c>
       <c r="Z202" t="n">
         <v>0.6261340694999447</v>
@@ -30011,28 +30011,28 @@
         <v>639.2415645592341</v>
       </c>
       <c r="R203" t="n">
-        <v>0.05333031650609453</v>
+        <v>0.1121422255357197</v>
       </c>
       <c r="S203" t="n">
-        <v>0.7431167256480157</v>
+        <v>1.562615204758103</v>
       </c>
       <c r="T203" t="n">
-        <v>0.04389123071416211</v>
+        <v>0.07602184160365638</v>
       </c>
       <c r="U203" t="n">
-        <v>0.6115903634144457</v>
+        <v>1.059305582853334</v>
       </c>
       <c r="V203" t="n">
-        <v>0.2307494978311337</v>
+        <v>0.3996698540645279</v>
       </c>
       <c r="W203" t="n">
-        <v>1.040793376530912</v>
+        <v>0.8326347012247295</v>
       </c>
       <c r="X203" t="n">
         <v>0.6731666992270625</v>
       </c>
       <c r="Y203" t="n">
-        <v>0.2803736316508903</v>
+        <v>0.5895656559861185</v>
       </c>
       <c r="Z203" t="n">
         <v>0.9814411944786255</v>
@@ -30158,28 +30158,28 @@
         <v>629.1192635044721</v>
       </c>
       <c r="R204" t="n">
-        <v>0.06509955015194789</v>
+        <v>0.1294217880119921</v>
       </c>
       <c r="S204" t="n">
-        <v>0.8937733752542706</v>
+        <v>1.776874771529581</v>
       </c>
       <c r="T204" t="n">
-        <v>0.05765280267204263</v>
+        <v>0.09985758342672059</v>
       </c>
       <c r="U204" t="n">
-        <v>0.7915345024164986</v>
+        <v>1.370977974129126</v>
       </c>
       <c r="V204" t="n">
-        <v>0.3031173019513504</v>
+        <v>0.5250145676329359</v>
       </c>
       <c r="W204" t="n">
-        <v>1.039572669543787</v>
+        <v>0.8316581356350299</v>
       </c>
       <c r="X204" t="n">
         <v>0.6679256467534116</v>
       </c>
       <c r="Y204" t="n">
-        <v>0.3422695703547129</v>
+        <v>0.6804523176275408</v>
       </c>
       <c r="Z204" t="n">
         <v>0.9234073075493245</v>
@@ -30305,28 +30305,28 @@
         <v>655.3794889199245</v>
       </c>
       <c r="R205" t="n">
-        <v>0.04042671807352245</v>
+        <v>0.09887890410624821</v>
       </c>
       <c r="S205" t="n">
-        <v>0.5346938194205734</v>
+        <v>1.307796957461104</v>
       </c>
       <c r="T205" t="n">
-        <v>0.02532916420177057</v>
+        <v>0.04387139931072141</v>
       </c>
       <c r="U205" t="n">
-        <v>0.3350098201180917</v>
+        <v>0.580254029479045</v>
       </c>
       <c r="V205" t="n">
-        <v>0.1331493000196029</v>
+        <v>0.2306213526261839</v>
       </c>
       <c r="W205" t="n">
-        <v>1.124142378786846</v>
+        <v>0.8993139030294766</v>
       </c>
       <c r="X205" t="n">
         <v>0.6925524272217999</v>
       </c>
       <c r="Y205" t="n">
-        <v>0.2125134951433997</v>
+        <v>0.51978252277002</v>
       </c>
       <c r="Z205" t="n">
         <v>0.6118462593664977</v>
@@ -30444,28 +30444,28 @@
         <v>1106.307049209217</v>
       </c>
       <c r="R206" t="n">
-        <v>0.05174971124127428</v>
+        <v>0.129307590996515</v>
       </c>
       <c r="S206" t="n">
-        <v>0.8925955486999492</v>
+        <v>2.230338631233701</v>
       </c>
       <c r="T206" t="n">
-        <v>0.03480804282746226</v>
+        <v>0.06028929868919809</v>
       </c>
       <c r="U206" t="n">
-        <v>0.6003802406141689</v>
+        <v>1.039889080604168</v>
       </c>
       <c r="V206" t="n">
-        <v>0.1819794755994661</v>
+        <v>0.3151976976730161</v>
       </c>
       <c r="W206" t="n">
-        <v>1.455075998584811</v>
+        <v>1.164060798867848</v>
       </c>
       <c r="X206" t="n">
         <v>0.9438956010181826</v>
       </c>
       <c r="Y206" t="n">
-        <v>0.2705519916989104</v>
+        <v>0.6760313332529774</v>
       </c>
       <c r="Z206" t="n">
         <v>0.3259406846182062</v>
@@ -30591,28 +30591,28 @@
         <v>1340.203192284972</v>
       </c>
       <c r="R207" t="n">
-        <v>0.04821261420365084</v>
+        <v>0.1327389963928205</v>
       </c>
       <c r="S207" t="n">
-        <v>0.9203137300804213</v>
+        <v>2.533808276427327</v>
       </c>
       <c r="T207" t="n">
-        <v>0.0244805127417793</v>
+        <v>0.04240149186409901</v>
       </c>
       <c r="U207" t="n">
-        <v>0.4672999456221594</v>
+        <v>0.8093872481917533</v>
       </c>
       <c r="V207" t="n">
-        <v>0.1271704664935458</v>
+        <v>0.2202657091890568</v>
       </c>
       <c r="W207" t="n">
-        <v>1.592491858387791</v>
+        <v>1.273993486710233</v>
       </c>
       <c r="X207" t="n">
         <v>1.058023221985795</v>
       </c>
       <c r="Y207" t="n">
-        <v>0.250453113618322</v>
+        <v>0.6895476525028521</v>
       </c>
       <c r="Z207" t="n">
         <v>0.225461244575194</v>
@@ -30743,28 +30743,28 @@
         <v>726.7651000624813</v>
       </c>
       <c r="R208" t="n">
-        <v>0.06220305917876572</v>
+        <v>0.1281773496461334</v>
       </c>
       <c r="S208" t="n">
-        <v>0.9135938125293757</v>
+        <v>1.882576758911193</v>
       </c>
       <c r="T208" t="n">
-        <v>0.05345785941736524</v>
+        <v>0.09259172857475098</v>
       </c>
       <c r="U208" t="n">
-        <v>0.7851506057670264</v>
+        <v>1.359920740781972</v>
       </c>
       <c r="V208" t="n">
-        <v>0.2808712422734212</v>
+        <v>0.486483262002553</v>
       </c>
       <c r="W208" t="n">
-        <v>1.12234956912382</v>
+        <v>0.8978796552990562</v>
       </c>
       <c r="X208" t="n">
         <v>0.729753114933281</v>
       </c>
       <c r="Y208" t="n">
-        <v>0.3268191187444324</v>
+        <v>0.6734525440936288</v>
       </c>
       <c r="Z208" t="n">
         <v>0.7644346525167046</v>
@@ -30890,28 +30890,28 @@
         <v>745.8300201736494</v>
       </c>
       <c r="R209" t="n">
-        <v>0.04461382753292495</v>
+        <v>0.1047397591330147</v>
       </c>
       <c r="S209" t="n">
-        <v>0.6616625815917959</v>
+        <v>1.553383407243154</v>
       </c>
       <c r="T209" t="n">
-        <v>0.03092590394973025</v>
+        <v>0.05356523691092781</v>
       </c>
       <c r="U209" t="n">
-        <v>0.4586585499828977</v>
+        <v>0.7944199118962483</v>
       </c>
       <c r="V209" t="n">
-        <v>0.1624619621375491</v>
+        <v>0.2813923727195663</v>
       </c>
       <c r="W209" t="n">
-        <v>1.140269130374497</v>
+        <v>0.9122153042995974</v>
       </c>
       <c r="X209" t="n">
         <v>0.7438044186196989</v>
       </c>
       <c r="Y209" t="n">
-        <v>0.2343682490654706</v>
+        <v>0.5502256881552614</v>
       </c>
       <c r="Z209" t="n">
         <v>0.7285294428011313</v>
@@ -31037,28 +31037,28 @@
         <v>1291.950448062617</v>
       </c>
       <c r="R210" t="n">
-        <v>0.05089654423697819</v>
+        <v>0.1336332097409121</v>
       </c>
       <c r="S210" t="n">
-        <v>0.9582002597057004</v>
+        <v>2.515836353895658</v>
       </c>
       <c r="T210" t="n">
-        <v>0.03046917473595043</v>
+        <v>0.05277415870736019</v>
       </c>
       <c r="U210" t="n">
-        <v>0.5736258047121876</v>
+        <v>0.993549038294092</v>
       </c>
       <c r="V210" t="n">
-        <v>0.1585393625710897</v>
+        <v>0.2745982309727109</v>
       </c>
       <c r="W210" t="n">
-        <v>1.555806075221668</v>
+        <v>1.244644860177335</v>
       </c>
       <c r="X210" t="n">
         <v>1.038945460039606</v>
       </c>
       <c r="Y210" t="n">
-        <v>0.2648284947107902</v>
+        <v>0.6953297578373699</v>
       </c>
       <c r="Z210" t="n">
         <v>0.2602761675258102</v>
@@ -31184,28 +31184,28 @@
         <v>767.6711090213208</v>
       </c>
       <c r="R211" t="n">
-        <v>0.05278695335534615</v>
+        <v>0.116234129730313</v>
       </c>
       <c r="S211" t="n">
-        <v>0.7950246910552513</v>
+        <v>1.75060307907615</v>
       </c>
       <c r="T211" t="n">
-        <v>0.04161511405550304</v>
+        <v>0.07207949190690494</v>
       </c>
       <c r="U211" t="n">
-        <v>0.6267655375464963</v>
+        <v>1.08558975546375</v>
       </c>
       <c r="V211" t="n">
-        <v>0.2185748993316264</v>
+        <v>0.3785828309016294</v>
       </c>
       <c r="W211" t="n">
-        <v>1.155527018892063</v>
+        <v>0.9244216151136506</v>
       </c>
       <c r="X211" t="n">
         <v>0.7577367548202441</v>
       </c>
       <c r="Y211" t="n">
-        <v>0.2772527067997381</v>
+        <v>0.6104960608979221</v>
       </c>
       <c r="Z211" t="n">
         <v>0.7042087832039807</v>
@@ -31331,28 +31331,28 @@
         <v>744.8250719255465</v>
       </c>
       <c r="R212" t="n">
-        <v>0.03816410416149966</v>
+        <v>0.09643209795178394</v>
       </c>
       <c r="S212" t="n">
-        <v>0.5682507800699519</v>
+        <v>1.435841770397525</v>
       </c>
       <c r="T212" t="n">
-        <v>0.02067100788030379</v>
+        <v>0.03580323589234279</v>
       </c>
       <c r="U212" t="n">
-        <v>0.3077844118417577</v>
+        <v>0.5330982390876282</v>
       </c>
       <c r="V212" t="n">
-        <v>0.1085911731050552</v>
+        <v>0.1880854290714625</v>
       </c>
       <c r="W212" t="n">
-        <v>1.133876753704462</v>
+        <v>0.9071014029635696</v>
       </c>
       <c r="X212" t="n">
         <v>0.7447515781791074</v>
       </c>
       <c r="Y212" t="n">
-        <v>0.2004877974696926</v>
+        <v>0.5065875211408369</v>
       </c>
       <c r="Z212" t="n">
         <v>0.7387211964130875</v>
@@ -31483,28 +31483,28 @@
         <v>690.60144114517</v>
       </c>
       <c r="R213" t="n">
-        <v>0.05834624225463588</v>
+        <v>0.1209020993525837</v>
       </c>
       <c r="S213" t="n">
-        <v>0.845329596599586</v>
+        <v>1.751648759619001</v>
       </c>
       <c r="T213" t="n">
-        <v>0.04936275850062292</v>
+        <v>0.0854988057248314</v>
       </c>
       <c r="U213" t="n">
-        <v>0.715175461484992</v>
+        <v>1.238720235618525</v>
       </c>
       <c r="V213" t="n">
-        <v>0.2594255371752207</v>
+        <v>0.4493382111683308</v>
       </c>
       <c r="W213" t="n">
-        <v>1.080440842522685</v>
+        <v>0.8643526740181484</v>
       </c>
       <c r="X213" t="n">
         <v>0.7107619293209102</v>
       </c>
       <c r="Y213" t="n">
-        <v>0.3066381559465211</v>
+        <v>0.6353999051685923</v>
       </c>
       <c r="Z213" t="n">
         <v>0.8635237882170249</v>
@@ -31630,28 +31630,28 @@
         <v>675.2712614239051</v>
       </c>
       <c r="R214" t="n">
-        <v>0.04988674975428024</v>
+        <v>0.1088278994454278</v>
       </c>
       <c r="S214" t="n">
-        <v>0.7087194075949188</v>
+        <v>1.546070746333708</v>
       </c>
       <c r="T214" t="n">
-        <v>0.03908125477812949</v>
+        <v>0.0676907188992642</v>
       </c>
       <c r="U214" t="n">
-        <v>0.5552104290387366</v>
+        <v>0.9616526719872063</v>
       </c>
       <c r="V214" t="n">
-        <v>0.2054132824504489</v>
+        <v>0.3557862417536738</v>
       </c>
       <c r="W214" t="n">
-        <v>1.077182576107229</v>
+        <v>0.8617460608857832</v>
       </c>
       <c r="X214" t="n">
         <v>0.7039156494342792</v>
       </c>
       <c r="Y214" t="n">
-        <v>0.2622075743470101</v>
+        <v>0.5720055861610353</v>
       </c>
       <c r="Z214" t="n">
         <v>0.832077942315791</v>
@@ -31777,28 +31777,28 @@
         <v>1087.947267189475</v>
       </c>
       <c r="R215" t="n">
-        <v>0.05102442343395371</v>
+        <v>0.12792235085421</v>
       </c>
       <c r="S215" t="n">
-        <v>0.8699121368176299</v>
+        <v>2.180939990872477</v>
       </c>
       <c r="T215" t="n">
-        <v>0.03386439345897636</v>
+        <v>0.05865485003845022</v>
       </c>
       <c r="U215" t="n">
-        <v>0.5773518815761447</v>
+        <v>1.000002792735372</v>
       </c>
       <c r="V215" t="n">
-        <v>0.177110171744247</v>
+        <v>0.3067638159982856</v>
       </c>
       <c r="W215" t="n">
-        <v>1.446039880347915</v>
+        <v>1.156831904278332</v>
       </c>
       <c r="X215" t="n">
         <v>0.9452109205760016</v>
       </c>
       <c r="Y215" t="n">
-        <v>0.2668568214129144</v>
+        <v>0.6690316056350771</v>
       </c>
       <c r="Z215" t="n">
         <v>0.3205519206769895</v>
@@ -31924,28 +31924,28 @@
         <v>681.8745293413598</v>
       </c>
       <c r="R216" t="n">
-        <v>0.05139967182074592</v>
+        <v>0.1110525871836063</v>
       </c>
       <c r="S216" t="n">
-        <v>0.7349874987490687</v>
+        <v>1.587991914974589</v>
       </c>
       <c r="T216" t="n">
-        <v>0.04093287271074433</v>
+        <v>0.07089781523475878</v>
       </c>
       <c r="U216" t="n">
-        <v>0.5853179342312654</v>
+        <v>1.01380040066981</v>
       </c>
       <c r="V216" t="n">
-        <v>0.2151356308859752</v>
+        <v>0.3726258432128933</v>
       </c>
       <c r="W216" t="n">
-        <v>1.080514454061789</v>
+        <v>0.8644115632494309</v>
       </c>
       <c r="X216" t="n">
         <v>0.7085939224964793</v>
       </c>
       <c r="Y216" t="n">
-        <v>0.2701471969150531</v>
+        <v>0.5836719199772595</v>
       </c>
       <c r="Z216" t="n">
         <v>0.8266285092338317</v>
@@ -32071,28 +32071,28 @@
         <v>1370.193852557634</v>
       </c>
       <c r="R217" t="n">
-        <v>0.04795388552224727</v>
+        <v>0.1326340290821682</v>
       </c>
       <c r="S217" t="n">
-        <v>0.9326506643730789</v>
+        <v>2.579586909272944</v>
       </c>
       <c r="T217" t="n">
-        <v>0.02340752312698286</v>
+        <v>0.04054301933527784</v>
       </c>
       <c r="U217" t="n">
-        <v>0.455250742623988</v>
+        <v>0.7885174164082094</v>
       </c>
       <c r="V217" t="n">
-        <v>0.1214605505584494</v>
+        <v>0.2103758446825227</v>
       </c>
       <c r="W217" t="n">
-        <v>1.596331407059515</v>
+        <v>1.277065125647612</v>
       </c>
       <c r="X217" t="n">
         <v>1.080796253222887</v>
       </c>
       <c r="Y217" t="n">
-        <v>0.2488304851970796</v>
+        <v>0.6882318179378436</v>
       </c>
       <c r="Z217" t="n">
         <v>0.2331787444177646</v>
@@ -32223,28 +32223,28 @@
         <v>948.0447993486778</v>
       </c>
       <c r="R218" t="n">
-        <v>0.03793950579038099</v>
+        <v>0.1078179411597709</v>
       </c>
       <c r="S218" t="n">
-        <v>0.6047565366456444</v>
+        <v>1.718620296329172</v>
       </c>
       <c r="T218" t="n">
-        <v>0.01171917050421338</v>
+        <v>0.02029819873586015</v>
       </c>
       <c r="U218" t="n">
-        <v>0.186803829381582</v>
+        <v>0.3235537235373279</v>
       </c>
       <c r="V218" t="n">
-        <v>0.06143093467597092</v>
+        <v>0.1064015000152264</v>
       </c>
       <c r="W218" t="n">
-        <v>1.347395615595826</v>
+        <v>1.07791649247666</v>
       </c>
       <c r="X218" t="n">
         <v>0.8731019981734591</v>
       </c>
       <c r="Y218" t="n">
-        <v>0.1988757908257735</v>
+        <v>0.5651728420456273</v>
       </c>
       <c r="Z218" t="n">
         <v>0.4194914960754469</v>
@@ -32367,28 +32367,28 @@
         <v>972.2802237650268</v>
       </c>
       <c r="R219" t="n">
-        <v>0.05583306335840352</v>
+        <v>0.1267715498867649</v>
       </c>
       <c r="S219" t="n">
-        <v>0.9455136328391623</v>
+        <v>2.146832386835985</v>
       </c>
       <c r="T219" t="n">
-        <v>0.04308601584876703</v>
+        <v>0.07462716854578239</v>
       </c>
       <c r="U219" t="n">
-        <v>0.7296467884669962</v>
+        <v>1.263785309204298</v>
       </c>
       <c r="V219" t="n">
-        <v>0.2257765385516867</v>
+        <v>0.3910564359285547</v>
       </c>
       <c r="W219" t="n">
-        <v>1.300629606274342</v>
+        <v>1.040503685019474</v>
       </c>
       <c r="X219" t="n">
         <v>0.87791897152482</v>
       </c>
       <c r="Y219" t="n">
-        <v>0.2925727880257949</v>
+        <v>0.6643000323058488</v>
       </c>
       <c r="Z219" t="n">
         <v>0.4623010070833148</v>
@@ -32514,28 +32514,28 @@
         <v>770.5624511920655</v>
       </c>
       <c r="R220" t="n">
-        <v>0.05883852751893592</v>
+        <v>0.1250606115457402</v>
       </c>
       <c r="S220" t="n">
-        <v>0.8810184274979177</v>
+        <v>1.872594505198938</v>
       </c>
       <c r="T220" t="n">
-        <v>0.04892885569089134</v>
+        <v>0.08474726401282939</v>
       </c>
       <c r="U220" t="n">
-        <v>0.7326360008956461</v>
+        <v>1.268962777005336</v>
       </c>
       <c r="V220" t="n">
-        <v>0.2569823650481574</v>
+        <v>0.445106512912621</v>
       </c>
       <c r="W220" t="n">
-        <v>1.165784646891051</v>
+        <v>0.932627717512841</v>
       </c>
       <c r="X220" t="n">
         <v>0.7660815813213432</v>
       </c>
       <c r="Y220" t="n">
-        <v>0.3090295847769456</v>
+        <v>0.6568388178221003</v>
       </c>
       <c r="Z220" t="n">
         <v>0.6713280931386338</v>
@@ -32661,28 +32661,28 @@
         <v>624.9726923339898</v>
       </c>
       <c r="R221" t="n">
-        <v>0.05795428366332606</v>
+        <v>0.1165775028683133</v>
       </c>
       <c r="S221" t="n">
-        <v>0.8323926941103464</v>
+        <v>1.674393255362046</v>
       </c>
       <c r="T221" t="n">
-        <v>0.04982663429381672</v>
+        <v>0.08630226216704436</v>
       </c>
       <c r="U221" t="n">
-        <v>0.715655922851601</v>
+        <v>1.239552419116566</v>
       </c>
       <c r="V221" t="n">
-        <v>0.2619768027891995</v>
+        <v>0.4537571328353454</v>
       </c>
       <c r="W221" t="n">
-        <v>0.9851571039779652</v>
+        <v>0.7881256831823723</v>
       </c>
       <c r="X221" t="n">
         <v>0.6716431457770439</v>
       </c>
       <c r="Y221" t="n">
-        <v>0.3047100844204643</v>
+        <v>0.6129372756445527</v>
       </c>
       <c r="Z221" t="n">
         <v>1.052223595027923</v>
@@ -32808,28 +32808,28 @@
         <v>962.9624243450199</v>
       </c>
       <c r="R222" t="n">
-        <v>0.05971333111681735</v>
+        <v>0.1342014828329374</v>
       </c>
       <c r="S222" t="n">
-        <v>0.9651203306080428</v>
+        <v>2.169039593963242</v>
       </c>
       <c r="T222" t="n">
-        <v>0.0474730866579349</v>
+        <v>0.08222579808366341</v>
       </c>
       <c r="U222" t="n">
-        <v>0.7672866382325584</v>
+        <v>1.328979441387511</v>
       </c>
       <c r="V222" t="n">
-        <v>0.248798534832548</v>
+        <v>0.4309317031786681</v>
       </c>
       <c r="W222" t="n">
-        <v>1.348905943270752</v>
+        <v>1.079124754616601</v>
       </c>
       <c r="X222" t="n">
         <v>0.8854392673662566</v>
       </c>
       <c r="Y222" t="n">
-        <v>0.3129476159594047</v>
+        <v>0.7033276041596785</v>
       </c>
       <c r="Z222" t="n">
         <v>0.4205445103373238</v>
@@ -32949,28 +32949,28 @@
         <v>1586.855673537546</v>
       </c>
       <c r="R223" t="n">
-        <v>0.05540803065113183</v>
+        <v>0.1475620327998914</v>
       </c>
       <c r="S223" t="n">
-        <v>1.165688497419855</v>
+        <v>3.104448259021656</v>
       </c>
       <c r="T223" t="n">
-        <v>0.03237402402328885</v>
+        <v>0.05607345445379168</v>
       </c>
       <c r="U223" t="n">
-        <v>0.6810931010479973</v>
+        <v>1.179687855699775</v>
       </c>
       <c r="V223" t="n">
-        <v>0.1661441484199969</v>
+        <v>0.2877701064436989</v>
       </c>
       <c r="W223" t="n">
-        <v>1.707677925312947</v>
+        <v>1.366142340250358</v>
       </c>
       <c r="X223" t="n">
         <v>1.187111093213598</v>
       </c>
       <c r="Y223" t="n">
-        <v>0.284355137981583</v>
+        <v>0.757291347563873</v>
       </c>
       <c r="Z223" t="n">
         <v>0.1607430578859499</v>
@@ -33096,28 +33096,28 @@
         <v>711.4270805998441</v>
       </c>
       <c r="R224" t="n">
-        <v>0.0485934178715254</v>
+        <v>0.1075267052939744</v>
       </c>
       <c r="S224" t="n">
-        <v>0.7181866415369055</v>
+        <v>1.589191432361864</v>
       </c>
       <c r="T224" t="n">
-        <v>0.03708393275579205</v>
+        <v>0.06423125567749957</v>
       </c>
       <c r="U224" t="n">
-        <v>0.5480821536628143</v>
+        <v>0.9493061368657671</v>
       </c>
       <c r="V224" t="n">
-        <v>0.1948644762375968</v>
+        <v>0.3375151734338158</v>
       </c>
       <c r="W224" t="n">
-        <v>1.089655112742562</v>
+        <v>0.8717240901940497</v>
       </c>
       <c r="X224" t="n">
         <v>0.7317455113260067</v>
       </c>
       <c r="Y224" t="n">
-        <v>0.2553432232898899</v>
+        <v>0.5650192293963784</v>
       </c>
       <c r="Z224" t="n">
         <v>0.8087012339381878</v>
@@ -33243,28 +33243,28 @@
         <v>984.9070394545998</v>
       </c>
       <c r="R225" t="n">
-        <v>0.05580475890535477</v>
+        <v>0.1270855517413889</v>
       </c>
       <c r="S225" t="n">
-        <v>0.9497741889705235</v>
+        <v>2.162944150332438</v>
       </c>
       <c r="T225" t="n">
-        <v>0.04281888912929385</v>
+        <v>0.07416449149559565</v>
       </c>
       <c r="U225" t="n">
-        <v>0.7287599927520068</v>
+        <v>1.262249333970003</v>
       </c>
       <c r="V225" t="n">
-        <v>0.224335118613621</v>
+        <v>0.3885598233607822</v>
       </c>
       <c r="W225" t="n">
-        <v>1.30941697369334</v>
+        <v>1.047533578954672</v>
       </c>
       <c r="X225" t="n">
         <v>0.8948944463263441</v>
       </c>
       <c r="Y225" t="n">
-        <v>0.2923702006942687</v>
+        <v>0.6658218581499226</v>
       </c>
       <c r="Z225" t="n">
         <v>0.4226107007899493</v>
@@ -33390,28 +33390,28 @@
         <v>951.035897625103</v>
       </c>
       <c r="R226" t="n">
-        <v>0.05699760593112299</v>
+        <v>0.1275028088117292</v>
       </c>
       <c r="S226" t="n">
-        <v>0.9551958349653833</v>
+        <v>2.136759078451907</v>
       </c>
       <c r="T226" t="n">
-        <v>0.04477265535399654</v>
+        <v>0.07754851386289273</v>
       </c>
       <c r="U226" t="n">
-        <v>0.7503236884397938</v>
+        <v>1.299598750500204</v>
       </c>
       <c r="V226" t="n">
-        <v>0.2346850059710769</v>
+        <v>0.4064863541165106</v>
       </c>
       <c r="W226" t="n">
-        <v>1.283882807812267</v>
+        <v>1.027106246249814</v>
       </c>
       <c r="X226" t="n">
         <v>0.8774776619038849</v>
       </c>
       <c r="Y226" t="n">
-        <v>0.2987645781229873</v>
+        <v>0.6683319809987265</v>
       </c>
       <c r="Z226" t="n">
         <v>0.4738500191087539</v>
@@ -33537,28 +33537,28 @@
         <v>796.6952557435292</v>
       </c>
       <c r="R227" t="n">
-        <v>0.05938175128979391</v>
+        <v>0.1264084322107388</v>
       </c>
       <c r="S227" t="n">
-        <v>0.9058862626626115</v>
+        <v>1.928398198725871</v>
       </c>
       <c r="T227" t="n">
-        <v>0.04929497002735306</v>
+        <v>0.08538139264496046</v>
       </c>
       <c r="U227" t="n">
-        <v>0.7520094169708228</v>
+        <v>1.302518517963714</v>
       </c>
       <c r="V227" t="n">
-        <v>0.2588441535025425</v>
+        <v>0.448331225108561</v>
       </c>
       <c r="W227" t="n">
-        <v>1.1813927034866</v>
+        <v>0.9451141627892796</v>
       </c>
       <c r="X227" t="n">
         <v>0.7916892078966967</v>
       </c>
       <c r="Y227" t="n">
-        <v>0.3118090778344378</v>
+        <v>0.6637611020559765</v>
       </c>
       <c r="Z227" t="n">
         <v>0.6409421272864871</v>
@@ -33684,28 +33684,28 @@
         <v>939.3540787418856</v>
       </c>
       <c r="R228" t="n">
-        <v>0.04560789551655016</v>
+        <v>0.1117933072531763</v>
       </c>
       <c r="S228" t="n">
-        <v>0.7676852281805784</v>
+        <v>1.881737133794589</v>
       </c>
       <c r="T228" t="n">
-        <v>0.02933558575417928</v>
+        <v>0.05081072499603229</v>
       </c>
       <c r="U228" t="n">
-        <v>0.4937850253436014</v>
+        <v>0.8552607519118034</v>
       </c>
       <c r="V228" t="n">
-        <v>0.1537927519358044</v>
+        <v>0.26637686018865</v>
       </c>
       <c r="W228" t="n">
-        <v>1.262315690169838</v>
+        <v>1.009852552135871</v>
       </c>
       <c r="X228" t="n">
         <v>0.8707813357533756</v>
       </c>
       <c r="Y228" t="n">
-        <v>0.2391008592862889</v>
+        <v>0.5860800092604769</v>
       </c>
       <c r="Z228" t="n">
         <v>0.5200938286879409</v>
@@ -33831,28 +33831,28 @@
         <v>886.3814530477657</v>
       </c>
       <c r="R229" t="n">
-        <v>0.04582180657926431</v>
+        <v>0.1115956295362586</v>
       </c>
       <c r="S229" t="n">
-        <v>0.7339678160659727</v>
+        <v>1.787524469414975</v>
       </c>
       <c r="T229" t="n">
-        <v>0.03012442763108422</v>
+        <v>0.05217703920596962</v>
       </c>
       <c r="U229" t="n">
-        <v>0.4825292150010931</v>
+        <v>0.8357651165182195</v>
       </c>
       <c r="V229" t="n">
-        <v>0.1580327585250395</v>
+        <v>0.273720767025632</v>
       </c>
       <c r="W229" t="n">
-        <v>1.251658332218786</v>
+        <v>1.001326665775029</v>
       </c>
       <c r="X229" t="n">
         <v>0.8451206789259191</v>
       </c>
       <c r="Y229" t="n">
-        <v>0.2403812143089444</v>
+        <v>0.5854307139351475</v>
       </c>
       <c r="Z229" t="n">
         <v>0.5109985161810369</v>
@@ -33978,28 +33978,28 @@
         <v>779.093542820114</v>
       </c>
       <c r="R230" t="n">
-        <v>0.0600206131982173</v>
+        <v>0.1252710363464696</v>
       </c>
       <c r="S230" t="n">
-        <v>0.933610625552267</v>
+        <v>1.948570072431082</v>
       </c>
       <c r="T230" t="n">
-        <v>0.05055058403737278</v>
+        <v>0.08755617990500994</v>
       </c>
       <c r="U230" t="n">
-        <v>0.7863059017625263</v>
+        <v>1.361921772143958</v>
       </c>
       <c r="V230" t="n">
-        <v>0.2654799397688971</v>
+        <v>0.4598247440700551</v>
       </c>
       <c r="W230" t="n">
-        <v>1.132860079450185</v>
+        <v>0.9062880635601479</v>
       </c>
       <c r="X230" t="n">
         <v>0.7776091268611651</v>
       </c>
       <c r="Y230" t="n">
-        <v>0.3152143359011354</v>
+        <v>0.6578944203584418</v>
       </c>
       <c r="Z230" t="n">
         <v>0.7299905426345262</v>
@@ -34125,28 +34125,28 @@
         <v>785.7308120243068</v>
       </c>
       <c r="R231" t="n">
-        <v>0.06414921381509445</v>
+        <v>0.1328834136456108</v>
       </c>
       <c r="S231" t="n">
-        <v>0.9715889119731532</v>
+        <v>2.012620944277857</v>
       </c>
       <c r="T231" t="n">
-        <v>0.05503094247239907</v>
+        <v>0.09531638835059519</v>
       </c>
       <c r="U231" t="n">
-        <v>0.8334857177787328</v>
+        <v>1.443639610575779</v>
       </c>
       <c r="V231" t="n">
-        <v>0.2889924730033903</v>
+        <v>0.5005496462468488</v>
       </c>
       <c r="W231" t="n">
-        <v>1.173169906718203</v>
+        <v>0.9385359253745623</v>
       </c>
       <c r="X231" t="n">
         <v>0.7877789284343752</v>
       </c>
       <c r="Y231" t="n">
-        <v>0.3368766571814666</v>
+        <v>0.6978311583494744</v>
       </c>
       <c r="Z231" t="n">
         <v>0.6482746826574618</v>
@@ -34272,28 +34272,28 @@
         <v>816.8790944553372</v>
       </c>
       <c r="R232" t="n">
-        <v>0.0407443078754581</v>
+        <v>0.1029112099160411</v>
       </c>
       <c r="S232" t="n">
-        <v>0.6262891767283222</v>
+        <v>1.581869475644106</v>
       </c>
       <c r="T232" t="n">
-        <v>0.02316092524737541</v>
+        <v>0.04011589927875898</v>
       </c>
       <c r="U232" t="n">
-        <v>0.3560113685028911</v>
+        <v>0.6166297783191336</v>
       </c>
       <c r="V232" t="n">
-        <v>0.1215927735893652</v>
+        <v>0.2106048616899996</v>
       </c>
       <c r="W232" t="n">
-        <v>1.201588199136837</v>
+        <v>0.9612705593094694</v>
       </c>
       <c r="X232" t="n">
         <v>0.8082051319580108</v>
       </c>
       <c r="Y232" t="n">
-        <v>0.2139039502801114</v>
+        <v>0.5402745923782476</v>
       </c>
       <c r="Z232" t="n">
         <v>0.5953509816737408</v>
@@ -34424,28 +34424,28 @@
         <v>720.7862659486707</v>
       </c>
       <c r="R233" t="n">
-        <v>0.04152127176360124</v>
+        <v>0.09638532769903818</v>
       </c>
       <c r="S233" t="n">
-        <v>0.6414114573980855</v>
+        <v>1.48893930473073</v>
       </c>
       <c r="T233" t="n">
-        <v>0.02756780343398805</v>
+        <v>0.04774883620073907</v>
       </c>
       <c r="U233" t="n">
-        <v>0.4258613531524592</v>
+        <v>0.7376135006400919</v>
       </c>
       <c r="V233" t="n">
-        <v>0.1448498527933459</v>
+        <v>0.2508873045069477</v>
       </c>
       <c r="W233" t="n">
-        <v>1.054895999653175</v>
+        <v>0.8439167997225401</v>
       </c>
       <c r="X233" t="n">
         <v>0.7407261599323092</v>
       </c>
       <c r="Y233" t="n">
-        <v>0.2181657351537526</v>
+        <v>0.5064386272948836</v>
       </c>
       <c r="Z233" t="n">
         <v>0.8906056203022326</v>
@@ -34576,28 +34576,28 @@
         <v>825.3872499014032</v>
       </c>
       <c r="R234" t="n">
-        <v>0.07592915714145231</v>
+        <v>0.151424188943259</v>
       </c>
       <c r="S234" t="n">
-        <v>1.176253721254392</v>
+        <v>2.345782205913604</v>
       </c>
       <c r="T234" t="n">
-        <v>0.06807961188627118</v>
+        <v>0.1179173467465918</v>
       </c>
       <c r="U234" t="n">
-        <v>1.054652782113703</v>
+        <v>1.826712202964803</v>
       </c>
       <c r="V234" t="n">
-        <v>0.3573816737164405</v>
+        <v>0.6190032165708776</v>
       </c>
       <c r="W234" t="n">
-        <v>1.204283173954831</v>
+        <v>0.9634265391638646</v>
       </c>
       <c r="X234" t="n">
         <v>0.815318117015248</v>
       </c>
       <c r="Y234" t="n">
-        <v>0.3985876022387104</v>
+        <v>0.7948962778474566</v>
       </c>
       <c r="Z234" t="n">
         <v>0.5924990513966264</v>
@@ -34723,28 +34723,28 @@
         <v>1378.715912002045</v>
       </c>
       <c r="R235" t="n">
-        <v>0.05809642016110993</v>
+        <v>0.1388435053298981</v>
       </c>
       <c r="S235" t="n">
-        <v>1.210630208592459</v>
+        <v>2.893261604641207</v>
       </c>
       <c r="T235" t="n">
-        <v>0.04150863139783494</v>
+        <v>0.07189505853369887</v>
       </c>
       <c r="U235" t="n">
-        <v>0.8649690109682024</v>
+        <v>1.498170273969529</v>
       </c>
       <c r="V235" t="n">
-        <v>0.2153145991708072</v>
+        <v>0.3729358253751657</v>
       </c>
       <c r="W235" t="n">
-        <v>1.494808528200569</v>
+        <v>1.195846822560455</v>
       </c>
       <c r="X235" t="n">
         <v>1.100566115230418</v>
       </c>
       <c r="Y235" t="n">
-        <v>0.3013591872099316</v>
+        <v>0.7202124640307012</v>
       </c>
       <c r="Z235" t="n">
         <v>0.2663815632047701</v>
@@ -34867,28 +34867,28 @@
         <v>836.6014104124247</v>
       </c>
       <c r="R236" t="n">
-        <v>0.08831071858485212</v>
+        <v>0.1682891647963862</v>
       </c>
       <c r="S236" t="n">
-        <v>1.463489584735966</v>
+        <v>2.788896340672192</v>
       </c>
       <c r="T236" t="n">
-        <v>0.08198542283704525</v>
+        <v>0.1420029178337801</v>
       </c>
       <c r="U236" t="n">
-        <v>1.358666471577901</v>
+        <v>2.35327935931326</v>
       </c>
       <c r="V236" t="n">
-        <v>0.4303307004737353</v>
+        <v>0.7453546372772137</v>
       </c>
       <c r="W236" t="n">
-        <v>1.140284981357025</v>
+        <v>0.9122279850856203</v>
       </c>
       <c r="X236" t="n">
         <v>0.8169637954472923</v>
       </c>
       <c r="Y236" t="n">
-        <v>0.4635313458527007</v>
+        <v>0.8833276900079076</v>
       </c>
       <c r="Z236" t="n">
         <v>0.7314573521600621</v>
@@ -35019,28 +35019,28 @@
         <v>855.0362577847289</v>
       </c>
       <c r="R237" t="n">
-        <v>0.1233462217562002</v>
+        <v>0.2260751276274969</v>
       </c>
       <c r="S237" t="n">
-        <v>1.999791659281977</v>
+        <v>3.665318225102839</v>
       </c>
       <c r="T237" t="n">
-        <v>0.1186747163599051</v>
+        <v>0.2055506383091811</v>
       </c>
       <c r="U237" t="n">
-        <v>1.924053323767601</v>
+        <v>3.332558113237257</v>
       </c>
       <c r="V237" t="n">
-        <v>0.6227868172894712</v>
+        <v>1.078698409829479</v>
       </c>
       <c r="W237" t="n">
-        <v>1.191180188099468</v>
+        <v>0.9529441504795743</v>
       </c>
       <c r="X237" t="n">
         <v>0.8335209099840005</v>
       </c>
       <c r="Y237" t="n">
-        <v>0.6473021653513616</v>
+        <v>1.186407800431944</v>
       </c>
       <c r="Z237" t="n">
         <v>0.6222981753795759</v>
@@ -35166,28 +35166,28 @@
         <v>972.0810371125101</v>
       </c>
       <c r="R238" t="n">
-        <v>0.2231321159080535</v>
+        <v>0.3946410041736708</v>
       </c>
       <c r="S238" t="n">
-        <v>3.832860053730713</v>
+        <v>6.7789602330699</v>
       </c>
       <c r="T238" t="n">
-        <v>0.2202886609928356</v>
+        <v>0.3815511531709073</v>
       </c>
       <c r="U238" t="n">
-        <v>3.784016503286302</v>
+        <v>6.554108840370996</v>
       </c>
       <c r="V238" t="n">
-        <v>1.154345642842427</v>
+        <v>1.99938530289884</v>
       </c>
       <c r="W238" t="n">
-        <v>1.276374975826129</v>
+        <v>1.021099980660903</v>
       </c>
       <c r="X238" t="n">
         <v>0.9127148784427735</v>
       </c>
       <c r="Y238" t="n">
-        <v>1.169245773322168</v>
+        <v>2.067978086578196</v>
       </c>
       <c r="Z238" t="n">
         <v>0.4735425182447809</v>
@@ -35307,28 +35307,28 @@
         <v>1519.803373121171</v>
       </c>
       <c r="R239" t="n">
-        <v>0.1417751834329036</v>
+        <v>0.2651420288834589</v>
       </c>
       <c r="S239" t="n">
-        <v>3.128562316067205</v>
+        <v>5.850906624733564</v>
       </c>
       <c r="T239" t="n">
-        <v>0.1352274147323163</v>
+        <v>0.2342207528925599</v>
       </c>
       <c r="U239" t="n">
-        <v>2.984072272640976</v>
+        <v>5.168564789671698</v>
       </c>
       <c r="V239" t="n">
-        <v>0.6968054259374904</v>
+        <v>1.206902400713405</v>
       </c>
       <c r="W239" t="n">
-        <v>1.55311720999705</v>
+        <v>1.24249376799764</v>
       </c>
       <c r="X239" t="n">
         <v>1.184758325503238</v>
       </c>
       <c r="Y239" t="n">
-        <v>0.7305450398122691</v>
+        <v>1.366234832898253</v>
       </c>
       <c r="Z239" t="n">
         <v>0.2071639806020718</v>
@@ -35451,28 +35451,28 @@
         <v>942.2558822683638</v>
       </c>
       <c r="R240" t="n">
-        <v>0.1869764357998634</v>
+        <v>0.3329723515489109</v>
       </c>
       <c r="S240" t="n">
-        <v>3.195893511237676</v>
+        <v>5.691327750389669</v>
       </c>
       <c r="T240" t="n">
-        <v>0.1836861907000023</v>
+        <v>0.3181538149411897</v>
       </c>
       <c r="U240" t="n">
-        <v>3.139655018295801</v>
+        <v>5.438042009926919</v>
       </c>
       <c r="V240" t="n">
-        <v>0.9629433853613644</v>
+        <v>1.66786686825826</v>
       </c>
       <c r="W240" t="n">
-        <v>1.242713228623314</v>
+        <v>0.9941705828986513</v>
       </c>
       <c r="X240" t="n">
         <v>0.898493054617561</v>
       </c>
       <c r="Y240" t="n">
-        <v>0.9801919316078453</v>
+        <v>1.745550507691151</v>
       </c>
       <c r="Z240" t="n">
         <v>0.5432197344943213</v>
@@ -35598,28 +35598,28 @@
         <v>1099.547429287789</v>
       </c>
       <c r="R241" t="n">
-        <v>0.1521912633079797</v>
+        <v>0.2768523621120811</v>
       </c>
       <c r="S241" t="n">
-        <v>2.802838399133138</v>
+        <v>5.098666076831017</v>
       </c>
       <c r="T241" t="n">
-        <v>0.147570325814163</v>
+        <v>0.2555993019996232</v>
       </c>
       <c r="U241" t="n">
-        <v>2.717736660924591</v>
+        <v>4.707257978313979</v>
       </c>
       <c r="V241" t="n">
-        <v>0.7716149380614818</v>
+        <v>1.336476276601599</v>
       </c>
       <c r="W241" t="n">
-        <v>1.3454064150343</v>
+        <v>1.07632513202744</v>
       </c>
       <c r="X241" t="n">
         <v>0.9884347448153088</v>
       </c>
       <c r="Y241" t="n">
-        <v>0.7957768715559406</v>
+        <v>1.447604164758076</v>
       </c>
       <c r="Z241" t="n">
         <v>0.3988710738074556</v>
@@ -35750,28 +35750,28 @@
         <v>1075.230485536771</v>
       </c>
       <c r="R242" t="n">
-        <v>0.3269057472831667</v>
+        <v>0.5721512898792465</v>
       </c>
       <c r="S242" t="n">
-        <v>6.024879354419458</v>
+        <v>10.54475952976137</v>
       </c>
       <c r="T242" t="n">
-        <v>0.3248362798694801</v>
+        <v>0.562632940875603</v>
       </c>
       <c r="U242" t="n">
-        <v>5.986739029267683</v>
+        <v>10.36933617034721</v>
       </c>
       <c r="V242" t="n">
-        <v>1.699298293018758</v>
+        <v>2.943270980723555</v>
       </c>
       <c r="W242" t="n">
-        <v>1.313206778491009</v>
+        <v>1.050565422792807</v>
       </c>
       <c r="X242" t="n">
         <v>0.9831031826595126</v>
       </c>
       <c r="Y242" t="n">
-        <v>1.710124184895578</v>
+        <v>2.993063800111669</v>
       </c>
       <c r="Z242" t="n">
         <v>0.4640608572031384</v>
@@ -35891,28 +35891,28 @@
         <v>1149.081249275396</v>
       </c>
       <c r="R243" t="n">
-        <v>0.1244682539094922</v>
+        <v>0.231604126220317</v>
       </c>
       <c r="S243" t="n">
-        <v>2.385019179953718</v>
+        <v>4.437921042851172</v>
       </c>
       <c r="T243" t="n">
-        <v>0.1186256032620037</v>
+        <v>0.2054655719282987</v>
       </c>
       <c r="U243" t="n">
-        <v>2.273064256362022</v>
+        <v>3.93706278088779</v>
       </c>
       <c r="V243" t="n">
-        <v>0.6196201043429174</v>
+        <v>1.073213502113062</v>
       </c>
       <c r="W243" t="n">
-        <v>1.348930355134561</v>
+        <v>1.079144284107649</v>
       </c>
       <c r="X243" t="n">
         <v>1.027347738803532</v>
       </c>
       <c r="Y243" t="n">
-        <v>0.6501381687766145</v>
+        <v>1.209743671759676</v>
       </c>
       <c r="Z243" t="n">
         <v>0.4291855539202961</v>
@@ -36043,28 +36043,28 @@
         <v>1187.663372872443</v>
       </c>
       <c r="R244" t="n">
-        <v>0.2741913122723228</v>
+        <v>0.4829349022841026</v>
       </c>
       <c r="S244" t="n">
-        <v>5.264136004784359</v>
+        <v>9.27175622747613</v>
       </c>
       <c r="T244" t="n">
-        <v>0.2714677059784683</v>
+        <v>0.4701958593688765</v>
       </c>
       <c r="U244" t="n">
-        <v>5.2118461133377</v>
+        <v>9.027182269531277</v>
       </c>
       <c r="V244" t="n">
-        <v>1.416675821376618</v>
+        <v>2.453754500478674</v>
       </c>
       <c r="W244" t="n">
-        <v>1.390913048724599</v>
+        <v>1.112730438979679</v>
       </c>
       <c r="X244" t="n">
         <v>1.054849010404501</v>
       </c>
       <c r="Y244" t="n">
-        <v>1.43088917750878</v>
+        <v>2.520234209438647</v>
       </c>
       <c r="Z244" t="n">
         <v>0.2899854730639344</v>
@@ -36195,28 +36195,28 @@
         <v>1361.947633989656</v>
       </c>
       <c r="R245" t="n">
-        <v>0.4736973465190729</v>
+        <v>0.8254957181070045</v>
       </c>
       <c r="S245" t="n">
-        <v>10.01992697158115</v>
+        <v>17.46137459195603</v>
       </c>
       <c r="T245" t="n">
-        <v>0.4719491682313636</v>
+        <v>0.8174399379665934</v>
       </c>
       <c r="U245" t="n">
-        <v>9.982948468524572</v>
+        <v>17.29097395682647</v>
       </c>
       <c r="V245" t="n">
-        <v>2.449696067670988</v>
+        <v>4.242998052307837</v>
       </c>
       <c r="W245" t="n">
-        <v>1.442323113389478</v>
+        <v>1.153858490711583</v>
       </c>
       <c r="X245" t="n">
         <v>1.172043752289484</v>
       </c>
       <c r="Y245" t="n">
-        <v>2.458770149723167</v>
+        <v>4.284812328633276</v>
       </c>
       <c r="Z245" t="n">
         <v>0.3259848018476597</v>

--- a/results/GAIA_TESS_confirmed_matches_unique_stars.xlsx
+++ b/results/GAIA_TESS_confirmed_matches_unique_stars.xlsx
@@ -762,10 +762,10 @@
         <v>143.5781541528725</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1331860593948067</v>
+        <v>0.1741301656529014</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7902558828894091</v>
+        <v>1.033196630495687</v>
       </c>
       <c r="T2" t="n">
         <v>0.131288462428179</v>
@@ -783,7 +783,7 @@
         <v>0.1988137208558769</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.701448610588433</v>
+        <v>0.917088194618694</v>
       </c>
       <c r="Z2" t="n">
         <v>2.18165867208891</v>
@@ -909,10 +909,10 @@
         <v>181.1291027915078</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0677691064507296</v>
+        <v>0.1415252876551886</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4568893720400358</v>
+        <v>0.954142723595973</v>
       </c>
       <c r="T3" t="n">
         <v>0.06369642382508207</v>
@@ -930,7 +930,7 @@
         <v>0.2290822105632178</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.3568929096759318</v>
+        <v>0.7453155921526794</v>
       </c>
       <c r="Z3" t="n">
         <v>1.835784213364178</v>
@@ -1061,10 +1061,10 @@
         <v>148.1853644484523</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1383757986697682</v>
+        <v>0.1783163109423849</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8419313293321719</v>
+        <v>1.084944695218087</v>
       </c>
       <c r="T4" t="n">
         <v>0.136544989173997</v>
@@ -1082,7 +1082,7 @@
         <v>0.204236757441923</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7287752096165702</v>
+        <v>0.9391274206497611</v>
       </c>
       <c r="Z4" t="n">
         <v>2.261071033418257</v>
@@ -1202,10 +1202,10 @@
         <v>162.3410153010406</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2796749730904869</v>
+        <v>0.3042969305847036</v>
       </c>
       <c r="S5" t="n">
-        <v>1.743539432563141</v>
+        <v>1.897036734533635</v>
       </c>
       <c r="T5" t="n">
         <v>0.2787384905747264</v>
@@ -1223,7 +1223,7 @@
         <v>0.2181922833845763</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.472907949057171</v>
+        <v>1.602579462077559</v>
       </c>
       <c r="Z5" t="n">
         <v>1.503293615987327</v>
@@ -1333,10 +1333,10 @@
         <v>146.9336075505121</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1441020731605877</v>
+        <v>0.1866200899123235</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8179349284926013</v>
+        <v>1.059270602773448</v>
       </c>
       <c r="T6" t="n">
         <v>0.1422914924167301</v>
@@ -1354,7 +1354,7 @@
         <v>0.2105365797803334</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.7589351584054879</v>
+        <v>0.9828626638939468</v>
       </c>
       <c r="Z6" t="n">
         <v>2.803773182186938</v>
@@ -1472,10 +1472,10 @@
         <v>139.7918479069546</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1563376611028656</v>
+        <v>0.1904140186683818</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9178638002524365</v>
+        <v>1.117927270776445</v>
       </c>
       <c r="T7" t="n">
         <v>0.1547469007392009</v>
@@ -1493,7 +1493,7 @@
         <v>0.2039448537235887</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.8233863433831836</v>
+        <v>1.002856902516257</v>
       </c>
       <c r="Z7" t="n">
         <v>2.826590984171109</v>
@@ -1613,10 +1613,10 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3496972361196245</v>
+        <v>0.3668414081036985</v>
       </c>
       <c r="S8" t="n">
-        <v>2.161818741545839</v>
+        <v>2.267803543469689</v>
       </c>
       <c r="T8" t="n">
         <v>0.3489798677993382</v>
@@ -1634,7 +1634,7 @@
         <v>0.2145593731022121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.841720608447501</v>
+        <v>1.932012356841635</v>
       </c>
       <c r="Z8" t="n">
         <v>2.559518810463633</v>
@@ -1736,10 +1736,10 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R9" t="n">
-        <v>0.146069140479935</v>
+        <v>0.1833593617744859</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9029954281451487</v>
+        <v>1.133522555455286</v>
       </c>
       <c r="T9" t="n">
         <v>0.1443432886561967</v>
@@ -1757,7 +1757,7 @@
         <v>0.2145593731022121</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.7692898842016681</v>
+        <v>0.9656831122803963</v>
       </c>
       <c r="Z9" t="n">
         <v>2.559518810463633</v>
@@ -1869,10 +1869,10 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2222245508275194</v>
+        <v>0.2483308533797051</v>
       </c>
       <c r="S10" t="n">
-        <v>1.373786090337297</v>
+        <v>1.535174538115806</v>
       </c>
       <c r="T10" t="n">
         <v>0.2210939668331814</v>
@@ -1890,7 +1890,7 @@
         <v>0.2145593731022121</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.170371088726668</v>
+        <v>1.307862925820509</v>
       </c>
       <c r="Z10" t="n">
         <v>2.559518810463633</v>
@@ -1997,10 +1997,10 @@
         <v>160.8307028507757</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1277308574291925</v>
+        <v>0.1724194922362247</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8071675697470815</v>
+        <v>1.089567746795161</v>
       </c>
       <c r="T11" t="n">
         <v>0.1257024939285686</v>
@@ -2018,7 +2018,7 @@
         <v>0.2236063817886191</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.6726963475519128</v>
+        <v>0.9080496679383874</v>
       </c>
       <c r="Z11" t="n">
         <v>2.022947799631273</v>
@@ -2136,10 +2136,10 @@
         <v>165.5178282429962</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3539379187729373</v>
+        <v>0.3725910033901808</v>
       </c>
       <c r="S12" t="n">
-        <v>2.282167123690875</v>
+        <v>2.402440918079677</v>
       </c>
       <c r="T12" t="n">
         <v>0.3532076040915919</v>
@@ -2157,7 +2157,7 @@
         <v>0.2295801628884507</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.864002402620996</v>
+        <v>1.962238258963758</v>
       </c>
       <c r="Z12" t="n">
         <v>2.307938833619113</v>
@@ -2267,10 +2267,10 @@
         <v>175.335012884862</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1762615805093631</v>
+        <v>0.2111408538985374</v>
       </c>
       <c r="S13" t="n">
-        <v>1.205326888273188</v>
+        <v>1.443841293612757</v>
       </c>
       <c r="T13" t="n">
         <v>0.1747883203706033</v>
@@ -2288,7 +2288,7 @@
         <v>0.2363397579616506</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.9282581817843557</v>
+        <v>1.111945238286578</v>
       </c>
       <c r="Z13" t="n">
         <v>1.750852676309812</v>
@@ -2403,10 +2403,10 @@
         <v>192.4198323261162</v>
       </c>
       <c r="R14" t="n">
-        <v>0.118073181513614</v>
+        <v>0.1700863392044491</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8408621631098551</v>
+        <v>1.211275628093407</v>
       </c>
       <c r="T14" t="n">
         <v>0.1157871740974524</v>
@@ -2424,7 +2424,7 @@
         <v>0.2505004184883252</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.6217954504022327</v>
+        <v>0.8957064638823445</v>
       </c>
       <c r="Z14" t="n">
         <v>1.615091729727736</v>
@@ -2545,10 +2545,10 @@
         <v>159.4294446065069</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1728038742996586</v>
+        <v>0.2071103462999109</v>
       </c>
       <c r="S15" t="n">
-        <v>1.0925362451314</v>
+        <v>1.309435688241485</v>
       </c>
       <c r="T15" t="n">
         <v>0.1713202038817699</v>
@@ -2566,7 +2566,7 @@
         <v>0.2257669438705284</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.9100764256284282</v>
+        <v>1.090752417647972</v>
       </c>
       <c r="Z15" t="n">
         <v>2.574200330803404</v>
@@ -2692,10 +2692,10 @@
         <v>223.5114462271911</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1384879757619102</v>
+        <v>0.1939275492715491</v>
       </c>
       <c r="S16" t="n">
-        <v>1.026840426707461</v>
+        <v>1.437905683499052</v>
       </c>
       <c r="T16" t="n">
         <v>0.1363950125900183</v>
@@ -2713,7 +2713,7 @@
         <v>0.2812972518583494</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.7292553434327262</v>
+        <v>1.021191195604055</v>
       </c>
       <c r="Z16" t="n">
         <v>1.512440288547218</v>
@@ -2823,10 +2823,10 @@
         <v>181.7136363181021</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1344623685466107</v>
+        <v>0.1789477482578062</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9305096864138525</v>
+        <v>1.238358470965916</v>
       </c>
       <c r="T17" t="n">
         <v>0.1325009773440426</v>
@@ -2844,7 +2844,7 @@
         <v>0.2482452045366884</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.7081192695356245</v>
+        <v>0.942392657150294</v>
       </c>
       <c r="Z17" t="n">
         <v>1.842150236689627</v>
@@ -2962,10 +2962,10 @@
         <v>181.41725770758</v>
       </c>
       <c r="R18" t="n">
-        <v>0.2657781913060458</v>
+        <v>0.2907746325218882</v>
       </c>
       <c r="S18" t="n">
-        <v>1.838244079219038</v>
+        <v>2.011130950940044</v>
       </c>
       <c r="T18" t="n">
         <v>0.2647919553640047</v>
@@ -2983,7 +2983,7 @@
         <v>0.2479913943179192</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.399668708129318</v>
+        <v>1.531307562365183</v>
       </c>
       <c r="Z18" t="n">
         <v>2.304468294889742</v>
@@ -3095,10 +3095,10 @@
         <v>243.1186016090445</v>
       </c>
       <c r="R19" t="n">
-        <v>0.16421323369404</v>
+        <v>0.2156107438678401</v>
       </c>
       <c r="S19" t="n">
-        <v>1.282261153323947</v>
+        <v>1.683599274441699</v>
       </c>
       <c r="T19" t="n">
         <v>0.1624067251592904</v>
@@ -3116,7 +3116,7 @@
         <v>0.2987281500650054</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.8646819688151421</v>
+        <v>1.135320937974488</v>
       </c>
       <c r="Z19" t="n">
         <v>0.9846428398495232</v>
@@ -3231,10 +3231,10 @@
         <v>234.171035481181</v>
       </c>
       <c r="R20" t="n">
-        <v>0.09273171207046728</v>
+        <v>0.1663475885730508</v>
       </c>
       <c r="S20" t="n">
-        <v>0.7050657275740375</v>
+        <v>1.264788290313442</v>
       </c>
       <c r="T20" t="n">
         <v>0.08952551359744998</v>
@@ -3252,7 +3252,7 @@
         <v>0.2934333863422879</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.4882985724405338</v>
+        <v>0.8759386429468804</v>
       </c>
       <c r="Z20" t="n">
         <v>1.510834341188195</v>
@@ -3357,10 +3357,10 @@
         <v>223.2732531490377</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1811225075249547</v>
+        <v>0.2247076995682155</v>
       </c>
       <c r="S21" t="n">
-        <v>1.360014225338421</v>
+        <v>1.687287086138312</v>
       </c>
       <c r="T21" t="n">
         <v>0.1795447546054423</v>
@@ -3378,7 +3378,7 @@
         <v>0.2871845217458356</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.9537624133472821</v>
+        <v>1.183275125585201</v>
       </c>
       <c r="Z21" t="n">
         <v>1.715168075731323</v>
@@ -3498,10 +3498,10 @@
         <v>244.5347925117613</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2060126481135194</v>
+        <v>0.2494031590885081</v>
       </c>
       <c r="S22" t="n">
-        <v>1.598187994535846</v>
+        <v>1.934799335402601</v>
       </c>
       <c r="T22" t="n">
         <v>0.204565086619697</v>
@@ -3519,7 +3519,7 @@
         <v>0.3073329685458401</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.084777584695169</v>
+        <v>1.313254108467636</v>
       </c>
       <c r="Z22" t="n">
         <v>1.067981697722314</v>
@@ -3634,10 +3634,10 @@
         <v>236.5612673579149</v>
       </c>
       <c r="R23" t="n">
-        <v>0.04981614129290352</v>
+        <v>0.1424385911245623</v>
       </c>
       <c r="S23" t="n">
-        <v>0.3933509307632035</v>
+        <v>1.124702775873719</v>
       </c>
       <c r="T23" t="n">
         <v>0.04368666974920625</v>
@@ -3655,7 +3655,7 @@
         <v>0.3006488573105169</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.2623160692577031</v>
+        <v>0.7500366420335924</v>
       </c>
       <c r="Z23" t="n">
         <v>2.04967100115046</v>
@@ -3786,10 +3786,10 @@
         <v>247.873922495493</v>
       </c>
       <c r="R24" t="n">
-        <v>0.08998632577613506</v>
+        <v>0.1651785972892065</v>
       </c>
       <c r="S24" t="n">
-        <v>0.7170678984133358</v>
+        <v>1.316247425366557</v>
       </c>
       <c r="T24" t="n">
         <v>0.08665060885585113</v>
@@ -3807,7 +3807,7 @@
         <v>0.3103363112861986</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.473827150155454</v>
+        <v>0.869755525021967</v>
       </c>
       <c r="Z24" t="n">
         <v>1.727825071910654</v>
@@ -3928,10 +3928,10 @@
         <v>220.9488316052588</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1566662569553935</v>
+        <v>0.2035209434707107</v>
       </c>
       <c r="S25" t="n">
-        <v>1.184954404382703</v>
+        <v>1.539342568313268</v>
       </c>
       <c r="T25" t="n">
         <v>0.1548633999515385</v>
@@ -3949,7 +3949,7 @@
         <v>0.2910348595471279</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.8249839003148582</v>
+        <v>1.071714515960078</v>
       </c>
       <c r="Z25" t="n">
         <v>2.023241853551796</v>
@@ -4056,10 +4056,10 @@
         <v>241.8963545075621</v>
       </c>
       <c r="R26" t="n">
-        <v>0.143430135956279</v>
+        <v>0.1978794570313649</v>
       </c>
       <c r="S26" t="n">
-        <v>1.128211929288773</v>
+        <v>1.556506674803845</v>
       </c>
       <c r="T26" t="n">
         <v>0.1413817863485376</v>
@@ -4077,7 +4077,7 @@
         <v>0.3115801643514664</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.7552485338186293</v>
+        <v>1.041957945583488</v>
       </c>
       <c r="Z26" t="n">
         <v>1.814735350443754</v>
@@ -4192,10 +4192,10 @@
         <v>240.5275916812512</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1328634109433547</v>
+        <v>0.1850286775015645</v>
       </c>
       <c r="S27" t="n">
-        <v>1.099276420804634</v>
+        <v>1.530877921212272</v>
       </c>
       <c r="T27" t="n">
         <v>0.1307297960054644</v>
@@ -4213,7 +4213,7 @@
         <v>0.3081267813116271</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.6996103937093988</v>
+        <v>0.9742937125826768</v>
       </c>
       <c r="Z27" t="n">
         <v>2.286399926785486</v>
@@ -4328,10 +4328,10 @@
         <v>266.2960638713244</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1139894932824745</v>
+        <v>0.1797220627695864</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9663749523476942</v>
+        <v>1.523639546448364</v>
       </c>
       <c r="T28" t="n">
         <v>0.1113478154113415</v>
@@ -4349,7 +4349,7 @@
         <v>0.3311278931814672</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.6001903259570932</v>
+        <v>0.9462928584835055</v>
       </c>
       <c r="Z28" t="n">
         <v>1.935952327392637</v>
@@ -4464,10 +4464,10 @@
         <v>284.7269284419845</v>
       </c>
       <c r="R29" t="n">
-        <v>0.07221206983071675</v>
+        <v>0.1612169435869595</v>
       </c>
       <c r="S29" t="n">
-        <v>0.6298550523583751</v>
+        <v>1.40618191227678</v>
       </c>
       <c r="T29" t="n">
         <v>0.06782599345028648</v>
@@ -4485,7 +4485,7 @@
         <v>0.3477246405209058</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.3802014627371395</v>
+        <v>0.8488181811359736</v>
       </c>
       <c r="Z29" t="n">
         <v>1.522654873611859</v>
@@ -4606,10 +4606,10 @@
         <v>226.7830462246382</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1587640188783433</v>
+        <v>0.20544330936256</v>
       </c>
       <c r="S30" t="n">
-        <v>1.217778321278725</v>
+        <v>1.57582561943833</v>
       </c>
       <c r="T30" t="n">
         <v>0.1569707074288889</v>
@@ -4627,7 +4627,7 @@
         <v>0.3063513533951608</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.8360196426563188</v>
+        <v>1.08182347167106</v>
       </c>
       <c r="Z30" t="n">
         <v>1.79128132766431</v>
@@ -4734,10 +4734,10 @@
         <v>270.1018493769502</v>
       </c>
       <c r="R31" t="n">
-        <v>0.05663008008278325</v>
+        <v>0.1495197858394545</v>
       </c>
       <c r="S31" t="n">
-        <v>0.487095636793758</v>
+        <v>1.286073323404631</v>
       </c>
       <c r="T31" t="n">
         <v>0.05110101586211099</v>
@@ -4755,7 +4755,7 @@
         <v>0.3392501036988053</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.2981722712873556</v>
+        <v>0.7872610118328833</v>
       </c>
       <c r="Z31" t="n">
         <v>1.704841662042015</v>
@@ -4886,10 +4886,10 @@
         <v>287.9302939885354</v>
       </c>
       <c r="R32" t="n">
-        <v>0.03077143660308182</v>
+        <v>0.1493590408051323</v>
       </c>
       <c r="S32" t="n">
-        <v>0.2670928632313241</v>
+        <v>1.296420910492415</v>
       </c>
       <c r="T32" t="n">
         <v>0.01802962316473172</v>
@@ -4907,7 +4907,7 @@
         <v>0.3543630846710932</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.1620123638769047</v>
+        <v>0.7863789909894255</v>
       </c>
       <c r="Z32" t="n">
         <v>1.594096148262637</v>
@@ -5035,10 +5035,10 @@
         <v>264.2461340196743</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1289391824338775</v>
+        <v>0.1862167924116531</v>
       </c>
       <c r="S33" t="n">
-        <v>1.116655495291831</v>
+        <v>1.612698332942558</v>
       </c>
       <c r="T33" t="n">
         <v>0.1266563492883992</v>
@@ -5056,7 +5056,7 @@
         <v>0.3348516321525572</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.6789085327655636</v>
+        <v>0.9804945783438466</v>
       </c>
       <c r="Z33" t="n">
         <v>2.498153280108286</v>
@@ -5176,10 +5176,10 @@
         <v>281.169361439991</v>
       </c>
       <c r="R34" t="n">
-        <v>0.06328323870855847</v>
+        <v>0.1551931006477119</v>
       </c>
       <c r="S34" t="n">
-        <v>0.5525067371708684</v>
+        <v>1.354943827467245</v>
       </c>
       <c r="T34" t="n">
         <v>0.05828321069176491</v>
@@ -5197,7 +5197,7 @@
         <v>0.3503361830308205</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.3331936034397272</v>
+        <v>0.8171097037548142</v>
       </c>
       <c r="Z34" t="n">
         <v>1.855505169143659</v>
@@ -5328,10 +5328,10 @@
         <v>281.9962024540009</v>
       </c>
       <c r="R35" t="n">
-        <v>0.09218619482357263</v>
+        <v>0.1674530125917285</v>
       </c>
       <c r="S35" t="n">
-        <v>0.8182161157394773</v>
+        <v>1.486261080565208</v>
       </c>
       <c r="T35" t="n">
         <v>0.0888593814683693</v>
@@ -5349,7 +5349,7 @@
         <v>0.3499440493483648</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.4853699978861787</v>
+        <v>0.8816576985657134</v>
       </c>
       <c r="Z35" t="n">
         <v>1.927435373758564</v>
@@ -5470,10 +5470,10 @@
         <v>313.4189294926919</v>
       </c>
       <c r="R36" t="n">
-        <v>0.07732500931950412</v>
+        <v>0.1725948211520753</v>
       </c>
       <c r="S36" t="n">
-        <v>0.6911059511499482</v>
+        <v>1.542596749558661</v>
       </c>
       <c r="T36" t="n">
         <v>0.07298512758614695</v>
@@ -5491,7 +5491,7 @@
         <v>0.3760884677454025</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.4070901891507086</v>
+        <v>0.9086537332173147</v>
       </c>
       <c r="Z36" t="n">
         <v>1.53729142860205</v>
@@ -5622,10 +5622,10 @@
         <v>299.0196112052213</v>
       </c>
       <c r="R37" t="n">
-        <v>0.05621787211576051</v>
+        <v>0.1550880352034505</v>
       </c>
       <c r="S37" t="n">
-        <v>0.5111196147272521</v>
+        <v>1.410023784585248</v>
       </c>
       <c r="T37" t="n">
         <v>0.05040459634901155</v>
@@ -5643,7 +5643,7 @@
         <v>0.364881865814434</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.2959798109494707</v>
+        <v>0.8165184062022401</v>
       </c>
       <c r="Z37" t="n">
         <v>1.504115270314607</v>
@@ -5769,10 +5769,10 @@
         <v>196.5951101967444</v>
       </c>
       <c r="R38" t="n">
-        <v>0.07635843891370894</v>
+        <v>0.1436041103944199</v>
       </c>
       <c r="S38" t="n">
-        <v>0.5419449195869239</v>
+        <v>1.019213058402158</v>
       </c>
       <c r="T38" t="n">
         <v>0.07273745913086918</v>
@@ -5790,7 +5790,7 @@
         <v>0.2878264500307892</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4021143648950449</v>
+        <v>0.7562396045422932</v>
       </c>
       <c r="Z38" t="n">
         <v>1.687325704037551</v>
@@ -5913,10 +5913,10 @@
         <v>323.4165328344835</v>
       </c>
       <c r="R39" t="n">
-        <v>0.0483341481450096</v>
+        <v>0.1538079603710213</v>
       </c>
       <c r="S39" t="n">
-        <v>0.4694600958788613</v>
+        <v>1.493906535935649</v>
       </c>
       <c r="T39" t="n">
         <v>0.04131167368688926</v>
@@ -5934,7 +5934,7 @@
         <v>0.3845661629082811</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.2544559036557514</v>
+        <v>0.8097244918486701</v>
       </c>
       <c r="Z39" t="n">
         <v>1.578521260401653</v>
@@ -6065,10 +6065,10 @@
         <v>293.1570591856556</v>
       </c>
       <c r="R40" t="n">
-        <v>0.03800147209879001</v>
+        <v>0.1525175840334389</v>
       </c>
       <c r="S40" t="n">
-        <v>0.3306875984107793</v>
+        <v>1.327203152770443</v>
       </c>
       <c r="T40" t="n">
         <v>0.02853522062372488</v>
@@ -6086,7 +6086,7 @@
         <v>0.3674932885853415</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.2000759394012359</v>
+        <v>0.8029978107524116</v>
       </c>
       <c r="Z40" t="n">
         <v>1.674830976344968</v>
@@ -6217,10 +6217,10 @@
         <v>305.6082139027802</v>
       </c>
       <c r="R41" t="n">
-        <v>0.07190887064755039</v>
+        <v>0.1606053312751945</v>
       </c>
       <c r="S41" t="n">
-        <v>0.6708528610634821</v>
+        <v>1.498320652483824</v>
       </c>
       <c r="T41" t="n">
         <v>0.06746501544069941</v>
@@ -6238,7 +6238,7 @@
         <v>0.373258717415179</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.3785841585454207</v>
+        <v>0.8455512324305889</v>
       </c>
       <c r="Z41" t="n">
         <v>1.846134514880247</v>
@@ -6364,10 +6364,10 @@
         <v>315.1317766644796</v>
       </c>
       <c r="R42" t="n">
-        <v>0.05428703238891362</v>
+        <v>0.1602253898590378</v>
       </c>
       <c r="S42" t="n">
-        <v>0.4972489485376618</v>
+        <v>1.467604750719693</v>
       </c>
       <c r="T42" t="n">
         <v>0.04799569181311834</v>
@@ -6385,7 +6385,7 @@
         <v>0.3838211691085254</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.2858016221063577</v>
+        <v>0.8435288191160776</v>
       </c>
       <c r="Z42" t="n">
         <v>1.480664521061823</v>
@@ -6516,10 +6516,10 @@
         <v>321.4033322685574</v>
       </c>
       <c r="R43" t="n">
-        <v>0.1109090850517662</v>
+        <v>0.1898274599119487</v>
       </c>
       <c r="S43" t="n">
-        <v>1.013495543441304</v>
+        <v>1.734657576101598</v>
       </c>
       <c r="T43" t="n">
         <v>0.1079137766379967</v>
@@ -6537,7 +6537,7 @@
         <v>0.3900691327184876</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.5838860038590717</v>
+        <v>0.9993554354809889</v>
       </c>
       <c r="Z43" t="n">
         <v>1.439340007133741</v>
@@ -6647,10 +6647,10 @@
         <v>314.5938584943656</v>
       </c>
       <c r="R44" t="n">
-        <v>0.11332958141438</v>
+        <v>0.1892078984880181</v>
       </c>
       <c r="S44" t="n">
-        <v>1.030568900970404</v>
+        <v>1.720572630430406</v>
       </c>
       <c r="T44" t="n">
         <v>0.1104421312459423</v>
@@ -6668,7 +6668,7 @@
         <v>0.384912607267642</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.5966402152430089</v>
+        <v>0.9961127524754486</v>
       </c>
       <c r="Z44" t="n">
         <v>1.50723384675543</v>
@@ -6788,10 +6788,10 @@
         <v>313.0051935994815</v>
       </c>
       <c r="R45" t="n">
-        <v>0.08336298393892724</v>
+        <v>0.173171585851634</v>
       </c>
       <c r="S45" t="n">
-        <v>0.7524257190325718</v>
+        <v>1.5630289229556</v>
       </c>
       <c r="T45" t="n">
         <v>0.07938695419881975</v>
@@ -6809,7 +6809,7 @@
         <v>0.3853963200416587</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.4388785997161844</v>
+        <v>0.9116912509378938</v>
       </c>
       <c r="Z45" t="n">
         <v>1.487712759320674</v>
@@ -6929,10 +6929,10 @@
         <v>306.6923650057882</v>
       </c>
       <c r="R46" t="n">
-        <v>0.09938530847585811</v>
+        <v>0.1731358171873843</v>
       </c>
       <c r="S46" t="n">
-        <v>0.9396839689860219</v>
+        <v>1.63699196957063</v>
       </c>
       <c r="T46" t="n">
         <v>0.0962377864508145</v>
@@ -6950,7 +6950,7 @@
         <v>0.3793989623825361</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.5232399282539607</v>
+        <v>0.9115187541559383</v>
       </c>
       <c r="Z46" t="n">
         <v>2.031505293514654</v>
@@ -7070,10 +7070,10 @@
         <v>349.3228015573515</v>
       </c>
       <c r="R47" t="n">
-        <v>0.05243331918604521</v>
+        <v>0.1673746107027111</v>
       </c>
       <c r="S47" t="n">
-        <v>0.5034470721053385</v>
+        <v>1.607074642825151</v>
       </c>
       <c r="T47" t="n">
         <v>0.0455080320271757</v>
@@ -7091,7 +7091,7 @@
         <v>0.4151688976045474</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.2760150448901424</v>
+        <v>0.8810792718015494</v>
       </c>
       <c r="Z47" t="n">
         <v>1.503265936415298</v>
@@ -7222,10 +7222,10 @@
         <v>321.56025401793</v>
       </c>
       <c r="R48" t="n">
-        <v>0.0914788471054578</v>
+        <v>0.1727488754178357</v>
       </c>
       <c r="S48" t="n">
-        <v>0.8757070084245299</v>
+        <v>1.653687225927328</v>
       </c>
       <c r="T48" t="n">
         <v>0.08794453977254672</v>
@@ -7243,7 +7243,7 @@
         <v>0.3954384987113947</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.4815944043813257</v>
+        <v>0.9094440342966765</v>
       </c>
       <c r="Z48" t="n">
         <v>1.764890081667923</v>
@@ -7358,10 +7358,10 @@
         <v>308.8925094168035</v>
       </c>
       <c r="R49" t="n">
-        <v>0.05654222928206031</v>
+        <v>0.1516367667795676</v>
       </c>
       <c r="S49" t="n">
-        <v>0.5412196444315075</v>
+        <v>1.451460227890586</v>
       </c>
       <c r="T49" t="n">
         <v>0.05081916490692056</v>
@@ -7379,7 +7379,7 @@
         <v>0.3857476056231248</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.2976795513388528</v>
+        <v>0.7983265830613029</v>
       </c>
       <c r="Z49" t="n">
         <v>1.913899110729765</v>
@@ -7510,10 +7510,10 @@
         <v>303.9611458233277</v>
       </c>
       <c r="R50" t="n">
-        <v>0.05313542236089828</v>
+        <v>0.1573817884011909</v>
       </c>
       <c r="S50" t="n">
-        <v>0.4753202407734493</v>
+        <v>1.40785085038224</v>
       </c>
       <c r="T50" t="n">
         <v>0.04676444826895118</v>
@@ -7531,7 +7531,7 @@
         <v>0.3869231625496879</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.2797473925348255</v>
+        <v>0.8285837014462099</v>
       </c>
       <c r="Z50" t="n">
         <v>1.629242723209898</v>
@@ -7654,10 +7654,10 @@
         <v>377.8360772992849</v>
       </c>
       <c r="R51" t="n">
-        <v>0.0544925014649173</v>
+        <v>0.1762277052726732</v>
       </c>
       <c r="S51" t="n">
-        <v>0.5356528716038124</v>
+        <v>1.732291119838409</v>
       </c>
       <c r="T51" t="n">
         <v>0.04747982918864504</v>
@@ -7675,7 +7675,7 @@
         <v>0.4418336547953038</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.2868290831420199</v>
+        <v>0.927599757190917</v>
       </c>
       <c r="Z51" t="n">
         <v>1.316503208655358</v>
@@ -7806,10 +7806,10 @@
         <v>330.8903677032696</v>
       </c>
       <c r="R52" t="n">
-        <v>0.1006444529315732</v>
+        <v>0.1832270799218887</v>
       </c>
       <c r="S52" t="n">
-        <v>0.9481211214084003</v>
+        <v>1.726090802103506</v>
       </c>
       <c r="T52" t="n">
         <v>0.09732426197563739</v>
@@ -7827,7 +7827,7 @@
         <v>0.4066497606715624</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.5298329813820044</v>
+        <v>0.9645812282464914</v>
       </c>
       <c r="Z52" t="n">
         <v>1.584149407239855</v>
@@ -7937,10 +7937,10 @@
         <v>392.0741579793797</v>
       </c>
       <c r="R53" t="n">
-        <v>0.03438321652662626</v>
+        <v>0.1624142699491409</v>
       </c>
       <c r="S53" t="n">
-        <v>0.3697615463276097</v>
+        <v>1.746624012199618</v>
       </c>
       <c r="T53" t="n">
         <v>0.02222423901848012</v>
@@ -7958,7 +7958,7 @@
         <v>0.4491321137983504</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.1809724284644844</v>
+        <v>0.8548503548881443</v>
       </c>
       <c r="Z53" t="n">
         <v>1.339953989136903</v>
@@ -8089,10 +8089,10 @@
         <v>424.873838993316</v>
       </c>
       <c r="R54" t="n">
-        <v>0.06463792665756517</v>
+        <v>0.1890972723581611</v>
       </c>
       <c r="S54" t="n">
-        <v>0.6721163167146286</v>
+        <v>1.966266072726438</v>
       </c>
       <c r="T54" t="n">
         <v>0.05843092022550294</v>
@@ -8110,7 +8110,7 @@
         <v>0.4819146144995276</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.3401755900823976</v>
+        <v>0.9951785203166106</v>
       </c>
       <c r="Z54" t="n">
         <v>1.179780120395783</v>
@@ -8236,10 +8236,10 @@
         <v>478.385373533364</v>
       </c>
       <c r="R55" t="n">
-        <v>0.0429990667816744</v>
+        <v>0.1899986849656951</v>
       </c>
       <c r="S55" t="n">
-        <v>0.4832052937642912</v>
+        <v>2.135124719097512</v>
       </c>
       <c r="T55" t="n">
         <v>0.03232893732393908</v>
@@ -8257,7 +8257,7 @@
         <v>0.5171224315333871</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.226247329811044</v>
+        <v>0.9997122811841719</v>
       </c>
       <c r="Z55" t="n">
         <v>0.950548852555585</v>
@@ -8383,10 +8383,10 @@
         <v>445.5341436142293</v>
       </c>
       <c r="R56" t="n">
-        <v>0.03659032067400851</v>
+        <v>0.1801932355186417</v>
       </c>
       <c r="S56" t="n">
-        <v>0.4015502513867581</v>
+        <v>1.977480319599974</v>
       </c>
       <c r="T56" t="n">
         <v>0.02397369377986108</v>
@@ -8404,7 +8404,7 @@
         <v>0.4952071191030444</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.1925520486011496</v>
+        <v>0.9482446724723617</v>
       </c>
       <c r="Z56" t="n">
         <v>1.101249100551098</v>
@@ -8530,10 +8530,10 @@
         <v>337.0345879482724</v>
       </c>
       <c r="R57" t="n">
-        <v>0.07294693480497917</v>
+        <v>0.1630627201808847</v>
       </c>
       <c r="S57" t="n">
-        <v>0.7320316021428864</v>
+        <v>1.636354764225714</v>
       </c>
       <c r="T57" t="n">
         <v>0.06843164725288088</v>
@@ -8551,7 +8551,7 @@
         <v>0.4168206389919381</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.3840151881482757</v>
+        <v>0.8584125068125258</v>
       </c>
       <c r="Z57" t="n">
         <v>2.081212019701819</v>
@@ -8666,10 +8666,10 @@
         <v>380.1137691798457</v>
       </c>
       <c r="R58" t="n">
-        <v>0.06480172975618617</v>
+        <v>0.1763235125584862</v>
       </c>
       <c r="S58" t="n">
-        <v>0.6522407553683903</v>
+        <v>1.774727024310276</v>
       </c>
       <c r="T58" t="n">
         <v>0.05909759926430623</v>
@@ -8687,7 +8687,7 @@
         <v>0.4533296193620625</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.34109064168766</v>
+        <v>0.9280971398368403</v>
       </c>
       <c r="Z58" t="n">
         <v>1.381128034945611</v>
@@ -8813,10 +8813,10 @@
         <v>456.9169880413516</v>
       </c>
       <c r="R59" t="n">
-        <v>0.06400469199240685</v>
+        <v>0.1952014195235664</v>
       </c>
       <c r="S59" t="n">
-        <v>0.6883608159761976</v>
+        <v>2.099361847392297</v>
       </c>
       <c r="T59" t="n">
         <v>0.05742693878273856</v>
@@ -8834,7 +8834,7 @@
         <v>0.5104626700671484</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.3368017605640269</v>
+        <v>1.02717753517092</v>
       </c>
       <c r="Z59" t="n">
         <v>1.015433523266514</v>
@@ -8960,10 +8960,10 @@
         <v>411.2609049271321</v>
       </c>
       <c r="R60" t="n">
-        <v>0.04706582776155609</v>
+        <v>0.1742630908622917</v>
       </c>
       <c r="S60" t="n">
-        <v>0.5004406138227914</v>
+        <v>1.852901187664119</v>
       </c>
       <c r="T60" t="n">
         <v>0.03857028603673331</v>
@@ -8981,7 +8981,7 @@
         <v>0.4770004173179468</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.2477095563478234</v>
+        <v>0.9171544404570683</v>
       </c>
       <c r="Z60" t="n">
         <v>1.342866533386068</v>
@@ -9107,10 +9107,10 @@
         <v>307.7061724017742</v>
       </c>
       <c r="R61" t="n">
-        <v>0.09909207506941722</v>
+        <v>0.1711878148093804</v>
       </c>
       <c r="S61" t="n">
-        <v>0.9468002882868101</v>
+        <v>1.635657264207734</v>
       </c>
       <c r="T61" t="n">
         <v>0.09593719750442921</v>
@@ -9128,7 +9128,7 @@
         <v>0.3998531518879836</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.5216946805368882</v>
+        <v>0.901260492286842</v>
       </c>
       <c r="Z61" t="n">
         <v>1.849360558734685</v>
@@ -9235,10 +9235,10 @@
         <v>398.7155432398492</v>
       </c>
       <c r="R62" t="n">
-        <v>0.09668688587603222</v>
+        <v>0.1907714419395153</v>
       </c>
       <c r="S62" t="n">
-        <v>1.01636673570329</v>
+        <v>2.005377936756356</v>
       </c>
       <c r="T62" t="n">
         <v>0.09292267238590614</v>
@@ -9256,7 +9256,7 @@
         <v>0.4694688271457726</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.5088896930537</v>
+        <v>1.004082608022825</v>
       </c>
       <c r="Z62" t="n">
         <v>1.391278762043855</v>
@@ -9368,10 +9368,10 @@
         <v>384.2605294760182</v>
       </c>
       <c r="R63" t="n">
-        <v>0.07739207976267599</v>
+        <v>0.1736234266733595</v>
       </c>
       <c r="S63" t="n">
-        <v>0.8294894064816528</v>
+        <v>1.860898344949917</v>
       </c>
       <c r="T63" t="n">
         <v>0.07286630329763401</v>
@@ -9389,7 +9389,7 @@
         <v>0.4561135555770747</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.4073556891926897</v>
+        <v>0.9138724640739292</v>
       </c>
       <c r="Z63" t="n">
         <v>1.598797957507454</v>
@@ -9509,10 +9509,10 @@
         <v>452.1187371364575</v>
       </c>
       <c r="R64" t="n">
-        <v>0.06558393032972752</v>
+        <v>0.1779161429465254</v>
       </c>
       <c r="S64" t="n">
-        <v>0.777064794086619</v>
+        <v>2.108022045771797</v>
       </c>
       <c r="T64" t="n">
         <v>0.05977342890263342</v>
@@ -9530,7 +9530,7 @@
         <v>0.5019070749261886</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.3451184844150896</v>
+        <v>0.936237723143153</v>
       </c>
       <c r="Z64" t="n">
         <v>1.10119586004548</v>
@@ -9650,10 +9650,10 @@
         <v>394.6100995094315</v>
       </c>
       <c r="R65" t="n">
-        <v>0.06790052312651738</v>
+        <v>0.1690405110831604</v>
       </c>
       <c r="S65" t="n">
-        <v>0.7493185472207505</v>
+        <v>1.865452346372572</v>
       </c>
       <c r="T65" t="n">
         <v>0.06268074798405976</v>
@@ -9671,7 +9671,7 @@
         <v>0.4665368738476411</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.3573841587356687</v>
+        <v>0.8897192254783929</v>
       </c>
       <c r="Z65" t="n">
         <v>1.635067194459739</v>
@@ -9797,10 +9797,10 @@
         <v>452.6514919070291</v>
       </c>
       <c r="R66" t="n">
-        <v>0.08796694425297853</v>
+        <v>0.1951790911778243</v>
       </c>
       <c r="S66" t="n">
-        <v>0.9893293692300548</v>
+        <v>2.19510190790007</v>
       </c>
       <c r="T66" t="n">
         <v>0.08352047049909307</v>
@@ -9818,7 +9818,7 @@
         <v>0.5122336535939199</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.4629023407818391</v>
+        <v>1.027077374860929</v>
       </c>
       <c r="Z66" t="n">
         <v>1.252616345898347</v>
@@ -9933,10 +9933,10 @@
         <v>490.1154343039471</v>
       </c>
       <c r="R67" t="n">
-        <v>0.0702016204250005</v>
+        <v>0.203591790363292</v>
       </c>
       <c r="S67" t="n">
-        <v>0.7794725025589507</v>
+        <v>2.260548992661395</v>
       </c>
       <c r="T67" t="n">
         <v>0.06396579620619626</v>
@@ -9954,7 +9954,7 @@
         <v>0.5429796946683215</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.3693600001067357</v>
+        <v>1.071181309705723</v>
       </c>
       <c r="Z67" t="n">
         <v>0.9845975164887504</v>
@@ -10080,10 +10080,10 @@
         <v>434.9747725949474</v>
       </c>
       <c r="R68" t="n">
-        <v>0.03668366301475316</v>
+        <v>0.1776781307107918</v>
       </c>
       <c r="S68" t="n">
-        <v>0.3971425786758251</v>
+        <v>1.923568837070754</v>
       </c>
       <c r="T68" t="n">
         <v>0.02424323199028495</v>
@@ -10101,7 +10101,7 @@
         <v>0.5036370135031565</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.1930510278295089</v>
+        <v>0.9350469101940364</v>
       </c>
       <c r="Z68" t="n">
         <v>1.226402369197755</v>
@@ -10232,10 +10232,10 @@
         <v>1238.670703415034</v>
       </c>
       <c r="R69" t="n">
-        <v>0.05084313326703099</v>
+        <v>0.3107338143015927</v>
       </c>
       <c r="S69" t="n">
-        <v>0.8972659231449529</v>
+        <v>5.483746669925725</v>
       </c>
       <c r="T69" t="n">
         <v>0.03062915791231641</v>
@@ -10253,7 +10253,7 @@
         <v>0.946013705779765</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.2649729012116592</v>
+        <v>1.619413183047246</v>
       </c>
       <c r="Z69" t="n">
         <v>0.1370008919991575</v>
@@ -10370,10 +10370,10 @@
         <v>478.6234541693048</v>
       </c>
       <c r="R70" t="n">
-        <v>0.04865580943865511</v>
+        <v>0.1878843652096997</v>
       </c>
       <c r="S70" t="n">
-        <v>0.5551188074722145</v>
+        <v>2.143590785173986</v>
       </c>
       <c r="T70" t="n">
         <v>0.03962878119129047</v>
@@ -10391,7 +10391,7 @@
         <v>0.5342242883200008</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.2560110435409735</v>
+        <v>0.9885864187094314</v>
       </c>
       <c r="Z70" t="n">
         <v>0.946244471261862</v>
@@ -10514,10 +10514,10 @@
         <v>408.8555381603708</v>
       </c>
       <c r="R71" t="n">
-        <v>0.04507636038484628</v>
+        <v>0.1645863550150745</v>
       </c>
       <c r="S71" t="n">
-        <v>0.5030740849675478</v>
+        <v>1.836863696191139</v>
       </c>
       <c r="T71" t="n">
         <v>0.03651177165433162</v>
@@ -10535,7 +10535,7 @@
         <v>0.4842629319133807</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.2372409183667116</v>
+        <v>0.8662327144658413</v>
       </c>
       <c r="Z71" t="n">
         <v>1.514207659214979</v>
@@ -10666,10 +10666,10 @@
         <v>666.2793795323425</v>
       </c>
       <c r="R72" t="n">
-        <v>0.03904835858921185</v>
+        <v>0.2216613326618502</v>
       </c>
       <c r="S72" t="n">
-        <v>0.5156981242259047</v>
+        <v>2.927404316009116</v>
       </c>
       <c r="T72" t="n">
         <v>0.02291111455412285</v>
@@ -10687,7 +10687,7 @@
         <v>0.6586738663279574</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.2052529394970986</v>
+        <v>1.165135789197005</v>
       </c>
       <c r="Z72" t="n">
         <v>0.6165669580640616</v>
@@ -10813,10 +10813,10 @@
         <v>1086.679426976399</v>
       </c>
       <c r="R73" t="n">
-        <v>0.05587450300415601</v>
+        <v>0.2972000970258485</v>
       </c>
       <c r="S73" t="n">
-        <v>0.9039654851087424</v>
+        <v>4.808250909405912</v>
       </c>
       <c r="T73" t="n">
         <v>0.04008446319535302</v>
@@ -10834,7 +10834,7 @@
         <v>0.8890467814097006</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.2922297877313261</v>
+        <v>1.554389150649505</v>
       </c>
       <c r="Z73" t="n">
         <v>0.2331909053053322</v>
@@ -10965,10 +10965,10 @@
         <v>609.7906666368677</v>
       </c>
       <c r="R74" t="n">
-        <v>0.04564289780540497</v>
+        <v>0.2193341062086415</v>
       </c>
       <c r="S74" t="n">
-        <v>0.5607741131030719</v>
+        <v>2.69476511782389</v>
       </c>
       <c r="T74" t="n">
         <v>0.03336586532481567</v>
@@ -10986,7 +10986,7 @@
         <v>0.6297326029758291</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.2400013842308379</v>
+        <v>1.153311722746796</v>
       </c>
       <c r="Z74" t="n">
         <v>0.6845167484937132</v>
@@ -11117,10 +11117,10 @@
         <v>853.3713977577169</v>
       </c>
       <c r="R75" t="n">
-        <v>0.05779622549863718</v>
+        <v>0.2679578748392499</v>
       </c>
       <c r="S75" t="n">
-        <v>0.8163252418374817</v>
+        <v>3.784689659112189</v>
       </c>
       <c r="T75" t="n">
         <v>0.04548151103993846</v>
@@ -11138,7 +11138,7 @@
         <v>0.7734510757285569</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.3033112201210756</v>
+        <v>1.406227296979105</v>
       </c>
       <c r="Z75" t="n">
         <v>0.3811453551514264</v>
@@ -11264,10 +11264,10 @@
         <v>576.3546391557558</v>
       </c>
       <c r="R76" t="n">
-        <v>0.08583568985324351</v>
+        <v>0.222997143230747</v>
       </c>
       <c r="S76" t="n">
-        <v>1.038447179281785</v>
+        <v>2.697837633410887</v>
       </c>
       <c r="T76" t="n">
         <v>0.08027605924552203</v>
@@ -11285,7 +11285,7 @@
         <v>0.6090304352895056</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.4514293450213802</v>
+        <v>1.172792511860858</v>
       </c>
       <c r="Z76" t="n">
         <v>0.8389912101767373</v>
@@ -11405,10 +11405,10 @@
         <v>438.8803883886732</v>
       </c>
       <c r="R77" t="n">
-        <v>0.06532161622128592</v>
+        <v>0.1758655468289978</v>
       </c>
       <c r="S77" t="n">
-        <v>0.7579798632754243</v>
+        <v>2.0407110364312</v>
       </c>
       <c r="T77" t="n">
         <v>0.0595240127325264</v>
@@ -11426,7 +11426,7 @@
         <v>0.5086041840205867</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.3437557155558801</v>
+        <v>0.9254943522375414</v>
       </c>
       <c r="Z77" t="n">
         <v>1.438250043131512</v>
@@ -11546,10 +11546,10 @@
         <v>1292.62649117756</v>
       </c>
       <c r="R78" t="n">
-        <v>0.0444024639427703</v>
+        <v>0.3136104791978406</v>
       </c>
       <c r="S78" t="n">
-        <v>0.8071703757897456</v>
+        <v>5.700969402778818</v>
       </c>
       <c r="T78" t="n">
         <v>0.01647080975316907</v>
@@ -11567,7 +11567,7 @@
         <v>0.9836345464048456</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.2310330439822907</v>
+        <v>1.631764933747987</v>
       </c>
       <c r="Z78" t="n">
         <v>0.1584126895994296</v>
@@ -11695,10 +11695,10 @@
         <v>513.0580779015858</v>
       </c>
       <c r="R79" t="n">
-        <v>0.09123654063782105</v>
+        <v>0.2111155566698819</v>
       </c>
       <c r="S79" t="n">
-        <v>1.061668841907705</v>
+        <v>2.45663422781619</v>
       </c>
       <c r="T79" t="n">
         <v>0.08648967094060885</v>
@@ -11716,7 +11716,7 @@
         <v>0.5671329528751325</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.4799844664089837</v>
+        <v>1.110653550764097</v>
       </c>
       <c r="Z79" t="n">
         <v>1.007526740184383</v>
@@ -11836,10 +11836,10 @@
         <v>570.1722789840418</v>
       </c>
       <c r="R80" t="n">
-        <v>0.07483478951273069</v>
+        <v>0.2202450652301969</v>
       </c>
       <c r="S80" t="n">
-        <v>0.8894648203106352</v>
+        <v>2.617769604816691</v>
       </c>
       <c r="T80" t="n">
         <v>0.06834649361487261</v>
@@ -11857,7 +11857,7 @@
         <v>0.6089919959124054</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.3935860832627338</v>
+        <v>1.158356870465331</v>
       </c>
       <c r="Z80" t="n">
         <v>0.788833226851519</v>
@@ -11983,10 +11983,10 @@
         <v>510.16643802853</v>
       </c>
       <c r="R81" t="n">
-        <v>0.06407026516373758</v>
+        <v>0.1997219945616396</v>
       </c>
       <c r="S81" t="n">
-        <v>0.7458415078500568</v>
+        <v>2.324962339300304</v>
       </c>
       <c r="T81" t="n">
         <v>0.05715148730020408</v>
@@ -12004,7 +12004,7 @@
         <v>0.5664991819785514</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.3370704073601075</v>
+        <v>1.050727258481317</v>
       </c>
       <c r="Z81" t="n">
         <v>1.022835434671043</v>
@@ -12135,10 +12135,10 @@
         <v>759.344772427325</v>
       </c>
       <c r="R82" t="n">
-        <v>0.07234879643124069</v>
+        <v>0.2537554240528723</v>
       </c>
       <c r="S82" t="n">
-        <v>0.9762030935977969</v>
+        <v>3.423924684262874</v>
       </c>
       <c r="T82" t="n">
         <v>0.06389921033786029</v>
@@ -12156,7 +12156,7 @@
         <v>0.7264015100633197</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.3800244682467077</v>
+        <v>1.332893909051542</v>
       </c>
       <c r="Z82" t="n">
         <v>0.4822266708992256</v>
@@ -12282,10 +12282,10 @@
         <v>1254.76304109255</v>
       </c>
       <c r="R83" t="n">
-        <v>0.05127819870031635</v>
+        <v>0.3108711890828721</v>
       </c>
       <c r="S83" t="n">
-        <v>0.9142568240092622</v>
+        <v>5.542630459153318</v>
       </c>
       <c r="T83" t="n">
         <v>0.03100095742748128</v>
@@ -12303,7 +12303,7 @@
         <v>0.9749154902106582</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.2671173992673154</v>
+        <v>1.619384175724612</v>
       </c>
       <c r="Z83" t="n">
         <v>0.1841893405705091</v>
@@ -12434,10 +12434,10 @@
         <v>608.1989033494216</v>
       </c>
       <c r="R84" t="n">
-        <v>0.07019649559990247</v>
+        <v>0.222175145223728</v>
       </c>
       <c r="S84" t="n">
-        <v>0.8736134646201296</v>
+        <v>2.765026896465913</v>
       </c>
       <c r="T84" t="n">
         <v>0.06300745258876092</v>
@@ -12455,7 +12455,7 @@
         <v>0.6377711937506886</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.3691135583529703</v>
+        <v>1.168261431432941</v>
       </c>
       <c r="Z84" t="n">
         <v>0.7737190204340079</v>
@@ -12581,10 +12581,10 @@
         <v>732.1387507307827</v>
       </c>
       <c r="R85" t="n">
-        <v>0.06265722110392892</v>
+        <v>0.2433128351589346</v>
       </c>
       <c r="S85" t="n">
-        <v>0.8422529202917891</v>
+        <v>3.270667647662995</v>
       </c>
       <c r="T85" t="n">
         <v>0.0531060324796578</v>
@@ -12602,7 +12602,7 @@
         <v>0.7147168721522457</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.3291913684462953</v>
+        <v>1.27832808023296</v>
       </c>
       <c r="Z85" t="n">
         <v>0.5596783685001662</v>
@@ -12728,10 +12728,10 @@
         <v>611.6757288894323</v>
       </c>
       <c r="R86" t="n">
-        <v>0.07432728547436228</v>
+        <v>0.2248780207452597</v>
       </c>
       <c r="S86" t="n">
-        <v>0.9238811220523693</v>
+        <v>2.795212509176181</v>
       </c>
       <c r="T86" t="n">
         <v>0.06752174637442812</v>
@@ -12749,7 +12749,7 @@
         <v>0.6411318138246039</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.3908265118387287</v>
+        <v>1.182449915615208</v>
       </c>
       <c r="Z86" t="n">
         <v>0.7555506855252948</v>
@@ -12875,10 +12875,10 @@
         <v>459.1699382574389</v>
       </c>
       <c r="R87" t="n">
-        <v>0.06617299483565561</v>
+        <v>0.1798670889920416</v>
       </c>
       <c r="S87" t="n">
-        <v>0.7829417182639864</v>
+        <v>2.128140762924791</v>
       </c>
       <c r="T87" t="n">
         <v>0.06027826715530753</v>
@@ -12896,7 +12896,7 @@
         <v>0.5306403981356845</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.3482085477946111</v>
+        <v>0.9464776078143532</v>
       </c>
       <c r="Z87" t="n">
         <v>1.341268064918048</v>
@@ -13022,10 +13022,10 @@
         <v>533.8687605706282</v>
       </c>
       <c r="R88" t="n">
-        <v>0.06145180827517402</v>
+        <v>0.202988582744401</v>
       </c>
       <c r="S88" t="n">
-        <v>0.7310328072978098</v>
+        <v>2.414759104053769</v>
       </c>
       <c r="T88" t="n">
         <v>0.0539589406494067</v>
@@ -13043,7 +13043,7 @@
         <v>0.5888625557407738</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.323258934159171</v>
+        <v>1.067794012026572</v>
       </c>
       <c r="Z88" t="n">
         <v>0.9585359262001968</v>
@@ -13169,10 +13169,10 @@
         <v>562.0364089284777</v>
       </c>
       <c r="R89" t="n">
-        <v>0.07826872287482545</v>
+        <v>0.212480242100515</v>
       </c>
       <c r="S89" t="n">
-        <v>0.9600696053921123</v>
+        <v>2.606351741720774</v>
       </c>
       <c r="T89" t="n">
         <v>0.07236900003627553</v>
@@ -13190,7 +13190,7 @@
         <v>0.6067411407991138</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.4116640410160693</v>
+        <v>1.117566147579303</v>
       </c>
       <c r="Z89" t="n">
         <v>0.9155231863041786</v>
@@ -13316,10 +13316,10 @@
         <v>677.0637127164142</v>
       </c>
       <c r="R90" t="n">
-        <v>0.06047695440992727</v>
+        <v>0.2274451325619174</v>
       </c>
       <c r="S90" t="n">
-        <v>0.8051855338053412</v>
+        <v>3.028187055055015</v>
       </c>
       <c r="T90" t="n">
         <v>0.05139211905123564</v>
@@ -13337,7 +13337,7 @@
         <v>0.6827385445859135</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.3178663574954929</v>
+        <v>1.195449680344165</v>
       </c>
       <c r="Z90" t="n">
         <v>0.6951873708827524</v>
@@ -13463,10 +13463,10 @@
         <v>1042.792822526655</v>
       </c>
       <c r="R91" t="n">
-        <v>0.05662891895183384</v>
+        <v>0.2856231513329896</v>
       </c>
       <c r="S91" t="n">
-        <v>0.9126506592214717</v>
+        <v>4.603198545511447</v>
       </c>
       <c r="T91" t="n">
         <v>0.04195553293815446</v>
@@ -13484,7 +13484,7 @@
         <v>0.8912471830718696</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.2964124061182552</v>
+        <v>1.495035524193921</v>
       </c>
       <c r="Z91" t="n">
         <v>0.2970031359163937</v>
@@ -13615,10 +13615,10 @@
         <v>674.6304139354371</v>
       </c>
       <c r="R92" t="n">
-        <v>0.08031978886397</v>
+        <v>0.2326266863550407</v>
       </c>
       <c r="S92" t="n">
-        <v>1.069195248592089</v>
+        <v>3.096663366082433</v>
       </c>
       <c r="T92" t="n">
         <v>0.07373934089763781</v>
@@ -13636,7 +13636,7 @@
         <v>0.6860171197893332</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.4221672075199015</v>
+        <v>1.222704391559595</v>
       </c>
       <c r="Z92" t="n">
         <v>0.6968402874101338</v>
@@ -13762,10 +13762,10 @@
         <v>702.5799611680491</v>
       </c>
       <c r="R93" t="n">
-        <v>0.0739918014770244</v>
+        <v>0.2357103271621922</v>
       </c>
       <c r="S93" t="n">
-        <v>1.000848942735287</v>
+        <v>3.188332045210745</v>
       </c>
       <c r="T93" t="n">
         <v>0.06653998348747318</v>
@@ -13783,7 +13783,7 @@
         <v>0.7034594520748249</v>
       </c>
       <c r="Y93" t="n">
-        <v>0.3888294301821449</v>
+        <v>1.238665776058733</v>
       </c>
       <c r="Z93" t="n">
         <v>0.6536680892574568</v>
@@ -13909,10 +13909,10 @@
         <v>519.2504533839374</v>
       </c>
       <c r="R94" t="n">
-        <v>0.08581989242486289</v>
+        <v>0.1987670342804565</v>
       </c>
       <c r="S94" t="n">
-        <v>1.06975163481739</v>
+        <v>2.477646543958159</v>
       </c>
       <c r="T94" t="n">
         <v>0.0809787128873658</v>
@@ -13930,7 +13930,7 @@
         <v>0.5798484040952151</v>
       </c>
       <c r="Y94" t="n">
-        <v>0.4514752246679474</v>
+        <v>1.045659565897481</v>
       </c>
       <c r="Z94" t="n">
         <v>1.158042790431093</v>
@@ -14050,10 +14050,10 @@
         <v>544.3479866770663</v>
       </c>
       <c r="R95" t="n">
-        <v>0.05131328182794571</v>
+        <v>0.1905906694579184</v>
       </c>
       <c r="S95" t="n">
-        <v>0.6550130814671222</v>
+        <v>2.43288632598284</v>
       </c>
       <c r="T95" t="n">
         <v>0.0424589007834973</v>
@@ -14071,7 +14071,7 @@
         <v>0.5963969926866095</v>
       </c>
       <c r="Y95" t="n">
-        <v>0.2699127518330917</v>
+        <v>1.002525081899588</v>
       </c>
       <c r="Z95" t="n">
         <v>1.122638152994195</v>
@@ -14202,10 +14202,10 @@
         <v>737.091896731998</v>
       </c>
       <c r="R96" t="n">
-        <v>0.07668934816611489</v>
+        <v>0.2420170021428379</v>
       </c>
       <c r="S96" t="n">
-        <v>1.061254908083393</v>
+        <v>3.349118717339691</v>
       </c>
       <c r="T96" t="n">
         <v>0.06925786434748045</v>
@@ -14223,7 +14223,7 @@
         <v>0.7242836181136024</v>
       </c>
       <c r="Y96" t="n">
-        <v>0.4028980580909224</v>
+        <v>1.271469669778989</v>
       </c>
       <c r="Z96" t="n">
         <v>0.6069613627292476</v>
@@ -14349,10 +14349,10 @@
         <v>686.6534996689924</v>
       </c>
       <c r="R97" t="n">
-        <v>0.04523252225496355</v>
+        <v>0.2253866156191616</v>
       </c>
       <c r="S97" t="n">
-        <v>0.6059614055797745</v>
+        <v>3.019411334827089</v>
       </c>
       <c r="T97" t="n">
         <v>0.0318909409982699</v>
@@ -14370,7 +14370,7 @@
         <v>0.6941806546190985</v>
       </c>
       <c r="Y97" t="n">
-        <v>0.2377257975153163</v>
+        <v>1.184550634725298</v>
       </c>
       <c r="Z97" t="n">
         <v>0.6778971128096778</v>
@@ -14501,10 +14501,10 @@
         <v>667.0501111059193</v>
       </c>
       <c r="R98" t="n">
-        <v>0.04743684667230215</v>
+        <v>0.2183181111651182</v>
       </c>
       <c r="S98" t="n">
-        <v>0.6395509876192481</v>
+        <v>2.943398927322587</v>
       </c>
       <c r="T98" t="n">
         <v>0.03553088824707846</v>
@@ -14522,7 +14522,7 @@
         <v>0.6796001136257801</v>
       </c>
       <c r="Y98" t="n">
-        <v>0.2493447105328263</v>
+        <v>1.14755659474146</v>
       </c>
       <c r="Z98" t="n">
         <v>0.7610927572423424</v>
@@ -14648,10 +14648,10 @@
         <v>497.1453700349165</v>
       </c>
       <c r="R99" t="n">
-        <v>0.06927961812932897</v>
+        <v>0.1852805827847602</v>
       </c>
       <c r="S99" t="n">
-        <v>0.8624718294858232</v>
+        <v>2.306584353630003</v>
       </c>
       <c r="T99" t="n">
         <v>0.06344726972873214</v>
@@ -14669,7 +14669,7 @@
         <v>0.5631591673322229</v>
       </c>
       <c r="Y99" t="n">
-        <v>0.364497782534235</v>
+        <v>0.974808513603884</v>
       </c>
       <c r="Z99" t="n">
         <v>1.384233398737006</v>
@@ -14789,10 +14789,10 @@
         <v>987.596618397678</v>
       </c>
       <c r="R100" t="n">
-        <v>0.05733770789033153</v>
+        <v>0.2768441187712565</v>
       </c>
       <c r="S100" t="n">
-        <v>0.9034691585747205</v>
+        <v>4.362227445872547</v>
       </c>
       <c r="T100" t="n">
         <v>0.04370038531976705</v>
@@ -14810,7 +14810,7 @@
         <v>0.8649590307488526</v>
       </c>
       <c r="Y100" t="n">
-        <v>0.3003894656006745</v>
+        <v>1.450372886398731</v>
       </c>
       <c r="Z100" t="n">
         <v>0.3418827740463903</v>
@@ -14936,10 +14936,10 @@
         <v>645.8478251835428</v>
       </c>
       <c r="R101" t="n">
-        <v>0.06780236276916064</v>
+        <v>0.2215288624768796</v>
       </c>
       <c r="S101" t="n">
-        <v>0.8939902652178843</v>
+        <v>2.920910694416107</v>
       </c>
       <c r="T101" t="n">
         <v>0.06020097965770266</v>
@@ -14957,7 +14957,7 @@
         <v>0.6689028568647222</v>
       </c>
       <c r="Y101" t="n">
-        <v>0.3564426320859032</v>
+        <v>1.164595562740041</v>
       </c>
       <c r="Z101" t="n">
         <v>0.7699601345088106</v>
@@ -15083,10 +15083,10 @@
         <v>754.1763993014004</v>
       </c>
       <c r="R102" t="n">
-        <v>0.06493826468929424</v>
+        <v>0.2421005916298982</v>
       </c>
       <c r="S102" t="n">
-        <v>0.9047994869072251</v>
+        <v>3.373242142129194</v>
       </c>
       <c r="T102" t="n">
         <v>0.05575251457871352</v>
@@ -15104,7 +15104,7 @@
         <v>0.7368538316760299</v>
       </c>
       <c r="Y102" t="n">
-        <v>0.3411142634576109</v>
+        <v>1.271730394885335</v>
       </c>
       <c r="Z102" t="n">
         <v>0.5708926717395235</v>
@@ -15230,10 +15230,10 @@
         <v>694.7897285567831</v>
       </c>
       <c r="R103" t="n">
-        <v>0.07062257200124222</v>
+        <v>0.2311488529164816</v>
       </c>
       <c r="S103" t="n">
-        <v>0.9601383691706626</v>
+        <v>3.142548853516638</v>
       </c>
       <c r="T103" t="n">
         <v>0.06291973300274362</v>
@@ -15251,7 +15251,7 @@
         <v>0.6996966550040264</v>
       </c>
       <c r="Y103" t="n">
-        <v>0.3711451196003019</v>
+        <v>1.214764150187721</v>
       </c>
       <c r="Z103" t="n">
         <v>0.6826810662395433</v>
@@ -15377,10 +15377,10 @@
         <v>721.4239695958357</v>
       </c>
       <c r="R104" t="n">
-        <v>0.03931265380790581</v>
+        <v>0.2253346916234809</v>
       </c>
       <c r="S104" t="n">
-        <v>0.5505421485561338</v>
+        <v>3.155631412643966</v>
       </c>
       <c r="T104" t="n">
         <v>0.02238297452718421</v>
@@ -15398,7 +15398,7 @@
         <v>0.7146448126176231</v>
       </c>
       <c r="Y104" t="n">
-        <v>0.2065599492293435</v>
+        <v>1.183973045645566</v>
       </c>
       <c r="Z104" t="n">
         <v>0.6805673912377093</v>
@@ -15529,10 +15529,10 @@
         <v>902.7631496877395</v>
       </c>
       <c r="R105" t="n">
-        <v>0.06824262673094453</v>
+        <v>0.2671950680849033</v>
       </c>
       <c r="S105" t="n">
-        <v>1.028940387893588</v>
+        <v>4.028681341391986</v>
       </c>
       <c r="T105" t="n">
         <v>0.05808042172893738</v>
@@ -15550,7 +15550,7 @@
         <v>0.8228280307097516</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.3579309505765156</v>
+        <v>1.401431763259189</v>
       </c>
       <c r="Z105" t="n">
         <v>0.404075555564007</v>
@@ -15676,10 +15676,10 @@
         <v>594.5258050334226</v>
       </c>
       <c r="R106" t="n">
-        <v>0.05614200070483117</v>
+        <v>0.2065302080913777</v>
       </c>
       <c r="S106" t="n">
-        <v>0.7226500136084343</v>
+        <v>2.658420715579228</v>
       </c>
       <c r="T106" t="n">
         <v>0.0473812217478127</v>
@@ -15697,7 +15697,7 @@
         <v>0.6360937255967315</v>
       </c>
       <c r="Y106" t="n">
-        <v>0.2952340260349218</v>
+        <v>1.086080725074705</v>
       </c>
       <c r="Z106" t="n">
         <v>0.8958896244461122</v>
@@ -15823,10 +15823,10 @@
         <v>600.3646172907607</v>
       </c>
       <c r="R107" t="n">
-        <v>0.06636583955179821</v>
+        <v>0.2078857509570383</v>
       </c>
       <c r="S107" t="n">
-        <v>0.8702461126638231</v>
+        <v>2.725977217652185</v>
       </c>
       <c r="T107" t="n">
         <v>0.05918912164418348</v>
@@ -15844,7 +15844,7 @@
         <v>0.6384197190346428</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.3489866051878674</v>
+        <v>1.093172978499019</v>
       </c>
       <c r="Z107" t="n">
         <v>0.9272453500160622</v>
@@ -15970,10 +15970,10 @@
         <v>692.4616180294012</v>
       </c>
       <c r="R108" t="n">
-        <v>0.08044702029858457</v>
+        <v>0.2332327241403046</v>
       </c>
       <c r="S108" t="n">
-        <v>1.09551920838578</v>
+        <v>3.176139133202192</v>
       </c>
       <c r="T108" t="n">
         <v>0.07381195948529247</v>
@@ -15991,7 +15991,7 @@
         <v>0.6998895444544183</v>
       </c>
       <c r="Y108" t="n">
-        <v>0.4227829592179324</v>
+        <v>1.225736154459317</v>
       </c>
       <c r="Z108" t="n">
         <v>0.6882379862442605</v>
@@ -16117,10 +16117,10 @@
         <v>786.438716543921</v>
       </c>
       <c r="R109" t="n">
-        <v>0.06872671777694796</v>
+        <v>0.2371073039889211</v>
       </c>
       <c r="S109" t="n">
-        <v>1.026004372051818</v>
+        <v>3.539716989360582</v>
       </c>
       <c r="T109" t="n">
         <v>0.06029697709482892</v>
@@ -16138,7 +16138,7 @@
         <v>0.751621094673211</v>
       </c>
       <c r="Y109" t="n">
-        <v>0.3609128880210056</v>
+        <v>1.245150134060662</v>
       </c>
       <c r="Z109" t="n">
         <v>0.6478222921200106</v>
@@ -16258,10 +16258,10 @@
         <v>977.7407518368065</v>
       </c>
       <c r="R110" t="n">
-        <v>0.0652203222385552</v>
+        <v>0.2737598581182866</v>
       </c>
       <c r="S110" t="n">
-        <v>1.035476505480287</v>
+        <v>4.346373821770652</v>
       </c>
       <c r="T110" t="n">
         <v>0.05388722131250506</v>
@@ -16279,7 +16279,7 @@
         <v>0.8634771973455064</v>
       </c>
       <c r="Y110" t="n">
-        <v>0.3417361066882456</v>
+        <v>1.434424499447892</v>
       </c>
       <c r="Z110" t="n">
         <v>0.3706040720577518</v>
@@ -16405,10 +16405,10 @@
         <v>1086.790948377705</v>
       </c>
       <c r="R111" t="n">
-        <v>0.05308573052193562</v>
+        <v>0.2867877962890043</v>
       </c>
       <c r="S111" t="n">
-        <v>0.8852942649789034</v>
+        <v>4.782671140141562</v>
       </c>
       <c r="T111" t="n">
         <v>0.03660614005402558</v>
@@ -16426,7 +16426,7 @@
         <v>0.9211398025816958</v>
       </c>
       <c r="Y111" t="n">
-        <v>0.2776436057452827</v>
+        <v>1.499928456527897</v>
       </c>
       <c r="Z111" t="n">
         <v>0.2928226146563421</v>
@@ -16552,10 +16552,10 @@
         <v>730.6331186687952</v>
       </c>
       <c r="R112" t="n">
-        <v>0.03953187837376682</v>
+        <v>0.2322649614337871</v>
       </c>
       <c r="S112" t="n">
-        <v>0.5432400525855399</v>
+        <v>3.191743854670931</v>
       </c>
       <c r="T112" t="n">
         <v>0.02189637230636754</v>
@@ -16573,7 +16573,7 @@
         <v>0.7278366304561616</v>
       </c>
       <c r="Y112" t="n">
-        <v>0.2076968647910859</v>
+        <v>1.220298813896796</v>
       </c>
       <c r="Z112" t="n">
         <v>0.5979733005613499</v>
@@ -16704,10 +16704,10 @@
         <v>728.7896242670545</v>
       </c>
       <c r="R113" t="n">
-        <v>0.04686142998251043</v>
+        <v>0.2270620715189753</v>
       </c>
       <c r="S113" t="n">
-        <v>0.6616874839545592</v>
+        <v>3.206136280112982</v>
       </c>
       <c r="T113" t="n">
         <v>0.03385159410582449</v>
@@ -16725,7 +16725,7 @@
         <v>0.7226925046238534</v>
       </c>
       <c r="Y113" t="n">
-        <v>0.2462092380268611</v>
+        <v>1.192980658813704</v>
       </c>
       <c r="Z113" t="n">
         <v>0.6742090124041921</v>
@@ -16856,10 +16856,10 @@
         <v>642.7689813408401</v>
       </c>
       <c r="R114" t="n">
-        <v>0.07080517988896222</v>
+        <v>0.2120658251774516</v>
       </c>
       <c r="S114" t="n">
-        <v>0.9794124476460251</v>
+        <v>2.933399918266434</v>
       </c>
       <c r="T114" t="n">
         <v>0.0639358933331339</v>
@@ -16877,7 +16877,7 @@
         <v>0.6652631179519557</v>
       </c>
       <c r="Y114" t="n">
-        <v>0.3722359892461211</v>
+        <v>1.114869453675795</v>
       </c>
       <c r="Z114" t="n">
         <v>0.9176236230291712</v>
@@ -17003,10 +17003,10 @@
         <v>706.8376349648391</v>
       </c>
       <c r="R115" t="n">
-        <v>0.07599097070874584</v>
+        <v>0.2332497639525637</v>
       </c>
       <c r="S115" t="n">
-        <v>1.04817512374545</v>
+        <v>3.217311187293957</v>
       </c>
       <c r="T115" t="n">
         <v>0.06883233876174374</v>
@@ -17024,7 +17024,7 @@
         <v>0.7115961569563194</v>
       </c>
       <c r="Y115" t="n">
-        <v>0.3993225328418707</v>
+        <v>1.225696759201767</v>
       </c>
       <c r="Z115" t="n">
         <v>0.6722137046283921</v>
@@ -17150,10 +17150,10 @@
         <v>908.9696639913199</v>
       </c>
       <c r="R116" t="n">
-        <v>0.04230479651359771</v>
+        <v>0.2620628862971832</v>
       </c>
       <c r="S116" t="n">
-        <v>0.6410397899652233</v>
+        <v>3.971009233802363</v>
       </c>
       <c r="T116" t="n">
         <v>0.02233374295524875</v>
@@ -17171,7 +17171,7 @@
         <v>0.8320689154558195</v>
       </c>
       <c r="Y116" t="n">
-        <v>0.2218707670406222</v>
+        <v>1.374409012390512</v>
       </c>
       <c r="Z116" t="n">
         <v>0.3984903451869591</v>
@@ -17302,10 +17302,10 @@
         <v>835.8442899432383</v>
       </c>
       <c r="R117" t="n">
-        <v>0.0554125661788264</v>
+        <v>0.2475308113689065</v>
       </c>
       <c r="S117" t="n">
-        <v>0.8266673341419629</v>
+        <v>3.692765920494766</v>
       </c>
       <c r="T117" t="n">
         <v>0.04350571186948986</v>
@@ -17323,7 +17323,7 @@
         <v>0.7907487953240917</v>
       </c>
       <c r="Y117" t="n">
-        <v>0.2908555395247677</v>
+        <v>1.299266802720589</v>
       </c>
       <c r="Z117" t="n">
         <v>0.5337849280352397</v>
@@ -17449,10 +17449,10 @@
         <v>1094.87293335189</v>
       </c>
       <c r="R118" t="n">
-        <v>0.05243012044738398</v>
+        <v>0.2898713712234956</v>
       </c>
       <c r="S118" t="n">
-        <v>0.8701038574521466</v>
+        <v>4.810559199832835</v>
       </c>
       <c r="T118" t="n">
         <v>0.03525055524959465</v>
@@ -17470,7 +17470,7 @@
         <v>0.9349271910687588</v>
       </c>
       <c r="Y118" t="n">
-        <v>0.2741716372583594</v>
+        <v>1.51581777353397</v>
       </c>
       <c r="Z118" t="n">
         <v>0.2621023438966263</v>
@@ -17596,10 +17596,10 @@
         <v>831.6236956672444</v>
       </c>
       <c r="R119" t="n">
-        <v>0.07218710172326927</v>
+        <v>0.2509677979162978</v>
       </c>
       <c r="S119" t="n">
-        <v>1.075069849043125</v>
+        <v>3.737619410942332</v>
       </c>
       <c r="T119" t="n">
         <v>0.06354324087815497</v>
@@ -17617,7 +17617,7 @@
         <v>0.7903892984691568</v>
       </c>
       <c r="Y119" t="n">
-        <v>0.3789199281767874</v>
+        <v>1.317364150810282</v>
       </c>
       <c r="Z119" t="n">
         <v>0.5376018340849062</v>
@@ -17743,10 +17743,10 @@
         <v>791.7555448934346</v>
       </c>
       <c r="R120" t="n">
-        <v>0.05010397783106888</v>
+        <v>0.2345510652746215</v>
       </c>
       <c r="S120" t="n">
-        <v>0.7448828008906113</v>
+        <v>3.487009655055755</v>
       </c>
       <c r="T120" t="n">
         <v>0.03748880650547584</v>
@@ -17764,7 +17764,7 @@
         <v>0.7645915514326216</v>
       </c>
       <c r="Y120" t="n">
-        <v>0.2631042442176358</v>
+        <v>1.231666295390506</v>
       </c>
       <c r="Z120" t="n">
         <v>0.6068795058448176</v>
@@ -17890,10 +17890,10 @@
         <v>792.1594180567967</v>
       </c>
       <c r="R121" t="n">
-        <v>0.0384280812040048</v>
+        <v>0.2323032571743541</v>
       </c>
       <c r="S121" t="n">
-        <v>0.5715854683699347</v>
+        <v>3.455316057831864</v>
       </c>
       <c r="T121" t="n">
         <v>0.01926444434226905</v>
@@ -17911,7 +17911,7 @@
         <v>0.7659517937565385</v>
       </c>
       <c r="Y121" t="n">
-        <v>0.2017914354739758</v>
+        <v>1.219858141800944</v>
       </c>
       <c r="Z121" t="n">
         <v>0.6028253547719883</v>
@@ -18042,10 +18042,10 @@
         <v>678.2725324286299</v>
       </c>
       <c r="R122" t="n">
-        <v>0.06627363459742497</v>
+        <v>0.2154903881039432</v>
       </c>
       <c r="S122" t="n">
-        <v>0.9420953052454358</v>
+        <v>3.063246556363302</v>
       </c>
       <c r="T122" t="n">
         <v>0.05857268386988954</v>
@@ -18063,7 +18063,7 @@
         <v>0.6948159819367651</v>
       </c>
       <c r="Y122" t="n">
-        <v>0.3483307433902275</v>
+        <v>1.132606164391831</v>
       </c>
       <c r="Z122" t="n">
         <v>0.8521356024102852</v>
@@ -18189,10 +18189,10 @@
         <v>1179.993382103823</v>
       </c>
       <c r="R123" t="n">
-        <v>0.04828014060030216</v>
+        <v>0.2949756114070478</v>
       </c>
       <c r="S123" t="n">
-        <v>0.8471233582394042</v>
+        <v>5.175642146582645</v>
       </c>
       <c r="T123" t="n">
         <v>0.02751640819932761</v>
@@ -18210,7 +18210,7 @@
         <v>0.9784596673605107</v>
       </c>
       <c r="Y123" t="n">
-        <v>0.2520010444280889</v>
+        <v>1.539642619742597</v>
       </c>
       <c r="Z123" t="n">
         <v>0.2569575467863762</v>
@@ -18341,10 +18341,10 @@
         <v>677.8520729986423</v>
       </c>
       <c r="R124" t="n">
-        <v>0.0849790063844074</v>
+        <v>0.2307272565603694</v>
       </c>
       <c r="S124" t="n">
-        <v>1.15379014885812</v>
+        <v>3.132665902072264</v>
       </c>
       <c r="T124" t="n">
         <v>0.07884254579781169</v>
@@ -18362,7 +18362,7 @@
         <v>0.7022392216560782</v>
       </c>
       <c r="Y124" t="n">
-        <v>0.4466464970097803</v>
+        <v>1.212693879252922</v>
       </c>
       <c r="Z124" t="n">
         <v>0.7192814421699477</v>
@@ -18488,10 +18488,10 @@
         <v>800.1177842455157</v>
       </c>
       <c r="R125" t="n">
-        <v>0.0758417478507064</v>
+        <v>0.2398448349422777</v>
       </c>
       <c r="S125" t="n">
-        <v>1.146606914745304</v>
+        <v>3.62607342267627</v>
       </c>
       <c r="T125" t="n">
         <v>0.0681865033389967</v>
@@ -18509,7 +18509,7 @@
         <v>0.7733041434314625</v>
       </c>
       <c r="Y125" t="n">
-        <v>0.3982265006506859</v>
+        <v>1.259366668424097</v>
       </c>
       <c r="Z125" t="n">
         <v>0.6261340694999447</v>
@@ -18635,10 +18635,10 @@
         <v>655.3794889199245</v>
       </c>
       <c r="R126" t="n">
-        <v>0.0455757817883372</v>
+        <v>0.217601500566692</v>
       </c>
       <c r="S126" t="n">
-        <v>0.6027966156729702</v>
+        <v>2.878051521225424</v>
       </c>
       <c r="T126" t="n">
         <v>0.03293021273211454</v>
@@ -18656,7 +18656,7 @@
         <v>0.6925524272217999</v>
       </c>
       <c r="Y126" t="n">
-        <v>0.2395808797567457</v>
+        <v>1.143878544624262</v>
       </c>
       <c r="Z126" t="n">
         <v>0.6118462593664977</v>
@@ -18774,10 +18774,10 @@
         <v>745.8300201736494</v>
       </c>
       <c r="R127" t="n">
-        <v>0.05147585492732077</v>
+        <v>0.2220209150403685</v>
       </c>
       <c r="S127" t="n">
-        <v>0.7634325262883991</v>
+        <v>3.292766837917434</v>
       </c>
       <c r="T127" t="n">
         <v>0.04019678554895831</v>
@@ -18795,7 +18795,7 @@
         <v>0.7438044186196989</v>
       </c>
       <c r="Y127" t="n">
-        <v>0.2704162959244172</v>
+        <v>1.166334654329384</v>
       </c>
       <c r="Z127" t="n">
         <v>0.7285294428011313</v>
@@ -18921,10 +18921,10 @@
         <v>675.2712614239051</v>
       </c>
       <c r="R128" t="n">
-        <v>0.05950142397669099</v>
+        <v>0.2124177725680223</v>
       </c>
       <c r="S128" t="n">
-        <v>0.8453109124070846</v>
+        <v>3.017727125510403</v>
       </c>
       <c r="T128" t="n">
         <v>0.05078460523860383</v>
@@ -18942,7 +18942,7 @@
         <v>0.7039156494342792</v>
       </c>
       <c r="Y128" t="n">
-        <v>0.3127428451035248</v>
+        <v>1.116479810121868</v>
       </c>
       <c r="Z128" t="n">
         <v>0.832077942315791</v>
@@ -19068,10 +19068,10 @@
         <v>1370.193852557634</v>
       </c>
       <c r="R129" t="n">
-        <v>0.05173728638661765</v>
+        <v>0.3104398429523903</v>
       </c>
       <c r="S129" t="n">
-        <v>1.006233676287884</v>
+        <v>6.037715664210324</v>
       </c>
       <c r="T129" t="n">
         <v>0.03041519036452564</v>
@@ -19089,7 +19089,7 @@
         <v>1.080796253222887</v>
       </c>
       <c r="Y129" t="n">
-        <v>0.2684623765969866</v>
+        <v>1.610857929552159</v>
       </c>
       <c r="Z129" t="n">
         <v>0.2331787444177646</v>
@@ -19220,10 +19220,10 @@
         <v>978.1527002526183</v>
       </c>
       <c r="R130" t="n">
-        <v>0.0685461700623554</v>
+        <v>0.2799157382002952</v>
       </c>
       <c r="S130" t="n">
-        <v>1.062977865457571</v>
+        <v>4.340785686923992</v>
       </c>
       <c r="T130" t="n">
         <v>0.05742748862583159</v>
@@ -19241,7 +19241,7 @@
         <v>0.8960281393167187</v>
       </c>
       <c r="Y130" t="n">
-        <v>0.3591604407560016</v>
+        <v>1.466670709904065</v>
       </c>
       <c r="Z130" t="n">
         <v>0.28216618343843</v>
@@ -19367,10 +19367,10 @@
         <v>948.0447993486778</v>
       </c>
       <c r="R131" t="n">
-        <v>0.03916515056437706</v>
+        <v>0.2587354444252838</v>
       </c>
       <c r="S131" t="n">
-        <v>0.6242933406508147</v>
+        <v>4.124248537728118</v>
       </c>
       <c r="T131" t="n">
         <v>0.01522635466613062</v>
@@ -19388,7 +19388,7 @@
         <v>0.8731019981734591</v>
       </c>
       <c r="Y131" t="n">
-        <v>0.205300520632395</v>
+        <v>1.356270068699268</v>
       </c>
       <c r="Z131" t="n">
         <v>0.4194914960754469</v>
@@ -19511,10 +19511,10 @@
         <v>624.9726923339898</v>
       </c>
       <c r="R132" t="n">
-        <v>0.07116717087431446</v>
+        <v>0.199554184110834</v>
       </c>
       <c r="S132" t="n">
-        <v>1.022168325648185</v>
+        <v>2.866180624334475</v>
       </c>
       <c r="T132" t="n">
         <v>0.06472063581559104</v>
@@ -19532,7 +19532,7 @@
         <v>0.6716431457770439</v>
       </c>
       <c r="Y132" t="n">
-        <v>0.3741803586263743</v>
+        <v>1.049209280889581</v>
       </c>
       <c r="Z132" t="n">
         <v>1.052223595027923</v>
@@ -19658,10 +19658,10 @@
         <v>711.4270805998441</v>
       </c>
       <c r="R133" t="n">
-        <v>0.05749807804932797</v>
+        <v>0.2141905373110061</v>
       </c>
       <c r="S133" t="n">
-        <v>0.8497931073350418</v>
+        <v>3.165630025183241</v>
       </c>
       <c r="T133" t="n">
         <v>0.04816561831395953</v>
@@ -19679,7 +19679,7 @@
         <v>0.7317455113260067</v>
       </c>
       <c r="Y133" t="n">
-        <v>0.302134429418109</v>
+        <v>1.125504329409066</v>
       </c>
       <c r="Z133" t="n">
         <v>0.8087012339381878</v>
@@ -19805,10 +19805,10 @@
         <v>711.7082139625784</v>
       </c>
       <c r="R134" t="n">
-        <v>0.06538596967187976</v>
+        <v>0.2169255276104131</v>
       </c>
       <c r="S134" t="n">
-        <v>0.9641417894894451</v>
+        <v>3.198652056791207</v>
       </c>
       <c r="T134" t="n">
         <v>0.05732254885352062</v>
@@ -19826,7 +19826,7 @@
         <v>0.7340561965729249</v>
       </c>
       <c r="Y134" t="n">
-        <v>0.343582106357618</v>
+        <v>1.139873432681948</v>
       </c>
       <c r="Z134" t="n">
         <v>0.7989891325150612</v>
@@ -19952,10 +19952,10 @@
         <v>984.9070394545998</v>
       </c>
       <c r="R135" t="n">
-        <v>0.06612503734903107</v>
+        <v>0.2573173576077163</v>
       </c>
       <c r="S135" t="n">
-        <v>1.125421110148281</v>
+        <v>4.379436259986352</v>
       </c>
       <c r="T135" t="n">
         <v>0.055604017068848</v>
@@ -19973,7 +19973,7 @@
         <v>0.8948944463263441</v>
       </c>
       <c r="Y135" t="n">
-        <v>0.3464398166013243</v>
+        <v>1.348127452955774</v>
       </c>
       <c r="Z135" t="n">
         <v>0.4226107007899493</v>
@@ -20099,10 +20099,10 @@
         <v>939.3540787418856</v>
       </c>
       <c r="R136" t="n">
-        <v>0.05167483379623706</v>
+        <v>0.2450862214942937</v>
       </c>
       <c r="S136" t="n">
-        <v>0.8698056800200809</v>
+        <v>4.125361842303977</v>
       </c>
       <c r="T136" t="n">
         <v>0.03808917045514346</v>
@@ -20120,7 +20120,7 @@
         <v>0.8707813357533756</v>
       </c>
       <c r="Y136" t="n">
-        <v>0.2709069783689733</v>
+        <v>1.284872399719705</v>
       </c>
       <c r="Z136" t="n">
         <v>0.5200938286879409</v>
@@ -20246,10 +20246,10 @@
         <v>785.7308120243068</v>
       </c>
       <c r="R137" t="n">
-        <v>0.07868329392428312</v>
+        <v>0.2357946724635503</v>
       </c>
       <c r="S137" t="n">
-        <v>1.191718672573501</v>
+        <v>3.571290677517552</v>
       </c>
       <c r="T137" t="n">
         <v>0.07144469006917817</v>
@@ -20267,7 +20267,7 @@
         <v>0.7877789284343752</v>
       </c>
       <c r="Y137" t="n">
-        <v>0.4132017129569599</v>
+        <v>1.238264918876196</v>
       </c>
       <c r="Z137" t="n">
         <v>0.6482746826574618</v>
@@ -20393,10 +20393,10 @@
         <v>825.387249901403</v>
       </c>
       <c r="R138" t="n">
-        <v>0.09407202051062369</v>
+        <v>0.2468855190885996</v>
       </c>
       <c r="S138" t="n">
-        <v>1.457313216125925</v>
+        <v>3.824617860709115</v>
       </c>
       <c r="T138" t="n">
         <v>0.08785864609317151</v>
@@ -20414,7 +20414,7 @@
         <v>0.815318117015248</v>
       </c>
       <c r="Y138" t="n">
-        <v>0.4938279641801788</v>
+        <v>1.296017377061879</v>
       </c>
       <c r="Z138" t="n">
         <v>0.5924990513966264</v>
@@ -20540,10 +20540,10 @@
         <v>868.063149005274</v>
       </c>
       <c r="R139" t="n">
-        <v>0.09025084502622671</v>
+        <v>0.2511660505111047</v>
       </c>
       <c r="S139" t="n">
-        <v>1.432569309024901</v>
+        <v>3.986807827967105</v>
       </c>
       <c r="T139" t="n">
         <v>0.08348997565166934</v>
@@ -20561,7 +20561,7 @@
         <v>0.8403297486176236</v>
       </c>
       <c r="Y139" t="n">
-        <v>0.473554966610336</v>
+        <v>1.317892709246901</v>
       </c>
       <c r="Z139" t="n">
         <v>0.5361796386453082</v>
@@ -20687,10 +20687,10 @@
         <v>991.3064312466917</v>
       </c>
       <c r="R140" t="n">
-        <v>0.1121925614361325</v>
+        <v>0.2705077505505696</v>
       </c>
       <c r="S140" t="n">
-        <v>1.939292676822309</v>
+        <v>4.675833165330033</v>
       </c>
       <c r="T140" t="n">
         <v>0.1063520329681238</v>
@@ -20708,7 +20708,7 @@
         <v>0.9074207741179063</v>
       </c>
       <c r="Y140" t="n">
-        <v>0.587738450301704</v>
+        <v>1.417097569286696</v>
       </c>
       <c r="Z140" t="n">
         <v>0.458139895990115</v>
@@ -20834,10 +20834,10 @@
         <v>1378.715912002045</v>
       </c>
       <c r="R141" t="n">
-        <v>0.06707310946451578</v>
+        <v>0.294467297085695</v>
       </c>
       <c r="S141" t="n">
-        <v>1.397689087843794</v>
+        <v>6.136195729545992</v>
       </c>
       <c r="T141" t="n">
         <v>0.05335329847557718</v>
@@ -20855,7 +20855,7 @@
         <v>1.100566115230418</v>
       </c>
       <c r="Y141" t="n">
-        <v>0.3479232919311612</v>
+        <v>1.527468044735979</v>
       </c>
       <c r="Z141" t="n">
         <v>0.2663815632047701</v>
@@ -20978,10 +20978,10 @@
         <v>774.5565709156408</v>
       </c>
       <c r="R142" t="n">
-        <v>0.1706548045002579</v>
+        <v>0.2721940126780948</v>
       </c>
       <c r="S142" t="n">
-        <v>2.666328589649998</v>
+        <v>4.252787843040546</v>
       </c>
       <c r="T142" t="n">
         <v>0.1675764004242663</v>
@@ -20999,7 +20999,7 @@
         <v>0.7868627864583694</v>
       </c>
       <c r="Y142" t="n">
-        <v>0.8962755428753677</v>
+        <v>1.429557387469366</v>
       </c>
       <c r="Z142" t="n">
         <v>0.7404142130129723</v>
@@ -21119,10 +21119,10 @@
         <v>1234.935123901329</v>
       </c>
       <c r="R143" t="n">
-        <v>0.06288359093400005</v>
+        <v>0.2793507766595625</v>
       </c>
       <c r="S143" t="n">
-        <v>1.229689099896813</v>
+        <v>5.462706566272774</v>
       </c>
       <c r="T143" t="n">
         <v>0.0493958897526981</v>
@@ -21140,7 +21140,7 @@
         <v>1.039787657006478</v>
       </c>
       <c r="Y143" t="n">
-        <v>0.3277568159112488</v>
+        <v>1.456009743088132</v>
       </c>
       <c r="Z143" t="n">
         <v>0.2999468689987554</v>
@@ -21271,10 +21271,10 @@
         <v>884.3024396782877</v>
       </c>
       <c r="R144" t="n">
-        <v>0.1247767625151114</v>
+        <v>0.2633429097232823</v>
       </c>
       <c r="S144" t="n">
-        <v>2.03679947541862</v>
+        <v>4.298690634120558</v>
       </c>
       <c r="T144" t="n">
         <v>0.1199804294940426</v>
@@ -21292,7 +21292,7 @@
         <v>0.8577932385373027</v>
       </c>
       <c r="Y144" t="n">
-        <v>0.654594792232542</v>
+        <v>1.381530453279297</v>
       </c>
       <c r="Z144" t="n">
         <v>0.5563520738296184</v>
@@ -21423,10 +21423,10 @@
         <v>1257.415428163279</v>
       </c>
       <c r="R145" t="n">
-        <v>0.2154325670087781</v>
+        <v>0.3494331224654253</v>
       </c>
       <c r="S145" t="n">
-        <v>4.243892519355411</v>
+        <v>6.883623191407253</v>
       </c>
       <c r="T145" t="n">
         <v>0.2118163898061228</v>
@@ -21444,7 +21444,7 @@
         <v>1.057088862028201</v>
       </c>
       <c r="Y145" t="n">
-        <v>1.12214010654803</v>
+        <v>1.820119059616395</v>
       </c>
       <c r="Z145" t="n">
         <v>0.2538630909432709</v>
@@ -21564,10 +21564,10 @@
         <v>972.0810371125101</v>
       </c>
       <c r="R146" t="n">
-        <v>0.283659171383792</v>
+        <v>0.3730931751459303</v>
       </c>
       <c r="S146" t="n">
-        <v>4.872565755255536</v>
+        <v>6.40882161457054</v>
       </c>
       <c r="T146" t="n">
         <v>0.2814279277586908</v>
@@ -21585,7 +21585,7 @@
         <v>0.9127148784427735</v>
       </c>
       <c r="Y146" t="n">
-        <v>1.486416627453298</v>
+        <v>1.955064228739209</v>
       </c>
       <c r="Z146" t="n">
         <v>0.4735425182447809</v>
@@ -21705,10 +21705,10 @@
         <v>1058.620152428964</v>
       </c>
       <c r="R147" t="n">
-        <v>0.2078672425036689</v>
+        <v>0.3267956319083613</v>
       </c>
       <c r="S147" t="n">
-        <v>3.737828408364992</v>
+        <v>5.876375623037869</v>
       </c>
       <c r="T147" t="n">
         <v>0.2045905437065348</v>
@@ -21726,7 +21726,7 @@
         <v>0.9705684541021978</v>
       </c>
       <c r="Y147" t="n">
-        <v>1.087735381641106</v>
+        <v>1.710068248902727</v>
       </c>
       <c r="Z147" t="n">
         <v>0.4024027342879825</v>
@@ -21857,10 +21857,10 @@
         <v>1075.230485536771</v>
       </c>
       <c r="R148" t="n">
-        <v>0.4156871684448924</v>
+        <v>0.4849560917007147</v>
       </c>
       <c r="S148" t="n">
-        <v>7.661122693237147</v>
+        <v>8.937750311733469</v>
       </c>
       <c r="T148" t="n">
         <v>0.4140616658450888</v>
@@ -21878,7 +21878,7 @@
         <v>0.9831031826595126</v>
       </c>
       <c r="Y148" t="n">
-        <v>2.174561585460928</v>
+        <v>2.53692432122173</v>
       </c>
       <c r="Z148" t="n">
         <v>0.4640608572031384</v>
@@ -21998,10 +21998,10 @@
         <v>1149.081249275396</v>
       </c>
       <c r="R149" t="n">
-        <v>0.1557769073340894</v>
+        <v>0.3004883104294475</v>
       </c>
       <c r="S149" t="n">
-        <v>2.984945157629006</v>
+        <v>5.757856812607417</v>
       </c>
       <c r="T149" t="n">
         <v>0.151149371075668</v>
@@ -22019,7 +22019,7 @@
         <v>1.027347738803532</v>
       </c>
       <c r="Y149" t="n">
-        <v>0.8136734475725278</v>
+        <v>1.56954816786806</v>
       </c>
       <c r="Z149" t="n">
         <v>0.4291855539202961</v>
@@ -22150,10 +22150,10 @@
         <v>1205.86927258624</v>
       </c>
       <c r="R150" t="n">
-        <v>0.3857977915081787</v>
+        <v>0.4674956386213873</v>
       </c>
       <c r="S150" t="n">
-        <v>7.557244401773353</v>
+        <v>9.157592074370495</v>
       </c>
       <c r="T150" t="n">
         <v>0.3838674088723668</v>
@@ -22171,7 +22171,7 @@
         <v>1.061402895715755</v>
       </c>
       <c r="Y150" t="n">
-        <v>2.012390593849405</v>
+        <v>2.438541242420141</v>
       </c>
       <c r="Z150" t="n">
         <v>0.3759212173502717</v>
@@ -22297,10 +22297,10 @@
         <v>1187.663372872443</v>
       </c>
       <c r="R151" t="n">
-        <v>0.3479622820545631</v>
+        <v>0.4374998488883914</v>
       </c>
       <c r="S151" t="n">
-        <v>6.680447903656109</v>
+        <v>8.399459076711132</v>
       </c>
       <c r="T151" t="n">
         <v>0.3458201691576317</v>
@@ -22318,7 +22318,7 @@
         <v>1.054849010404501</v>
       </c>
       <c r="Y151" t="n">
-        <v>1.815868852469802</v>
+        <v>2.283127768520901</v>
       </c>
       <c r="Z151" t="n">
         <v>0.2899854730639344</v>
@@ -22449,10 +22449,10 @@
         <v>1361.947633989656</v>
       </c>
       <c r="R152" t="n">
-        <v>0.6019428589559079</v>
+        <v>0.662401846038016</v>
       </c>
       <c r="S152" t="n">
-        <v>12.73265204486452</v>
+        <v>14.01151636570171</v>
       </c>
       <c r="T152" t="n">
         <v>0.6005681033347322</v>
@@ -22470,7 +22470,7 @@
         <v>1.172043752289484</v>
       </c>
       <c r="Y152" t="n">
-        <v>3.124440413938896</v>
+        <v>3.438258411469099</v>
       </c>
       <c r="Z152" t="n">
         <v>0.3259848018476597</v>
@@ -22590,10 +22590,10 @@
         <v>1291.877206833553</v>
       </c>
       <c r="R153" t="n">
-        <v>0.5711342188829318</v>
+        <v>0.6288339944869614</v>
       </c>
       <c r="S153" t="n">
-        <v>11.99495761241744</v>
+        <v>13.20676797105784</v>
       </c>
       <c r="T153" t="n">
         <v>0.569774727029163</v>
@@ -22611,7 +22611,7 @@
         <v>1.142742959029248</v>
       </c>
       <c r="Y153" t="n">
-        <v>2.971772869153322</v>
+        <v>3.272001120284318</v>
       </c>
       <c r="Z153" t="n">
         <v>0.4349068551922712</v>

--- a/results/GAIA_TESS_confirmed_matches_unique_stars.xlsx
+++ b/results/GAIA_TESS_confirmed_matches_unique_stars.xlsx
@@ -465,7 +465,7 @@
     <col width="20" customWidth="1" min="16" max="16"/>
     <col width="23" customWidth="1" min="17" max="17"/>
     <col width="26" customWidth="1" min="18" max="18"/>
-    <col width="20" customWidth="1" min="19" max="19"/>
+    <col width="21" customWidth="1" min="19" max="19"/>
     <col width="30" customWidth="1" min="20" max="20"/>
     <col width="21" customWidth="1" min="21" max="21"/>
     <col width="41" customWidth="1" min="22" max="22"/>
@@ -762,37 +762,37 @@
         <v>0.7259589</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6687555258669828</v>
+        <v>0.4723303633292488</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.2062132450272</v>
+        <v>140.2035592597601</v>
       </c>
       <c r="R2" t="n">
         <v>260</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1318731682062297</v>
+        <v>0.08842508596596292</v>
       </c>
       <c r="T2" t="n">
-        <v>1.019880171092267</v>
+        <v>0.5747214936203638</v>
       </c>
       <c r="U2" t="n">
-        <v>0.07375032924735929</v>
+        <v>0.07373597010466124</v>
       </c>
       <c r="V2" t="n">
-        <v>0.570369995913654</v>
+        <v>0.4792491452980848</v>
       </c>
       <c r="W2" t="n">
         <v>0.3960370316763416</v>
       </c>
       <c r="X2" t="n">
-        <v>0.5777103562940057</v>
+        <v>0.2404719358073799</v>
       </c>
       <c r="Y2" t="n">
         <v>0.2981269094853483</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7081549143866386</v>
+        <v>0.474932499321271</v>
       </c>
       <c r="AA2" t="n">
         <v>1.868830615026467</v>
@@ -912,37 +912,37 @@
         <v>0.6427813</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5937637878082087</v>
+        <v>0.4205686640219093</v>
       </c>
       <c r="Q3" t="n">
-        <v>197.6108576999949</v>
+        <v>117.8000861903223</v>
       </c>
       <c r="R3" t="n">
         <v>276</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1122563361041004</v>
+        <v>0.07456781122585729</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8180441313395623</v>
+        <v>0.4573291322971118</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0611231970423051</v>
+        <v>0.06111404150919723</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4454222751649469</v>
+        <v>0.3748163063270806</v>
       </c>
       <c r="W3" t="n">
         <v>0.3382067200638181</v>
       </c>
       <c r="X3" t="n">
-        <v>0.5105784111935039</v>
+        <v>0.212528263659296</v>
       </c>
       <c r="Y3" t="n">
         <v>0.2713711300321883</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6211364764489026</v>
+        <v>0.4126602370625386</v>
       </c>
       <c r="AA3" t="n">
         <v>2.692255921705275</v>
@@ -1059,37 +1059,37 @@
         <v>0.7022301</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6801935396018817</v>
+        <v>0.4823779896159859</v>
       </c>
       <c r="Q4" t="n">
-        <v>233.8618542705035</v>
+        <v>139.6663744296593</v>
       </c>
       <c r="R4" t="n">
         <v>247</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1069808591604812</v>
+        <v>0.05016271437206737</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8644919551961594</v>
+        <v>0.3413606004182153</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01575277092595893</v>
+        <v>0.01574977276699909</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1272951427424131</v>
+        <v>0.1071782489343726</v>
       </c>
       <c r="W4" t="n">
         <v>0.08245042741855645</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5439025310507271</v>
+        <v>0.2263994285498651</v>
       </c>
       <c r="Y4" t="n">
         <v>0.3009235992525693</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.5599406989947784</v>
+        <v>0.2626029785723675</v>
       </c>
       <c r="AA4" t="n">
         <v>2.216291768419251</v>
@@ -1214,37 +1214,37 @@
         <v>0.7578372</v>
       </c>
       <c r="P5" t="n">
-        <v>0.700899620508507</v>
+        <v>0.4995091592739619</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.8850510880222</v>
+        <v>149.1357573288465</v>
       </c>
       <c r="R5" t="n">
         <v>218</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1286491898067156</v>
+        <v>0.07331049956213717</v>
       </c>
       <c r="T5" t="n">
-        <v>1.041400126901819</v>
+        <v>0.5009802040805239</v>
       </c>
       <c r="U5" t="n">
-        <v>0.05077567273030505</v>
+        <v>0.05076523521024048</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4110231250139181</v>
+        <v>0.346913171342747</v>
       </c>
       <c r="W5" t="n">
         <v>0.2496648136908469</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5716393050378178</v>
+        <v>0.2379448607219917</v>
       </c>
       <c r="Y5" t="n">
         <v>0.3226464862227462</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.6325701714514552</v>
+        <v>0.3605430397192714</v>
       </c>
       <c r="AA5" t="n">
         <v>1.717218532617633</v>
@@ -1366,37 +1366,37 @@
         <v>0.81973535</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8019022136010978</v>
+        <v>0.5718412463218272</v>
       </c>
       <c r="Q6" t="n">
-        <v>296.3069521563592</v>
+        <v>178.4320803110084</v>
       </c>
       <c r="R6" t="n">
         <v>164</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1801654842223513</v>
+        <v>0.1215599161033057</v>
       </c>
       <c r="T6" t="n">
-        <v>1.597062214762744</v>
+        <v>0.9099502856655908</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1022715612806833</v>
+        <v>0.1022438583907255</v>
       </c>
       <c r="V6" t="n">
-        <v>0.9065778990419334</v>
+        <v>0.7653577851364012</v>
       </c>
       <c r="W6" t="n">
         <v>0.43611159210275</v>
       </c>
       <c r="X6" t="n">
-        <v>0.6234998358153698</v>
+        <v>0.2595318066581477</v>
       </c>
       <c r="Y6" t="n">
         <v>0.3598173993901568</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.768270819201945</v>
+        <v>0.5185024253006697</v>
       </c>
       <c r="AA6" t="n">
         <v>1.422152235494093</v>
@@ -1516,37 +1516,37 @@
         <v>0.75104034</v>
       </c>
       <c r="P7" t="n">
-        <v>0.775235779595673</v>
+        <v>0.5534441111512807</v>
       </c>
       <c r="Q7" t="n">
-        <v>281.169361439991</v>
+        <v>169.6008161545542</v>
       </c>
       <c r="R7" t="n">
         <v>244</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1402108034681746</v>
+        <v>0.09305334000617481</v>
       </c>
       <c r="T7" t="n">
-        <v>1.224137941123268</v>
+        <v>0.6864372264763136</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07709606144578129</v>
+        <v>0.07707688970830852</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6731022973445365</v>
+        <v>0.5685819164930688</v>
       </c>
       <c r="W7" t="n">
         <v>0.4010191008696584</v>
       </c>
       <c r="X7" t="n">
-        <v>0.5998789322149232</v>
+        <v>0.2496996055344617</v>
       </c>
       <c r="Y7" t="n">
         <v>0.3503361830308205</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.7293136547391882</v>
+        <v>0.4841420934785376</v>
       </c>
       <c r="AA7" t="n">
         <v>1.855505169143659</v>
@@ -1671,37 +1671,37 @@
         <v>0.8067535</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8508662940181447</v>
+        <v>0.6081260475316015</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.3222004990405</v>
+        <v>195.9634634756827</v>
       </c>
       <c r="R8" t="n">
         <v>257</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1498295957906139</v>
+        <v>0.09868643433833729</v>
       </c>
       <c r="T8" t="n">
-        <v>1.36613251491658</v>
+        <v>0.7607094662225418</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08172758887320851</v>
+        <v>0.0817020429437476</v>
       </c>
       <c r="V8" t="n">
-        <v>0.7451846608560297</v>
+        <v>0.6297878517319686</v>
       </c>
       <c r="W8" t="n">
         <v>0.4362370890824919</v>
       </c>
       <c r="X8" t="n">
-        <v>0.661663821478423</v>
+        <v>0.2754175656903936</v>
       </c>
       <c r="Y8" t="n">
         <v>0.3860284161342277</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.7997449530476747</v>
+        <v>0.5269229666304357</v>
       </c>
       <c r="AA8" t="n">
         <v>1.487628722123143</v>
@@ -1821,37 +1821,37 @@
         <v>0.72640634</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7799808915973163</v>
+        <v>0.5581335994204907</v>
       </c>
       <c r="Q9" t="n">
-        <v>277.3751454749433</v>
+        <v>167.8992861418995</v>
       </c>
       <c r="R9" t="n">
         <v>237</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1349139172865518</v>
+        <v>0.08827337731641663</v>
       </c>
       <c r="T9" t="n">
-        <v>1.208666246344946</v>
+        <v>0.6689697604315441</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07202805044197266</v>
+        <v>0.07201059816602934</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6452846015458589</v>
+        <v>0.5457241364062082</v>
       </c>
       <c r="W9" t="n">
         <v>0.3692478537982805</v>
       </c>
       <c r="X9" t="n">
-        <v>0.5751360855735874</v>
+        <v>0.2394003956200058</v>
       </c>
       <c r="Y9" t="n">
         <v>0.3499869310089186</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.6916288043324365</v>
+        <v>0.4526383053569616</v>
       </c>
       <c r="AA9" t="n">
         <v>2.146171637580412</v>
@@ -1976,37 +1976,37 @@
         <v>0.7704703000000001</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7902860080872891</v>
+        <v>0.5659322137382558</v>
       </c>
       <c r="Q10" t="n">
-        <v>293.1570591856556</v>
+        <v>177.6521795732031</v>
       </c>
       <c r="R10" t="n">
         <v>157</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1592060683473007</v>
+        <v>0.08231246043146503</v>
       </c>
       <c r="T10" t="n">
-        <v>1.385406129986937</v>
+        <v>0.6061402618854591</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04728167471081513</v>
+        <v>0.04726918844681215</v>
       </c>
       <c r="V10" t="n">
-        <v>0.411443625613045</v>
+        <v>0.3480853094911414</v>
       </c>
       <c r="W10" t="n">
         <v>0.1972727581799671</v>
       </c>
       <c r="X10" t="n">
-        <v>0.6252725188731246</v>
+        <v>0.2602696859809381</v>
       </c>
       <c r="Y10" t="n">
         <v>0.3674932885853415</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.664253548842177</v>
+        <v>0.3435219989056023</v>
       </c>
       <c r="AA10" t="n">
         <v>1.674830976344968</v>
@@ -2131,37 +2131,37 @@
         <v>0.75517464</v>
       </c>
       <c r="P11" t="n">
-        <v>0.7305126660906071</v>
+        <v>0.5236220168330016</v>
       </c>
       <c r="Q11" t="n">
-        <v>262.1156658290246</v>
+        <v>159.0663080695983</v>
       </c>
       <c r="R11" t="n">
         <v>247</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1238496888843407</v>
+        <v>0.07090970120451177</v>
       </c>
       <c r="T11" t="n">
-        <v>1.02992761010122</v>
+        <v>0.4992436050238176</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04961334011678378</v>
+        <v>0.04960236637163561</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4125819715488911</v>
+        <v>0.349228156154068</v>
       </c>
       <c r="W11" t="n">
         <v>0.2596602998017937</v>
       </c>
       <c r="X11" t="n">
-        <v>0.584410398121848</v>
+        <v>0.2432608282182192</v>
       </c>
       <c r="Y11" t="n">
         <v>0.3450616069701712</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.6481895246393161</v>
+        <v>0.37120072328138</v>
       </c>
       <c r="AA11" t="n">
         <v>1.75728268109685</v>
@@ -2283,37 +2283,37 @@
         <v>0.79156786</v>
       </c>
       <c r="P12" t="n">
-        <v>0.8901676638946601</v>
+        <v>0.6394719386028508</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8525260660337</v>
+        <v>202.66388946563</v>
       </c>
       <c r="R12" t="n">
         <v>243</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1264613169707783</v>
+        <v>0.06070312540506773</v>
       </c>
       <c r="T12" t="n">
-        <v>1.229698743858559</v>
+        <v>0.5002958724523116</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02603580783173453</v>
+        <v>0.02602739297096883</v>
       </c>
       <c r="V12" t="n">
-        <v>0.2531699096050443</v>
+        <v>0.2145095032122173</v>
       </c>
       <c r="W12" t="n">
         <v>0.1351297147868938</v>
       </c>
       <c r="X12" t="n">
-        <v>0.6332000606455935</v>
+        <v>0.2635695252437283</v>
       </c>
       <c r="Y12" t="n">
         <v>0.3996198518129659</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.6563530428661093</v>
+        <v>0.3151601096509864</v>
       </c>
       <c r="AA12" t="n">
         <v>1.712118408202441</v>
@@ -2438,37 +2438,37 @@
         <v>0.81485003</v>
       </c>
       <c r="P13" t="n">
-        <v>0.9061749918325425</v>
+        <v>0.6511979459224801</v>
       </c>
       <c r="Q13" t="n">
-        <v>349.3228015573515</v>
+        <v>212.8033001264465</v>
       </c>
       <c r="R13" t="n">
         <v>237</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1465596650294843</v>
+        <v>0.08503508992344527</v>
       </c>
       <c r="T13" t="n">
-        <v>1.407216544617882</v>
+        <v>0.6921418648892038</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06168164867099529</v>
+        <v>0.06166002240815226</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5922464171275923</v>
+        <v>0.5018808463319079</v>
       </c>
       <c r="W13" t="n">
         <v>0.31614443852066</v>
       </c>
       <c r="X13" t="n">
-        <v>0.672755889541232</v>
+        <v>0.2800346390215379</v>
       </c>
       <c r="Y13" t="n">
         <v>0.4151688976045474</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.751180035048416</v>
+        <v>0.4359935288451517</v>
       </c>
       <c r="AA13" t="n">
         <v>1.503265936415298</v>
@@ -2593,37 +2593,37 @@
         <v>0.8590680000000001</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9495285247757006</v>
+        <v>0.6846950519597832</v>
       </c>
       <c r="Q14" t="n">
-        <v>375.8303648664059</v>
+        <v>230.1312655848388</v>
       </c>
       <c r="R14" t="n">
         <v>269</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1550412075096848</v>
+        <v>0.1008540047821065</v>
       </c>
       <c r="T14" t="n">
-        <v>1.519219641077185</v>
+        <v>0.8391916602564956</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08290826064701705</v>
+        <v>0.08287545689670379</v>
       </c>
       <c r="V14" t="n">
-        <v>0.8124024574216956</v>
+        <v>0.6895947505299239</v>
       </c>
       <c r="W14" t="n">
         <v>0.45268198650877</v>
       </c>
       <c r="X14" t="n">
-        <v>0.7069118913195573</v>
+        <v>0.2942520747617657</v>
       </c>
       <c r="Y14" t="n">
         <v>0.4436541164249389</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.8465303850120962</v>
+        <v>0.5508843382792235</v>
       </c>
       <c r="AA14" t="n">
         <v>1.275099912777333</v>
@@ -2740,37 +2740,37 @@
         <v>0.8112871</v>
       </c>
       <c r="P15" t="n">
-        <v>0.8925798831445866</v>
+        <v>0.6446335008934136</v>
       </c>
       <c r="Q15" t="n">
-        <v>339.4326264827049</v>
+        <v>208.3302093117001</v>
       </c>
       <c r="R15" t="n">
         <v>226</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1542520172032436</v>
+        <v>0.09886524239882624</v>
       </c>
       <c r="T15" t="n">
-        <v>1.478838385172711</v>
+        <v>0.8055015613867987</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07984249732855982</v>
+        <v>0.07981610573458224</v>
       </c>
       <c r="V15" t="n">
-        <v>0.7654625978858259</v>
+        <v>0.6502992986520317</v>
       </c>
       <c r="W15" t="n">
         <v>0.3996286421958765</v>
       </c>
       <c r="X15" t="n">
-        <v>0.6516326641689254</v>
+        <v>0.2712420964603152</v>
       </c>
       <c r="Y15" t="n">
         <v>0.4188987833925032</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.7720640793240472</v>
+        <v>0.4950051398347132</v>
       </c>
       <c r="AA15" t="n">
         <v>1.541689549412003</v>
@@ -2895,37 +2895,37 @@
         <v>0.73423636</v>
       </c>
       <c r="P16" t="n">
-        <v>0.8803080428343366</v>
+        <v>0.635820856358117</v>
       </c>
       <c r="Q16" t="n">
-        <v>323.0473348775529</v>
+        <v>198.2970769072612</v>
       </c>
       <c r="R16" t="n">
         <v>267</v>
       </c>
       <c r="S16" t="n">
-        <v>0.1178155247324804</v>
+        <v>0.05996026117897828</v>
       </c>
       <c r="T16" t="n">
-        <v>1.154396382227662</v>
+        <v>0.4993050988349808</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03239743553726965</v>
+        <v>0.03238758282473946</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3174410372707642</v>
+        <v>0.2697000467536692</v>
       </c>
       <c r="W16" t="n">
         <v>0.1762605735760405</v>
       </c>
       <c r="X16" t="n">
-        <v>0.6067680216721439</v>
+        <v>0.2525671890210299</v>
       </c>
       <c r="Y16" t="n">
         <v>0.4031171858918194</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.6409838192785333</v>
+        <v>0.3263173446554026</v>
       </c>
       <c r="AA16" t="n">
         <v>2.202675635122268</v>
@@ -3050,37 +3050,37 @@
         <v>0.8897931</v>
       </c>
       <c r="P17" t="n">
-        <v>1.040001287598949</v>
+        <v>0.7512014536216801</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.873838993316</v>
+        <v>260.8217501918693</v>
       </c>
       <c r="R17" t="n">
         <v>207</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1800382469980263</v>
+        <v>0.1096261967000366</v>
       </c>
       <c r="T17" t="n">
-        <v>1.872068763608918</v>
+        <v>0.9687966755612029</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08497320763990847</v>
+        <v>0.08493129750034163</v>
       </c>
       <c r="V17" t="n">
-        <v>0.8835660778682835</v>
+        <v>0.7505610989549455</v>
       </c>
       <c r="W17" t="n">
         <v>0.4069236303882157</v>
       </c>
       <c r="X17" t="n">
-        <v>0.7519556639462629</v>
+        <v>0.313001545117632</v>
       </c>
       <c r="Y17" t="n">
         <v>0.4819146144995276</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.8621754916870884</v>
+        <v>0.5252420634060381</v>
       </c>
       <c r="AA17" t="n">
         <v>1.179780120395783</v>
@@ -3200,37 +3200,37 @@
         <v>0.84619015</v>
       </c>
       <c r="P18" t="n">
-        <v>0.9678160912814485</v>
+        <v>0.7002345116684776</v>
       </c>
       <c r="Q18" t="n">
-        <v>380.1137691798457</v>
+        <v>233.9319877756581</v>
       </c>
       <c r="R18" t="n">
         <v>216</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1664705892735504</v>
+        <v>0.1052113947413234</v>
       </c>
       <c r="T18" t="n">
-        <v>1.675555626414993</v>
+        <v>0.9007607378167973</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08419382534822537</v>
+        <v>0.08416005977298195</v>
       </c>
       <c r="V18" t="n">
-        <v>0.8474255926361058</v>
+        <v>0.7205310577072139</v>
       </c>
       <c r="W18" t="n">
         <v>0.4119270567312931</v>
       </c>
       <c r="X18" t="n">
-        <v>0.693995709299541</v>
+        <v>0.2888757139959339</v>
       </c>
       <c r="Y18" t="n">
         <v>0.4533296193620625</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.8144746908476583</v>
+        <v>0.5149642275361233</v>
       </c>
       <c r="AA18" t="n">
         <v>1.381128034945611</v>
@@ -3350,37 +3350,37 @@
         <v>0.93986684</v>
       </c>
       <c r="P19" t="n">
-        <v>1.096847344000315</v>
+        <v>0.7942033729312455</v>
       </c>
       <c r="Q19" t="n">
-        <v>456.9169880413516</v>
+        <v>281.5241229152181</v>
       </c>
       <c r="R19" t="n">
         <v>152</v>
       </c>
       <c r="S19" t="n">
-        <v>0.2154647276142096</v>
+        <v>0.1285026875482228</v>
       </c>
       <c r="T19" t="n">
-        <v>2.317290671943269</v>
+        <v>1.176005381436093</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09755959968546384</v>
+        <v>0.09750457345747565</v>
       </c>
       <c r="V19" t="n">
-        <v>1.049238791021197</v>
+        <v>0.8923229956384526</v>
       </c>
       <c r="W19" t="n">
         <v>0.4002988480168495</v>
       </c>
       <c r="X19" t="n">
-        <v>0.7802235423119949</v>
+        <v>0.3247680494873679</v>
       </c>
       <c r="Y19" t="n">
         <v>0.5104626700671484</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.8840778614334909</v>
+        <v>0.5275596412414116</v>
       </c>
       <c r="AA19" t="n">
         <v>1.015433523266514</v>
@@ -3500,37 +3500,37 @@
         <v>0.8664572</v>
       </c>
       <c r="P20" t="n">
-        <v>1.034683462607794</v>
+        <v>0.7495910528051573</v>
       </c>
       <c r="Q20" t="n">
-        <v>411.2609049271321</v>
+        <v>253.5962085829262</v>
       </c>
       <c r="R20" t="n">
         <v>218</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1561224076231925</v>
+        <v>0.08433737186306496</v>
       </c>
       <c r="T20" t="n">
-        <v>1.66001528536294</v>
+        <v>0.7632650095715878</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05472615472687553</v>
+        <v>0.05470089816879632</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5818911887075918</v>
+        <v>0.4950507781078424</v>
       </c>
       <c r="W20" t="n">
         <v>0.2689615734578384</v>
       </c>
       <c r="X20" t="n">
-        <v>0.7100148211144858</v>
+        <v>0.2955436692889047</v>
       </c>
       <c r="Y20" t="n">
         <v>0.4770004173179468</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.7672917751288401</v>
+        <v>0.414682628566571</v>
       </c>
       <c r="AA20" t="n">
         <v>1.342866533386068</v>
@@ -3650,37 +3650,37 @@
         <v>0.96187913</v>
       </c>
       <c r="P21" t="n">
-        <v>1.145200477977139</v>
+        <v>0.8307193094750057</v>
       </c>
       <c r="Q21" t="n">
-        <v>452.1187371364575</v>
+        <v>279.3262063741232</v>
       </c>
       <c r="R21" t="n">
         <v>228</v>
       </c>
       <c r="S21" t="n">
-        <v>0.1636123125366693</v>
+        <v>0.1035744041092657</v>
       </c>
       <c r="T21" t="n">
-        <v>1.938544507963323</v>
+        <v>1.045198142659798</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08297204466898209</v>
+        <v>0.08292635443223079</v>
       </c>
       <c r="V21" t="n">
-        <v>0.9830861688449861</v>
+        <v>0.8368329258132011</v>
       </c>
       <c r="W21" t="n">
         <v>0.4169653751322793</v>
       </c>
       <c r="X21" t="n">
-        <v>0.699753171351875</v>
+        <v>0.291272257575218</v>
       </c>
       <c r="Y21" t="n">
         <v>0.5019070749261886</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.8222127048366612</v>
+        <v>0.52078667341895</v>
       </c>
       <c r="AA21" t="n">
         <v>1.10119586004548</v>
@@ -3794,37 +3794,37 @@
         <v>0.8146252</v>
       </c>
       <c r="P22" t="n">
-        <v>0.9760105820961877</v>
+        <v>0.7082390818338035</v>
       </c>
       <c r="Q22" t="n">
-        <v>367.0778625579107</v>
+        <v>226.9061342495951</v>
       </c>
       <c r="R22" t="n">
         <v>264</v>
       </c>
       <c r="S22" t="n">
-        <v>0.1296990931127977</v>
+        <v>0.07368106721087481</v>
       </c>
       <c r="T22" t="n">
-        <v>1.374792189479318</v>
+        <v>0.6653018104575337</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05134822090815193</v>
+        <v>0.05132897517309702</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5442839371805931</v>
+        <v>0.4634740158398663</v>
       </c>
       <c r="W22" t="n">
         <v>0.2777530462639268</v>
       </c>
       <c r="X22" t="n">
-        <v>0.634878457917878</v>
+        <v>0.2642681581083167</v>
       </c>
       <c r="Y22" t="n">
         <v>0.4451518795961679</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.7015689652458651</v>
+        <v>0.3987054251674202</v>
       </c>
       <c r="AA22" t="n">
         <v>1.702394448792871</v>
@@ -3949,37 +3949,37 @@
         <v>0.9484261</v>
       </c>
       <c r="P23" t="n">
-        <v>1.142000607358331</v>
+        <v>0.8291213082469715</v>
       </c>
       <c r="Q23" t="n">
-        <v>472.441197647471</v>
+        <v>292.2640339492733</v>
       </c>
       <c r="R23" t="n">
         <v>262</v>
       </c>
       <c r="S23" t="n">
-        <v>0.1666692372831283</v>
+        <v>0.1047223437839083</v>
       </c>
       <c r="T23" t="n">
-        <v>1.879271874677891</v>
+        <v>1.006119092791702</v>
       </c>
       <c r="U23" t="n">
-        <v>0.08378275900977096</v>
+        <v>0.08373256271315474</v>
       </c>
       <c r="V23" t="n">
-        <v>0.9446889249424599</v>
+        <v>0.8044599365338942</v>
       </c>
       <c r="W23" t="n">
         <v>0.4513053580280573</v>
       </c>
       <c r="X23" t="n">
-        <v>0.7678394544570009</v>
+        <v>0.3196131729177267</v>
       </c>
       <c r="Y23" t="n">
         <v>0.5253568597946097</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.8977827979567163</v>
+        <v>0.564436980351839</v>
       </c>
       <c r="AA23" t="n">
         <v>1.043228674792056</v>
@@ -4099,37 +4099,37 @@
         <v>0.8323596</v>
       </c>
       <c r="P24" t="n">
-        <v>1.032538252950997</v>
+        <v>0.7499084744576532</v>
       </c>
       <c r="Q24" t="n">
-        <v>394.6100995094315</v>
+        <v>244.2425711655961</v>
       </c>
       <c r="R24" t="n">
         <v>232</v>
       </c>
       <c r="S24" t="n">
-        <v>0.1568898144860547</v>
+        <v>0.1039408138014599</v>
       </c>
       <c r="T24" t="n">
-        <v>1.731362918152723</v>
+        <v>0.9775309814942742</v>
       </c>
       <c r="U24" t="n">
-        <v>0.08629476142788717</v>
+        <v>0.08625802233027842</v>
       </c>
       <c r="V24" t="n">
-        <v>0.9523087936365682</v>
+        <v>0.8112298350033489</v>
       </c>
       <c r="W24" t="n">
         <v>0.4375428572744666</v>
       </c>
       <c r="X24" t="n">
-        <v>0.6551129076047365</v>
+        <v>0.2726907477904715</v>
       </c>
       <c r="Y24" t="n">
         <v>0.4665368738476411</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.7954830232059208</v>
+        <v>0.5272386200090298</v>
       </c>
       <c r="AA24" t="n">
         <v>1.635067194459739</v>
@@ -4249,37 +4249,37 @@
         <v>0.8927628</v>
       </c>
       <c r="P25" t="n">
-        <v>1.073728013213964</v>
+        <v>0.7804998265190011</v>
       </c>
       <c r="Q25" t="n">
-        <v>434.9747725949474</v>
+        <v>269.5763943673536</v>
       </c>
       <c r="R25" t="n">
         <v>252</v>
       </c>
       <c r="S25" t="n">
-        <v>0.1444260473579154</v>
+        <v>0.06949006871821493</v>
       </c>
       <c r="T25" t="n">
-        <v>1.563577030260355</v>
+        <v>0.6414100505210698</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03203502750025124</v>
+        <v>0.03201871358546835</v>
       </c>
       <c r="V25" t="n">
-        <v>0.3468157862066316</v>
+        <v>0.295540428687066</v>
       </c>
       <c r="W25" t="n">
         <v>0.1692601767896408</v>
       </c>
       <c r="X25" t="n">
-        <v>0.7356081631164527</v>
+        <v>0.3061968978972234</v>
       </c>
       <c r="Y25" t="n">
         <v>0.5036370135031565</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.7630890377302808</v>
+        <v>0.3673445931852637</v>
       </c>
       <c r="AA25" t="n">
         <v>1.226402369197755</v>
@@ -4404,37 +4404,37 @@
         <v>0.78954583</v>
       </c>
       <c r="P26" t="n">
-        <v>1.014940981554307</v>
+        <v>0.7379677638242946</v>
       </c>
       <c r="Q26" t="n">
-        <v>389.6793919596995</v>
+        <v>241.6030109746239</v>
       </c>
       <c r="R26" t="n">
         <v>248</v>
       </c>
       <c r="S26" t="n">
-        <v>0.1551201388677914</v>
+        <v>0.1045204414810635</v>
       </c>
       <c r="T26" t="n">
-        <v>1.674910410426135</v>
+        <v>0.962327582179309</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08797005499974536</v>
+        <v>0.08793352925425067</v>
       </c>
       <c r="V26" t="n">
-        <v>0.9498570720750348</v>
+        <v>0.8096106311899548</v>
       </c>
       <c r="W26" t="n">
         <v>0.4611690104102146</v>
       </c>
       <c r="X26" t="n">
-        <v>0.6606204291736067</v>
+        <v>0.2749832536435138</v>
       </c>
       <c r="Y26" t="n">
         <v>0.4675527828990781</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.8131926362506142</v>
+        <v>0.5481593764545822</v>
       </c>
       <c r="AA26" t="n">
         <v>1.865786653257043</v>
@@ -4554,37 +4554,37 @@
         <v>1.9856335</v>
       </c>
       <c r="P27" t="n">
-        <v>2.322209848473858</v>
+        <v>1.688728740701852</v>
       </c>
       <c r="Q27" t="n">
-        <v>1248.94345375944</v>
+        <v>774.5160542874048</v>
       </c>
       <c r="R27" t="n">
         <v>240</v>
       </c>
       <c r="S27" t="n">
-        <v>0.2578753914940164</v>
+        <v>0.1139761662543993</v>
       </c>
       <c r="T27" t="n">
-        <v>4.547987973278412</v>
+        <v>1.714165176662551</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03605021790197581</v>
+        <v>0.03576245117374688</v>
       </c>
       <c r="V27" t="n">
-        <v>0.6357952827618156</v>
+        <v>0.5378558557347991</v>
       </c>
       <c r="W27" t="n">
         <v>0.1840289193486583</v>
       </c>
       <c r="X27" t="n">
-        <v>1.296150170797017</v>
+        <v>0.5395225085942581</v>
       </c>
       <c r="Y27" t="n">
         <v>0.9507215697093652</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.316400631815739</v>
+        <v>0.5865065178389602</v>
       </c>
       <c r="AA27" t="n">
         <v>0.1367754295493965</v>
@@ -4698,37 +4698,37 @@
         <v>1.9879168</v>
       </c>
       <c r="P28" t="n">
-        <v>2.313384053971342</v>
+        <v>1.682580580141249</v>
       </c>
       <c r="Q28" t="n">
-        <v>1238.670703415034</v>
+        <v>768.3304895389443</v>
       </c>
       <c r="R28" t="n">
         <v>251</v>
       </c>
       <c r="S28" t="n">
-        <v>0.2506926089042456</v>
+        <v>0.1123650739402226</v>
       </c>
       <c r="T28" t="n">
-        <v>4.424155646991657</v>
+        <v>1.691158359538695</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04056248668199428</v>
+        <v>0.04024825119912803</v>
       </c>
       <c r="V28" t="n">
-        <v>0.7158358409310477</v>
+        <v>0.6057591036555483</v>
       </c>
       <c r="W28" t="n">
         <v>0.211816887571498</v>
       </c>
       <c r="X28" t="n">
-        <v>1.284509334531056</v>
+        <v>0.5346770104985521</v>
       </c>
       <c r="Y28" t="n">
         <v>0.946013705779765</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.309114221018596</v>
+        <v>0.5913504195748719</v>
       </c>
       <c r="AA28" t="n">
         <v>0.1370008919991575</v>
@@ -4839,37 +4839,37 @@
         <v>0.89741087</v>
       </c>
       <c r="P29" t="n">
-        <v>1.113962131051315</v>
+        <v>0.8107592058142078</v>
       </c>
       <c r="Q29" t="n">
-        <v>450.5614498276976</v>
+        <v>279.7603885767356</v>
       </c>
       <c r="R29" t="n">
         <v>267</v>
       </c>
       <c r="S29" t="n">
-        <v>0.1581701084564817</v>
+        <v>0.1000167389910016</v>
       </c>
       <c r="T29" t="n">
-        <v>1.779346361516432</v>
+        <v>0.9598856590590444</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08026076586403297</v>
+        <v>0.08021714735796419</v>
       </c>
       <c r="V29" t="n">
-        <v>0.9028994359701153</v>
+        <v>0.7698640261253019</v>
       </c>
       <c r="W29" t="n">
         <v>0.4364780011805154</v>
       </c>
       <c r="X29" t="n">
-        <v>0.7326097877332763</v>
+        <v>0.3049488241439763</v>
       </c>
       <c r="Y29" t="n">
         <v>0.5157026093599496</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.8601683779412846</v>
+        <v>0.5442116524610057</v>
       </c>
       <c r="AA29" t="n">
         <v>1.256654148511164</v>
@@ -4989,37 +4989,37 @@
         <v>0.914</v>
       </c>
       <c r="P30" t="n">
-        <v>0.9311760332188102</v>
+        <v>0.6780904780848228</v>
       </c>
       <c r="Q30" t="n">
-        <v>364.6266753510416</v>
+        <v>226.5855562810302</v>
       </c>
       <c r="R30" t="n">
         <v>240</v>
       </c>
       <c r="S30" t="n">
-        <v>0.1353505654129407</v>
+        <v>0.06061589726871203</v>
       </c>
       <c r="T30" t="n">
-        <v>1.314693373316554</v>
+        <v>0.5024338210309615</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01235572000852901</v>
+        <v>0.01235117594276439</v>
       </c>
       <c r="V30" t="n">
-        <v>0.1200141511652288</v>
+        <v>0.1023765844072056</v>
       </c>
       <c r="W30" t="n">
         <v>0.06372480476792133</v>
       </c>
       <c r="X30" t="n">
-        <v>0.6863867356536448</v>
+        <v>0.2857084787158296</v>
       </c>
       <c r="Y30" t="n">
         <v>0.4601753676917382</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.6980725000415633</v>
+        <v>0.312742384788384</v>
       </c>
       <c r="AA30" t="n">
         <v>1.060831560138101</v>
@@ -5136,37 +5136,37 @@
         <v>0.9731488</v>
       </c>
       <c r="P31" t="n">
-        <v>1.155430091110415</v>
+        <v>0.8414376510894896</v>
       </c>
       <c r="Q31" t="n">
-        <v>483.5233341602351</v>
+        <v>300.4933313145099</v>
       </c>
       <c r="R31" t="n">
         <v>245</v>
       </c>
       <c r="S31" t="n">
-        <v>0.1584948674042167</v>
+        <v>0.0799166017065287</v>
       </c>
       <c r="T31" t="n">
-        <v>1.7874519302651</v>
+        <v>0.769122134591136</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04464056960594686</v>
+        <v>0.04461272587464817</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5034413644877465</v>
+        <v>0.4293555309151173</v>
       </c>
       <c r="W31" t="n">
         <v>0.2325186367763731</v>
       </c>
       <c r="X31" t="n">
-        <v>0.7839113816320673</v>
+        <v>0.326303112604348</v>
       </c>
       <c r="Y31" t="n">
         <v>0.5431756460836764</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.825549737160411</v>
+        <v>0.4165201502551983</v>
       </c>
       <c r="AA31" t="n">
         <v>0.9548714706172144</v>
@@ -5286,37 +5286,37 @@
         <v>0.9096495</v>
       </c>
       <c r="P32" t="n">
-        <v>1.111889052176481</v>
+        <v>0.8098666161325424</v>
       </c>
       <c r="Q32" t="n">
-        <v>454.9039090145141</v>
+        <v>282.7793769196336</v>
       </c>
       <c r="R32" t="n">
         <v>258</v>
       </c>
       <c r="S32" t="n">
-        <v>0.1425182701500532</v>
+        <v>0.06379179211551542</v>
       </c>
       <c r="T32" t="n">
-        <v>1.582060327113703</v>
+        <v>0.6043566736006712</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01501018236428175</v>
+        <v>0.01500188431861197</v>
       </c>
       <c r="V32" t="n">
-        <v>0.1666243492590066</v>
+        <v>0.1421262611359252</v>
       </c>
       <c r="W32" t="n">
         <v>0.0802401676628899</v>
       </c>
       <c r="X32" t="n">
-        <v>0.7491742730833818</v>
+        <v>0.3118437911709577</v>
       </c>
       <c r="Y32" t="n">
         <v>0.5228162358938716</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.7618621555909734</v>
+        <v>0.3412014108464192</v>
       </c>
       <c r="AA32" t="n">
         <v>1.177088983194154</v>
@@ -5441,37 +5441,37 @@
         <v>0.92555094</v>
       </c>
       <c r="P33" t="n">
-        <v>1.075485966153404</v>
+        <v>0.7835910216052951</v>
       </c>
       <c r="Q33" t="n">
-        <v>444.7801590842464</v>
+        <v>276.6129198995365</v>
       </c>
       <c r="R33" t="n">
         <v>272</v>
       </c>
       <c r="S33" t="n">
-        <v>0.1665914851764877</v>
+        <v>0.1080189573435786</v>
       </c>
       <c r="T33" t="n">
-        <v>1.769563483752197</v>
+        <v>0.9793900339307793</v>
       </c>
       <c r="U33" t="n">
-        <v>0.08882763577586539</v>
+        <v>0.0887806473112443</v>
       </c>
       <c r="V33" t="n">
-        <v>0.9435424652735883</v>
+        <v>0.8049594563849495</v>
       </c>
       <c r="W33" t="n">
         <v>0.4875798432573615</v>
       </c>
       <c r="X33" t="n">
-        <v>0.765337316145805</v>
+        <v>0.3185716578456914</v>
       </c>
       <c r="Y33" t="n">
         <v>0.5202707009107589</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.9144299465013156</v>
+        <v>0.5932358896389254</v>
       </c>
       <c r="AA33" t="n">
         <v>1.05781319093341</v>
@@ -5596,37 +5596,37 @@
         <v>1.6293055</v>
       </c>
       <c r="P34" t="n">
-        <v>2.074651628285726</v>
+        <v>1.511898574755416</v>
       </c>
       <c r="Q34" t="n">
-        <v>1086.679426976399</v>
+        <v>676.032631827155</v>
       </c>
       <c r="R34" t="n">
         <v>229</v>
       </c>
       <c r="S34" t="n">
-        <v>0.2528663159964391</v>
+        <v>0.1186868833961239</v>
       </c>
       <c r="T34" t="n">
-        <v>4.090996961357837</v>
+        <v>1.639191296958521</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05561429663337288</v>
+        <v>0.05534004566394032</v>
       </c>
       <c r="V34" t="n">
-        <v>0.8997557370922658</v>
+        <v>0.7643045181568957</v>
       </c>
       <c r="W34" t="n">
         <v>0.2783844643894688</v>
       </c>
       <c r="X34" t="n">
-        <v>1.227490469836654</v>
+        <v>0.5109429080695072</v>
       </c>
       <c r="Y34" t="n">
         <v>0.8890467814097006</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.26575463868341</v>
+        <v>0.597046570306945</v>
       </c>
       <c r="AA34" t="n">
         <v>0.2331909053053322</v>
@@ -5751,37 +5751,37 @@
         <v>0.89328593</v>
       </c>
       <c r="P35" t="n">
-        <v>1.087068404931454</v>
+        <v>0.7922026893579268</v>
       </c>
       <c r="Q35" t="n">
-        <v>436.2378281746771</v>
+        <v>271.3891501662546</v>
       </c>
       <c r="R35" t="n">
         <v>246</v>
       </c>
       <c r="S35" t="n">
-        <v>0.166393772631947</v>
+        <v>0.1092052638562645</v>
       </c>
       <c r="T35" t="n">
-        <v>1.841097341802585</v>
+        <v>1.031508887969779</v>
       </c>
       <c r="U35" t="n">
-        <v>0.09041616373777836</v>
+        <v>0.09037009644421151</v>
       </c>
       <c r="V35" t="n">
-        <v>1.000427816982198</v>
+        <v>0.8535994914272892</v>
       </c>
       <c r="W35" t="n">
         <v>0.47199889326728</v>
       </c>
       <c r="X35" t="n">
-        <v>0.7205051794299804</v>
+        <v>0.2999102809377294</v>
       </c>
       <c r="Y35" t="n">
         <v>0.5096565419757205</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.8686242955033849</v>
+        <v>0.5703741138634111</v>
       </c>
       <c r="AA35" t="n">
         <v>1.263103736974466</v>
@@ -5901,37 +5901,37 @@
         <v>1.0918679</v>
       </c>
       <c r="P36" t="n">
-        <v>1.354325735617879</v>
+        <v>0.9870102983551774</v>
       </c>
       <c r="Q36" t="n">
-        <v>609.7906666368677</v>
+        <v>379.3836426454296</v>
       </c>
       <c r="R36" t="n">
         <v>227</v>
       </c>
       <c r="S36" t="n">
-        <v>0.1883769490297419</v>
+        <v>0.09153449992533173</v>
       </c>
       <c r="T36" t="n">
-        <v>2.314421774261377</v>
+        <v>0.9600610209506758</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04649699512657476</v>
+        <v>0.0464495146373138</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5712676551613498</v>
+        <v>0.4871864540882423</v>
       </c>
       <c r="W36" t="n">
         <v>0.2329744788392354</v>
       </c>
       <c r="X36" t="n">
-        <v>0.9069971823211819</v>
+        <v>0.377537577141192</v>
       </c>
       <c r="Y36" t="n">
         <v>0.6297326029758291</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.9438679081531927</v>
+        <v>0.4591049569069822</v>
       </c>
       <c r="AA36" t="n">
         <v>0.6845167484937132</v>
@@ -6056,37 +6056,37 @@
         <v>1.9086419</v>
       </c>
       <c r="P37" t="n">
-        <v>2.398506882620912</v>
+        <v>1.749263116200616</v>
       </c>
       <c r="Q37" t="n">
-        <v>1292.62649117756</v>
+        <v>805.0897678415538</v>
       </c>
       <c r="R37" t="n">
         <v>180</v>
       </c>
       <c r="S37" t="n">
-        <v>0.2970026057943198</v>
+        <v>0.1279394184425958</v>
       </c>
       <c r="T37" t="n">
-        <v>5.399063106915001</v>
+        <v>1.986184559219613</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02578235051936975</v>
+        <v>0.02554983869498488</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4686845663404017</v>
+        <v>0.3966462855957087</v>
       </c>
       <c r="W37" t="n">
         <v>0.1138297512067711</v>
       </c>
       <c r="X37" t="n">
-        <v>1.298771579757768</v>
+        <v>0.540613670074171</v>
       </c>
       <c r="Y37" t="n">
         <v>0.9836345464048456</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.311274264925189</v>
+        <v>0.5699962471277076</v>
       </c>
       <c r="AA37" t="n">
         <v>0.1584126895994296</v>
@@ -6208,37 +6208,37 @@
         <v>0.8016358</v>
       </c>
       <c r="P38" t="n">
-        <v>1.006568049255268</v>
+        <v>0.7341035271844724</v>
       </c>
       <c r="Q38" t="n">
-        <v>407.2874684453447</v>
+        <v>253.6718655028668</v>
       </c>
       <c r="R38" t="n">
         <v>264</v>
       </c>
       <c r="S38" t="n">
-        <v>0.1589102868576013</v>
+        <v>0.1004708458252252</v>
       </c>
       <c r="T38" t="n">
-        <v>1.614680139783613</v>
+        <v>0.8718296510886581</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0806372880634347</v>
+        <v>0.08060121806305796</v>
       </c>
       <c r="V38" t="n">
-        <v>0.8193517873308783</v>
+        <v>0.6994121652312579</v>
       </c>
       <c r="W38" t="n">
         <v>0.4361250403975968</v>
       </c>
       <c r="X38" t="n">
-        <v>0.7321236300820413</v>
+        <v>0.3047464610216497</v>
       </c>
       <c r="Y38" t="n">
         <v>0.4966255727405918</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.8594628730674236</v>
+        <v>0.5436375869658245</v>
       </c>
       <c r="AA38" t="n">
         <v>1.591778155555364</v>
@@ -6360,37 +6360,37 @@
         <v>0.92557955</v>
       </c>
       <c r="P39" t="n">
-        <v>1.148098533361368</v>
+        <v>0.837465196399573</v>
       </c>
       <c r="Q39" t="n">
-        <v>474.4167535655663</v>
+        <v>295.5571195997127</v>
       </c>
       <c r="R39" t="n">
         <v>231</v>
       </c>
       <c r="S39" t="n">
-        <v>0.170536365877697</v>
+        <v>0.1011649059001867</v>
       </c>
       <c r="T39" t="n">
-        <v>1.935372514675718</v>
+        <v>0.9805533996313314</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07611830477239584</v>
+        <v>0.07607273863670554</v>
       </c>
       <c r="V39" t="n">
-        <v>0.8638466884292322</v>
+        <v>0.7373444558242765</v>
       </c>
       <c r="W39" t="n">
         <v>0.3849964508948648</v>
       </c>
       <c r="X39" t="n">
-        <v>0.7634474099624896</v>
+        <v>0.3177849843968862</v>
       </c>
       <c r="Y39" t="n">
         <v>0.540320475689792</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.8625506809136331</v>
+        <v>0.5119853764261902</v>
       </c>
       <c r="AA39" t="n">
         <v>1.131000314009517</v>
@@ -6510,37 +6510,37 @@
         <v>1.1242336</v>
       </c>
       <c r="P40" t="n">
-        <v>1.441558335364838</v>
+        <v>1.052687975459421</v>
       </c>
       <c r="Q40" t="n">
-        <v>665.9472847036207</v>
+        <v>415.566961884177</v>
       </c>
       <c r="R40" t="n">
         <v>223</v>
       </c>
       <c r="S40" t="n">
-        <v>0.2016558408299038</v>
+        <v>0.1007198458863515</v>
       </c>
       <c r="T40" t="n">
-        <v>2.570304961088307</v>
+        <v>1.097040400980967</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05647847434290088</v>
+        <v>0.05640792675507192</v>
       </c>
       <c r="V40" t="n">
-        <v>0.7198745258299001</v>
+        <v>0.6143950483772003</v>
       </c>
       <c r="W40" t="n">
         <v>0.2803838253258461</v>
       </c>
       <c r="X40" t="n">
-        <v>0.9534596878226014</v>
+        <v>0.3968775950561578</v>
       </c>
       <c r="Y40" t="n">
         <v>0.6720252225683322</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.001107708892908</v>
+        <v>0.5006426809208283</v>
       </c>
       <c r="AA40" t="n">
         <v>0.6340650315646472</v>
@@ -6660,37 +6660,37 @@
         <v>0.9031737399999999</v>
       </c>
       <c r="P41" t="n">
-        <v>1.216854177819172</v>
+        <v>0.888861604155569</v>
       </c>
       <c r="Q41" t="n">
-        <v>492.0117538705012</v>
+        <v>307.162993545736</v>
       </c>
       <c r="R41" t="n">
         <v>247</v>
       </c>
       <c r="S41" t="n">
-        <v>0.1459040465953306</v>
+        <v>0.07184404047216329</v>
       </c>
       <c r="T41" t="n">
-        <v>1.793569426636678</v>
+        <v>0.7548130647629328</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03624700653263082</v>
+        <v>0.03622373027035467</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4455772423114354</v>
+        <v>0.3805763802093818</v>
       </c>
       <c r="W41" t="n">
         <v>0.1895613414870465</v>
       </c>
       <c r="X41" t="n">
-        <v>0.7302539222176235</v>
+        <v>0.3039681951230858</v>
       </c>
       <c r="Y41" t="n">
         <v>0.5494972796163312</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.7630358875594575</v>
+        <v>0.3759649430941833</v>
       </c>
       <c r="AA41" t="n">
         <v>1.347526381911011</v>
@@ -6815,37 +6815,37 @@
         <v>0.9041202699999999</v>
       </c>
       <c r="P42" t="n">
-        <v>1.16080945842857</v>
+        <v>0.8482114907834004</v>
       </c>
       <c r="Q42" t="n">
-        <v>465.6522538264084</v>
+        <v>290.8549969849151</v>
       </c>
       <c r="R42" t="n">
         <v>243</v>
       </c>
       <c r="S42" t="n">
-        <v>0.1510549969969535</v>
+        <v>0.08334101461094176</v>
       </c>
       <c r="T42" t="n">
-        <v>1.785436963605669</v>
+        <v>0.8420537516597376</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05613767513609784</v>
+        <v>0.05610539634442548</v>
       </c>
       <c r="V42" t="n">
-        <v>0.6635350185793417</v>
+        <v>0.5668728620682933</v>
       </c>
       <c r="W42" t="n">
         <v>0.2912291469413502</v>
       </c>
       <c r="X42" t="n">
-        <v>0.7186242908533942</v>
+        <v>0.2991273610677254</v>
       </c>
       <c r="Y42" t="n">
         <v>0.5341625188421676</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.7836380436133051</v>
+        <v>0.4326024620051138</v>
       </c>
       <c r="AA42" t="n">
         <v>1.301869052062761</v>
@@ -6970,37 +6970,37 @@
         <v>1.2350873</v>
       </c>
       <c r="P43" t="n">
-        <v>1.602757707502557</v>
+        <v>1.171170385906113</v>
       </c>
       <c r="Q43" t="n">
-        <v>770.0293529823913</v>
+        <v>480.989496780694</v>
       </c>
       <c r="R43" t="n">
         <v>266</v>
       </c>
       <c r="S43" t="n">
-        <v>0.2036777502648391</v>
+        <v>0.1073047939707127</v>
       </c>
       <c r="T43" t="n">
-        <v>2.775372719281953</v>
+        <v>1.249893342767577</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06897878070813332</v>
+        <v>0.06885510264038355</v>
       </c>
       <c r="V43" t="n">
-        <v>0.9399250823310678</v>
+        <v>0.802028793133724</v>
       </c>
       <c r="W43" t="n">
         <v>0.3737030240371503</v>
       </c>
       <c r="X43" t="n">
-        <v>1.030796915041872</v>
+        <v>0.4290692158861793</v>
       </c>
       <c r="Y43" t="n">
         <v>0.7360061346918944</v>
       </c>
       <c r="Z43" t="n">
-        <v>1.103455155653093</v>
+        <v>0.5823842309839207</v>
       </c>
       <c r="AA43" t="n">
         <v>0.4915668852030486</v>
@@ -7120,37 +7120,37 @@
         <v>0.9857167999999999</v>
       </c>
       <c r="P44" t="n">
-        <v>1.272258329323027</v>
+        <v>0.9297919389433966</v>
       </c>
       <c r="Q44" t="n">
-        <v>544.3989324383406</v>
+        <v>340.1206305972193</v>
       </c>
       <c r="R44" t="n">
         <v>266</v>
       </c>
       <c r="S44" t="n">
-        <v>0.1536301465493509</v>
+        <v>0.06944299450851499</v>
       </c>
       <c r="T44" t="n">
-        <v>1.865774029935113</v>
+        <v>0.720968476254795</v>
       </c>
       <c r="U44" t="n">
-        <v>0.02089901944751934</v>
+        <v>0.02088247727308321</v>
       </c>
       <c r="V44" t="n">
-        <v>0.2538098713833141</v>
+        <v>0.2168052793022065</v>
       </c>
       <c r="W44" t="n">
         <v>0.1133940392740761</v>
       </c>
       <c r="X44" t="n">
-        <v>0.8175965770274528</v>
+        <v>0.3403245751876772</v>
       </c>
       <c r="Y44" t="n">
         <v>0.5926520497047932</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.8335674750313206</v>
+        <v>0.3770827351387976</v>
       </c>
       <c r="AA44" t="n">
         <v>0.9676569692153486</v>
@@ -7275,37 +7275,37 @@
         <v>1.1213332</v>
       </c>
       <c r="P45" t="n">
-        <v>1.443839853466967</v>
+        <v>1.055217159833754</v>
       </c>
       <c r="Q45" t="n">
-        <v>665.5526000559073</v>
+        <v>415.8307620581264</v>
       </c>
       <c r="R45" t="n">
         <v>254</v>
       </c>
       <c r="S45" t="n">
-        <v>0.1916709440404054</v>
+        <v>0.1009964100451707</v>
       </c>
       <c r="T45" t="n">
-        <v>2.452230027691434</v>
+        <v>1.104643829648684</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06443001681235694</v>
+        <v>0.06434976848371114</v>
       </c>
       <c r="V45" t="n">
-        <v>0.8243149356984373</v>
+        <v>0.7038227860085399</v>
       </c>
       <c r="W45" t="n">
         <v>0.341368798440658</v>
       </c>
       <c r="X45" t="n">
-        <v>0.9487975925149862</v>
+        <v>0.394936997884363</v>
       </c>
       <c r="Y45" t="n">
         <v>0.6743436542375542</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.015527902989946</v>
+        <v>0.5357754030252196</v>
       </c>
       <c r="AA45" t="n">
         <v>0.6427984045101238</v>
@@ -7425,37 +7425,37 @@
         <v>1.0713996</v>
       </c>
       <c r="P46" t="n">
-        <v>1.400974875195076</v>
+        <v>1.02399202384086</v>
       </c>
       <c r="Q46" t="n">
-        <v>629.1173679522966</v>
+        <v>393.1253191546559</v>
       </c>
       <c r="R46" t="n">
         <v>251</v>
       </c>
       <c r="S46" t="n">
-        <v>0.192970917745354</v>
+        <v>0.1142827858911041</v>
       </c>
       <c r="T46" t="n">
-        <v>2.459065739991192</v>
+        <v>1.245065528273892</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08669406566740977</v>
+        <v>0.08659948523310058</v>
       </c>
       <c r="V46" t="n">
-        <v>1.104759251985299</v>
+        <v>0.9434669708939122</v>
       </c>
       <c r="W46" t="n">
         <v>0.4567163235159034</v>
       </c>
       <c r="X46" t="n">
-        <v>0.9003687586757709</v>
+        <v>0.3747784957987896</v>
       </c>
       <c r="Y46" t="n">
         <v>0.6493628210175656</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.016597473191052</v>
+        <v>0.6027150585577613</v>
       </c>
       <c r="AA46" t="n">
         <v>0.7534592632234871</v>
@@ -7575,37 +7575,37 @@
         <v>0.92914504</v>
       </c>
       <c r="P47" t="n">
-        <v>1.207879478710084</v>
+        <v>0.8828963380771325</v>
       </c>
       <c r="Q47" t="n">
-        <v>494.7797013173586</v>
+        <v>309.2011091112656</v>
       </c>
       <c r="R47" t="n">
         <v>244</v>
       </c>
       <c r="S47" t="n">
-        <v>0.168286274784312</v>
+        <v>0.105503730438472</v>
       </c>
       <c r="T47" t="n">
-        <v>2.02690449928387</v>
+        <v>1.086414271434614</v>
       </c>
       <c r="U47" t="n">
-        <v>0.08403264902142941</v>
+        <v>0.08397814179766565</v>
       </c>
       <c r="V47" t="n">
-        <v>1.012121485287971</v>
+        <v>0.8647566428065816</v>
       </c>
       <c r="W47" t="n">
         <v>0.4367841567486981</v>
       </c>
       <c r="X47" t="n">
-        <v>0.7491710597289281</v>
+        <v>0.3118424536121663</v>
       </c>
       <c r="Y47" t="n">
         <v>0.5560563455008833</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.8747169044415195</v>
+        <v>0.5487422911123629</v>
       </c>
       <c r="AA47" t="n">
         <v>1.196969398364808</v>
@@ -7730,37 +7730,37 @@
         <v>1.055409</v>
       </c>
       <c r="P48" t="n">
-        <v>1.36128836010673</v>
+        <v>0.9950972583033304</v>
       </c>
       <c r="Q48" t="n">
-        <v>608.1989033494216</v>
+        <v>380.1182583150874</v>
       </c>
       <c r="R48" t="n">
         <v>231</v>
       </c>
       <c r="S48" t="n">
-        <v>0.1980653836683202</v>
+        <v>0.1161944790044498</v>
       </c>
       <c r="T48" t="n">
-        <v>2.464974705205039</v>
+        <v>1.236366074921493</v>
       </c>
       <c r="U48" t="n">
-        <v>0.08712878014720037</v>
+        <v>0.0870408255038686</v>
       </c>
       <c r="V48" t="n">
-        <v>1.084340106183691</v>
+        <v>0.926156945735979</v>
       </c>
       <c r="W48" t="n">
         <v>0.4403948035766497</v>
       </c>
       <c r="X48" t="n">
-        <v>0.8912014192955175</v>
+        <v>0.3709625907817592</v>
       </c>
       <c r="Y48" t="n">
         <v>0.6377711937506886</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.001126901909764</v>
+        <v>0.5879016480097777</v>
       </c>
       <c r="AA48" t="n">
         <v>0.7737190204340079</v>
@@ -7880,37 +7880,37 @@
         <v>1.0777392</v>
       </c>
       <c r="P49" t="n">
-        <v>1.406100477348218</v>
+        <v>1.028019190872926</v>
       </c>
       <c r="Q49" t="n">
-        <v>633.6692832447311</v>
+        <v>396.1320259149195</v>
       </c>
       <c r="R49" t="n">
         <v>258</v>
       </c>
       <c r="S49" t="n">
-        <v>0.1873810747878747</v>
+        <v>0.1061311983903543</v>
       </c>
       <c r="T49" t="n">
-        <v>2.388058930302612</v>
+        <v>1.156524441418709</v>
       </c>
       <c r="U49" t="n">
-        <v>0.07613035557619575</v>
+        <v>0.0760459431806189</v>
       </c>
       <c r="V49" t="n">
-        <v>0.970235525154603</v>
+        <v>0.8286817947315039</v>
       </c>
       <c r="W49" t="n">
         <v>0.4066079118570446</v>
       </c>
       <c r="X49" t="n">
-        <v>0.9066321301866257</v>
+        <v>0.377385624190183</v>
       </c>
       <c r="Y49" t="n">
         <v>0.6536208235785658</v>
       </c>
       <c r="Z49" t="n">
-        <v>1.000791694250927</v>
+        <v>0.5674699156257673</v>
       </c>
       <c r="AA49" t="n">
         <v>0.737682096341933</v>
@@ -8030,37 +8030,37 @@
         <v>1.0621358</v>
       </c>
       <c r="P50" t="n">
-        <v>1.364331497409866</v>
+        <v>0.9975053542523036</v>
       </c>
       <c r="Q50" t="n">
-        <v>611.6757288894323</v>
+        <v>382.3967945597057</v>
       </c>
       <c r="R50" t="n">
         <v>230</v>
       </c>
       <c r="S50" t="n">
-        <v>0.2023967756024362</v>
+        <v>0.1215149890289672</v>
       </c>
       <c r="T50" t="n">
-        <v>2.515772760298895</v>
+        <v>1.291502758237461</v>
       </c>
       <c r="U50" t="n">
-        <v>0.09357960399856796</v>
+        <v>0.0934839389315222</v>
       </c>
       <c r="V50" t="n">
-        <v>1.163185618735327</v>
+        <v>0.9935791950092845</v>
       </c>
       <c r="W50" t="n">
         <v>0.4719661603788364</v>
       </c>
       <c r="X50" t="n">
-        <v>0.897292876960002</v>
+        <v>0.3734981600346009</v>
       </c>
       <c r="Y50" t="n">
         <v>0.6411318138246039</v>
       </c>
       <c r="Z50" t="n">
-        <v>1.020782574113057</v>
+        <v>0.6134846633119316</v>
       </c>
       <c r="AA50" t="n">
         <v>0.7555506855252948</v>
@@ -8180,37 +8180,37 @@
         <v>0.8977273</v>
       </c>
       <c r="P51" t="n">
-        <v>1.153284397753408</v>
+        <v>0.843210049382502</v>
       </c>
       <c r="Q51" t="n">
-        <v>459.1699382574389</v>
+        <v>287.0598693485021</v>
       </c>
       <c r="R51" t="n">
         <v>229</v>
       </c>
       <c r="S51" t="n">
-        <v>0.1650967625034576</v>
+        <v>0.1045142601442022</v>
       </c>
       <c r="T51" t="n">
-        <v>1.95338208940529</v>
+        <v>1.057362426118864</v>
       </c>
       <c r="U51" t="n">
-        <v>0.08372318997608652</v>
+        <v>0.083676409469972</v>
       </c>
       <c r="V51" t="n">
-        <v>0.990591076937313</v>
+        <v>0.8465475544103843</v>
       </c>
       <c r="W51" t="n">
         <v>0.4216500360198155</v>
       </c>
       <c r="X51" t="n">
-        <v>0.7076245854368444</v>
+        <v>0.2945487336880865</v>
       </c>
       <c r="Y51" t="n">
         <v>0.5306403981356845</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.8314668358458523</v>
+        <v>0.5266531132672654</v>
       </c>
       <c r="AA51" t="n">
         <v>1.341268064918048</v>
@@ -8330,37 +8330,37 @@
         <v>1.1299946</v>
       </c>
       <c r="P52" t="n">
-        <v>1.319981508080804</v>
+        <v>0.965130390027644</v>
       </c>
       <c r="Q52" t="n">
-        <v>589.0389475543313</v>
+        <v>368.2741426869293</v>
       </c>
       <c r="R52" t="n">
         <v>252</v>
       </c>
       <c r="S52" t="n">
-        <v>0.1901092174920316</v>
+        <v>0.1126185200568466</v>
       </c>
       <c r="T52" t="n">
-        <v>2.296910722425471</v>
+        <v>1.163482428291984</v>
       </c>
       <c r="U52" t="n">
-        <v>0.08541112486694917</v>
+        <v>0.08533092392817998</v>
       </c>
       <c r="V52" t="n">
-        <v>1.031942223051542</v>
+        <v>0.8815693060985278</v>
       </c>
       <c r="W52" t="n">
         <v>0.4509584545618984</v>
       </c>
       <c r="X52" t="n">
-        <v>0.888932273381097</v>
+        <v>0.3700180587948818</v>
       </c>
       <c r="Y52" t="n">
         <v>0.6283782855504324</v>
       </c>
       <c r="Z52" t="n">
-        <v>1.003749324830086</v>
+        <v>0.5951684503337701</v>
       </c>
       <c r="AA52" t="n">
         <v>0.6127353545320087</v>
@@ -8485,37 +8485,37 @@
         <v>0.98185366</v>
       </c>
       <c r="P53" t="n">
-        <v>1.246934742869442</v>
+        <v>0.911755870741225</v>
       </c>
       <c r="Q53" t="n">
-        <v>533.8687605706282</v>
+        <v>333.8003385610172</v>
       </c>
       <c r="R53" t="n">
         <v>209</v>
       </c>
       <c r="S53" t="n">
-        <v>0.1888898357272716</v>
+        <v>0.1083225112322332</v>
       </c>
       <c r="T53" t="n">
-        <v>2.247039928644614</v>
+        <v>1.101890253841862</v>
       </c>
       <c r="U53" t="n">
-        <v>0.07845207191747712</v>
+        <v>0.07839255462496238</v>
       </c>
       <c r="V53" t="n">
-        <v>0.9332685234477027</v>
+        <v>0.7974334321867899</v>
       </c>
       <c r="W53" t="n">
         <v>0.3773318164275848</v>
       </c>
       <c r="X53" t="n">
-        <v>0.818251484339706</v>
+        <v>0.3405971803564026</v>
       </c>
       <c r="Y53" t="n">
         <v>0.5888625557407738</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.9085055764320922</v>
+        <v>0.5213955600605052</v>
       </c>
       <c r="AA53" t="n">
         <v>0.9585359262001968</v>
@@ -8635,37 +8635,37 @@
         <v>0.86550444</v>
       </c>
       <c r="P54" t="n">
-        <v>1.141383299608321</v>
+        <v>0.8346926260254826</v>
       </c>
       <c r="Q54" t="n">
-        <v>448.3052765771429</v>
+        <v>280.3602542054227</v>
       </c>
       <c r="R54" t="n">
         <v>240</v>
       </c>
       <c r="S54" t="n">
-        <v>0.1640720323175834</v>
+        <v>0.1102804883448994</v>
       </c>
       <c r="T54" t="n">
-        <v>1.947479939364715</v>
+        <v>1.119398310907631</v>
       </c>
       <c r="U54" t="n">
-        <v>0.09276776680910208</v>
+        <v>0.09271830971020267</v>
       </c>
       <c r="V54" t="n">
-        <v>1.101122246908553</v>
+        <v>0.9411340196029502</v>
       </c>
       <c r="W54" t="n">
         <v>0.4783105693396057</v>
       </c>
       <c r="X54" t="n">
-        <v>0.6885728708388821</v>
+        <v>0.2866184574866847</v>
       </c>
       <c r="Y54" t="n">
         <v>0.522190440927301</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.8459553343783796</v>
+        <v>0.5689094563109166</v>
       </c>
       <c r="AA54" t="n">
         <v>1.522037894908761</v>
@@ -8785,37 +8785,37 @@
         <v>0.99628156</v>
       </c>
       <c r="P55" t="n">
-        <v>1.25784058498533</v>
+        <v>0.9201578535979812</v>
       </c>
       <c r="Q55" t="n">
-        <v>544.0780004292803</v>
+        <v>340.4209398920711</v>
       </c>
       <c r="R55" t="n">
         <v>257</v>
       </c>
       <c r="S55" t="n">
-        <v>0.1593227041750375</v>
+        <v>0.07151357180371477</v>
       </c>
       <c r="T55" t="n">
-        <v>1.892417555527204</v>
+        <v>0.7265175937409041</v>
       </c>
       <c r="U55" t="n">
-        <v>0.01996188987428536</v>
+        <v>0.01994613894829392</v>
       </c>
       <c r="V55" t="n">
-        <v>0.2371051322233147</v>
+        <v>0.2026359543739568</v>
       </c>
       <c r="W55" t="n">
         <v>0.1064614568538558</v>
       </c>
       <c r="X55" t="n">
-        <v>0.8349157100515233</v>
+        <v>0.3475336643089466</v>
       </c>
       <c r="Y55" t="n">
         <v>0.5984242868416478</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.8497054789496794</v>
+        <v>0.3816998898274249</v>
       </c>
       <c r="AA55" t="n">
         <v>0.906764956917385</v>
@@ -8937,37 +8937,37 @@
         <v>0.95533544</v>
       </c>
       <c r="P56" t="n">
-        <v>1.262617024970603</v>
+        <v>0.9236519996902225</v>
       </c>
       <c r="Q56" t="n">
-        <v>525.6903078658589</v>
+        <v>328.9160534972021</v>
       </c>
       <c r="R56" t="n">
         <v>246</v>
       </c>
       <c r="S56" t="n">
-        <v>0.1550635339528943</v>
+        <v>0.07661013170230752</v>
       </c>
       <c r="T56" t="n">
-        <v>1.920756217195706</v>
+        <v>0.8116469219351619</v>
       </c>
       <c r="U56" t="n">
-        <v>0.0397480645016358</v>
+        <v>0.03971889893400741</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4923552305741054</v>
+        <v>0.4208023318340006</v>
       </c>
       <c r="W56" t="n">
         <v>0.2074179672356543</v>
       </c>
       <c r="X56" t="n">
-        <v>0.773549600717885</v>
+        <v>0.3219900212988197</v>
       </c>
       <c r="Y56" t="n">
         <v>0.5792903038327308</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.8091705447333809</v>
+        <v>0.4000694433586893</v>
       </c>
       <c r="AA56" t="n">
         <v>1.114227419076153</v>
@@ -9084,37 +9084,37 @@
         <v>1.0252615</v>
       </c>
       <c r="P57" t="n">
-        <v>1.354183592250065</v>
+        <v>0.9908721930996639</v>
       </c>
       <c r="Q57" t="n">
-        <v>591.299133174339</v>
+        <v>370.0985491729708</v>
       </c>
       <c r="R57" t="n">
         <v>277</v>
       </c>
       <c r="S57" t="n">
-        <v>0.1664679991991519</v>
+        <v>0.09039697065154546</v>
       </c>
       <c r="T57" t="n">
-        <v>2.108763473311934</v>
+        <v>0.9795374263373094</v>
       </c>
       <c r="U57" t="n">
-        <v>0.06033852519775094</v>
+        <v>0.06028146078789828</v>
       </c>
       <c r="V57" t="n">
-        <v>0.7643491757133892</v>
+        <v>0.6532071432309863</v>
       </c>
       <c r="W57" t="n">
         <v>0.3340034398526273</v>
       </c>
       <c r="X57" t="n">
-        <v>0.8506733874415399</v>
+        <v>0.354092797522541</v>
       </c>
       <c r="Y57" t="n">
         <v>0.6265908897467604</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.9214823228721147</v>
+        <v>0.5008654195708296</v>
       </c>
       <c r="AA57" t="n">
         <v>0.8790240049700396</v>
@@ -9239,37 +9239,37 @@
         <v>1.03065</v>
       </c>
       <c r="P58" t="n">
-        <v>1.377154937288513</v>
+        <v>1.00784309379533</v>
       </c>
       <c r="Q58" t="n">
-        <v>602.2130276489805</v>
+        <v>377.0208145886887</v>
       </c>
       <c r="R58" t="n">
         <v>264</v>
       </c>
       <c r="S58" t="n">
-        <v>0.185253575840019</v>
+        <v>0.1169918597055664</v>
       </c>
       <c r="T58" t="n">
-        <v>2.383039924305246</v>
+        <v>1.287435332121339</v>
       </c>
       <c r="U58" t="n">
-        <v>0.0944248924229731</v>
+        <v>0.09433187812823055</v>
       </c>
       <c r="V58" t="n">
-        <v>1.21465017596472</v>
+        <v>1.038073872432594</v>
       </c>
       <c r="W58" t="n">
         <v>0.510244149541309</v>
       </c>
       <c r="X58" t="n">
-        <v>0.8530847752703445</v>
+        <v>0.3550965377062809</v>
       </c>
       <c r="Y58" t="n">
         <v>0.6331895210472772</v>
       </c>
       <c r="Z58" t="n">
-        <v>1.001055450829188</v>
+        <v>0.6328127155231338</v>
       </c>
       <c r="AA58" t="n">
         <v>0.8774068495383094</v>
@@ -9389,37 +9389,37 @@
         <v>1.3891233</v>
       </c>
       <c r="P59" t="n">
-        <v>1.858520359613351</v>
+        <v>1.360347355030024</v>
       </c>
       <c r="Q59" t="n">
-        <v>930.6619575046815</v>
+        <v>582.7948454048535</v>
       </c>
       <c r="R59" t="n">
         <v>258</v>
       </c>
       <c r="S59" t="n">
-        <v>0.21281370169981</v>
+        <v>0.09367869289035916</v>
       </c>
       <c r="T59" t="n">
-        <v>3.226201794837865</v>
+        <v>1.214993659702415</v>
       </c>
       <c r="U59" t="n">
-        <v>0.02434891006549575</v>
+        <v>0.02427524699358963</v>
       </c>
       <c r="V59" t="n">
-        <v>0.3691233070437132</v>
+        <v>0.3148450333251488</v>
       </c>
       <c r="W59" t="n">
         <v>0.1296911223764612</v>
       </c>
       <c r="X59" t="n">
-        <v>1.11856035195348</v>
+        <v>0.4656007465006359</v>
       </c>
       <c r="Y59" t="n">
         <v>0.8292876502454331</v>
       </c>
       <c r="Z59" t="n">
-        <v>1.133522927978986</v>
+        <v>0.5004807912734629</v>
       </c>
       <c r="AA59" t="n">
         <v>0.3687925877173285</v>
@@ -9544,37 +9544,37 @@
         <v>1.0710543</v>
       </c>
       <c r="P60" t="n">
-        <v>1.381530141540263</v>
+        <v>1.011217729114349</v>
       </c>
       <c r="Q60" t="n">
-        <v>620.6293981810398</v>
+        <v>388.6501230525101</v>
       </c>
       <c r="R60" t="n">
         <v>238</v>
       </c>
       <c r="S60" t="n">
-        <v>0.1837188285235422</v>
+        <v>0.09098316587262584</v>
       </c>
       <c r="T60" t="n">
-        <v>2.307763558789464</v>
+        <v>0.9777793109060164</v>
       </c>
       <c r="U60" t="n">
-        <v>0.04918872060735735</v>
+        <v>0.04913684621528328</v>
       </c>
       <c r="V60" t="n">
-        <v>0.6178786237284843</v>
+        <v>0.5280646279086</v>
       </c>
       <c r="W60" t="n">
         <v>0.2523461415622183</v>
       </c>
       <c r="X60" t="n">
-        <v>0.9002288245145144</v>
+        <v>0.3747202482041666</v>
       </c>
       <c r="Y60" t="n">
         <v>0.6503732600270722</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.9425074882576296</v>
+        <v>0.4672512101098442</v>
       </c>
       <c r="AA60" t="n">
         <v>0.7431362812050313</v>
@@ -9699,37 +9699,37 @@
         <v>1.1112242</v>
       </c>
       <c r="P61" t="n">
-        <v>1.485570154863332</v>
+        <v>1.087371527314621</v>
       </c>
       <c r="Q61" t="n">
-        <v>677.0637127164142</v>
+        <v>423.9910848834764</v>
       </c>
       <c r="R61" t="n">
         <v>222</v>
       </c>
       <c r="S61" t="n">
-        <v>0.202126320772845</v>
+        <v>0.1090425926399886</v>
       </c>
       <c r="T61" t="n">
-        <v>2.691094336272953</v>
+        <v>1.242065834664294</v>
       </c>
       <c r="U61" t="n">
-        <v>0.07252319417814307</v>
+        <v>0.07242932568386633</v>
       </c>
       <c r="V61" t="n">
-        <v>0.965568246406454</v>
+        <v>0.825016983562734</v>
       </c>
       <c r="W61" t="n">
         <v>0.3592014322576875</v>
       </c>
       <c r="X61" t="n">
-        <v>0.9265767270964543</v>
+        <v>0.3856875626538992</v>
       </c>
       <c r="Y61" t="n">
         <v>0.6827385445859135</v>
       </c>
       <c r="Z61" t="n">
-        <v>1.001115087957116</v>
+        <v>0.5407789605046709</v>
       </c>
       <c r="AA61" t="n">
         <v>0.6951873708827524</v>
@@ -9849,37 +9849,37 @@
         <v>0.80016613</v>
       </c>
       <c r="P62" t="n">
-        <v>0.9514707957197988</v>
+        <v>0.6967420611837954</v>
       </c>
       <c r="Q62" t="n">
-        <v>378.9583347282959</v>
+        <v>237.46866610002</v>
       </c>
       <c r="R62" t="n">
         <v>240</v>
       </c>
       <c r="S62" t="n">
-        <v>0.1583955989526083</v>
+        <v>0.09760368965244652</v>
       </c>
       <c r="T62" t="n">
-        <v>1.545581214964095</v>
+        <v>0.8149917991897823</v>
       </c>
       <c r="U62" t="n">
-        <v>0.0762142789282826</v>
+        <v>0.07618461618087116</v>
       </c>
       <c r="V62" t="n">
-        <v>0.7436782246634996</v>
+        <v>0.6361423183173164</v>
       </c>
       <c r="W62" t="n">
         <v>0.3930581540800506</v>
       </c>
       <c r="X62" t="n">
-        <v>0.7074174599283564</v>
+        <v>0.2944625176951783</v>
       </c>
       <c r="Y62" t="n">
         <v>0.4873484044735777</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.8168899924553696</v>
+        <v>0.5035652604078535</v>
       </c>
       <c r="AA62" t="n">
         <v>1.561526986176187</v>
@@ -9996,37 +9996,37 @@
         <v>1.2505714</v>
       </c>
       <c r="P63" t="n">
-        <v>1.662562745947004</v>
+        <v>1.217946175324629</v>
       </c>
       <c r="Q63" t="n">
-        <v>799.3230016720851</v>
+        <v>501.1842185876932</v>
       </c>
       <c r="R63" t="n">
         <v>240</v>
       </c>
       <c r="S63" t="n">
-        <v>0.2073634949533462</v>
+        <v>0.09894132940133649</v>
       </c>
       <c r="T63" t="n">
-        <v>2.928972816469862</v>
+        <v>1.196150439134059</v>
       </c>
       <c r="U63" t="n">
-        <v>0.047746486631733</v>
+        <v>0.04765240712360162</v>
       </c>
       <c r="V63" t="n">
-        <v>0.6744107079105288</v>
+        <v>0.5760934086046463</v>
       </c>
       <c r="W63" t="n">
         <v>0.2456417066581152</v>
       </c>
       <c r="X63" t="n">
-        <v>1.030528710358454</v>
+        <v>0.4289575756867064</v>
       </c>
       <c r="Y63" t="n">
         <v>0.7606109879195416</v>
       </c>
       <c r="Z63" t="n">
-        <v>1.066824522436754</v>
+        <v>0.5100291565571202</v>
       </c>
       <c r="AA63" t="n">
         <v>0.4905130448930057</v>
@@ -10151,37 +10151,37 @@
         <v>1.0581557</v>
       </c>
       <c r="P64" t="n">
-        <v>1.392180965178254</v>
+        <v>1.019914157386467</v>
       </c>
       <c r="Q64" t="n">
-        <v>618.5008542055614</v>
+        <v>387.8307114221698</v>
       </c>
       <c r="R64" t="n">
         <v>248</v>
       </c>
       <c r="S64" t="n">
-        <v>0.1725858284939422</v>
+        <v>0.08019680609824066</v>
       </c>
       <c r="T64" t="n">
-        <v>2.209049609459966</v>
+        <v>0.8786003547184101</v>
       </c>
       <c r="U64" t="n">
-        <v>0.03216854267154463</v>
+        <v>0.03213493902083905</v>
       </c>
       <c r="V64" t="n">
-        <v>0.4117482138921168</v>
+        <v>0.3520560256224849</v>
       </c>
       <c r="W64" t="n">
         <v>0.1684633464066345</v>
       </c>
       <c r="X64" t="n">
-        <v>0.8799323101442086</v>
+        <v>0.3662718240975267</v>
       </c>
       <c r="Y64" t="n">
         <v>0.6495667435386698</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.9038142171161946</v>
+        <v>0.4204215952509643</v>
       </c>
       <c r="AA64" t="n">
         <v>0.7940434459215121</v>
@@ -10306,37 +10306,37 @@
         <v>1.0087621</v>
       </c>
       <c r="P65" t="n">
-        <v>1.333352704491319</v>
+        <v>0.9768852599139819</v>
       </c>
       <c r="Q65" t="n">
-        <v>574.5454031266127</v>
+        <v>360.3065191166786</v>
       </c>
       <c r="R65" t="n">
         <v>248</v>
       </c>
       <c r="S65" t="n">
-        <v>0.1859558326184669</v>
+        <v>0.1179431062581016</v>
       </c>
       <c r="T65" t="n">
-        <v>2.350308120023332</v>
+        <v>1.275959274575113</v>
       </c>
       <c r="U65" t="n">
-        <v>0.09541803633091599</v>
+        <v>0.09533356745392652</v>
       </c>
       <c r="V65" t="n">
-        <v>1.205994899043367</v>
+        <v>1.031359554877028</v>
       </c>
       <c r="W65" t="n">
         <v>0.4998185908371541</v>
       </c>
       <c r="X65" t="n">
-        <v>0.8277495637948552</v>
+        <v>0.3445507559296085</v>
       </c>
       <c r="Y65" t="n">
         <v>0.618971087305047</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.9740735168241704</v>
+        <v>0.6183567734142636</v>
       </c>
       <c r="AA65" t="n">
         <v>0.9330537963957952</v>
@@ -10456,37 +10456,37 @@
         <v>1.5105462</v>
       </c>
       <c r="P66" t="n">
-        <v>2.028418383914226</v>
+        <v>1.486156803189088</v>
       </c>
       <c r="Q66" t="n">
-        <v>1042.792822526655</v>
+        <v>653.9712815445399</v>
       </c>
       <c r="R66" t="n">
         <v>221</v>
       </c>
       <c r="S66" t="n">
-        <v>0.2481503052245101</v>
+        <v>0.1186315487751742</v>
       </c>
       <c r="T66" t="n">
-        <v>3.999273583904863</v>
+        <v>1.63651522140961</v>
       </c>
       <c r="U66" t="n">
-        <v>0.0593582484285889</v>
+        <v>0.05910403853299311</v>
       </c>
       <c r="V66" t="n">
-        <v>0.9566374488741538</v>
+        <v>0.8153367270736055</v>
       </c>
       <c r="W66" t="n">
         <v>0.2921227062617882</v>
       </c>
       <c r="X66" t="n">
-        <v>1.17819129426569</v>
+        <v>0.4904221262380934</v>
       </c>
       <c r="Y66" t="n">
         <v>0.8912471830718696</v>
       </c>
       <c r="Z66" t="n">
-        <v>1.221234464306714</v>
+        <v>0.5863384285810873</v>
       </c>
       <c r="AA66" t="n">
         <v>0.2970031359163937</v>
@@ -10611,37 +10611,37 @@
         <v>1.0393018</v>
       </c>
       <c r="P67" t="n">
-        <v>1.382618189485964</v>
+        <v>1.013220099603891</v>
       </c>
       <c r="Q67" t="n">
-        <v>606.7875476519142</v>
+        <v>380.6615005810982</v>
       </c>
       <c r="R67" t="n">
         <v>232</v>
       </c>
       <c r="S67" t="n">
-        <v>0.1758900555708914</v>
+        <v>0.08471104474264851</v>
       </c>
       <c r="T67" t="n">
-        <v>2.263384913139956</v>
+        <v>0.9331639090610774</v>
       </c>
       <c r="U67" t="n">
-        <v>0.04078568033373758</v>
+        <v>0.04074491462403249</v>
       </c>
       <c r="V67" t="n">
-        <v>0.5248374800946278</v>
+        <v>0.4488397459909932</v>
       </c>
       <c r="W67" t="n">
         <v>0.2065997658614296</v>
       </c>
       <c r="X67" t="n">
-        <v>0.85850521300525</v>
+        <v>0.3573527949134353</v>
       </c>
       <c r="Y67" t="n">
         <v>0.6414080638120929</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.8909706544294369</v>
+        <v>0.4295329164681946</v>
       </c>
       <c r="AA67" t="n">
         <v>0.8528938169750084</v>
@@ -10766,37 +10766,37 @@
         <v>0.96177083</v>
       </c>
       <c r="P68" t="n">
-        <v>1.304288822201266</v>
+        <v>0.9559971073070588</v>
       </c>
       <c r="Q68" t="n">
-        <v>544.3479866770663</v>
+        <v>341.5866032507576</v>
       </c>
       <c r="R68" t="n">
         <v>205</v>
       </c>
       <c r="S68" t="n">
-        <v>0.176210663711441</v>
+        <v>0.0952704217828951</v>
       </c>
       <c r="T68" t="n">
-        <v>2.24932582195783</v>
+        <v>1.04116526946995</v>
       </c>
       <c r="U68" t="n">
-        <v>0.06237830037408174</v>
+        <v>0.06232921336859633</v>
       </c>
       <c r="V68" t="n">
-        <v>0.7962578359674712</v>
+        <v>0.681166420997371</v>
       </c>
       <c r="W68" t="n">
         <v>0.2971214972620977</v>
       </c>
       <c r="X68" t="n">
-        <v>0.7762967864140576</v>
+        <v>0.3231335373448515</v>
       </c>
       <c r="Y68" t="n">
         <v>0.5963969926866095</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.839329958038506</v>
+        <v>0.4541512532418287</v>
       </c>
       <c r="AA68" t="n">
         <v>1.122638152994195</v>
@@ -10921,37 +10921,37 @@
         <v>1.1686629</v>
       </c>
       <c r="P69" t="n">
-        <v>1.580259908073249</v>
+        <v>1.158306138235026</v>
       </c>
       <c r="Q69" t="n">
-        <v>737.091896731998</v>
+        <v>462.5555439132675</v>
       </c>
       <c r="R69" t="n">
         <v>188</v>
       </c>
       <c r="S69" t="n">
-        <v>0.2394165596197369</v>
+        <v>0.1407440602402766</v>
       </c>
       <c r="T69" t="n">
-        <v>3.31313285415499</v>
+        <v>1.667485856061042</v>
       </c>
       <c r="U69" t="n">
-        <v>0.1062516187818339</v>
+        <v>0.1060823062730493</v>
       </c>
       <c r="V69" t="n">
-        <v>1.470348289827422</v>
+        <v>1.256825652085491</v>
       </c>
       <c r="W69" t="n">
         <v>0.484066026584959</v>
       </c>
       <c r="X69" t="n">
-        <v>0.9696179069435066</v>
+        <v>0.4036034537652346</v>
       </c>
       <c r="Y69" t="n">
         <v>0.7242836181136024</v>
       </c>
       <c r="Z69" t="n">
-        <v>1.09074500739354</v>
+        <v>0.6422316821674663</v>
       </c>
       <c r="AA69" t="n">
         <v>0.6069613627292476</v>
@@ -11071,37 +11071,37 @@
         <v>1.0876645</v>
       </c>
       <c r="P70" t="n">
-        <v>1.483830461141927</v>
+        <v>1.087695792575944</v>
       </c>
       <c r="Q70" t="n">
-        <v>667.0501111059193</v>
+        <v>418.6423987951925</v>
       </c>
       <c r="R70" t="n">
         <v>246</v>
       </c>
       <c r="S70" t="n">
-        <v>0.1806751125756053</v>
+        <v>0.08920762382382778</v>
       </c>
       <c r="T70" t="n">
-        <v>2.435890131656161</v>
+        <v>1.029728935358841</v>
       </c>
       <c r="U70" t="n">
-        <v>0.04765324880488736</v>
+        <v>0.04759389825000664</v>
       </c>
       <c r="V70" t="n">
-        <v>0.6424685550236303</v>
+        <v>0.5493792130518095</v>
       </c>
       <c r="W70" t="n">
         <v>0.248470258301087</v>
       </c>
       <c r="X70" t="n">
-        <v>0.9006263511920587</v>
+        <v>0.3748857186836944</v>
       </c>
       <c r="Y70" t="n">
         <v>0.6796001136257801</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.9420636161460286</v>
+        <v>0.4657202319822499</v>
       </c>
       <c r="AA70" t="n">
         <v>0.7610927572423424</v>
@@ -11221,37 +11221,37 @@
         <v>1.1227764</v>
       </c>
       <c r="P71" t="n">
-        <v>1.502982376771701</v>
+        <v>1.101779952989476</v>
       </c>
       <c r="Q71" t="n">
-        <v>687.0079931818916</v>
+        <v>431.1945436861583</v>
       </c>
       <c r="R71" t="n">
         <v>245</v>
       </c>
       <c r="S71" t="n">
-        <v>0.2049140026290451</v>
+        <v>0.1243776202310166</v>
       </c>
       <c r="T71" t="n">
-        <v>2.752116925870325</v>
+        <v>1.430236893499854</v>
       </c>
       <c r="U71" t="n">
-        <v>0.09702807169775947</v>
+        <v>0.096898319006329</v>
       </c>
       <c r="V71" t="n">
-        <v>1.303144709380213</v>
+        <v>1.114248290838496</v>
       </c>
       <c r="W71" t="n">
         <v>0.5048180267457764</v>
       </c>
       <c r="X71" t="n">
-        <v>0.9311094236397122</v>
+        <v>0.3875742975900301</v>
       </c>
       <c r="Y71" t="n">
         <v>0.6943745800271447</v>
       </c>
       <c r="Z71" t="n">
-        <v>1.066127365511295</v>
+        <v>0.6479788861172742</v>
       </c>
       <c r="AA71" t="n">
         <v>0.6778674556660396</v>
@@ -11371,37 +11371,37 @@
         <v>1.4381418</v>
       </c>
       <c r="P72" t="n">
-        <v>1.951873509943949</v>
+        <v>1.430891588283689</v>
       </c>
       <c r="Q72" t="n">
-        <v>987.596618397678</v>
+        <v>619.8865096667437</v>
       </c>
       <c r="R72" t="n">
         <v>157</v>
       </c>
       <c r="S72" t="n">
-        <v>0.2861970566605639</v>
+        <v>0.1390684291156869</v>
       </c>
       <c r="T72" t="n">
-        <v>4.509601508003117</v>
+        <v>1.876199791210192</v>
       </c>
       <c r="U72" t="n">
-        <v>0.07336672484649513</v>
+        <v>0.07310193966606257</v>
       </c>
       <c r="V72" t="n">
-        <v>1.156038069942156</v>
+        <v>0.9862327834625386</v>
       </c>
       <c r="W72" t="n">
         <v>0.3045953889596832</v>
       </c>
       <c r="X72" t="n">
-        <v>1.14085849044857</v>
+        <v>0.4748823466492174</v>
       </c>
       <c r="Y72" t="n">
         <v>0.8649590307488526</v>
       </c>
       <c r="Z72" t="n">
-        <v>1.1881994729223</v>
+        <v>0.5794593474811742</v>
       </c>
       <c r="AA72" t="n">
         <v>0.3418827740463903</v>
@@ -11521,37 +11521,37 @@
         <v>1.1249139</v>
       </c>
       <c r="P73" t="n">
-        <v>1.515129271278987</v>
+        <v>1.110836805193948</v>
       </c>
       <c r="Q73" t="n">
-        <v>691.2944805599391</v>
+        <v>433.9742364009416</v>
       </c>
       <c r="R73" t="n">
         <v>252</v>
       </c>
       <c r="S73" t="n">
-        <v>0.1911892450910284</v>
+        <v>0.1047430151395264</v>
       </c>
       <c r="T73" t="n">
-        <v>2.593277573168562</v>
+        <v>1.21649661083642</v>
       </c>
       <c r="U73" t="n">
-        <v>0.07150063511617362</v>
+        <v>0.07140358079565978</v>
       </c>
       <c r="V73" t="n">
-        <v>0.9698296231349184</v>
+        <v>0.8292888449296301</v>
       </c>
       <c r="W73" t="n">
         <v>0.3772691680637461</v>
       </c>
       <c r="X73" t="n">
-        <v>0.9276277104733149</v>
+        <v>0.3861250344845173</v>
       </c>
       <c r="Y73" t="n">
         <v>0.6965132350305449</v>
       </c>
       <c r="Z73" t="n">
-        <v>1.008799534731853</v>
+        <v>0.5534219676638324</v>
       </c>
       <c r="AA73" t="n">
         <v>0.6819484755955724</v>
@@ -11671,37 +11671,37 @@
         <v>1.9896003</v>
       </c>
       <c r="P74" t="n">
-        <v>2.658773638394991</v>
+        <v>1.949418704634959</v>
       </c>
       <c r="Q74" t="n">
-        <v>1457.682236879935</v>
+        <v>915.1631164959659</v>
       </c>
       <c r="R74" t="n">
         <v>161</v>
       </c>
       <c r="S74" t="n">
-        <v>0.3278433890903621</v>
+        <v>0.1438802805032215</v>
       </c>
       <c r="T74" t="n">
-        <v>6.494048913527796</v>
+        <v>2.440407117718719</v>
       </c>
       <c r="U74" t="n">
-        <v>0.04451765251812664</v>
+        <v>0.04388298401026474</v>
       </c>
       <c r="V74" t="n">
-        <v>0.8818229148078531</v>
+        <v>0.744315664042572</v>
       </c>
       <c r="W74" t="n">
         <v>0.1846783859404618</v>
       </c>
       <c r="X74" t="n">
-        <v>1.339353249692532</v>
+        <v>0.5575057901845164</v>
       </c>
       <c r="Y74" t="n">
         <v>1.082743549703771</v>
       </c>
       <c r="Z74" t="n">
-        <v>1.360035503080626</v>
+        <v>0.605509825078906</v>
       </c>
       <c r="AA74" t="n">
         <v>0.1497984713539</v>
@@ -11826,37 +11826,37 @@
         <v>1.1922932</v>
       </c>
       <c r="P75" t="n">
-        <v>1.603938356139606</v>
+        <v>1.176218653886951</v>
       </c>
       <c r="Q75" t="n">
-        <v>754.1763993014004</v>
+        <v>473.6128990984339</v>
       </c>
       <c r="R75" t="n">
         <v>231</v>
       </c>
       <c r="S75" t="n">
-        <v>0.2112300402450573</v>
+        <v>0.1145008350281486</v>
       </c>
       <c r="T75" t="n">
-        <v>2.943115787703342</v>
+        <v>1.36618815393706</v>
       </c>
       <c r="U75" t="n">
-        <v>0.07717313155554995</v>
+        <v>0.07704283252124045</v>
       </c>
       <c r="V75" t="n">
-        <v>1.075270646183389</v>
+        <v>0.9192509828456702</v>
       </c>
       <c r="W75" t="n">
         <v>0.3896738923919451</v>
       </c>
       <c r="X75" t="n">
-        <v>0.9850401848882484</v>
+        <v>0.4100229769597334</v>
       </c>
       <c r="Y75" t="n">
         <v>0.7368538316760299</v>
       </c>
       <c r="Z75" t="n">
-        <v>1.066573693632616</v>
+        <v>0.5791322126590506</v>
       </c>
       <c r="AA75" t="n">
         <v>0.5708926717395235</v>
@@ -11976,37 +11976,37 @@
         <v>1.124867</v>
       </c>
       <c r="P76" t="n">
-        <v>1.520712841396805</v>
+        <v>1.115231360779581</v>
       </c>
       <c r="Q76" t="n">
-        <v>694.7897285567831</v>
+        <v>436.3450259939332</v>
       </c>
       <c r="R76" t="n">
         <v>226</v>
       </c>
       <c r="S76" t="n">
-        <v>0.2073446572245385</v>
+        <v>0.1196360083373568</v>
       </c>
       <c r="T76" t="n">
-        <v>2.818922554113672</v>
+        <v>1.392871620256168</v>
       </c>
       <c r="U76" t="n">
-        <v>0.08805328022008145</v>
+        <v>0.08793233068625607</v>
       </c>
       <c r="V76" t="n">
-        <v>1.197114895067108</v>
+        <v>1.023759063997643</v>
       </c>
       <c r="W76" t="n">
         <v>0.4399770044617645</v>
       </c>
       <c r="X76" t="n">
-        <v>0.9300038416875315</v>
+        <v>0.387114099102435</v>
       </c>
       <c r="Y76" t="n">
         <v>0.6996966550040264</v>
       </c>
       <c r="Z76" t="n">
-        <v>1.036041825458293</v>
+        <v>0.5986090913687125</v>
       </c>
       <c r="AA76" t="n">
         <v>0.6826810662395433</v>
@@ -12126,37 +12126,37 @@
         <v>1.3506359</v>
       </c>
       <c r="P77" t="n">
-        <v>1.825490269003839</v>
+        <v>1.339057082839153</v>
       </c>
       <c r="Q77" t="n">
-        <v>902.7631496877395</v>
+        <v>567.156842799178</v>
       </c>
       <c r="R77" t="n">
         <v>158</v>
       </c>
       <c r="S77" t="n">
-        <v>0.2804984563018463</v>
+        <v>0.1487310282226667</v>
       </c>
       <c r="T77" t="n">
-        <v>4.229265552287158</v>
+        <v>1.920639446542554</v>
       </c>
       <c r="U77" t="n">
-        <v>0.09721755545932666</v>
+        <v>0.09694939978146412</v>
       </c>
       <c r="V77" t="n">
-        <v>1.465815048690484</v>
+        <v>1.251956930332889</v>
       </c>
       <c r="W77" t="n">
         <v>0.4053654726501497</v>
       </c>
       <c r="X77" t="n">
-        <v>1.089422843157917</v>
+        <v>0.4534722584644831</v>
       </c>
       <c r="Y77" t="n">
         <v>0.8228280307097516</v>
       </c>
       <c r="Z77" t="n">
-        <v>1.169587002874252</v>
+        <v>0.6218751605386528</v>
       </c>
       <c r="AA77" t="n">
         <v>0.404075555564007</v>
@@ -12276,37 +12276,37 @@
         <v>1.6405935</v>
       </c>
       <c r="P78" t="n">
-        <v>2.223383273697386</v>
+        <v>1.631231055606687</v>
       </c>
       <c r="Q78" t="n">
-        <v>1170.76354833816</v>
+        <v>735.7341460322485</v>
       </c>
       <c r="R78" t="n">
         <v>247</v>
       </c>
       <c r="S78" t="n">
-        <v>0.2420646091757649</v>
+        <v>0.1078076260957551</v>
       </c>
       <c r="T78" t="n">
-        <v>4.17484189248606</v>
+        <v>1.592607625225318</v>
       </c>
       <c r="U78" t="n">
-        <v>0.03525219491648325</v>
+        <v>0.03503089007642208</v>
       </c>
       <c r="V78" t="n">
-        <v>0.6079878452308388</v>
+        <v>0.5175001498000378</v>
       </c>
       <c r="W78" t="n">
         <v>0.1829340305844473</v>
       </c>
       <c r="X78" t="n">
-        <v>1.234997405520723</v>
+        <v>0.5140676700480011</v>
       </c>
       <c r="Y78" t="n">
         <v>0.9599910862878817</v>
       </c>
       <c r="Z78" t="n">
-        <v>1.256144609528024</v>
+        <v>0.5629798022948727</v>
       </c>
       <c r="AA78" t="n">
         <v>0.242207832922104</v>
@@ -12431,37 +12431,37 @@
         <v>1.0221208</v>
       </c>
       <c r="P79" t="n">
-        <v>1.388294697998697</v>
+        <v>1.01856323120539</v>
       </c>
       <c r="Q79" t="n">
-        <v>600.3646172907607</v>
+        <v>377.2893822943038</v>
       </c>
       <c r="R79" t="n">
         <v>218</v>
       </c>
       <c r="S79" t="n">
-        <v>0.1909771222546299</v>
+        <v>0.1125138273748348</v>
       </c>
       <c r="T79" t="n">
-        <v>2.504256698509771</v>
+        <v>1.263736596385586</v>
       </c>
       <c r="U79" t="n">
-        <v>0.08434961041317307</v>
+        <v>0.08426748505546731</v>
       </c>
       <c r="V79" t="n">
-        <v>1.106064822844283</v>
+        <v>0.9464783772326617</v>
       </c>
       <c r="W79" t="n">
         <v>0.4141956075093382</v>
       </c>
       <c r="X79" t="n">
-        <v>0.8329518682086233</v>
+        <v>0.3467162151418394</v>
       </c>
       <c r="Y79" t="n">
         <v>0.6384197190346428</v>
       </c>
       <c r="Z79" t="n">
-        <v>0.9377860168550117</v>
+        <v>0.5530333918479379</v>
       </c>
       <c r="AA79" t="n">
         <v>0.9272453500160622</v>
@@ -12581,37 +12581,37 @@
         <v>1.1233896</v>
       </c>
       <c r="P80" t="n">
-        <v>1.519421407501597</v>
+        <v>1.114863818054912</v>
       </c>
       <c r="Q80" t="n">
-        <v>692.4616180294012</v>
+        <v>435.2222364054186</v>
       </c>
       <c r="R80" t="n">
         <v>224</v>
       </c>
       <c r="S80" t="n">
-        <v>0.2143578692360597</v>
+        <v>0.131585675866575</v>
       </c>
       <c r="T80" t="n">
-        <v>2.919103309795085</v>
+        <v>1.5349365916537</v>
       </c>
       <c r="U80" t="n">
-        <v>0.1037727364286395</v>
+        <v>0.1036314947170016</v>
       </c>
       <c r="V80" t="n">
-        <v>1.413166399978267</v>
+        <v>1.208853260366911</v>
       </c>
       <c r="W80" t="n">
         <v>0.5162318375554229</v>
       </c>
       <c r="X80" t="n">
-        <v>0.9250484898215572</v>
+        <v>0.3850514338882231</v>
       </c>
       <c r="Y80" t="n">
         <v>0.6998895444544183</v>
       </c>
       <c r="Z80" t="n">
-        <v>1.066352883604371</v>
+        <v>0.655483310687306</v>
       </c>
       <c r="AA80" t="n">
         <v>0.6882379862442605</v>
@@ -12731,37 +12731,37 @@
         <v>0.98964864</v>
       </c>
       <c r="P81" t="n">
-        <v>1.414326311365448</v>
+        <v>1.037907081023264</v>
       </c>
       <c r="Q81" t="n">
-        <v>605.4699797455413</v>
+        <v>380.6325250792599</v>
       </c>
       <c r="R81" t="n">
         <v>264</v>
       </c>
       <c r="S81" t="n">
-        <v>0.1774458779471741</v>
+        <v>0.1122572315703606</v>
       </c>
       <c r="T81" t="n">
-        <v>2.394538367210755</v>
+        <v>1.297701000823223</v>
       </c>
       <c r="U81" t="n">
-        <v>0.09050753011497623</v>
+        <v>0.09041774771032288</v>
       </c>
       <c r="V81" t="n">
-        <v>1.221351298148004</v>
+        <v>1.045235126988895</v>
       </c>
       <c r="W81" t="n">
         <v>0.4890667187079329</v>
       </c>
       <c r="X81" t="n">
-        <v>0.8161584050647975</v>
+        <v>0.3397259361082219</v>
       </c>
       <c r="Y81" t="n">
         <v>0.6392778989056547</v>
       </c>
       <c r="Z81" t="n">
-        <v>0.9588469950028267</v>
+        <v>0.6071957915966186</v>
       </c>
       <c r="AA81" t="n">
         <v>1.061957317094228</v>
@@ -12881,37 +12881,37 @@
         <v>1.4832209</v>
       </c>
       <c r="P82" t="n">
-        <v>2.033092570197276</v>
+        <v>1.492196922623479</v>
       </c>
       <c r="Q82" t="n">
-        <v>1038.385761502041</v>
+        <v>652.9233564270976</v>
       </c>
       <c r="R82" t="n">
         <v>242</v>
       </c>
       <c r="S82" t="n">
-        <v>0.2306669760370016</v>
+        <v>0.1051593815099681</v>
       </c>
       <c r="T82" t="n">
-        <v>3.75050943639904</v>
+        <v>1.464830441836289</v>
       </c>
       <c r="U82" t="n">
-        <v>0.04073076161351125</v>
+        <v>0.04055911519102938</v>
       </c>
       <c r="V82" t="n">
-        <v>0.6622582408965606</v>
+        <v>0.5649731462155169</v>
       </c>
       <c r="W82" t="n">
         <v>0.2097737503030307</v>
       </c>
       <c r="X82" t="n">
-        <v>1.161592557453441</v>
+        <v>0.4835129020399949</v>
       </c>
       <c r="Y82" t="n">
         <v>0.8958828677164544</v>
       </c>
       <c r="Z82" t="n">
-        <v>1.187993416216648</v>
+        <v>0.5438895236001652</v>
       </c>
       <c r="AA82" t="n">
         <v>0.3185833151393564</v>
@@ -13031,37 +13031,37 @@
         <v>1.4076419</v>
       </c>
       <c r="P83" t="n">
-        <v>1.949466981675765</v>
+        <v>1.430844088793525</v>
       </c>
       <c r="Q83" t="n">
-        <v>977.7407518368065</v>
+        <v>614.8063740388789</v>
       </c>
       <c r="R83" t="n">
         <v>208</v>
       </c>
       <c r="S83" t="n">
-        <v>0.248743344355446</v>
+        <v>0.1278611831272159</v>
       </c>
       <c r="T83" t="n">
-        <v>3.949196816792096</v>
+        <v>1.739138794063844</v>
       </c>
       <c r="U83" t="n">
-        <v>0.07862743968740211</v>
+        <v>0.07835276495235337</v>
       </c>
       <c r="V83" t="n">
-        <v>1.248335851279241</v>
+        <v>1.065736526270252</v>
       </c>
       <c r="W83" t="n">
         <v>0.3757887066615624</v>
       </c>
       <c r="X83" t="n">
-        <v>1.120112570966681</v>
+        <v>0.4662468576648811</v>
       </c>
       <c r="Y83" t="n">
         <v>0.8634771973455064</v>
       </c>
       <c r="Z83" t="n">
-        <v>1.188833567996511</v>
+        <v>0.613236669679906</v>
       </c>
       <c r="AA83" t="n">
         <v>0.3706040720577518</v>
@@ -13181,37 +13181,37 @@
         <v>1.0295415</v>
       </c>
       <c r="P84" t="n">
-        <v>1.418386279961943</v>
+        <v>1.041158736196853</v>
       </c>
       <c r="Q84" t="n">
-        <v>614.5255735622602</v>
+        <v>386.4769522414165</v>
       </c>
       <c r="R84" t="n">
         <v>249</v>
       </c>
       <c r="S84" t="n">
-        <v>0.1848410608047096</v>
+        <v>0.1147426639464061</v>
       </c>
       <c r="T84" t="n">
-        <v>2.47170589276985</v>
+        <v>1.314572316298722</v>
       </c>
       <c r="U84" t="n">
-        <v>0.09100413837703687</v>
+        <v>0.0909108101488101</v>
       </c>
       <c r="V84" t="n">
-        <v>1.216912866187326</v>
+        <v>1.041537908948451</v>
       </c>
       <c r="W84" t="n">
         <v>0.4775504591056972</v>
       </c>
       <c r="X84" t="n">
-        <v>0.8358108962901291</v>
+        <v>0.3479062855807663</v>
       </c>
       <c r="Y84" t="n">
         <v>0.6480764371133466</v>
       </c>
       <c r="Z84" t="n">
-        <v>0.9699661468488405</v>
+        <v>0.6027381315480904</v>
       </c>
       <c r="AA84" t="n">
         <v>0.9235461386477641</v>
@@ -13331,37 +13331,37 @@
         <v>1.6697345</v>
       </c>
       <c r="P85" t="n">
-        <v>2.198852421206171</v>
+        <v>1.614477669573976</v>
       </c>
       <c r="Q85" t="n">
-        <v>1157.738072323247</v>
+        <v>728.3904715685026</v>
       </c>
       <c r="R85" t="n">
         <v>275</v>
       </c>
       <c r="S85" t="n">
-        <v>0.2325208840160032</v>
+        <v>0.1092914739482529</v>
       </c>
       <c r="T85" t="n">
-        <v>3.966368610326397</v>
+        <v>1.597479781790152</v>
       </c>
       <c r="U85" t="n">
-        <v>0.05150841495975915</v>
+        <v>0.05119761838070589</v>
       </c>
       <c r="V85" t="n">
-        <v>0.8786366056048297</v>
+        <v>0.7483398044179547</v>
       </c>
       <c r="W85" t="n">
         <v>0.2821215572338659</v>
       </c>
       <c r="X85" t="n">
-        <v>1.234168778530831</v>
+        <v>0.5137227540634585</v>
       </c>
       <c r="Y85" t="n">
         <v>0.95889102514237</v>
       </c>
       <c r="Z85" t="n">
-        <v>1.273561881864141</v>
+        <v>0.6022444363209941</v>
       </c>
       <c r="AA85" t="n">
         <v>0.2272541795460266</v>
@@ -13481,37 +13481,37 @@
         <v>1.2402402</v>
       </c>
       <c r="P86" t="n">
-        <v>1.747226941784171</v>
+        <v>1.284266171997816</v>
       </c>
       <c r="Q86" t="n">
-        <v>835.8442899432383</v>
+        <v>526.7250440377932</v>
       </c>
       <c r="R86" t="n">
         <v>224</v>
       </c>
       <c r="S86" t="n">
-        <v>0.2153959578730589</v>
+        <v>0.1078308584878837</v>
       </c>
       <c r="T86" t="n">
-        <v>3.213365028164219</v>
+        <v>1.379172024884818</v>
       </c>
       <c r="U86" t="n">
-        <v>0.06119641756579242</v>
+        <v>0.06106106362830531</v>
       </c>
       <c r="V86" t="n">
-        <v>0.9129531955782716</v>
+        <v>0.7809796930749017</v>
       </c>
       <c r="W86" t="n">
         <v>0.3040528515537251</v>
       </c>
       <c r="X86" t="n">
-        <v>1.018137663619071</v>
+        <v>0.4237998024814383</v>
       </c>
       <c r="Y86" t="n">
         <v>0.7907487953240917</v>
       </c>
       <c r="Z86" t="n">
-        <v>1.070189364173798</v>
+        <v>0.5369424975677776</v>
       </c>
       <c r="AA86" t="n">
         <v>0.5337849280352397</v>
@@ -13631,37 +13631,37 @@
         <v>1.1168745</v>
       </c>
       <c r="P87" t="n">
-        <v>1.568454858046169</v>
+        <v>1.153057581459697</v>
       </c>
       <c r="Q87" t="n">
-        <v>710.042891624695</v>
+        <v>447.5618309948048</v>
       </c>
       <c r="R87" t="n">
         <v>243</v>
       </c>
       <c r="S87" t="n">
-        <v>0.1848650065959209</v>
+        <v>0.09245966442706952</v>
       </c>
       <c r="T87" t="n">
-        <v>2.61615476533384</v>
+        <v>1.121890629039936</v>
       </c>
       <c r="U87" t="n">
-        <v>0.05143260611261111</v>
+        <v>0.05135839322140304</v>
       </c>
       <c r="V87" t="n">
-        <v>0.7278589931795935</v>
+        <v>0.6231744451450898</v>
       </c>
       <c r="W87" t="n">
         <v>0.2664545099915094</v>
       </c>
       <c r="X87" t="n">
-        <v>0.9116629972317546</v>
+        <v>0.3794797225977178</v>
       </c>
       <c r="Y87" t="n">
         <v>0.7143614149290364</v>
       </c>
       <c r="Z87" t="n">
-        <v>0.957721540286004</v>
+        <v>0.4796936398046678</v>
       </c>
       <c r="AA87" t="n">
         <v>0.7326900645964309</v>
@@ -13786,37 +13786,37 @@
         <v>1.0317069</v>
       </c>
       <c r="P88" t="n">
-        <v>1.439675535286827</v>
+        <v>1.058385298826685</v>
       </c>
       <c r="Q88" t="n">
-        <v>621.437578506617</v>
+        <v>391.711455733279</v>
       </c>
       <c r="R88" t="n">
         <v>244</v>
       </c>
       <c r="S88" t="n">
-        <v>0.1681943852898042</v>
+        <v>0.08499696095397054</v>
       </c>
       <c r="T88" t="n">
-        <v>2.291355580839308</v>
+        <v>0.9928279178113213</v>
       </c>
       <c r="U88" t="n">
-        <v>0.04793661247318396</v>
+        <v>0.04788631913870611</v>
       </c>
       <c r="V88" t="n">
-        <v>0.6530528609959471</v>
+        <v>0.5593479341911589</v>
       </c>
       <c r="W88" t="n">
         <v>0.2490019845919149</v>
       </c>
       <c r="X88" t="n">
-        <v>0.8288479291689838</v>
+        <v>0.3450079505165895</v>
       </c>
       <c r="Y88" t="n">
         <v>0.6562598079159541</v>
       </c>
       <c r="Z88" t="n">
-        <v>0.8736690720022563</v>
+        <v>0.4419719941412901</v>
       </c>
       <c r="AA88" t="n">
         <v>0.9384613064831884</v>
@@ -13941,37 +13941,37 @@
         <v>1.5851307</v>
       </c>
       <c r="P89" t="n">
-        <v>2.109125148142743</v>
+        <v>1.550739398168528</v>
       </c>
       <c r="Q89" t="n">
-        <v>1094.87293335189</v>
+        <v>690.2690890169757</v>
       </c>
       <c r="R89" t="n">
         <v>206</v>
       </c>
       <c r="S89" t="n">
-        <v>0.2593658840208405</v>
+        <v>0.1200372123828983</v>
       </c>
       <c r="T89" t="n">
-        <v>4.30430550707002</v>
+        <v>1.708143588750811</v>
       </c>
       <c r="U89" t="n">
-        <v>0.05170988846959423</v>
+        <v>0.0514518429691622</v>
       </c>
       <c r="V89" t="n">
-        <v>0.8581512505004966</v>
+        <v>0.7321657505411145</v>
       </c>
       <c r="W89" t="n">
         <v>0.2454589527717158</v>
       </c>
       <c r="X89" t="n">
-        <v>1.198661458413076</v>
+        <v>0.4989428320644431</v>
       </c>
       <c r="Y89" t="n">
         <v>0.9349271910687588</v>
       </c>
       <c r="Z89" t="n">
-        <v>1.231170287940197</v>
+        <v>0.5726560361074278</v>
       </c>
       <c r="AA89" t="n">
         <v>0.2621023438966263</v>
@@ -14091,37 +14091,37 @@
         <v>1.4330192</v>
       </c>
       <c r="P90" t="n">
-        <v>2.037988982154623</v>
+        <v>1.498582730433689</v>
       </c>
       <c r="Q90" t="n">
-        <v>1027.490821699198</v>
+        <v>647.8825587492217</v>
       </c>
       <c r="R90" t="n">
         <v>266</v>
       </c>
       <c r="S90" t="n">
-        <v>0.2208047594630274</v>
+        <v>0.1114533643436161</v>
       </c>
       <c r="T90" t="n">
-        <v>3.645720757523585</v>
+        <v>1.578002180983566</v>
       </c>
       <c r="U90" t="n">
-        <v>0.06566671763052365</v>
+        <v>0.06539984485195198</v>
       </c>
       <c r="V90" t="n">
-        <v>1.084227152196539</v>
+        <v>0.9259576722528816</v>
       </c>
       <c r="W90" t="n">
         <v>0.3546391532695887</v>
       </c>
       <c r="X90" t="n">
-        <v>1.130576489704033</v>
+        <v>0.4706024638393037</v>
       </c>
       <c r="Y90" t="n">
         <v>0.8959857834794291</v>
       </c>
       <c r="Z90" t="n">
-        <v>1.192476428842615</v>
+        <v>0.6043703444456605</v>
       </c>
       <c r="AA90" t="n">
         <v>0.3633959567642358</v>
@@ -14240,37 +14240,37 @@
         <v>1.0996248</v>
       </c>
       <c r="P91" t="n">
-        <v>1.391556430123695</v>
+        <v>1.023449542513436</v>
       </c>
       <c r="Q91" t="n">
-        <v>628.8426338325594</v>
+        <v>396.6344190866131</v>
       </c>
       <c r="R91" t="n">
         <v>199</v>
       </c>
       <c r="S91" t="n">
-        <v>0.2080219446384027</v>
+        <v>0.1107087138398662</v>
       </c>
       <c r="T91" t="n">
-        <v>2.616483961664777</v>
+        <v>1.194190294626708</v>
       </c>
       <c r="U91" t="n">
-        <v>0.07160292338693751</v>
+        <v>0.07152578158677911</v>
       </c>
       <c r="V91" t="n">
-        <v>0.9006160430616785</v>
+        <v>0.7715327115991047</v>
       </c>
       <c r="W91" t="n">
         <v>0.3358755002260186</v>
       </c>
       <c r="X91" t="n">
-        <v>0.9081900979747008</v>
+        <v>0.3780341282819692</v>
       </c>
       <c r="Y91" t="n">
         <v>0.6742478761346536</v>
       </c>
       <c r="Z91" t="n">
-        <v>0.9757908114427477</v>
+        <v>0.5198733074343281</v>
       </c>
       <c r="AA91" t="n">
         <v>0.6835518434954735</v>
@@ -14395,37 +14395,37 @@
         <v>1.0043126</v>
       </c>
       <c r="P92" t="n">
-        <v>1.422336152938946</v>
+        <v>1.046168229463867</v>
       </c>
       <c r="Q92" t="n">
-        <v>605.631417133817</v>
+        <v>382.0386599367092</v>
       </c>
       <c r="R92" t="n">
         <v>235</v>
       </c>
       <c r="S92" t="n">
-        <v>0.1761447549875829</v>
+        <v>0.1016292391599633</v>
       </c>
       <c r="T92" t="n">
-        <v>2.403339232683571</v>
+        <v>1.189224022538488</v>
       </c>
       <c r="U92" t="n">
-        <v>0.07395871520953233</v>
+        <v>0.07388562186947253</v>
       </c>
       <c r="V92" t="n">
-        <v>1.009101189952947</v>
+        <v>0.8645794967437546</v>
       </c>
       <c r="W92" t="n">
         <v>0.3770546638431839</v>
       </c>
       <c r="X92" t="n">
-        <v>0.8062803917504675</v>
+        <v>0.3356142130661321</v>
       </c>
       <c r="Y92" t="n">
         <v>0.6462720376887114</v>
       </c>
       <c r="Z92" t="n">
-        <v>0.8980172409893737</v>
+        <v>0.5186364767396127</v>
       </c>
       <c r="AA92" t="n">
         <v>1.032927277863392</v>
@@ -14545,37 +14545,37 @@
         <v>1.1404669</v>
       </c>
       <c r="P93" t="n">
-        <v>1.632423843102329</v>
+        <v>1.200796332641794</v>
       </c>
       <c r="Q93" t="n">
-        <v>744.5358801773235</v>
+        <v>469.7213138401657</v>
       </c>
       <c r="R93" t="n">
         <v>245</v>
       </c>
       <c r="S93" t="n">
-        <v>0.1946461541686768</v>
+        <v>0.1081303267493374</v>
       </c>
       <c r="T93" t="n">
-        <v>2.845609568452962</v>
+        <v>1.355798697178846</v>
       </c>
       <c r="U93" t="n">
-        <v>0.07535532341553952</v>
+        <v>0.0752328959249836</v>
       </c>
       <c r="V93" t="n">
-        <v>1.101649453393793</v>
+        <v>0.9433122542627439</v>
       </c>
       <c r="W93" t="n">
         <v>0.3918870181161917</v>
       </c>
       <c r="X93" t="n">
-        <v>0.925031333809369</v>
+        <v>0.3850442926981498</v>
       </c>
       <c r="Y93" t="n">
         <v>0.7358778452607979</v>
       </c>
       <c r="Z93" t="n">
-        <v>1.012261609233797</v>
+        <v>0.563249238205322</v>
       </c>
       <c r="AA93" t="n">
         <v>0.7056120595457342</v>
@@ -14695,37 +14695,37 @@
         <v>1.0725749</v>
       </c>
       <c r="P94" t="n">
-        <v>1.536400752764512</v>
+        <v>1.130483810220571</v>
       </c>
       <c r="Q94" t="n">
-        <v>678.2725324286299</v>
+        <v>428.0987737906555</v>
       </c>
       <c r="R94" t="n">
         <v>198</v>
       </c>
       <c r="S94" t="n">
-        <v>0.2065910046285288</v>
+        <v>0.1194614943461014</v>
       </c>
       <c r="T94" t="n">
-        <v>2.936739726872279</v>
+        <v>1.456672467113907</v>
       </c>
       <c r="U94" t="n">
-        <v>0.08765882609221551</v>
+        <v>0.08754595809044931</v>
       </c>
       <c r="V94" t="n">
-        <v>1.246090832748911</v>
+        <v>1.06750537029112</v>
       </c>
       <c r="W94" t="n">
         <v>0.4100239818432786</v>
       </c>
       <c r="X94" t="n">
-        <v>0.8665127758298887</v>
+        <v>0.3606859429391912</v>
       </c>
       <c r="Y94" t="n">
         <v>0.6948159819367651</v>
       </c>
       <c r="Z94" t="n">
-        <v>0.9663290065244776</v>
+        <v>0.5595013025973204</v>
       </c>
       <c r="AA94" t="n">
         <v>0.852135602410285</v>
@@ -14845,37 +14845,37 @@
         <v>1.6203527</v>
       </c>
       <c r="P95" t="n">
-        <v>2.251408089064895</v>
+        <v>1.656776946186555</v>
       </c>
       <c r="Q95" t="n">
-        <v>1179.993382103823</v>
+        <v>744.8937023662414</v>
       </c>
       <c r="R95" t="n">
         <v>222</v>
       </c>
       <c r="S95" t="n">
-        <v>0.2529200053524232</v>
+        <v>0.1132976304203558</v>
       </c>
       <c r="T95" t="n">
-        <v>4.437734472934238</v>
+        <v>1.705312077910025</v>
       </c>
       <c r="U95" t="n">
-        <v>0.03889219579156575</v>
+        <v>0.03864236069432669</v>
       </c>
       <c r="V95" t="n">
-        <v>0.6824024764345739</v>
+        <v>0.5816298555097703</v>
       </c>
       <c r="W95" t="n">
         <v>0.1912946221312935</v>
       </c>
       <c r="X95" t="n">
-        <v>1.221225050151517</v>
+        <v>0.5083349271255692</v>
       </c>
       <c r="Y95" t="n">
         <v>0.9784596673605107</v>
       </c>
       <c r="Z95" t="n">
-        <v>1.244008878095507</v>
+        <v>0.5608670642840641</v>
       </c>
       <c r="AA95" t="n">
         <v>0.2569575467863762</v>
@@ -15000,37 +15000,37 @@
         <v>1.1836581</v>
       </c>
       <c r="P96" t="n">
-        <v>1.526675852475663</v>
+        <v>1.1235332212462</v>
       </c>
       <c r="Q96" t="n">
-        <v>713.0052843667512</v>
+        <v>450.1439024045176</v>
       </c>
       <c r="R96" t="n">
         <v>249</v>
       </c>
       <c r="S96" t="n">
-        <v>0.2069061265603647</v>
+        <v>0.1204242537730414</v>
       </c>
       <c r="T96" t="n">
-        <v>2.762635147408335</v>
+        <v>1.379379245386464</v>
       </c>
       <c r="U96" t="n">
-        <v>0.08979622476956006</v>
+        <v>0.08966555660676828</v>
       </c>
       <c r="V96" t="n">
-        <v>1.198969845779749</v>
+        <v>1.027058951450936</v>
       </c>
       <c r="W96" t="n">
         <v>0.4709008360134063</v>
       </c>
       <c r="X96" t="n">
-        <v>0.9696588656595636</v>
+        <v>0.4036205028307933</v>
       </c>
       <c r="Y96" t="n">
         <v>0.7294096597057825</v>
       </c>
       <c r="Z96" t="n">
-        <v>1.08503746369747</v>
+        <v>0.6324377377894431</v>
       </c>
       <c r="AA96" t="n">
         <v>0.5629407848900215</v>
@@ -15155,37 +15155,37 @@
         <v>1.1092762</v>
       </c>
       <c r="P97" t="n">
-        <v>1.501068198389284</v>
+        <v>1.104805346718672</v>
       </c>
       <c r="Q97" t="n">
-        <v>677.8520729986424</v>
+        <v>428.0188969200908</v>
       </c>
       <c r="R97" t="n">
         <v>221</v>
       </c>
       <c r="S97" t="n">
-        <v>0.2161866957185285</v>
+        <v>0.1373638331310521</v>
       </c>
       <c r="T97" t="n">
-        <v>2.935243543633551</v>
+        <v>1.600037829368459</v>
       </c>
       <c r="U97" t="n">
-        <v>0.1116947947747963</v>
+        <v>0.1115512706181413</v>
       </c>
       <c r="V97" t="n">
-        <v>1.516519895595483</v>
+        <v>1.299368609878988</v>
       </c>
       <c r="W97" t="n">
         <v>0.5519647589778104</v>
       </c>
       <c r="X97" t="n">
-        <v>0.9065002882945337</v>
+        <v>0.3773307450025997</v>
       </c>
       <c r="Y97" t="n">
         <v>0.7022392216560782</v>
       </c>
       <c r="Z97" t="n">
-        <v>1.068334810382881</v>
+        <v>0.6796874175104101</v>
       </c>
       <c r="AA97" t="n">
         <v>0.7192814421699477</v>
@@ -15305,37 +15305,37 @@
         <v>1.0788372</v>
       </c>
       <c r="P98" t="n">
-        <v>1.505886781598978</v>
+        <v>1.108744617737726</v>
       </c>
       <c r="Q98" t="n">
-        <v>666.5557018971555</v>
+        <v>421.1097075700167</v>
       </c>
       <c r="R98" t="n">
         <v>247</v>
       </c>
       <c r="S98" t="n">
-        <v>0.1870880609521516</v>
+        <v>0.1095875895024885</v>
       </c>
       <c r="T98" t="n">
-        <v>2.599821472886179</v>
+        <v>1.306707634809652</v>
       </c>
       <c r="U98" t="n">
-        <v>0.08176069143740065</v>
+        <v>0.08165986347137655</v>
       </c>
       <c r="V98" t="n">
-        <v>1.13616657393942</v>
+        <v>0.9737011968233732</v>
       </c>
       <c r="W98" t="n">
         <v>0.4271779454206865</v>
       </c>
       <c r="X98" t="n">
-        <v>0.8707501171444555</v>
+        <v>0.3624497362613796</v>
       </c>
       <c r="Y98" t="n">
         <v>0.6921859746797767</v>
       </c>
       <c r="Z98" t="n">
-        <v>0.9774855384077843</v>
+        <v>0.5732730785631021</v>
       </c>
       <c r="AA98" t="n">
         <v>0.8164373299486781</v>
@@ -15455,37 +15455,37 @@
         <v>1.1376027</v>
       </c>
       <c r="P99" t="n">
-        <v>1.619785610185792</v>
+        <v>1.192756611237516</v>
       </c>
       <c r="Q99" t="n">
-        <v>737.1421633166062</v>
+        <v>465.7927202861019</v>
       </c>
       <c r="R99" t="n">
         <v>243</v>
       </c>
       <c r="S99" t="n">
-        <v>0.1855072242016794</v>
+        <v>0.09101184156614217</v>
       </c>
       <c r="T99" t="n">
-        <v>2.696956273976794</v>
+        <v>1.135424152929636</v>
       </c>
       <c r="U99" t="n">
-        <v>0.04758204959063978</v>
+        <v>0.04750683119057691</v>
       </c>
       <c r="V99" t="n">
-        <v>0.6917612385415076</v>
+        <v>0.5926745644821529</v>
       </c>
       <c r="W99" t="n">
         <v>0.2464542035980705</v>
       </c>
       <c r="X99" t="n">
-        <v>0.9203632114313167</v>
+        <v>0.3831011867582856</v>
       </c>
       <c r="Y99" t="n">
         <v>0.7360334668062234</v>
       </c>
       <c r="Z99" t="n">
-        <v>0.9608462770234965</v>
+        <v>0.4721479073440376</v>
       </c>
       <c r="AA99" t="n">
         <v>0.7085733054776833</v>
@@ -15605,37 +15605,37 @@
         <v>1.0231282</v>
       </c>
       <c r="P100" t="n">
-        <v>1.476723925872327</v>
+        <v>1.087611676250472</v>
       </c>
       <c r="Q100" t="n">
-        <v>639.2415645592341</v>
+        <v>404.0422964158885</v>
       </c>
       <c r="R100" t="n">
         <v>243</v>
       </c>
       <c r="S100" t="n">
-        <v>0.1797010588584853</v>
+        <v>0.1045632169756907</v>
       </c>
       <c r="T100" t="n">
-        <v>2.503995310793595</v>
+        <v>1.250400349316707</v>
       </c>
       <c r="U100" t="n">
-        <v>0.07710903242482836</v>
+        <v>0.07702295575228633</v>
       </c>
       <c r="V100" t="n">
-        <v>1.074454746333201</v>
+        <v>0.9210651083971008</v>
       </c>
       <c r="W100" t="n">
         <v>0.3996698540645279</v>
       </c>
       <c r="X100" t="n">
-        <v>0.8326347012247295</v>
+        <v>0.3465841943847937</v>
       </c>
       <c r="Y100" t="n">
         <v>0.6731666992270625</v>
       </c>
       <c r="Z100" t="n">
-        <v>0.9314226065439029</v>
+        <v>0.5425754602770015</v>
       </c>
       <c r="AA100" t="n">
         <v>0.9814411944786255</v>
@@ -15755,37 +15755,37 @@
         <v>1.0391837</v>
       </c>
       <c r="P101" t="n">
-        <v>1.454174670018952</v>
+        <v>1.07104920097898</v>
       </c>
       <c r="Q101" t="n">
-        <v>629.1192635044721</v>
+        <v>397.6694718519936</v>
       </c>
       <c r="R101" t="n">
         <v>267</v>
       </c>
       <c r="S101" t="n">
-        <v>0.1823585078650704</v>
+        <v>0.1177110321319092</v>
       </c>
       <c r="T101" t="n">
-        <v>2.503660604420008</v>
+        <v>1.386957062992251</v>
       </c>
       <c r="U101" t="n">
-        <v>0.09662631681358466</v>
+        <v>0.09652239426565881</v>
       </c>
       <c r="V101" t="n">
-        <v>1.326614840122393</v>
+        <v>1.137297108342898</v>
       </c>
       <c r="W101" t="n">
         <v>0.5250145676329359</v>
       </c>
       <c r="X101" t="n">
-        <v>0.8316581356350299</v>
+        <v>0.3461776989580811</v>
       </c>
       <c r="Y101" t="n">
         <v>0.6679256467534116</v>
       </c>
       <c r="Z101" t="n">
-        <v>0.9908364130827257</v>
+        <v>0.6402659933017059</v>
       </c>
       <c r="AA101" t="n">
         <v>0.9234073075493245</v>
@@ -15905,37 +15905,37 @@
         <v>1.1620094</v>
       </c>
       <c r="P102" t="n">
-        <v>1.456767127020725</v>
+        <v>1.072983667567307</v>
       </c>
       <c r="Q102" t="n">
-        <v>655.3794889199245</v>
+        <v>414.2831916050868</v>
       </c>
       <c r="R102" t="n">
         <v>227</v>
       </c>
       <c r="S102" t="n">
-        <v>0.186928894572241</v>
+        <v>0.09096488265527809</v>
       </c>
       <c r="T102" t="n">
-        <v>2.472368012093454</v>
+        <v>1.032551997534027</v>
       </c>
       <c r="U102" t="n">
-        <v>0.04604034427749506</v>
+        <v>0.04598584841278448</v>
       </c>
       <c r="V102" t="n">
-        <v>0.6089410345999676</v>
+        <v>0.5219902257980044</v>
       </c>
       <c r="W102" t="n">
         <v>0.2306213526261839</v>
       </c>
       <c r="X102" t="n">
-        <v>0.8993139030294766</v>
+        <v>0.3743394121360196</v>
       </c>
       <c r="Y102" t="n">
         <v>0.6925524272217999</v>
       </c>
       <c r="Z102" t="n">
-        <v>0.9363482221448116</v>
+        <v>0.4561934813321859</v>
       </c>
       <c r="AA102" t="n">
         <v>0.6118462593664977</v>
@@ -16047,37 +16047,37 @@
         <v>1.5001527</v>
       </c>
       <c r="P103" t="n">
-        <v>2.161407249103728</v>
+        <v>1.592037864392766</v>
       </c>
       <c r="Q103" t="n">
-        <v>1106.307049209217</v>
+        <v>699.36011894824</v>
       </c>
       <c r="R103" t="n">
         <v>256</v>
       </c>
       <c r="S103" t="n">
-        <v>0.2294311060483556</v>
+        <v>0.1117313720259395</v>
       </c>
       <c r="T103" t="n">
-        <v>3.957300998980909</v>
+        <v>1.653980222479582</v>
       </c>
       <c r="U103" t="n">
-        <v>0.05957859449752183</v>
+        <v>0.05927168375580066</v>
       </c>
       <c r="V103" t="n">
-        <v>1.027630627702374</v>
+        <v>0.8774097275239678</v>
       </c>
       <c r="W103" t="n">
         <v>0.3151976976730161</v>
       </c>
       <c r="X103" t="n">
-        <v>1.164060798867848</v>
+        <v>0.4845403075287419</v>
       </c>
       <c r="Y103" t="n">
         <v>0.9438956010181826</v>
       </c>
       <c r="Z103" t="n">
-        <v>1.213794266395849</v>
+        <v>0.5941702511020158</v>
       </c>
       <c r="AA103" t="n">
         <v>0.3259406846182062</v>
@@ -16197,37 +16197,37 @@
         <v>1.7283144</v>
       </c>
       <c r="P104" t="n">
-        <v>2.502639559882399</v>
+        <v>1.843906766364152</v>
       </c>
       <c r="Q104" t="n">
-        <v>1340.203192284972</v>
+        <v>847.581808840802</v>
       </c>
       <c r="R104" t="n">
         <v>275</v>
       </c>
       <c r="S104" t="n">
-        <v>0.2388014426658199</v>
+        <v>0.1076211020205159</v>
       </c>
       <c r="T104" t="n">
-        <v>4.558397217791285</v>
+        <v>1.763368107612258</v>
       </c>
       <c r="U104" t="n">
-        <v>0.04042823622061976</v>
+        <v>0.04001609537511183</v>
       </c>
       <c r="V104" t="n">
-        <v>0.7717204613632739</v>
+        <v>0.655662365938151</v>
       </c>
       <c r="W104" t="n">
         <v>0.2202657091890568</v>
       </c>
       <c r="X104" t="n">
-        <v>1.273993486710233</v>
+        <v>0.5302997888431343</v>
       </c>
       <c r="Y104" t="n">
         <v>1.058023221985795</v>
       </c>
       <c r="Z104" t="n">
-        <v>1.301065147564589</v>
+        <v>0.5923925894828893</v>
       </c>
       <c r="AA104" t="n">
         <v>0.225461244575194</v>
@@ -16352,37 +16352,37 @@
         <v>1.1174955</v>
       </c>
       <c r="P105" t="n">
-        <v>1.616564754055858</v>
+        <v>1.191088927026838</v>
       </c>
       <c r="Q105" t="n">
-        <v>726.7651000624813</v>
+        <v>459.643037843256</v>
       </c>
       <c r="R105" t="n">
         <v>239</v>
       </c>
       <c r="S105" t="n">
-        <v>0.2002419016157783</v>
+        <v>0.1216398915537358</v>
       </c>
       <c r="T105" t="n">
-        <v>2.941009087664635</v>
+        <v>1.53353245140228</v>
       </c>
       <c r="U105" t="n">
-        <v>0.0946985318004864</v>
+        <v>0.09455426893115841</v>
       </c>
       <c r="V105" t="n">
-        <v>1.390863951882204</v>
+        <v>1.192059923536626</v>
       </c>
       <c r="W105" t="n">
         <v>0.486483262002553</v>
       </c>
       <c r="X105" t="n">
-        <v>0.8978796552990562</v>
+        <v>0.3737424065182322</v>
       </c>
       <c r="Y105" t="n">
         <v>0.729753114933281</v>
       </c>
       <c r="Z105" t="n">
-        <v>1.028678392742914</v>
+        <v>0.6258392339301144</v>
       </c>
       <c r="AA105" t="n">
         <v>0.7644346525167046</v>
@@ -16502,37 +16502,37 @@
         <v>1.1361842</v>
       </c>
       <c r="P106" t="n">
-        <v>1.645617307947237</v>
+        <v>1.213146552042167</v>
       </c>
       <c r="Q106" t="n">
-        <v>745.8300201736494</v>
+        <v>472.0809685842305</v>
       </c>
       <c r="R106" t="n">
         <v>230</v>
       </c>
       <c r="S106" t="n">
-        <v>0.1910652592647825</v>
+        <v>0.09684393506273575</v>
       </c>
       <c r="T106" t="n">
-        <v>2.833667042002693</v>
+        <v>1.233194927653451</v>
       </c>
       <c r="U106" t="n">
-        <v>0.05584561994155253</v>
+        <v>0.05575483956954103</v>
       </c>
       <c r="V106" t="n">
-        <v>0.8282400122215958</v>
+        <v>0.7099730644438313</v>
       </c>
       <c r="W106" t="n">
         <v>0.2813923727195663</v>
       </c>
       <c r="X106" t="n">
-        <v>0.9122153042995974</v>
+        <v>0.3797096204147075</v>
       </c>
       <c r="Y106" t="n">
         <v>0.7438044186196989</v>
       </c>
       <c r="Z106" t="n">
-        <v>0.9627309483727716</v>
+        <v>0.4887673407581673</v>
       </c>
       <c r="AA106" t="n">
         <v>0.7285294428011313</v>
@@ -16652,37 +16652,37 @@
         <v>1.646212</v>
       </c>
       <c r="P107" t="n">
-        <v>2.44023860600347</v>
+        <v>1.79933208089029</v>
       </c>
       <c r="Q107" t="n">
-        <v>1291.950448062617</v>
+        <v>818.0209027101926</v>
       </c>
       <c r="R107" t="n">
         <v>196</v>
       </c>
       <c r="S107" t="n">
-        <v>0.2784154044400419</v>
+        <v>0.1298998037114517</v>
       </c>
       <c r="T107" t="n">
-        <v>5.241568299772543</v>
+        <v>2.099984059599319</v>
       </c>
       <c r="U107" t="n">
-        <v>0.05960233682659487</v>
+        <v>0.05907350196624216</v>
       </c>
       <c r="V107" t="n">
-        <v>1.12209926002828</v>
+        <v>0.9549930710394238</v>
       </c>
       <c r="W107" t="n">
         <v>0.2745982309727109</v>
       </c>
       <c r="X107" t="n">
-        <v>1.244644860177335</v>
+        <v>0.5180834230488155</v>
       </c>
       <c r="Y107" t="n">
         <v>1.038945460039606</v>
       </c>
       <c r="Z107" t="n">
-        <v>1.282707719283145</v>
+        <v>0.6038283683139517</v>
       </c>
       <c r="AA107" t="n">
         <v>0.2602761675258102</v>
@@ -16802,37 +16802,37 @@
         <v>1.1524397</v>
       </c>
       <c r="P108" t="n">
-        <v>1.68244152570036</v>
+        <v>1.240652090800612</v>
       </c>
       <c r="Q108" t="n">
-        <v>767.6711090213208</v>
+        <v>486.1163693212524</v>
       </c>
       <c r="R108" t="n">
         <v>252</v>
       </c>
       <c r="S108" t="n">
-        <v>0.1909231256382401</v>
+        <v>0.104910968027843</v>
       </c>
       <c r="T108" t="n">
-        <v>2.875494593409262</v>
+        <v>1.356844037186577</v>
       </c>
       <c r="U108" t="n">
-        <v>0.07179289239451637</v>
+        <v>0.07166720227241932</v>
       </c>
       <c r="V108" t="n">
-        <v>1.081273278108835</v>
+        <v>0.9268927538574324</v>
       </c>
       <c r="W108" t="n">
         <v>0.3785828309016294</v>
       </c>
       <c r="X108" t="n">
-        <v>0.9244216151136506</v>
+        <v>0.3847904972910571</v>
       </c>
       <c r="Y108" t="n">
         <v>0.7577367548202441</v>
       </c>
       <c r="Z108" t="n">
-        <v>1.006787928135254</v>
+        <v>0.5541934107827752</v>
       </c>
       <c r="AA108" t="n">
         <v>0.7042087832039807</v>
@@ -16952,37 +16952,37 @@
         <v>1.0748094</v>
       </c>
       <c r="P109" t="n">
-        <v>1.565113015286681</v>
+        <v>1.154451789581836</v>
       </c>
       <c r="Q109" t="n">
-        <v>690.60144114517</v>
+        <v>437.4945303573125</v>
       </c>
       <c r="R109" t="n">
         <v>249</v>
       </c>
       <c r="S109" t="n">
-        <v>0.1872015991054363</v>
+        <v>0.1120639651728229</v>
       </c>
       <c r="T109" t="n">
-        <v>2.712206410208404</v>
+        <v>1.394421974344441</v>
       </c>
       <c r="U109" t="n">
-        <v>0.08567031804509807</v>
+        <v>0.08555559039300965</v>
       </c>
       <c r="V109" t="n">
-        <v>1.241205133272604</v>
+        <v>1.064575888315586</v>
       </c>
       <c r="W109" t="n">
         <v>0.4493382111683308</v>
       </c>
       <c r="X109" t="n">
-        <v>0.8643526740181484</v>
+        <v>0.3597868005600543</v>
       </c>
       <c r="Y109" t="n">
         <v>0.7107619293209102</v>
       </c>
       <c r="Z109" t="n">
-        <v>0.9818666906968577</v>
+        <v>0.588560273102862</v>
       </c>
       <c r="AA109" t="n">
         <v>0.8635237882170249</v>
@@ -17102,37 +17102,37 @@
         <v>1.0815943</v>
       </c>
       <c r="P110" t="n">
-        <v>1.532530274520229</v>
+        <v>1.130793161330462</v>
       </c>
       <c r="Q110" t="n">
-        <v>675.2712614239051</v>
+        <v>427.9957271592475</v>
       </c>
       <c r="R110" t="n">
         <v>184</v>
       </c>
       <c r="S110" t="n">
-        <v>0.2085272618203191</v>
+        <v>0.115132436152367</v>
       </c>
       <c r="T110" t="n">
-        <v>2.96245632743406</v>
+        <v>1.40499204659822</v>
       </c>
       <c r="U110" t="n">
-        <v>0.07890240105850918</v>
+        <v>0.07880241170763717</v>
       </c>
       <c r="V110" t="n">
-        <v>1.120932175606519</v>
+        <v>0.9616469989001662</v>
       </c>
       <c r="W110" t="n">
         <v>0.3557862417536738</v>
       </c>
       <c r="X110" t="n">
-        <v>0.8617460608857832</v>
+        <v>0.3587017978437073</v>
       </c>
       <c r="Y110" t="n">
         <v>0.7039156494342792</v>
       </c>
       <c r="Z110" t="n">
-        <v>0.9402898998120487</v>
+        <v>0.5198132376274159</v>
       </c>
       <c r="AA110" t="n">
         <v>0.832077942315791</v>
@@ -17252,37 +17252,37 @@
         <v>1.503957</v>
       </c>
       <c r="P111" t="n">
-        <v>2.130972944347568</v>
+        <v>1.572543923671815</v>
       </c>
       <c r="Q111" t="n">
-        <v>1087.947267189475</v>
+        <v>689.6760094141158</v>
       </c>
       <c r="R111" t="n">
         <v>208</v>
       </c>
       <c r="S111" t="n">
-        <v>0.2525320370013447</v>
+        <v>0.1225111068460185</v>
       </c>
       <c r="T111" t="n">
-        <v>4.305402572693534</v>
+        <v>1.794259160588362</v>
       </c>
       <c r="U111" t="n">
-        <v>0.06430463324684246</v>
+        <v>0.06399208980173474</v>
       </c>
       <c r="V111" t="n">
-        <v>1.096325585872479</v>
+        <v>0.9372080318910869</v>
       </c>
       <c r="W111" t="n">
         <v>0.3067638159982856</v>
       </c>
       <c r="X111" t="n">
-        <v>1.156831904278332</v>
+        <v>0.4815312801558558</v>
       </c>
       <c r="Y111" t="n">
         <v>0.9452109205760016</v>
       </c>
       <c r="Z111" t="n">
-        <v>1.204698439612928</v>
+        <v>0.5872909410318948</v>
       </c>
       <c r="AA111" t="n">
         <v>0.3205519206769895</v>
@@ -17402,37 +17402,37 @@
         <v>1.0857416</v>
       </c>
       <c r="P112" t="n">
-        <v>1.545031748676968</v>
+        <v>1.14025564906964</v>
       </c>
       <c r="Q112" t="n">
-        <v>681.8745293413598</v>
+        <v>432.3163938869945</v>
       </c>
       <c r="R112" t="n">
         <v>276</v>
       </c>
       <c r="S112" t="n">
-        <v>0.1718923856154598</v>
+        <v>0.09626358153143573</v>
       </c>
       <c r="T112" t="n">
-        <v>2.457968116958373</v>
+        <v>1.182535083280483</v>
       </c>
       <c r="U112" t="n">
-        <v>0.06747584246365022</v>
+        <v>0.06738832789703214</v>
       </c>
       <c r="V112" t="n">
-        <v>0.9648680414011398</v>
+        <v>0.8278214946306174</v>
       </c>
       <c r="W112" t="n">
         <v>0.3726258432128933</v>
       </c>
       <c r="X112" t="n">
-        <v>0.8644115632494309</v>
+        <v>0.3598113132025756</v>
       </c>
       <c r="Y112" t="n">
         <v>0.7085939224964793</v>
       </c>
       <c r="Z112" t="n">
-        <v>0.9492515068091459</v>
+        <v>0.532292451203914</v>
       </c>
       <c r="AA112" t="n">
         <v>0.8266285092338317</v>
@@ -17552,37 +17552,37 @@
         <v>1.7187333</v>
       </c>
       <c r="P113" t="n">
-        <v>2.554253394172338</v>
+        <v>1.885144271958263</v>
       </c>
       <c r="Q113" t="n">
-        <v>1370.193852557634</v>
+        <v>868.7662383024127</v>
       </c>
       <c r="R113" t="n">
         <v>224</v>
       </c>
       <c r="S113" t="n">
-        <v>0.2652075957626747</v>
+        <v>0.1188614074728586</v>
       </c>
       <c r="T113" t="n">
-        <v>5.15799789091322</v>
+        <v>1.985986889365834</v>
       </c>
       <c r="U113" t="n">
-        <v>0.04283138161343823</v>
+        <v>0.04235709412055109</v>
       </c>
       <c r="V113" t="n">
-        <v>0.8330235617561697</v>
+        <v>0.7077203222101976</v>
       </c>
       <c r="W113" t="n">
         <v>0.2103758446825227</v>
       </c>
       <c r="X113" t="n">
-        <v>1.277065125647612</v>
+        <v>0.5315783585508185</v>
       </c>
       <c r="Y113" t="n">
         <v>1.080796253222887</v>
       </c>
       <c r="Z113" t="n">
-        <v>1.302626015624225</v>
+        <v>0.5903513807176821</v>
       </c>
       <c r="AA113" t="n">
         <v>0.2331787444177646</v>
@@ -17707,37 +17707,37 @@
         <v>1.3603567</v>
       </c>
       <c r="P114" t="n">
-        <v>1.923464839662253</v>
+        <v>1.420038294527125</v>
       </c>
       <c r="Q114" t="n">
-        <v>948.0447993486778</v>
+        <v>601.3849655409923</v>
       </c>
       <c r="R114" t="n">
         <v>205</v>
       </c>
       <c r="S114" t="n">
-        <v>0.2298958050980319</v>
+        <v>0.1007723089138993</v>
       </c>
       <c r="T114" t="n">
-        <v>3.664544067827503</v>
+        <v>1.380187257025634</v>
       </c>
       <c r="U114" t="n">
-        <v>0.02241561062971557</v>
+        <v>0.02234493983999535</v>
       </c>
       <c r="V114" t="n">
-        <v>0.3573053145742611</v>
+        <v>0.3060384500321028</v>
       </c>
       <c r="W114" t="n">
         <v>0.1064015000152264</v>
       </c>
       <c r="X114" t="n">
-        <v>1.07791649247666</v>
+        <v>0.44868273999341</v>
       </c>
       <c r="Y114" t="n">
         <v>0.8731019981734591</v>
       </c>
       <c r="Z114" t="n">
-        <v>1.091259966713167</v>
+        <v>0.4798547190198602</v>
       </c>
       <c r="AA114" t="n">
         <v>0.4194914960754469</v>
@@ -17854,37 +17854,37 @@
         <v>1.3517681</v>
       </c>
       <c r="P115" t="n">
-        <v>2.007748297267589</v>
+        <v>1.482357133358896</v>
       </c>
       <c r="Q115" t="n">
-        <v>972.2802237650268</v>
+        <v>616.8176953097602</v>
       </c>
       <c r="R115" t="n">
         <v>273</v>
       </c>
       <c r="S115" t="n">
-        <v>0.2044421048275765</v>
+        <v>0.1089278512971223</v>
       </c>
       <c r="T115" t="n">
-        <v>3.462156392887806</v>
+        <v>1.585028464862483</v>
       </c>
       <c r="U115" t="n">
-        <v>0.07141437587523196</v>
+        <v>0.0711714089440218</v>
       </c>
       <c r="V115" t="n">
-        <v>1.209377775625291</v>
+        <v>1.035627782218294</v>
       </c>
       <c r="W115" t="n">
         <v>0.3910564359285547</v>
       </c>
       <c r="X115" t="n">
-        <v>1.040503685019474</v>
+        <v>0.4331096588893558</v>
       </c>
       <c r="Y115" t="n">
         <v>0.87791897152482</v>
       </c>
       <c r="Z115" t="n">
-        <v>1.119500099073635</v>
+        <v>0.5985119296305045</v>
       </c>
       <c r="AA115" t="n">
         <v>0.4623010070833148</v>
@@ -18004,37 +18004,37 @@
         <v>1.1668174</v>
       </c>
       <c r="P116" t="n">
-        <v>1.680702671756364</v>
+        <v>1.240916447025321</v>
       </c>
       <c r="Q116" t="n">
-        <v>770.5624511920655</v>
+        <v>488.8609166878069</v>
       </c>
       <c r="R116" t="n">
         <v>250</v>
       </c>
       <c r="S116" t="n">
-        <v>0.1982133583891345</v>
+        <v>0.1147779546701397</v>
       </c>
       <c r="T116" t="n">
-        <v>2.967946831451138</v>
+        <v>1.476751780565747</v>
       </c>
       <c r="U116" t="n">
-        <v>0.08474726401282939</v>
+        <v>0.08459776157706411</v>
       </c>
       <c r="V116" t="n">
-        <v>1.268962777005336</v>
+        <v>1.088448521319637</v>
       </c>
       <c r="W116" t="n">
         <v>0.445106512912621</v>
       </c>
       <c r="X116" t="n">
-        <v>0.932627717512841</v>
+        <v>0.38820628741472</v>
       </c>
       <c r="Y116" t="n">
         <v>0.7660815813213432</v>
       </c>
       <c r="Z116" t="n">
-        <v>1.041049027281061</v>
+        <v>0.6038979543912626</v>
       </c>
       <c r="AA116" t="n">
         <v>0.6713280931386338</v>
@@ -18154,37 +18154,37 @@
         <v>1.0187385</v>
       </c>
       <c r="P117" t="n">
-        <v>1.482440429074745</v>
+        <v>1.095570996146926</v>
       </c>
       <c r="Q117" t="n">
-        <v>624.9726923339898</v>
+        <v>397.0598327522936</v>
       </c>
       <c r="R117" t="n">
         <v>225</v>
       </c>
       <c r="S117" t="n">
-        <v>0.1839149696250257</v>
+        <v>0.1147032639678825</v>
       </c>
       <c r="T117" t="n">
-        <v>2.641555850172192</v>
+        <v>1.41628329195206</v>
       </c>
       <c r="U117" t="n">
-        <v>0.09097057189094634</v>
+        <v>0.09087484058575082</v>
       </c>
       <c r="V117" t="n">
-        <v>1.306602974526662</v>
+        <v>1.122065004326676</v>
       </c>
       <c r="W117" t="n">
         <v>0.4537571328353454</v>
       </c>
       <c r="X117" t="n">
-        <v>0.7881256831823723</v>
+        <v>0.3280573156246624</v>
       </c>
       <c r="Y117" t="n">
         <v>0.6716431457770439</v>
       </c>
       <c r="Z117" t="n">
-        <v>0.9173596204560822</v>
+        <v>0.5727374469043434</v>
       </c>
       <c r="AA117" t="n">
         <v>1.052223595027923</v>
@@ -18304,37 +18304,37 @@
         <v>1.3651187</v>
       </c>
       <c r="P118" t="n">
-        <v>1.952023869718389</v>
+        <v>1.442634162899809</v>
       </c>
       <c r="Q118" t="n">
-        <v>962.9624243450199</v>
+        <v>611.8091580980232</v>
       </c>
       <c r="R118" t="n">
         <v>250</v>
       </c>
       <c r="S118" t="n">
-        <v>0.2231778128121426</v>
+        <v>0.1210760432558259</v>
       </c>
       <c r="T118" t="n">
-        <v>3.607124915946495</v>
+        <v>1.682301876414897</v>
       </c>
       <c r="U118" t="n">
-        <v>0.08222579808366341</v>
+        <v>0.08195454462516796</v>
       </c>
       <c r="V118" t="n">
-        <v>1.328979441387511</v>
+        <v>1.138724726181654</v>
       </c>
       <c r="W118" t="n">
         <v>0.4309317031786681</v>
       </c>
       <c r="X118" t="n">
-        <v>1.079124754616601</v>
+        <v>0.4491856791091602</v>
       </c>
       <c r="Y118" t="n">
         <v>0.8854392673662566</v>
       </c>
       <c r="Z118" t="n">
-        <v>1.169637719891398</v>
+        <v>0.6366395637118117</v>
       </c>
       <c r="AA118" t="n">
         <v>0.4205445103373238</v>
@@ -18448,37 +18448,37 @@
         <v>1.9746591</v>
       </c>
       <c r="P119" t="n">
-        <v>2.858900125248158</v>
+        <v>2.112890654349987</v>
       </c>
       <c r="Q119" t="n">
-        <v>1586.855673537546</v>
+        <v>1008.218092628447</v>
       </c>
       <c r="R119" t="n">
         <v>238</v>
       </c>
       <c r="S119" t="n">
-        <v>0.2805330866313701</v>
+        <v>0.1283654289603217</v>
       </c>
       <c r="T119" t="n">
-        <v>5.901927723994929</v>
+        <v>2.321650769351456</v>
       </c>
       <c r="U119" t="n">
-        <v>0.05746968779371057</v>
+        <v>0.05631459560205389</v>
       </c>
       <c r="V119" t="n">
-        <v>1.20906217427654</v>
+        <v>1.018520525846859</v>
       </c>
       <c r="W119" t="n">
         <v>0.2877701064436989</v>
       </c>
       <c r="X119" t="n">
-        <v>1.366142340250358</v>
+        <v>0.5686567491292115</v>
       </c>
       <c r="Y119" t="n">
         <v>1.187111093213598</v>
       </c>
       <c r="Z119" t="n">
-        <v>1.404723764824832</v>
+        <v>0.6559530928116192</v>
       </c>
       <c r="AA119" t="n">
         <v>0.1607430578859499</v>
@@ -18598,37 +18598,37 @@
         <v>1.3386252</v>
       </c>
       <c r="P120" t="n">
-        <v>1.975339411661693</v>
+        <v>1.461652585272679</v>
       </c>
       <c r="Q120" t="n">
-        <v>951.035897625103</v>
+        <v>605.3416489537706</v>
       </c>
       <c r="R120" t="n">
         <v>260</v>
       </c>
       <c r="S120" t="n">
-        <v>0.2081372313033686</v>
+        <v>0.1127724768334621</v>
       </c>
       <c r="T120" t="n">
-        <v>3.488073107534592</v>
+        <v>1.625699004607307</v>
       </c>
       <c r="U120" t="n">
-        <v>0.07604257412250205</v>
+        <v>0.07580145499646382</v>
       </c>
       <c r="V120" t="n">
-        <v>1.274361420892565</v>
+        <v>1.092734268109748</v>
       </c>
       <c r="W120" t="n">
         <v>0.4064863541165106</v>
       </c>
       <c r="X120" t="n">
-        <v>1.027106246249814</v>
+        <v>0.427532975001485</v>
       </c>
       <c r="Y120" t="n">
         <v>0.8774776619038849</v>
       </c>
       <c r="Z120" t="n">
-        <v>1.112599688854765</v>
+        <v>0.6047439716673136</v>
       </c>
       <c r="AA120" t="n">
         <v>0.4738500191087539</v>
@@ -18748,37 +18748,37 @@
         <v>1.189441</v>
       </c>
       <c r="P121" t="n">
-        <v>1.724971096629821</v>
+        <v>1.276596216266765</v>
       </c>
       <c r="Q121" t="n">
-        <v>796.6952557435292</v>
+        <v>507.2240373321703</v>
       </c>
       <c r="R121" t="n">
         <v>233</v>
       </c>
       <c r="S121" t="n">
-        <v>0.2078822493922531</v>
+        <v>0.1200920133542925</v>
       </c>
       <c r="T121" t="n">
-        <v>3.171305491763288</v>
+        <v>1.576052438345598</v>
       </c>
       <c r="U121" t="n">
-        <v>0.08844133266763185</v>
+        <v>0.08827162808503783</v>
       </c>
       <c r="V121" t="n">
-        <v>1.349198812345432</v>
+        <v>1.158451014304583</v>
       </c>
       <c r="W121" t="n">
         <v>0.448331225108561</v>
       </c>
       <c r="X121" t="n">
-        <v>0.9451141627892796</v>
+        <v>0.3934037702610377</v>
       </c>
       <c r="Y121" t="n">
         <v>0.7916892078966967</v>
       </c>
       <c r="Z121" t="n">
-        <v>1.053807091516861</v>
+        <v>0.6099468270939227</v>
       </c>
       <c r="AA121" t="n">
         <v>0.6409421272864871</v>
@@ -18898,37 +18898,37 @@
         <v>1.3032478</v>
       </c>
       <c r="P122" t="n">
-        <v>1.967485811377747</v>
+        <v>1.456302350072018</v>
       </c>
       <c r="Q122" t="n">
-        <v>939.3540787418856</v>
+        <v>598.1901221659026</v>
       </c>
       <c r="R122" t="n">
         <v>229</v>
       </c>
       <c r="S122" t="n">
-        <v>0.2098205104297075</v>
+        <v>0.1023287266322365</v>
       </c>
       <c r="T122" t="n">
-        <v>3.531759240409246</v>
+        <v>1.481871997508803</v>
       </c>
       <c r="U122" t="n">
-        <v>0.05308938016878421</v>
+        <v>0.05292723682839118</v>
       </c>
       <c r="V122" t="n">
-        <v>0.8936157318210198</v>
+        <v>0.7664650264181179</v>
       </c>
       <c r="W122" t="n">
         <v>0.26637686018865</v>
       </c>
       <c r="X122" t="n">
-        <v>1.009852552135871</v>
+        <v>0.4203511248265561</v>
       </c>
       <c r="Y122" t="n">
         <v>0.8707813357533756</v>
       </c>
       <c r="Z122" t="n">
-        <v>1.052777949069156</v>
+        <v>0.5150090301478982</v>
       </c>
       <c r="AA122" t="n">
         <v>0.5200938286879409</v>
@@ -19048,37 +19048,37 @@
         <v>1.2912588</v>
       </c>
       <c r="P123" t="n">
-        <v>1.8643957554945</v>
+        <v>1.380059509149012</v>
       </c>
       <c r="Q123" t="n">
-        <v>886.3814530477657</v>
+        <v>564.4951600723143</v>
       </c>
       <c r="R123" t="n">
         <v>249</v>
       </c>
       <c r="S123" t="n">
-        <v>0.1998451565995953</v>
+        <v>0.09821776727059615</v>
       </c>
       <c r="T123" t="n">
-        <v>3.201094066141516</v>
+        <v>1.353551300878296</v>
       </c>
       <c r="U123" t="n">
-        <v>0.05228170739382317</v>
+        <v>0.05214695364999599</v>
       </c>
       <c r="V123" t="n">
-        <v>0.8374416781159724</v>
+        <v>0.7186436722322351</v>
       </c>
       <c r="W123" t="n">
         <v>0.273720767025632</v>
       </c>
       <c r="X123" t="n">
-        <v>1.001326665775029</v>
+        <v>0.4168022246288557</v>
       </c>
       <c r="Y123" t="n">
         <v>0.8451206789259191</v>
       </c>
       <c r="Z123" t="n">
-        <v>1.046288889128007</v>
+        <v>0.5155477110570325</v>
       </c>
       <c r="AA123" t="n">
         <v>0.5109985161810369</v>
@@ -19198,37 +19198,37 @@
         <v>1.154382</v>
       </c>
       <c r="P124" t="n">
-        <v>1.722474702476978</v>
+        <v>1.275094618914524</v>
       </c>
       <c r="Q124" t="n">
-        <v>779.093542820114</v>
+        <v>496.219636152806</v>
       </c>
       <c r="R124" t="n">
         <v>249</v>
       </c>
       <c r="S124" t="n">
-        <v>0.1953980233351867</v>
+        <v>0.1158140042655436</v>
       </c>
       <c r="T124" t="n">
-        <v>3.039383656331229</v>
+        <v>1.549962588480364</v>
       </c>
       <c r="U124" t="n">
-        <v>0.08773181935917405</v>
+        <v>0.08757325570352356</v>
       </c>
       <c r="V124" t="n">
-        <v>1.364653814552993</v>
+        <v>1.172010854409853</v>
       </c>
       <c r="W124" t="n">
         <v>0.4598247440700551</v>
       </c>
       <c r="X124" t="n">
-        <v>0.9062880635601479</v>
+        <v>0.3772424064569116</v>
       </c>
       <c r="Y124" t="n">
         <v>0.7776091268611651</v>
       </c>
       <c r="Z124" t="n">
-        <v>1.024130660097857</v>
+        <v>0.6081096842102346</v>
       </c>
       <c r="AA124" t="n">
         <v>0.7299905426345262</v>
@@ -19348,37 +19348,37 @@
         <v>1.2185898</v>
       </c>
       <c r="P125" t="n">
-        <v>1.753308113877347</v>
+        <v>1.298646844364373</v>
       </c>
       <c r="Q125" t="n">
-        <v>816.8790944553372</v>
+        <v>520.7233045927522</v>
       </c>
       <c r="R125" t="n">
         <v>250</v>
       </c>
       <c r="S125" t="n">
-        <v>0.1890384992534518</v>
+        <v>0.08935993015578497</v>
       </c>
       <c r="T125" t="n">
-        <v>2.905749839444801</v>
+        <v>1.182135319522463</v>
       </c>
       <c r="U125" t="n">
-        <v>0.04011589927875898</v>
+        <v>0.04003367111360257</v>
       </c>
       <c r="V125" t="n">
-        <v>0.6166297783191336</v>
+        <v>0.5296022110920598</v>
       </c>
       <c r="W125" t="n">
         <v>0.2106048616899996</v>
       </c>
       <c r="X125" t="n">
-        <v>0.9612705593094694</v>
+        <v>0.4001288703125666</v>
       </c>
       <c r="Y125" t="n">
         <v>0.8082051319580108</v>
       </c>
       <c r="Z125" t="n">
-        <v>0.9924351118918742</v>
+        <v>0.4700951775739752</v>
       </c>
       <c r="AA125" t="n">
         <v>0.5953509816737408</v>
@@ -19503,37 +19503,37 @@
         <v>1.0906641</v>
       </c>
       <c r="P126" t="n">
-        <v>1.651055436245126</v>
+        <v>1.223081293468715</v>
       </c>
       <c r="Q126" t="n">
-        <v>720.7862659486707</v>
+        <v>459.5650630720958</v>
       </c>
       <c r="R126" t="n">
         <v>255</v>
       </c>
       <c r="S126" t="n">
-        <v>0.1675597768718184</v>
+        <v>0.0845344717447148</v>
       </c>
       <c r="T126" t="n">
-        <v>2.588426512958271</v>
+        <v>1.12394935783787</v>
       </c>
       <c r="U126" t="n">
-        <v>0.04727839284415747</v>
+        <v>0.04720854863498511</v>
       </c>
       <c r="V126" t="n">
-        <v>0.7303461953252106</v>
+        <v>0.6276731471509641</v>
       </c>
       <c r="W126" t="n">
         <v>0.2508873045069477</v>
       </c>
       <c r="X126" t="n">
-        <v>0.8439167997225401</v>
+        <v>0.3512803678845073</v>
       </c>
       <c r="Y126" t="n">
         <v>0.7407261599323092</v>
       </c>
       <c r="Z126" t="n">
-        <v>0.8891719501068264</v>
+        <v>0.4492539247061926</v>
       </c>
       <c r="AA126" t="n">
         <v>0.8906056203022326</v>
@@ -19658,37 +19658,37 @@
         <v>1.7000881</v>
       </c>
       <c r="P127" t="n">
-        <v>2.652124038400704</v>
+        <v>1.966879871005013</v>
       </c>
       <c r="Q127" t="n">
-        <v>1378.715912002045</v>
+        <v>880.5434556861593</v>
       </c>
       <c r="R127" t="n">
         <v>217</v>
       </c>
       <c r="S127" t="n">
-        <v>0.2610197418566593</v>
+        <v>0.1308362374962406</v>
       </c>
       <c r="T127" t="n">
-        <v>5.439205783323088</v>
+        <v>2.347913984338409</v>
       </c>
       <c r="U127" t="n">
-        <v>0.07716834372779571</v>
+        <v>0.0762985939421869</v>
       </c>
       <c r="V127" t="n">
-        <v>1.608056534375819</v>
+        <v>1.369211918122957</v>
       </c>
       <c r="W127" t="n">
         <v>0.3729358253751657</v>
       </c>
       <c r="X127" t="n">
-        <v>1.195846822560455</v>
+        <v>0.4977712398907895</v>
       </c>
       <c r="Y127" t="n">
         <v>1.100566115230418</v>
       </c>
       <c r="Z127" t="n">
-        <v>1.26144489004321</v>
+        <v>0.6395074627012602</v>
       </c>
       <c r="AA127" t="n">
         <v>0.2663815632047701</v>
@@ -19805,37 +19805,37 @@
         <v>1.2238271</v>
       </c>
       <c r="P128" t="n">
-        <v>1.842243731390064</v>
+        <v>1.366879624285744</v>
       </c>
       <c r="Q128" t="n">
-        <v>855.0362577847289</v>
+        <v>546.4611663046263</v>
       </c>
       <c r="R128" t="n">
         <v>242</v>
       </c>
       <c r="S128" t="n">
-        <v>0.279906476974039</v>
+        <v>0.2235021720458592</v>
       </c>
       <c r="T128" t="n">
-        <v>4.538076886846752</v>
+        <v>3.121276487199821</v>
       </c>
       <c r="U128" t="n">
-        <v>0.2089205454899097</v>
+        <v>0.2084362774820702</v>
       </c>
       <c r="V128" t="n">
-        <v>3.38719385462134</v>
+        <v>2.910876641730142</v>
       </c>
       <c r="W128" t="n">
         <v>1.078698409829479</v>
       </c>
       <c r="X128" t="n">
-        <v>0.9529441504795743</v>
+        <v>0.3966630026371228</v>
       </c>
       <c r="Y128" t="n">
         <v>0.8335209099840005</v>
       </c>
       <c r="Z128" t="n">
-        <v>1.445212920083297</v>
+        <v>1.156667354127171</v>
       </c>
       <c r="AA128" t="n">
         <v>0.6222981753795759</v>
@@ -19955,37 +19955,37 @@
         <v>1.8717903</v>
       </c>
       <c r="P129" t="n">
-        <v>2.865440328899658</v>
+        <v>2.131528392517024</v>
       </c>
       <c r="Q129" t="n">
-        <v>1519.803373121171</v>
+        <v>975.0727814161773</v>
       </c>
       <c r="R129" t="n">
         <v>243</v>
       </c>
       <c r="S129" t="n">
-        <v>0.3423281596025226</v>
+        <v>0.2559347672225631</v>
       </c>
       <c r="T129" t="n">
-        <v>7.554178058023462</v>
+        <v>4.871063091477658</v>
       </c>
       <c r="U129" t="n">
-        <v>0.2375703514724045</v>
+        <v>0.2336222238814021</v>
       </c>
       <c r="V129" t="n">
-        <v>5.242480602278023</v>
+        <v>4.446400949926522</v>
       </c>
       <c r="W129" t="n">
         <v>1.206902400713405</v>
       </c>
       <c r="X129" t="n">
-        <v>1.24249376799764</v>
+        <v>0.5171880309290177</v>
       </c>
       <c r="Y129" t="n">
         <v>1.184758325503238</v>
       </c>
       <c r="Z129" t="n">
-        <v>1.739091915701769</v>
+        <v>1.322169953932742</v>
       </c>
       <c r="AA129" t="n">
         <v>0.2071639806020718</v>
@@ -20102,37 +20102,37 @@
         <v>1.29371</v>
       </c>
       <c r="P130" t="n">
-        <v>1.985694857738427</v>
+        <v>1.477936038466737</v>
       </c>
       <c r="Q130" t="n">
-        <v>942.2558822683638</v>
+        <v>605.0392506059865</v>
       </c>
       <c r="R130" t="n">
         <v>246</v>
       </c>
       <c r="S130" t="n">
-        <v>0.374279685209408</v>
+        <v>0.3304522886183035</v>
       </c>
       <c r="T130" t="n">
-        <v>6.397373081970478</v>
+        <v>4.872880388587285</v>
       </c>
       <c r="U130" t="n">
-        <v>0.3207300012484742</v>
+        <v>0.3197505609100884</v>
       </c>
       <c r="V130" t="n">
-        <v>5.48207545760694</v>
+        <v>4.715071709787069</v>
       </c>
       <c r="W130" t="n">
         <v>1.66786686825826</v>
       </c>
       <c r="X130" t="n">
-        <v>0.9941705828986513</v>
+        <v>0.4138235051315636</v>
       </c>
       <c r="Y130" t="n">
         <v>0.898493054617561</v>
       </c>
       <c r="Z130" t="n">
-        <v>1.946337056068814</v>
+        <v>1.723688684572985</v>
       </c>
       <c r="AA130" t="n">
         <v>0.5432197344943213</v>
@@ -20252,37 +20252,37 @@
         <v>1.4507031</v>
       </c>
       <c r="P131" t="n">
-        <v>2.226570870469805</v>
+        <v>1.658171538706007</v>
       </c>
       <c r="Q131" t="n">
-        <v>1099.547429287789</v>
+        <v>706.648380148843</v>
       </c>
       <c r="R131" t="n">
         <v>256</v>
       </c>
       <c r="S131" t="n">
-        <v>0.3254002687084177</v>
+        <v>0.2663940985266746</v>
       </c>
       <c r="T131" t="n">
-        <v>5.992751150100832</v>
+        <v>4.233790879818017</v>
       </c>
       <c r="U131" t="n">
-        <v>0.2525862383337623</v>
+        <v>0.2513326085287509</v>
       </c>
       <c r="V131" t="n">
-        <v>4.651767732959897</v>
+        <v>3.994419214520805</v>
       </c>
       <c r="W131" t="n">
         <v>1.336476276601599</v>
       </c>
       <c r="X131" t="n">
-        <v>1.07632513202744</v>
+        <v>0.4480203362064221</v>
       </c>
       <c r="Y131" t="n">
         <v>0.9884347448153088</v>
       </c>
       <c r="Z131" t="n">
-        <v>1.721747559951905</v>
+        <v>1.416566656398833</v>
       </c>
       <c r="AA131" t="n">
         <v>0.3988710738074556</v>
@@ -20407,37 +20407,37 @@
         <v>1.3849748</v>
       </c>
       <c r="P132" t="n">
-        <v>2.202617345650118</v>
+        <v>1.643165843958127</v>
       </c>
       <c r="Q132" t="n">
-        <v>1075.230485536771</v>
+        <v>692.8114952454029</v>
       </c>
       <c r="R132" t="n">
         <v>197</v>
       </c>
       <c r="S132" t="n">
-        <v>0.6736569093162202</v>
+        <v>0.6385336411494568</v>
       </c>
       <c r="T132" t="n">
-        <v>12.41551009314516</v>
+        <v>10.16437674197399</v>
       </c>
       <c r="U132" t="n">
-        <v>0.6338143194749426</v>
+        <v>0.6309002809125057</v>
       </c>
       <c r="V132" t="n">
-        <v>11.68121037845282</v>
+        <v>10.04286654383328</v>
       </c>
       <c r="W132" t="n">
         <v>2.943270980723555</v>
       </c>
       <c r="X132" t="n">
-        <v>1.050565422792807</v>
+        <v>0.437297857237506</v>
       </c>
       <c r="Y132" t="n">
         <v>0.9831031826595126</v>
       </c>
       <c r="Z132" t="n">
-        <v>3.128289739172953</v>
+        <v>2.97888207228676</v>
       </c>
       <c r="AA132" t="n">
         <v>0.4640608572031384</v>
@@ -20551,37 +20551,37 @@
         <v>1.4334989</v>
       </c>
       <c r="P133" t="n">
-        <v>2.32176029133338</v>
+        <v>1.73373052914741</v>
       </c>
       <c r="Q133" t="n">
-        <v>1149.081249275396</v>
+        <v>741.4759413793752</v>
       </c>
       <c r="R133" t="n">
         <v>170</v>
       </c>
       <c r="S133" t="n">
-        <v>0.3549097968459459</v>
+        <v>0.2705905444773089</v>
       </c>
       <c r="T133" t="n">
-        <v>6.80066318955974</v>
+        <v>4.480515706045244</v>
       </c>
       <c r="U133" t="n">
-        <v>0.2491636045553878</v>
+        <v>0.2477347503888988</v>
       </c>
       <c r="V133" t="n">
-        <v>4.774389911849516</v>
+        <v>4.102062923871827</v>
       </c>
       <c r="W133" t="n">
         <v>1.073213502113062</v>
       </c>
       <c r="X133" t="n">
-        <v>1.079144284107649</v>
+        <v>0.449193808259809</v>
       </c>
       <c r="Y133" t="n">
         <v>1.027347738803532</v>
       </c>
       <c r="Z133" t="n">
-        <v>1.528690302449859</v>
+        <v>1.17222725282301</v>
       </c>
       <c r="AA133" t="n">
         <v>0.4291855539202961</v>
@@ -20706,37 +20706,37 @@
         <v>1.6262349</v>
       </c>
       <c r="P134" t="n">
-        <v>2.362700961814471</v>
+        <v>1.765430836636996</v>
       </c>
       <c r="Q134" t="n">
-        <v>1187.663372872443</v>
+        <v>767.1076048326654</v>
       </c>
       <c r="R134" t="n">
         <v>221</v>
       </c>
       <c r="S134" t="n">
-        <v>0.5499122950767725</v>
+        <v>0.5065130585251847</v>
       </c>
       <c r="T134" t="n">
-        <v>10.55763980265047</v>
+        <v>8.40591574505407</v>
       </c>
       <c r="U134" t="n">
-        <v>0.5000951789134136</v>
+        <v>0.496882449149389</v>
       </c>
       <c r="V134" t="n">
-        <v>9.601212435653496</v>
+        <v>8.246089478733946</v>
       </c>
       <c r="W134" t="n">
         <v>2.453754500478674</v>
       </c>
       <c r="X134" t="n">
-        <v>1.112730438979679</v>
+        <v>0.4631740452252914</v>
       </c>
       <c r="Y134" t="n">
         <v>1.054849010404501</v>
       </c>
       <c r="Z134" t="n">
-        <v>2.698185917018835</v>
+        <v>2.501313336856705</v>
       </c>
       <c r="AA134" t="n">
         <v>0.2899854730639344</v>
